--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -30,12 +30,22 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffe4b5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00eee8aa"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -50,9 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -529,33 +541,33 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>BCIO:008500</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>An attribute of a BCI delivery that involves its temporal organisation.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Includes the start and end of a BCI, its parts, and their organisation around relevant timepoints.</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>This sub-ontology is used to capture descriptions of the intervention schedule within published reports. This includes descriptions of the duration and frequency of contact events, the length of parts of the intervention (e.g. 6 weeks), the order through which intervention content is presented, and the relative timing of contact events and key timepoints of relevance for the intervention (e.g. quit date/childbirth). 
 Schedule is annotated for all arms of the intervention, including control arms even when no content is delivered targeting the target behaviour. This is because it's often important to know whether the contact time of the control and intervention groups matched. 
@@ -564,27 +576,31 @@
 Schedule does not include things like 'number of booklets'. This forms part of dose</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr"/>
+      <c r="I2" s="2" t="inlineStr"/>
+      <c r="J2" s="2" t="inlineStr"/>
+      <c r="K2" s="2" t="inlineStr"/>
+      <c r="L2" s="2" t="inlineStr">
         <is>
           <t>BCI delivery</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+      <c r="M2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="inlineStr"/>
+      <c r="P2" s="2" t="inlineStr"/>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>JH; CM</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="inlineStr"/>
+      <c r="T2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -925,104 +941,124 @@
       <c r="T9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>BCIO:008535</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>fixed schedule</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events remain constant across the course of a temporal part or BCI.  </t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr"/>
+      <c r="E10" s="3" t="inlineStr"/>
+      <c r="F10" s="3" t="inlineStr">
         <is>
           <t>the "length and regularity of sessions were consistent across the duration of the intervention", taking place for an hour each week</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G10" s="3" t="inlineStr">
         <is>
           <t>This is used to capture when the author specifies that the schedule (length and frequency of contact events) does not change over the course of a part. This is rarely annotated as it is not usually explicitly stated.</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
+      <c r="H10" s="3" t="inlineStr"/>
+      <c r="I10" s="3" t="inlineStr"/>
+      <c r="J10" s="3" t="inlineStr"/>
+      <c r="K10" s="3" t="inlineStr"/>
+      <c r="L10" s="3" t="inlineStr"/>
+      <c r="M10" s="3" t="inlineStr"/>
+      <c r="N10" s="3" t="inlineStr"/>
+      <c r="O10" s="3" t="inlineStr"/>
+      <c r="P10" s="3" t="inlineStr">
         <is>
           <t>relationship? is about schedule? or is a type of schedule?</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
+      <c r="Q10" s="3" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R10" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S10" s="3" t="inlineStr"/>
+      <c r="T10" s="3" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>BCIO:008520</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>frequency of contact events</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A data item that is how often contact events occur within a BCI or temporal part </t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>data item - Frequency (SIO_001367)</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="E11" s="3" t="inlineStr"/>
+      <c r="F11" s="3" t="inlineStr">
         <is>
           <t>intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks"</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G11" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">This is used to capture descriptions of the frequency of contact events within a part. </t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
+      <c r="H11" s="3" t="inlineStr"/>
+      <c r="I11" s="3" t="inlineStr"/>
+      <c r="J11" s="3" t="inlineStr"/>
+      <c r="K11" s="3" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr">
+      <c r="L11" s="3" t="inlineStr"/>
+      <c r="M11" s="3" t="inlineStr"/>
+      <c r="N11" s="3" t="inlineStr"/>
+      <c r="O11" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
+      <c r="P11" s="3" t="inlineStr">
+        <is>
+          <t>needs to link to period and repetition. could it be 'has attribute' period, and 'has attribute' repetition?</t>
+        </is>
+      </c>
+      <c r="Q11" s="3" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R11" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S11" s="3" t="inlineStr"/>
+      <c r="T11" s="3" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -39,7 +39,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
+        <fgColor rgb="007fffd4"/>
       </patternFill>
     </fill>
     <fill>
@@ -596,349 +596,433 @@
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="S2" s="2" t="inlineStr"/>
       <c r="T2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>BCIO:008590</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>after</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>A part of a BCI schedule which is the relation a specified temporal part is in when it starts following the end of another temporal part or timepoint</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr"/>
+      <c r="E3" s="3" t="inlineStr"/>
+      <c r="F3" s="3" t="inlineStr"/>
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>This is not annotated</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr">
+      <c r="H3" s="3" t="inlineStr"/>
+      <c r="I3" s="3" t="inlineStr"/>
+      <c r="J3" s="3" t="inlineStr"/>
+      <c r="K3" s="3" t="inlineStr"/>
+      <c r="L3" s="3" t="inlineStr"/>
+      <c r="M3" s="3" t="inlineStr"/>
+      <c r="N3" s="3" t="inlineStr"/>
+      <c r="O3" s="3" t="inlineStr"/>
+      <c r="P3" s="3" t="inlineStr">
         <is>
           <t>not sure about definitions and relationships</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+      <c r="Q3" s="3" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R3" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S3" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T3" s="3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>BCIO:008585</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>before</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>A part of a BCI schedule which is the relation a specified temporal part is in when it ends prior to the beginning of another temporal part or timepoint</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr"/>
+      <c r="F4" s="3" t="inlineStr"/>
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">This is not annotated </t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr">
+      <c r="H4" s="3" t="inlineStr"/>
+      <c r="I4" s="3" t="inlineStr"/>
+      <c r="J4" s="3" t="inlineStr"/>
+      <c r="K4" s="3" t="inlineStr"/>
+      <c r="L4" s="3" t="inlineStr"/>
+      <c r="M4" s="3" t="inlineStr"/>
+      <c r="N4" s="3" t="inlineStr"/>
+      <c r="O4" s="3" t="inlineStr"/>
+      <c r="P4" s="3" t="inlineStr">
         <is>
           <t>not sure about definitions and relationships</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+      <c r="Q4" s="3" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R4" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S4" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T4" s="3" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>BCIO:008510</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A planned process that is a planned occasion on which a member of a BCI population comes into contact with a BCI.  </t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr"/>
+      <c r="E5" s="3" t="inlineStr"/>
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A counselling session; An online chat session; An advertisement display. </t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>This entity is never annotated. We have defined it as part of the schedule ontology as it is part of the definition of some other entities, but there is no need to annotate it as contact events are also parts so what is expressed can be sufficiently captured using just 'part' if needed.</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
+      <c r="H5" s="3" t="inlineStr"/>
+      <c r="I5" s="3" t="inlineStr">
         <is>
           <t>temporal part</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
+      <c r="J5" s="3" t="inlineStr"/>
+      <c r="K5" s="3" t="inlineStr"/>
+      <c r="L5" s="3" t="inlineStr"/>
+      <c r="M5" s="3" t="inlineStr"/>
+      <c r="N5" s="3" t="inlineStr"/>
+      <c r="O5" s="3" t="inlineStr"/>
+      <c r="P5" s="3" t="inlineStr"/>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>BCIO:008560</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>duration of BCI</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>A data item that the length of time from start to end of a BCI</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>data item - Time measurement datum (IAO_0000416 )</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr"/>
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">The intervention ran over "6" weeks, with weekly counselling sessions and biweekly exercise classes”  </t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t>This is used to capture the overall duration of intervention delivery from first to last contact of an intervention. It does not include follow-up periods during which no content is delivered. We annotate only the number and the unit is derived from the context</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
+      <c r="H6" s="3" t="inlineStr"/>
+      <c r="I6" s="3" t="inlineStr"/>
+      <c r="J6" s="3" t="inlineStr"/>
+      <c r="K6" s="3" t="inlineStr">
         <is>
           <t>BCI</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
+      <c r="L6" s="3" t="inlineStr"/>
+      <c r="M6" s="3" t="inlineStr"/>
+      <c r="N6" s="3" t="inlineStr"/>
+      <c r="O6" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
+      <c r="P6" s="3" t="inlineStr"/>
+      <c r="Q6" s="3" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R6" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S6" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T6" s="3" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>BCIO:008525</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>duration of contact events</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>A data item that is the length of time from start to end of a single contact event</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>data item - Time measurement datum (IAO_0000416 )</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr"/>
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>counselling sessions were "1"hr long; for the first 5 weeks, participants received telephone calls for "30" minutes two times a week;</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
+      <c r="G7" s="3" t="inlineStr"/>
+      <c r="H7" s="3" t="inlineStr"/>
+      <c r="I7" s="3" t="inlineStr"/>
+      <c r="J7" s="3" t="inlineStr"/>
+      <c r="K7" s="3" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
+      <c r="L7" s="3" t="inlineStr"/>
+      <c r="M7" s="3" t="inlineStr"/>
+      <c r="N7" s="3" t="inlineStr"/>
+      <c r="O7" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
+      <c r="P7" s="3" t="inlineStr"/>
+      <c r="Q7" s="3" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R7" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S7" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T7" s="3" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>BCIO:008575</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>duration of interval</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>A data item that the length of time from start to end of an interval</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>data item - Time measurement datum (IAO_0000416 )</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr"/>
+      <c r="F8" s="3" t="inlineStr"/>
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t>This is used to capture intervals between BCI parts and timepoints. We annotate only the number and the unit is derived from the context</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
+      <c r="H8" s="3" t="inlineStr"/>
+      <c r="I8" s="3" t="inlineStr"/>
+      <c r="J8" s="3" t="inlineStr"/>
+      <c r="K8" s="3" t="inlineStr">
         <is>
           <t>interval</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr">
+      <c r="L8" s="3" t="inlineStr"/>
+      <c r="M8" s="3" t="inlineStr"/>
+      <c r="N8" s="3" t="inlineStr"/>
+      <c r="O8" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
+      <c r="P8" s="3" t="inlineStr"/>
+      <c r="Q8" s="3" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R8" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S8" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T8" s="3" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>BCIO:008565</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>duration of part</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>A data item that the length of time from start to end of a temporal part</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>data item - Time measurement datum (IAO_0000416 )</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr"/>
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>The counselling sessions ran over a "6" week period, whilst the exercise classes took place over "2" weeks</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" s="3" t="inlineStr">
         <is>
           <t>This is used to capture the overal duration of parts. We annotate only the number and the unit is derived from the context</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
+      <c r="H9" s="3" t="inlineStr"/>
+      <c r="I9" s="3" t="inlineStr"/>
+      <c r="J9" s="3" t="inlineStr"/>
+      <c r="K9" s="3" t="inlineStr">
         <is>
           <t>temporal part</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr">
+      <c r="L9" s="3" t="inlineStr"/>
+      <c r="M9" s="3" t="inlineStr"/>
+      <c r="N9" s="3" t="inlineStr"/>
+      <c r="O9" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
+      <c r="P9" s="3" t="inlineStr"/>
+      <c r="Q9" s="3" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R9" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S9" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T9" s="3" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
@@ -991,7 +1075,11 @@
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S10" s="3" t="inlineStr"/>
+      <c r="S10" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
       <c r="T10" s="3" t="inlineStr"/>
     </row>
     <row r="11">
@@ -1057,178 +1145,218 @@
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S11" s="3" t="inlineStr"/>
+      <c r="S11" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
       <c r="T11" s="3" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>BCIO:008555</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>frequency of sum duration of contact events</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A data item which describes how often a specified sum duration of contact events occured during a BCI or temporal part </t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>data item - Frequency (SIO_001367)</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr"/>
+      <c r="F12" s="3" t="inlineStr">
         <is>
           <t>The participants took part in 90 minutes of PA "per week"</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G12" s="3" t="inlineStr">
         <is>
           <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
+      <c r="H12" s="3" t="inlineStr"/>
+      <c r="I12" s="3" t="inlineStr"/>
+      <c r="J12" s="3" t="inlineStr"/>
+      <c r="K12" s="3" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr">
+      <c r="L12" s="3" t="inlineStr"/>
+      <c r="M12" s="3" t="inlineStr"/>
+      <c r="N12" s="3" t="inlineStr"/>
+      <c r="O12" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="P12" s="3" t="inlineStr">
         <is>
           <t>is about contact events or is about duration of contact events?</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
+      <c r="Q12" s="3" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R12" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S12" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T12" s="3" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>BCIO:008570</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>interval</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr"/>
+      <c r="D13" s="3" t="inlineStr"/>
+      <c r="E13" s="3" t="inlineStr"/>
+      <c r="F13" s="3" t="inlineStr"/>
+      <c r="G13" s="3" t="inlineStr">
         <is>
           <t>This is not annotated but included due to relationship with duration of interval</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr">
+      <c r="H13" s="3" t="inlineStr"/>
+      <c r="I13" s="3" t="inlineStr"/>
+      <c r="J13" s="3" t="inlineStr"/>
+      <c r="K13" s="3" t="inlineStr"/>
+      <c r="L13" s="3" t="inlineStr"/>
+      <c r="M13" s="3" t="inlineStr"/>
+      <c r="N13" s="3" t="inlineStr"/>
+      <c r="O13" s="3" t="inlineStr"/>
+      <c r="P13" s="3" t="inlineStr">
         <is>
           <t>entity added so duration of interval can be specified. not sure what parent/relationships should be</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
+      <c r="Q13" s="3" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R13" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S13" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T13" s="3" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>BCIO:008515</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>number of contact events</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>A count data item that is the number of contact events in BCI or temporal part</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">data item - Count (STATO_0000047) </t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr"/>
+      <c r="F14" s="3" t="inlineStr">
         <is>
           <t>participants attended "a" gp visit ; at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G14" s="3" t="inlineStr">
         <is>
           <t>This entity is used to capture the number of contacts in an intervention or part. We annotate only the number and include the sentence as context. When there is only one session in a part, we can annotate non-numerical words to indicate this, e.g. 'participants attended "a" gp visit'. Sometimes authors will break parts down in which case we annotate the number of contact events which add together to create a total e.g. 'at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes'.</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
+      <c r="H14" s="3" t="inlineStr"/>
+      <c r="I14" s="3" t="inlineStr"/>
+      <c r="J14" s="3" t="inlineStr"/>
+      <c r="K14" s="3" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr">
+      <c r="L14" s="3" t="inlineStr"/>
+      <c r="M14" s="3" t="inlineStr"/>
+      <c r="N14" s="3" t="inlineStr"/>
+      <c r="O14" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
+      <c r="P14" s="3" t="inlineStr"/>
+      <c r="Q14" s="3" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R14" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S14" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T14" s="3" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>BCIO:008580</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>order</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>A part of BCI schedule which describes the relative temporal positioning of contact events, temporal parts and timepoints.</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr"/>
+      <c r="E15" s="3" t="inlineStr"/>
+      <c r="F15" s="3" t="inlineStr">
         <is>
           <t>"After questionnaires were completed, feedback was selected
 out of a database with messages for each possible combination
@@ -1237,454 +1365,562 @@
 levels to the PA guidelines."</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G15" s="3" t="inlineStr">
         <is>
           <t>This is annotated as an open code when any aspect of order is described</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr">
+      <c r="H15" s="3" t="inlineStr"/>
+      <c r="I15" s="3" t="inlineStr"/>
+      <c r="J15" s="3" t="inlineStr"/>
+      <c r="K15" s="3" t="inlineStr"/>
+      <c r="L15" s="3" t="inlineStr"/>
+      <c r="M15" s="3" t="inlineStr"/>
+      <c r="N15" s="3" t="inlineStr"/>
+      <c r="O15" s="3" t="inlineStr"/>
+      <c r="P15" s="3" t="inlineStr">
         <is>
           <t>not sure about definitions and relationships</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
+      <c r="Q15" s="3" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R15" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S15" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T15" s="3" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>BCIO:008600</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>period</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>A data item that is the length of time from start to end of a temporal part or BCI for which the frequency of contact events is described</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="D16" s="3" t="inlineStr"/>
+      <c r="E16" s="3" t="inlineStr"/>
+      <c r="F16" s="3" t="inlineStr">
         <is>
           <t>Participants received 3 emails per "week"</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G16" s="3" t="inlineStr">
         <is>
           <t>This is annotated when a frequency is described using a period and a number of repetitions, rather than a single word.</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
+      <c r="H16" s="3" t="inlineStr"/>
+      <c r="I16" s="3" t="inlineStr"/>
+      <c r="J16" s="3" t="inlineStr"/>
+      <c r="K16" s="3" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr">
+      <c r="L16" s="3" t="inlineStr"/>
+      <c r="M16" s="3" t="inlineStr"/>
+      <c r="N16" s="3" t="inlineStr"/>
+      <c r="O16" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="P16" s="3" t="inlineStr">
         <is>
           <t>not sure about definitions and relationships</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
+      <c r="Q16" s="3" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R16" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S16" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T16" s="3" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>BCIO:008605</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>repetition</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>A data item that is the number of repetitions of contact events within a temporal part or BCI for which the frequency is described</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="D17" s="3" t="inlineStr"/>
+      <c r="E17" s="3" t="inlineStr"/>
+      <c r="F17" s="3" t="inlineStr">
         <is>
           <t>Participants received "3" emails per week</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G17" s="3" t="inlineStr">
         <is>
           <t>This is annotated when a frequency is described using a period and a number of repetitions, rather than a single word.</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
+      <c r="H17" s="3" t="inlineStr"/>
+      <c r="I17" s="3" t="inlineStr"/>
+      <c r="J17" s="3" t="inlineStr"/>
+      <c r="K17" s="3" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr">
+      <c r="L17" s="3" t="inlineStr"/>
+      <c r="M17" s="3" t="inlineStr"/>
+      <c r="N17" s="3" t="inlineStr"/>
+      <c r="O17" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="P17" s="3" t="inlineStr">
         <is>
           <t>not sure about definitions and relationships</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
+      <c r="Q17" s="3" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R17" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S17" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T17" s="3" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>BCIO:008595</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>same time</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>A part of a BCI schedule which is the relation a specified temporal part is in when it occurs whilst another temporal part or timepoint occurs</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
+      <c r="D18" s="3" t="inlineStr"/>
+      <c r="E18" s="3" t="inlineStr"/>
+      <c r="F18" s="3" t="inlineStr"/>
+      <c r="G18" s="3" t="inlineStr">
         <is>
           <t>This is not annotated</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr">
+      <c r="H18" s="3" t="inlineStr"/>
+      <c r="I18" s="3" t="inlineStr"/>
+      <c r="J18" s="3" t="inlineStr"/>
+      <c r="K18" s="3" t="inlineStr"/>
+      <c r="L18" s="3" t="inlineStr"/>
+      <c r="M18" s="3" t="inlineStr"/>
+      <c r="N18" s="3" t="inlineStr"/>
+      <c r="O18" s="3" t="inlineStr"/>
+      <c r="P18" s="3" t="inlineStr">
         <is>
           <t>not sure about definitions and relationships</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
+      <c r="Q18" s="3" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R18" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S18" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T18" s="3" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>BCIO:008550</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>sum duration of contact events</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>A data item that is the sum duration of a subset of contact events in a BCI or temporal part</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" s="3" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="E19" s="3" t="inlineStr"/>
+      <c r="F19" s="3" t="inlineStr">
         <is>
           <t>The participants took part in "90" minutes of PA per week</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G19" s="3" t="inlineStr">
         <is>
           <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
+      <c r="H19" s="3" t="inlineStr"/>
+      <c r="I19" s="3" t="inlineStr"/>
+      <c r="J19" s="3" t="inlineStr"/>
+      <c r="K19" s="3" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr">
+      <c r="L19" s="3" t="inlineStr"/>
+      <c r="M19" s="3" t="inlineStr"/>
+      <c r="N19" s="3" t="inlineStr"/>
+      <c r="O19" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="P19" s="3" t="inlineStr">
         <is>
           <t>is about contact events or is about duration of contact events?</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
+      <c r="Q19" s="3" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R19" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S19" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T19" s="3" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>BCIO:008505</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
         <is>
           <t>temporal part of delivery</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>A planned process that is a part of a BCI.</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" s="3" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="3" t="inlineStr">
         <is>
           <t>Temporal parts are defined by the authors of reports. They usually group contact events with similar delivery (e.g. face-to-face), content (e.g. CBT), or contextual features (e.g. school lessons), in order to describe their schedule. Sometimes authors break a contact event up even further into temporal parts during which a particular type of content/BCT is delivered within a contact event, so that they can thoroughly describe the order/duration of the delivery of these parts. Parts can also be broken down in a purely temporal manner (e.g. the first 6 weeks) to describe schedule aspects associated with this specific parts of the intervention</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" s="3" t="inlineStr">
         <is>
           <t>The "counselling sessions" took place each week for 6 weeks, and lasted roughly one hour; Each week, participants first took part in a "group discussion" on how the previous week had gone. Following that they "redefined their goals" on the basis of this discussion, then they received a "presentation" from a health specialist on a relevant topic;During the "first 6 weeks", participants received a phone call every two weeks, then for the "last 4 weeks", this was reduced to a weekly call;</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G20" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Parts are a complex entity linked to many other BCIO sub-ontologies. In theory, interventions can be broken down into any number of parts, however, we only annotate this entity when the author has named a part AND used it to describe an aspect of the intervention schedule (e.g. given it a duration, defined the frequency of contact events within it, defined its order or an interval relative to a timepoint/another part).
 </t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
+      <c r="H20" s="3" t="inlineStr"/>
+      <c r="I20" s="3" t="inlineStr">
         <is>
           <t>BCI</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr">
+      <c r="J20" s="3" t="inlineStr"/>
+      <c r="K20" s="3" t="inlineStr"/>
+      <c r="L20" s="3" t="inlineStr"/>
+      <c r="M20" s="3" t="inlineStr"/>
+      <c r="N20" s="3" t="inlineStr"/>
+      <c r="O20" s="3" t="inlineStr"/>
+      <c r="P20" s="3" t="inlineStr">
         <is>
           <t>should this be linked to other parts of the ontology (e.g. content/mod) under 'is about'?</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
+      <c r="Q20" s="3" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R20" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S20" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T20" s="3" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>BCIO:008530</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="3" t="inlineStr">
         <is>
           <t>timepoint of event</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A part of BCI schedule of delivery that is the moment of a specific event relevant for the intervention </t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
+      <c r="D21" s="3" t="inlineStr"/>
+      <c r="E21" s="3" t="inlineStr">
         <is>
           <t>Timepoints are used by authors to describe the schedules of a BCI relative to events that are not themselves parts of the BCI. This can include things like quit dates, childbirth, medical operations etc.</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Counselling sessions started a week after the participants "quit date"; A feedback call was scheduled to be delivered around 6 months after the "birth of the baby". </t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G21" s="3" t="inlineStr">
         <is>
           <t>Annotate the words used by authors to describe key events which are not themselves part of the intervention but are relevant to the description of the schedule of the intervention.</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
+      <c r="H21" s="3" t="inlineStr"/>
+      <c r="I21" s="3" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr">
+      <c r="J21" s="3" t="inlineStr"/>
+      <c r="K21" s="3" t="inlineStr"/>
+      <c r="L21" s="3" t="inlineStr"/>
+      <c r="M21" s="3" t="inlineStr"/>
+      <c r="N21" s="3" t="inlineStr"/>
+      <c r="O21" s="3" t="inlineStr"/>
+      <c r="P21" s="3" t="inlineStr">
         <is>
           <t>check relationships</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
+      <c r="Q21" s="3" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R21" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S21" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T21" s="3" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>BCIO:008545</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="3" t="inlineStr">
         <is>
           <t>total duration of contact events</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="3" t="inlineStr">
         <is>
           <t>A data item that is the total duration of all contact events in a BCI or temporal part</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" s="3" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
+      <c r="E22" s="3" t="inlineStr"/>
+      <c r="F22" s="3" t="inlineStr">
         <is>
           <t>participants received "150" minutes of face-to-face counselling, split across five 30 minute sessions</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G22" s="3" t="inlineStr">
         <is>
           <t>Use this entity when authors describe the total amount of contact time for a particular part/intervention across multiple contact events.
 When there is only one session, the total duration of contact events and the duration of a single contact event are technically the same. As a convention, we would annotate this under duration of contact event</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
+      <c r="H22" s="3" t="inlineStr"/>
+      <c r="I22" s="3" t="inlineStr"/>
+      <c r="J22" s="3" t="inlineStr"/>
+      <c r="K22" s="3" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr">
+      <c r="L22" s="3" t="inlineStr"/>
+      <c r="M22" s="3" t="inlineStr"/>
+      <c r="N22" s="3" t="inlineStr"/>
+      <c r="O22" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="P22" s="3" t="inlineStr">
         <is>
           <t>is about contact events or is about duration of contact events?</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
+      <c r="Q22" s="3" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R22" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S22" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T22" s="3" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>BCIO:008540</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="3" t="inlineStr">
         <is>
           <t>variable schedule</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events change over the course of a temporal part or BCI.  </t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="D23" s="3" t="inlineStr"/>
+      <c r="E23" s="3" t="inlineStr"/>
+      <c r="F23" s="3" t="inlineStr">
         <is>
           <t>telephone feedback sessions were more frequent during the first 6 weeks</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G23" s="3" t="inlineStr">
         <is>
           <t>We use this to capture instances when it is clear that the schedule (i.e. duration and frequency of contact events) varies over the course of a part, but we are unable to capture the specific schedule</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr">
+      <c r="H23" s="3" t="inlineStr"/>
+      <c r="I23" s="3" t="inlineStr"/>
+      <c r="J23" s="3" t="inlineStr"/>
+      <c r="K23" s="3" t="inlineStr"/>
+      <c r="L23" s="3" t="inlineStr"/>
+      <c r="M23" s="3" t="inlineStr"/>
+      <c r="N23" s="3" t="inlineStr"/>
+      <c r="O23" s="3" t="inlineStr"/>
+      <c r="P23" s="3" t="inlineStr">
         <is>
           <t>relationship? is about schedule? or is a type of schedule?</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
+      <c r="Q23" s="3" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R23" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S23" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T23" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -741,7 +741,7 @@
       <c r="H5" s="3" t="inlineStr"/>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>temporal part</t>
+          <t>temporal part of delivery</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr"/>

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -1373,7 +1373,11 @@
       <c r="H15" s="3" t="inlineStr"/>
       <c r="I15" s="3" t="inlineStr"/>
       <c r="J15" s="3" t="inlineStr"/>
-      <c r="K15" s="3" t="inlineStr"/>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
+          <t>BCI schedule of delivery</t>
+        </is>
+      </c>
       <c r="L15" s="3" t="inlineStr"/>
       <c r="M15" s="3" t="inlineStr"/>
       <c r="N15" s="3" t="inlineStr"/>

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -636,7 +636,7 @@
       <c r="O3" s="3" t="inlineStr"/>
       <c r="P3" s="3" t="inlineStr">
         <is>
-          <t>not sure about definitions and relationships</t>
+          <t>not sure about definitions and relationships. seems to relate temporal parts. is it itself a relationship?</t>
         </is>
       </c>
       <c r="Q3" s="3" t="inlineStr">
@@ -690,7 +690,7 @@
       <c r="O4" s="3" t="inlineStr"/>
       <c r="P4" s="3" t="inlineStr">
         <is>
-          <t>not sure about definitions and relationships</t>
+          <t>not sure about definitions and relationships. seems to relate temporal parts. is it itself a relationship?</t>
         </is>
       </c>
       <c r="Q4" s="3" t="inlineStr">

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -641,7 +641,7 @@
       </c>
       <c r="Q3" s="3" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>CM; RW</t>
         </is>
       </c>
       <c r="R3" s="3" t="inlineStr">
@@ -654,7 +654,11 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T3" s="3" t="inlineStr"/>
+      <c r="T3" s="3" t="inlineStr">
+        <is>
+          <t>RW: I think this are best not used as a class but as a temporal relation</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
@@ -695,7 +699,7 @@
       </c>
       <c r="Q4" s="3" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>CM; RW</t>
         </is>
       </c>
       <c r="R4" s="3" t="inlineStr">
@@ -708,7 +712,11 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T4" s="3" t="inlineStr"/>
+      <c r="T4" s="3" t="inlineStr">
+        <is>
+          <t>RW: I think this are best not used as a class but as a temporal relation</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -734,7 +734,11 @@
           <t xml:space="preserve">A planned process that is a planned occasion on which a member of a BCI population comes into contact with a BCI.  </t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
       <c r="E5" s="3" t="inlineStr"/>
       <c r="F5" s="3" t="inlineStr">
         <is>
@@ -761,7 +765,7 @@
       <c r="P5" s="3" t="inlineStr"/>
       <c r="Q5" s="3" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>CM; RW</t>
         </is>
       </c>
       <c r="R5" s="3" t="inlineStr">
@@ -774,7 +778,11 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T5" s="3" t="inlineStr"/>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RW: A planned process that is an occasion on which a member of a BCI population comes into contact with a BCI. </t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
@@ -784,12 +792,12 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>duration of BCI</t>
+          <t>duration of BCI (RW: BCI duration)</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>A data item that the length of time from start to end of a BCI</t>
+          <t>A data item that the length of time from start to end of a BCI (RW: this is not a data item unless it is given in units. Janna will know what kind of entity durations are - they appear to be temporal regions.)</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -827,7 +835,7 @@
       <c r="P6" s="3" t="inlineStr"/>
       <c r="Q6" s="3" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>CM; RW</t>
         </is>
       </c>
       <c r="R6" s="3" t="inlineStr">

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -797,7 +797,7 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>A data item that the length of time from start to end of a BCI (RW: this is not a data item unless it is given in units. Janna will know what kind of entity durations are - they appear to be temporal regions.)</t>
+          <t>A data item that the length of time from start to end of a BCI (RW: this is not a data item unless it is given in units. Janna will know what kind of entity durations are - they appear to be temporal intervals. so I suggest 'BCI duration: a temporal interval between the start and end of a behaviour change intervention.')</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="T3" s="3" t="inlineStr">
         <is>
-          <t>RW: I think this are best not used as a class but as a temporal relation</t>
+          <t>RW: I think this are best not used as a class but as a temporal relation (remove - will go in list of relations)</t>
         </is>
       </c>
     </row>
@@ -714,7 +714,7 @@
       </c>
       <c r="T4" s="3" t="inlineStr">
         <is>
-          <t>RW: I think this are best not used as a class but as a temporal relation</t>
+          <t>RW: I think this are best not used as a class but as a temporal relation (remove - will go in list of relations)</t>
         </is>
       </c>
     </row>
@@ -731,12 +731,12 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A planned process that is a planned occasion on which a member of a BCI population comes into contact with a BCI.  </t>
+          <t xml:space="preserve">A intervention temporal part that is an occasion in which a member of a BCI population comes into contact with a BCI.  </t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>intervention temporal part</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr"/>
@@ -802,7 +802,7 @@
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>data item - Time measurement datum (IAO_0000416 )</t>
+          <t>data item - Time measurement datum (IAO_0000416 ) (BFO parent - Temporal Interval - apply to all duration entities)</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr"/>
@@ -858,7 +858,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>duration of contact events</t>
+          <t>duration of contact event (avoid plurals generally)</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>duration of interval</t>
+          <t>duration of interval (rename to interval between intervention parts, and remove the interval entity)</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>A data item that the length of time from start to end of an interval</t>
+          <t>A data item that the length of time from start to end of an interval - between the end of one part and beginning of subsequent part</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -1043,42 +1043,54 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008535</t>
+          <t>BCIO:008520</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>fixed schedule</t>
+          <t>frequency of intervention temporal parts</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events remain constant across the course of a temporal part or BCI.  </t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr"/>
+          <t>An attribute of a BCI schedule of delivery that is how often intervention temporal parts occur within a BCI.</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>process attribute</t>
+        </is>
+      </c>
       <c r="E10" s="3" t="inlineStr"/>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>the "length and regularity of sessions were consistent across the duration of the intervention", taking place for an hour each week</t>
+          <t>intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks"</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>This is used to capture when the author specifies that the schedule (length and frequency of contact events) does not change over the course of a part. This is rarely annotated as it is not usually explicitly stated.</t>
+          <t xml:space="preserve">This is used to capture descriptions of the frequency of contact events within a part. </t>
         </is>
       </c>
       <c r="H10" s="3" t="inlineStr"/>
       <c r="I10" s="3" t="inlineStr"/>
       <c r="J10" s="3" t="inlineStr"/>
-      <c r="K10" s="3" t="inlineStr"/>
+      <c r="K10" s="3" t="inlineStr">
+        <is>
+          <t>contact event</t>
+        </is>
+      </c>
       <c r="L10" s="3" t="inlineStr"/>
       <c r="M10" s="3" t="inlineStr"/>
       <c r="N10" s="3" t="inlineStr"/>
-      <c r="O10" s="3" t="inlineStr"/>
+      <c r="O10" s="3" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="P10" s="3" t="inlineStr">
         <is>
-          <t>relationship? is about schedule? or is a type of schedule?</t>
+          <t>needs to link to period and repetition. could it be 'has attribute' period, and 'has attribute' repetition?</t>
         </is>
       </c>
       <c r="Q10" s="3" t="inlineStr">
@@ -1101,17 +1113,17 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008520</t>
+          <t>BCIO:008555</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>frequency of contact events</t>
+          <t>frequency of sum duration of contact events</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A data item that is how often contact events occur within a BCI or temporal part </t>
+          <t>A data item which describes how often a specified sum duration of contact events occured during a BCI or temporal part  - combine this with the sum entity</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -1122,12 +1134,12 @@
       <c r="E11" s="3" t="inlineStr"/>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks"</t>
+          <t>The participants took part in 90 minutes of PA "per week"</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">This is used to capture descriptions of the frequency of contact events within a part. </t>
+          <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
         </is>
       </c>
       <c r="H11" s="3" t="inlineStr"/>
@@ -1148,7 +1160,7 @@
       </c>
       <c r="P11" s="3" t="inlineStr">
         <is>
-          <t>needs to link to period and repetition. could it be 'has attribute' period, and 'has attribute' repetition?</t>
+          <t>is about contact events or is about duration of contact events?</t>
         </is>
       </c>
       <c r="Q11" s="3" t="inlineStr">
@@ -1171,54 +1183,34 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008555</t>
+          <t>BCIO:008570</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>frequency of sum duration of contact events</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A data item which describes how often a specified sum duration of contact events occured during a BCI or temporal part </t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>data item - Frequency (SIO_001367)</t>
-        </is>
-      </c>
+          <t>interval</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr"/>
+      <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="3" t="inlineStr"/>
-      <c r="F12" s="3" t="inlineStr">
-        <is>
-          <t>The participants took part in 90 minutes of PA "per week"</t>
-        </is>
-      </c>
+      <c r="F12" s="3" t="inlineStr"/>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
+          <t>This is not annotated but included due to relationship with duration of interval</t>
         </is>
       </c>
       <c r="H12" s="3" t="inlineStr"/>
       <c r="I12" s="3" t="inlineStr"/>
       <c r="J12" s="3" t="inlineStr"/>
-      <c r="K12" s="3" t="inlineStr">
-        <is>
-          <t>contact event</t>
-        </is>
-      </c>
+      <c r="K12" s="3" t="inlineStr"/>
       <c r="L12" s="3" t="inlineStr"/>
       <c r="M12" s="3" t="inlineStr"/>
       <c r="N12" s="3" t="inlineStr"/>
-      <c r="O12" s="3" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
+      <c r="O12" s="3" t="inlineStr"/>
       <c r="P12" s="3" t="inlineStr">
         <is>
-          <t>is about contact events or is about duration of contact events?</t>
+          <t>entity added so duration of interval can be specified. not sure what parent/relationships should be</t>
         </is>
       </c>
       <c r="Q12" s="3" t="inlineStr">
@@ -1241,36 +1233,52 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008570</t>
+          <t>BCIO:008515</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>interval</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr"/>
-      <c r="D13" s="3" t="inlineStr"/>
+          <t>number of contact events</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>A count data item that is the number of contact events in BCI or temporal part</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data item - Count (STATO_0000047) </t>
+        </is>
+      </c>
       <c r="E13" s="3" t="inlineStr"/>
-      <c r="F13" s="3" t="inlineStr"/>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>participants attended "a" gp visit ; at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes</t>
+        </is>
+      </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>This is not annotated but included due to relationship with duration of interval</t>
+          <t>This entity is used to capture the number of contacts in an intervention or part. We annotate only the number and include the sentence as context. When there is only one session in a part, we can annotate non-numerical words to indicate this, e.g. 'participants attended "a" gp visit'. Sometimes authors will break parts down in which case we annotate the number of contact events which add together to create a total e.g. 'at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes'.</t>
         </is>
       </c>
       <c r="H13" s="3" t="inlineStr"/>
       <c r="I13" s="3" t="inlineStr"/>
       <c r="J13" s="3" t="inlineStr"/>
-      <c r="K13" s="3" t="inlineStr"/>
+      <c r="K13" s="3" t="inlineStr">
+        <is>
+          <t>contact event</t>
+        </is>
+      </c>
       <c r="L13" s="3" t="inlineStr"/>
       <c r="M13" s="3" t="inlineStr"/>
       <c r="N13" s="3" t="inlineStr"/>
-      <c r="O13" s="3" t="inlineStr"/>
-      <c r="P13" s="3" t="inlineStr">
-        <is>
-          <t>entity added so duration of interval can be specified. not sure what parent/relationships should be</t>
-        </is>
-      </c>
+      <c r="O13" s="3" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="P13" s="3" t="inlineStr"/>
       <c r="Q13" s="3" t="inlineStr">
         <is>
           <t>CM</t>
@@ -1291,88 +1299,22 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008515</t>
+          <t>BCIO:008580</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>number of contact events</t>
+          <t>order</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>A count data item that is the number of contact events in BCI or temporal part</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data item - Count (STATO_0000047) </t>
-        </is>
-      </c>
+          <t>A part of BCI schedule which describes the relative temporal positioning of contact events, temporal parts and timepoints.</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="3" t="inlineStr"/>
       <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>participants attended "a" gp visit ; at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>This entity is used to capture the number of contacts in an intervention or part. We annotate only the number and include the sentence as context. When there is only one session in a part, we can annotate non-numerical words to indicate this, e.g. 'participants attended "a" gp visit'. Sometimes authors will break parts down in which case we annotate the number of contact events which add together to create a total e.g. 'at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes'.</t>
-        </is>
-      </c>
-      <c r="H14" s="3" t="inlineStr"/>
-      <c r="I14" s="3" t="inlineStr"/>
-      <c r="J14" s="3" t="inlineStr"/>
-      <c r="K14" s="3" t="inlineStr">
-        <is>
-          <t>contact event</t>
-        </is>
-      </c>
-      <c r="L14" s="3" t="inlineStr"/>
-      <c r="M14" s="3" t="inlineStr"/>
-      <c r="N14" s="3" t="inlineStr"/>
-      <c r="O14" s="3" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="P14" s="3" t="inlineStr"/>
-      <c r="Q14" s="3" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="R14" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="S14" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T14" s="3" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:008580</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>order</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>A part of BCI schedule which describes the relative temporal positioning of contact events, temporal parts and timepoints.</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr"/>
-      <c r="E15" s="3" t="inlineStr"/>
-      <c r="F15" s="3" t="inlineStr">
         <is>
           <t>"After questionnaires were completed, feedback was selected
 out of a database with messages for each possible combination
@@ -1381,9 +1323,71 @@
 levels to the PA guidelines."</t>
         </is>
       </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>This is annotated as an open code when any aspect of order is described</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr"/>
+      <c r="I14" s="3" t="inlineStr"/>
+      <c r="J14" s="3" t="inlineStr"/>
+      <c r="K14" s="3" t="inlineStr">
+        <is>
+          <t>BCI schedule of delivery</t>
+        </is>
+      </c>
+      <c r="L14" s="3" t="inlineStr"/>
+      <c r="M14" s="3" t="inlineStr"/>
+      <c r="N14" s="3" t="inlineStr"/>
+      <c r="O14" s="3" t="inlineStr"/>
+      <c r="P14" s="3" t="inlineStr">
+        <is>
+          <t>not sure about definitions and relationships</t>
+        </is>
+      </c>
+      <c r="Q14" s="3" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R14" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S14" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T14" s="3" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:008600</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>period</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>A data item that is the length of time from start to end of a temporal part or BCI for which the frequency of contact events is described</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr"/>
+      <c r="E15" s="3" t="inlineStr"/>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>Participants received 3 emails per "week"</t>
+        </is>
+      </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>This is annotated as an open code when any aspect of order is described</t>
+          <t>This is annotated when a frequency is described using a period and a number of repetitions, rather than a single word.</t>
         </is>
       </c>
       <c r="H15" s="3" t="inlineStr"/>
@@ -1391,13 +1395,17 @@
       <c r="J15" s="3" t="inlineStr"/>
       <c r="K15" s="3" t="inlineStr">
         <is>
-          <t>BCI schedule of delivery</t>
+          <t>contact event</t>
         </is>
       </c>
       <c r="L15" s="3" t="inlineStr"/>
       <c r="M15" s="3" t="inlineStr"/>
       <c r="N15" s="3" t="inlineStr"/>
-      <c r="O15" s="3" t="inlineStr"/>
+      <c r="O15" s="3" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="P15" s="3" t="inlineStr">
         <is>
           <t>not sure about definitions and relationships</t>
@@ -1423,50 +1431,46 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008600</t>
+          <t>BCIO:008535</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>period</t>
+          <t>regular intervention schedule</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>A data item that is the length of time from start to end of a temporal part or BCI for which the frequency of contact events is described</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr"/>
+          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of Intervention temporal parts are uniform across the course of a BCI or BCI part.  </t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>BCI schedule of delivery</t>
+        </is>
+      </c>
       <c r="E16" s="3" t="inlineStr"/>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>Participants received 3 emails per "week"</t>
+          <t>the "length and regularity of sessions were consistent across the duration of the intervention", taking place for an hour each week</t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>This is annotated when a frequency is described using a period and a number of repetitions, rather than a single word.</t>
+          <t>This is used to capture when the author specifies that the schedule (length and frequency of contact events) does not change over the course of a part. This is rarely annotated as it is not usually explicitly stated.</t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr"/>
       <c r="I16" s="3" t="inlineStr"/>
       <c r="J16" s="3" t="inlineStr"/>
-      <c r="K16" s="3" t="inlineStr">
-        <is>
-          <t>contact event</t>
-        </is>
-      </c>
+      <c r="K16" s="3" t="inlineStr"/>
       <c r="L16" s="3" t="inlineStr"/>
       <c r="M16" s="3" t="inlineStr"/>
       <c r="N16" s="3" t="inlineStr"/>
-      <c r="O16" s="3" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
+      <c r="O16" s="3" t="inlineStr"/>
       <c r="P16" s="3" t="inlineStr">
         <is>
-          <t>not sure about definitions and relationships</t>
+          <t>relationship? is about schedule? or is a type of schedule?</t>
         </is>
       </c>
       <c r="Q16" s="3" t="inlineStr">
@@ -1684,7 +1688,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>temporal part of delivery</t>
+          <t>temporal part of delivery (rename to Intervention Temporal Part)</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -610,7 +610,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>after</t>
+          <t>after (to be removed and added to list of relations)</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>before</t>
+          <t>before (to be removed and added to list of relations)</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -634,11 +634,7 @@
       <c r="M3" s="3" t="inlineStr"/>
       <c r="N3" s="3" t="inlineStr"/>
       <c r="O3" s="3" t="inlineStr"/>
-      <c r="P3" s="3" t="inlineStr">
-        <is>
-          <t>not sure about definitions and relationships. seems to relate temporal parts. is it itself a relationship?</t>
-        </is>
-      </c>
+      <c r="P3" s="3" t="inlineStr"/>
       <c r="Q3" s="3" t="inlineStr">
         <is>
           <t>CM; RW</t>
@@ -654,11 +650,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T3" s="3" t="inlineStr">
-        <is>
-          <t>RW: I think this are best not used as a class but as a temporal relation (remove - will go in list of relations)</t>
-        </is>
-      </c>
+      <c r="T3" s="3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
@@ -692,11 +684,7 @@
       <c r="M4" s="3" t="inlineStr"/>
       <c r="N4" s="3" t="inlineStr"/>
       <c r="O4" s="3" t="inlineStr"/>
-      <c r="P4" s="3" t="inlineStr">
-        <is>
-          <t>not sure about definitions and relationships. seems to relate temporal parts. is it itself a relationship?</t>
-        </is>
-      </c>
+      <c r="P4" s="3" t="inlineStr"/>
       <c r="Q4" s="3" t="inlineStr">
         <is>
           <t>CM; RW</t>
@@ -712,11 +700,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T4" s="3" t="inlineStr">
-        <is>
-          <t>RW: I think this are best not used as a class but as a temporal relation (remove - will go in list of relations)</t>
-        </is>
-      </c>
+      <c r="T4" s="3" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -731,7 +715,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A intervention temporal part that is an occasion in which a member of a BCI population comes into contact with a BCI.  </t>
+          <t xml:space="preserve">An intervention temporal part that is an occasion in which a member of a BCI population comes into contact with a BCI.  </t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -751,11 +735,7 @@
         </is>
       </c>
       <c r="H5" s="3" t="inlineStr"/>
-      <c r="I5" s="3" t="inlineStr">
-        <is>
-          <t>temporal part of delivery</t>
-        </is>
-      </c>
+      <c r="I5" s="3" t="inlineStr"/>
       <c r="J5" s="3" t="inlineStr"/>
       <c r="K5" s="3" t="inlineStr"/>
       <c r="L5" s="3" t="inlineStr"/>
@@ -778,11 +758,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T5" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RW: A planned process that is an occasion on which a member of a BCI population comes into contact with a BCI. </t>
-        </is>
-      </c>
+      <c r="T5" s="3" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
@@ -797,12 +773,12 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>A data item that the length of time from start to end of a BCI (RW: this is not a data item unless it is given in units. Janna will know what kind of entity durations are - they appear to be temporal intervals. so I suggest 'BCI duration: a temporal interval between the start and end of a behaviour change intervention.')</t>
+          <t>A temporal interval between the start and end of a behaviour change intervention</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>data item - Time measurement datum (IAO_0000416 ) (BFO parent - Temporal Interval - apply to all duration entities)</t>
+          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr"/>
@@ -1233,52 +1209,57 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008515</t>
+          <t>BCIO:008505</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>number of contact events</t>
+          <t>intervention temporal part</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>A count data item that is the number of contact events in BCI or temporal part</t>
+          <t>A planned process that is a part of a BCI.</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">data item - Count (STATO_0000047) </t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr"/>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>Temporal parts are defined by the authors of reports. They usually group contact events with similar delivery (e.g. face-to-face), content (e.g. CBT), or contextual features (e.g. school lessons), in order to describe their schedule. Sometimes authors break a contact event up even further into temporal parts during which a particular type of content/BCT is delivered within a contact event, so that they can thoroughly describe the order/duration of the delivery of these parts. Parts can also be broken down in a purely temporal manner (e.g. the first 6 weeks) to describe schedule aspects associated with this specific parts of the intervention</t>
+        </is>
+      </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>participants attended "a" gp visit ; at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes</t>
+          <t>The "counselling sessions" took place each week for 6 weeks, and lasted roughly one hour; Each week, participants first took part in a "group discussion" on how the previous week had gone. Following that they "redefined their goals" on the basis of this discussion, then they received a "presentation" from a health specialist on a relevant topic;During the "first 6 weeks", participants received a phone call every two weeks, then for the "last 4 weeks", this was reduced to a weekly call;</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>This entity is used to capture the number of contacts in an intervention or part. We annotate only the number and include the sentence as context. When there is only one session in a part, we can annotate non-numerical words to indicate this, e.g. 'participants attended "a" gp visit'. Sometimes authors will break parts down in which case we annotate the number of contact events which add together to create a total e.g. 'at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes'.</t>
+          <t xml:space="preserve">Parts are a complex entity linked to many other BCIO sub-ontologies. In theory, interventions can be broken down into any number of parts, however, we only annotate this entity when the author has named a part AND used it to describe an aspect of the intervention schedule (e.g. given it a duration, defined the frequency of contact events within it, defined its order or an interval relative to a timepoint/another part).
+</t>
         </is>
       </c>
       <c r="H13" s="3" t="inlineStr"/>
-      <c r="I13" s="3" t="inlineStr"/>
+      <c r="I13" s="3" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
       <c r="J13" s="3" t="inlineStr"/>
-      <c r="K13" s="3" t="inlineStr">
-        <is>
-          <t>contact event</t>
-        </is>
-      </c>
+      <c r="K13" s="3" t="inlineStr"/>
       <c r="L13" s="3" t="inlineStr"/>
       <c r="M13" s="3" t="inlineStr"/>
       <c r="N13" s="3" t="inlineStr"/>
-      <c r="O13" s="3" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="P13" s="3" t="inlineStr"/>
+      <c r="O13" s="3" t="inlineStr"/>
+      <c r="P13" s="3" t="inlineStr">
+        <is>
+          <t>should this be linked to other parts of the ontology (e.g. content/mod) under 'is about'?</t>
+        </is>
+      </c>
       <c r="Q13" s="3" t="inlineStr">
         <is>
           <t>CM</t>
@@ -1299,22 +1280,88 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008580</t>
+          <t>BCIO:008515</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>order</t>
+          <t>number of contact events</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>A part of BCI schedule which describes the relative temporal positioning of contact events, temporal parts and timepoints.</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr"/>
+          <t>A count data item that is the number of contact events in BCI or temporal part</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data item - Count (STATO_0000047) </t>
+        </is>
+      </c>
       <c r="E14" s="3" t="inlineStr"/>
       <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>participants attended "a" gp visit ; at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>This entity is used to capture the number of contacts in an intervention or part. We annotate only the number and include the sentence as context. When there is only one session in a part, we can annotate non-numerical words to indicate this, e.g. 'participants attended "a" gp visit'. Sometimes authors will break parts down in which case we annotate the number of contact events which add together to create a total e.g. 'at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes'.</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr"/>
+      <c r="I14" s="3" t="inlineStr"/>
+      <c r="J14" s="3" t="inlineStr"/>
+      <c r="K14" s="3" t="inlineStr">
+        <is>
+          <t>contact event</t>
+        </is>
+      </c>
+      <c r="L14" s="3" t="inlineStr"/>
+      <c r="M14" s="3" t="inlineStr"/>
+      <c r="N14" s="3" t="inlineStr"/>
+      <c r="O14" s="3" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="P14" s="3" t="inlineStr"/>
+      <c r="Q14" s="3" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R14" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S14" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T14" s="3" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:008580</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>A part of BCI schedule which describes the relative temporal positioning of contact events, temporal parts and timepoints.</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr"/>
+      <c r="E15" s="3" t="inlineStr"/>
+      <c r="F15" s="3" t="inlineStr">
         <is>
           <t>"After questionnaires were completed, feedback was selected
 out of a database with messages for each possible combination
@@ -1323,71 +1370,9 @@
 levels to the PA guidelines."</t>
         </is>
       </c>
-      <c r="G14" s="3" t="inlineStr">
+      <c r="G15" s="3" t="inlineStr">
         <is>
           <t>This is annotated as an open code when any aspect of order is described</t>
-        </is>
-      </c>
-      <c r="H14" s="3" t="inlineStr"/>
-      <c r="I14" s="3" t="inlineStr"/>
-      <c r="J14" s="3" t="inlineStr"/>
-      <c r="K14" s="3" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
-      <c r="L14" s="3" t="inlineStr"/>
-      <c r="M14" s="3" t="inlineStr"/>
-      <c r="N14" s="3" t="inlineStr"/>
-      <c r="O14" s="3" t="inlineStr"/>
-      <c r="P14" s="3" t="inlineStr">
-        <is>
-          <t>not sure about definitions and relationships</t>
-        </is>
-      </c>
-      <c r="Q14" s="3" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="R14" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="S14" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T14" s="3" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:008600</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>period</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>A data item that is the length of time from start to end of a temporal part or BCI for which the frequency of contact events is described</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr"/>
-      <c r="E15" s="3" t="inlineStr"/>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>Participants received 3 emails per "week"</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>This is annotated when a frequency is described using a period and a number of repetitions, rather than a single word.</t>
         </is>
       </c>
       <c r="H15" s="3" t="inlineStr"/>
@@ -1395,17 +1380,13 @@
       <c r="J15" s="3" t="inlineStr"/>
       <c r="K15" s="3" t="inlineStr">
         <is>
-          <t>contact event</t>
+          <t>BCI schedule of delivery</t>
         </is>
       </c>
       <c r="L15" s="3" t="inlineStr"/>
       <c r="M15" s="3" t="inlineStr"/>
       <c r="N15" s="3" t="inlineStr"/>
-      <c r="O15" s="3" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
+      <c r="O15" s="3" t="inlineStr"/>
       <c r="P15" s="3" t="inlineStr">
         <is>
           <t>not sure about definitions and relationships</t>
@@ -1431,46 +1412,50 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008535</t>
+          <t>BCIO:008600</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>regular intervention schedule</t>
+          <t>period</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of Intervention temporal parts are uniform across the course of a BCI or BCI part.  </t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
+          <t>A data item that is the length of time from start to end of a temporal part or BCI for which the frequency of contact events is described</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="3" t="inlineStr"/>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>the "length and regularity of sessions were consistent across the duration of the intervention", taking place for an hour each week</t>
+          <t>Participants received 3 emails per "week"</t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>This is used to capture when the author specifies that the schedule (length and frequency of contact events) does not change over the course of a part. This is rarely annotated as it is not usually explicitly stated.</t>
+          <t>This is annotated when a frequency is described using a period and a number of repetitions, rather than a single word.</t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr"/>
       <c r="I16" s="3" t="inlineStr"/>
       <c r="J16" s="3" t="inlineStr"/>
-      <c r="K16" s="3" t="inlineStr"/>
+      <c r="K16" s="3" t="inlineStr">
+        <is>
+          <t>contact event</t>
+        </is>
+      </c>
       <c r="L16" s="3" t="inlineStr"/>
       <c r="M16" s="3" t="inlineStr"/>
       <c r="N16" s="3" t="inlineStr"/>
-      <c r="O16" s="3" t="inlineStr"/>
+      <c r="O16" s="3" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="P16" s="3" t="inlineStr">
         <is>
-          <t>relationship? is about schedule? or is a type of schedule?</t>
+          <t>not sure about definitions and relationships</t>
         </is>
       </c>
       <c r="Q16" s="3" t="inlineStr">
@@ -1493,50 +1478,46 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008605</t>
+          <t>BCIO:008535</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>repetition</t>
+          <t>regular intervention schedule</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>A data item that is the number of repetitions of contact events within a temporal part or BCI for which the frequency is described</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr"/>
+          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of Intervention temporal parts are uniform across the course of a BCI or BCI part.  </t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>BCI schedule of delivery</t>
+        </is>
+      </c>
       <c r="E17" s="3" t="inlineStr"/>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>Participants received "3" emails per week</t>
+          <t>the "length and regularity of sessions were consistent across the duration of the intervention", taking place for an hour each week</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>This is annotated when a frequency is described using a period and a number of repetitions, rather than a single word.</t>
+          <t>This is used to capture when the author specifies that the schedule (length and frequency of contact events) does not change over the course of a part. This is rarely annotated as it is not usually explicitly stated.</t>
         </is>
       </c>
       <c r="H17" s="3" t="inlineStr"/>
       <c r="I17" s="3" t="inlineStr"/>
       <c r="J17" s="3" t="inlineStr"/>
-      <c r="K17" s="3" t="inlineStr">
-        <is>
-          <t>contact event</t>
-        </is>
-      </c>
+      <c r="K17" s="3" t="inlineStr"/>
       <c r="L17" s="3" t="inlineStr"/>
       <c r="M17" s="3" t="inlineStr"/>
       <c r="N17" s="3" t="inlineStr"/>
-      <c r="O17" s="3" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
+      <c r="O17" s="3" t="inlineStr"/>
       <c r="P17" s="3" t="inlineStr">
         <is>
-          <t>not sure about definitions and relationships</t>
+          <t>relationship? is about schedule? or is a type of schedule?</t>
         </is>
       </c>
       <c r="Q17" s="3" t="inlineStr">
@@ -1559,35 +1540,47 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008595</t>
+          <t>BCIO:008605</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>same time</t>
+          <t>repetition</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it occurs whilst another temporal part or timepoint occurs</t>
+          <t>A data item that is the number of repetitions of contact events within a temporal part or BCI for which the frequency is described</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr"/>
       <c r="E18" s="3" t="inlineStr"/>
-      <c r="F18" s="3" t="inlineStr"/>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>Participants received "3" emails per week</t>
+        </is>
+      </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>This is not annotated</t>
+          <t>This is annotated when a frequency is described using a period and a number of repetitions, rather than a single word.</t>
         </is>
       </c>
       <c r="H18" s="3" t="inlineStr"/>
       <c r="I18" s="3" t="inlineStr"/>
       <c r="J18" s="3" t="inlineStr"/>
-      <c r="K18" s="3" t="inlineStr"/>
+      <c r="K18" s="3" t="inlineStr">
+        <is>
+          <t>contact event</t>
+        </is>
+      </c>
       <c r="L18" s="3" t="inlineStr"/>
       <c r="M18" s="3" t="inlineStr"/>
       <c r="N18" s="3" t="inlineStr"/>
-      <c r="O18" s="3" t="inlineStr"/>
+      <c r="O18" s="3" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="P18" s="3" t="inlineStr">
         <is>
           <t>not sure about definitions and relationships</t>
@@ -1613,54 +1606,38 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008550</t>
+          <t>BCIO:008595</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>sum duration of contact events</t>
+          <t>same time</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>A data item that is the sum duration of a subset of contact events in a BCI or temporal part</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
+          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it occurs whilst another temporal part or timepoint occurs</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="3" t="inlineStr"/>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>The participants took part in "90" minutes of PA per week</t>
-        </is>
-      </c>
+      <c r="F19" s="3" t="inlineStr"/>
       <c r="G19" s="3" t="inlineStr">
         <is>
-          <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
+          <t>This is not annotated</t>
         </is>
       </c>
       <c r="H19" s="3" t="inlineStr"/>
       <c r="I19" s="3" t="inlineStr"/>
       <c r="J19" s="3" t="inlineStr"/>
-      <c r="K19" s="3" t="inlineStr">
-        <is>
-          <t>contact event</t>
-        </is>
-      </c>
+      <c r="K19" s="3" t="inlineStr"/>
       <c r="L19" s="3" t="inlineStr"/>
       <c r="M19" s="3" t="inlineStr"/>
       <c r="N19" s="3" t="inlineStr"/>
-      <c r="O19" s="3" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
+      <c r="O19" s="3" t="inlineStr"/>
       <c r="P19" s="3" t="inlineStr">
         <is>
-          <t>is about contact events or is about duration of contact events?</t>
+          <t>not sure about definitions and relationships</t>
         </is>
       </c>
       <c r="Q19" s="3" t="inlineStr">
@@ -1683,55 +1660,54 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008505</t>
+          <t>BCIO:008550</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>temporal part of delivery (rename to Intervention Temporal Part)</t>
+          <t>sum duration of contact events</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>A planned process that is a part of a BCI.</t>
+          <t>A data item that is the sum duration of a subset of contact events in a BCI or temporal part</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>planned process</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>Temporal parts are defined by the authors of reports. They usually group contact events with similar delivery (e.g. face-to-face), content (e.g. CBT), or contextual features (e.g. school lessons), in order to describe their schedule. Sometimes authors break a contact event up even further into temporal parts during which a particular type of content/BCT is delivered within a contact event, so that they can thoroughly describe the order/duration of the delivery of these parts. Parts can also be broken down in a purely temporal manner (e.g. the first 6 weeks) to describe schedule aspects associated with this specific parts of the intervention</t>
-        </is>
-      </c>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr"/>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>The "counselling sessions" took place each week for 6 weeks, and lasted roughly one hour; Each week, participants first took part in a "group discussion" on how the previous week had gone. Following that they "redefined their goals" on the basis of this discussion, then they received a "presentation" from a health specialist on a relevant topic;During the "first 6 weeks", participants received a phone call every two weeks, then for the "last 4 weeks", this was reduced to a weekly call;</t>
+          <t>The participants took part in "90" minutes of PA per week</t>
         </is>
       </c>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Parts are a complex entity linked to many other BCIO sub-ontologies. In theory, interventions can be broken down into any number of parts, however, we only annotate this entity when the author has named a part AND used it to describe an aspect of the intervention schedule (e.g. given it a duration, defined the frequency of contact events within it, defined its order or an interval relative to a timepoint/another part).
-</t>
+          <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
         </is>
       </c>
       <c r="H20" s="3" t="inlineStr"/>
-      <c r="I20" s="3" t="inlineStr">
-        <is>
-          <t>BCI</t>
-        </is>
-      </c>
+      <c r="I20" s="3" t="inlineStr"/>
       <c r="J20" s="3" t="inlineStr"/>
-      <c r="K20" s="3" t="inlineStr"/>
+      <c r="K20" s="3" t="inlineStr">
+        <is>
+          <t>contact event</t>
+        </is>
+      </c>
       <c r="L20" s="3" t="inlineStr"/>
       <c r="M20" s="3" t="inlineStr"/>
       <c r="N20" s="3" t="inlineStr"/>
-      <c r="O20" s="3" t="inlineStr"/>
+      <c r="O20" s="3" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="P20" s="3" t="inlineStr">
         <is>
-          <t>should this be linked to other parts of the ontology (e.g. content/mod) under 'is about'?</t>
+          <t>is about contact events or is about duration of contact events?</t>
         </is>
       </c>
       <c r="Q20" s="3" t="inlineStr">

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -39,12 +39,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00eee8aa"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="007fffd4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00eee8aa"/>
+        <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
   </fills>
@@ -60,11 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -543,31 +549,97 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
+          <t>BCIO:008560</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>BCI duration</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>A temporal interval between the start and end of a behaviour change intervention</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The intervention ran over "6" weeks, with weekly counselling sessions and biweekly exercise classes”  </t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>This is used to capture the overall duration of intervention delivery from first to last contact of an intervention. It does not include follow-up periods during which no content is delivered. We annotate only the number and the unit is derived from the context</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr"/>
+      <c r="I2" s="2" t="inlineStr"/>
+      <c r="J2" s="2" t="inlineStr"/>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr"/>
+      <c r="M2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="P2" s="2" t="inlineStr"/>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>CM; RW</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
           <t>BCIO:008500</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>An attribute of a BCI delivery that involves its temporal organisation.</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>Includes the start and end of a BCI, its parts, and their organisation around relevant timepoints.</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr"/>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr"/>
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>This sub-ontology is used to capture descriptions of the intervention schedule within published reports. This includes descriptions of the duration and frequency of contact events, the length of parts of the intervention (e.g. 6 weeks), the order through which intervention content is presented, and the relative timing of contact events and key timepoints of relevance for the intervention (e.g. quit date/childbirth). 
 Schedule is annotated for all arms of the intervention, including control arms even when no content is delivered targeting the target behaviour. This is because it's often important to know whether the contact time of the control and intervention groups matched. 
@@ -576,792 +648,730 @@
 Schedule does not include things like 'number of booklets'. This forms part of dose</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr"/>
-      <c r="I2" s="2" t="inlineStr"/>
-      <c r="J2" s="2" t="inlineStr"/>
-      <c r="K2" s="2" t="inlineStr"/>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>BCI delivery</t>
-        </is>
-      </c>
-      <c r="M2" s="2" t="inlineStr"/>
-      <c r="N2" s="2" t="inlineStr"/>
-      <c r="O2" s="2" t="inlineStr"/>
-      <c r="P2" s="2" t="inlineStr"/>
-      <c r="Q2" s="2" t="inlineStr">
-        <is>
-          <t>JH; CM</t>
-        </is>
-      </c>
-      <c r="R2" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="S2" s="2" t="inlineStr"/>
-      <c r="T2" s="2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:008590</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>after (to be removed and added to list of relations)</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it starts following the end of another temporal part or timepoint</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr"/>
-      <c r="E3" s="3" t="inlineStr"/>
-      <c r="F3" s="3" t="inlineStr"/>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>This is not annotated</t>
-        </is>
-      </c>
       <c r="H3" s="3" t="inlineStr"/>
       <c r="I3" s="3" t="inlineStr"/>
       <c r="J3" s="3" t="inlineStr"/>
       <c r="K3" s="3" t="inlineStr"/>
-      <c r="L3" s="3" t="inlineStr"/>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>BCI delivery</t>
+        </is>
+      </c>
       <c r="M3" s="3" t="inlineStr"/>
       <c r="N3" s="3" t="inlineStr"/>
       <c r="O3" s="3" t="inlineStr"/>
       <c r="P3" s="3" t="inlineStr"/>
       <c r="Q3" s="3" t="inlineStr">
         <is>
+          <t>JH; CM</t>
+        </is>
+      </c>
+      <c r="R3" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="S3" s="3" t="inlineStr"/>
+      <c r="T3" s="3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:008590</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>after (to be removed and added to list of relations)</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it starts following the end of another temporal part or timepoint</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>This is not annotated</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr"/>
+      <c r="I4" s="2" t="inlineStr"/>
+      <c r="J4" s="2" t="inlineStr"/>
+      <c r="K4" s="2" t="inlineStr"/>
+      <c r="L4" s="2" t="inlineStr"/>
+      <c r="M4" s="2" t="inlineStr"/>
+      <c r="N4" s="2" t="inlineStr"/>
+      <c r="O4" s="2" t="inlineStr"/>
+      <c r="P4" s="2" t="inlineStr"/>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
           <t>CM; RW</t>
         </is>
       </c>
-      <c r="R3" s="3" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S3" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T3" s="3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>BCIO:008585</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>before (to be removed and added to list of relations)</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>A part of a BCI schedule which is the relation a specified temporal part is in when it ends prior to the beginning of another temporal part or timepoint</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr"/>
-      <c r="E4" s="3" t="inlineStr"/>
-      <c r="F4" s="3" t="inlineStr"/>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr"/>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">This is not annotated </t>
         </is>
       </c>
-      <c r="H4" s="3" t="inlineStr"/>
-      <c r="I4" s="3" t="inlineStr"/>
-      <c r="J4" s="3" t="inlineStr"/>
-      <c r="K4" s="3" t="inlineStr"/>
-      <c r="L4" s="3" t="inlineStr"/>
-      <c r="M4" s="3" t="inlineStr"/>
-      <c r="N4" s="3" t="inlineStr"/>
-      <c r="O4" s="3" t="inlineStr"/>
-      <c r="P4" s="3" t="inlineStr"/>
-      <c r="Q4" s="3" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr"/>
+      <c r="I5" s="2" t="inlineStr"/>
+      <c r="J5" s="2" t="inlineStr"/>
+      <c r="K5" s="2" t="inlineStr"/>
+      <c r="L5" s="2" t="inlineStr"/>
+      <c r="M5" s="2" t="inlineStr"/>
+      <c r="N5" s="2" t="inlineStr"/>
+      <c r="O5" s="2" t="inlineStr"/>
+      <c r="P5" s="2" t="inlineStr"/>
+      <c r="Q5" s="2" t="inlineStr">
         <is>
           <t>CM; RW</t>
         </is>
       </c>
-      <c r="R4" s="3" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S4" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T4" s="3" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>BCIO:008510</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">An intervention temporal part that is an occasion in which a member of a BCI population comes into contact with a BCI.  </t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>intervention temporal part</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr"/>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A counselling session; An online chat session; An advertisement display. </t>
         </is>
       </c>
-      <c r="G5" s="3" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>This entity is never annotated. We have defined it as part of the schedule ontology as it is part of the definition of some other entities, but there is no need to annotate it as contact events are also parts so what is expressed can be sufficiently captured using just 'part' if needed.</t>
         </is>
       </c>
-      <c r="H5" s="3" t="inlineStr"/>
-      <c r="I5" s="3" t="inlineStr"/>
-      <c r="J5" s="3" t="inlineStr"/>
-      <c r="K5" s="3" t="inlineStr"/>
-      <c r="L5" s="3" t="inlineStr"/>
-      <c r="M5" s="3" t="inlineStr"/>
-      <c r="N5" s="3" t="inlineStr"/>
-      <c r="O5" s="3" t="inlineStr"/>
-      <c r="P5" s="3" t="inlineStr"/>
-      <c r="Q5" s="3" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr"/>
+      <c r="I6" s="2" t="inlineStr"/>
+      <c r="J6" s="2" t="inlineStr"/>
+      <c r="K6" s="2" t="inlineStr"/>
+      <c r="L6" s="2" t="inlineStr"/>
+      <c r="M6" s="2" t="inlineStr"/>
+      <c r="N6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="inlineStr"/>
+      <c r="P6" s="2" t="inlineStr"/>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>CM; RW</t>
         </is>
       </c>
-      <c r="R5" s="3" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S5" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T5" s="3" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:008560</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>duration of BCI (RW: BCI duration)</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>A temporal interval between the start and end of a behaviour change intervention</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:008525</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>contact event duration</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>A temporal interval between the start and end of a contact event</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr"/>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The intervention ran over "6" weeks, with weekly counselling sessions and biweekly exercise classes”  </t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>This is used to capture the overall duration of intervention delivery from first to last contact of an intervention. It does not include follow-up periods during which no content is delivered. We annotate only the number and the unit is derived from the context</t>
-        </is>
-      </c>
-      <c r="H6" s="3" t="inlineStr"/>
-      <c r="I6" s="3" t="inlineStr"/>
-      <c r="J6" s="3" t="inlineStr"/>
-      <c r="K6" s="3" t="inlineStr">
-        <is>
-          <t>BCI</t>
-        </is>
-      </c>
-      <c r="L6" s="3" t="inlineStr"/>
-      <c r="M6" s="3" t="inlineStr"/>
-      <c r="N6" s="3" t="inlineStr"/>
-      <c r="O6" s="3" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>counselling sessions were "1"hr long; for the first 5 weeks, participants received telephone calls for "30" minutes two times a week;</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr"/>
+      <c r="H7" s="2" t="inlineStr"/>
+      <c r="I7" s="2" t="inlineStr"/>
+      <c r="J7" s="2" t="inlineStr"/>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>contact event</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr"/>
+      <c r="M7" s="2" t="inlineStr"/>
+      <c r="N7" s="2" t="inlineStr"/>
+      <c r="O7" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P6" s="3" t="inlineStr"/>
-      <c r="Q6" s="3" t="inlineStr">
-        <is>
-          <t>CM; RW</t>
-        </is>
-      </c>
-      <c r="R6" s="3" t="inlineStr">
+      <c r="P7" s="2" t="inlineStr"/>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S6" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T6" s="3" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:008525</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>duration of contact event (avoid plurals generally)</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>A data item that is the length of time from start to end of a single contact event</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>data item - Time measurement datum (IAO_0000416 )</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr"/>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>counselling sessions were "1"hr long; for the first 5 weeks, participants received telephone calls for "30" minutes two times a week;</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr"/>
-      <c r="H7" s="3" t="inlineStr"/>
-      <c r="I7" s="3" t="inlineStr"/>
-      <c r="J7" s="3" t="inlineStr"/>
-      <c r="K7" s="3" t="inlineStr">
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:008555</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>frequency of sum duration of contact events</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>A data item which describes how often a specified sum duration of contact events occured during a BCI or temporal part  - combine this with the sum entity</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>data item - Frequency (SIO_001367)</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>The participants took part in 90 minutes of PA "per week"</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr"/>
+      <c r="I8" s="2" t="inlineStr"/>
+      <c r="J8" s="2" t="inlineStr"/>
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="L7" s="3" t="inlineStr"/>
-      <c r="M7" s="3" t="inlineStr"/>
-      <c r="N7" s="3" t="inlineStr"/>
-      <c r="O7" s="3" t="inlineStr">
+      <c r="L8" s="2" t="inlineStr"/>
+      <c r="M8" s="2" t="inlineStr"/>
+      <c r="N8" s="2" t="inlineStr"/>
+      <c r="O8" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P7" s="3" t="inlineStr"/>
-      <c r="Q7" s="3" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>is about contact events or is about duration of contact events?</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R7" s="3" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S7" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T7" s="3" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:008570</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>interval (remove)</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr"/>
+      <c r="D9" s="4" t="inlineStr"/>
+      <c r="E9" s="4" t="inlineStr"/>
+      <c r="F9" s="4" t="inlineStr"/>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>This is not annotated but included due to relationship with duration of interval</t>
+        </is>
+      </c>
+      <c r="H9" s="4" t="inlineStr"/>
+      <c r="I9" s="4" t="inlineStr"/>
+      <c r="J9" s="4" t="inlineStr"/>
+      <c r="K9" s="4" t="inlineStr"/>
+      <c r="L9" s="4" t="inlineStr"/>
+      <c r="M9" s="4" t="inlineStr"/>
+      <c r="N9" s="4" t="inlineStr"/>
+      <c r="O9" s="4" t="inlineStr"/>
+      <c r="P9" s="4" t="inlineStr">
+        <is>
+          <t>entity added so duration of interval can be specified. not sure what parent/relationships should be</t>
+        </is>
+      </c>
+      <c r="Q9" s="4" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R9" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="S9" s="4" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T9" s="4" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>BCIO:008575</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>duration of interval (rename to interval between intervention parts, and remove the interval entity)</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>A data item that the length of time from start to end of an interval - between the end of one part and beginning of subsequent part</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>data item - Time measurement datum (IAO_0000416 )</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr"/>
-      <c r="F8" s="3" t="inlineStr"/>
-      <c r="G8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>interval between intervention termporal parts</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>A temporal interval between the end of one intervention temporal part and the beginning of a subsequent intervention temporal part</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>This is used to capture intervals between BCI parts and timepoints. We annotate only the number and the unit is derived from the context</t>
         </is>
       </c>
-      <c r="H8" s="3" t="inlineStr"/>
-      <c r="I8" s="3" t="inlineStr"/>
-      <c r="J8" s="3" t="inlineStr"/>
-      <c r="K8" s="3" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr"/>
+      <c r="I10" s="2" t="inlineStr"/>
+      <c r="J10" s="2" t="inlineStr"/>
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>interval</t>
         </is>
       </c>
-      <c r="L8" s="3" t="inlineStr"/>
-      <c r="M8" s="3" t="inlineStr"/>
-      <c r="N8" s="3" t="inlineStr"/>
-      <c r="O8" s="3" t="inlineStr">
+      <c r="L10" s="2" t="inlineStr"/>
+      <c r="M10" s="2" t="inlineStr"/>
+      <c r="N10" s="2" t="inlineStr"/>
+      <c r="O10" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P8" s="3" t="inlineStr"/>
-      <c r="Q8" s="3" t="inlineStr">
+      <c r="P10" s="2" t="inlineStr"/>
+      <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R8" s="3" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S8" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T8" s="3" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:008565</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>duration of part</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>A data item that the length of time from start to end of a temporal part</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>data item - Time measurement datum (IAO_0000416 )</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr"/>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>The counselling sessions ran over a "6" week period, whilst the exercise classes took place over "2" weeks</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>This is used to capture the overal duration of parts. We annotate only the number and the unit is derived from the context</t>
-        </is>
-      </c>
-      <c r="H9" s="3" t="inlineStr"/>
-      <c r="I9" s="3" t="inlineStr"/>
-      <c r="J9" s="3" t="inlineStr"/>
-      <c r="K9" s="3" t="inlineStr">
-        <is>
-          <t>temporal part</t>
-        </is>
-      </c>
-      <c r="L9" s="3" t="inlineStr"/>
-      <c r="M9" s="3" t="inlineStr"/>
-      <c r="N9" s="3" t="inlineStr"/>
-      <c r="O9" s="3" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="P9" s="3" t="inlineStr"/>
-      <c r="Q9" s="3" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="R9" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="S9" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T9" s="3" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:008520</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>frequency of intervention temporal parts</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>An attribute of a BCI schedule of delivery that is how often intervention temporal parts occur within a BCI.</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>process attribute</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="inlineStr"/>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks"</t>
-        </is>
-      </c>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This is used to capture descriptions of the frequency of contact events within a part. </t>
-        </is>
-      </c>
-      <c r="H10" s="3" t="inlineStr"/>
-      <c r="I10" s="3" t="inlineStr"/>
-      <c r="J10" s="3" t="inlineStr"/>
-      <c r="K10" s="3" t="inlineStr">
-        <is>
-          <t>contact event</t>
-        </is>
-      </c>
-      <c r="L10" s="3" t="inlineStr"/>
-      <c r="M10" s="3" t="inlineStr"/>
-      <c r="N10" s="3" t="inlineStr"/>
-      <c r="O10" s="3" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="P10" s="3" t="inlineStr">
-        <is>
-          <t>needs to link to period and repetition. could it be 'has attribute' period, and 'has attribute' repetition?</t>
-        </is>
-      </c>
-      <c r="Q10" s="3" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="R10" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="S10" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T10" s="3" t="inlineStr"/>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:008555</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>frequency of sum duration of contact events</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>A data item which describes how often a specified sum duration of contact events occured during a BCI or temporal part  - combine this with the sum entity</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>data item - Frequency (SIO_001367)</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr"/>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>The participants took part in 90 minutes of PA "per week"</t>
-        </is>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
-        </is>
-      </c>
-      <c r="H11" s="3" t="inlineStr"/>
-      <c r="I11" s="3" t="inlineStr"/>
-      <c r="J11" s="3" t="inlineStr"/>
-      <c r="K11" s="3" t="inlineStr">
-        <is>
-          <t>contact event</t>
-        </is>
-      </c>
-      <c r="L11" s="3" t="inlineStr"/>
-      <c r="M11" s="3" t="inlineStr"/>
-      <c r="N11" s="3" t="inlineStr"/>
-      <c r="O11" s="3" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="P11" s="3" t="inlineStr">
-        <is>
-          <t>is about contact events or is about duration of contact events?</t>
-        </is>
-      </c>
-      <c r="Q11" s="3" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="R11" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="S11" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T11" s="3" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:008570</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>interval</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr"/>
-      <c r="D12" s="3" t="inlineStr"/>
-      <c r="E12" s="3" t="inlineStr"/>
-      <c r="F12" s="3" t="inlineStr"/>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>This is not annotated but included due to relationship with duration of interval</t>
-        </is>
-      </c>
-      <c r="H12" s="3" t="inlineStr"/>
-      <c r="I12" s="3" t="inlineStr"/>
-      <c r="J12" s="3" t="inlineStr"/>
-      <c r="K12" s="3" t="inlineStr"/>
-      <c r="L12" s="3" t="inlineStr"/>
-      <c r="M12" s="3" t="inlineStr"/>
-      <c r="N12" s="3" t="inlineStr"/>
-      <c r="O12" s="3" t="inlineStr"/>
-      <c r="P12" s="3" t="inlineStr">
-        <is>
-          <t>entity added so duration of interval can be specified. not sure what parent/relationships should be</t>
-        </is>
-      </c>
-      <c r="Q12" s="3" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="R12" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="S12" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T12" s="3" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>BCIO:008505</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>intervention temporal part</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>A planned process that is a part of a BCI.</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E13" s="3" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>Temporal parts are defined by the authors of reports. They usually group contact events with similar delivery (e.g. face-to-face), content (e.g. CBT), or contextual features (e.g. school lessons), in order to describe their schedule. Sometimes authors break a contact event up even further into temporal parts during which a particular type of content/BCT is delivered within a contact event, so that they can thoroughly describe the order/duration of the delivery of these parts. Parts can also be broken down in a purely temporal manner (e.g. the first 6 weeks) to describe schedule aspects associated with this specific parts of the intervention</t>
         </is>
       </c>
-      <c r="F13" s="3" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>The "counselling sessions" took place each week for 6 weeks, and lasted roughly one hour; Each week, participants first took part in a "group discussion" on how the previous week had gone. Following that they "redefined their goals" on the basis of this discussion, then they received a "presentation" from a health specialist on a relevant topic;During the "first 6 weeks", participants received a phone call every two weeks, then for the "last 4 weeks", this was reduced to a weekly call;</t>
         </is>
       </c>
-      <c r="G13" s="3" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Parts are a complex entity linked to many other BCIO sub-ontologies. In theory, interventions can be broken down into any number of parts, however, we only annotate this entity when the author has named a part AND used it to describe an aspect of the intervention schedule (e.g. given it a duration, defined the frequency of contact events within it, defined its order or an interval relative to a timepoint/another part).
 </t>
         </is>
       </c>
-      <c r="H13" s="3" t="inlineStr"/>
-      <c r="I13" s="3" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr"/>
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>BCI</t>
         </is>
       </c>
-      <c r="J13" s="3" t="inlineStr"/>
-      <c r="K13" s="3" t="inlineStr"/>
-      <c r="L13" s="3" t="inlineStr"/>
-      <c r="M13" s="3" t="inlineStr"/>
-      <c r="N13" s="3" t="inlineStr"/>
-      <c r="O13" s="3" t="inlineStr"/>
-      <c r="P13" s="3" t="inlineStr">
+      <c r="J11" s="2" t="inlineStr"/>
+      <c r="K11" s="2" t="inlineStr"/>
+      <c r="L11" s="2" t="inlineStr"/>
+      <c r="M11" s="2" t="inlineStr"/>
+      <c r="N11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="inlineStr"/>
+      <c r="P11" s="2" t="inlineStr">
         <is>
           <t>should this be linked to other parts of the ontology (e.g. content/mod) under 'is about'?</t>
         </is>
       </c>
-      <c r="Q13" s="3" t="inlineStr">
+      <c r="Q11" s="2" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R13" s="3" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S13" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T13" s="3" t="inlineStr"/>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:008565</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>intervention temporal part duration</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>A temporal interval between the start and end of an intervention temporal part</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>The counselling sessions ran over a "6" week period, whilst the exercise classes took place over "2" weeks</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>This is used to capture the overal duration of parts. We annotate only the number and the unit is derived from the context</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr"/>
+      <c r="I12" s="2" t="inlineStr"/>
+      <c r="J12" s="2" t="inlineStr"/>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>temporal part</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr"/>
+      <c r="M12" s="2" t="inlineStr"/>
+      <c r="N12" s="2" t="inlineStr"/>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr"/>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:008520</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>intervention temporal part frequency</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>An attribute of a BCI schedule of delivery that is how often intervention temporal parts occur within a BCI.</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>process attribute</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Contact events are intervention temporal parts so this entity also describes the frequency of contact events.</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks"</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This is used to capture descriptions of the frequency of contact events within a part. </t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr"/>
+      <c r="I13" s="2" t="inlineStr"/>
+      <c r="J13" s="2" t="inlineStr"/>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>contact event</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr"/>
+      <c r="M13" s="2" t="inlineStr"/>
+      <c r="N13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>needs to link to period and repetition. could it be 'has attribute' period, and 'has attribute' repetition?</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>BCIO:008515</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>number of contact events</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>A count data item that is the number of contact events in BCI or temporal part</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">data item - Count (STATO_0000047) </t>
         </is>
       </c>
-      <c r="E14" s="3" t="inlineStr"/>
-      <c r="F14" s="3" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>participants attended "a" gp visit ; at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes</t>
         </is>
       </c>
-      <c r="G14" s="3" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>This entity is used to capture the number of contacts in an intervention or part. We annotate only the number and include the sentence as context. When there is only one session in a part, we can annotate non-numerical words to indicate this, e.g. 'participants attended "a" gp visit'. Sometimes authors will break parts down in which case we annotate the number of contact events which add together to create a total e.g. 'at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes'.</t>
         </is>
       </c>
-      <c r="H14" s="3" t="inlineStr"/>
-      <c r="I14" s="3" t="inlineStr"/>
-      <c r="J14" s="3" t="inlineStr"/>
-      <c r="K14" s="3" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr"/>
+      <c r="I14" s="2" t="inlineStr"/>
+      <c r="J14" s="2" t="inlineStr"/>
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="L14" s="3" t="inlineStr"/>
-      <c r="M14" s="3" t="inlineStr"/>
-      <c r="N14" s="3" t="inlineStr"/>
-      <c r="O14" s="3" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr"/>
+      <c r="M14" s="2" t="inlineStr"/>
+      <c r="N14" s="2" t="inlineStr"/>
+      <c r="O14" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P14" s="3" t="inlineStr"/>
-      <c r="Q14" s="3" t="inlineStr">
+      <c r="P14" s="2" t="inlineStr"/>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R14" s="3" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S14" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T14" s="3" t="inlineStr"/>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>BCIO:008580</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>order</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>A part of BCI schedule which describes the relative temporal positioning of contact events, temporal parts and timepoints.</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr"/>
-      <c r="E15" s="3" t="inlineStr"/>
-      <c r="F15" s="3" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr"/>
+      <c r="E15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>"After questionnaires were completed, feedback was selected
 out of a database with messages for each possible combination
@@ -1370,557 +1380,557 @@
 levels to the PA guidelines."</t>
         </is>
       </c>
-      <c r="G15" s="3" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>This is annotated as an open code when any aspect of order is described</t>
         </is>
       </c>
-      <c r="H15" s="3" t="inlineStr"/>
-      <c r="I15" s="3" t="inlineStr"/>
-      <c r="J15" s="3" t="inlineStr"/>
-      <c r="K15" s="3" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr"/>
+      <c r="I15" s="2" t="inlineStr"/>
+      <c r="J15" s="2" t="inlineStr"/>
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="L15" s="3" t="inlineStr"/>
-      <c r="M15" s="3" t="inlineStr"/>
-      <c r="N15" s="3" t="inlineStr"/>
-      <c r="O15" s="3" t="inlineStr"/>
-      <c r="P15" s="3" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr"/>
+      <c r="M15" s="2" t="inlineStr"/>
+      <c r="N15" s="2" t="inlineStr"/>
+      <c r="O15" s="2" t="inlineStr"/>
+      <c r="P15" s="2" t="inlineStr">
         <is>
           <t>not sure about definitions and relationships</t>
         </is>
       </c>
-      <c r="Q15" s="3" t="inlineStr">
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R15" s="3" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S15" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T15" s="3" t="inlineStr"/>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>BCIO:008600</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>period</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>A data item that is the length of time from start to end of a temporal part or BCI for which the frequency of contact events is described</t>
         </is>
       </c>
-      <c r="D16" s="3" t="inlineStr"/>
-      <c r="E16" s="3" t="inlineStr"/>
-      <c r="F16" s="3" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr"/>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>Participants received 3 emails per "week"</t>
         </is>
       </c>
-      <c r="G16" s="3" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>This is annotated when a frequency is described using a period and a number of repetitions, rather than a single word.</t>
         </is>
       </c>
-      <c r="H16" s="3" t="inlineStr"/>
-      <c r="I16" s="3" t="inlineStr"/>
-      <c r="J16" s="3" t="inlineStr"/>
-      <c r="K16" s="3" t="inlineStr">
+      <c r="H16" s="2" t="inlineStr"/>
+      <c r="I16" s="2" t="inlineStr"/>
+      <c r="J16" s="2" t="inlineStr"/>
+      <c r="K16" s="2" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="L16" s="3" t="inlineStr"/>
-      <c r="M16" s="3" t="inlineStr"/>
-      <c r="N16" s="3" t="inlineStr"/>
-      <c r="O16" s="3" t="inlineStr">
+      <c r="L16" s="2" t="inlineStr"/>
+      <c r="M16" s="2" t="inlineStr"/>
+      <c r="N16" s="2" t="inlineStr"/>
+      <c r="O16" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P16" s="3" t="inlineStr">
+      <c r="P16" s="2" t="inlineStr">
         <is>
           <t>not sure about definitions and relationships</t>
         </is>
       </c>
-      <c r="Q16" s="3" t="inlineStr">
+      <c r="Q16" s="2" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R16" s="3" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S16" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T16" s="3" t="inlineStr"/>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>BCIO:008535</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>regular intervention schedule</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of Intervention temporal parts are uniform across the course of a BCI or BCI part.  </t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="E17" s="3" t="inlineStr"/>
-      <c r="F17" s="3" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>the "length and regularity of sessions were consistent across the duration of the intervention", taking place for an hour each week</t>
         </is>
       </c>
-      <c r="G17" s="3" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>This is used to capture when the author specifies that the schedule (length and frequency of contact events) does not change over the course of a part. This is rarely annotated as it is not usually explicitly stated.</t>
         </is>
       </c>
-      <c r="H17" s="3" t="inlineStr"/>
-      <c r="I17" s="3" t="inlineStr"/>
-      <c r="J17" s="3" t="inlineStr"/>
-      <c r="K17" s="3" t="inlineStr"/>
-      <c r="L17" s="3" t="inlineStr"/>
-      <c r="M17" s="3" t="inlineStr"/>
-      <c r="N17" s="3" t="inlineStr"/>
-      <c r="O17" s="3" t="inlineStr"/>
-      <c r="P17" s="3" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr"/>
+      <c r="I17" s="2" t="inlineStr"/>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
+      <c r="L17" s="2" t="inlineStr"/>
+      <c r="M17" s="2" t="inlineStr"/>
+      <c r="N17" s="2" t="inlineStr"/>
+      <c r="O17" s="2" t="inlineStr"/>
+      <c r="P17" s="2" t="inlineStr">
         <is>
           <t>relationship? is about schedule? or is a type of schedule?</t>
         </is>
       </c>
-      <c r="Q17" s="3" t="inlineStr">
+      <c r="Q17" s="2" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R17" s="3" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S17" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T17" s="3" t="inlineStr"/>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>BCIO:008605</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>repetition</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>A data item that is the number of repetitions of contact events within a temporal part or BCI for which the frequency is described</t>
         </is>
       </c>
-      <c r="D18" s="3" t="inlineStr"/>
-      <c r="E18" s="3" t="inlineStr"/>
-      <c r="F18" s="3" t="inlineStr">
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>Participants received "3" emails per week</t>
         </is>
       </c>
-      <c r="G18" s="3" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>This is annotated when a frequency is described using a period and a number of repetitions, rather than a single word.</t>
         </is>
       </c>
-      <c r="H18" s="3" t="inlineStr"/>
-      <c r="I18" s="3" t="inlineStr"/>
-      <c r="J18" s="3" t="inlineStr"/>
-      <c r="K18" s="3" t="inlineStr">
+      <c r="H18" s="2" t="inlineStr"/>
+      <c r="I18" s="2" t="inlineStr"/>
+      <c r="J18" s="2" t="inlineStr"/>
+      <c r="K18" s="2" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="L18" s="3" t="inlineStr"/>
-      <c r="M18" s="3" t="inlineStr"/>
-      <c r="N18" s="3" t="inlineStr"/>
-      <c r="O18" s="3" t="inlineStr">
+      <c r="L18" s="2" t="inlineStr"/>
+      <c r="M18" s="2" t="inlineStr"/>
+      <c r="N18" s="2" t="inlineStr"/>
+      <c r="O18" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P18" s="3" t="inlineStr">
+      <c r="P18" s="2" t="inlineStr">
         <is>
           <t>not sure about definitions and relationships</t>
         </is>
       </c>
-      <c r="Q18" s="3" t="inlineStr">
+      <c r="Q18" s="2" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R18" s="3" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S18" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T18" s="3" t="inlineStr"/>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="inlineStr">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>BCIO:008595</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>same time</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
         <is>
           <t>A part of a BCI schedule which is the relation a specified temporal part is in when it occurs whilst another temporal part or timepoint occurs</t>
         </is>
       </c>
-      <c r="D19" s="3" t="inlineStr"/>
-      <c r="E19" s="3" t="inlineStr"/>
-      <c r="F19" s="3" t="inlineStr"/>
-      <c r="G19" s="3" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>This is not annotated</t>
         </is>
       </c>
-      <c r="H19" s="3" t="inlineStr"/>
-      <c r="I19" s="3" t="inlineStr"/>
-      <c r="J19" s="3" t="inlineStr"/>
-      <c r="K19" s="3" t="inlineStr"/>
-      <c r="L19" s="3" t="inlineStr"/>
-      <c r="M19" s="3" t="inlineStr"/>
-      <c r="N19" s="3" t="inlineStr"/>
-      <c r="O19" s="3" t="inlineStr"/>
-      <c r="P19" s="3" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr"/>
+      <c r="J19" s="2" t="inlineStr"/>
+      <c r="K19" s="2" t="inlineStr"/>
+      <c r="L19" s="2" t="inlineStr"/>
+      <c r="M19" s="2" t="inlineStr"/>
+      <c r="N19" s="2" t="inlineStr"/>
+      <c r="O19" s="2" t="inlineStr"/>
+      <c r="P19" s="2" t="inlineStr">
         <is>
           <t>not sure about definitions and relationships</t>
         </is>
       </c>
-      <c r="Q19" s="3" t="inlineStr">
+      <c r="Q19" s="2" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R19" s="3" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S19" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T19" s="3" t="inlineStr"/>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="inlineStr">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>BCIO:008550</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>sum duration of contact events</t>
         </is>
       </c>
-      <c r="C20" s="3" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
         <is>
           <t>A data item that is the sum duration of a subset of contact events in a BCI or temporal part</t>
         </is>
       </c>
-      <c r="D20" s="3" t="inlineStr">
+      <c r="D20" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E20" s="3" t="inlineStr"/>
-      <c r="F20" s="3" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>The participants took part in "90" minutes of PA per week</t>
         </is>
       </c>
-      <c r="G20" s="3" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
         </is>
       </c>
-      <c r="H20" s="3" t="inlineStr"/>
-      <c r="I20" s="3" t="inlineStr"/>
-      <c r="J20" s="3" t="inlineStr"/>
-      <c r="K20" s="3" t="inlineStr">
+      <c r="H20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="inlineStr"/>
+      <c r="J20" s="2" t="inlineStr"/>
+      <c r="K20" s="2" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="L20" s="3" t="inlineStr"/>
-      <c r="M20" s="3" t="inlineStr"/>
-      <c r="N20" s="3" t="inlineStr"/>
-      <c r="O20" s="3" t="inlineStr">
+      <c r="L20" s="2" t="inlineStr"/>
+      <c r="M20" s="2" t="inlineStr"/>
+      <c r="N20" s="2" t="inlineStr"/>
+      <c r="O20" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P20" s="3" t="inlineStr">
+      <c r="P20" s="2" t="inlineStr">
         <is>
           <t>is about contact events or is about duration of contact events?</t>
         </is>
       </c>
-      <c r="Q20" s="3" t="inlineStr">
+      <c r="Q20" s="2" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R20" s="3" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S20" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T20" s="3" t="inlineStr"/>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>BCIO:008530</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>timepoint of event</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A part of BCI schedule of delivery that is the moment of a specific event relevant for the intervention </t>
         </is>
       </c>
-      <c r="D21" s="3" t="inlineStr"/>
-      <c r="E21" s="3" t="inlineStr">
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>Timepoints are used by authors to describe the schedules of a BCI relative to events that are not themselves parts of the BCI. This can include things like quit dates, childbirth, medical operations etc.</t>
         </is>
       </c>
-      <c r="F21" s="3" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Counselling sessions started a week after the participants "quit date"; A feedback call was scheduled to be delivered around 6 months after the "birth of the baby". </t>
         </is>
       </c>
-      <c r="G21" s="3" t="inlineStr">
+      <c r="G21" s="2" t="inlineStr">
         <is>
           <t>Annotate the words used by authors to describe key events which are not themselves part of the intervention but are relevant to the description of the schedule of the intervention.</t>
         </is>
       </c>
-      <c r="H21" s="3" t="inlineStr"/>
-      <c r="I21" s="3" t="inlineStr">
+      <c r="H21" s="2" t="inlineStr"/>
+      <c r="I21" s="2" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="J21" s="3" t="inlineStr"/>
-      <c r="K21" s="3" t="inlineStr"/>
-      <c r="L21" s="3" t="inlineStr"/>
-      <c r="M21" s="3" t="inlineStr"/>
-      <c r="N21" s="3" t="inlineStr"/>
-      <c r="O21" s="3" t="inlineStr"/>
-      <c r="P21" s="3" t="inlineStr">
+      <c r="J21" s="2" t="inlineStr"/>
+      <c r="K21" s="2" t="inlineStr"/>
+      <c r="L21" s="2" t="inlineStr"/>
+      <c r="M21" s="2" t="inlineStr"/>
+      <c r="N21" s="2" t="inlineStr"/>
+      <c r="O21" s="2" t="inlineStr"/>
+      <c r="P21" s="2" t="inlineStr">
         <is>
           <t>check relationships</t>
         </is>
       </c>
-      <c r="Q21" s="3" t="inlineStr">
+      <c r="Q21" s="2" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R21" s="3" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S21" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T21" s="3" t="inlineStr"/>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>BCIO:008545</t>
         </is>
       </c>
-      <c r="B22" s="3" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>total duration of contact events</t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>A data item that is the total duration of all contact events in a BCI or temporal part</t>
         </is>
       </c>
-      <c r="D22" s="3" t="inlineStr">
+      <c r="D22" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E22" s="3" t="inlineStr"/>
-      <c r="F22" s="3" t="inlineStr">
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>participants received "150" minutes of face-to-face counselling, split across five 30 minute sessions</t>
         </is>
       </c>
-      <c r="G22" s="3" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>Use this entity when authors describe the total amount of contact time for a particular part/intervention across multiple contact events.
 When there is only one session, the total duration of contact events and the duration of a single contact event are technically the same. As a convention, we would annotate this under duration of contact event</t>
         </is>
       </c>
-      <c r="H22" s="3" t="inlineStr"/>
-      <c r="I22" s="3" t="inlineStr"/>
-      <c r="J22" s="3" t="inlineStr"/>
-      <c r="K22" s="3" t="inlineStr">
+      <c r="H22" s="2" t="inlineStr"/>
+      <c r="I22" s="2" t="inlineStr"/>
+      <c r="J22" s="2" t="inlineStr"/>
+      <c r="K22" s="2" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="L22" s="3" t="inlineStr"/>
-      <c r="M22" s="3" t="inlineStr"/>
-      <c r="N22" s="3" t="inlineStr"/>
-      <c r="O22" s="3" t="inlineStr">
+      <c r="L22" s="2" t="inlineStr"/>
+      <c r="M22" s="2" t="inlineStr"/>
+      <c r="N22" s="2" t="inlineStr"/>
+      <c r="O22" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P22" s="3" t="inlineStr">
+      <c r="P22" s="2" t="inlineStr">
         <is>
           <t>is about contact events or is about duration of contact events?</t>
         </is>
       </c>
-      <c r="Q22" s="3" t="inlineStr">
+      <c r="Q22" s="2" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R22" s="3" t="inlineStr">
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S22" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T22" s="3" t="inlineStr"/>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t>BCIO:008540</t>
         </is>
       </c>
-      <c r="B23" s="3" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>variable schedule</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events change over the course of a temporal part or BCI.  </t>
         </is>
       </c>
-      <c r="D23" s="3" t="inlineStr"/>
-      <c r="E23" s="3" t="inlineStr"/>
-      <c r="F23" s="3" t="inlineStr">
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>telephone feedback sessions were more frequent during the first 6 weeks</t>
         </is>
       </c>
-      <c r="G23" s="3" t="inlineStr">
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>We use this to capture instances when it is clear that the schedule (i.e. duration and frequency of contact events) varies over the course of a part, but we are unable to capture the specific schedule</t>
         </is>
       </c>
-      <c r="H23" s="3" t="inlineStr"/>
-      <c r="I23" s="3" t="inlineStr"/>
-      <c r="J23" s="3" t="inlineStr"/>
-      <c r="K23" s="3" t="inlineStr"/>
-      <c r="L23" s="3" t="inlineStr"/>
-      <c r="M23" s="3" t="inlineStr"/>
-      <c r="N23" s="3" t="inlineStr"/>
-      <c r="O23" s="3" t="inlineStr"/>
-      <c r="P23" s="3" t="inlineStr">
+      <c r="H23" s="2" t="inlineStr"/>
+      <c r="I23" s="2" t="inlineStr"/>
+      <c r="J23" s="2" t="inlineStr"/>
+      <c r="K23" s="2" t="inlineStr"/>
+      <c r="L23" s="2" t="inlineStr"/>
+      <c r="M23" s="2" t="inlineStr"/>
+      <c r="N23" s="2" t="inlineStr"/>
+      <c r="O23" s="2" t="inlineStr"/>
+      <c r="P23" s="2" t="inlineStr">
         <is>
           <t>relationship? is about schedule? or is a type of schedule?</t>
         </is>
       </c>
-      <c r="Q23" s="3" t="inlineStr">
+      <c r="Q23" s="2" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R23" s="3" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S23" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T23" s="3" t="inlineStr"/>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -1399,7 +1399,7 @@
       <c r="O15" s="2" t="inlineStr"/>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>not sure about definitions and relationships</t>
+          <t>not sure about definitions and relationships. Should this be part of the relations ontology, like before and after?</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>same time</t>
+          <t>same time (remove - this is a relation like before and after)</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -1290,52 +1290,44 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008515</t>
+          <t>BCIO:008540</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>number of contact events</t>
+          <t>irregular schedule</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>A count data item that is the number of contact events in BCI or temporal part</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data item - Count (STATO_0000047) </t>
-        </is>
-      </c>
+          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events change over the course of a temporal part or BCI.  </t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="inlineStr"/>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>participants attended "a" gp visit ; at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes</t>
+          <t>telephone feedback sessions were more frequent during the first 6 weeks</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>This entity is used to capture the number of contacts in an intervention or part. We annotate only the number and include the sentence as context. When there is only one session in a part, we can annotate non-numerical words to indicate this, e.g. 'participants attended "a" gp visit'. Sometimes authors will break parts down in which case we annotate the number of contact events which add together to create a total e.g. 'at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes'.</t>
+          <t>We use this to capture instances when it is clear that the schedule (i.e. duration and frequency of contact events) varies over the course of a part, but we are unable to capture the specific schedule</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr"/>
       <c r="I14" s="2" t="inlineStr"/>
       <c r="J14" s="2" t="inlineStr"/>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>contact event</t>
-        </is>
-      </c>
+      <c r="K14" s="2" t="inlineStr"/>
       <c r="L14" s="2" t="inlineStr"/>
       <c r="M14" s="2" t="inlineStr"/>
       <c r="N14" s="2" t="inlineStr"/>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="P14" s="2" t="inlineStr"/>
+      <c r="O14" s="2" t="inlineStr"/>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>relationship? is about schedule? or is a type of schedule?</t>
+        </is>
+      </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>CM</t>
@@ -1356,22 +1348,88 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008580</t>
+          <t>BCIO:008515</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>order</t>
+          <t>number of contact events</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>A part of BCI schedule which describes the relative temporal positioning of contact events, temporal parts and timepoints.</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr"/>
+          <t>A count data item that is the number of contact events in BCI or temporal part</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data item - Count (STATO_0000047) </t>
+        </is>
+      </c>
       <c r="E15" s="2" t="inlineStr"/>
       <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>participants attended "a" gp visit ; at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>This entity is used to capture the number of contacts in an intervention or part. We annotate only the number and include the sentence as context. When there is only one session in a part, we can annotate non-numerical words to indicate this, e.g. 'participants attended "a" gp visit'. Sometimes authors will break parts down in which case we annotate the number of contact events which add together to create a total e.g. 'at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes'.</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr"/>
+      <c r="I15" s="2" t="inlineStr"/>
+      <c r="J15" s="2" t="inlineStr"/>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>contact event</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr"/>
+      <c r="M15" s="2" t="inlineStr"/>
+      <c r="N15" s="2" t="inlineStr"/>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr"/>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:008580</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>A part of BCI schedule which describes the relative temporal positioning of contact events, temporal parts and timepoints.</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr"/>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>"After questionnaires were completed, feedback was selected
 out of a database with messages for each possible combination
@@ -1380,71 +1438,9 @@
 levels to the PA guidelines."</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>This is annotated as an open code when any aspect of order is described</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr"/>
-      <c r="I15" s="2" t="inlineStr"/>
-      <c r="J15" s="2" t="inlineStr"/>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr"/>
-      <c r="M15" s="2" t="inlineStr"/>
-      <c r="N15" s="2" t="inlineStr"/>
-      <c r="O15" s="2" t="inlineStr"/>
-      <c r="P15" s="2" t="inlineStr">
-        <is>
-          <t>not sure about definitions and relationships. Should this be part of the relations ontology, like before and after?</t>
-        </is>
-      </c>
-      <c r="Q15" s="2" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="S15" s="2" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T15" s="2" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:008600</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>period</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is the length of time from start to end of a temporal part or BCI for which the frequency of contact events is described</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr"/>
-      <c r="E16" s="2" t="inlineStr"/>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>Participants received 3 emails per "week"</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>This is annotated when a frequency is described using a period and a number of repetitions, rather than a single word.</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr"/>
@@ -1452,20 +1448,16 @@
       <c r="J16" s="2" t="inlineStr"/>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>contact event</t>
+          <t>BCI schedule of delivery</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr"/>
       <c r="M16" s="2" t="inlineStr"/>
       <c r="N16" s="2" t="inlineStr"/>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
+      <c r="O16" s="2" t="inlineStr"/>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>not sure about definitions and relationships</t>
+          <t>not sure about definitions and relationships. Should this be part of the relations ontology, like before and after?</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -1488,46 +1480,50 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008535</t>
+          <t>BCIO:008600</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>regular intervention schedule</t>
+          <t>period</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of Intervention temporal parts are uniform across the course of a BCI or BCI part.  </t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
+          <t>A data item that is the length of time from start to end of a temporal part or BCI for which the frequency of contact events is described</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="inlineStr"/>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>the "length and regularity of sessions were consistent across the duration of the intervention", taking place for an hour each week</t>
+          <t>Participants received 3 emails per "week"</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>This is used to capture when the author specifies that the schedule (length and frequency of contact events) does not change over the course of a part. This is rarely annotated as it is not usually explicitly stated.</t>
+          <t>This is annotated when a frequency is described using a period and a number of repetitions, rather than a single word.</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr"/>
       <c r="I17" s="2" t="inlineStr"/>
       <c r="J17" s="2" t="inlineStr"/>
-      <c r="K17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>contact event</t>
+        </is>
+      </c>
       <c r="L17" s="2" t="inlineStr"/>
       <c r="M17" s="2" t="inlineStr"/>
       <c r="N17" s="2" t="inlineStr"/>
-      <c r="O17" s="2" t="inlineStr"/>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>relationship? is about schedule? or is a type of schedule?</t>
+          <t>not sure about definitions and relationships</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -1550,50 +1546,46 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008605</t>
+          <t>BCIO:008535</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>repetition</t>
+          <t>regular intervention schedule</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>A data item that is the number of repetitions of contact events within a temporal part or BCI for which the frequency is described</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr"/>
+          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of Intervention temporal parts are uniform across the course of a BCI or BCI part.  </t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>BCI schedule of delivery</t>
+        </is>
+      </c>
       <c r="E18" s="2" t="inlineStr"/>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>Participants received "3" emails per week</t>
+          <t>the "length and regularity of sessions were consistent across the duration of the intervention", taking place for an hour each week</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>This is annotated when a frequency is described using a period and a number of repetitions, rather than a single word.</t>
+          <t>This is used to capture when the author specifies that the schedule (length and frequency of contact events) does not change over the course of a part. This is rarely annotated as it is not usually explicitly stated.</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr"/>
       <c r="I18" s="2" t="inlineStr"/>
       <c r="J18" s="2" t="inlineStr"/>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>contact event</t>
-        </is>
-      </c>
+      <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr"/>
       <c r="M18" s="2" t="inlineStr"/>
       <c r="N18" s="2" t="inlineStr"/>
-      <c r="O18" s="2" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
+      <c r="O18" s="2" t="inlineStr"/>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>not sure about definitions and relationships</t>
+          <t>relationship? is about schedule? or is a type of schedule?</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -1616,35 +1608,47 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008595</t>
+          <t>BCIO:008605</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>same time (remove - this is a relation like before and after)</t>
+          <t>repetition</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it occurs whilst another temporal part or timepoint occurs</t>
+          <t>A data item that is the number of repetitions of contact events within a temporal part or BCI for which the frequency is described</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>Participants received "3" emails per week</t>
+        </is>
+      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>This is not annotated</t>
+          <t>This is annotated when a frequency is described using a period and a number of repetitions, rather than a single word.</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr"/>
       <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr"/>
-      <c r="K19" s="2" t="inlineStr"/>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>contact event</t>
+        </is>
+      </c>
       <c r="L19" s="2" t="inlineStr"/>
       <c r="M19" s="2" t="inlineStr"/>
       <c r="N19" s="2" t="inlineStr"/>
-      <c r="O19" s="2" t="inlineStr"/>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
           <t>not sure about definitions and relationships</t>
@@ -1670,56 +1674,36 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008550</t>
+          <t>BCIO:008595</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>sum duration of contact events</t>
+          <t>same time (remove - this is a relation like before and after)</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>A data item that is the sum duration of a subset of contact events in a BCI or temporal part</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
+          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it occurs whilst another temporal part or timepoint occurs</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>The participants took part in "90" minutes of PA per week</t>
-        </is>
-      </c>
+      <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
+          <t>This is not annotated</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr"/>
       <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>contact event</t>
-        </is>
-      </c>
+      <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr"/>
       <c r="M20" s="2" t="inlineStr"/>
       <c r="N20" s="2" t="inlineStr"/>
-      <c r="O20" s="2" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="P20" s="2" t="inlineStr">
-        <is>
-          <t>is about contact events or is about duration of contact events?</t>
-        </is>
-      </c>
+      <c r="O20" s="2" t="inlineStr"/>
+      <c r="P20" s="2" t="inlineStr"/>
       <c r="Q20" s="2" t="inlineStr">
         <is>
           <t>CM</t>
@@ -1740,50 +1724,54 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008530</t>
+          <t>BCIO:008550</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>timepoint of event</t>
+          <t>sum duration of contact events</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A part of BCI schedule of delivery that is the moment of a specific event relevant for the intervention </t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr"/>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>Timepoints are used by authors to describe the schedules of a BCI relative to events that are not themselves parts of the BCI. This can include things like quit dates, childbirth, medical operations etc.</t>
-        </is>
-      </c>
+          <t>A data item that is the sum duration of a subset of contact events in a BCI or temporal part</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Counselling sessions started a week after the participants "quit date"; A feedback call was scheduled to be delivered around 6 months after the "birth of the baby". </t>
+          <t>The participants took part in "90" minutes of PA per week</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Annotate the words used by authors to describe key events which are not themselves part of the intervention but are relevant to the description of the schedule of the intervention.</t>
+          <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr"/>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
+      <c r="I21" s="2" t="inlineStr"/>
       <c r="J21" s="2" t="inlineStr"/>
-      <c r="K21" s="2" t="inlineStr"/>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>contact event</t>
+        </is>
+      </c>
       <c r="L21" s="2" t="inlineStr"/>
       <c r="M21" s="2" t="inlineStr"/>
       <c r="N21" s="2" t="inlineStr"/>
-      <c r="O21" s="2" t="inlineStr"/>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>check relationships</t>
+          <t>is about contact events or is about duration of contact events?</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -1806,55 +1794,50 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008545</t>
+          <t>BCIO:008530</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>total duration of contact events</t>
+          <t>timepoint of event</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>A data item that is the total duration of all contact events in a BCI or temporal part</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr"/>
+          <t xml:space="preserve">A part of BCI schedule of delivery that is the moment of a specific event relevant for the intervention </t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Timepoints are used by authors to describe the schedules of a BCI relative to events that are not themselves parts of the BCI. This can include things like quit dates, childbirth, medical operations etc.</t>
+        </is>
+      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>participants received "150" minutes of face-to-face counselling, split across five 30 minute sessions</t>
+          <t xml:space="preserve">Counselling sessions started a week after the participants "quit date"; A feedback call was scheduled to be delivered around 6 months after the "birth of the baby". </t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>Use this entity when authors describe the total amount of contact time for a particular part/intervention across multiple contact events.
-When there is only one session, the total duration of contact events and the duration of a single contact event are technically the same. As a convention, we would annotate this under duration of contact event</t>
+          <t>Annotate the words used by authors to describe key events which are not themselves part of the intervention but are relevant to the description of the schedule of the intervention.</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr"/>
-      <c r="I22" s="2" t="inlineStr"/>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>BCI schedule of delivery</t>
+        </is>
+      </c>
       <c r="J22" s="2" t="inlineStr"/>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>contact event</t>
-        </is>
-      </c>
+      <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr"/>
       <c r="M22" s="2" t="inlineStr"/>
       <c r="N22" s="2" t="inlineStr"/>
-      <c r="O22" s="2" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
+      <c r="O22" s="2" t="inlineStr"/>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>is about contact events or is about duration of contact events?</t>
+          <t>check relationships</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -1877,42 +1860,55 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008540</t>
+          <t>BCIO:008545</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>variable schedule</t>
+          <t>total duration of contact events</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events change over the course of a temporal part or BCI.  </t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr"/>
+          <t>A data item that is the total duration of all contact events in a BCI or temporal part</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
       <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>telephone feedback sessions were more frequent during the first 6 weeks</t>
+          <t>participants received "150" minutes of face-to-face counselling, split across five 30 minute sessions</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>We use this to capture instances when it is clear that the schedule (i.e. duration and frequency of contact events) varies over the course of a part, but we are unable to capture the specific schedule</t>
+          <t>Use this entity when authors describe the total amount of contact time for a particular part/intervention across multiple contact events.
+When there is only one session, the total duration of contact events and the duration of a single contact event are technically the same. As a convention, we would annotate this under duration of contact event</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr"/>
       <c r="I23" s="2" t="inlineStr"/>
       <c r="J23" s="2" t="inlineStr"/>
-      <c r="K23" s="2" t="inlineStr"/>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>contact event</t>
+        </is>
+      </c>
       <c r="L23" s="2" t="inlineStr"/>
       <c r="M23" s="2" t="inlineStr"/>
       <c r="N23" s="2" t="inlineStr"/>
-      <c r="O23" s="2" t="inlineStr"/>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>relationship? is about schedule? or is a type of schedule?</t>
+          <t>is about contact events or is about duration of contact events?</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -1497,7 +1497,7 @@
       <c r="E17" s="2" t="inlineStr"/>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>Participants received 3 emails per "week"</t>
+          <t>Participants received 3 emails per "2" weeks</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1625,7 +1625,7 @@
       <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>Participants received "3" emails per week</t>
+          <t>Participants received 3 emails per "2" weeks</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -1497,7 +1497,7 @@
       <c r="E17" s="2" t="inlineStr"/>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>Participants received 3 emails per "2" weeks</t>
+          <t>Participants received 3 emails every "2" weeks</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1625,7 +1625,7 @@
       <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>Participants received 3 emails per "2" weeks</t>
+          <t>Participants received "3" emails every 2 weeks</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -918,7 +918,7 @@
       <c r="E8" s="2" t="inlineStr"/>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>The participants took part in 90 minutes of PA "per week"</t>
+          <t>The participants took part in 90 minutes of PA "weekly"</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1285,7 +1285,11 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T13" s="2" t="inlineStr"/>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>need to decide whether to have a separate additional entity for frequency of contact events (CM)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -1455,11 +1459,7 @@
       <c r="M16" s="2" t="inlineStr"/>
       <c r="N16" s="2" t="inlineStr"/>
       <c r="O16" s="2" t="inlineStr"/>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>not sure about definitions and relationships. Should this be part of the relations ontology, like before and after?</t>
-        </is>
-      </c>
+      <c r="P16" s="2" t="inlineStr"/>
       <c r="Q16" s="2" t="inlineStr">
         <is>
           <t>CM</t>
@@ -1475,7 +1475,11 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T16" s="2" t="inlineStr"/>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>not sure about definitions and relationships. Should this be part of the relations ontology, like before and after? (CM)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -1490,7 +1494,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>A data item that is the length of time from start to end of a temporal part or BCI for which the frequency of contact events is described</t>
+          <t>A temporal interval that is the length of time from start to end of a temporal part or BCI for which the frequency of contact events is described</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
@@ -1745,7 +1749,7 @@
       <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>The participants took part in "90" minutes of PA per week</t>
+          <t>The participants took part in "90" minutes of PA weekly</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1908,7 +1912,7 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>is about contact events or is about duration of contact events?</t>
+          <t>"is about" contact events or "is about" duration of contact events?</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -1808,7 +1808,7 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A part of BCI schedule of delivery that is the moment of a specific event relevant for the intervention </t>
+          <t xml:space="preserve">A part of a BCI schedule of delivery that is the moment of a specific event relevant for the intervention </t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr"/>

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -549,33 +549,29 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008560</t>
+          <t>BCIO:008605</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>BCI duration</t>
+          <t>(new) number of repetitions</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>A temporal interval between the start and end of a behaviour change intervention</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
-        </is>
-      </c>
+          <t>A data item that is the number of repetitions of contact events within a temporal part or BCI for which the frequency is described</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">The intervention ran over "6" weeks, with weekly counselling sessions and biweekly exercise classes”  </t>
+          <t>Participants received "3" emails every 2 weeks</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>This is used to capture the overall duration of intervention delivery from first to last contact of an intervention. It does not include follow-up periods during which no content is delivered. We annotate only the number and the unit is derived from the context</t>
+          <t>This is annotated when a frequency is described using a period and a number of repetitions, rather than a single word.</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr"/>
@@ -583,7 +579,7 @@
       <c r="J2" s="2" t="inlineStr"/>
       <c r="K2" s="2" t="inlineStr">
         <is>
-          <t>BCI</t>
+          <t>contact event</t>
         </is>
       </c>
       <c r="L2" s="2" t="inlineStr"/>
@@ -597,49 +593,185 @@
       <c r="P2" s="2" t="inlineStr"/>
       <c r="Q2" s="2" t="inlineStr">
         <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="inlineStr">
+        <is>
+          <t>this entity was added to allow us to more flexibly capture frequencies that have been broken down into period and repetitions. This is useful for annotations but we are unsure if it makes ontological sense to include it as it isn't really distinct from a frequency itself and relates more to how a frequency is described (CM)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:008600</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>(new) period</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>A temporal interval that is the length of time from start to end of a temporal part or BCI for which the frequency of contact events is described</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Participants received 3 emails every "2" weeks</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>This is annotated when a frequency is described using a period and a number of repetitions, rather than a single word.</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr"/>
+      <c r="I3" s="2" t="inlineStr"/>
+      <c r="J3" s="2" t="inlineStr"/>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>contact event</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="inlineStr"/>
+      <c r="M3" s="2" t="inlineStr"/>
+      <c r="N3" s="2" t="inlineStr"/>
+      <c r="O3" s="2" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="P3" s="2" t="inlineStr"/>
+      <c r="Q3" s="2" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S3" s="2" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T3" s="2" t="inlineStr">
+        <is>
+          <t>this entity was added to allow us to more flexibly capture frequencies that have been broken down into period and repetitions. This is useful for annotations but we are unsure if it makes ontological sense to include it as it isn't really distinct from a frequency itself and relates more to how a frequency is described. Perhaps this also isn't really distinct from duration of BCI/part (CM)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:008560</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>BCI duration</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>A temporal interval between the start and end of a behaviour change intervention</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The intervention ran over "6" weeks, with weekly counselling sessions and biweekly exercise classes”  </t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>This is used to capture the overall duration of intervention delivery from first to last contact of an intervention. It does not include follow-up periods during which no content is delivered. We annotate only the number and the unit is derived from the context</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr"/>
+      <c r="I4" s="2" t="inlineStr"/>
+      <c r="J4" s="2" t="inlineStr"/>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr"/>
+      <c r="M4" s="2" t="inlineStr"/>
+      <c r="N4" s="2" t="inlineStr"/>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr"/>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
           <t>CM; RW</t>
         </is>
       </c>
-      <c r="R2" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S2" s="2" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T2" s="2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>BCIO:008500</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>An attribute of a BCI delivery that involves its temporal organisation.</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>Includes the start and end of a BCI, its parts, and their organisation around relevant timepoints.</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr"/>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr"/>
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>This sub-ontology is used to capture descriptions of the intervention schedule within published reports. This includes descriptions of the duration and frequency of contact events, the length of parts of the intervention (e.g. 6 weeks), the order through which intervention content is presented, and the relative timing of contact events and key timepoints of relevance for the intervention (e.g. quit date/childbirth). 
 Schedule is annotated for all arms of the intervention, including control arms even when no content is delivered targeting the target behaviour. This is because it's often important to know whether the contact time of the control and intervention groups matched. 
@@ -648,162 +780,54 @@
 Schedule does not include things like 'number of booklets'. This forms part of dose</t>
         </is>
       </c>
-      <c r="H3" s="3" t="inlineStr"/>
-      <c r="I3" s="3" t="inlineStr"/>
-      <c r="J3" s="3" t="inlineStr"/>
-      <c r="K3" s="3" t="inlineStr"/>
-      <c r="L3" s="3" t="inlineStr">
+      <c r="H5" s="3" t="inlineStr"/>
+      <c r="I5" s="3" t="inlineStr"/>
+      <c r="J5" s="3" t="inlineStr"/>
+      <c r="K5" s="3" t="inlineStr"/>
+      <c r="L5" s="3" t="inlineStr">
         <is>
           <t>BCI delivery</t>
         </is>
       </c>
-      <c r="M3" s="3" t="inlineStr"/>
-      <c r="N3" s="3" t="inlineStr"/>
-      <c r="O3" s="3" t="inlineStr"/>
-      <c r="P3" s="3" t="inlineStr"/>
-      <c r="Q3" s="3" t="inlineStr">
+      <c r="M5" s="3" t="inlineStr"/>
+      <c r="N5" s="3" t="inlineStr"/>
+      <c r="O5" s="3" t="inlineStr"/>
+      <c r="P5" s="3" t="inlineStr"/>
+      <c r="Q5" s="3" t="inlineStr">
         <is>
           <t>JH; CM</t>
         </is>
       </c>
-      <c r="R3" s="3" t="inlineStr">
+      <c r="R5" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="S3" s="3" t="inlineStr"/>
-      <c r="T3" s="3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:008590</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>after (to be removed and added to list of relations)</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it starts following the end of another temporal part or timepoint</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr"/>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr"/>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>This is not annotated</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr"/>
-      <c r="I4" s="2" t="inlineStr"/>
-      <c r="J4" s="2" t="inlineStr"/>
-      <c r="K4" s="2" t="inlineStr"/>
-      <c r="L4" s="2" t="inlineStr"/>
-      <c r="M4" s="2" t="inlineStr"/>
-      <c r="N4" s="2" t="inlineStr"/>
-      <c r="O4" s="2" t="inlineStr"/>
-      <c r="P4" s="2" t="inlineStr"/>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>CM; RW</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:008585</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>before (to be removed and added to list of relations)</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it ends prior to the beginning of another temporal part or timepoint</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This is not annotated </t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr"/>
-      <c r="I5" s="2" t="inlineStr"/>
-      <c r="J5" s="2" t="inlineStr"/>
-      <c r="K5" s="2" t="inlineStr"/>
-      <c r="L5" s="2" t="inlineStr"/>
-      <c r="M5" s="2" t="inlineStr"/>
-      <c r="N5" s="2" t="inlineStr"/>
-      <c r="O5" s="2" t="inlineStr"/>
-      <c r="P5" s="2" t="inlineStr"/>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>CM; RW</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr"/>
+      <c r="S5" s="3" t="inlineStr"/>
+      <c r="T5" s="3" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008510</t>
+          <t>BCIO:008590</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>contact event</t>
+          <t>after (to be removed and added to list of relations)</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An intervention temporal part that is an occasion in which a member of a BCI population comes into contact with a BCI.  </t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>intervention temporal part</t>
-        </is>
-      </c>
+          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it starts following the end of another temporal part or timepoint</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A counselling session; An online chat session; An advertisement display. </t>
-        </is>
-      </c>
+      <c r="F6" s="2" t="inlineStr"/>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>This entity is never annotated. We have defined it as part of the schedule ontology as it is part of the definition of some other entities, but there is no need to annotate it as contact events are also parts so what is expressed can be sufficiently captured using just 'part' if needed.</t>
+          <t>This is not annotated</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr"/>
@@ -835,51 +859,39 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008525</t>
+          <t>BCIO:008585</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>contact event duration</t>
+          <t>before (to be removed and added to list of relations)</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>A temporal interval between the start and end of a contact event</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
-        </is>
-      </c>
+          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it ends prior to the beginning of another temporal part or timepoint</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>counselling sessions were "1"hr long; for the first 5 weeks, participants received telephone calls for "30" minutes two times a week;</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This is not annotated </t>
+        </is>
+      </c>
       <c r="H7" s="2" t="inlineStr"/>
       <c r="I7" s="2" t="inlineStr"/>
       <c r="J7" s="2" t="inlineStr"/>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>contact event</t>
-        </is>
-      </c>
+      <c r="K7" s="2" t="inlineStr"/>
       <c r="L7" s="2" t="inlineStr"/>
       <c r="M7" s="2" t="inlineStr"/>
       <c r="N7" s="2" t="inlineStr"/>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
+      <c r="O7" s="2" t="inlineStr"/>
       <c r="P7" s="2" t="inlineStr"/>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>CM; RW</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
@@ -897,149 +909,153 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008555</t>
+          <t>BCIO:008510</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>frequency of sum duration of contact events</t>
+          <t>contact event</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>A data item which describes how often a specified sum duration of contact events occured during a BCI or temporal part  - combine this with the sum entity</t>
+          <t xml:space="preserve">An intervention temporal part that is an occasion in which a member of a BCI population comes into contact with a BCI.  </t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>data item - Frequency (SIO_001367)</t>
+          <t>intervention temporal part</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr"/>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>The participants took part in 90 minutes of PA "weekly"</t>
+          <t xml:space="preserve">A counselling session; An online chat session; An advertisement display. </t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
+          <t>This entity is never annotated. We have defined it as part of the schedule ontology as it is part of the definition of some other entities, but there is no need to annotate it as contact events are also parts so what is expressed can be sufficiently captured using just 'part' if needed.</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr"/>
       <c r="I8" s="2" t="inlineStr"/>
       <c r="J8" s="2" t="inlineStr"/>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>contact event</t>
-        </is>
-      </c>
+      <c r="K8" s="2" t="inlineStr"/>
       <c r="L8" s="2" t="inlineStr"/>
       <c r="M8" s="2" t="inlineStr"/>
       <c r="N8" s="2" t="inlineStr"/>
-      <c r="O8" s="2" t="inlineStr">
+      <c r="O8" s="2" t="inlineStr"/>
+      <c r="P8" s="2" t="inlineStr"/>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>CM; RW</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:008525</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>contact event duration</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>A temporal interval between the start and end of a contact event</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>counselling sessions were "1"hr long; for the first 5 weeks, participants received telephone calls for "30" minutes two times a week;</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr"/>
+      <c r="H9" s="2" t="inlineStr"/>
+      <c r="I9" s="2" t="inlineStr"/>
+      <c r="J9" s="2" t="inlineStr"/>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>contact event</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr"/>
+      <c r="M9" s="2" t="inlineStr"/>
+      <c r="N9" s="2" t="inlineStr"/>
+      <c r="O9" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>is about contact events or is about duration of contact events?</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
+      <c r="P9" s="2" t="inlineStr"/>
+      <c r="Q9" s="2" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S8" s="2" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T8" s="2" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:008570</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>interval (remove)</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr"/>
-      <c r="D9" s="4" t="inlineStr"/>
-      <c r="E9" s="4" t="inlineStr"/>
-      <c r="F9" s="4" t="inlineStr"/>
-      <c r="G9" s="4" t="inlineStr">
-        <is>
-          <t>This is not annotated but included due to relationship with duration of interval</t>
-        </is>
-      </c>
-      <c r="H9" s="4" t="inlineStr"/>
-      <c r="I9" s="4" t="inlineStr"/>
-      <c r="J9" s="4" t="inlineStr"/>
-      <c r="K9" s="4" t="inlineStr"/>
-      <c r="L9" s="4" t="inlineStr"/>
-      <c r="M9" s="4" t="inlineStr"/>
-      <c r="N9" s="4" t="inlineStr"/>
-      <c r="O9" s="4" t="inlineStr"/>
-      <c r="P9" s="4" t="inlineStr">
-        <is>
-          <t>entity added so duration of interval can be specified. not sure what parent/relationships should be</t>
-        </is>
-      </c>
-      <c r="Q9" s="4" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="R9" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="S9" s="4" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T9" s="4" t="inlineStr"/>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008575</t>
+          <t>BCIO:008555</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>interval between intervention termporal parts</t>
+          <t>frequency of sum duration of contact events</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>A temporal interval between the end of one intervention temporal part and the beginning of a subsequent intervention temporal part</t>
+          <t>A data item which describes how often a specified sum duration of contact events occured during a BCI or temporal part  - combine this with the sum entity</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
+          <t>data item - Frequency (SIO_001367)</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>The participants took part in 90 minutes of PA "weekly"</t>
+        </is>
+      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>This is used to capture intervals between BCI parts and timepoints. We annotate only the number and the unit is derived from the context</t>
+          <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr"/>
@@ -1047,7 +1063,7 @@
       <c r="J10" s="2" t="inlineStr"/>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>interval</t>
+          <t>contact event</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr"/>
@@ -1058,7 +1074,11 @@
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P10" s="2" t="inlineStr"/>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>is about contact events or is about duration of contact events?</t>
+        </is>
+      </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>CM</t>
@@ -1077,90 +1097,69 @@
       <c r="T10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:008505</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>intervention temporal part</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>A planned process that is a part of a BCI.</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>planned process</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>Temporal parts are defined by the authors of reports. They usually group contact events with similar delivery (e.g. face-to-face), content (e.g. CBT), or contextual features (e.g. school lessons), in order to describe their schedule. Sometimes authors break a contact event up even further into temporal parts during which a particular type of content/BCT is delivered within a contact event, so that they can thoroughly describe the order/duration of the delivery of these parts. Parts can also be broken down in a purely temporal manner (e.g. the first 6 weeks) to describe schedule aspects associated with this specific parts of the intervention</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>The "counselling sessions" took place each week for 6 weeks, and lasted roughly one hour; Each week, participants first took part in a "group discussion" on how the previous week had gone. Following that they "redefined their goals" on the basis of this discussion, then they received a "presentation" from a health specialist on a relevant topic;During the "first 6 weeks", participants received a phone call every two weeks, then for the "last 4 weeks", this was reduced to a weekly call;</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parts are a complex entity linked to many other BCIO sub-ontologies. In theory, interventions can be broken down into any number of parts, however, we only annotate this entity when the author has named a part AND used it to describe an aspect of the intervention schedule (e.g. given it a duration, defined the frequency of contact events within it, defined its order or an interval relative to a timepoint/another part).
-</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr"/>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>BCI</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr"/>
-      <c r="K11" s="2" t="inlineStr"/>
-      <c r="L11" s="2" t="inlineStr"/>
-      <c r="M11" s="2" t="inlineStr"/>
-      <c r="N11" s="2" t="inlineStr"/>
-      <c r="O11" s="2" t="inlineStr"/>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>should this be linked to other parts of the ontology (e.g. content/mod) under 'is about'?</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:008570</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>interval (remove)</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr"/>
+      <c r="D11" s="4" t="inlineStr"/>
+      <c r="E11" s="4" t="inlineStr"/>
+      <c r="F11" s="4" t="inlineStr"/>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>This is not annotated but included due to relationship with duration of interval</t>
+        </is>
+      </c>
+      <c r="H11" s="4" t="inlineStr"/>
+      <c r="I11" s="4" t="inlineStr"/>
+      <c r="J11" s="4" t="inlineStr"/>
+      <c r="K11" s="4" t="inlineStr"/>
+      <c r="L11" s="4" t="inlineStr"/>
+      <c r="M11" s="4" t="inlineStr"/>
+      <c r="N11" s="4" t="inlineStr"/>
+      <c r="O11" s="4" t="inlineStr"/>
+      <c r="P11" s="4" t="inlineStr">
+        <is>
+          <t>entity added so duration of interval can be specified. not sure what parent/relationships should be</t>
+        </is>
+      </c>
+      <c r="Q11" s="4" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="S11" s="2" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T11" s="2" t="inlineStr"/>
+      <c r="R11" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="S11" s="4" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T11" s="4" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008565</t>
+          <t>BCIO:008575</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>intervention temporal part duration</t>
+          <t>interval between intervention termporal parts</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>A temporal interval between the start and end of an intervention temporal part</t>
+          <t>A temporal interval between the end of one intervention temporal part and the beginning of a subsequent intervention temporal part</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1169,14 +1168,10 @@
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr"/>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>The counselling sessions ran over a "6" week period, whilst the exercise classes took place over "2" weeks</t>
-        </is>
-      </c>
+      <c r="F12" s="2" t="inlineStr"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>This is used to capture the overal duration of parts. We annotate only the number and the unit is derived from the context</t>
+          <t>This is used to capture intervals between BCI parts and timepoints. We annotate only the number and the unit is derived from the context</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr"/>
@@ -1184,7 +1179,7 @@
       <c r="J12" s="2" t="inlineStr"/>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>temporal part</t>
+          <t>interval</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr"/>
@@ -1216,58 +1211,55 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008520</t>
+          <t>BCIO:008505</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>intervention temporal part frequency</t>
+          <t>intervention temporal part</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>An attribute of a BCI schedule of delivery that is how often intervention temporal parts occur within a BCI.</t>
+          <t>A planned process that is a part of a BCI.</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>process attribute</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>Contact events are intervention temporal parts so this entity also describes the frequency of contact events.</t>
+          <t>Temporal parts are defined by the authors of reports. They usually group contact events with similar delivery (e.g. face-to-face), content (e.g. CBT), or contextual features (e.g. school lessons), in order to describe their schedule. Sometimes authors break a contact event up even further into temporal parts during which a particular type of content/BCT is delivered within a contact event, so that they can thoroughly describe the order/duration of the delivery of these parts. Parts can also be broken down in a purely temporal manner (e.g. the first 6 weeks) to describe schedule aspects associated with this specific parts of the intervention</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks"</t>
+          <t>The "counselling sessions" took place each week for 6 weeks, and lasted roughly one hour; Each week, participants first took part in a "group discussion" on how the previous week had gone. Following that they "redefined their goals" on the basis of this discussion, then they received a "presentation" from a health specialist on a relevant topic;During the "first 6 weeks", participants received a phone call every two weeks, then for the "last 4 weeks", this was reduced to a weekly call;</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">This is used to capture descriptions of the frequency of contact events within a part. </t>
+          <t xml:space="preserve">Parts are a complex entity linked to many other BCIO sub-ontologies. In theory, interventions can be broken down into any number of parts, however, we only annotate this entity when the author has named a part AND used it to describe an aspect of the intervention schedule (e.g. given it a duration, defined the frequency of contact events within it, defined its order or an interval relative to a timepoint/another part).
+</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr"/>
-      <c r="I13" s="2" t="inlineStr"/>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
       <c r="J13" s="2" t="inlineStr"/>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>contact event</t>
-        </is>
-      </c>
+      <c r="K13" s="2" t="inlineStr"/>
       <c r="L13" s="2" t="inlineStr"/>
       <c r="M13" s="2" t="inlineStr"/>
       <c r="N13" s="2" t="inlineStr"/>
-      <c r="O13" s="2" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
+      <c r="O13" s="2" t="inlineStr"/>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>needs to link to period and repetition. could it be 'has attribute' period, and 'has attribute' repetition?</t>
+          <t>should this be linked to other parts of the ontology (e.g. content/mod) under 'is about'?</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1285,53 +1277,57 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T13" s="2" t="inlineStr">
-        <is>
-          <t>need to decide whether to have a separate additional entity for frequency of contact events (CM)</t>
-        </is>
-      </c>
+      <c r="T13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008540</t>
+          <t>BCIO:008565</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>irregular schedule</t>
+          <t>intervention temporal part duration</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events change over the course of a temporal part or BCI.  </t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr"/>
+          <t>A temporal interval between the start and end of an intervention temporal part</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
+        </is>
+      </c>
       <c r="E14" s="2" t="inlineStr"/>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>telephone feedback sessions were more frequent during the first 6 weeks</t>
+          <t>The counselling sessions ran over a "6" week period, whilst the exercise classes took place over "2" weeks</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>We use this to capture instances when it is clear that the schedule (i.e. duration and frequency of contact events) varies over the course of a part, but we are unable to capture the specific schedule</t>
+          <t>This is used to capture the overal duration of parts. We annotate only the number and the unit is derived from the context</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr"/>
       <c r="I14" s="2" t="inlineStr"/>
       <c r="J14" s="2" t="inlineStr"/>
-      <c r="K14" s="2" t="inlineStr"/>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>temporal part</t>
+        </is>
+      </c>
       <c r="L14" s="2" t="inlineStr"/>
       <c r="M14" s="2" t="inlineStr"/>
       <c r="N14" s="2" t="inlineStr"/>
-      <c r="O14" s="2" t="inlineStr"/>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>relationship? is about schedule? or is a type of schedule?</t>
-        </is>
-      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr"/>
       <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>CM</t>
@@ -1352,33 +1348,37 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008515</t>
+          <t>BCIO:008520</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>number of contact events</t>
+          <t>intervention temporal part frequency</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>A count data item that is the number of contact events in BCI or temporal part</t>
+          <t>An attribute of a BCI schedule of delivery that is how often intervention temporal parts occur within a BCI.</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">data item - Count (STATO_0000047) </t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr"/>
+          <t>process attribute</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>Contact events are intervention temporal parts so this entity also describes the frequency of contact events.</t>
+        </is>
+      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>participants attended "a" gp visit ; at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes</t>
+          <t>intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks"</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>This entity is used to capture the number of contacts in an intervention or part. We annotate only the number and include the sentence as context. When there is only one session in a part, we can annotate non-numerical words to indicate this, e.g. 'participants attended "a" gp visit'. Sometimes authors will break parts down in which case we annotate the number of contact events which add together to create a total e.g. 'at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes'.</t>
+          <t xml:space="preserve">This is used to capture descriptions of the frequency of contact events within a part. </t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr"/>
@@ -1397,7 +1397,11 @@
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P15" s="2" t="inlineStr"/>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>needs to link to period and repetition. could it be 'has attribute' period, and 'has attribute' repetition?</t>
+        </is>
+      </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>CM</t>
@@ -1413,27 +1417,159 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T15" s="2" t="inlineStr"/>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>need to decide whether to have a separate additional entity for frequency of contact events (CM)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008580</t>
+          <t>BCIO:008540</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>order</t>
+          <t>irregular schedule</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>A part of BCI schedule which describes the relative temporal positioning of contact events, temporal parts and timepoints.</t>
+          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events change over the course of a temporal part or BCI.  </t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="inlineStr"/>
       <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>telephone feedback sessions were more frequent during the first 6 weeks</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>We use this to capture instances when it is clear that the schedule (i.e. duration and frequency of contact events) varies over the course of a part, but we are unable to capture the specific schedule</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr"/>
+      <c r="I16" s="2" t="inlineStr"/>
+      <c r="J16" s="2" t="inlineStr"/>
+      <c r="K16" s="2" t="inlineStr"/>
+      <c r="L16" s="2" t="inlineStr"/>
+      <c r="M16" s="2" t="inlineStr"/>
+      <c r="N16" s="2" t="inlineStr"/>
+      <c r="O16" s="2" t="inlineStr"/>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>relationship? is about schedule? or is a type of schedule?</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>should we also add separate entities for fixed and variable schedule, to describe cases when schedules vary across participants? We previously had these entities within the ontology but they were removed as they didn't come up explicitly in papers and our old definition of variable schedule overlapped with the definition for irregular schedule (CM)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:008515</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>number of contact events</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>A count data item that is the number of contact events in BCI or temporal part</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data item - Count (STATO_0000047) </t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>participants attended "a" gp visit ; at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>This entity is used to capture the number of contacts in an intervention or part. We annotate only the number and include the sentence as context. When there is only one session in a part, we can annotate non-numerical words to indicate this, e.g. 'participants attended "a" gp visit'. Sometimes authors will break parts down in which case we annotate the number of contact events which add together to create a total e.g. 'at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes'.</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr"/>
+      <c r="I17" s="2" t="inlineStr"/>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>contact event</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr"/>
+      <c r="M17" s="2" t="inlineStr"/>
+      <c r="N17" s="2" t="inlineStr"/>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr"/>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:008580</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>A part of BCI schedule which describes the relative temporal positioning of contact events, temporal parts and timepoints.</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>"After questionnaires were completed, feedback was selected
 out of a database with messages for each possible combination
@@ -1442,156 +1578,24 @@
 levels to the PA guidelines."</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>This is annotated as an open code when any aspect of order is described</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr"/>
-      <c r="I16" s="2" t="inlineStr"/>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr"/>
-      <c r="M16" s="2" t="inlineStr"/>
-      <c r="N16" s="2" t="inlineStr"/>
-      <c r="O16" s="2" t="inlineStr"/>
-      <c r="P16" s="2" t="inlineStr"/>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="S16" s="2" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T16" s="2" t="inlineStr">
-        <is>
-          <t>not sure about definitions and relationships. Should this be part of the relations ontology, like before and after? (CM)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:008600</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>period</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>A temporal interval that is the length of time from start to end of a temporal part or BCI for which the frequency of contact events is described</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr"/>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>Participants received 3 emails every "2" weeks</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>This is annotated when a frequency is described using a period and a number of repetitions, rather than a single word.</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr"/>
-      <c r="I17" s="2" t="inlineStr"/>
-      <c r="J17" s="2" t="inlineStr"/>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>contact event</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr"/>
-      <c r="M17" s="2" t="inlineStr"/>
-      <c r="N17" s="2" t="inlineStr"/>
-      <c r="O17" s="2" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="P17" s="2" t="inlineStr">
-        <is>
-          <t>not sure about definitions and relationships</t>
-        </is>
-      </c>
-      <c r="Q17" s="2" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="S17" s="2" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T17" s="2" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:008535</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>regular intervention schedule</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of Intervention temporal parts are uniform across the course of a BCI or BCI part.  </t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>the "length and regularity of sessions were consistent across the duration of the intervention", taking place for an hour each week</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>This is used to capture when the author specifies that the schedule (length and frequency of contact events) does not change over the course of a part. This is rarely annotated as it is not usually explicitly stated.</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr"/>
       <c r="I18" s="2" t="inlineStr"/>
       <c r="J18" s="2" t="inlineStr"/>
-      <c r="K18" s="2" t="inlineStr"/>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>BCI schedule of delivery</t>
+        </is>
+      </c>
       <c r="L18" s="2" t="inlineStr"/>
       <c r="M18" s="2" t="inlineStr"/>
       <c r="N18" s="2" t="inlineStr"/>
       <c r="O18" s="2" t="inlineStr"/>
-      <c r="P18" s="2" t="inlineStr">
-        <is>
-          <t>relationship? is about schedule? or is a type of schedule?</t>
-        </is>
-      </c>
+      <c r="P18" s="2" t="inlineStr"/>
       <c r="Q18" s="2" t="inlineStr">
         <is>
           <t>CM</t>
@@ -1607,55 +1611,55 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T18" s="2" t="inlineStr"/>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>not sure about definitions and relationships. Should this be remove from the schedule ontology and instead form part of the relations ontology, like before and after? (CM)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008605</t>
+          <t>BCIO:008535</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>repetition</t>
+          <t>regular intervention schedule</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>A data item that is the number of repetitions of contact events within a temporal part or BCI for which the frequency is described</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr"/>
+          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of Intervention temporal parts are uniform across the course of a BCI or BCI part.  </t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>BCI schedule of delivery</t>
+        </is>
+      </c>
       <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>Participants received "3" emails every 2 weeks</t>
+          <t>the "length and regularity of sessions were consistent across the duration of the intervention", taking place for an hour each week</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>This is annotated when a frequency is described using a period and a number of repetitions, rather than a single word.</t>
+          <t>This is used to capture when the author specifies that the schedule (length and frequency of contact events) does not change over the course of a part. This is rarely annotated as it is not usually explicitly stated.</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr"/>
       <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr"/>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>contact event</t>
-        </is>
-      </c>
+      <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr"/>
       <c r="M19" s="2" t="inlineStr"/>
       <c r="N19" s="2" t="inlineStr"/>
-      <c r="O19" s="2" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
+      <c r="O19" s="2" t="inlineStr"/>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>not sure about definitions and relationships</t>
+          <t>relationship? is about schedule? or is a type of schedule?</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -1930,7 +1934,11 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T23" s="2" t="inlineStr"/>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>what type of data item is this? (CM)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -1094,7 +1094,11 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T10" s="2" t="inlineStr"/>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>meeting was cut short whilst JH gave feedback on these entities. JH, please could you give feedback here? I think the suggestion was to combine these two entities (BCIO:008550 and BCIO:008555)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -1797,7 +1801,11 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T21" s="2" t="inlineStr"/>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>meeting was cut short whilst JH gave feedback on these entities. JH, please could you give feedback here? I think the suggestion was to combine these two entities (BCIO:008550 and BCIO:008555)</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -1029,28 +1029,28 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008555</t>
+          <t>BCIO:008550</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>frequency of sum duration of contact events</t>
+          <t>contact event sum duration</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>A data item which describes how often a specified sum duration of contact events occured during a BCI or temporal part  - combine this with the sum entity</t>
+          <t>A data item that is the sum duration of a subset of contact events in a BCI or temporal part</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>data item - Frequency (SIO_001367)</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr"/>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>The participants took part in 90 minutes of PA "weekly"</t>
+          <t>The participants took part in "90" minutes of PA weekly</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,171 +1101,174 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:008555</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>contact event sum duration frequency</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>A data item which describes how often a specified sum duration of contact events occured during a BCI or temporal part  - combine this with the sum entity</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>data item - Frequency (SIO_001367)</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>The participants took part in 90 minutes of PA "weekly"</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr"/>
+      <c r="I11" s="2" t="inlineStr"/>
+      <c r="J11" s="2" t="inlineStr"/>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>contact event</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr"/>
+      <c r="M11" s="2" t="inlineStr"/>
+      <c r="N11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>is about contact events or is about duration of contact events?</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>meeting was cut short whilst JH gave feedback on these entities. JH, please could you give feedback here? I think the suggestion was to combine these two entities (BCIO:008550 and BCIO:008555)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>BCIO:008570</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>interval (remove)</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr"/>
-      <c r="D11" s="4" t="inlineStr"/>
-      <c r="E11" s="4" t="inlineStr"/>
-      <c r="F11" s="4" t="inlineStr"/>
-      <c r="G11" s="4" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr"/>
+      <c r="D12" s="4" t="inlineStr"/>
+      <c r="E12" s="4" t="inlineStr"/>
+      <c r="F12" s="4" t="inlineStr"/>
+      <c r="G12" s="4" t="inlineStr">
         <is>
           <t>This is not annotated but included due to relationship with duration of interval</t>
         </is>
       </c>
-      <c r="H11" s="4" t="inlineStr"/>
-      <c r="I11" s="4" t="inlineStr"/>
-      <c r="J11" s="4" t="inlineStr"/>
-      <c r="K11" s="4" t="inlineStr"/>
-      <c r="L11" s="4" t="inlineStr"/>
-      <c r="M11" s="4" t="inlineStr"/>
-      <c r="N11" s="4" t="inlineStr"/>
-      <c r="O11" s="4" t="inlineStr"/>
-      <c r="P11" s="4" t="inlineStr">
+      <c r="H12" s="4" t="inlineStr"/>
+      <c r="I12" s="4" t="inlineStr"/>
+      <c r="J12" s="4" t="inlineStr"/>
+      <c r="K12" s="4" t="inlineStr"/>
+      <c r="L12" s="4" t="inlineStr"/>
+      <c r="M12" s="4" t="inlineStr"/>
+      <c r="N12" s="4" t="inlineStr"/>
+      <c r="O12" s="4" t="inlineStr"/>
+      <c r="P12" s="4" t="inlineStr">
         <is>
           <t>entity added so duration of interval can be specified. not sure what parent/relationships should be</t>
         </is>
       </c>
-      <c r="Q11" s="4" t="inlineStr">
+      <c r="Q12" s="4" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R11" s="4" t="inlineStr">
+      <c r="R12" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="S11" s="4" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T11" s="4" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:008575</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>interval between intervention termporal parts</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>A temporal interval between the end of one intervention temporal part and the beginning of a subsequent intervention temporal part</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr"/>
-      <c r="F12" s="2" t="inlineStr"/>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>This is used to capture intervals between BCI parts and timepoints. We annotate only the number and the unit is derived from the context</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr"/>
-      <c r="I12" s="2" t="inlineStr"/>
-      <c r="J12" s="2" t="inlineStr"/>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>interval</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr"/>
-      <c r="M12" s="2" t="inlineStr"/>
-      <c r="N12" s="2" t="inlineStr"/>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr"/>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="S12" s="2" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T12" s="2" t="inlineStr"/>
+      <c r="S12" s="4" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T12" s="4" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008505</t>
+          <t>BCIO:008575</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>intervention temporal part</t>
+          <t>interval between intervention termporal parts</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>A planned process that is a part of a BCI.</t>
+          <t>A temporal interval between the end of one intervention temporal part and the beginning of a subsequent intervention temporal part</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>Temporal parts are defined by the authors of reports. They usually group contact events with similar delivery (e.g. face-to-face), content (e.g. CBT), or contextual features (e.g. school lessons), in order to describe their schedule. Sometimes authors break a contact event up even further into temporal parts during which a particular type of content/BCT is delivered within a contact event, so that they can thoroughly describe the order/duration of the delivery of these parts. Parts can also be broken down in a purely temporal manner (e.g. the first 6 weeks) to describe schedule aspects associated with this specific parts of the intervention</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>The "counselling sessions" took place each week for 6 weeks, and lasted roughly one hour; Each week, participants first took part in a "group discussion" on how the previous week had gone. Following that they "redefined their goals" on the basis of this discussion, then they received a "presentation" from a health specialist on a relevant topic;During the "first 6 weeks", participants received a phone call every two weeks, then for the "last 4 weeks", this was reduced to a weekly call;</t>
-        </is>
-      </c>
+          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr"/>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Parts are a complex entity linked to many other BCIO sub-ontologies. In theory, interventions can be broken down into any number of parts, however, we only annotate this entity when the author has named a part AND used it to describe an aspect of the intervention schedule (e.g. given it a duration, defined the frequency of contact events within it, defined its order or an interval relative to a timepoint/another part).
-</t>
+          <t>This is used to capture intervals between BCI parts and timepoints. We annotate only the number and the unit is derived from the context</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr"/>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>BCI</t>
-        </is>
-      </c>
+      <c r="I13" s="2" t="inlineStr"/>
       <c r="J13" s="2" t="inlineStr"/>
-      <c r="K13" s="2" t="inlineStr"/>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>interval</t>
+        </is>
+      </c>
       <c r="L13" s="2" t="inlineStr"/>
       <c r="M13" s="2" t="inlineStr"/>
       <c r="N13" s="2" t="inlineStr"/>
-      <c r="O13" s="2" t="inlineStr"/>
-      <c r="P13" s="2" t="inlineStr">
-        <is>
-          <t>should this be linked to other parts of the ontology (e.g. content/mod) under 'is about'?</t>
-        </is>
-      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr"/>
       <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>CM</t>
@@ -1286,52 +1289,57 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008565</t>
+          <t>BCIO:008505</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>intervention temporal part duration</t>
+          <t>intervention temporal part</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>A temporal interval between the start and end of an intervention temporal part</t>
+          <t>A planned process that is a part of a BCI.</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr"/>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>Temporal parts are defined by the authors of reports. They usually group contact events with similar delivery (e.g. face-to-face), content (e.g. CBT), or contextual features (e.g. school lessons), in order to describe their schedule. Sometimes authors break a contact event up even further into temporal parts during which a particular type of content/BCT is delivered within a contact event, so that they can thoroughly describe the order/duration of the delivery of these parts. Parts can also be broken down in a purely temporal manner (e.g. the first 6 weeks) to describe schedule aspects associated with this specific parts of the intervention</t>
+        </is>
+      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>The counselling sessions ran over a "6" week period, whilst the exercise classes took place over "2" weeks</t>
+          <t>The "counselling sessions" took place each week for 6 weeks, and lasted roughly one hour; Each week, participants first took part in a "group discussion" on how the previous week had gone. Following that they "redefined their goals" on the basis of this discussion, then they received a "presentation" from a health specialist on a relevant topic;During the "first 6 weeks", participants received a phone call every two weeks, then for the "last 4 weeks", this was reduced to a weekly call;</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>This is used to capture the overal duration of parts. We annotate only the number and the unit is derived from the context</t>
+          <t xml:space="preserve">Parts are a complex entity linked to many other BCIO sub-ontologies. In theory, interventions can be broken down into any number of parts, however, we only annotate this entity when the author has named a part AND used it to describe an aspect of the intervention schedule (e.g. given it a duration, defined the frequency of contact events within it, defined its order or an interval relative to a timepoint/another part).
+</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr"/>
-      <c r="I14" s="2" t="inlineStr"/>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
       <c r="J14" s="2" t="inlineStr"/>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>temporal part</t>
-        </is>
-      </c>
+      <c r="K14" s="2" t="inlineStr"/>
       <c r="L14" s="2" t="inlineStr"/>
       <c r="M14" s="2" t="inlineStr"/>
       <c r="N14" s="2" t="inlineStr"/>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="P14" s="2" t="inlineStr"/>
+      <c r="O14" s="2" t="inlineStr"/>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>should this be linked to other parts of the ontology (e.g. content/mod) under 'is about'?</t>
+        </is>
+      </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>CM</t>
@@ -1352,37 +1360,33 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008520</t>
+          <t>BCIO:008565</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>intervention temporal part frequency</t>
+          <t>intervention temporal part duration</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>An attribute of a BCI schedule of delivery that is how often intervention temporal parts occur within a BCI.</t>
+          <t>A temporal interval between the start and end of an intervention temporal part</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>process attribute</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>Contact events are intervention temporal parts so this entity also describes the frequency of contact events.</t>
-        </is>
-      </c>
+          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr"/>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks"</t>
+          <t>The counselling sessions ran over a "6" week period, whilst the exercise classes took place over "2" weeks</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">This is used to capture descriptions of the frequency of contact events within a part. </t>
+          <t>This is used to capture the overal duration of parts. We annotate only the number and the unit is derived from the context</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr"/>
@@ -1390,7 +1394,7 @@
       <c r="J15" s="2" t="inlineStr"/>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>contact event</t>
+          <t>temporal part</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr"/>
@@ -1401,11 +1405,7 @@
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P15" s="2" t="inlineStr">
-        <is>
-          <t>needs to link to period and repetition. could it be 'has attribute' period, and 'has attribute' repetition?</t>
-        </is>
-      </c>
+      <c r="P15" s="2" t="inlineStr"/>
       <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>CM</t>
@@ -1421,51 +1421,63 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T15" s="2" t="inlineStr">
-        <is>
-          <t>need to decide whether to have a separate additional entity for frequency of contact events (CM)</t>
-        </is>
-      </c>
+      <c r="T15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008540</t>
+          <t>BCIO:008520</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>irregular schedule</t>
+          <t>intervention temporal part frequency</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events change over the course of a temporal part or BCI.  </t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr"/>
-      <c r="E16" s="2" t="inlineStr"/>
+          <t>An attribute of a BCI schedule of delivery that is how often intervention temporal parts occur within a BCI.</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>process attribute</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>Contact events are intervention temporal parts so this entity also describes the frequency of contact events.</t>
+        </is>
+      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>telephone feedback sessions were more frequent during the first 6 weeks</t>
+          <t>intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks"</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>We use this to capture instances when it is clear that the schedule (i.e. duration and frequency of contact events) varies over the course of a part, but we are unable to capture the specific schedule</t>
+          <t xml:space="preserve">This is used to capture descriptions of the frequency of contact events within a part. </t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr"/>
       <c r="I16" s="2" t="inlineStr"/>
       <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>contact event</t>
+        </is>
+      </c>
       <c r="L16" s="2" t="inlineStr"/>
       <c r="M16" s="2" t="inlineStr"/>
       <c r="N16" s="2" t="inlineStr"/>
-      <c r="O16" s="2" t="inlineStr"/>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>relationship? is about schedule? or is a type of schedule?</t>
+          <t>needs to link to period and repetition. could it be 'has attribute' period, and 'has attribute' repetition?</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -1485,59 +1497,51 @@
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>should we also add separate entities for fixed and variable schedule, to describe cases when schedules vary across participants? We previously had these entities within the ontology but they were removed as they didn't come up explicitly in papers and our old definition of variable schedule overlapped with the definition for irregular schedule (CM)</t>
+          <t>need to decide whether to have a separate additional entity for frequency of contact events (CM)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008515</t>
+          <t>BCIO:008540</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>number of contact events</t>
+          <t>irregular schedule</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>A count data item that is the number of contact events in BCI or temporal part</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data item - Count (STATO_0000047) </t>
-        </is>
-      </c>
+          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events change over the course of a temporal part or BCI.  </t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="inlineStr"/>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>participants attended "a" gp visit ; at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes</t>
+          <t>telephone feedback sessions were more frequent during the first 6 weeks</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>This entity is used to capture the number of contacts in an intervention or part. We annotate only the number and include the sentence as context. When there is only one session in a part, we can annotate non-numerical words to indicate this, e.g. 'participants attended "a" gp visit'. Sometimes authors will break parts down in which case we annotate the number of contact events which add together to create a total e.g. 'at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes'.</t>
+          <t>We use this to capture instances when it is clear that the schedule (i.e. duration and frequency of contact events) varies over the course of a part, but we are unable to capture the specific schedule</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr"/>
       <c r="I17" s="2" t="inlineStr"/>
       <c r="J17" s="2" t="inlineStr"/>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>contact event</t>
-        </is>
-      </c>
+      <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr"/>
       <c r="M17" s="2" t="inlineStr"/>
       <c r="N17" s="2" t="inlineStr"/>
-      <c r="O17" s="2" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="P17" s="2" t="inlineStr"/>
+      <c r="O17" s="2" t="inlineStr"/>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>relationship? is about schedule? or is a type of schedule?</t>
+        </is>
+      </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
           <t>CM</t>
@@ -1553,27 +1557,97 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T17" s="2" t="inlineStr"/>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>should we also add separate entities for fixed and variable schedule, to describe cases when schedules vary across participants? We previously had these entities within the ontology but they were removed as they didn't come up explicitly in papers and our old definition of variable schedule overlapped with the definition for irregular schedule (CM)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008580</t>
+          <t>BCIO:008515</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>order</t>
+          <t>number of contact events</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>A part of BCI schedule which describes the relative temporal positioning of contact events, temporal parts and timepoints.</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr"/>
+          <t>A count data item that is the number of contact events in BCI or temporal part</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data item - Count (STATO_0000047) </t>
+        </is>
+      </c>
       <c r="E18" s="2" t="inlineStr"/>
       <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>participants attended "a" gp visit ; at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>This entity is used to capture the number of contacts in an intervention or part. We annotate only the number and include the sentence as context. When there is only one session in a part, we can annotate non-numerical words to indicate this, e.g. 'participants attended "a" gp visit'. Sometimes authors will break parts down in which case we annotate the number of contact events which add together to create a total e.g. 'at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes'.</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr"/>
+      <c r="I18" s="2" t="inlineStr"/>
+      <c r="J18" s="2" t="inlineStr"/>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>contact event</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr"/>
+      <c r="M18" s="2" t="inlineStr"/>
+      <c r="N18" s="2" t="inlineStr"/>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr"/>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:008580</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>A part of BCI schedule which describes the relative temporal positioning of contact events, temporal parts and timepoints.</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>"After questionnaires were completed, feedback was selected
 out of a database with messages for each possible combination
@@ -1582,90 +1656,24 @@
 levels to the PA guidelines."</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>This is annotated as an open code when any aspect of order is described</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr"/>
-      <c r="I18" s="2" t="inlineStr"/>
-      <c r="J18" s="2" t="inlineStr"/>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr"/>
-      <c r="M18" s="2" t="inlineStr"/>
-      <c r="N18" s="2" t="inlineStr"/>
-      <c r="O18" s="2" t="inlineStr"/>
-      <c r="P18" s="2" t="inlineStr"/>
-      <c r="Q18" s="2" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="S18" s="2" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T18" s="2" t="inlineStr">
-        <is>
-          <t>not sure about definitions and relationships. Should this be remove from the schedule ontology and instead form part of the relations ontology, like before and after? (CM)</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:008535</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>regular intervention schedule</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of Intervention temporal parts are uniform across the course of a BCI or BCI part.  </t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>the "length and regularity of sessions were consistent across the duration of the intervention", taking place for an hour each week</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>This is used to capture when the author specifies that the schedule (length and frequency of contact events) does not change over the course of a part. This is rarely annotated as it is not usually explicitly stated.</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr"/>
       <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr"/>
-      <c r="K19" s="2" t="inlineStr"/>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>BCI schedule of delivery</t>
+        </is>
+      </c>
       <c r="L19" s="2" t="inlineStr"/>
       <c r="M19" s="2" t="inlineStr"/>
       <c r="N19" s="2" t="inlineStr"/>
       <c r="O19" s="2" t="inlineStr"/>
-      <c r="P19" s="2" t="inlineStr">
-        <is>
-          <t>relationship? is about schedule? or is a type of schedule?</t>
-        </is>
-      </c>
+      <c r="P19" s="2" t="inlineStr"/>
       <c r="Q19" s="2" t="inlineStr">
         <is>
           <t>CM</t>
@@ -1681,30 +1689,42 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T19" s="2" t="inlineStr"/>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>not sure about definitions and relationships. Should this be remove from the schedule ontology and instead form part of the relations ontology, like before and after? (CM)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008595</t>
+          <t>BCIO:008535</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>same time (remove - this is a relation like before and after)</t>
+          <t>regular intervention schedule</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it occurs whilst another temporal part or timepoint occurs</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr"/>
+          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of Intervention temporal parts are uniform across the course of a BCI or BCI part.  </t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>BCI schedule of delivery</t>
+        </is>
+      </c>
       <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>the "length and regularity of sessions were consistent across the duration of the intervention", taking place for an hour each week</t>
+        </is>
+      </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>This is not annotated</t>
+          <t>This is used to capture when the author specifies that the schedule (length and frequency of contact events) does not change over the course of a part. This is rarely annotated as it is not usually explicitly stated.</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr"/>
@@ -1715,7 +1735,11 @@
       <c r="M20" s="2" t="inlineStr"/>
       <c r="N20" s="2" t="inlineStr"/>
       <c r="O20" s="2" t="inlineStr"/>
-      <c r="P20" s="2" t="inlineStr"/>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>relationship? is about schedule? or is a type of schedule?</t>
+        </is>
+      </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
           <t>CM</t>
@@ -1736,56 +1760,36 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008550</t>
+          <t>BCIO:008595</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>sum duration of contact events</t>
+          <t>same time (remove - this is a relation like before and after)</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>A data item that is the sum duration of a subset of contact events in a BCI or temporal part</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
+          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it occurs whilst another temporal part or timepoint occurs</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>The participants took part in "90" minutes of PA weekly</t>
-        </is>
-      </c>
+      <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
+          <t>This is not annotated</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr"/>
       <c r="I21" s="2" t="inlineStr"/>
       <c r="J21" s="2" t="inlineStr"/>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>contact event</t>
-        </is>
-      </c>
+      <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr"/>
       <c r="M21" s="2" t="inlineStr"/>
       <c r="N21" s="2" t="inlineStr"/>
-      <c r="O21" s="2" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="P21" s="2" t="inlineStr">
-        <is>
-          <t>is about contact events or is about duration of contact events?</t>
-        </is>
-      </c>
+      <c r="O21" s="2" t="inlineStr"/>
+      <c r="P21" s="2" t="inlineStr"/>
       <c r="Q21" s="2" t="inlineStr">
         <is>
           <t>CM</t>
@@ -1801,11 +1805,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T21" s="2" t="inlineStr">
-        <is>
-          <t>meeting was cut short whilst JH gave feedback on these entities. JH, please could you give feedback here? I think the suggestion was to combine these two entities (BCIO:008550 and BCIO:008555)</t>
-        </is>
-      </c>
+      <c r="T21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>total duration of contact events</t>
+          <t>total contact event duration</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -615,29 +615,33 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008600</t>
+          <t>BCIO:008560</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>(new) period</t>
+          <t>BCI duration</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>A temporal interval that is the length of time from start to end of a temporal part or BCI for which the frequency of contact events is described</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr"/>
+          <t>A temporal interval between the start and end of a behaviour change intervention</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
+        </is>
+      </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>Participants received 3 emails every "2" weeks</t>
+          <t xml:space="preserve">The intervention ran over "6" weeks, with weekly counselling sessions and biweekly exercise classes”  </t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>This is annotated when a frequency is described using a period and a number of repetitions, rather than a single word.</t>
+          <t>This is used to capture the overall duration of intervention delivery from first to last contact of an intervention. It does not include follow-up periods during which no content is delivered. We annotate only the number and the unit is derived from the context</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr"/>
@@ -645,7 +649,7 @@
       <c r="J3" s="2" t="inlineStr"/>
       <c r="K3" s="2" t="inlineStr">
         <is>
-          <t>contact event</t>
+          <t>BCI</t>
         </is>
       </c>
       <c r="L3" s="2" t="inlineStr"/>
@@ -659,7 +663,7 @@
       <c r="P3" s="2" t="inlineStr"/>
       <c r="Q3" s="2" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>CM; RW</t>
         </is>
       </c>
       <c r="R3" s="2" t="inlineStr">
@@ -672,106 +676,36 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T3" s="2" t="inlineStr">
-        <is>
-          <t>this entity was added to allow us to more flexibly capture frequencies that have been broken down into period and repetitions. This is useful for annotations but we are unsure if it makes ontological sense to include it as it isn't really distinct from a frequency itself and relates more to how a frequency is described. Perhaps this also isn't really distinct from duration of BCI/part (CM)</t>
-        </is>
-      </c>
+      <c r="T3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:008560</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>BCI duration</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>A temporal interval between the start and end of a behaviour change intervention</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The intervention ran over "6" weeks, with weekly counselling sessions and biweekly exercise classes”  </t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>This is used to capture the overall duration of intervention delivery from first to last contact of an intervention. It does not include follow-up periods during which no content is delivered. We annotate only the number and the unit is derived from the context</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr"/>
-      <c r="I4" s="2" t="inlineStr"/>
-      <c r="J4" s="2" t="inlineStr"/>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>BCI</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr"/>
-      <c r="M4" s="2" t="inlineStr"/>
-      <c r="N4" s="2" t="inlineStr"/>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr"/>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>CM; RW</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>BCIO:008500</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>An attribute of a BCI delivery that involves its temporal organisation.</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>Includes the start and end of a BCI, its parts, and their organisation around relevant timepoints.</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr"/>
-      <c r="G5" s="3" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr"/>
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t>This sub-ontology is used to capture descriptions of the intervention schedule within published reports. This includes descriptions of the duration and frequency of contact events, the length of parts of the intervention (e.g. 6 weeks), the order through which intervention content is presented, and the relative timing of contact events and key timepoints of relevance for the intervention (e.g. quit date/childbirth). 
 Schedule is annotated for all arms of the intervention, including control arms even when no content is delivered targeting the target behaviour. This is because it's often important to know whether the contact time of the control and intervention groups matched. 
@@ -780,46 +714,96 @@
 Schedule does not include things like 'number of booklets'. This forms part of dose</t>
         </is>
       </c>
-      <c r="H5" s="3" t="inlineStr"/>
-      <c r="I5" s="3" t="inlineStr"/>
-      <c r="J5" s="3" t="inlineStr"/>
-      <c r="K5" s="3" t="inlineStr"/>
-      <c r="L5" s="3" t="inlineStr">
+      <c r="H4" s="3" t="inlineStr"/>
+      <c r="I4" s="3" t="inlineStr"/>
+      <c r="J4" s="3" t="inlineStr"/>
+      <c r="K4" s="3" t="inlineStr"/>
+      <c r="L4" s="3" t="inlineStr">
         <is>
           <t>BCI delivery</t>
         </is>
       </c>
-      <c r="M5" s="3" t="inlineStr"/>
-      <c r="N5" s="3" t="inlineStr"/>
-      <c r="O5" s="3" t="inlineStr"/>
-      <c r="P5" s="3" t="inlineStr"/>
-      <c r="Q5" s="3" t="inlineStr">
+      <c r="M4" s="3" t="inlineStr"/>
+      <c r="N4" s="3" t="inlineStr"/>
+      <c r="O4" s="3" t="inlineStr"/>
+      <c r="P4" s="3" t="inlineStr"/>
+      <c r="Q4" s="3" t="inlineStr">
         <is>
           <t>JH; CM</t>
         </is>
       </c>
-      <c r="R5" s="3" t="inlineStr">
+      <c r="R4" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="S5" s="3" t="inlineStr"/>
-      <c r="T5" s="3" t="inlineStr"/>
+      <c r="S4" s="3" t="inlineStr"/>
+      <c r="T4" s="3" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:008590</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>after (to be removed and added to list of relations)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it starts following the end of another temporal part or timepoint</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr"/>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>This is not annotated</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr"/>
+      <c r="I5" s="2" t="inlineStr"/>
+      <c r="J5" s="2" t="inlineStr"/>
+      <c r="K5" s="2" t="inlineStr"/>
+      <c r="L5" s="2" t="inlineStr"/>
+      <c r="M5" s="2" t="inlineStr"/>
+      <c r="N5" s="2" t="inlineStr"/>
+      <c r="O5" s="2" t="inlineStr"/>
+      <c r="P5" s="2" t="inlineStr"/>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>CM; RW</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008590</t>
+          <t>BCIO:008585</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>after (to be removed and added to list of relations)</t>
+          <t>before (to be removed and added to list of relations)</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it starts following the end of another temporal part or timepoint</t>
+          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it ends prior to the beginning of another temporal part or timepoint</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
@@ -827,7 +811,7 @@
       <c r="F6" s="2" t="inlineStr"/>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>This is not annotated</t>
+          <t xml:space="preserve">This is not annotated </t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr"/>
@@ -859,25 +843,33 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008585</t>
+          <t>BCIO:008510</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>before (to be removed and added to list of relations)</t>
+          <t>contact event</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it ends prior to the beginning of another temporal part or timepoint</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr"/>
+          <t xml:space="preserve">An intervention temporal part that is an occasion in which a member of a BCI population comes into contact with a BCI.  </t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>intervention temporal part</t>
+        </is>
+      </c>
       <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A counselling session; An online chat session; An advertisement display. </t>
+        </is>
+      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">This is not annotated </t>
+          <t>This entity is never annotated. We have defined it as part of the schedule ontology as it is part of the definition of some other entities, but there is no need to annotate it as contact events are also parts so what is expressed can be sufficiently captured using just 'part' if needed.</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr"/>
@@ -909,47 +901,51 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008510</t>
+          <t>BCIO:008525</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>contact event</t>
+          <t>contact event duration</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An intervention temporal part that is an occasion in which a member of a BCI population comes into contact with a BCI.  </t>
+          <t>A temporal interval between the start and end of a contact event</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>intervention temporal part</t>
+          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr"/>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A counselling session; An online chat session; An advertisement display. </t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>This entity is never annotated. We have defined it as part of the schedule ontology as it is part of the definition of some other entities, but there is no need to annotate it as contact events are also parts so what is expressed can be sufficiently captured using just 'part' if needed.</t>
-        </is>
-      </c>
+          <t>counselling sessions were "1"hr long; for the first 5 weeks, participants received telephone calls for "30" minutes two times a week;</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr"/>
       <c r="H8" s="2" t="inlineStr"/>
       <c r="I8" s="2" t="inlineStr"/>
       <c r="J8" s="2" t="inlineStr"/>
-      <c r="K8" s="2" t="inlineStr"/>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>contact event</t>
+        </is>
+      </c>
       <c r="L8" s="2" t="inlineStr"/>
       <c r="M8" s="2" t="inlineStr"/>
       <c r="N8" s="2" t="inlineStr"/>
-      <c r="O8" s="2" t="inlineStr"/>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="P8" s="2" t="inlineStr"/>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>CM; RW</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
@@ -967,31 +963,35 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008525</t>
+          <t>BCIO:008550</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>contact event duration</t>
+          <t>contact event sum duration</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>A temporal interval between the start and end of a contact event</t>
+          <t>A data item that is the sum duration of a subset of contact events in a BCI or temporal part</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr"/>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>counselling sessions were "1"hr long; for the first 5 weeks, participants received telephone calls for "30" minutes two times a week;</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr"/>
+          <t>The participants took part in "90" minutes of PA weekly</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
+        </is>
+      </c>
       <c r="H9" s="2" t="inlineStr"/>
       <c r="I9" s="2" t="inlineStr"/>
       <c r="J9" s="2" t="inlineStr"/>
@@ -1008,7 +1008,11 @@
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P9" s="2" t="inlineStr"/>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>is about contact events or is about duration of contact events?</t>
+        </is>
+      </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
           <t>CM</t>
@@ -1024,33 +1028,37 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T9" s="2" t="inlineStr"/>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>meeting was cut short whilst JH gave feedback on these entities. JH, please could you give feedback here? I think the suggestion was to combine these two entities (BCIO:008550 and BCIO:008555)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008550</t>
+          <t>BCIO:008555</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>contact event sum duration</t>
+          <t>contact event sum duration frequency</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>A data item that is the sum duration of a subset of contact events in a BCI or temporal part</t>
+          <t>A data item which describes how often a specified sum duration of contact events occured during a BCI or temporal part</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>data item - Frequency (SIO_001367)</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr"/>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>The participants took part in "90" minutes of PA weekly</t>
+          <t>The participants took part in 90 minutes of PA "weekly"</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,174 +1109,171 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:008555</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>contact event sum duration frequency</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>A data item which describes how often a specified sum duration of contact events occured during a BCI or temporal part  - combine this with the sum entity</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>data item - Frequency (SIO_001367)</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>The participants took part in 90 minutes of PA "weekly"</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr"/>
-      <c r="I11" s="2" t="inlineStr"/>
-      <c r="J11" s="2" t="inlineStr"/>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>contact event</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr"/>
-      <c r="M11" s="2" t="inlineStr"/>
-      <c r="N11" s="2" t="inlineStr"/>
-      <c r="O11" s="2" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:008570</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>interval (remove)</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr"/>
+      <c r="D11" s="4" t="inlineStr"/>
+      <c r="E11" s="4" t="inlineStr"/>
+      <c r="F11" s="4" t="inlineStr"/>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>This is not annotated but included due to relationship with duration of interval</t>
+        </is>
+      </c>
+      <c r="H11" s="4" t="inlineStr"/>
+      <c r="I11" s="4" t="inlineStr"/>
+      <c r="J11" s="4" t="inlineStr"/>
+      <c r="K11" s="4" t="inlineStr"/>
+      <c r="L11" s="4" t="inlineStr"/>
+      <c r="M11" s="4" t="inlineStr"/>
+      <c r="N11" s="4" t="inlineStr"/>
+      <c r="O11" s="4" t="inlineStr"/>
+      <c r="P11" s="4" t="inlineStr">
+        <is>
+          <t>entity added so duration of interval can be specified. not sure what parent/relationships should be</t>
+        </is>
+      </c>
+      <c r="Q11" s="4" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R11" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="S11" s="4" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T11" s="4" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:008575</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>interval between intervention termporal parts</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>A temporal interval between the end of one intervention temporal part and the beginning of a subsequent intervention temporal part</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr"/>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>This is used to capture intervals between BCI parts and timepoints. We annotate only the number and the unit is derived from the context</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr"/>
+      <c r="I12" s="2" t="inlineStr"/>
+      <c r="J12" s="2" t="inlineStr"/>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>interval</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr"/>
+      <c r="M12" s="2" t="inlineStr"/>
+      <c r="N12" s="2" t="inlineStr"/>
+      <c r="O12" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>is about contact events or is about duration of contact events?</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="inlineStr">
+      <c r="P12" s="2" t="inlineStr"/>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S11" s="2" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T11" s="2" t="inlineStr">
-        <is>
-          <t>meeting was cut short whilst JH gave feedback on these entities. JH, please could you give feedback here? I think the suggestion was to combine these two entities (BCIO:008550 and BCIO:008555)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:008570</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>interval (remove)</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="inlineStr"/>
-      <c r="D12" s="4" t="inlineStr"/>
-      <c r="E12" s="4" t="inlineStr"/>
-      <c r="F12" s="4" t="inlineStr"/>
-      <c r="G12" s="4" t="inlineStr">
-        <is>
-          <t>This is not annotated but included due to relationship with duration of interval</t>
-        </is>
-      </c>
-      <c r="H12" s="4" t="inlineStr"/>
-      <c r="I12" s="4" t="inlineStr"/>
-      <c r="J12" s="4" t="inlineStr"/>
-      <c r="K12" s="4" t="inlineStr"/>
-      <c r="L12" s="4" t="inlineStr"/>
-      <c r="M12" s="4" t="inlineStr"/>
-      <c r="N12" s="4" t="inlineStr"/>
-      <c r="O12" s="4" t="inlineStr"/>
-      <c r="P12" s="4" t="inlineStr">
-        <is>
-          <t>entity added so duration of interval can be specified. not sure what parent/relationships should be</t>
-        </is>
-      </c>
-      <c r="Q12" s="4" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="R12" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="S12" s="4" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T12" s="4" t="inlineStr"/>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008575</t>
+          <t>BCIO:008505</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>interval between intervention termporal parts</t>
+          <t>intervention temporal part</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>A temporal interval between the end of one intervention temporal part and the beginning of a subsequent intervention temporal part</t>
+          <t>A planned process that is a part of a BCI.</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr"/>
-      <c r="F13" s="2" t="inlineStr"/>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Temporal parts are defined by the authors of reports. They usually group contact events with similar delivery (e.g. face-to-face), content (e.g. CBT), or contextual features (e.g. school lessons), in order to describe their schedule. Sometimes authors break a contact event up even further into temporal parts during which a particular type of content/BCT is delivered within a contact event, so that they can thoroughly describe the order/duration of the delivery of these parts. Parts can also be broken down in a purely temporal manner (e.g. the first 6 weeks) to describe schedule aspects associated with this specific parts of the intervention</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>The "counselling sessions" took place each week for 6 weeks, and lasted roughly one hour; Each week, participants first took part in a "group discussion" on how the previous week had gone. Following that they "redefined their goals" on the basis of this discussion, then they received a "presentation" from a health specialist on a relevant topic;During the "first 6 weeks", participants received a phone call every two weeks, then for the "last 4 weeks", this was reduced to a weekly call;</t>
+        </is>
+      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>This is used to capture intervals between BCI parts and timepoints. We annotate only the number and the unit is derived from the context</t>
+          <t xml:space="preserve">Parts are a complex entity linked to many other BCIO sub-ontologies. In theory, interventions can be broken down into any number of parts, however, we only annotate this entity when the author has named a part AND used it to describe an aspect of the intervention schedule (e.g. given it a duration, defined the frequency of contact events within it, defined its order or an interval relative to a timepoint/another part).
+</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr"/>
-      <c r="I13" s="2" t="inlineStr"/>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
       <c r="J13" s="2" t="inlineStr"/>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>interval</t>
-        </is>
-      </c>
+      <c r="K13" s="2" t="inlineStr"/>
       <c r="L13" s="2" t="inlineStr"/>
       <c r="M13" s="2" t="inlineStr"/>
       <c r="N13" s="2" t="inlineStr"/>
-      <c r="O13" s="2" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="P13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="inlineStr"/>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>should this be linked to other parts of the ontology (e.g. content/mod) under 'is about'?</t>
+        </is>
+      </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>CM</t>
@@ -1289,57 +1294,48 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008505</t>
+          <t>BCIO:008600</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
+          <t>intervention temporal part duration</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>A temporal interval that is the length of time from start to end of an intervention temporal part</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>Participants received 3 emails every "2" weeks</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr"/>
+      <c r="H14" s="2" t="inlineStr"/>
+      <c r="I14" s="2" t="inlineStr"/>
+      <c r="J14" s="2" t="inlineStr"/>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>intervention temporal part</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>A planned process that is a part of a BCI.</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>planned process</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>Temporal parts are defined by the authors of reports. They usually group contact events with similar delivery (e.g. face-to-face), content (e.g. CBT), or contextual features (e.g. school lessons), in order to describe their schedule. Sometimes authors break a contact event up even further into temporal parts during which a particular type of content/BCT is delivered within a contact event, so that they can thoroughly describe the order/duration of the delivery of these parts. Parts can also be broken down in a purely temporal manner (e.g. the first 6 weeks) to describe schedule aspects associated with this specific parts of the intervention</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>The "counselling sessions" took place each week for 6 weeks, and lasted roughly one hour; Each week, participants first took part in a "group discussion" on how the previous week had gone. Following that they "redefined their goals" on the basis of this discussion, then they received a "presentation" from a health specialist on a relevant topic;During the "first 6 weeks", participants received a phone call every two weeks, then for the "last 4 weeks", this was reduced to a weekly call;</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parts are a complex entity linked to many other BCIO sub-ontologies. In theory, interventions can be broken down into any number of parts, however, we only annotate this entity when the author has named a part AND used it to describe an aspect of the intervention schedule (e.g. given it a duration, defined the frequency of contact events within it, defined its order or an interval relative to a timepoint/another part).
-</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr"/>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>BCI</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr"/>
-      <c r="K14" s="2" t="inlineStr"/>
       <c r="L14" s="2" t="inlineStr"/>
       <c r="M14" s="2" t="inlineStr"/>
       <c r="N14" s="2" t="inlineStr"/>
-      <c r="O14" s="2" t="inlineStr"/>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>should this be linked to other parts of the ontology (e.g. content/mod) under 'is about'?</t>
-        </is>
-      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr"/>
       <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>CM</t>
@@ -1355,7 +1351,11 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T14" s="2" t="inlineStr"/>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>this entity was added to allow us to more flexibly capture frequencies that have been broken down into period and repetitions. This is useful for annotations but we are unsure if it makes ontological sense to include it as it isn't really distinct from a frequency itself and relates more to how a frequency is described. Perhaps this also isn't really distinct from duration of BCI/part (CM)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -39,17 +39,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="002f4f4f"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00eee8aa"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="007fffd4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
   </fills>
@@ -554,7 +554,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>(new) number of repetitions</t>
+          <t>(removed as equivalent to number of contact events) number of repetitions</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -598,114 +598,114 @@
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="inlineStr">
+        <is>
+          <t>this entity was added to allow us to more flexibly capture frequencies that have been broken down into period and repetitions. This is useful for annotations but we are unsure if it makes ontological sense to include it as it isn't really distinct from a frequency itself and relates more to how a frequency is described (CM)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:008560</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>BCI duration</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>A temporal interval between the start and end of a behaviour change intervention</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr"/>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The intervention ran over "6" weeks, with weekly counselling sessions and biweekly exercise classes”  </t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>This is used to capture the overall duration of intervention delivery from first to last contact of an intervention. It does not include follow-up periods during which no content is delivered. We annotate only the number and the unit is derived from the context</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr"/>
+      <c r="I3" s="3" t="inlineStr"/>
+      <c r="J3" s="3" t="inlineStr"/>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr"/>
+      <c r="M3" s="3" t="inlineStr"/>
+      <c r="N3" s="3" t="inlineStr"/>
+      <c r="O3" s="3" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="P3" s="3" t="inlineStr"/>
+      <c r="Q3" s="3" t="inlineStr">
+        <is>
+          <t>CM; RW</t>
+        </is>
+      </c>
+      <c r="R3" s="3" t="inlineStr">
+        <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S2" s="2" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T2" s="2" t="inlineStr">
-        <is>
-          <t>this entity was added to allow us to more flexibly capture frequencies that have been broken down into period and repetitions. This is useful for annotations but we are unsure if it makes ontological sense to include it as it isn't really distinct from a frequency itself and relates more to how a frequency is described (CM)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:008560</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>BCI duration</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>A temporal interval between the start and end of a behaviour change intervention</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The intervention ran over "6" weeks, with weekly counselling sessions and biweekly exercise classes”  </t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>This is used to capture the overall duration of intervention delivery from first to last contact of an intervention. It does not include follow-up periods during which no content is delivered. We annotate only the number and the unit is derived from the context</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="inlineStr"/>
-      <c r="I3" s="2" t="inlineStr"/>
-      <c r="J3" s="2" t="inlineStr"/>
-      <c r="K3" s="2" t="inlineStr">
-        <is>
-          <t>BCI</t>
-        </is>
-      </c>
-      <c r="L3" s="2" t="inlineStr"/>
-      <c r="M3" s="2" t="inlineStr"/>
-      <c r="N3" s="2" t="inlineStr"/>
-      <c r="O3" s="2" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="P3" s="2" t="inlineStr"/>
-      <c r="Q3" s="2" t="inlineStr">
-        <is>
-          <t>CM; RW</t>
-        </is>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="S3" s="2" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T3" s="2" t="inlineStr"/>
+      <c r="S3" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T3" s="3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>BCIO:008500</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>An attribute of a BCI delivery that involves its temporal organisation.</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>Includes the start and end of a BCI, its parts, and their organisation around relevant timepoints.</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr"/>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr"/>
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>This sub-ontology is used to capture descriptions of the intervention schedule within published reports. This includes descriptions of the duration and frequency of contact events, the length of parts of the intervention (e.g. 6 weeks), the order through which intervention content is presented, and the relative timing of contact events and key timepoints of relevance for the intervention (e.g. quit date/childbirth). 
 Schedule is annotated for all arms of the intervention, including control arms even when no content is delivered targeting the target behaviour. This is because it's often important to know whether the contact time of the control and intervention groups matched. 
@@ -714,940 +714,940 @@
 Schedule does not include things like 'number of booklets'. This forms part of dose</t>
         </is>
       </c>
-      <c r="H4" s="3" t="inlineStr"/>
-      <c r="I4" s="3" t="inlineStr"/>
-      <c r="J4" s="3" t="inlineStr"/>
-      <c r="K4" s="3" t="inlineStr"/>
-      <c r="L4" s="3" t="inlineStr">
+      <c r="H4" s="4" t="inlineStr"/>
+      <c r="I4" s="4" t="inlineStr"/>
+      <c r="J4" s="4" t="inlineStr"/>
+      <c r="K4" s="4" t="inlineStr"/>
+      <c r="L4" s="4" t="inlineStr">
         <is>
           <t>BCI delivery</t>
         </is>
       </c>
-      <c r="M4" s="3" t="inlineStr"/>
-      <c r="N4" s="3" t="inlineStr"/>
-      <c r="O4" s="3" t="inlineStr"/>
-      <c r="P4" s="3" t="inlineStr"/>
-      <c r="Q4" s="3" t="inlineStr">
+      <c r="M4" s="4" t="inlineStr"/>
+      <c r="N4" s="4" t="inlineStr"/>
+      <c r="O4" s="4" t="inlineStr"/>
+      <c r="P4" s="4" t="inlineStr"/>
+      <c r="Q4" s="4" t="inlineStr">
         <is>
           <t>JH; CM</t>
         </is>
       </c>
-      <c r="R4" s="3" t="inlineStr">
+      <c r="R4" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="S4" s="3" t="inlineStr"/>
-      <c r="T4" s="3" t="inlineStr"/>
+      <c r="S4" s="4" t="inlineStr"/>
+      <c r="T4" s="4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>BCIO:008590</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>after (to be removed and added to list of relations)</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>A part of a BCI schedule which is the relation a specified temporal part is in when it starts following the end of another temporal part or timepoint</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr"/>
+      <c r="E5" s="3" t="inlineStr"/>
+      <c r="F5" s="3" t="inlineStr"/>
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>This is not annotated</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr"/>
-      <c r="I5" s="2" t="inlineStr"/>
-      <c r="J5" s="2" t="inlineStr"/>
-      <c r="K5" s="2" t="inlineStr"/>
-      <c r="L5" s="2" t="inlineStr"/>
-      <c r="M5" s="2" t="inlineStr"/>
-      <c r="N5" s="2" t="inlineStr"/>
-      <c r="O5" s="2" t="inlineStr"/>
-      <c r="P5" s="2" t="inlineStr"/>
-      <c r="Q5" s="2" t="inlineStr">
+      <c r="H5" s="3" t="inlineStr"/>
+      <c r="I5" s="3" t="inlineStr"/>
+      <c r="J5" s="3" t="inlineStr"/>
+      <c r="K5" s="3" t="inlineStr"/>
+      <c r="L5" s="3" t="inlineStr"/>
+      <c r="M5" s="3" t="inlineStr"/>
+      <c r="N5" s="3" t="inlineStr"/>
+      <c r="O5" s="3" t="inlineStr"/>
+      <c r="P5" s="3" t="inlineStr"/>
+      <c r="Q5" s="3" t="inlineStr">
         <is>
           <t>CM; RW</t>
         </is>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R5" s="3" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr"/>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>BCIO:008585</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>before (to be removed and added to list of relations)</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>A part of a BCI schedule which is the relation a specified temporal part is in when it ends prior to the beginning of another temporal part or timepoint</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr"/>
+      <c r="E6" s="3" t="inlineStr"/>
+      <c r="F6" s="3" t="inlineStr"/>
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">This is not annotated </t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr"/>
-      <c r="I6" s="2" t="inlineStr"/>
-      <c r="J6" s="2" t="inlineStr"/>
-      <c r="K6" s="2" t="inlineStr"/>
-      <c r="L6" s="2" t="inlineStr"/>
-      <c r="M6" s="2" t="inlineStr"/>
-      <c r="N6" s="2" t="inlineStr"/>
-      <c r="O6" s="2" t="inlineStr"/>
-      <c r="P6" s="2" t="inlineStr"/>
-      <c r="Q6" s="2" t="inlineStr">
+      <c r="H6" s="3" t="inlineStr"/>
+      <c r="I6" s="3" t="inlineStr"/>
+      <c r="J6" s="3" t="inlineStr"/>
+      <c r="K6" s="3" t="inlineStr"/>
+      <c r="L6" s="3" t="inlineStr"/>
+      <c r="M6" s="3" t="inlineStr"/>
+      <c r="N6" s="3" t="inlineStr"/>
+      <c r="O6" s="3" t="inlineStr"/>
+      <c r="P6" s="3" t="inlineStr"/>
+      <c r="Q6" s="3" t="inlineStr">
         <is>
           <t>CM; RW</t>
         </is>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R6" s="3" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S6" s="2" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T6" s="2" t="inlineStr"/>
+      <c r="S6" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T6" s="3" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>BCIO:008510</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">An intervention temporal part that is an occasion in which a member of a BCI population comes into contact with a BCI.  </t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>intervention temporal part</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr"/>
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A counselling session; An online chat session; An advertisement display. </t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="G7" s="3" t="inlineStr">
         <is>
           <t>This entity is never annotated. We have defined it as part of the schedule ontology as it is part of the definition of some other entities, but there is no need to annotate it as contact events are also parts so what is expressed can be sufficiently captured using just 'part' if needed.</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr"/>
-      <c r="I7" s="2" t="inlineStr"/>
-      <c r="J7" s="2" t="inlineStr"/>
-      <c r="K7" s="2" t="inlineStr"/>
-      <c r="L7" s="2" t="inlineStr"/>
-      <c r="M7" s="2" t="inlineStr"/>
-      <c r="N7" s="2" t="inlineStr"/>
-      <c r="O7" s="2" t="inlineStr"/>
-      <c r="P7" s="2" t="inlineStr"/>
-      <c r="Q7" s="2" t="inlineStr">
+      <c r="H7" s="3" t="inlineStr"/>
+      <c r="I7" s="3" t="inlineStr"/>
+      <c r="J7" s="3" t="inlineStr"/>
+      <c r="K7" s="3" t="inlineStr"/>
+      <c r="L7" s="3" t="inlineStr"/>
+      <c r="M7" s="3" t="inlineStr"/>
+      <c r="N7" s="3" t="inlineStr"/>
+      <c r="O7" s="3" t="inlineStr"/>
+      <c r="P7" s="3" t="inlineStr"/>
+      <c r="Q7" s="3" t="inlineStr">
         <is>
           <t>CM; RW</t>
         </is>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R7" s="3" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S7" s="2" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T7" s="2" t="inlineStr"/>
+      <c r="S7" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T7" s="3" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>BCIO:008525</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>contact event duration</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>A temporal interval between the start and end of a contact event</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr"/>
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>counselling sessions were "1"hr long; for the first 5 weeks, participants received telephone calls for "30" minutes two times a week;</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr"/>
-      <c r="H8" s="2" t="inlineStr"/>
-      <c r="I8" s="2" t="inlineStr"/>
-      <c r="J8" s="2" t="inlineStr"/>
-      <c r="K8" s="2" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr"/>
+      <c r="H8" s="3" t="inlineStr"/>
+      <c r="I8" s="3" t="inlineStr"/>
+      <c r="J8" s="3" t="inlineStr"/>
+      <c r="K8" s="3" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="L8" s="2" t="inlineStr"/>
-      <c r="M8" s="2" t="inlineStr"/>
-      <c r="N8" s="2" t="inlineStr"/>
-      <c r="O8" s="2" t="inlineStr">
+      <c r="L8" s="3" t="inlineStr"/>
+      <c r="M8" s="3" t="inlineStr"/>
+      <c r="N8" s="3" t="inlineStr"/>
+      <c r="O8" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P8" s="2" t="inlineStr"/>
-      <c r="Q8" s="2" t="inlineStr">
+      <c r="P8" s="3" t="inlineStr"/>
+      <c r="Q8" s="3" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R8" s="3" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S8" s="2" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T8" s="2" t="inlineStr"/>
+      <c r="S8" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T8" s="3" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>BCIO:008550</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>contact event sum duration</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>A data item that is the sum duration of a subset of contact events in a BCI or temporal part</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr"/>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr"/>
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>The participants took part in "90" minutes of PA weekly</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="G9" s="3" t="inlineStr">
         <is>
           <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr"/>
-      <c r="I9" s="2" t="inlineStr"/>
-      <c r="J9" s="2" t="inlineStr"/>
-      <c r="K9" s="2" t="inlineStr">
+      <c r="H9" s="3" t="inlineStr"/>
+      <c r="I9" s="3" t="inlineStr"/>
+      <c r="J9" s="3" t="inlineStr"/>
+      <c r="K9" s="3" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="L9" s="2" t="inlineStr"/>
-      <c r="M9" s="2" t="inlineStr"/>
-      <c r="N9" s="2" t="inlineStr"/>
-      <c r="O9" s="2" t="inlineStr">
+      <c r="L9" s="3" t="inlineStr"/>
+      <c r="M9" s="3" t="inlineStr"/>
+      <c r="N9" s="3" t="inlineStr"/>
+      <c r="O9" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P9" s="2" t="inlineStr">
+      <c r="P9" s="3" t="inlineStr">
         <is>
           <t>is about contact events or is about duration of contact events?</t>
         </is>
       </c>
-      <c r="Q9" s="2" t="inlineStr">
+      <c r="Q9" s="3" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R9" s="3" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S9" s="2" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T9" s="2" t="inlineStr">
+      <c r="S9" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T9" s="3" t="inlineStr">
         <is>
           <t>meeting was cut short whilst JH gave feedback on these entities. JH, please could you give feedback here? I think the suggestion was to combine these two entities (BCIO:008550 and BCIO:008555)</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>BCIO:008555</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>contact event sum duration frequency</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>A data item which describes how often a specified sum duration of contact events occured during a BCI or temporal part</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>data item - Frequency (SIO_001367)</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr"/>
+      <c r="F10" s="3" t="inlineStr">
         <is>
           <t>The participants took part in 90 minutes of PA "weekly"</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="G10" s="3" t="inlineStr">
         <is>
           <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr"/>
-      <c r="I10" s="2" t="inlineStr"/>
-      <c r="J10" s="2" t="inlineStr"/>
-      <c r="K10" s="2" t="inlineStr">
+      <c r="H10" s="3" t="inlineStr"/>
+      <c r="I10" s="3" t="inlineStr"/>
+      <c r="J10" s="3" t="inlineStr"/>
+      <c r="K10" s="3" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="L10" s="2" t="inlineStr"/>
-      <c r="M10" s="2" t="inlineStr"/>
-      <c r="N10" s="2" t="inlineStr"/>
-      <c r="O10" s="2" t="inlineStr">
+      <c r="L10" s="3" t="inlineStr"/>
+      <c r="M10" s="3" t="inlineStr"/>
+      <c r="N10" s="3" t="inlineStr"/>
+      <c r="O10" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P10" s="2" t="inlineStr">
+      <c r="P10" s="3" t="inlineStr">
         <is>
           <t>is about contact events or is about duration of contact events?</t>
         </is>
       </c>
-      <c r="Q10" s="2" t="inlineStr">
+      <c r="Q10" s="3" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R10" s="3" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S10" s="2" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T10" s="2" t="inlineStr">
+      <c r="S10" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T10" s="3" t="inlineStr">
         <is>
           <t>meeting was cut short whilst JH gave feedback on these entities. JH, please could you give feedback here? I think the suggestion was to combine these two entities (BCIO:008550 and BCIO:008555)</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>BCIO:008570</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>interval (remove)</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr"/>
-      <c r="D11" s="4" t="inlineStr"/>
-      <c r="E11" s="4" t="inlineStr"/>
-      <c r="F11" s="4" t="inlineStr"/>
-      <c r="G11" s="4" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr"/>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr"/>
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>This is not annotated but included due to relationship with duration of interval</t>
         </is>
       </c>
-      <c r="H11" s="4" t="inlineStr"/>
-      <c r="I11" s="4" t="inlineStr"/>
-      <c r="J11" s="4" t="inlineStr"/>
-      <c r="K11" s="4" t="inlineStr"/>
-      <c r="L11" s="4" t="inlineStr"/>
-      <c r="M11" s="4" t="inlineStr"/>
-      <c r="N11" s="4" t="inlineStr"/>
-      <c r="O11" s="4" t="inlineStr"/>
-      <c r="P11" s="4" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr"/>
+      <c r="I11" s="2" t="inlineStr"/>
+      <c r="J11" s="2" t="inlineStr"/>
+      <c r="K11" s="2" t="inlineStr"/>
+      <c r="L11" s="2" t="inlineStr"/>
+      <c r="M11" s="2" t="inlineStr"/>
+      <c r="N11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="inlineStr"/>
+      <c r="P11" s="2" t="inlineStr">
         <is>
           <t>entity added so duration of interval can be specified. not sure what parent/relationships should be</t>
         </is>
       </c>
-      <c r="Q11" s="4" t="inlineStr">
+      <c r="Q11" s="2" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R11" s="4" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="S11" s="4" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T11" s="4" t="inlineStr"/>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>BCIO:008575</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>interval between intervention termporal parts</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>A temporal interval between the end of one intervention temporal part and the beginning of a subsequent intervention temporal part</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr"/>
-      <c r="F12" s="2" t="inlineStr"/>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr"/>
+      <c r="F12" s="3" t="inlineStr"/>
+      <c r="G12" s="3" t="inlineStr">
         <is>
           <t>This is used to capture intervals between BCI parts and timepoints. We annotate only the number and the unit is derived from the context</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr"/>
-      <c r="I12" s="2" t="inlineStr"/>
-      <c r="J12" s="2" t="inlineStr"/>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="H12" s="3" t="inlineStr"/>
+      <c r="I12" s="3" t="inlineStr"/>
+      <c r="J12" s="3" t="inlineStr"/>
+      <c r="K12" s="3" t="inlineStr">
         <is>
           <t>interval</t>
         </is>
       </c>
-      <c r="L12" s="2" t="inlineStr"/>
-      <c r="M12" s="2" t="inlineStr"/>
-      <c r="N12" s="2" t="inlineStr"/>
-      <c r="O12" s="2" t="inlineStr">
+      <c r="L12" s="3" t="inlineStr"/>
+      <c r="M12" s="3" t="inlineStr"/>
+      <c r="N12" s="3" t="inlineStr"/>
+      <c r="O12" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P12" s="2" t="inlineStr"/>
-      <c r="Q12" s="2" t="inlineStr">
+      <c r="P12" s="3" t="inlineStr"/>
+      <c r="Q12" s="3" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R12" s="3" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S12" s="2" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T12" s="2" t="inlineStr"/>
+      <c r="S12" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T12" s="3" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>BCIO:008505</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>intervention temporal part</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>A planned process that is a part of a BCI.</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D13" s="3" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E13" s="3" t="inlineStr">
         <is>
           <t>Temporal parts are defined by the authors of reports. They usually group contact events with similar delivery (e.g. face-to-face), content (e.g. CBT), or contextual features (e.g. school lessons), in order to describe their schedule. Sometimes authors break a contact event up even further into temporal parts during which a particular type of content/BCT is delivered within a contact event, so that they can thoroughly describe the order/duration of the delivery of these parts. Parts can also be broken down in a purely temporal manner (e.g. the first 6 weeks) to describe schedule aspects associated with this specific parts of the intervention</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="F13" s="3" t="inlineStr">
         <is>
           <t>The "counselling sessions" took place each week for 6 weeks, and lasted roughly one hour; Each week, participants first took part in a "group discussion" on how the previous week had gone. Following that they "redefined their goals" on the basis of this discussion, then they received a "presentation" from a health specialist on a relevant topic;During the "first 6 weeks", participants received a phone call every two weeks, then for the "last 4 weeks", this was reduced to a weekly call;</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="G13" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Parts are a complex entity linked to many other BCIO sub-ontologies. In theory, interventions can be broken down into any number of parts, however, we only annotate this entity when the author has named a part AND used it to describe an aspect of the intervention schedule (e.g. given it a duration, defined the frequency of contact events within it, defined its order or an interval relative to a timepoint/another part).
 </t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr"/>
-      <c r="I13" s="2" t="inlineStr">
+      <c r="H13" s="3" t="inlineStr"/>
+      <c r="I13" s="3" t="inlineStr">
         <is>
           <t>BCI</t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr"/>
-      <c r="K13" s="2" t="inlineStr"/>
-      <c r="L13" s="2" t="inlineStr"/>
-      <c r="M13" s="2" t="inlineStr"/>
-      <c r="N13" s="2" t="inlineStr"/>
-      <c r="O13" s="2" t="inlineStr"/>
-      <c r="P13" s="2" t="inlineStr">
+      <c r="J13" s="3" t="inlineStr"/>
+      <c r="K13" s="3" t="inlineStr"/>
+      <c r="L13" s="3" t="inlineStr"/>
+      <c r="M13" s="3" t="inlineStr"/>
+      <c r="N13" s="3" t="inlineStr"/>
+      <c r="O13" s="3" t="inlineStr"/>
+      <c r="P13" s="3" t="inlineStr">
         <is>
           <t>should this be linked to other parts of the ontology (e.g. content/mod) under 'is about'?</t>
         </is>
       </c>
-      <c r="Q13" s="2" t="inlineStr">
+      <c r="Q13" s="3" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R13" s="3" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S13" s="2" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T13" s="2" t="inlineStr"/>
+      <c r="S13" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T13" s="3" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>BCIO:008600</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>intervention temporal part duration</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>A temporal interval that is the length of time from start to end of an intervention temporal part</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr"/>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr"/>
+      <c r="F14" s="3" t="inlineStr">
         <is>
           <t>Participants received 3 emails every "2" weeks</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr"/>
-      <c r="H14" s="2" t="inlineStr"/>
-      <c r="I14" s="2" t="inlineStr"/>
-      <c r="J14" s="2" t="inlineStr"/>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="G14" s="3" t="inlineStr"/>
+      <c r="H14" s="3" t="inlineStr"/>
+      <c r="I14" s="3" t="inlineStr"/>
+      <c r="J14" s="3" t="inlineStr"/>
+      <c r="K14" s="3" t="inlineStr">
         <is>
           <t>intervention temporal part</t>
         </is>
       </c>
-      <c r="L14" s="2" t="inlineStr"/>
-      <c r="M14" s="2" t="inlineStr"/>
-      <c r="N14" s="2" t="inlineStr"/>
-      <c r="O14" s="2" t="inlineStr">
+      <c r="L14" s="3" t="inlineStr"/>
+      <c r="M14" s="3" t="inlineStr"/>
+      <c r="N14" s="3" t="inlineStr"/>
+      <c r="O14" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P14" s="2" t="inlineStr"/>
-      <c r="Q14" s="2" t="inlineStr">
+      <c r="P14" s="3" t="inlineStr"/>
+      <c r="Q14" s="3" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R14" s="3" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S14" s="2" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T14" s="2" t="inlineStr">
+      <c r="S14" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T14" s="3" t="inlineStr">
         <is>
           <t>this entity was added to allow us to more flexibly capture frequencies that have been broken down into period and repetitions. This is useful for annotations but we are unsure if it makes ontological sense to include it as it isn't really distinct from a frequency itself and relates more to how a frequency is described. Perhaps this also isn't really distinct from duration of BCI/part (CM)</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>BCIO:008565</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>intervention temporal part duration</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>A temporal interval between the start and end of an intervention temporal part</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr"/>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr"/>
+      <c r="F15" s="3" t="inlineStr">
         <is>
           <t>The counselling sessions ran over a "6" week period, whilst the exercise classes took place over "2" weeks</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="G15" s="3" t="inlineStr">
         <is>
           <t>This is used to capture the overal duration of parts. We annotate only the number and the unit is derived from the context</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr"/>
-      <c r="I15" s="2" t="inlineStr"/>
-      <c r="J15" s="2" t="inlineStr"/>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="H15" s="3" t="inlineStr"/>
+      <c r="I15" s="3" t="inlineStr"/>
+      <c r="J15" s="3" t="inlineStr"/>
+      <c r="K15" s="3" t="inlineStr">
         <is>
           <t>temporal part</t>
         </is>
       </c>
-      <c r="L15" s="2" t="inlineStr"/>
-      <c r="M15" s="2" t="inlineStr"/>
-      <c r="N15" s="2" t="inlineStr"/>
-      <c r="O15" s="2" t="inlineStr">
+      <c r="L15" s="3" t="inlineStr"/>
+      <c r="M15" s="3" t="inlineStr"/>
+      <c r="N15" s="3" t="inlineStr"/>
+      <c r="O15" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P15" s="2" t="inlineStr"/>
-      <c r="Q15" s="2" t="inlineStr">
+      <c r="P15" s="3" t="inlineStr"/>
+      <c r="Q15" s="3" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R15" s="3" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S15" s="2" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T15" s="2" t="inlineStr"/>
+      <c r="S15" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T15" s="3" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>BCIO:008520</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>intervention temporal part frequency</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>An attribute of a BCI schedule of delivery that is how often intervention temporal parts occur within a BCI.</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="D16" s="3" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="E16" s="3" t="inlineStr">
         <is>
           <t>Contact events are intervention temporal parts so this entity also describes the frequency of contact events.</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="F16" s="3" t="inlineStr">
         <is>
           <t>intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks"</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
+      <c r="G16" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">This is used to capture descriptions of the frequency of contact events within a part. </t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr"/>
-      <c r="I16" s="2" t="inlineStr"/>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr">
+      <c r="H16" s="3" t="inlineStr"/>
+      <c r="I16" s="3" t="inlineStr"/>
+      <c r="J16" s="3" t="inlineStr"/>
+      <c r="K16" s="3" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="L16" s="2" t="inlineStr"/>
-      <c r="M16" s="2" t="inlineStr"/>
-      <c r="N16" s="2" t="inlineStr"/>
-      <c r="O16" s="2" t="inlineStr">
+      <c r="L16" s="3" t="inlineStr"/>
+      <c r="M16" s="3" t="inlineStr"/>
+      <c r="N16" s="3" t="inlineStr"/>
+      <c r="O16" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P16" s="2" t="inlineStr">
+      <c r="P16" s="3" t="inlineStr">
         <is>
           <t>needs to link to period and repetition. could it be 'has attribute' period, and 'has attribute' repetition?</t>
         </is>
       </c>
-      <c r="Q16" s="2" t="inlineStr">
+      <c r="Q16" s="3" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R16" s="3" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S16" s="2" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T16" s="2" t="inlineStr">
+      <c r="S16" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T16" s="3" t="inlineStr">
         <is>
           <t>need to decide whether to have a separate additional entity for frequency of contact events (CM)</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>BCIO:008540</t>
         </is>
       </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>irregular schedule</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events change over the course of a temporal part or BCI.  </t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr"/>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="D17" s="3" t="inlineStr"/>
+      <c r="E17" s="3" t="inlineStr"/>
+      <c r="F17" s="3" t="inlineStr">
         <is>
           <t>telephone feedback sessions were more frequent during the first 6 weeks</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G17" s="3" t="inlineStr">
         <is>
           <t>We use this to capture instances when it is clear that the schedule (i.e. duration and frequency of contact events) varies over the course of a part, but we are unable to capture the specific schedule</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr"/>
-      <c r="I17" s="2" t="inlineStr"/>
-      <c r="J17" s="2" t="inlineStr"/>
-      <c r="K17" s="2" t="inlineStr"/>
-      <c r="L17" s="2" t="inlineStr"/>
-      <c r="M17" s="2" t="inlineStr"/>
-      <c r="N17" s="2" t="inlineStr"/>
-      <c r="O17" s="2" t="inlineStr"/>
-      <c r="P17" s="2" t="inlineStr">
+      <c r="H17" s="3" t="inlineStr"/>
+      <c r="I17" s="3" t="inlineStr"/>
+      <c r="J17" s="3" t="inlineStr"/>
+      <c r="K17" s="3" t="inlineStr"/>
+      <c r="L17" s="3" t="inlineStr"/>
+      <c r="M17" s="3" t="inlineStr"/>
+      <c r="N17" s="3" t="inlineStr"/>
+      <c r="O17" s="3" t="inlineStr"/>
+      <c r="P17" s="3" t="inlineStr">
         <is>
           <t>relationship? is about schedule? or is a type of schedule?</t>
         </is>
       </c>
-      <c r="Q17" s="2" t="inlineStr">
+      <c r="Q17" s="3" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R17" s="3" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S17" s="2" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T17" s="2" t="inlineStr">
+      <c r="S17" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T17" s="3" t="inlineStr">
         <is>
           <t>should we also add separate entities for fixed and variable schedule, to describe cases when schedules vary across participants? We previously had these entities within the ontology but they were removed as they didn't come up explicitly in papers and our old definition of variable schedule overlapped with the definition for irregular schedule (CM)</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>BCIO:008515</t>
         </is>
       </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>number of contact events</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>A count data item that is the number of contact events in BCI or temporal part</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="D18" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">data item - Count (STATO_0000047) </t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="E18" s="3" t="inlineStr"/>
+      <c r="F18" s="3" t="inlineStr">
         <is>
           <t>participants attended "a" gp visit ; at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
+      <c r="G18" s="3" t="inlineStr">
         <is>
           <t>This entity is used to capture the number of contacts in an intervention or part. We annotate only the number and include the sentence as context. When there is only one session in a part, we can annotate non-numerical words to indicate this, e.g. 'participants attended "a" gp visit'. Sometimes authors will break parts down in which case we annotate the number of contact events which add together to create a total e.g. 'at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes'.</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr"/>
-      <c r="I18" s="2" t="inlineStr"/>
-      <c r="J18" s="2" t="inlineStr"/>
-      <c r="K18" s="2" t="inlineStr">
+      <c r="H18" s="3" t="inlineStr"/>
+      <c r="I18" s="3" t="inlineStr"/>
+      <c r="J18" s="3" t="inlineStr"/>
+      <c r="K18" s="3" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="L18" s="2" t="inlineStr"/>
-      <c r="M18" s="2" t="inlineStr"/>
-      <c r="N18" s="2" t="inlineStr"/>
-      <c r="O18" s="2" t="inlineStr">
+      <c r="L18" s="3" t="inlineStr"/>
+      <c r="M18" s="3" t="inlineStr"/>
+      <c r="N18" s="3" t="inlineStr"/>
+      <c r="O18" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P18" s="2" t="inlineStr"/>
-      <c r="Q18" s="2" t="inlineStr">
+      <c r="P18" s="3" t="inlineStr"/>
+      <c r="Q18" s="3" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="R18" s="3" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S18" s="2" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T18" s="2" t="inlineStr"/>
+      <c r="S18" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T18" s="3" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>BCIO:008580</t>
         </is>
       </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>order</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>A part of BCI schedule which describes the relative temporal positioning of contact events, temporal parts and timepoints.</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr"/>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="D19" s="3" t="inlineStr"/>
+      <c r="E19" s="3" t="inlineStr"/>
+      <c r="F19" s="3" t="inlineStr">
         <is>
           <t>"After questionnaires were completed, feedback was selected
 out of a database with messages for each possible combination
@@ -1656,293 +1656,293 @@
 levels to the PA guidelines."</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
+      <c r="G19" s="3" t="inlineStr">
         <is>
           <t>This is annotated as an open code when any aspect of order is described</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr"/>
-      <c r="J19" s="2" t="inlineStr"/>
-      <c r="K19" s="2" t="inlineStr">
+      <c r="H19" s="3" t="inlineStr"/>
+      <c r="I19" s="3" t="inlineStr"/>
+      <c r="J19" s="3" t="inlineStr"/>
+      <c r="K19" s="3" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="L19" s="2" t="inlineStr"/>
-      <c r="M19" s="2" t="inlineStr"/>
-      <c r="N19" s="2" t="inlineStr"/>
-      <c r="O19" s="2" t="inlineStr"/>
-      <c r="P19" s="2" t="inlineStr"/>
-      <c r="Q19" s="2" t="inlineStr">
+      <c r="L19" s="3" t="inlineStr"/>
+      <c r="M19" s="3" t="inlineStr"/>
+      <c r="N19" s="3" t="inlineStr"/>
+      <c r="O19" s="3" t="inlineStr"/>
+      <c r="P19" s="3" t="inlineStr"/>
+      <c r="Q19" s="3" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R19" s="2" t="inlineStr">
+      <c r="R19" s="3" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S19" s="2" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T19" s="2" t="inlineStr">
+      <c r="S19" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T19" s="3" t="inlineStr">
         <is>
           <t>not sure about definitions and relationships. Should this be remove from the schedule ontology and instead form part of the relations ontology, like before and after? (CM)</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>BCIO:008535</t>
         </is>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
         <is>
           <t>regular intervention schedule</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of Intervention temporal parts are uniform across the course of a BCI or BCI part.  </t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="D20" s="3" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="E20" s="3" t="inlineStr"/>
+      <c r="F20" s="3" t="inlineStr">
         <is>
           <t>the "length and regularity of sessions were consistent across the duration of the intervention", taking place for an hour each week</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
+      <c r="G20" s="3" t="inlineStr">
         <is>
           <t>This is used to capture when the author specifies that the schedule (length and frequency of contact events) does not change over the course of a part. This is rarely annotated as it is not usually explicitly stated.</t>
         </is>
       </c>
-      <c r="H20" s="2" t="inlineStr"/>
-      <c r="I20" s="2" t="inlineStr"/>
-      <c r="J20" s="2" t="inlineStr"/>
-      <c r="K20" s="2" t="inlineStr"/>
-      <c r="L20" s="2" t="inlineStr"/>
-      <c r="M20" s="2" t="inlineStr"/>
-      <c r="N20" s="2" t="inlineStr"/>
-      <c r="O20" s="2" t="inlineStr"/>
-      <c r="P20" s="2" t="inlineStr">
+      <c r="H20" s="3" t="inlineStr"/>
+      <c r="I20" s="3" t="inlineStr"/>
+      <c r="J20" s="3" t="inlineStr"/>
+      <c r="K20" s="3" t="inlineStr"/>
+      <c r="L20" s="3" t="inlineStr"/>
+      <c r="M20" s="3" t="inlineStr"/>
+      <c r="N20" s="3" t="inlineStr"/>
+      <c r="O20" s="3" t="inlineStr"/>
+      <c r="P20" s="3" t="inlineStr">
         <is>
           <t>relationship? is about schedule? or is a type of schedule?</t>
         </is>
       </c>
-      <c r="Q20" s="2" t="inlineStr">
+      <c r="Q20" s="3" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R20" s="3" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S20" s="2" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T20" s="2" t="inlineStr"/>
+      <c r="S20" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T20" s="3" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>BCIO:008595</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B21" s="3" t="inlineStr">
         <is>
           <t>same time (remove - this is a relation like before and after)</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" s="3" t="inlineStr">
         <is>
           <t>A part of a BCI schedule which is the relation a specified temporal part is in when it occurs whilst another temporal part or timepoint occurs</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr"/>
-      <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr">
+      <c r="D21" s="3" t="inlineStr"/>
+      <c r="E21" s="3" t="inlineStr"/>
+      <c r="F21" s="3" t="inlineStr"/>
+      <c r="G21" s="3" t="inlineStr">
         <is>
           <t>This is not annotated</t>
         </is>
       </c>
-      <c r="H21" s="2" t="inlineStr"/>
-      <c r="I21" s="2" t="inlineStr"/>
-      <c r="J21" s="2" t="inlineStr"/>
-      <c r="K21" s="2" t="inlineStr"/>
-      <c r="L21" s="2" t="inlineStr"/>
-      <c r="M21" s="2" t="inlineStr"/>
-      <c r="N21" s="2" t="inlineStr"/>
-      <c r="O21" s="2" t="inlineStr"/>
-      <c r="P21" s="2" t="inlineStr"/>
-      <c r="Q21" s="2" t="inlineStr">
+      <c r="H21" s="3" t="inlineStr"/>
+      <c r="I21" s="3" t="inlineStr"/>
+      <c r="J21" s="3" t="inlineStr"/>
+      <c r="K21" s="3" t="inlineStr"/>
+      <c r="L21" s="3" t="inlineStr"/>
+      <c r="M21" s="3" t="inlineStr"/>
+      <c r="N21" s="3" t="inlineStr"/>
+      <c r="O21" s="3" t="inlineStr"/>
+      <c r="P21" s="3" t="inlineStr"/>
+      <c r="Q21" s="3" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R21" s="3" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S21" s="2" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T21" s="2" t="inlineStr"/>
+      <c r="S21" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T21" s="3" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>BCIO:008530</t>
         </is>
       </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="B22" s="3" t="inlineStr">
         <is>
           <t>timepoint of event</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
+      <c r="C22" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A part of a BCI schedule of delivery that is the moment of a specific event relevant for the intervention </t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr"/>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="D22" s="3" t="inlineStr"/>
+      <c r="E22" s="3" t="inlineStr">
         <is>
           <t>Timepoints are used by authors to describe the schedules of a BCI relative to events that are not themselves parts of the BCI. This can include things like quit dates, childbirth, medical operations etc.</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="F22" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Counselling sessions started a week after the participants "quit date"; A feedback call was scheduled to be delivered around 6 months after the "birth of the baby". </t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
+      <c r="G22" s="3" t="inlineStr">
         <is>
           <t>Annotate the words used by authors to describe key events which are not themselves part of the intervention but are relevant to the description of the schedule of the intervention.</t>
         </is>
       </c>
-      <c r="H22" s="2" t="inlineStr"/>
-      <c r="I22" s="2" t="inlineStr">
+      <c r="H22" s="3" t="inlineStr"/>
+      <c r="I22" s="3" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="J22" s="2" t="inlineStr"/>
-      <c r="K22" s="2" t="inlineStr"/>
-      <c r="L22" s="2" t="inlineStr"/>
-      <c r="M22" s="2" t="inlineStr"/>
-      <c r="N22" s="2" t="inlineStr"/>
-      <c r="O22" s="2" t="inlineStr"/>
-      <c r="P22" s="2" t="inlineStr">
+      <c r="J22" s="3" t="inlineStr"/>
+      <c r="K22" s="3" t="inlineStr"/>
+      <c r="L22" s="3" t="inlineStr"/>
+      <c r="M22" s="3" t="inlineStr"/>
+      <c r="N22" s="3" t="inlineStr"/>
+      <c r="O22" s="3" t="inlineStr"/>
+      <c r="P22" s="3" t="inlineStr">
         <is>
           <t>check relationships</t>
         </is>
       </c>
-      <c r="Q22" s="2" t="inlineStr">
+      <c r="Q22" s="3" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R22" s="2" t="inlineStr">
+      <c r="R22" s="3" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S22" s="2" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T22" s="2" t="inlineStr"/>
+      <c r="S22" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T22" s="3" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>BCIO:008545</t>
         </is>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B23" s="3" t="inlineStr">
         <is>
           <t>total contact event duration</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>A data item that is the total duration of all contact events in a BCI or temporal part</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
+      <c r="D23" s="3" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr"/>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="E23" s="3" t="inlineStr"/>
+      <c r="F23" s="3" t="inlineStr">
         <is>
           <t>participants received "150" minutes of face-to-face counselling, split across five 30 minute sessions</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
+      <c r="G23" s="3" t="inlineStr">
         <is>
           <t>Use this entity when authors describe the total amount of contact time for a particular part/intervention across multiple contact events.
 When there is only one session, the total duration of contact events and the duration of a single contact event are technically the same. As a convention, we would annotate this under duration of contact event</t>
         </is>
       </c>
-      <c r="H23" s="2" t="inlineStr"/>
-      <c r="I23" s="2" t="inlineStr"/>
-      <c r="J23" s="2" t="inlineStr"/>
-      <c r="K23" s="2" t="inlineStr">
+      <c r="H23" s="3" t="inlineStr"/>
+      <c r="I23" s="3" t="inlineStr"/>
+      <c r="J23" s="3" t="inlineStr"/>
+      <c r="K23" s="3" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="L23" s="2" t="inlineStr"/>
-      <c r="M23" s="2" t="inlineStr"/>
-      <c r="N23" s="2" t="inlineStr"/>
-      <c r="O23" s="2" t="inlineStr">
+      <c r="L23" s="3" t="inlineStr"/>
+      <c r="M23" s="3" t="inlineStr"/>
+      <c r="N23" s="3" t="inlineStr"/>
+      <c r="O23" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P23" s="2" t="inlineStr">
+      <c r="P23" s="3" t="inlineStr">
         <is>
           <t>"is about" contact events or "is about" duration of contact events?</t>
         </is>
       </c>
-      <c r="Q23" s="2" t="inlineStr">
+      <c r="Q23" s="3" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R23" s="2" t="inlineStr">
+      <c r="R23" s="3" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S23" s="2" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T23" s="2" t="inlineStr">
+      <c r="S23" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T23" s="3" t="inlineStr">
         <is>
           <t>what type of data item is this? (CM)</t>
         </is>

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -39,7 +39,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="002f4f4f"/>
+        <fgColor rgb="007fffd4"/>
       </patternFill>
     </fill>
     <fill>
@@ -49,7 +49,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="007fffd4"/>
+        <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
   </fills>
@@ -549,163 +549,31 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008605</t>
+          <t>BCIO:008500</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>(removed as equivalent to number of contact events) number of repetitions</t>
+          <t>a) BCI schedule of delivery</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>A data item that is the number of repetitions of contact events within a temporal part or BCI for which the frequency is described</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr"/>
-      <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Participants received "3" emails every 2 weeks</t>
-        </is>
-      </c>
+          <t>An attribute of a BCI delivery that involves its temporal organisation.</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>process attribute</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Includes the start and end of a BCI, its parts, and their organisation around relevant timepoints.</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>This is annotated when a frequency is described using a period and a number of repetitions, rather than a single word.</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr"/>
-      <c r="I2" s="2" t="inlineStr"/>
-      <c r="J2" s="2" t="inlineStr"/>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>contact event</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="inlineStr"/>
-      <c r="M2" s="2" t="inlineStr"/>
-      <c r="N2" s="2" t="inlineStr"/>
-      <c r="O2" s="2" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="P2" s="2" t="inlineStr"/>
-      <c r="Q2" s="2" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="R2" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="S2" s="2" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T2" s="2" t="inlineStr">
-        <is>
-          <t>this entity was added to allow us to more flexibly capture frequencies that have been broken down into period and repetitions. This is useful for annotations but we are unsure if it makes ontological sense to include it as it isn't really distinct from a frequency itself and relates more to how a frequency is described (CM)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:008560</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>BCI duration</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>A temporal interval between the start and end of a behaviour change intervention</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr"/>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The intervention ran over "6" weeks, with weekly counselling sessions and biweekly exercise classes”  </t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>This is used to capture the overall duration of intervention delivery from first to last contact of an intervention. It does not include follow-up periods during which no content is delivered. We annotate only the number and the unit is derived from the context</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr"/>
-      <c r="I3" s="3" t="inlineStr"/>
-      <c r="J3" s="3" t="inlineStr"/>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>BCI</t>
-        </is>
-      </c>
-      <c r="L3" s="3" t="inlineStr"/>
-      <c r="M3" s="3" t="inlineStr"/>
-      <c r="N3" s="3" t="inlineStr"/>
-      <c r="O3" s="3" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="P3" s="3" t="inlineStr"/>
-      <c r="Q3" s="3" t="inlineStr">
-        <is>
-          <t>CM; RW</t>
-        </is>
-      </c>
-      <c r="R3" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="S3" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T3" s="3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:008500</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>An attribute of a BCI delivery that involves its temporal organisation.</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>process attribute</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>Includes the start and end of a BCI, its parts, and their organisation around relevant timepoints.</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr"/>
-      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>This sub-ontology is used to capture descriptions of the intervention schedule within published reports. This includes descriptions of the duration and frequency of contact events, the length of parts of the intervention (e.g. 6 weeks), the order through which intervention content is presented, and the relative timing of contact events and key timepoints of relevance for the intervention (e.g. quit date/childbirth). 
 Schedule is annotated for all arms of the intervention, including control arms even when no content is delivered targeting the target behaviour. This is because it's often important to know whether the contact time of the control and intervention groups matched. 
@@ -714,64 +582,209 @@
 Schedule does not include things like 'number of booklets'. This forms part of dose</t>
         </is>
       </c>
-      <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="4" t="inlineStr"/>
-      <c r="J4" s="4" t="inlineStr"/>
-      <c r="K4" s="4" t="inlineStr"/>
-      <c r="L4" s="4" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr"/>
+      <c r="I2" s="2" t="inlineStr"/>
+      <c r="J2" s="2" t="inlineStr"/>
+      <c r="K2" s="2" t="inlineStr"/>
+      <c r="L2" s="2" t="inlineStr">
         <is>
           <t>BCI delivery</t>
         </is>
       </c>
-      <c r="M4" s="4" t="inlineStr"/>
-      <c r="N4" s="4" t="inlineStr"/>
-      <c r="O4" s="4" t="inlineStr"/>
-      <c r="P4" s="4" t="inlineStr"/>
-      <c r="Q4" s="4" t="inlineStr">
+      <c r="M2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="inlineStr"/>
+      <c r="P2" s="2" t="inlineStr"/>
+      <c r="Q2" s="2" t="inlineStr">
         <is>
           <t>JH; CM</t>
         </is>
       </c>
-      <c r="R4" s="4" t="inlineStr">
+      <c r="R2" s="2" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="S4" s="4" t="inlineStr"/>
-      <c r="T4" s="4" t="inlineStr"/>
+      <c r="S2" s="2" t="inlineStr"/>
+      <c r="T2" s="2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:008510</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>b) contact event</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An intervention temporal part that is an occasion in which a member of a BCI population comes into contact with a BCI.  </t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>intervention temporal part</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr"/>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A counselling session; An online chat session; An advertisement display. </t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>This entity is never annotated. We have defined it as part of the schedule ontology as it is part of the definition of some other entities, but there is no need to annotate it as contact events are also parts so what is expressed can be sufficiently captured using just 'part' if needed.</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr"/>
+      <c r="I3" s="3" t="inlineStr"/>
+      <c r="J3" s="3" t="inlineStr"/>
+      <c r="K3" s="3" t="inlineStr"/>
+      <c r="L3" s="3" t="inlineStr"/>
+      <c r="M3" s="3" t="inlineStr"/>
+      <c r="N3" s="3" t="inlineStr"/>
+      <c r="O3" s="3" t="inlineStr"/>
+      <c r="P3" s="3" t="inlineStr"/>
+      <c r="Q3" s="3" t="inlineStr">
+        <is>
+          <t>CM; RW</t>
+        </is>
+      </c>
+      <c r="R3" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S3" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T3" s="3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:008505</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>c) intervention temporal part</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>A planned process that is a part of a BCI.</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>Temporal parts are defined by the authors of reports. They usually group contact events with similar delivery (e.g. face-to-face), content (e.g. CBT), or contextual features (e.g. school lessons), in order to describe their schedule. Sometimes authors break a contact event up even further into temporal parts during which a particular type of content/BCT is delivered within a contact event, so that they can thoroughly describe the order/duration of the delivery of these parts. Parts can also be broken down in a purely temporal manner (e.g. the first 6 weeks) to describe schedule aspects associated with this specific parts of the intervention</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>The "counselling sessions" took place each week for 6 weeks, and lasted roughly one hour; Each week, participants first took part in a "group discussion" on how the previous week had gone. Following that they "redefined their goals" on the basis of this discussion, then they received a "presentation" from a health specialist on a relevant topic;During the "first 6 weeks", participants received a phone call every two weeks, then for the "last 4 weeks", this was reduced to a weekly call;</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parts are a complex entity linked to many other BCIO sub-ontologies. In theory, interventions can be broken down into any number of parts, however, we only annotate this entity when the author has named a part AND used it to describe an aspect of the intervention schedule (e.g. given it a duration, defined the frequency of contact events within it, defined its order or an interval relative to a timepoint/another part).
+</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr"/>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr"/>
+      <c r="K4" s="3" t="inlineStr"/>
+      <c r="L4" s="3" t="inlineStr"/>
+      <c r="M4" s="3" t="inlineStr"/>
+      <c r="N4" s="3" t="inlineStr"/>
+      <c r="O4" s="3" t="inlineStr"/>
+      <c r="P4" s="3" t="inlineStr">
+        <is>
+          <t>should this be linked to other parts of the ontology (e.g. content/mod) under 'is about'?</t>
+        </is>
+      </c>
+      <c r="Q4" s="3" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R4" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S4" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T4" s="3" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008590</t>
+          <t>BCIO:008560</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>after (to be removed and added to list of relations)</t>
+          <t>d) BCI duration</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it starts following the end of another temporal part or timepoint</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr"/>
+          <t>A temporal interval between the start and end of a behaviour change intervention</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
+        </is>
+      </c>
       <c r="E5" s="3" t="inlineStr"/>
-      <c r="F5" s="3" t="inlineStr"/>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The intervention ran over "6" weeks, with weekly counselling sessions and biweekly exercise classes”  </t>
+        </is>
+      </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>This is not annotated</t>
+          <t>This is used to capture the overall duration of intervention delivery from first to last contact of an intervention. It does not include follow-up periods during which no content is delivered. We annotate only the number and the unit is derived from the context</t>
         </is>
       </c>
       <c r="H5" s="3" t="inlineStr"/>
       <c r="I5" s="3" t="inlineStr"/>
       <c r="J5" s="3" t="inlineStr"/>
-      <c r="K5" s="3" t="inlineStr"/>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
       <c r="L5" s="3" t="inlineStr"/>
       <c r="M5" s="3" t="inlineStr"/>
       <c r="N5" s="3" t="inlineStr"/>
-      <c r="O5" s="3" t="inlineStr"/>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="P5" s="3" t="inlineStr"/>
       <c r="Q5" s="3" t="inlineStr">
         <is>
@@ -793,39 +806,51 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008585</t>
+          <t>BCIO:008525</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>before (to be removed and added to list of relations)</t>
+          <t>e) contact event duration</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it ends prior to the beginning of another temporal part or timepoint</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr"/>
+          <t>A temporal interval between the start and end of a contact event</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
+        </is>
+      </c>
       <c r="E6" s="3" t="inlineStr"/>
-      <c r="F6" s="3" t="inlineStr"/>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This is not annotated </t>
-        </is>
-      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>counselling sessions were "1"hr long; for the first 5 weeks, participants received telephone calls for "30" minutes two times a week;</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr"/>
       <c r="H6" s="3" t="inlineStr"/>
       <c r="I6" s="3" t="inlineStr"/>
       <c r="J6" s="3" t="inlineStr"/>
-      <c r="K6" s="3" t="inlineStr"/>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>contact event</t>
+        </is>
+      </c>
       <c r="L6" s="3" t="inlineStr"/>
       <c r="M6" s="3" t="inlineStr"/>
       <c r="N6" s="3" t="inlineStr"/>
-      <c r="O6" s="3" t="inlineStr"/>
+      <c r="O6" s="3" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="P6" s="3" t="inlineStr"/>
       <c r="Q6" s="3" t="inlineStr">
         <is>
-          <t>CM; RW</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="R6" s="3" t="inlineStr">
@@ -843,47 +868,55 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008510</t>
+          <t>BCIO:008565</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>contact event</t>
+          <t>f) intervention temporal part duration</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">An intervention temporal part that is an occasion in which a member of a BCI population comes into contact with a BCI.  </t>
+          <t>A temporal interval between the start and end of an intervention temporal part</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>intervention temporal part</t>
+          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr"/>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A counselling session; An online chat session; An advertisement display. </t>
+          <t>The counselling sessions ran over a "6" week period, whilst the exercise classes took place over "2" weeks</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>This entity is never annotated. We have defined it as part of the schedule ontology as it is part of the definition of some other entities, but there is no need to annotate it as contact events are also parts so what is expressed can be sufficiently captured using just 'part' if needed.</t>
+          <t>This is used to capture the overal duration of parts. We annotate only the number and the unit is derived from the context</t>
         </is>
       </c>
       <c r="H7" s="3" t="inlineStr"/>
       <c r="I7" s="3" t="inlineStr"/>
       <c r="J7" s="3" t="inlineStr"/>
-      <c r="K7" s="3" t="inlineStr"/>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>temporal part</t>
+        </is>
+      </c>
       <c r="L7" s="3" t="inlineStr"/>
       <c r="M7" s="3" t="inlineStr"/>
       <c r="N7" s="3" t="inlineStr"/>
-      <c r="O7" s="3" t="inlineStr"/>
+      <c r="O7" s="3" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="P7" s="3" t="inlineStr"/>
       <c r="Q7" s="3" t="inlineStr">
         <is>
-          <t>CM; RW</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="R7" s="3" t="inlineStr">
@@ -901,17 +934,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008525</t>
+          <t>BCIO:008575</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>contact event duration</t>
+          <t>g) interval between intervention termporal parts</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>A temporal interval between the start and end of a contact event</t>
+          <t>A temporal interval between the end of one intervention temporal part and the beginning of a subsequent intervention temporal part</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -920,18 +953,18 @@
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr"/>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>counselling sessions were "1"hr long; for the first 5 weeks, participants received telephone calls for "30" minutes two times a week;</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr"/>
+      <c r="F8" s="3" t="inlineStr"/>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>This is used to capture intervals between BCI parts and timepoints. We annotate only the number and the unit is derived from the context</t>
+        </is>
+      </c>
       <c r="H8" s="3" t="inlineStr"/>
       <c r="I8" s="3" t="inlineStr"/>
       <c r="J8" s="3" t="inlineStr"/>
       <c r="K8" s="3" t="inlineStr">
         <is>
-          <t>contact event</t>
+          <t>interval</t>
         </is>
       </c>
       <c r="L8" s="3" t="inlineStr"/>
@@ -963,33 +996,37 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008550</t>
+          <t>BCIO:008520</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>contact event sum duration</t>
+          <t>h) intervention temporal part frequency</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>A data item that is the sum duration of a subset of contact events in a BCI or temporal part</t>
+          <t>An attribute of a BCI schedule of delivery that is how often intervention temporal parts occur within a BCI.</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr"/>
+          <t>process attribute</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>Contact events are intervention temporal parts so this entity also describes the frequency of contact events.</t>
+        </is>
+      </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>The participants took part in "90" minutes of PA weekly</t>
+          <t>intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks"</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
+          <t xml:space="preserve">This is used to capture descriptions of the frequency of contact events within a part. </t>
         </is>
       </c>
       <c r="H9" s="3" t="inlineStr"/>
@@ -1010,7 +1047,7 @@
       </c>
       <c r="P9" s="3" t="inlineStr">
         <is>
-          <t>is about contact events or is about duration of contact events?</t>
+          <t>needs to link to period and repetition. could it be 'has attribute' period, and 'has attribute' repetition?</t>
         </is>
       </c>
       <c r="Q9" s="3" t="inlineStr">
@@ -1030,40 +1067,40 @@
       </c>
       <c r="T9" s="3" t="inlineStr">
         <is>
-          <t>meeting was cut short whilst JH gave feedback on these entities. JH, please could you give feedback here? I think the suggestion was to combine these two entities (BCIO:008550 and BCIO:008555)</t>
+          <t>need to decide whether to have a separate additional entity for frequency of contact events (CM)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008555</t>
+          <t>BCIO:008515</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>contact event sum duration frequency</t>
+          <t>i) number of contact events</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>A data item which describes how often a specified sum duration of contact events occured during a BCI or temporal part</t>
+          <t>A count data item that is the number of contact events in BCI or temporal part</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>data item - Frequency (SIO_001367)</t>
+          <t xml:space="preserve">data item - Count (STATO_0000047) </t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr"/>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>The participants took part in 90 minutes of PA "weekly"</t>
+          <t>participants attended "a" gp visit ; at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
+          <t>This entity is used to capture the number of contacts in an intervention or part. We annotate only the number and include the sentence as context. When there is only one session in a part, we can annotate non-numerical words to indicate this, e.g. 'participants attended "a" gp visit'. Sometimes authors will break parts down in which case we annotate the number of contact events which add together to create a total e.g. 'at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes'.</t>
         </is>
       </c>
       <c r="H10" s="3" t="inlineStr"/>
@@ -1082,11 +1119,7 @@
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P10" s="3" t="inlineStr">
-        <is>
-          <t>is about contact events or is about duration of contact events?</t>
-        </is>
-      </c>
+      <c r="P10" s="3" t="inlineStr"/>
       <c r="Q10" s="3" t="inlineStr">
         <is>
           <t>CM</t>
@@ -1102,88 +1135,105 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T10" s="3" t="inlineStr">
-        <is>
-          <t>meeting was cut short whilst JH gave feedback on these entities. JH, please could you give feedback here? I think the suggestion was to combine these two entities (BCIO:008550 and BCIO:008555)</t>
-        </is>
-      </c>
+      <c r="T10" s="3" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:008570</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>interval (remove)</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr"/>
-      <c r="D11" s="2" t="inlineStr"/>
-      <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr"/>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>This is not annotated but included due to relationship with duration of interval</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr"/>
-      <c r="I11" s="2" t="inlineStr"/>
-      <c r="J11" s="2" t="inlineStr"/>
-      <c r="K11" s="2" t="inlineStr"/>
-      <c r="L11" s="2" t="inlineStr"/>
-      <c r="M11" s="2" t="inlineStr"/>
-      <c r="N11" s="2" t="inlineStr"/>
-      <c r="O11" s="2" t="inlineStr"/>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>entity added so duration of interval can be specified. not sure what parent/relationships should be</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:008530</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>j) timepoint of event</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A part of a BCI schedule of delivery that is the moment of a specific event relevant for the intervention </t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr"/>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>Timepoints are used by authors to describe the schedules of a BCI relative to events that are not themselves parts of the BCI. This can include things like quit dates, childbirth, medical operations etc.</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Counselling sessions started a week after the participants "quit date"; A feedback call was scheduled to be delivered around 6 months after the "birth of the baby". </t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>Annotate the words used by authors to describe key events which are not themselves part of the intervention but are relevant to the description of the schedule of the intervention.</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr"/>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>BCI schedule of delivery</t>
+        </is>
+      </c>
+      <c r="J11" s="3" t="inlineStr"/>
+      <c r="K11" s="3" t="inlineStr"/>
+      <c r="L11" s="3" t="inlineStr"/>
+      <c r="M11" s="3" t="inlineStr"/>
+      <c r="N11" s="3" t="inlineStr"/>
+      <c r="O11" s="3" t="inlineStr"/>
+      <c r="P11" s="3" t="inlineStr">
+        <is>
+          <t>check relationships</t>
+        </is>
+      </c>
+      <c r="Q11" s="3" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="S11" s="2" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T11" s="2" t="inlineStr"/>
+      <c r="R11" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S11" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T11" s="3" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008575</t>
+          <t>BCIO:008545</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>interval between intervention termporal parts</t>
+          <t>k) total contact event duration</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>A temporal interval between the end of one intervention temporal part and the beginning of a subsequent intervention temporal part</t>
+          <t>A data item that is the total duration of all contact events in a BCI or temporal part</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr"/>
-      <c r="F12" s="3" t="inlineStr"/>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>participants received "150" minutes of face-to-face counselling, split across five 30 minute sessions</t>
+        </is>
+      </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>This is used to capture intervals between BCI parts and timepoints. We annotate only the number and the unit is derived from the context</t>
+          <t>Use this entity when authors describe the total amount of contact time for a particular part/intervention across multiple contact events.
+When there is only one session, the total duration of contact events and the duration of a single contact event are technically the same. As a convention, we would annotate this under duration of contact event</t>
         </is>
       </c>
       <c r="H12" s="3" t="inlineStr"/>
@@ -1191,7 +1241,7 @@
       <c r="J12" s="3" t="inlineStr"/>
       <c r="K12" s="3" t="inlineStr">
         <is>
-          <t>interval</t>
+          <t>contact event</t>
         </is>
       </c>
       <c r="L12" s="3" t="inlineStr"/>
@@ -1202,7 +1252,11 @@
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P12" s="3" t="inlineStr"/>
+      <c r="P12" s="3" t="inlineStr">
+        <is>
+          <t>"is about" contact events or "is about" duration of contact events?</t>
+        </is>
+      </c>
       <c r="Q12" s="3" t="inlineStr">
         <is>
           <t>CM</t>
@@ -1218,60 +1272,63 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T12" s="3" t="inlineStr"/>
+      <c r="T12" s="3" t="inlineStr">
+        <is>
+          <t>what type of data item is this? (CM)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008505</t>
+          <t>BCIO:008550</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>intervention temporal part</t>
+          <t>l) contact event sum duration</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>A planned process that is a part of a BCI.</t>
+          <t>A data item that is the sum duration of a subset of contact events in a BCI or temporal part</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>planned process</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>Temporal parts are defined by the authors of reports. They usually group contact events with similar delivery (e.g. face-to-face), content (e.g. CBT), or contextual features (e.g. school lessons), in order to describe their schedule. Sometimes authors break a contact event up even further into temporal parts during which a particular type of content/BCT is delivered within a contact event, so that they can thoroughly describe the order/duration of the delivery of these parts. Parts can also be broken down in a purely temporal manner (e.g. the first 6 weeks) to describe schedule aspects associated with this specific parts of the intervention</t>
-        </is>
-      </c>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr"/>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>The "counselling sessions" took place each week for 6 weeks, and lasted roughly one hour; Each week, participants first took part in a "group discussion" on how the previous week had gone. Following that they "redefined their goals" on the basis of this discussion, then they received a "presentation" from a health specialist on a relevant topic;During the "first 6 weeks", participants received a phone call every two weeks, then for the "last 4 weeks", this was reduced to a weekly call;</t>
+          <t>The participants took part in "90" minutes of PA weekly</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Parts are a complex entity linked to many other BCIO sub-ontologies. In theory, interventions can be broken down into any number of parts, however, we only annotate this entity when the author has named a part AND used it to describe an aspect of the intervention schedule (e.g. given it a duration, defined the frequency of contact events within it, defined its order or an interval relative to a timepoint/another part).
-</t>
+          <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
         </is>
       </c>
       <c r="H13" s="3" t="inlineStr"/>
-      <c r="I13" s="3" t="inlineStr">
-        <is>
-          <t>BCI</t>
-        </is>
-      </c>
+      <c r="I13" s="3" t="inlineStr"/>
       <c r="J13" s="3" t="inlineStr"/>
-      <c r="K13" s="3" t="inlineStr"/>
+      <c r="K13" s="3" t="inlineStr">
+        <is>
+          <t>contact event</t>
+        </is>
+      </c>
       <c r="L13" s="3" t="inlineStr"/>
       <c r="M13" s="3" t="inlineStr"/>
       <c r="N13" s="3" t="inlineStr"/>
-      <c r="O13" s="3" t="inlineStr"/>
+      <c r="O13" s="3" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="P13" s="3" t="inlineStr">
         <is>
-          <t>should this be linked to other parts of the ontology (e.g. content/mod) under 'is about'?</t>
+          <t>is about contact events or is about duration of contact events?</t>
         </is>
       </c>
       <c r="Q13" s="3" t="inlineStr">
@@ -1289,42 +1346,50 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T13" s="3" t="inlineStr"/>
+      <c r="T13" s="3" t="inlineStr">
+        <is>
+          <t>meeting was cut short whilst JH gave feedback on these entities. JH, please could you give feedback here? I think the suggestion was to combine these two entities (BCIO:008550 and BCIO:008555)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008600</t>
+          <t>BCIO:008555</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>intervention temporal part duration</t>
+          <t>m) contact event sum duration frequency</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>A temporal interval that is the length of time from start to end of an intervention temporal part</t>
+          <t>A data item which describes how often a specified sum duration of contact events occured during a BCI or temporal part</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
+          <t>data item - Frequency (SIO_001367)</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr"/>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>Participants received 3 emails every "2" weeks</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr"/>
+          <t>The participants took part in 90 minutes of PA "weekly"</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
+        </is>
+      </c>
       <c r="H14" s="3" t="inlineStr"/>
       <c r="I14" s="3" t="inlineStr"/>
       <c r="J14" s="3" t="inlineStr"/>
       <c r="K14" s="3" t="inlineStr">
         <is>
-          <t>intervention temporal part</t>
+          <t>contact event</t>
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr"/>
@@ -1335,7 +1400,11 @@
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P14" s="3" t="inlineStr"/>
+      <c r="P14" s="3" t="inlineStr">
+        <is>
+          <t>is about contact events or is about duration of contact events?</t>
+        </is>
+      </c>
       <c r="Q14" s="3" t="inlineStr">
         <is>
           <t>CM</t>
@@ -1353,59 +1422,55 @@
       </c>
       <c r="T14" s="3" t="inlineStr">
         <is>
-          <t>this entity was added to allow us to more flexibly capture frequencies that have been broken down into period and repetitions. This is useful for annotations but we are unsure if it makes ontological sense to include it as it isn't really distinct from a frequency itself and relates more to how a frequency is described. Perhaps this also isn't really distinct from duration of BCI/part (CM)</t>
+          <t>meeting was cut short whilst JH gave feedback on these entities. JH, please could you give feedback here? I think the suggestion was to combine these two entities (BCIO:008550 and BCIO:008555)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008565</t>
+          <t>BCIO:008535</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>intervention temporal part duration</t>
+          <t>n) regular intervention schedule</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>A temporal interval between the start and end of an intervention temporal part</t>
+          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of Intervention temporal parts are uniform across the course of a BCI or BCI part.  </t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
+          <t>BCI schedule of delivery</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr"/>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>The counselling sessions ran over a "6" week period, whilst the exercise classes took place over "2" weeks</t>
+          <t>the "length and regularity of sessions were consistent across the duration of the intervention", taking place for an hour each week</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>This is used to capture the overal duration of parts. We annotate only the number and the unit is derived from the context</t>
+          <t>This is used to capture when the author specifies that the schedule (length and frequency of contact events) does not change over the course of a part. This is rarely annotated as it is not usually explicitly stated.</t>
         </is>
       </c>
       <c r="H15" s="3" t="inlineStr"/>
       <c r="I15" s="3" t="inlineStr"/>
       <c r="J15" s="3" t="inlineStr"/>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>temporal part</t>
-        </is>
-      </c>
+      <c r="K15" s="3" t="inlineStr"/>
       <c r="L15" s="3" t="inlineStr"/>
       <c r="M15" s="3" t="inlineStr"/>
       <c r="N15" s="3" t="inlineStr"/>
-      <c r="O15" s="3" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="P15" s="3" t="inlineStr"/>
+      <c r="O15" s="3" t="inlineStr"/>
+      <c r="P15" s="3" t="inlineStr">
+        <is>
+          <t>relationship? is about schedule? or is a type of schedule?</t>
+        </is>
+      </c>
       <c r="Q15" s="3" t="inlineStr">
         <is>
           <t>CM</t>
@@ -1426,58 +1491,42 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008520</t>
+          <t>BCIO:008540</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>intervention temporal part frequency</t>
+          <t>o) irregular schedule</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>An attribute of a BCI schedule of delivery that is how often intervention temporal parts occur within a BCI.</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>process attribute</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>Contact events are intervention temporal parts so this entity also describes the frequency of contact events.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events change over the course of a temporal part or BCI.  </t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr"/>
+      <c r="E16" s="3" t="inlineStr"/>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks"</t>
+          <t>telephone feedback sessions were more frequent during the first 6 weeks</t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">This is used to capture descriptions of the frequency of contact events within a part. </t>
+          <t>We use this to capture instances when it is clear that the schedule (i.e. duration and frequency of contact events) varies over the course of a part, but we are unable to capture the specific schedule</t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr"/>
       <c r="I16" s="3" t="inlineStr"/>
       <c r="J16" s="3" t="inlineStr"/>
-      <c r="K16" s="3" t="inlineStr">
-        <is>
-          <t>contact event</t>
-        </is>
-      </c>
+      <c r="K16" s="3" t="inlineStr"/>
       <c r="L16" s="3" t="inlineStr"/>
       <c r="M16" s="3" t="inlineStr"/>
       <c r="N16" s="3" t="inlineStr"/>
-      <c r="O16" s="3" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
+      <c r="O16" s="3" t="inlineStr"/>
       <c r="P16" s="3" t="inlineStr">
         <is>
-          <t>needs to link to period and repetition. could it be 'has attribute' period, and 'has attribute' repetition?</t>
+          <t>relationship? is about schedule? or is a type of schedule?</t>
         </is>
       </c>
       <c r="Q16" s="3" t="inlineStr">
@@ -1497,157 +1546,29 @@
       </c>
       <c r="T16" s="3" t="inlineStr">
         <is>
-          <t>need to decide whether to have a separate additional entity for frequency of contact events (CM)</t>
+          <t>should we also add separate entities for fixed and variable schedule, to describe cases when schedules vary across participants? We previously had these entities within the ontology but they were removed as they didn't come up explicitly in papers and our old definition of variable schedule overlapped with the definition for irregular schedule (CM)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008540</t>
+          <t>BCIO:008580</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>irregular schedule</t>
+          <t>p) order</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events change over the course of a temporal part or BCI.  </t>
+          <t>A part of BCI schedule which describes the relative temporal positioning of contact events, temporal parts and timepoints.</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr"/>
       <c r="E17" s="3" t="inlineStr"/>
       <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>telephone feedback sessions were more frequent during the first 6 weeks</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>We use this to capture instances when it is clear that the schedule (i.e. duration and frequency of contact events) varies over the course of a part, but we are unable to capture the specific schedule</t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="inlineStr"/>
-      <c r="I17" s="3" t="inlineStr"/>
-      <c r="J17" s="3" t="inlineStr"/>
-      <c r="K17" s="3" t="inlineStr"/>
-      <c r="L17" s="3" t="inlineStr"/>
-      <c r="M17" s="3" t="inlineStr"/>
-      <c r="N17" s="3" t="inlineStr"/>
-      <c r="O17" s="3" t="inlineStr"/>
-      <c r="P17" s="3" t="inlineStr">
-        <is>
-          <t>relationship? is about schedule? or is a type of schedule?</t>
-        </is>
-      </c>
-      <c r="Q17" s="3" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="R17" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="S17" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T17" s="3" t="inlineStr">
-        <is>
-          <t>should we also add separate entities for fixed and variable schedule, to describe cases when schedules vary across participants? We previously had these entities within the ontology but they were removed as they didn't come up explicitly in papers and our old definition of variable schedule overlapped with the definition for irregular schedule (CM)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:008515</t>
-        </is>
-      </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>number of contact events</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>A count data item that is the number of contact events in BCI or temporal part</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data item - Count (STATO_0000047) </t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="inlineStr"/>
-      <c r="F18" s="3" t="inlineStr">
-        <is>
-          <t>participants attended "a" gp visit ; at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes</t>
-        </is>
-      </c>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>This entity is used to capture the number of contacts in an intervention or part. We annotate only the number and include the sentence as context. When there is only one session in a part, we can annotate non-numerical words to indicate this, e.g. 'participants attended "a" gp visit'. Sometimes authors will break parts down in which case we annotate the number of contact events which add together to create a total e.g. 'at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes'.</t>
-        </is>
-      </c>
-      <c r="H18" s="3" t="inlineStr"/>
-      <c r="I18" s="3" t="inlineStr"/>
-      <c r="J18" s="3" t="inlineStr"/>
-      <c r="K18" s="3" t="inlineStr">
-        <is>
-          <t>contact event</t>
-        </is>
-      </c>
-      <c r="L18" s="3" t="inlineStr"/>
-      <c r="M18" s="3" t="inlineStr"/>
-      <c r="N18" s="3" t="inlineStr"/>
-      <c r="O18" s="3" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="P18" s="3" t="inlineStr"/>
-      <c r="Q18" s="3" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="R18" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="S18" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T18" s="3" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:008580</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>order</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>A part of BCI schedule which describes the relative temporal positioning of contact events, temporal parts and timepoints.</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr"/>
-      <c r="E19" s="3" t="inlineStr"/>
-      <c r="F19" s="3" t="inlineStr">
         <is>
           <t>"After questionnaires were completed, feedback was selected
 out of a database with messages for each possible combination
@@ -1656,19 +1577,123 @@
 levels to the PA guidelines."</t>
         </is>
       </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>This is annotated as an open code when any aspect of order is described</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr"/>
+      <c r="I17" s="3" t="inlineStr"/>
+      <c r="J17" s="3" t="inlineStr"/>
+      <c r="K17" s="3" t="inlineStr">
+        <is>
+          <t>BCI schedule of delivery</t>
+        </is>
+      </c>
+      <c r="L17" s="3" t="inlineStr"/>
+      <c r="M17" s="3" t="inlineStr"/>
+      <c r="N17" s="3" t="inlineStr"/>
+      <c r="O17" s="3" t="inlineStr"/>
+      <c r="P17" s="3" t="inlineStr"/>
+      <c r="Q17" s="3" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R17" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S17" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T17" s="3" t="inlineStr">
+        <is>
+          <t>not sure about definitions and relationships. Should this be remove from the schedule ontology and instead form part of the relations ontology, like before and after? (CM)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:008595</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>q) same time (remove - this is a relation like before and after)</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it occurs whilst another temporal part or timepoint occurs</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr"/>
+      <c r="E18" s="3" t="inlineStr"/>
+      <c r="F18" s="3" t="inlineStr"/>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>This is not annotated</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr"/>
+      <c r="I18" s="3" t="inlineStr"/>
+      <c r="J18" s="3" t="inlineStr"/>
+      <c r="K18" s="3" t="inlineStr"/>
+      <c r="L18" s="3" t="inlineStr"/>
+      <c r="M18" s="3" t="inlineStr"/>
+      <c r="N18" s="3" t="inlineStr"/>
+      <c r="O18" s="3" t="inlineStr"/>
+      <c r="P18" s="3" t="inlineStr"/>
+      <c r="Q18" s="3" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R18" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S18" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T18" s="3" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:008585</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>r) before (to be removed and added to list of relations)</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it ends prior to the beginning of another temporal part or timepoint</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr"/>
+      <c r="E19" s="3" t="inlineStr"/>
+      <c r="F19" s="3" t="inlineStr"/>
       <c r="G19" s="3" t="inlineStr">
         <is>
-          <t>This is annotated as an open code when any aspect of order is described</t>
+          <t xml:space="preserve">This is not annotated </t>
         </is>
       </c>
       <c r="H19" s="3" t="inlineStr"/>
       <c r="I19" s="3" t="inlineStr"/>
       <c r="J19" s="3" t="inlineStr"/>
-      <c r="K19" s="3" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
+      <c r="K19" s="3" t="inlineStr"/>
       <c r="L19" s="3" t="inlineStr"/>
       <c r="M19" s="3" t="inlineStr"/>
       <c r="N19" s="3" t="inlineStr"/>
@@ -1676,7 +1701,7 @@
       <c r="P19" s="3" t="inlineStr"/>
       <c r="Q19" s="3" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>CM; RW</t>
         </is>
       </c>
       <c r="R19" s="3" t="inlineStr">
@@ -1689,42 +1714,30 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T19" s="3" t="inlineStr">
-        <is>
-          <t>not sure about definitions and relationships. Should this be remove from the schedule ontology and instead form part of the relations ontology, like before and after? (CM)</t>
-        </is>
-      </c>
+      <c r="T19" s="3" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008535</t>
+          <t>BCIO:008590</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>regular intervention schedule</t>
+          <t>s) after (to be removed and added to list of relations)</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of Intervention temporal parts are uniform across the course of a BCI or BCI part.  </t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
+          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it starts following the end of another temporal part or timepoint</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="3" t="inlineStr"/>
-      <c r="F20" s="3" t="inlineStr">
-        <is>
-          <t>the "length and regularity of sessions were consistent across the duration of the intervention", taking place for an hour each week</t>
-        </is>
-      </c>
+      <c r="F20" s="3" t="inlineStr"/>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t>This is used to capture when the author specifies that the schedule (length and frequency of contact events) does not change over the course of a part. This is rarely annotated as it is not usually explicitly stated.</t>
+          <t>This is not annotated</t>
         </is>
       </c>
       <c r="H20" s="3" t="inlineStr"/>
@@ -1735,218 +1748,205 @@
       <c r="M20" s="3" t="inlineStr"/>
       <c r="N20" s="3" t="inlineStr"/>
       <c r="O20" s="3" t="inlineStr"/>
-      <c r="P20" s="3" t="inlineStr">
-        <is>
-          <t>relationship? is about schedule? or is a type of schedule?</t>
-        </is>
-      </c>
+      <c r="P20" s="3" t="inlineStr"/>
       <c r="Q20" s="3" t="inlineStr">
         <is>
+          <t>CM; RW</t>
+        </is>
+      </c>
+      <c r="R20" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S20" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T20" s="3" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:008605</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>z) (removed as equivalent to number of contact events) number of repetitions</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>A data item that is the number of repetitions of contact events within a temporal part or BCI for which the frequency is described</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr"/>
+      <c r="E21" s="4" t="inlineStr"/>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>Participants received "3" emails every 2 weeks</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>This is annotated when a frequency is described using a period and a number of repetitions, rather than a single word.</t>
+        </is>
+      </c>
+      <c r="H21" s="4" t="inlineStr"/>
+      <c r="I21" s="4" t="inlineStr"/>
+      <c r="J21" s="4" t="inlineStr"/>
+      <c r="K21" s="4" t="inlineStr">
+        <is>
+          <t>contact event</t>
+        </is>
+      </c>
+      <c r="L21" s="4" t="inlineStr"/>
+      <c r="M21" s="4" t="inlineStr"/>
+      <c r="N21" s="4" t="inlineStr"/>
+      <c r="O21" s="4" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="P21" s="4" t="inlineStr"/>
+      <c r="Q21" s="4" t="inlineStr">
+        <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R20" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="S20" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T20" s="3" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:008595</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>same time (remove - this is a relation like before and after)</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it occurs whilst another temporal part or timepoint occurs</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr"/>
-      <c r="E21" s="3" t="inlineStr"/>
-      <c r="F21" s="3" t="inlineStr"/>
-      <c r="G21" s="3" t="inlineStr">
-        <is>
-          <t>This is not annotated</t>
-        </is>
-      </c>
-      <c r="H21" s="3" t="inlineStr"/>
-      <c r="I21" s="3" t="inlineStr"/>
-      <c r="J21" s="3" t="inlineStr"/>
-      <c r="K21" s="3" t="inlineStr"/>
-      <c r="L21" s="3" t="inlineStr"/>
-      <c r="M21" s="3" t="inlineStr"/>
-      <c r="N21" s="3" t="inlineStr"/>
-      <c r="O21" s="3" t="inlineStr"/>
-      <c r="P21" s="3" t="inlineStr"/>
-      <c r="Q21" s="3" t="inlineStr">
+      <c r="R21" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="S21" s="4" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T21" s="4" t="inlineStr">
+        <is>
+          <t>this entity was added to allow us to more flexibly capture frequencies that have been broken down into period and repetitions. This is useful for annotations but we are unsure if it makes ontological sense to include it as it isn't really distinct from a frequency itself and relates more to how a frequency is described (CM)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:008600</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>z) frequency period</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>A temporal interval that is the length of time from start to end of an intervention temporal part</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr"/>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>Participants received 3 emails every "2" weeks</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr"/>
+      <c r="H22" s="4" t="inlineStr"/>
+      <c r="I22" s="4" t="inlineStr"/>
+      <c r="J22" s="4" t="inlineStr"/>
+      <c r="K22" s="4" t="inlineStr">
+        <is>
+          <t>intervention temporal part</t>
+        </is>
+      </c>
+      <c r="L22" s="4" t="inlineStr"/>
+      <c r="M22" s="4" t="inlineStr"/>
+      <c r="N22" s="4" t="inlineStr"/>
+      <c r="O22" s="4" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="P22" s="4" t="inlineStr"/>
+      <c r="Q22" s="4" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R21" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="S21" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T21" s="3" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:008530</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>timepoint of event</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A part of a BCI schedule of delivery that is the moment of a specific event relevant for the intervention </t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr"/>
-      <c r="E22" s="3" t="inlineStr">
-        <is>
-          <t>Timepoints are used by authors to describe the schedules of a BCI relative to events that are not themselves parts of the BCI. This can include things like quit dates, childbirth, medical operations etc.</t>
-        </is>
-      </c>
-      <c r="F22" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Counselling sessions started a week after the participants "quit date"; A feedback call was scheduled to be delivered around 6 months after the "birth of the baby". </t>
-        </is>
-      </c>
-      <c r="G22" s="3" t="inlineStr">
-        <is>
-          <t>Annotate the words used by authors to describe key events which are not themselves part of the intervention but are relevant to the description of the schedule of the intervention.</t>
-        </is>
-      </c>
-      <c r="H22" s="3" t="inlineStr"/>
-      <c r="I22" s="3" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
-      <c r="J22" s="3" t="inlineStr"/>
-      <c r="K22" s="3" t="inlineStr"/>
-      <c r="L22" s="3" t="inlineStr"/>
-      <c r="M22" s="3" t="inlineStr"/>
-      <c r="N22" s="3" t="inlineStr"/>
-      <c r="O22" s="3" t="inlineStr"/>
-      <c r="P22" s="3" t="inlineStr">
-        <is>
-          <t>check relationships</t>
-        </is>
-      </c>
-      <c r="Q22" s="3" t="inlineStr">
+      <c r="R22" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="S22" s="4" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T22" s="4" t="inlineStr">
+        <is>
+          <t>this entity was added to allow us to more flexibly capture frequencies that have been broken down into period and repetitions. This is useful for annotations but we are unsure if it makes ontological sense to include it as it isn't really distinct from a frequency itself and relates more to how a frequency is described. Perhaps this also isn't really distinct from duration of BCI/part (CM)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:008570</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>z) interval (remove)</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr"/>
+      <c r="D23" s="4" t="inlineStr"/>
+      <c r="E23" s="4" t="inlineStr"/>
+      <c r="F23" s="4" t="inlineStr"/>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>This is not annotated but included due to relationship with duration of interval</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="inlineStr"/>
+      <c r="I23" s="4" t="inlineStr"/>
+      <c r="J23" s="4" t="inlineStr"/>
+      <c r="K23" s="4" t="inlineStr"/>
+      <c r="L23" s="4" t="inlineStr"/>
+      <c r="M23" s="4" t="inlineStr"/>
+      <c r="N23" s="4" t="inlineStr"/>
+      <c r="O23" s="4" t="inlineStr"/>
+      <c r="P23" s="4" t="inlineStr">
+        <is>
+          <t>entity added so duration of interval can be specified. not sure what parent/relationships should be</t>
+        </is>
+      </c>
+      <c r="Q23" s="4" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R22" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="S22" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T22" s="3" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:008545</t>
-        </is>
-      </c>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>total contact event duration</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>A data item that is the total duration of all contact events in a BCI or temporal part</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="inlineStr"/>
-      <c r="F23" s="3" t="inlineStr">
-        <is>
-          <t>participants received "150" minutes of face-to-face counselling, split across five 30 minute sessions</t>
-        </is>
-      </c>
-      <c r="G23" s="3" t="inlineStr">
-        <is>
-          <t>Use this entity when authors describe the total amount of contact time for a particular part/intervention across multiple contact events.
-When there is only one session, the total duration of contact events and the duration of a single contact event are technically the same. As a convention, we would annotate this under duration of contact event</t>
-        </is>
-      </c>
-      <c r="H23" s="3" t="inlineStr"/>
-      <c r="I23" s="3" t="inlineStr"/>
-      <c r="J23" s="3" t="inlineStr"/>
-      <c r="K23" s="3" t="inlineStr">
-        <is>
-          <t>contact event</t>
-        </is>
-      </c>
-      <c r="L23" s="3" t="inlineStr"/>
-      <c r="M23" s="3" t="inlineStr"/>
-      <c r="N23" s="3" t="inlineStr"/>
-      <c r="O23" s="3" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="P23" s="3" t="inlineStr">
-        <is>
-          <t>"is about" contact events or "is about" duration of contact events?</t>
-        </is>
-      </c>
-      <c r="Q23" s="3" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="R23" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="S23" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T23" s="3" t="inlineStr">
-        <is>
-          <t>what type of data item is this? (CM)</t>
-        </is>
-      </c>
+      <c r="R23" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="S23" s="4" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T23" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -715,11 +715,7 @@
       <c r="M4" s="3" t="inlineStr"/>
       <c r="N4" s="3" t="inlineStr"/>
       <c r="O4" s="3" t="inlineStr"/>
-      <c r="P4" s="3" t="inlineStr">
-        <is>
-          <t>should this be linked to other parts of the ontology (e.g. content/mod) under 'is about'?</t>
-        </is>
-      </c>
+      <c r="P4" s="3" t="inlineStr"/>
       <c r="Q4" s="3" t="inlineStr">
         <is>
           <t>CM</t>
@@ -1045,11 +1041,7 @@
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P9" s="3" t="inlineStr">
-        <is>
-          <t>needs to link to period and repetition. could it be 'has attribute' period, and 'has attribute' repetition?</t>
-        </is>
-      </c>
+      <c r="P9" s="3" t="inlineStr"/>
       <c r="Q9" s="3" t="inlineStr">
         <is>
           <t>CM</t>
@@ -1145,7 +1137,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>j) timepoint of event</t>
+          <t xml:space="preserve">j) timepoint of event </t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -1286,7 +1278,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>l) contact event sum duration</t>
+          <t>l) contact event sum duration (still to confirm inclusion)</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -1360,7 +1352,7 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>m) contact event sum duration frequency</t>
+          <t>m) contact event sum duration frequency (still to confirm inclusion)</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -1444,7 +1436,7 @@
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>BCI schedule of delivery</t>
+          <t>a) BCI schedule of delivery</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr"/>
@@ -1504,7 +1496,11 @@
           <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events change over the course of a temporal part or BCI.  </t>
         </is>
       </c>
-      <c r="D16" s="3" t="inlineStr"/>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>a) BCI schedule of delivery</t>
+        </is>
+      </c>
       <c r="E16" s="3" t="inlineStr"/>
       <c r="F16" s="3" t="inlineStr">
         <is>

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">j) timepoint of event </t>
+          <t>j) timepoint of event relevant for intervention</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -1145,7 +1145,11 @@
           <t xml:space="preserve">A part of a BCI schedule of delivery that is the moment of a specific event relevant for the intervention </t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr"/>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
+        </is>
+      </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
           <t>Timepoints are used by authors to describe the schedules of a BCI relative to events that are not themselves parts of the BCI. This can include things like quit dates, childbirth, medical operations etc.</t>

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -45,6 +45,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00eee8aa"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
     <fill>
@@ -65,12 +70,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -436,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -694,13 +700,14 @@
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>The "counselling sessions" took place each week for 6 weeks, and lasted roughly one hour; Each week, participants first took part in a "group discussion" on how the previous week had gone. Following that they "redefined their goals" on the basis of this discussion, then they received a "presentation" from a health specialist on a relevant topic;During the "first 6 weeks", participants received a phone call every two weeks, then for the "last 4 weeks", this was reduced to a weekly call;</t>
+          <t>counselling sessions; the first 6 weeks of the intervention; group discussion; a presentation; the last 4 weeks of the intervention</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Parts are a complex entity linked to many other BCIO sub-ontologies. In theory, interventions can be broken down into any number of parts, however, we only annotate this entity when the author has named a part AND used it to describe an aspect of the intervention schedule (e.g. given it a duration, defined the frequency of contact events within it, defined its order or an interval relative to a timepoint/another part).
-</t>
+          <t>Parts are a complex entity linked to many other BCIO sub-ontologies. In theory, interventions can be broken down into any number of parts, however, we only annotate this entity when the author has named a part AND used it to describe an aspect of the intervention schedule (e.g. given it a duration, defined the frequency of contact events within it, defined its order or an interval relative to a timepoint/another part).
+Example Annotations (in context):
+The "counselling sessions" took place each week for 6 weeks, and lasted roughly one hour; Each week, participants first took part in a "group discussion" on how the previous week had gone. Following that they "redefined their goals" on the basis of this discussion, then they received a "presentation" from a health specialist on a relevant topic;During the "first 6 weeks", participants received a phone call every two weeks, then for the "last 4 weeks", this was reduced to a weekly call;</t>
         </is>
       </c>
       <c r="H4" s="3" t="inlineStr"/>
@@ -757,12 +764,14 @@
       <c r="E5" s="3" t="inlineStr"/>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">The intervention ran over "6" weeks, with weekly counselling sessions and biweekly exercise classes”  </t>
+          <t>6 weeks; 2 months; 1 year</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>This is used to capture the overall duration of intervention delivery from first to last contact of an intervention. It does not include follow-up periods during which no content is delivered. We annotate only the number and the unit is derived from the context</t>
+          <t>This is used to capture the overall duration of intervention delivery from first to last contact of an intervention. It does not include follow-up periods during which no content is delivered. We annotate only the number and the unit is derived from the context
+Example Annotation (in context)
+The intervention ran over "6" weeks, with weekly counselling sessions and biweekly exercise classes</t>
         </is>
       </c>
       <c r="H5" s="3" t="inlineStr"/>
@@ -823,10 +832,16 @@
       <c r="E6" s="3" t="inlineStr"/>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>counselling sessions were "1"hr long; for the first 5 weeks, participants received telephone calls for "30" minutes two times a week;</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="inlineStr"/>
+          <t>1 hour; 30 minutes; 2 minutes</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This is used to capture the duration of contact events. We annotate only the number and the unit is derived from the context.
+Example annotation (in context):
+The intervention ran over "6" weeks, with weekly counselling sessions and biweekly exercise classes”  </t>
+        </is>
+      </c>
       <c r="H6" s="3" t="inlineStr"/>
       <c r="I6" s="3" t="inlineStr"/>
       <c r="J6" s="3" t="inlineStr"/>
@@ -885,12 +900,14 @@
       <c r="E7" s="3" t="inlineStr"/>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>The counselling sessions ran over a "6" week period, whilst the exercise classes took place over "2" weeks</t>
+          <t>6 weeks; 2 weeks</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>This is used to capture the overal duration of parts. We annotate only the number and the unit is derived from the context</t>
+          <t>This is used to capture the overal duration of parts. We annotate only the number and the unit is derived from the context
+Example annotation (in context):
+The counselling sessions ran over a "6" week period, whilst the exercise classes took place over "2" weeks</t>
         </is>
       </c>
       <c r="H7" s="3" t="inlineStr"/>
@@ -949,10 +966,16 @@
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr"/>
-      <c r="F8" s="3" t="inlineStr"/>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>"2 weeks"; "1 day"</t>
+        </is>
+      </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>This is used to capture intervals between BCI parts and timepoints. We annotate only the number and the unit is derived from the context</t>
+          <t>This is used to capture intervals between BCI parts and timepoints. We annotate only the number and the unit is derived from the context
+Example annotation (in context)
+Exercise classes started "2 weeks" after the education phase of the intervention.</t>
         </is>
       </c>
       <c r="H8" s="3" t="inlineStr"/>
@@ -990,109 +1013,93 @@
       <c r="T8" s="3" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:008520</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>h) intervention temporal part frequency</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>An attribute of a BCI schedule of delivery that is how often intervention temporal parts occur within a BCI.</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:0050000</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>h) contact event frequency</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>An attribute of a BCI schedule that is how often contact events occur within a BCI</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>Contact events are intervention temporal parts so this entity also describes the frequency of contact events.</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks"</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This is used to capture descriptions of the frequency of contact events within a part. </t>
-        </is>
-      </c>
-      <c r="H9" s="3" t="inlineStr"/>
-      <c r="I9" s="3" t="inlineStr"/>
-      <c r="J9" s="3" t="inlineStr"/>
-      <c r="K9" s="3" t="inlineStr">
-        <is>
-          <t>contact event</t>
-        </is>
-      </c>
-      <c r="L9" s="3" t="inlineStr"/>
-      <c r="M9" s="3" t="inlineStr"/>
-      <c r="N9" s="3" t="inlineStr"/>
-      <c r="O9" s="3" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="P9" s="3" t="inlineStr"/>
-      <c r="Q9" s="3" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr"/>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>twice a week; daily; one a week</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>This is used to capture descriptions of the frequency of contact events within a part. 
+Example annotation (in context)
+intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks"</t>
+        </is>
+      </c>
+      <c r="H9" s="4" t="inlineStr"/>
+      <c r="I9" s="4" t="inlineStr"/>
+      <c r="J9" s="4" t="inlineStr"/>
+      <c r="K9" s="4" t="inlineStr"/>
+      <c r="L9" s="4" t="inlineStr"/>
+      <c r="M9" s="4" t="inlineStr"/>
+      <c r="N9" s="4" t="inlineStr"/>
+      <c r="O9" s="4" t="inlineStr"/>
+      <c r="P9" s="4" t="inlineStr"/>
+      <c r="Q9" s="4" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R9" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="S9" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T9" s="3" t="inlineStr">
-        <is>
-          <t>need to decide whether to have a separate additional entity for frequency of contact events (CM)</t>
-        </is>
-      </c>
+      <c r="R9" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S9" s="4" t="inlineStr"/>
+      <c r="T9" s="4" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008515</t>
+          <t>BCIO:008520</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>i) number of contact events</t>
+          <t>h) intervention temporal part frequency</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>A count data item that is the number of contact events in BCI or temporal part</t>
+          <t>An attribute of a BCI schedule of delivery that is how often intervention temporal parts occur within a BCI.</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">data item - Count (STATO_0000047) </t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="inlineStr"/>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>participants attended "a" gp visit ; at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes</t>
-        </is>
-      </c>
+          <t>process attribute</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>Contact events are intervention temporal parts so this entity also describes the frequency of contact events.</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr"/>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>This entity is used to capture the number of contacts in an intervention or part. We annotate only the number and include the sentence as context. When there is only one session in a part, we can annotate non-numerical words to indicate this, e.g. 'participants attended "a" gp visit'. Sometimes authors will break parts down in which case we annotate the number of contact events which add together to create a total e.g. 'at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes'.</t>
+          <t>This is used to capture descriptions of the frequency of contact events within a part. 
+Example annotation (in context)
+intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks"</t>
         </is>
       </c>
       <c r="H10" s="3" t="inlineStr"/>
@@ -1127,61 +1134,61 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T10" s="3" t="inlineStr"/>
+      <c r="T10" s="3" t="inlineStr">
+        <is>
+          <t>need to decide whether to have a separate additional entity for frequency of contact events (CM)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008530</t>
+          <t>BCIO:008515</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>j) timepoint of event relevant for intervention</t>
+          <t>i) number of contact events</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A part of a BCI schedule of delivery that is the moment of a specific event relevant for the intervention </t>
+          <t>A count data item that is the number of contact events in BCI or temporal part</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>Timepoints are used by authors to describe the schedules of a BCI relative to events that are not themselves parts of the BCI. This can include things like quit dates, childbirth, medical operations etc.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">data item - Count (STATO_0000047) </t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr"/>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Counselling sessions started a week after the participants "quit date"; A feedback call was scheduled to be delivered around 6 months after the "birth of the baby". </t>
+          <t>participants attended "a" gp visit ; at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>Annotate the words used by authors to describe key events which are not themselves part of the intervention but are relevant to the description of the schedule of the intervention.</t>
+          <t>This entity is used to capture the number of contacts in an intervention or part. We annotate only the number and include the sentence as context. When there is only one session in a part, we can annotate non-numerical words to indicate this, e.g. 'participants attended "a" gp visit'. Sometimes authors will break parts down in which case we annotate the number of contact events which add together to create a total e.g. 'at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes'.</t>
         </is>
       </c>
       <c r="H11" s="3" t="inlineStr"/>
-      <c r="I11" s="3" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
+      <c r="I11" s="3" t="inlineStr"/>
       <c r="J11" s="3" t="inlineStr"/>
-      <c r="K11" s="3" t="inlineStr"/>
+      <c r="K11" s="3" t="inlineStr">
+        <is>
+          <t>contact event</t>
+        </is>
+      </c>
       <c r="L11" s="3" t="inlineStr"/>
       <c r="M11" s="3" t="inlineStr"/>
       <c r="N11" s="3" t="inlineStr"/>
-      <c r="O11" s="3" t="inlineStr"/>
-      <c r="P11" s="3" t="inlineStr">
-        <is>
-          <t>check relationships</t>
-        </is>
-      </c>
+      <c r="O11" s="3" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="P11" s="3" t="inlineStr"/>
       <c r="Q11" s="3" t="inlineStr">
         <is>
           <t>CM</t>
@@ -1202,55 +1209,54 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008545</t>
+          <t>BCIO:008530</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>k) total contact event duration</t>
+          <t>j) timepoint of event relevant for intervention</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>A data item that is the total duration of all contact events in a BCI or temporal part</t>
+          <t xml:space="preserve">A part of a BCI schedule of delivery that is the moment of a specific event relevant for the intervention </t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr"/>
+          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>Timepoints are used by authors to describe the schedules of a BCI relative to events that are not themselves parts of the BCI. This can include things like quit dates, childbirth, medical operations etc.</t>
+        </is>
+      </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>participants received "150" minutes of face-to-face counselling, split across five 30 minute sessions</t>
+          <t xml:space="preserve">Counselling sessions started a week after the participants "quit date"; A feedback call was scheduled to be delivered around 6 months after the "birth of the baby". </t>
         </is>
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>Use this entity when authors describe the total amount of contact time for a particular part/intervention across multiple contact events.
-When there is only one session, the total duration of contact events and the duration of a single contact event are technically the same. As a convention, we would annotate this under duration of contact event</t>
+          <t>Annotate the words used by authors to describe key events which are not themselves part of the intervention but are relevant to the description of the schedule of the intervention.</t>
         </is>
       </c>
       <c r="H12" s="3" t="inlineStr"/>
-      <c r="I12" s="3" t="inlineStr"/>
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>BCI schedule of delivery</t>
+        </is>
+      </c>
       <c r="J12" s="3" t="inlineStr"/>
-      <c r="K12" s="3" t="inlineStr">
-        <is>
-          <t>contact event</t>
-        </is>
-      </c>
+      <c r="K12" s="3" t="inlineStr"/>
       <c r="L12" s="3" t="inlineStr"/>
       <c r="M12" s="3" t="inlineStr"/>
       <c r="N12" s="3" t="inlineStr"/>
-      <c r="O12" s="3" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
+      <c r="O12" s="3" t="inlineStr"/>
       <c r="P12" s="3" t="inlineStr">
         <is>
-          <t>"is about" contact events or "is about" duration of contact events?</t>
+          <t>check relationships</t>
         </is>
       </c>
       <c r="Q12" s="3" t="inlineStr">
@@ -1268,26 +1274,22 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T12" s="3" t="inlineStr">
-        <is>
-          <t>what type of data item is this? (CM)</t>
-        </is>
-      </c>
+      <c r="T12" s="3" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008550</t>
+          <t>BCIO:008545</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>l) contact event sum duration (still to confirm inclusion)</t>
+          <t>k) total contact event duration</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>A data item that is the sum duration of a subset of contact events in a BCI or temporal part</t>
+          <t>A data item that is the total duration of all contact events in a BCI or temporal part</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -1298,12 +1300,13 @@
       <c r="E13" s="3" t="inlineStr"/>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>The participants took part in "90" minutes of PA weekly</t>
+          <t>participants received "150" minutes of face-to-face counselling, split across five 30 minute sessions</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
+          <t>Use this entity when authors describe the total amount of contact time for a particular part/intervention across multiple contact events.
+When there is only one session, the total duration of contact events and the duration of a single contact event are technically the same. As a convention, we would annotate this under duration of contact event</t>
         </is>
       </c>
       <c r="H13" s="3" t="inlineStr"/>
@@ -1324,7 +1327,7 @@
       </c>
       <c r="P13" s="3" t="inlineStr">
         <is>
-          <t>is about contact events or is about duration of contact events?</t>
+          <t>"is about" contact events or "is about" duration of contact events?</t>
         </is>
       </c>
       <c r="Q13" s="3" t="inlineStr">
@@ -1344,35 +1347,35 @@
       </c>
       <c r="T13" s="3" t="inlineStr">
         <is>
-          <t>meeting was cut short whilst JH gave feedback on these entities. JH, please could you give feedback here? I think the suggestion was to combine these two entities (BCIO:008550 and BCIO:008555)</t>
+          <t>what type of data item is this? (CM)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008555</t>
+          <t>BCIO:008550</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>m) contact event sum duration frequency (still to confirm inclusion)</t>
+          <t>l) contact event sum duration (still to confirm inclusion)</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>A data item which describes how often a specified sum duration of contact events occured during a BCI or temporal part</t>
+          <t>A data item that is the sum duration of a subset of contact events in a BCI or temporal part</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>data item - Frequency (SIO_001367)</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr"/>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>The participants took part in 90 minutes of PA "weekly"</t>
+          <t>The participants took part in "90" minutes of PA weekly</t>
         </is>
       </c>
       <c r="G14" s="3" t="inlineStr">
@@ -1425,46 +1428,54 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008535</t>
+          <t>BCIO:008555</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>n) regular intervention schedule</t>
+          <t>m) contact event sum duration frequency (still to confirm inclusion)</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of Intervention temporal parts are uniform across the course of a BCI or BCI part.  </t>
+          <t>A data item which describes how often a specified sum duration of contact events occured during a BCI or temporal part</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>a) BCI schedule of delivery</t>
+          <t>data item - Frequency (SIO_001367)</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr"/>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>the "length and regularity of sessions were consistent across the duration of the intervention", taking place for an hour each week</t>
+          <t>The participants took part in 90 minutes of PA "weekly"</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>This is used to capture when the author specifies that the schedule (length and frequency of contact events) does not change over the course of a part. This is rarely annotated as it is not usually explicitly stated.</t>
+          <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
         </is>
       </c>
       <c r="H15" s="3" t="inlineStr"/>
       <c r="I15" s="3" t="inlineStr"/>
       <c r="J15" s="3" t="inlineStr"/>
-      <c r="K15" s="3" t="inlineStr"/>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
+          <t>contact event</t>
+        </is>
+      </c>
       <c r="L15" s="3" t="inlineStr"/>
       <c r="M15" s="3" t="inlineStr"/>
       <c r="N15" s="3" t="inlineStr"/>
-      <c r="O15" s="3" t="inlineStr"/>
+      <c r="O15" s="3" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="P15" s="3" t="inlineStr">
         <is>
-          <t>relationship? is about schedule? or is a type of schedule?</t>
+          <t>is about contact events or is about duration of contact events?</t>
         </is>
       </c>
       <c r="Q15" s="3" t="inlineStr">
@@ -1482,22 +1493,26 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T15" s="3" t="inlineStr"/>
+      <c r="T15" s="3" t="inlineStr">
+        <is>
+          <t>meeting was cut short whilst JH gave feedback on these entities. JH, please could you give feedback here? I think the suggestion was to combine these two entities (BCIO:008550 and BCIO:008555)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008540</t>
+          <t>BCIO:008535</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>o) irregular schedule</t>
+          <t>n) regular intervention schedule</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events change over the course of a temporal part or BCI.  </t>
+          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of Intervention temporal parts are uniform across the course of a BCI or BCI part.  </t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -1508,12 +1523,12 @@
       <c r="E16" s="3" t="inlineStr"/>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>telephone feedback sessions were more frequent during the first 6 weeks</t>
+          <t>the "length and regularity of sessions were consistent across the duration of the intervention", taking place for an hour each week</t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>We use this to capture instances when it is clear that the schedule (i.e. duration and frequency of contact events) varies over the course of a part, but we are unable to capture the specific schedule</t>
+          <t>This is used to capture when the author specifies that the schedule (length and frequency of contact events) does not change over the course of a part. This is rarely annotated as it is not usually explicitly stated.</t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr"/>
@@ -1544,31 +1559,93 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T16" s="3" t="inlineStr">
-        <is>
-          <t>should we also add separate entities for fixed and variable schedule, to describe cases when schedules vary across participants? We previously had these entities within the ontology but they were removed as they didn't come up explicitly in papers and our old definition of variable schedule overlapped with the definition for irregular schedule (CM)</t>
-        </is>
-      </c>
+      <c r="T16" s="3" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008580</t>
+          <t>BCIO:008540</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>p) order</t>
+          <t>o) irregular schedule</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>A part of BCI schedule which describes the relative temporal positioning of contact events, temporal parts and timepoints.</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr"/>
+          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events change over the course of a temporal part or BCI.  </t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>a) BCI schedule of delivery</t>
+        </is>
+      </c>
       <c r="E17" s="3" t="inlineStr"/>
       <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>telephone feedback sessions were more frequent during the first 6 weeks</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>We use this to capture instances when it is clear that the schedule (i.e. duration and frequency of contact events) varies over the course of a part, but we are unable to capture the specific schedule</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr"/>
+      <c r="I17" s="3" t="inlineStr"/>
+      <c r="J17" s="3" t="inlineStr"/>
+      <c r="K17" s="3" t="inlineStr"/>
+      <c r="L17" s="3" t="inlineStr"/>
+      <c r="M17" s="3" t="inlineStr"/>
+      <c r="N17" s="3" t="inlineStr"/>
+      <c r="O17" s="3" t="inlineStr"/>
+      <c r="P17" s="3" t="inlineStr">
+        <is>
+          <t>relationship? is about schedule? or is a type of schedule?</t>
+        </is>
+      </c>
+      <c r="Q17" s="3" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R17" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S17" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T17" s="3" t="inlineStr">
+        <is>
+          <t>should we also add separate entities for fixed and variable schedule, to describe cases when schedules vary across participants? We previously had these entities within the ontology but they were removed as they didn't come up explicitly in papers and our old definition of variable schedule overlapped with the definition for irregular schedule (CM)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:008580</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>p) order</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>A part of BCI schedule which describes the relative temporal positioning of contact events, temporal parts and timepoints.</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr"/>
+      <c r="E18" s="3" t="inlineStr"/>
+      <c r="F18" s="3" t="inlineStr">
         <is>
           <t>"After questionnaires were completed, feedback was selected
 out of a database with messages for each possible combination
@@ -1577,73 +1654,19 @@
 levels to the PA guidelines."</t>
         </is>
       </c>
-      <c r="G17" s="3" t="inlineStr">
+      <c r="G18" s="3" t="inlineStr">
         <is>
           <t>This is annotated as an open code when any aspect of order is described</t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="inlineStr"/>
-      <c r="I17" s="3" t="inlineStr"/>
-      <c r="J17" s="3" t="inlineStr"/>
-      <c r="K17" s="3" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
-      <c r="L17" s="3" t="inlineStr"/>
-      <c r="M17" s="3" t="inlineStr"/>
-      <c r="N17" s="3" t="inlineStr"/>
-      <c r="O17" s="3" t="inlineStr"/>
-      <c r="P17" s="3" t="inlineStr"/>
-      <c r="Q17" s="3" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="R17" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="S17" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T17" s="3" t="inlineStr">
-        <is>
-          <t>not sure about definitions and relationships. Should this be remove from the schedule ontology and instead form part of the relations ontology, like before and after? (CM)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:008595</t>
-        </is>
-      </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>q) same time (remove - this is a relation like before and after)</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it occurs whilst another temporal part or timepoint occurs</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr"/>
-      <c r="E18" s="3" t="inlineStr"/>
-      <c r="F18" s="3" t="inlineStr"/>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>This is not annotated</t>
         </is>
       </c>
       <c r="H18" s="3" t="inlineStr"/>
       <c r="I18" s="3" t="inlineStr"/>
       <c r="J18" s="3" t="inlineStr"/>
-      <c r="K18" s="3" t="inlineStr"/>
+      <c r="K18" s="3" t="inlineStr">
+        <is>
+          <t>BCI schedule of delivery</t>
+        </is>
+      </c>
       <c r="L18" s="3" t="inlineStr"/>
       <c r="M18" s="3" t="inlineStr"/>
       <c r="N18" s="3" t="inlineStr"/>
@@ -1664,22 +1687,26 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T18" s="3" t="inlineStr"/>
+      <c r="T18" s="3" t="inlineStr">
+        <is>
+          <t>not sure about definitions and relationships. Should this be remove from the schedule ontology and instead form part of the relations ontology, like before and after? (CM)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008585</t>
+          <t>BCIO:008595</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>r) before (to be removed and added to list of relations)</t>
+          <t>q) same time (remove - this is a relation like before and after)</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it ends prior to the beginning of another temporal part or timepoint</t>
+          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it occurs whilst another temporal part or timepoint occurs</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr"/>
@@ -1687,7 +1714,7 @@
       <c r="F19" s="3" t="inlineStr"/>
       <c r="G19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">This is not annotated </t>
+          <t>This is not annotated</t>
         </is>
       </c>
       <c r="H19" s="3" t="inlineStr"/>
@@ -1701,7 +1728,7 @@
       <c r="P19" s="3" t="inlineStr"/>
       <c r="Q19" s="3" t="inlineStr">
         <is>
-          <t>CM; RW</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="R19" s="3" t="inlineStr">
@@ -1719,17 +1746,17 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008590</t>
+          <t>BCIO:008585</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>s) after (to be removed and added to list of relations)</t>
+          <t>r) before (to be removed and added to list of relations)</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it starts following the end of another temporal part or timepoint</t>
+          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it ends prior to the beginning of another temporal part or timepoint</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr"/>
@@ -1737,7 +1764,7 @@
       <c r="F20" s="3" t="inlineStr"/>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t>This is not annotated</t>
+          <t xml:space="preserve">This is not annotated </t>
         </is>
       </c>
       <c r="H20" s="3" t="inlineStr"/>
@@ -1767,186 +1794,236 @@
       <c r="T20" s="3" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:008590</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>s) after (to be removed and added to list of relations)</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it starts following the end of another temporal part or timepoint</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr"/>
+      <c r="E21" s="3" t="inlineStr"/>
+      <c r="F21" s="3" t="inlineStr"/>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>This is not annotated</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="inlineStr"/>
+      <c r="I21" s="3" t="inlineStr"/>
+      <c r="J21" s="3" t="inlineStr"/>
+      <c r="K21" s="3" t="inlineStr"/>
+      <c r="L21" s="3" t="inlineStr"/>
+      <c r="M21" s="3" t="inlineStr"/>
+      <c r="N21" s="3" t="inlineStr"/>
+      <c r="O21" s="3" t="inlineStr"/>
+      <c r="P21" s="3" t="inlineStr"/>
+      <c r="Q21" s="3" t="inlineStr">
+        <is>
+          <t>CM; RW</t>
+        </is>
+      </c>
+      <c r="R21" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S21" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T21" s="3" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>BCIO:008605</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>z) (removed as equivalent to number of contact events) number of repetitions</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>A data item that is the number of repetitions of contact events within a temporal part or BCI for which the frequency is described</t>
         </is>
       </c>
-      <c r="D21" s="4" t="inlineStr"/>
-      <c r="E21" s="4" t="inlineStr"/>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="D22" s="5" t="inlineStr"/>
+      <c r="E22" s="5" t="inlineStr"/>
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>Participants received "3" emails every 2 weeks</t>
         </is>
       </c>
-      <c r="G21" s="4" t="inlineStr">
+      <c r="G22" s="5" t="inlineStr">
         <is>
           <t>This is annotated when a frequency is described using a period and a number of repetitions, rather than a single word.</t>
         </is>
       </c>
-      <c r="H21" s="4" t="inlineStr"/>
-      <c r="I21" s="4" t="inlineStr"/>
-      <c r="J21" s="4" t="inlineStr"/>
-      <c r="K21" s="4" t="inlineStr">
+      <c r="H22" s="5" t="inlineStr"/>
+      <c r="I22" s="5" t="inlineStr"/>
+      <c r="J22" s="5" t="inlineStr"/>
+      <c r="K22" s="5" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="L21" s="4" t="inlineStr"/>
-      <c r="M21" s="4" t="inlineStr"/>
-      <c r="N21" s="4" t="inlineStr"/>
-      <c r="O21" s="4" t="inlineStr">
+      <c r="L22" s="5" t="inlineStr"/>
+      <c r="M22" s="5" t="inlineStr"/>
+      <c r="N22" s="5" t="inlineStr"/>
+      <c r="O22" s="5" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P21" s="4" t="inlineStr"/>
-      <c r="Q21" s="4" t="inlineStr">
+      <c r="P22" s="5" t="inlineStr"/>
+      <c r="Q22" s="5" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R21" s="4" t="inlineStr">
+      <c r="R22" s="5" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="S21" s="4" t="inlineStr">
+      <c r="S22" s="5" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T21" s="4" t="inlineStr">
+      <c r="T22" s="5" t="inlineStr">
         <is>
           <t>this entity was added to allow us to more flexibly capture frequencies that have been broken down into period and repetitions. This is useful for annotations but we are unsure if it makes ontological sense to include it as it isn't really distinct from a frequency itself and relates more to how a frequency is described (CM)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>BCIO:008600</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>z) frequency period</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>A temporal interval that is the length of time from start to end of an intervention temporal part</t>
         </is>
       </c>
-      <c r="D22" s="4" t="inlineStr">
+      <c r="D23" s="5" t="inlineStr">
         <is>
           <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
         </is>
       </c>
-      <c r="E22" s="4" t="inlineStr"/>
-      <c r="F22" s="4" t="inlineStr">
+      <c r="E23" s="5" t="inlineStr"/>
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>Participants received 3 emails every "2" weeks</t>
         </is>
       </c>
-      <c r="G22" s="4" t="inlineStr"/>
-      <c r="H22" s="4" t="inlineStr"/>
-      <c r="I22" s="4" t="inlineStr"/>
-      <c r="J22" s="4" t="inlineStr"/>
-      <c r="K22" s="4" t="inlineStr">
+      <c r="G23" s="5" t="inlineStr"/>
+      <c r="H23" s="5" t="inlineStr"/>
+      <c r="I23" s="5" t="inlineStr"/>
+      <c r="J23" s="5" t="inlineStr"/>
+      <c r="K23" s="5" t="inlineStr">
         <is>
           <t>intervention temporal part</t>
         </is>
       </c>
-      <c r="L22" s="4" t="inlineStr"/>
-      <c r="M22" s="4" t="inlineStr"/>
-      <c r="N22" s="4" t="inlineStr"/>
-      <c r="O22" s="4" t="inlineStr">
+      <c r="L23" s="5" t="inlineStr"/>
+      <c r="M23" s="5" t="inlineStr"/>
+      <c r="N23" s="5" t="inlineStr"/>
+      <c r="O23" s="5" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P22" s="4" t="inlineStr"/>
-      <c r="Q22" s="4" t="inlineStr">
+      <c r="P23" s="5" t="inlineStr"/>
+      <c r="Q23" s="5" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R22" s="4" t="inlineStr">
+      <c r="R23" s="5" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="S22" s="4" t="inlineStr">
+      <c r="S23" s="5" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T22" s="4" t="inlineStr">
+      <c r="T23" s="5" t="inlineStr">
         <is>
           <t>this entity was added to allow us to more flexibly capture frequencies that have been broken down into period and repetitions. This is useful for annotations but we are unsure if it makes ontological sense to include it as it isn't really distinct from a frequency itself and relates more to how a frequency is described. Perhaps this also isn't really distinct from duration of BCI/part (CM)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="4" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>BCIO:008570</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>z) interval (remove)</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr"/>
-      <c r="D23" s="4" t="inlineStr"/>
-      <c r="E23" s="4" t="inlineStr"/>
-      <c r="F23" s="4" t="inlineStr"/>
-      <c r="G23" s="4" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr"/>
+      <c r="D24" s="5" t="inlineStr"/>
+      <c r="E24" s="5" t="inlineStr"/>
+      <c r="F24" s="5" t="inlineStr"/>
+      <c r="G24" s="5" t="inlineStr">
         <is>
           <t>This is not annotated but included due to relationship with duration of interval</t>
         </is>
       </c>
-      <c r="H23" s="4" t="inlineStr"/>
-      <c r="I23" s="4" t="inlineStr"/>
-      <c r="J23" s="4" t="inlineStr"/>
-      <c r="K23" s="4" t="inlineStr"/>
-      <c r="L23" s="4" t="inlineStr"/>
-      <c r="M23" s="4" t="inlineStr"/>
-      <c r="N23" s="4" t="inlineStr"/>
-      <c r="O23" s="4" t="inlineStr"/>
-      <c r="P23" s="4" t="inlineStr">
+      <c r="H24" s="5" t="inlineStr"/>
+      <c r="I24" s="5" t="inlineStr"/>
+      <c r="J24" s="5" t="inlineStr"/>
+      <c r="K24" s="5" t="inlineStr"/>
+      <c r="L24" s="5" t="inlineStr"/>
+      <c r="M24" s="5" t="inlineStr"/>
+      <c r="N24" s="5" t="inlineStr"/>
+      <c r="O24" s="5" t="inlineStr"/>
+      <c r="P24" s="5" t="inlineStr">
         <is>
           <t>entity added so duration of interval can be specified. not sure what parent/relationships should be</t>
         </is>
       </c>
-      <c r="Q23" s="4" t="inlineStr">
+      <c r="Q24" s="5" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R23" s="4" t="inlineStr">
+      <c r="R24" s="5" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="S23" s="4" t="inlineStr">
+      <c r="S24" s="5" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T23" s="4" t="inlineStr"/>
+      <c r="T24" s="5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -44,12 +44,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00eee8aa"/>
+        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ffffff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00eee8aa"/>
       </patternFill>
     </fill>
     <fill>
@@ -70,13 +75,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -662,7 +668,7 @@
       </c>
       <c r="R3" s="3" t="inlineStr">
         <is>
-          <t>To Be Discussed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="S3" s="3" t="inlineStr">
@@ -695,7 +701,9 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>Temporal parts are defined by the authors of reports. They usually group contact events with similar delivery (e.g. face-to-face), content (e.g. CBT), or contextual features (e.g. school lessons), in order to describe their schedule. Sometimes authors break a contact event up even further into temporal parts during which a particular type of content/BCT is delivered within a contact event, so that they can thoroughly describe the order/duration of the delivery of these parts. Parts can also be broken down in a purely temporal manner (e.g. the first 6 weeks) to describe schedule aspects associated with this specific parts of the intervention</t>
+          <t>Temporal parts are defined by the authors of reports. They usually group contact events with similar delivery (e.g. face-to-face), content (e.g. CBT), or contextual features (e.g. school lessons), in order to describe their schedule. 
+Intervention temporal parts are different from contact events as they are not repeated during an intervention, so they do not have frequencies. However, the contact events within intervention temporal parts can have frequencies. For example, a 6 week course of CBT sessions is not repeated during an intervention, but the individual hour long sessions/contact events are repeated weekly.
+Sometimes authors break a contact event up even further into temporal parts during which a particular type of content/BCT is delivered within a contact event, so that they can thoroughly describe the order/duration of the delivery of these parts. Parts can also be broken down in a purely temporal manner (e.g. the first 6 weeks) to describe schedule aspects associated with this specific parts of the intervention.</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -730,7 +738,7 @@
       </c>
       <c r="R4" s="3" t="inlineStr">
         <is>
-          <t>To Be Discussed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="S4" s="3" t="inlineStr">
@@ -798,7 +806,7 @@
       </c>
       <c r="R5" s="3" t="inlineStr">
         <is>
-          <t>To Be Discussed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="S5" s="3" t="inlineStr">
@@ -866,7 +874,7 @@
       </c>
       <c r="R6" s="3" t="inlineStr">
         <is>
-          <t>To Be Discussed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="S6" s="3" t="inlineStr">
@@ -934,7 +942,7 @@
       </c>
       <c r="R7" s="3" t="inlineStr">
         <is>
-          <t>To Be Discussed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="S7" s="3" t="inlineStr">
@@ -1002,7 +1010,7 @@
       </c>
       <c r="R8" s="3" t="inlineStr">
         <is>
-          <t>To Be Discussed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="S8" s="3" t="inlineStr">
@@ -1025,7 +1033,7 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>An attribute of a BCI schedule that is how often contact events occur within a BCI</t>
+          <t>An attribute of a BCI schedule that is how often contact events occur within a BCI or temporal part</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -1069,357 +1077,365 @@
       <c r="T9" s="4" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:008520</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>h) intervention temporal part frequency</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>An attribute of a BCI schedule of delivery that is how often intervention temporal parts occur within a BCI.</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>process attribute</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="inlineStr">
-        <is>
-          <t>Contact events are intervention temporal parts so this entity also describes the frequency of contact events.</t>
-        </is>
-      </c>
-      <c r="F10" s="3" t="inlineStr"/>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>This is used to capture descriptions of the frequency of contact events within a part. 
-Example annotation (in context)
-intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks"</t>
-        </is>
-      </c>
-      <c r="H10" s="3" t="inlineStr"/>
-      <c r="I10" s="3" t="inlineStr"/>
-      <c r="J10" s="3" t="inlineStr"/>
-      <c r="K10" s="3" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>BCIO:008515</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>i) number of contact events</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>A count data item that is the number of contact events in BCI or temporal part</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data item - Count (STATO_0000047) </t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>one; 6; 12; twenty</t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="inlineStr">
+        <is>
+          <t>This entity is used to capture the number of contacts in an intervention or part. We annotate only the number and include the sentence as context. When there is only one session in a part, we can annotate non-numerical words to indicate this, e.g. 'participants attended "a" gp visit'. Sometimes authors will break parts down in which case we annotate the number of contact events which add together to create a total e.g. 'at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes'.
+Example annotations (in context):
+participants attended "a" gp visit ; at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes</t>
+        </is>
+      </c>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="L10" s="3" t="inlineStr"/>
-      <c r="M10" s="3" t="inlineStr"/>
-      <c r="N10" s="3" t="inlineStr"/>
-      <c r="O10" s="3" t="inlineStr">
+      <c r="L10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="inlineStr"/>
+      <c r="N10" s="5" t="inlineStr"/>
+      <c r="O10" s="5" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P10" s="3" t="inlineStr"/>
-      <c r="Q10" s="3" t="inlineStr">
+      <c r="P10" s="5" t="inlineStr"/>
+      <c r="Q10" s="5" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R10" s="3" t="inlineStr">
+      <c r="R10" s="5" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S10" s="3" t="inlineStr">
+      <c r="S10" s="5" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T10" s="3" t="inlineStr">
-        <is>
-          <t>need to decide whether to have a separate additional entity for frequency of contact events (CM)</t>
-        </is>
-      </c>
+      <c r="T10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:008515</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>i) number of contact events</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>A count data item that is the number of contact events in BCI or temporal part</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data item - Count (STATO_0000047) </t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr"/>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>participants attended "a" gp visit ; at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes</t>
-        </is>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>This entity is used to capture the number of contacts in an intervention or part. We annotate only the number and include the sentence as context. When there is only one session in a part, we can annotate non-numerical words to indicate this, e.g. 'participants attended "a" gp visit'. Sometimes authors will break parts down in which case we annotate the number of contact events which add together to create a total e.g. 'at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes'.</t>
-        </is>
-      </c>
-      <c r="H11" s="3" t="inlineStr"/>
-      <c r="I11" s="3" t="inlineStr"/>
-      <c r="J11" s="3" t="inlineStr"/>
-      <c r="K11" s="3" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>BCIO:008530</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>j) timepoint of event relevant for intervention</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A part of a BCI schedule of delivery that is the moment of a specific event relevant for the intervention </t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>Timepoints are used by authors when there is a behaviourally relevant event which structures the schedule of a BCI. This can include things like quit dates, childbirth, medical operations etc.</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>quit date; child birth; GP appointment</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Annotate the words used by authors to describe key events which are not themselves part of the intervention but are relevant to the description of the schedule of the intervention.
+Example annotation in context:
+Counselling sessions started a week after the participants "quit date"; A feedback call was scheduled to be delivered around 6 months after the "birth of the baby". </t>
+        </is>
+      </c>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr">
+        <is>
+          <t>BCI schedule of delivery</t>
+        </is>
+      </c>
+      <c r="J11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr"/>
+      <c r="L11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="inlineStr"/>
+      <c r="N11" s="5" t="inlineStr"/>
+      <c r="O11" s="5" t="inlineStr"/>
+      <c r="P11" s="5" t="inlineStr">
+        <is>
+          <t>check relationships</t>
+        </is>
+      </c>
+      <c r="Q11" s="5" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R11" s="5" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="S11" s="5" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T11" s="5" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>BCIO:008545</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>k) total contact event duration</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>A data item that is the total duration of all contact events in a BCI or temporal part</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>150 minutes; 12 hours</t>
+        </is>
+      </c>
+      <c r="G12" s="5" t="inlineStr">
+        <is>
+          <t>Use this entity when authors describe the total amount of contact time for a particular part/intervention across multiple contact events.
+When there is only one session, the total duration of contact events and the duration of a single contact event are technically the same. As a convention, we would annotate this under duration of contact event
+Example annotation in context:
+participants received "150" minutes of face-to-face counselling, split across five 30 minute sessions</t>
+        </is>
+      </c>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="L11" s="3" t="inlineStr"/>
-      <c r="M11" s="3" t="inlineStr"/>
-      <c r="N11" s="3" t="inlineStr"/>
-      <c r="O11" s="3" t="inlineStr">
+      <c r="L12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="inlineStr"/>
+      <c r="N12" s="5" t="inlineStr"/>
+      <c r="O12" s="5" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P11" s="3" t="inlineStr"/>
-      <c r="Q11" s="3" t="inlineStr">
+      <c r="P12" s="5" t="inlineStr">
+        <is>
+          <t>"is about" contact events or "is about" duration of contact events?</t>
+        </is>
+      </c>
+      <c r="Q12" s="5" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R11" s="3" t="inlineStr">
+      <c r="R12" s="5" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S11" s="3" t="inlineStr">
+      <c r="S12" s="5" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T11" s="3" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:008530</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>j) timepoint of event relevant for intervention</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A part of a BCI schedule of delivery that is the moment of a specific event relevant for the intervention </t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>Timepoints are used by authors to describe the schedules of a BCI relative to events that are not themselves parts of the BCI. This can include things like quit dates, childbirth, medical operations etc.</t>
-        </is>
-      </c>
-      <c r="F12" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Counselling sessions started a week after the participants "quit date"; A feedback call was scheduled to be delivered around 6 months after the "birth of the baby". </t>
-        </is>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>Annotate the words used by authors to describe key events which are not themselves part of the intervention but are relevant to the description of the schedule of the intervention.</t>
-        </is>
-      </c>
-      <c r="H12" s="3" t="inlineStr"/>
-      <c r="I12" s="3" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
-      <c r="J12" s="3" t="inlineStr"/>
-      <c r="K12" s="3" t="inlineStr"/>
-      <c r="L12" s="3" t="inlineStr"/>
-      <c r="M12" s="3" t="inlineStr"/>
-      <c r="N12" s="3" t="inlineStr"/>
-      <c r="O12" s="3" t="inlineStr"/>
-      <c r="P12" s="3" t="inlineStr">
-        <is>
-          <t>check relationships</t>
-        </is>
-      </c>
-      <c r="Q12" s="3" t="inlineStr">
+      <c r="T12" s="5" t="inlineStr">
+        <is>
+          <t>what type of data item is this? (CM)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>BCIO:008550</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>l) contact event sum duration (still to confirm inclusion)</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>A data item that is the sum duration of a subset of contact events in a BCI or temporal part</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr"/>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>The participants took part in "90" minutes of PA weekly</t>
+        </is>
+      </c>
+      <c r="G13" s="5" t="inlineStr">
+        <is>
+          <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
+        </is>
+      </c>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="J13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>contact event</t>
+        </is>
+      </c>
+      <c r="L13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="inlineStr"/>
+      <c r="N13" s="5" t="inlineStr"/>
+      <c r="O13" s="5" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="P13" s="5" t="inlineStr">
+        <is>
+          <t>is about contact events or is about duration of contact events?</t>
+        </is>
+      </c>
+      <c r="Q13" s="5" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R12" s="3" t="inlineStr">
+      <c r="R13" s="5" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S12" s="3" t="inlineStr">
+      <c r="S13" s="5" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T12" s="3" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:008545</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>k) total contact event duration</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>A data item that is the total duration of all contact events in a BCI or temporal part</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
+      <c r="T13" s="5" t="inlineStr">
+        <is>
+          <t>meeting was cut short whilst JH gave feedback on these entities. JH, please could you give feedback here? I think the suggestion was to combine these two entities (BCIO:008550 and BCIO:008555)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>BCIO:008555</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>m) contact event sum duration frequency (still to confirm inclusion)</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>A data item which describes how often a specified sum duration of contact events occured during a BCI or temporal part</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E13" s="3" t="inlineStr"/>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>participants received "150" minutes of face-to-face counselling, split across five 30 minute sessions</t>
-        </is>
-      </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>Use this entity when authors describe the total amount of contact time for a particular part/intervention across multiple contact events.
-When there is only one session, the total duration of contact events and the duration of a single contact event are technically the same. As a convention, we would annotate this under duration of contact event</t>
-        </is>
-      </c>
-      <c r="H13" s="3" t="inlineStr"/>
-      <c r="I13" s="3" t="inlineStr"/>
-      <c r="J13" s="3" t="inlineStr"/>
-      <c r="K13" s="3" t="inlineStr">
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>The participants took part in 90 minutes of PA "weekly"</t>
+        </is>
+      </c>
+      <c r="G14" s="5" t="inlineStr">
+        <is>
+          <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
+        </is>
+      </c>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="J14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="L13" s="3" t="inlineStr"/>
-      <c r="M13" s="3" t="inlineStr"/>
-      <c r="N13" s="3" t="inlineStr"/>
-      <c r="O13" s="3" t="inlineStr">
+      <c r="L14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="inlineStr"/>
+      <c r="N14" s="5" t="inlineStr"/>
+      <c r="O14" s="5" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P13" s="3" t="inlineStr">
-        <is>
-          <t>"is about" contact events or "is about" duration of contact events?</t>
-        </is>
-      </c>
-      <c r="Q13" s="3" t="inlineStr">
+      <c r="P14" s="5" t="inlineStr">
+        <is>
+          <t>is about contact events or is about duration of contact events?</t>
+        </is>
+      </c>
+      <c r="Q14" s="5" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R13" s="3" t="inlineStr">
+      <c r="R14" s="5" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S13" s="3" t="inlineStr">
+      <c r="S14" s="5" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T13" s="3" t="inlineStr">
-        <is>
-          <t>what type of data item is this? (CM)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:008550</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>l) contact event sum duration (still to confirm inclusion)</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>A data item that is the sum duration of a subset of contact events in a BCI or temporal part</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr"/>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>The participants took part in "90" minutes of PA weekly</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
-        </is>
-      </c>
-      <c r="H14" s="3" t="inlineStr"/>
-      <c r="I14" s="3" t="inlineStr"/>
-      <c r="J14" s="3" t="inlineStr"/>
-      <c r="K14" s="3" t="inlineStr">
-        <is>
-          <t>contact event</t>
-        </is>
-      </c>
-      <c r="L14" s="3" t="inlineStr"/>
-      <c r="M14" s="3" t="inlineStr"/>
-      <c r="N14" s="3" t="inlineStr"/>
-      <c r="O14" s="3" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="P14" s="3" t="inlineStr">
-        <is>
-          <t>is about contact events or is about duration of contact events?</t>
-        </is>
-      </c>
-      <c r="Q14" s="3" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="R14" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="S14" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T14" s="3" t="inlineStr">
+      <c r="T14" s="5" t="inlineStr">
         <is>
           <t>meeting was cut short whilst JH gave feedback on these entities. JH, please could you give feedback here? I think the suggestion was to combine these two entities (BCIO:008550 and BCIO:008555)</t>
         </is>
@@ -1428,54 +1444,46 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008555</t>
+          <t>BCIO:008535</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>m) contact event sum duration frequency (still to confirm inclusion)</t>
+          <t>n) regular intervention schedule</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>A data item which describes how often a specified sum duration of contact events occured during a BCI or temporal part</t>
+          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of Intervention temporal parts are uniform across the course of a BCI or BCI part.  </t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>data item - Frequency (SIO_001367)</t>
+          <t>a) BCI schedule of delivery</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr"/>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>The participants took part in 90 minutes of PA "weekly"</t>
+          <t>the length and regularity of sessions were consistent across the duration of the intervention, taking place for an hour each week</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
+          <t>This is used to capture when the author specifies that the schedule (length and frequency of contact events) does not change over the course of a part. This is rarely annotated as it is not usually explicitly stated.</t>
         </is>
       </c>
       <c r="H15" s="3" t="inlineStr"/>
       <c r="I15" s="3" t="inlineStr"/>
       <c r="J15" s="3" t="inlineStr"/>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>contact event</t>
-        </is>
-      </c>
+      <c r="K15" s="3" t="inlineStr"/>
       <c r="L15" s="3" t="inlineStr"/>
       <c r="M15" s="3" t="inlineStr"/>
       <c r="N15" s="3" t="inlineStr"/>
-      <c r="O15" s="3" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
+      <c r="O15" s="3" t="inlineStr"/>
       <c r="P15" s="3" t="inlineStr">
         <is>
-          <t>is about contact events or is about duration of contact events?</t>
+          <t>relationship? is about schedule? or is a type of schedule?</t>
         </is>
       </c>
       <c r="Q15" s="3" t="inlineStr">
@@ -1485,7 +1493,7 @@
       </c>
       <c r="R15" s="3" t="inlineStr">
         <is>
-          <t>To Be Discussed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="S15" s="3" t="inlineStr">
@@ -1493,26 +1501,22 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T15" s="3" t="inlineStr">
-        <is>
-          <t>meeting was cut short whilst JH gave feedback on these entities. JH, please could you give feedback here? I think the suggestion was to combine these two entities (BCIO:008550 and BCIO:008555)</t>
-        </is>
-      </c>
+      <c r="T15" s="3" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008535</t>
+          <t>BCIO:008540</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>n) regular intervention schedule</t>
+          <t>o) irregular schedule</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of Intervention temporal parts are uniform across the course of a BCI or BCI part.  </t>
+          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events change over the course of a temporal part or BCI.  </t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -1523,12 +1527,12 @@
       <c r="E16" s="3" t="inlineStr"/>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>the "length and regularity of sessions were consistent across the duration of the intervention", taking place for an hour each week</t>
+          <t>telephone feedback sessions were more frequent during the first 6 weeks; participants were free to access the app whenever they desired</t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>This is used to capture when the author specifies that the schedule (length and frequency of contact events) does not change over the course of a part. This is rarely annotated as it is not usually explicitly stated.</t>
+          <t>We use this to capture instances when it is clear that the schedule (i.e. duration and frequency of contact events) varies over the course of a part, but we are unable to capture the specific schedule</t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr"/>
@@ -1551,7 +1555,7 @@
       </c>
       <c r="R16" s="3" t="inlineStr">
         <is>
-          <t>To Be Discussed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="S16" s="3" t="inlineStr">
@@ -1559,93 +1563,31 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T16" s="3" t="inlineStr"/>
+      <c r="T16" s="3" t="inlineStr">
+        <is>
+          <t>should we also add separate entities for fixed and variable schedule, to describe cases when schedules vary across participants? We previously had these entities within the ontology but they were removed as they didn't come up explicitly in papers and our old definition of variable schedule overlapped with the definition for irregular schedule (CM)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:008540</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>o) irregular schedule</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events change over the course of a temporal part or BCI.  </t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>a) BCI schedule of delivery</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr"/>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>telephone feedback sessions were more frequent during the first 6 weeks</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>We use this to capture instances when it is clear that the schedule (i.e. duration and frequency of contact events) varies over the course of a part, but we are unable to capture the specific schedule</t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="inlineStr"/>
-      <c r="I17" s="3" t="inlineStr"/>
-      <c r="J17" s="3" t="inlineStr"/>
-      <c r="K17" s="3" t="inlineStr"/>
-      <c r="L17" s="3" t="inlineStr"/>
-      <c r="M17" s="3" t="inlineStr"/>
-      <c r="N17" s="3" t="inlineStr"/>
-      <c r="O17" s="3" t="inlineStr"/>
-      <c r="P17" s="3" t="inlineStr">
-        <is>
-          <t>relationship? is about schedule? or is a type of schedule?</t>
-        </is>
-      </c>
-      <c r="Q17" s="3" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="R17" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="S17" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T17" s="3" t="inlineStr">
-        <is>
-          <t>should we also add separate entities for fixed and variable schedule, to describe cases when schedules vary across participants? We previously had these entities within the ontology but they were removed as they didn't come up explicitly in papers and our old definition of variable schedule overlapped with the definition for irregular schedule (CM)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>BCIO:008580</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B17" s="6" t="inlineStr">
         <is>
           <t>p) order</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
+      <c r="C17" s="6" t="inlineStr">
         <is>
           <t>A part of BCI schedule which describes the relative temporal positioning of contact events, temporal parts and timepoints.</t>
         </is>
       </c>
-      <c r="D18" s="3" t="inlineStr"/>
-      <c r="E18" s="3" t="inlineStr"/>
-      <c r="F18" s="3" t="inlineStr">
+      <c r="D17" s="6" t="inlineStr"/>
+      <c r="E17" s="6" t="inlineStr"/>
+      <c r="F17" s="6" t="inlineStr">
         <is>
           <t>"After questionnaires were completed, feedback was selected
 out of a database with messages for each possible combination
@@ -1654,376 +1596,448 @@
 levels to the PA guidelines."</t>
         </is>
       </c>
-      <c r="G18" s="3" t="inlineStr">
+      <c r="G17" s="6" t="inlineStr">
         <is>
           <t>This is annotated as an open code when any aspect of order is described</t>
         </is>
       </c>
-      <c r="H18" s="3" t="inlineStr"/>
-      <c r="I18" s="3" t="inlineStr"/>
-      <c r="J18" s="3" t="inlineStr"/>
-      <c r="K18" s="3" t="inlineStr">
+      <c r="H17" s="6" t="inlineStr"/>
+      <c r="I17" s="6" t="inlineStr"/>
+      <c r="J17" s="6" t="inlineStr"/>
+      <c r="K17" s="6" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="L18" s="3" t="inlineStr"/>
-      <c r="M18" s="3" t="inlineStr"/>
-      <c r="N18" s="3" t="inlineStr"/>
-      <c r="O18" s="3" t="inlineStr"/>
-      <c r="P18" s="3" t="inlineStr"/>
-      <c r="Q18" s="3" t="inlineStr">
+      <c r="L17" s="6" t="inlineStr"/>
+      <c r="M17" s="6" t="inlineStr"/>
+      <c r="N17" s="6" t="inlineStr"/>
+      <c r="O17" s="6" t="inlineStr"/>
+      <c r="P17" s="6" t="inlineStr"/>
+      <c r="Q17" s="6" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R18" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="S18" s="3" t="inlineStr">
+      <c r="R17" s="6" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="S17" s="6" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T18" s="3" t="inlineStr">
+      <c r="T17" s="6" t="inlineStr">
         <is>
           <t>not sure about definitions and relationships. Should this be remove from the schedule ontology and instead form part of the relations ontology, like before and after? (CM)</t>
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>BCIO:008595</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="inlineStr">
+        <is>
+          <t>q) same time (remove - this is a relation like before and after)</t>
+        </is>
+      </c>
+      <c r="C18" s="6" t="inlineStr">
+        <is>
+          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it occurs whilst another temporal part or timepoint occurs</t>
+        </is>
+      </c>
+      <c r="D18" s="6" t="inlineStr"/>
+      <c r="E18" s="6" t="inlineStr"/>
+      <c r="F18" s="6" t="inlineStr"/>
+      <c r="G18" s="6" t="inlineStr">
+        <is>
+          <t>This is not annotated</t>
+        </is>
+      </c>
+      <c r="H18" s="6" t="inlineStr"/>
+      <c r="I18" s="6" t="inlineStr"/>
+      <c r="J18" s="6" t="inlineStr"/>
+      <c r="K18" s="6" t="inlineStr"/>
+      <c r="L18" s="6" t="inlineStr"/>
+      <c r="M18" s="6" t="inlineStr"/>
+      <c r="N18" s="6" t="inlineStr"/>
+      <c r="O18" s="6" t="inlineStr"/>
+      <c r="P18" s="6" t="inlineStr"/>
+      <c r="Q18" s="6" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R18" s="6" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="S18" s="6" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T18" s="6" t="inlineStr"/>
+    </row>
     <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:008595</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>q) same time (remove - this is a relation like before and after)</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it occurs whilst another temporal part or timepoint occurs</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr"/>
-      <c r="E19" s="3" t="inlineStr"/>
-      <c r="F19" s="3" t="inlineStr"/>
-      <c r="G19" s="3" t="inlineStr">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>BCIO:008585</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>r) before (to be removed and added to list of relations)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it ends prior to the beginning of another temporal part or timepoint</t>
+        </is>
+      </c>
+      <c r="D19" s="6" t="inlineStr"/>
+      <c r="E19" s="6" t="inlineStr"/>
+      <c r="F19" s="6" t="inlineStr"/>
+      <c r="G19" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This is not annotated </t>
+        </is>
+      </c>
+      <c r="H19" s="6" t="inlineStr"/>
+      <c r="I19" s="6" t="inlineStr"/>
+      <c r="J19" s="6" t="inlineStr"/>
+      <c r="K19" s="6" t="inlineStr"/>
+      <c r="L19" s="6" t="inlineStr"/>
+      <c r="M19" s="6" t="inlineStr"/>
+      <c r="N19" s="6" t="inlineStr"/>
+      <c r="O19" s="6" t="inlineStr"/>
+      <c r="P19" s="6" t="inlineStr"/>
+      <c r="Q19" s="6" t="inlineStr">
+        <is>
+          <t>CM; RW</t>
+        </is>
+      </c>
+      <c r="R19" s="6" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="S19" s="6" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T19" s="6" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>BCIO:008590</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="inlineStr">
+        <is>
+          <t>s) after (to be removed and added to list of relations)</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr">
+        <is>
+          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it starts following the end of another temporal part or timepoint</t>
+        </is>
+      </c>
+      <c r="D20" s="6" t="inlineStr"/>
+      <c r="E20" s="6" t="inlineStr"/>
+      <c r="F20" s="6" t="inlineStr"/>
+      <c r="G20" s="6" t="inlineStr">
         <is>
           <t>This is not annotated</t>
         </is>
       </c>
-      <c r="H19" s="3" t="inlineStr"/>
-      <c r="I19" s="3" t="inlineStr"/>
-      <c r="J19" s="3" t="inlineStr"/>
-      <c r="K19" s="3" t="inlineStr"/>
-      <c r="L19" s="3" t="inlineStr"/>
-      <c r="M19" s="3" t="inlineStr"/>
-      <c r="N19" s="3" t="inlineStr"/>
-      <c r="O19" s="3" t="inlineStr"/>
-      <c r="P19" s="3" t="inlineStr"/>
-      <c r="Q19" s="3" t="inlineStr">
+      <c r="H20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="inlineStr"/>
+      <c r="K20" s="6" t="inlineStr"/>
+      <c r="L20" s="6" t="inlineStr"/>
+      <c r="M20" s="6" t="inlineStr"/>
+      <c r="N20" s="6" t="inlineStr"/>
+      <c r="O20" s="6" t="inlineStr"/>
+      <c r="P20" s="6" t="inlineStr"/>
+      <c r="Q20" s="6" t="inlineStr">
+        <is>
+          <t>CM; RW</t>
+        </is>
+      </c>
+      <c r="R20" s="6" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="S20" s="6" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>BCIO:008605</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="inlineStr">
+        <is>
+          <t>z) (removed as equivalent to number of contact events) number of repetitions</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr">
+        <is>
+          <t>A data item that is the number of repetitions of contact events within a temporal part or BCI for which the frequency is described</t>
+        </is>
+      </c>
+      <c r="D21" s="6" t="inlineStr"/>
+      <c r="E21" s="6" t="inlineStr"/>
+      <c r="F21" s="6" t="inlineStr">
+        <is>
+          <t>Participants received "3" emails every 2 weeks</t>
+        </is>
+      </c>
+      <c r="G21" s="6" t="inlineStr">
+        <is>
+          <t>This is annotated when a frequency is described using a period and a number of repetitions, rather than a single word.</t>
+        </is>
+      </c>
+      <c r="H21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="inlineStr"/>
+      <c r="K21" s="6" t="inlineStr">
+        <is>
+          <t>contact event</t>
+        </is>
+      </c>
+      <c r="L21" s="6" t="inlineStr"/>
+      <c r="M21" s="6" t="inlineStr"/>
+      <c r="N21" s="6" t="inlineStr"/>
+      <c r="O21" s="6" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="P21" s="6" t="inlineStr"/>
+      <c r="Q21" s="6" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R19" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="S19" s="3" t="inlineStr">
+      <c r="R21" s="6" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="S21" s="6" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T19" s="3" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:008585</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>r) before (to be removed and added to list of relations)</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it ends prior to the beginning of another temporal part or timepoint</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr"/>
-      <c r="E20" s="3" t="inlineStr"/>
-      <c r="F20" s="3" t="inlineStr"/>
-      <c r="G20" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This is not annotated </t>
-        </is>
-      </c>
-      <c r="H20" s="3" t="inlineStr"/>
-      <c r="I20" s="3" t="inlineStr"/>
-      <c r="J20" s="3" t="inlineStr"/>
-      <c r="K20" s="3" t="inlineStr"/>
-      <c r="L20" s="3" t="inlineStr"/>
-      <c r="M20" s="3" t="inlineStr"/>
-      <c r="N20" s="3" t="inlineStr"/>
-      <c r="O20" s="3" t="inlineStr"/>
-      <c r="P20" s="3" t="inlineStr"/>
-      <c r="Q20" s="3" t="inlineStr">
-        <is>
-          <t>CM; RW</t>
-        </is>
-      </c>
-      <c r="R20" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="S20" s="3" t="inlineStr">
+      <c r="T21" s="6" t="inlineStr">
+        <is>
+          <t>this entity was added to allow us to more flexibly capture frequencies that have been broken down into period and repetitions. This is useful for annotations but we are unsure if it makes ontological sense to include it as it isn't really distinct from a frequency itself and relates more to how a frequency is described (CM)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>BCIO:008600</t>
+        </is>
+      </c>
+      <c r="B22" s="6" t="inlineStr">
+        <is>
+          <t>z) frequency period</t>
+        </is>
+      </c>
+      <c r="C22" s="6" t="inlineStr">
+        <is>
+          <t>A temporal interval that is the length of time from start to end of an intervention temporal part</t>
+        </is>
+      </c>
+      <c r="D22" s="6" t="inlineStr">
+        <is>
+          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
+        </is>
+      </c>
+      <c r="E22" s="6" t="inlineStr"/>
+      <c r="F22" s="6" t="inlineStr">
+        <is>
+          <t>Participants received 3 emails every "2" weeks</t>
+        </is>
+      </c>
+      <c r="G22" s="6" t="inlineStr"/>
+      <c r="H22" s="6" t="inlineStr"/>
+      <c r="I22" s="6" t="inlineStr"/>
+      <c r="J22" s="6" t="inlineStr"/>
+      <c r="K22" s="6" t="inlineStr">
+        <is>
+          <t>intervention temporal part</t>
+        </is>
+      </c>
+      <c r="L22" s="6" t="inlineStr"/>
+      <c r="M22" s="6" t="inlineStr"/>
+      <c r="N22" s="6" t="inlineStr"/>
+      <c r="O22" s="6" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="P22" s="6" t="inlineStr"/>
+      <c r="Q22" s="6" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R22" s="6" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="S22" s="6" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T20" s="3" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:008590</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>s) after (to be removed and added to list of relations)</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it starts following the end of another temporal part or timepoint</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr"/>
-      <c r="E21" s="3" t="inlineStr"/>
-      <c r="F21" s="3" t="inlineStr"/>
-      <c r="G21" s="3" t="inlineStr">
-        <is>
-          <t>This is not annotated</t>
-        </is>
-      </c>
-      <c r="H21" s="3" t="inlineStr"/>
-      <c r="I21" s="3" t="inlineStr"/>
-      <c r="J21" s="3" t="inlineStr"/>
-      <c r="K21" s="3" t="inlineStr"/>
-      <c r="L21" s="3" t="inlineStr"/>
-      <c r="M21" s="3" t="inlineStr"/>
-      <c r="N21" s="3" t="inlineStr"/>
-      <c r="O21" s="3" t="inlineStr"/>
-      <c r="P21" s="3" t="inlineStr"/>
-      <c r="Q21" s="3" t="inlineStr">
-        <is>
-          <t>CM; RW</t>
-        </is>
-      </c>
-      <c r="R21" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="S21" s="3" t="inlineStr">
+      <c r="T22" s="6" t="inlineStr">
+        <is>
+          <t>this entity was added to allow us to more flexibly capture frequencies that have been broken down into period and repetitions. This is useful for annotations but we are unsure if it makes ontological sense to include it as it isn't really distinct from a frequency itself and relates more to how a frequency is described. Perhaps this also isn't really distinct from duration of BCI/part (CM)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>BCIO:008570</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>z) interval (remove)</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="inlineStr"/>
+      <c r="D23" s="6" t="inlineStr"/>
+      <c r="E23" s="6" t="inlineStr"/>
+      <c r="F23" s="6" t="inlineStr"/>
+      <c r="G23" s="6" t="inlineStr">
+        <is>
+          <t>This is not annotated but included due to relationship with duration of interval</t>
+        </is>
+      </c>
+      <c r="H23" s="6" t="inlineStr"/>
+      <c r="I23" s="6" t="inlineStr"/>
+      <c r="J23" s="6" t="inlineStr"/>
+      <c r="K23" s="6" t="inlineStr"/>
+      <c r="L23" s="6" t="inlineStr"/>
+      <c r="M23" s="6" t="inlineStr"/>
+      <c r="N23" s="6" t="inlineStr"/>
+      <c r="O23" s="6" t="inlineStr"/>
+      <c r="P23" s="6" t="inlineStr">
+        <is>
+          <t>entity added so duration of interval can be specified. not sure what parent/relationships should be</t>
+        </is>
+      </c>
+      <c r="Q23" s="6" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R23" s="6" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="S23" s="6" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T21" s="3" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="5" t="inlineStr">
-        <is>
-          <t>BCIO:008605</t>
-        </is>
-      </c>
-      <c r="B22" s="5" t="inlineStr">
-        <is>
-          <t>z) (removed as equivalent to number of contact events) number of repetitions</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="inlineStr">
-        <is>
-          <t>A data item that is the number of repetitions of contact events within a temporal part or BCI for which the frequency is described</t>
-        </is>
-      </c>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr">
-        <is>
-          <t>Participants received "3" emails every 2 weeks</t>
-        </is>
-      </c>
-      <c r="G22" s="5" t="inlineStr">
-        <is>
-          <t>This is annotated when a frequency is described using a period and a number of repetitions, rather than a single word.</t>
-        </is>
-      </c>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr">
+      <c r="T23" s="6" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>BCIO:008520</t>
+        </is>
+      </c>
+      <c r="B24" s="6" t="inlineStr">
+        <is>
+          <t>z) intervention temporal part frequency</t>
+        </is>
+      </c>
+      <c r="C24" s="6" t="inlineStr">
+        <is>
+          <t>An attribute of a BCI schedule of delivery that is how often intervention temporal parts occur within a BCI.</t>
+        </is>
+      </c>
+      <c r="D24" s="6" t="inlineStr">
+        <is>
+          <t>process attribute</t>
+        </is>
+      </c>
+      <c r="E24" s="6" t="inlineStr">
+        <is>
+          <t>Contact events are intervention temporal parts so this entity also describes the frequency of contact events.</t>
+        </is>
+      </c>
+      <c r="F24" s="6" t="inlineStr"/>
+      <c r="G24" s="6" t="inlineStr">
+        <is>
+          <t>This is used to capture descriptions of the frequency of contact events within a part. 
+Example annotation (in context)
+intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks"</t>
+        </is>
+      </c>
+      <c r="H24" s="6" t="inlineStr"/>
+      <c r="I24" s="6" t="inlineStr"/>
+      <c r="J24" s="6" t="inlineStr"/>
+      <c r="K24" s="6" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
-      <c r="O22" s="5" t="inlineStr">
+      <c r="L24" s="6" t="inlineStr"/>
+      <c r="M24" s="6" t="inlineStr"/>
+      <c r="N24" s="6" t="inlineStr"/>
+      <c r="O24" s="6" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P22" s="5" t="inlineStr"/>
-      <c r="Q22" s="5" t="inlineStr">
+      <c r="P24" s="6" t="inlineStr"/>
+      <c r="Q24" s="6" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R22" s="5" t="inlineStr">
+      <c r="R24" s="6" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="S22" s="5" t="inlineStr">
+      <c r="S24" s="6" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T22" s="5" t="inlineStr">
-        <is>
-          <t>this entity was added to allow us to more flexibly capture frequencies that have been broken down into period and repetitions. This is useful for annotations but we are unsure if it makes ontological sense to include it as it isn't really distinct from a frequency itself and relates more to how a frequency is described (CM)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="inlineStr">
-        <is>
-          <t>BCIO:008600</t>
-        </is>
-      </c>
-      <c r="B23" s="5" t="inlineStr">
-        <is>
-          <t>z) frequency period</t>
-        </is>
-      </c>
-      <c r="C23" s="5" t="inlineStr">
-        <is>
-          <t>A temporal interval that is the length of time from start to end of an intervention temporal part</t>
-        </is>
-      </c>
-      <c r="D23" s="5" t="inlineStr">
-        <is>
-          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
-        </is>
-      </c>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr">
-        <is>
-          <t>Participants received 3 emails every "2" weeks</t>
-        </is>
-      </c>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr">
-        <is>
-          <t>intervention temporal part</t>
-        </is>
-      </c>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
-      <c r="O23" s="5" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="P23" s="5" t="inlineStr"/>
-      <c r="Q23" s="5" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="R23" s="5" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="S23" s="5" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T23" s="5" t="inlineStr">
-        <is>
-          <t>this entity was added to allow us to more flexibly capture frequencies that have been broken down into period and repetitions. This is useful for annotations but we are unsure if it makes ontological sense to include it as it isn't really distinct from a frequency itself and relates more to how a frequency is described. Perhaps this also isn't really distinct from duration of BCI/part (CM)</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="5" t="inlineStr">
-        <is>
-          <t>BCIO:008570</t>
-        </is>
-      </c>
-      <c r="B24" s="5" t="inlineStr">
-        <is>
-          <t>z) interval (remove)</t>
-        </is>
-      </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr">
-        <is>
-          <t>This is not annotated but included due to relationship with duration of interval</t>
-        </is>
-      </c>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
-      <c r="O24" s="5" t="inlineStr"/>
-      <c r="P24" s="5" t="inlineStr">
-        <is>
-          <t>entity added so duration of interval can be specified. not sure what parent/relationships should be</t>
-        </is>
-      </c>
-      <c r="Q24" s="5" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="R24" s="5" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="S24" s="5" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T24" s="5" t="inlineStr"/>
+      <c r="T24" s="6" t="inlineStr">
+        <is>
+          <t>need to decide whether to have a separate additional entity for frequency of contact events (CM)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B11" s="5" t="inlineStr">
         <is>
-          <t>j) timepoint of event relevant for intervention</t>
+          <t>j) timepoint of event relevant to intervention</t>
         </is>
       </c>
       <c r="C11" s="5" t="inlineStr">

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -1172,14 +1172,14 @@
       </c>
       <c r="F11" s="5" t="inlineStr">
         <is>
-          <t>quit date; child birth; GP appointment</t>
+          <t>child birth; medical operation</t>
         </is>
       </c>
       <c r="G11" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Annotate the words used by authors to describe key events which are not themselves part of the intervention but are relevant to the description of the schedule of the intervention.
+          <t>Annotate the words used by authors to describe key events which are not themselves part of the intervention but are relevant to the description of the schedule of the intervention.
 Example annotation in context:
-Counselling sessions started a week after the participants "quit date"; A feedback call was scheduled to be delivered around 6 months after the "birth of the baby". </t>
+A counselling call was scheduled to be delivered around 6 months after the "birth of the baby"; The intervention began 1 week prior to the scheduled date of bypass surgery</t>
         </is>
       </c>
       <c r="H11" s="5" t="inlineStr"/>

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,12 +1033,12 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>An attribute of a BCI schedule that is how often contact events occur within a BCI or temporal part</t>
+          <t>An attribute of a BCI schedule that is how often contact events occur within a BCI or intervention temporal part</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>process attribute</t>
+          <t>frequency (PATO)</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr"/>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>A count data item that is the number of contact events in BCI or temporal part</t>
+          <t>A count data item that is the number of contact events in an intervention temporal part</t>
         </is>
       </c>
       <c r="D10" s="5" t="inlineStr">
@@ -1152,34 +1152,30 @@
       </c>
       <c r="B11" s="5" t="inlineStr">
         <is>
-          <t>j) timepoint of event relevant to intervention</t>
+          <t>j) temporal reference associated with the intervention</t>
         </is>
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">A part of a BCI schedule of delivery that is the moment of a specific event relevant for the intervention </t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
-        </is>
-      </c>
+          <t>A statement which describes how the delivery of intervention parts is scheduled relative to associated external events.</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="inlineStr">
         <is>
-          <t>Timepoints are used by authors when there is a behaviourally relevant event which structures the schedule of a BCI. This can include things like quit dates, childbirth, medical operations etc.</t>
+          <t>Temporal references are used by authors when there is a behaviourally relevant event which structures the schedule of a BCI. This can include things like, childbirth, medical operations etc.</t>
         </is>
       </c>
       <c r="F11" s="5" t="inlineStr">
         <is>
-          <t>child birth; medical operation</t>
+          <t>child birth; GP appointment</t>
         </is>
       </c>
       <c r="G11" s="5" t="inlineStr">
         <is>
-          <t>Annotate the words used by authors to describe key events which are not themselves part of the intervention but are relevant to the description of the schedule of the intervention.
+          <t xml:space="preserve">Annotate the words used by authors to describe key events which are not themselves part of the intervention but are relevant to the description of the schedule of the intervention.
 Example annotation in context:
-A counselling call was scheduled to be delivered around 6 months after the "birth of the baby"; The intervention began 1 week prior to the scheduled date of bypass surgery</t>
+"A feedback call was scheduled to be delivered around 6 months after the birth of the baby". </t>
         </is>
       </c>
       <c r="H11" s="5" t="inlineStr"/>
@@ -1217,33 +1213,159 @@
       <c r="T11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="inlineStr">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>BCIO:008520</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="inlineStr">
+        <is>
+          <t>k) intervention temporal part frequency</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>An attribute of a BCI schedule of delivery that is how often intervention temporal parts occur within a BCI.</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>process attribute</t>
+        </is>
+      </c>
+      <c r="E12" s="6" t="inlineStr">
+        <is>
+          <t>Contact events are intervention temporal parts so this entity also describes the frequency of contact events.</t>
+        </is>
+      </c>
+      <c r="F12" s="6" t="inlineStr"/>
+      <c r="G12" s="6" t="inlineStr">
+        <is>
+          <t>This is used to capture descriptions of the frequency of contact events within a part. 
+Example annotation (in context)
+intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks"</t>
+        </is>
+      </c>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="inlineStr">
+        <is>
+          <t>contact event</t>
+        </is>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+      <c r="O12" s="6" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="P12" s="6" t="inlineStr"/>
+      <c r="Q12" s="6" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R12" s="6" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="S12" s="6" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T12" s="6" t="inlineStr">
+        <is>
+          <t>need to decide whether to have a separate additional entity for frequency of contact events (CM)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:0050000</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>k) intervention temporal part frequency</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>An attribute of a BCI schedule of delivery that is how often intervention temporal parts occur within a BCI.</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>frequency (PATO)</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>Contact events are intervention temporal parts so this entity also describes the frequency of contact events.</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>Participants took part in 90 minutes of PA "weekly"</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr"/>
+      <c r="H13" s="4" t="inlineStr"/>
+      <c r="I13" s="4" t="inlineStr"/>
+      <c r="J13" s="4" t="inlineStr"/>
+      <c r="K13" s="4" t="inlineStr"/>
+      <c r="L13" s="4" t="inlineStr"/>
+      <c r="M13" s="4" t="inlineStr"/>
+      <c r="N13" s="4" t="inlineStr"/>
+      <c r="O13" s="4" t="inlineStr"/>
+      <c r="P13" s="4" t="inlineStr"/>
+      <c r="Q13" s="4" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R13" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S13" s="4" t="inlineStr"/>
+      <c r="T13" s="4" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>BCIO:008545</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>k) total contact event duration</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
-        <is>
-          <t>A data item that is the total duration of all contact events in a BCI or temporal part</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>A data item that is the total duration of all contact events in an intervention temporal part</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr">
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>150 minutes; 12 hours</t>
         </is>
       </c>
-      <c r="G12" s="5" t="inlineStr">
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t>Use this entity when authors describe the total amount of contact time for a particular part/intervention across multiple contact events.
 When there is only one session, the total duration of contact events and the duration of a single contact event are technically the same. As a convention, we would annotate this under duration of contact event
@@ -1251,154 +1373,6 @@
 participants received "150" minutes of face-to-face counselling, split across five 30 minute sessions</t>
         </is>
       </c>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr">
-        <is>
-          <t>contact event</t>
-        </is>
-      </c>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="P12" s="5" t="inlineStr">
-        <is>
-          <t>"is about" contact events or "is about" duration of contact events?</t>
-        </is>
-      </c>
-      <c r="Q12" s="5" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="R12" s="5" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="S12" s="5" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T12" s="5" t="inlineStr">
-        <is>
-          <t>what type of data item is this? (CM)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="inlineStr">
-        <is>
-          <t>BCIO:008550</t>
-        </is>
-      </c>
-      <c r="B13" s="5" t="inlineStr">
-        <is>
-          <t>l) contact event sum duration (still to confirm inclusion)</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="inlineStr">
-        <is>
-          <t>A data item that is the sum duration of a subset of contact events in a BCI or temporal part</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr">
-        <is>
-          <t>The participants took part in "90" minutes of PA weekly</t>
-        </is>
-      </c>
-      <c r="G13" s="5" t="inlineStr">
-        <is>
-          <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
-        </is>
-      </c>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr">
-        <is>
-          <t>contact event</t>
-        </is>
-      </c>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="P13" s="5" t="inlineStr">
-        <is>
-          <t>is about contact events or is about duration of contact events?</t>
-        </is>
-      </c>
-      <c r="Q13" s="5" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="R13" s="5" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="S13" s="5" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T13" s="5" t="inlineStr">
-        <is>
-          <t>meeting was cut short whilst JH gave feedback on these entities. JH, please could you give feedback here? I think the suggestion was to combine these two entities (BCIO:008550 and BCIO:008555)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>BCIO:008555</t>
-        </is>
-      </c>
-      <c r="B14" s="5" t="inlineStr">
-        <is>
-          <t>m) contact event sum duration frequency (still to confirm inclusion)</t>
-        </is>
-      </c>
-      <c r="C14" s="5" t="inlineStr">
-        <is>
-          <t>A data item which describes how often a specified sum duration of contact events occured during a BCI or temporal part</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr">
-        <is>
-          <t>The participants took part in 90 minutes of PA "weekly"</t>
-        </is>
-      </c>
-      <c r="G14" s="5" t="inlineStr">
-        <is>
-          <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
-        </is>
-      </c>
       <c r="H14" s="5" t="inlineStr"/>
       <c r="I14" s="5" t="inlineStr"/>
       <c r="J14" s="5" t="inlineStr"/>
@@ -1417,7 +1391,7 @@
       </c>
       <c r="P14" s="5" t="inlineStr">
         <is>
-          <t>is about contact events or is about duration of contact events?</t>
+          <t>"is about" contact events or "is about" duration of contact events?</t>
         </is>
       </c>
       <c r="Q14" s="5" t="inlineStr">
@@ -1437,7 +1411,7 @@
       </c>
       <c r="T14" s="5" t="inlineStr">
         <is>
-          <t>meeting was cut short whilst JH gave feedback on these entities. JH, please could you give feedback here? I think the suggestion was to combine these two entities (BCIO:008550 and BCIO:008555)</t>
+          <t>what type of data item is this? (CM)</t>
         </is>
       </c>
     </row>
@@ -1854,37 +1828,41 @@
     <row r="22">
       <c r="A22" s="6" t="inlineStr">
         <is>
-          <t>BCIO:008600</t>
+          <t>BCIO:008550</t>
         </is>
       </c>
       <c r="B22" s="6" t="inlineStr">
         <is>
-          <t>z) frequency period</t>
+          <t>z) contact event sum duration (still to confirm inclusion)</t>
         </is>
       </c>
       <c r="C22" s="6" t="inlineStr">
         <is>
-          <t>A temporal interval that is the length of time from start to end of an intervention temporal part</t>
+          <t>A data item that is the sum duration of a subset of contact events in a BCI or temporal part</t>
         </is>
       </c>
       <c r="D22" s="6" t="inlineStr">
         <is>
-          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E22" s="6" t="inlineStr"/>
       <c r="F22" s="6" t="inlineStr">
         <is>
-          <t>Participants received 3 emails every "2" weeks</t>
-        </is>
-      </c>
-      <c r="G22" s="6" t="inlineStr"/>
+          <t>The participants took part in "90" minutes of PA weekly</t>
+        </is>
+      </c>
+      <c r="G22" s="6" t="inlineStr">
+        <is>
+          <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
+        </is>
+      </c>
       <c r="H22" s="6" t="inlineStr"/>
       <c r="I22" s="6" t="inlineStr"/>
       <c r="J22" s="6" t="inlineStr"/>
       <c r="K22" s="6" t="inlineStr">
         <is>
-          <t>intervention temporal part</t>
+          <t>contact event</t>
         </is>
       </c>
       <c r="L22" s="6" t="inlineStr"/>
@@ -1895,7 +1873,11 @@
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P22" s="6" t="inlineStr"/>
+      <c r="P22" s="6" t="inlineStr">
+        <is>
+          <t>is about contact events or is about duration of contact events?</t>
+        </is>
+      </c>
       <c r="Q22" s="6" t="inlineStr">
         <is>
           <t>CM</t>
@@ -1913,41 +1895,61 @@
       </c>
       <c r="T22" s="6" t="inlineStr">
         <is>
-          <t>this entity was added to allow us to more flexibly capture frequencies that have been broken down into period and repetitions. This is useful for annotations but we are unsure if it makes ontological sense to include it as it isn't really distinct from a frequency itself and relates more to how a frequency is described. Perhaps this also isn't really distinct from duration of BCI/part (CM)</t>
+          <t>meeting was cut short whilst JH gave feedback on these entities. JH, please could you give feedback here? I think the suggestion was to combine these two entities (BCIO:008550 and BCIO:008555)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
         <is>
-          <t>BCIO:008570</t>
+          <t>BCIO:008555</t>
         </is>
       </c>
       <c r="B23" s="6" t="inlineStr">
         <is>
-          <t>z) interval (remove)</t>
-        </is>
-      </c>
-      <c r="C23" s="6" t="inlineStr"/>
-      <c r="D23" s="6" t="inlineStr"/>
+          <t>z) contact event sum duration frequency (still to confirm inclusion)</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="inlineStr">
+        <is>
+          <t>A data item which describes how often a specified sum duration of contact events occured during a BCI or temporal part</t>
+        </is>
+      </c>
+      <c r="D23" s="6" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
       <c r="E23" s="6" t="inlineStr"/>
-      <c r="F23" s="6" t="inlineStr"/>
+      <c r="F23" s="6" t="inlineStr">
+        <is>
+          <t>The participants took part in 90 minutes of PA "weekly"</t>
+        </is>
+      </c>
       <c r="G23" s="6" t="inlineStr">
         <is>
-          <t>This is not annotated but included due to relationship with duration of interval</t>
+          <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
         </is>
       </c>
       <c r="H23" s="6" t="inlineStr"/>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="inlineStr"/>
-      <c r="K23" s="6" t="inlineStr"/>
+      <c r="K23" s="6" t="inlineStr">
+        <is>
+          <t>contact event</t>
+        </is>
+      </c>
       <c r="L23" s="6" t="inlineStr"/>
       <c r="M23" s="6" t="inlineStr"/>
       <c r="N23" s="6" t="inlineStr"/>
-      <c r="O23" s="6" t="inlineStr"/>
+      <c r="O23" s="6" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="P23" s="6" t="inlineStr">
         <is>
-          <t>entity added so duration of interval can be specified. not sure what parent/relationships should be</t>
+          <t>is about contact events or is about duration of contact events?</t>
         </is>
       </c>
       <c r="Q23" s="6" t="inlineStr">
@@ -1965,48 +1967,46 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T23" s="6" t="inlineStr"/>
+      <c r="T23" s="6" t="inlineStr">
+        <is>
+          <t>meeting was cut short whilst JH gave feedback on these entities. JH, please could you give feedback here? I think the suggestion was to combine these two entities (BCIO:008550 and BCIO:008555)</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="inlineStr">
         <is>
-          <t>BCIO:008520</t>
+          <t>BCIO:008600</t>
         </is>
       </c>
       <c r="B24" s="6" t="inlineStr">
         <is>
-          <t>z) intervention temporal part frequency</t>
+          <t>z) frequency period</t>
         </is>
       </c>
       <c r="C24" s="6" t="inlineStr">
         <is>
-          <t>An attribute of a BCI schedule of delivery that is how often intervention temporal parts occur within a BCI.</t>
+          <t>A temporal interval that is the length of time from start to end of an intervention temporal part</t>
         </is>
       </c>
       <c r="D24" s="6" t="inlineStr">
         <is>
-          <t>process attribute</t>
-        </is>
-      </c>
-      <c r="E24" s="6" t="inlineStr">
-        <is>
-          <t>Contact events are intervention temporal parts so this entity also describes the frequency of contact events.</t>
-        </is>
-      </c>
-      <c r="F24" s="6" t="inlineStr"/>
-      <c r="G24" s="6" t="inlineStr">
-        <is>
-          <t>This is used to capture descriptions of the frequency of contact events within a part. 
-Example annotation (in context)
-intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks"</t>
-        </is>
-      </c>
+          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
+        </is>
+      </c>
+      <c r="E24" s="6" t="inlineStr"/>
+      <c r="F24" s="6" t="inlineStr">
+        <is>
+          <t>Participants received 3 emails every "2" weeks</t>
+        </is>
+      </c>
+      <c r="G24" s="6" t="inlineStr"/>
       <c r="H24" s="6" t="inlineStr"/>
       <c r="I24" s="6" t="inlineStr"/>
       <c r="J24" s="6" t="inlineStr"/>
       <c r="K24" s="6" t="inlineStr">
         <is>
-          <t>contact event</t>
+          <t>intervention temporal part</t>
         </is>
       </c>
       <c r="L24" s="6" t="inlineStr"/>
@@ -2035,9 +2035,59 @@
       </c>
       <c r="T24" s="6" t="inlineStr">
         <is>
-          <t>need to decide whether to have a separate additional entity for frequency of contact events (CM)</t>
-        </is>
-      </c>
+          <t>this entity was added to allow us to more flexibly capture frequencies that have been broken down into period and repetitions. This is useful for annotations but we are unsure if it makes ontological sense to include it as it isn't really distinct from a frequency itself and relates more to how a frequency is described. Perhaps this also isn't really distinct from duration of BCI/part (CM)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>BCIO:008570</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="inlineStr">
+        <is>
+          <t>z) interval (remove)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr"/>
+      <c r="D25" s="6" t="inlineStr"/>
+      <c r="E25" s="6" t="inlineStr"/>
+      <c r="F25" s="6" t="inlineStr"/>
+      <c r="G25" s="6" t="inlineStr">
+        <is>
+          <t>This is not annotated but included due to relationship with duration of interval</t>
+        </is>
+      </c>
+      <c r="H25" s="6" t="inlineStr"/>
+      <c r="I25" s="6" t="inlineStr"/>
+      <c r="J25" s="6" t="inlineStr"/>
+      <c r="K25" s="6" t="inlineStr"/>
+      <c r="L25" s="6" t="inlineStr"/>
+      <c r="M25" s="6" t="inlineStr"/>
+      <c r="N25" s="6" t="inlineStr"/>
+      <c r="O25" s="6" t="inlineStr"/>
+      <c r="P25" s="6" t="inlineStr">
+        <is>
+          <t>entity added so duration of interval can be specified. not sure what parent/relationships should be</t>
+        </is>
+      </c>
+      <c r="Q25" s="6" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R25" s="6" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="S25" s="6" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T25" s="6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -1213,159 +1213,87 @@
       <c r="T11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>BCIO:008520</t>
-        </is>
-      </c>
-      <c r="B12" s="6" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:0050000</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>k) intervention temporal part frequency</t>
         </is>
       </c>
-      <c r="C12" s="6" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>An attribute of a BCI schedule of delivery that is how often intervention temporal parts occur within a BCI.</t>
         </is>
       </c>
-      <c r="D12" s="6" t="inlineStr">
-        <is>
-          <t>process attribute</t>
-        </is>
-      </c>
-      <c r="E12" s="6" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>frequency (PATO)</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>Contact events are intervention temporal parts so this entity also describes the frequency of contact events.</t>
         </is>
       </c>
-      <c r="F12" s="6" t="inlineStr"/>
-      <c r="G12" s="6" t="inlineStr">
-        <is>
-          <t>This is used to capture descriptions of the frequency of contact events within a part. 
-Example annotation (in context)
-intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks"</t>
-        </is>
-      </c>
-      <c r="H12" s="6" t="inlineStr"/>
-      <c r="I12" s="6" t="inlineStr"/>
-      <c r="J12" s="6" t="inlineStr"/>
-      <c r="K12" s="6" t="inlineStr">
-        <is>
-          <t>contact event</t>
-        </is>
-      </c>
-      <c r="L12" s="6" t="inlineStr"/>
-      <c r="M12" s="6" t="inlineStr"/>
-      <c r="N12" s="6" t="inlineStr"/>
-      <c r="O12" s="6" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="P12" s="6" t="inlineStr"/>
-      <c r="Q12" s="6" t="inlineStr">
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>Participants took part in 90 minutes of PA "weekly"</t>
+        </is>
+      </c>
+      <c r="G12" s="4" t="inlineStr"/>
+      <c r="H12" s="4" t="inlineStr"/>
+      <c r="I12" s="4" t="inlineStr"/>
+      <c r="J12" s="4" t="inlineStr"/>
+      <c r="K12" s="4" t="inlineStr"/>
+      <c r="L12" s="4" t="inlineStr"/>
+      <c r="M12" s="4" t="inlineStr"/>
+      <c r="N12" s="4" t="inlineStr"/>
+      <c r="O12" s="4" t="inlineStr"/>
+      <c r="P12" s="4" t="inlineStr"/>
+      <c r="Q12" s="4" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R12" s="6" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="S12" s="6" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T12" s="6" t="inlineStr">
-        <is>
-          <t>need to decide whether to have a separate additional entity for frequency of contact events (CM)</t>
-        </is>
-      </c>
+      <c r="R12" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S12" s="4" t="inlineStr"/>
+      <c r="T12" s="4" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:0050000</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>k) intervention temporal part frequency</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t>An attribute of a BCI schedule of delivery that is how often intervention temporal parts occur within a BCI.</t>
-        </is>
-      </c>
-      <c r="D13" s="4" t="inlineStr">
-        <is>
-          <t>frequency (PATO)</t>
-        </is>
-      </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t>Contact events are intervention temporal parts so this entity also describes the frequency of contact events.</t>
-        </is>
-      </c>
-      <c r="F13" s="4" t="inlineStr">
-        <is>
-          <t>Participants took part in 90 minutes of PA "weekly"</t>
-        </is>
-      </c>
-      <c r="G13" s="4" t="inlineStr"/>
-      <c r="H13" s="4" t="inlineStr"/>
-      <c r="I13" s="4" t="inlineStr"/>
-      <c r="J13" s="4" t="inlineStr"/>
-      <c r="K13" s="4" t="inlineStr"/>
-      <c r="L13" s="4" t="inlineStr"/>
-      <c r="M13" s="4" t="inlineStr"/>
-      <c r="N13" s="4" t="inlineStr"/>
-      <c r="O13" s="4" t="inlineStr"/>
-      <c r="P13" s="4" t="inlineStr"/>
-      <c r="Q13" s="4" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="R13" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S13" s="4" t="inlineStr"/>
-      <c r="T13" s="4" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>BCIO:008545</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>k) total contact event duration</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>A data item that is the total duration of all contact events in an intervention temporal part</t>
         </is>
       </c>
-      <c r="D14" s="5" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr"/>
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>150 minutes; 12 hours</t>
         </is>
       </c>
-      <c r="G14" s="5" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>Use this entity when authors describe the total amount of contact time for a particular part/intervention across multiple contact events.
 When there is only one session, the total duration of contact events and the duration of a single contact event are technically the same. As a convention, we would annotate this under duration of contact event
@@ -1373,62 +1301,124 @@
 participants received "150" minutes of face-to-face counselling, split across five 30 minute sessions</t>
         </is>
       </c>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr">
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="J13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr">
+      <c r="L13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="inlineStr"/>
+      <c r="N13" s="5" t="inlineStr"/>
+      <c r="O13" s="5" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P14" s="5" t="inlineStr">
+      <c r="P13" s="5" t="inlineStr">
         <is>
           <t>"is about" contact events or "is about" duration of contact events?</t>
         </is>
       </c>
-      <c r="Q14" s="5" t="inlineStr">
+      <c r="Q13" s="5" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R14" s="5" t="inlineStr">
+      <c r="R13" s="5" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S14" s="5" t="inlineStr">
+      <c r="S13" s="5" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T14" s="5" t="inlineStr">
+      <c r="T13" s="5" t="inlineStr">
         <is>
           <t>what type of data item is this? (CM)</t>
         </is>
       </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:008535</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>n) regular intervention schedule</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of Intervention temporal parts are uniform across the course of a BCI or BCI part.  </t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>a) BCI schedule of delivery</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr"/>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>the length and regularity of sessions were consistent across the duration of the intervention, taking place for an hour each week</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>This is used to capture when the author specifies that the schedule (length and frequency of contact events) does not change over the course of a part. This is rarely annotated as it is not usually explicitly stated.</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr"/>
+      <c r="I14" s="3" t="inlineStr"/>
+      <c r="J14" s="3" t="inlineStr"/>
+      <c r="K14" s="3" t="inlineStr"/>
+      <c r="L14" s="3" t="inlineStr"/>
+      <c r="M14" s="3" t="inlineStr"/>
+      <c r="N14" s="3" t="inlineStr"/>
+      <c r="O14" s="3" t="inlineStr"/>
+      <c r="P14" s="3" t="inlineStr">
+        <is>
+          <t>relationship? is about schedule? or is a type of schedule?</t>
+        </is>
+      </c>
+      <c r="Q14" s="3" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R14" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="S14" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T14" s="3" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008535</t>
+          <t>BCIO:008540</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>n) regular intervention schedule</t>
+          <t>o) irregular schedule</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of Intervention temporal parts are uniform across the course of a BCI or BCI part.  </t>
+          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events change over the course of a temporal part or BCI.  </t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -1439,12 +1429,12 @@
       <c r="E15" s="3" t="inlineStr"/>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>the length and regularity of sessions were consistent across the duration of the intervention, taking place for an hour each week</t>
+          <t>telephone feedback sessions were more frequent during the first 6 weeks; participants were free to access the app whenever they desired</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>This is used to capture when the author specifies that the schedule (length and frequency of contact events) does not change over the course of a part. This is rarely annotated as it is not usually explicitly stated.</t>
+          <t>We use this to capture instances when it is clear that the schedule (i.e. duration and frequency of contact events) varies over the course of a part, but we are unable to capture the specific schedule</t>
         </is>
       </c>
       <c r="H15" s="3" t="inlineStr"/>
@@ -1475,93 +1465,31 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T15" s="3" t="inlineStr"/>
+      <c r="T15" s="3" t="inlineStr">
+        <is>
+          <t>should we also add separate entities for fixed and variable schedule, to describe cases when schedules vary across participants? We previously had these entities within the ontology but they were removed as they didn't come up explicitly in papers and our old definition of variable schedule overlapped with the definition for irregular schedule (CM)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:008540</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>o) irregular schedule</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events change over the course of a temporal part or BCI.  </t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>a) BCI schedule of delivery</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr"/>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>telephone feedback sessions were more frequent during the first 6 weeks; participants were free to access the app whenever they desired</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>We use this to capture instances when it is clear that the schedule (i.e. duration and frequency of contact events) varies over the course of a part, but we are unable to capture the specific schedule</t>
-        </is>
-      </c>
-      <c r="H16" s="3" t="inlineStr"/>
-      <c r="I16" s="3" t="inlineStr"/>
-      <c r="J16" s="3" t="inlineStr"/>
-      <c r="K16" s="3" t="inlineStr"/>
-      <c r="L16" s="3" t="inlineStr"/>
-      <c r="M16" s="3" t="inlineStr"/>
-      <c r="N16" s="3" t="inlineStr"/>
-      <c r="O16" s="3" t="inlineStr"/>
-      <c r="P16" s="3" t="inlineStr">
-        <is>
-          <t>relationship? is about schedule? or is a type of schedule?</t>
-        </is>
-      </c>
-      <c r="Q16" s="3" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="R16" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="S16" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="T16" s="3" t="inlineStr">
-        <is>
-          <t>should we also add separate entities for fixed and variable schedule, to describe cases when schedules vary across participants? We previously had these entities within the ontology but they were removed as they didn't come up explicitly in papers and our old definition of variable schedule overlapped with the definition for irregular schedule (CM)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="inlineStr">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>BCIO:008580</t>
         </is>
       </c>
-      <c r="B17" s="6" t="inlineStr">
+      <c r="B16" s="6" t="inlineStr">
         <is>
           <t>p) order</t>
         </is>
       </c>
-      <c r="C17" s="6" t="inlineStr">
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>A part of BCI schedule which describes the relative temporal positioning of contact events, temporal parts and timepoints.</t>
         </is>
       </c>
-      <c r="D17" s="6" t="inlineStr"/>
-      <c r="E17" s="6" t="inlineStr"/>
-      <c r="F17" s="6" t="inlineStr">
+      <c r="D16" s="6" t="inlineStr"/>
+      <c r="E16" s="6" t="inlineStr"/>
+      <c r="F16" s="6" t="inlineStr">
         <is>
           <t>"After questionnaires were completed, feedback was selected
 out of a database with messages for each possible combination
@@ -1570,19 +1498,73 @@
 levels to the PA guidelines."</t>
         </is>
       </c>
+      <c r="G16" s="6" t="inlineStr">
+        <is>
+          <t>This is annotated as an open code when any aspect of order is described</t>
+        </is>
+      </c>
+      <c r="H16" s="6" t="inlineStr"/>
+      <c r="I16" s="6" t="inlineStr"/>
+      <c r="J16" s="6" t="inlineStr"/>
+      <c r="K16" s="6" t="inlineStr">
+        <is>
+          <t>BCI schedule of delivery</t>
+        </is>
+      </c>
+      <c r="L16" s="6" t="inlineStr"/>
+      <c r="M16" s="6" t="inlineStr"/>
+      <c r="N16" s="6" t="inlineStr"/>
+      <c r="O16" s="6" t="inlineStr"/>
+      <c r="P16" s="6" t="inlineStr"/>
+      <c r="Q16" s="6" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="R16" s="6" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="S16" s="6" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="T16" s="6" t="inlineStr">
+        <is>
+          <t>not sure about definitions and relationships. Should this be remove from the schedule ontology and instead form part of the relations ontology, like before and after? (CM)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>BCIO:008595</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>q) same time (remove - this is a relation like before and after)</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it occurs whilst another temporal part or timepoint occurs</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="inlineStr"/>
+      <c r="E17" s="6" t="inlineStr"/>
+      <c r="F17" s="6" t="inlineStr"/>
       <c r="G17" s="6" t="inlineStr">
         <is>
-          <t>This is annotated as an open code when any aspect of order is described</t>
+          <t>This is not annotated</t>
         </is>
       </c>
       <c r="H17" s="6" t="inlineStr"/>
       <c r="I17" s="6" t="inlineStr"/>
       <c r="J17" s="6" t="inlineStr"/>
-      <c r="K17" s="6" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
+      <c r="K17" s="6" t="inlineStr"/>
       <c r="L17" s="6" t="inlineStr"/>
       <c r="M17" s="6" t="inlineStr"/>
       <c r="N17" s="6" t="inlineStr"/>
@@ -1603,26 +1585,22 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T17" s="6" t="inlineStr">
-        <is>
-          <t>not sure about definitions and relationships. Should this be remove from the schedule ontology and instead form part of the relations ontology, like before and after? (CM)</t>
-        </is>
-      </c>
+      <c r="T17" s="6" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="6" t="inlineStr">
         <is>
-          <t>BCIO:008595</t>
+          <t>BCIO:008585</t>
         </is>
       </c>
       <c r="B18" s="6" t="inlineStr">
         <is>
-          <t>q) same time (remove - this is a relation like before and after)</t>
+          <t>r) before (to be removed and added to list of relations)</t>
         </is>
       </c>
       <c r="C18" s="6" t="inlineStr">
         <is>
-          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it occurs whilst another temporal part or timepoint occurs</t>
+          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it ends prior to the beginning of another temporal part or timepoint</t>
         </is>
       </c>
       <c r="D18" s="6" t="inlineStr"/>
@@ -1630,7 +1608,7 @@
       <c r="F18" s="6" t="inlineStr"/>
       <c r="G18" s="6" t="inlineStr">
         <is>
-          <t>This is not annotated</t>
+          <t xml:space="preserve">This is not annotated </t>
         </is>
       </c>
       <c r="H18" s="6" t="inlineStr"/>
@@ -1644,7 +1622,7 @@
       <c r="P18" s="6" t="inlineStr"/>
       <c r="Q18" s="6" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>CM; RW</t>
         </is>
       </c>
       <c r="R18" s="6" t="inlineStr">
@@ -1662,17 +1640,17 @@
     <row r="19">
       <c r="A19" s="6" t="inlineStr">
         <is>
-          <t>BCIO:008585</t>
+          <t>BCIO:008590</t>
         </is>
       </c>
       <c r="B19" s="6" t="inlineStr">
         <is>
-          <t>r) before (to be removed and added to list of relations)</t>
+          <t>s) after (to be removed and added to list of relations)</t>
         </is>
       </c>
       <c r="C19" s="6" t="inlineStr">
         <is>
-          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it ends prior to the beginning of another temporal part or timepoint</t>
+          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it starts following the end of another temporal part or timepoint</t>
         </is>
       </c>
       <c r="D19" s="6" t="inlineStr"/>
@@ -1680,7 +1658,7 @@
       <c r="F19" s="6" t="inlineStr"/>
       <c r="G19" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">This is not annotated </t>
+          <t>This is not annotated</t>
         </is>
       </c>
       <c r="H19" s="6" t="inlineStr"/>
@@ -1712,39 +1690,51 @@
     <row r="20">
       <c r="A20" s="6" t="inlineStr">
         <is>
-          <t>BCIO:008590</t>
+          <t>BCIO:008605</t>
         </is>
       </c>
       <c r="B20" s="6" t="inlineStr">
         <is>
-          <t>s) after (to be removed and added to list of relations)</t>
+          <t>z) (removed as equivalent to number of contact events) number of repetitions</t>
         </is>
       </c>
       <c r="C20" s="6" t="inlineStr">
         <is>
-          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it starts following the end of another temporal part or timepoint</t>
+          <t>A data item that is the number of repetitions of contact events within a temporal part or BCI for which the frequency is described</t>
         </is>
       </c>
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="inlineStr"/>
-      <c r="F20" s="6" t="inlineStr"/>
+      <c r="F20" s="6" t="inlineStr">
+        <is>
+          <t>Participants received "3" emails every 2 weeks</t>
+        </is>
+      </c>
       <c r="G20" s="6" t="inlineStr">
         <is>
-          <t>This is not annotated</t>
+          <t>This is annotated when a frequency is described using a period and a number of repetitions, rather than a single word.</t>
         </is>
       </c>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="inlineStr"/>
-      <c r="K20" s="6" t="inlineStr"/>
+      <c r="K20" s="6" t="inlineStr">
+        <is>
+          <t>contact event</t>
+        </is>
+      </c>
       <c r="L20" s="6" t="inlineStr"/>
       <c r="M20" s="6" t="inlineStr"/>
       <c r="N20" s="6" t="inlineStr"/>
-      <c r="O20" s="6" t="inlineStr"/>
+      <c r="O20" s="6" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="P20" s="6" t="inlineStr"/>
       <c r="Q20" s="6" t="inlineStr">
         <is>
-          <t>CM; RW</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="R20" s="6" t="inlineStr">
@@ -1757,34 +1747,42 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T20" s="6" t="inlineStr"/>
+      <c r="T20" s="6" t="inlineStr">
+        <is>
+          <t>this entity was added to allow us to more flexibly capture frequencies that have been broken down into period and repetitions. This is useful for annotations but we are unsure if it makes ontological sense to include it as it isn't really distinct from a frequency itself and relates more to how a frequency is described (CM)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="inlineStr">
         <is>
-          <t>BCIO:008605</t>
+          <t>BCIO:008550</t>
         </is>
       </c>
       <c r="B21" s="6" t="inlineStr">
         <is>
-          <t>z) (removed as equivalent to number of contact events) number of repetitions</t>
+          <t>z) contact event sum duration (still to confirm inclusion)</t>
         </is>
       </c>
       <c r="C21" s="6" t="inlineStr">
         <is>
-          <t>A data item that is the number of repetitions of contact events within a temporal part or BCI for which the frequency is described</t>
-        </is>
-      </c>
-      <c r="D21" s="6" t="inlineStr"/>
+          <t>A data item that is the sum duration of a subset of contact events in a BCI or temporal part</t>
+        </is>
+      </c>
+      <c r="D21" s="6" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="inlineStr">
         <is>
-          <t>Participants received "3" emails every 2 weeks</t>
+          <t>The participants took part in "90" minutes of PA weekly</t>
         </is>
       </c>
       <c r="G21" s="6" t="inlineStr">
         <is>
-          <t>This is annotated when a frequency is described using a period and a number of repetitions, rather than a single word.</t>
+          <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
         </is>
       </c>
       <c r="H21" s="6" t="inlineStr"/>
@@ -1803,7 +1801,11 @@
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P21" s="6" t="inlineStr"/>
+      <c r="P21" s="6" t="inlineStr">
+        <is>
+          <t>is about contact events or is about duration of contact events?</t>
+        </is>
+      </c>
       <c r="Q21" s="6" t="inlineStr">
         <is>
           <t>CM</t>
@@ -1821,24 +1823,24 @@
       </c>
       <c r="T21" s="6" t="inlineStr">
         <is>
-          <t>this entity was added to allow us to more flexibly capture frequencies that have been broken down into period and repetitions. This is useful for annotations but we are unsure if it makes ontological sense to include it as it isn't really distinct from a frequency itself and relates more to how a frequency is described (CM)</t>
+          <t>meeting was cut short whilst JH gave feedback on these entities. JH, please could you give feedback here? I think the suggestion was to combine these two entities (BCIO:008550 and BCIO:008555)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="inlineStr">
         <is>
-          <t>BCIO:008550</t>
+          <t>BCIO:008555</t>
         </is>
       </c>
       <c r="B22" s="6" t="inlineStr">
         <is>
-          <t>z) contact event sum duration (still to confirm inclusion)</t>
+          <t>z) contact event sum duration frequency (still to confirm inclusion)</t>
         </is>
       </c>
       <c r="C22" s="6" t="inlineStr">
         <is>
-          <t>A data item that is the sum duration of a subset of contact events in a BCI or temporal part</t>
+          <t>A data item which describes how often a specified sum duration of contact events occured during a BCI or temporal part</t>
         </is>
       </c>
       <c r="D22" s="6" t="inlineStr">
@@ -1849,7 +1851,7 @@
       <c r="E22" s="6" t="inlineStr"/>
       <c r="F22" s="6" t="inlineStr">
         <is>
-          <t>The participants took part in "90" minutes of PA weekly</t>
+          <t>The participants took part in 90 minutes of PA "weekly"</t>
         </is>
       </c>
       <c r="G22" s="6" t="inlineStr">
@@ -1902,41 +1904,37 @@
     <row r="23">
       <c r="A23" s="6" t="inlineStr">
         <is>
-          <t>BCIO:008555</t>
+          <t>BCIO:008600</t>
         </is>
       </c>
       <c r="B23" s="6" t="inlineStr">
         <is>
-          <t>z) contact event sum duration frequency (still to confirm inclusion)</t>
+          <t>z) frequency period</t>
         </is>
       </c>
       <c r="C23" s="6" t="inlineStr">
         <is>
-          <t>A data item which describes how often a specified sum duration of contact events occured during a BCI or temporal part</t>
+          <t>A temporal interval that is the length of time from start to end of an intervention temporal part</t>
         </is>
       </c>
       <c r="D23" s="6" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
         </is>
       </c>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="inlineStr">
         <is>
-          <t>The participants took part in 90 minutes of PA "weekly"</t>
-        </is>
-      </c>
-      <c r="G23" s="6" t="inlineStr">
-        <is>
-          <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
-        </is>
-      </c>
+          <t>Participants received 3 emails every "2" weeks</t>
+        </is>
+      </c>
+      <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="inlineStr"/>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="inlineStr"/>
       <c r="K23" s="6" t="inlineStr">
         <is>
-          <t>contact event</t>
+          <t>intervention temporal part</t>
         </is>
       </c>
       <c r="L23" s="6" t="inlineStr"/>
@@ -1947,11 +1945,7 @@
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P23" s="6" t="inlineStr">
-        <is>
-          <t>is about contact events or is about duration of contact events?</t>
-        </is>
-      </c>
+      <c r="P23" s="6" t="inlineStr"/>
       <c r="Q23" s="6" t="inlineStr">
         <is>
           <t>CM</t>
@@ -1969,55 +1963,43 @@
       </c>
       <c r="T23" s="6" t="inlineStr">
         <is>
-          <t>meeting was cut short whilst JH gave feedback on these entities. JH, please could you give feedback here? I think the suggestion was to combine these two entities (BCIO:008550 and BCIO:008555)</t>
+          <t>this entity was added to allow us to more flexibly capture frequencies that have been broken down into period and repetitions. This is useful for annotations but we are unsure if it makes ontological sense to include it as it isn't really distinct from a frequency itself and relates more to how a frequency is described. Perhaps this also isn't really distinct from duration of BCI/part (CM)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="inlineStr">
         <is>
-          <t>BCIO:008600</t>
+          <t>BCIO:008570</t>
         </is>
       </c>
       <c r="B24" s="6" t="inlineStr">
         <is>
-          <t>z) frequency period</t>
-        </is>
-      </c>
-      <c r="C24" s="6" t="inlineStr">
-        <is>
-          <t>A temporal interval that is the length of time from start to end of an intervention temporal part</t>
-        </is>
-      </c>
-      <c r="D24" s="6" t="inlineStr">
-        <is>
-          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
-        </is>
-      </c>
+          <t>z) interval (remove)</t>
+        </is>
+      </c>
+      <c r="C24" s="6" t="inlineStr"/>
+      <c r="D24" s="6" t="inlineStr"/>
       <c r="E24" s="6" t="inlineStr"/>
-      <c r="F24" s="6" t="inlineStr">
-        <is>
-          <t>Participants received 3 emails every "2" weeks</t>
-        </is>
-      </c>
-      <c r="G24" s="6" t="inlineStr"/>
+      <c r="F24" s="6" t="inlineStr"/>
+      <c r="G24" s="6" t="inlineStr">
+        <is>
+          <t>This is not annotated but included due to relationship with duration of interval</t>
+        </is>
+      </c>
       <c r="H24" s="6" t="inlineStr"/>
       <c r="I24" s="6" t="inlineStr"/>
       <c r="J24" s="6" t="inlineStr"/>
-      <c r="K24" s="6" t="inlineStr">
-        <is>
-          <t>intervention temporal part</t>
-        </is>
-      </c>
+      <c r="K24" s="6" t="inlineStr"/>
       <c r="L24" s="6" t="inlineStr"/>
       <c r="M24" s="6" t="inlineStr"/>
       <c r="N24" s="6" t="inlineStr"/>
-      <c r="O24" s="6" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="P24" s="6" t="inlineStr"/>
+      <c r="O24" s="6" t="inlineStr"/>
+      <c r="P24" s="6" t="inlineStr">
+        <is>
+          <t>entity added so duration of interval can be specified. not sure what parent/relationships should be</t>
+        </is>
+      </c>
       <c r="Q24" s="6" t="inlineStr">
         <is>
           <t>CM</t>
@@ -2033,45 +2015,59 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T24" s="6" t="inlineStr">
-        <is>
-          <t>this entity was added to allow us to more flexibly capture frequencies that have been broken down into period and repetitions. This is useful for annotations but we are unsure if it makes ontological sense to include it as it isn't really distinct from a frequency itself and relates more to how a frequency is described. Perhaps this also isn't really distinct from duration of BCI/part (CM)</t>
-        </is>
-      </c>
+      <c r="T24" s="6" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="6" t="inlineStr">
         <is>
-          <t>BCIO:008570</t>
+          <t>BCIO:008520</t>
         </is>
       </c>
       <c r="B25" s="6" t="inlineStr">
         <is>
-          <t>z) interval (remove)</t>
-        </is>
-      </c>
-      <c r="C25" s="6" t="inlineStr"/>
-      <c r="D25" s="6" t="inlineStr"/>
-      <c r="E25" s="6" t="inlineStr"/>
+          <t>z) intervention temporal part frequency</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>An attribute of a BCI schedule of delivery that is how often intervention temporal parts occur within a BCI.</t>
+        </is>
+      </c>
+      <c r="D25" s="6" t="inlineStr">
+        <is>
+          <t>process attribute</t>
+        </is>
+      </c>
+      <c r="E25" s="6" t="inlineStr">
+        <is>
+          <t>Contact events are intervention temporal parts so this entity also describes the frequency of contact events.</t>
+        </is>
+      </c>
       <c r="F25" s="6" t="inlineStr"/>
       <c r="G25" s="6" t="inlineStr">
         <is>
-          <t>This is not annotated but included due to relationship with duration of interval</t>
+          <t>This is used to capture descriptions of the frequency of contact events within a part. 
+Example annotation (in context)
+intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks"</t>
         </is>
       </c>
       <c r="H25" s="6" t="inlineStr"/>
       <c r="I25" s="6" t="inlineStr"/>
       <c r="J25" s="6" t="inlineStr"/>
-      <c r="K25" s="6" t="inlineStr"/>
+      <c r="K25" s="6" t="inlineStr">
+        <is>
+          <t>contact event</t>
+        </is>
+      </c>
       <c r="L25" s="6" t="inlineStr"/>
       <c r="M25" s="6" t="inlineStr"/>
       <c r="N25" s="6" t="inlineStr"/>
-      <c r="O25" s="6" t="inlineStr"/>
-      <c r="P25" s="6" t="inlineStr">
-        <is>
-          <t>entity added so duration of interval can be specified. not sure what parent/relationships should be</t>
-        </is>
-      </c>
+      <c r="O25" s="6" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="P25" s="6" t="inlineStr"/>
       <c r="Q25" s="6" t="inlineStr">
         <is>
           <t>CM</t>
@@ -2087,7 +2083,11 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T25" s="6" t="inlineStr"/>
+      <c r="T25" s="6" t="inlineStr">
+        <is>
+          <t>need to decide whether to have a separate additional entity for frequency of contact events (CM)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -1233,11 +1233,7 @@
           <t>frequency (PATO)</t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>Contact events are intervention temporal parts so this entity also describes the frequency of contact events.</t>
-        </is>
-      </c>
+      <c r="E12" s="4" t="inlineStr"/>
       <c r="F12" s="4" t="inlineStr">
         <is>
           <t>Participants took part in 90 minutes of PA "weekly"</t>

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -1409,7 +1409,7 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>o) irregular schedule</t>
+          <t>o) irregular intervention schedule</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -1168,7 +1168,7 @@
       </c>
       <c r="F11" s="5" t="inlineStr">
         <is>
-          <t>child birth; GP appointment</t>
+          <t>A feedback call was scheduled to be delivered around 6 months after the birth of the baby; The smoking intervention started 2 weeks after participants were enrolled into an inpatient setting</t>
         </is>
       </c>
       <c r="G11" s="5" t="inlineStr">

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -701,9 +701,7 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>Temporal parts are defined by the authors of reports. They usually group contact events with similar delivery (e.g. face-to-face), content (e.g. CBT), or contextual features (e.g. school lessons), in order to describe their schedule. 
-Intervention temporal parts are different from contact events as they are not repeated during an intervention, so they do not have frequencies. However, the contact events within intervention temporal parts can have frequencies. For example, a 6 week course of CBT sessions is not repeated during an intervention, but the individual hour long sessions/contact events are repeated weekly.
-Sometimes authors break a contact event up even further into temporal parts during which a particular type of content/BCT is delivered within a contact event, so that they can thoroughly describe the order/duration of the delivery of these parts. Parts can also be broken down in a purely temporal manner (e.g. the first 6 weeks) to describe schedule aspects associated with this specific parts of the intervention.</t>
+          <t xml:space="preserve">Temporal parts are defined by the authors of reports. They usually group contact events with similar delivery (e.g. face-to-face), content (e.g. CBT), or contextual features (e.g. school lessons), in order to describe their schedule. </t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -623,37 +623,47 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008510</t>
+          <t>BCIO:008505</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>b) contact event</t>
+          <t>b) intervention temporal part</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">An intervention temporal part that is an occasion in which a member of a BCI population comes into contact with a BCI.  </t>
+          <t>A planned process that is a part of a BCI.</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>intervention temporal part</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr"/>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Temporal parts are defined by the authors of reports. They usually group contact events with similar delivery (e.g. face-to-face), content (e.g. CBT), or contextual features (e.g. school lessons), in order to describe their schedule. </t>
+        </is>
+      </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A counselling session; An online chat session; An advertisement display. </t>
+          <t>counselling sessions; the first 6 weeks of the intervention; group discussion; a presentation; the last 4 weeks of the intervention</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>This entity is never annotated. We have defined it as part of the schedule ontology as it is part of the definition of some other entities, but there is no need to annotate it as contact events are also parts so what is expressed can be sufficiently captured using just 'part' if needed.</t>
+          <t>Parts are a complex entity linked to many other BCIO sub-ontologies. In theory, interventions can be broken down into any number of parts, however, we only annotate this entity when the author has named a part AND used it to describe an aspect of the intervention schedule (e.g. given it a duration, defined the frequency of contact events within it, defined its order or an interval relative to a timepoint/another part).
+Example Annotations (in context):
+The "counselling sessions" took place each week for 6 weeks, and lasted roughly one hour; Each week, participants first took part in a "group discussion" on how the previous week had gone. Following that they "redefined their goals" on the basis of this discussion, then they received a "presentation" from a health specialist on a relevant topic;During the "first 6 weeks", participants received a phone call every two weeks, then for the "last 4 weeks", this was reduced to a weekly call;</t>
         </is>
       </c>
       <c r="H3" s="3" t="inlineStr"/>
-      <c r="I3" s="3" t="inlineStr"/>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
       <c r="J3" s="3" t="inlineStr"/>
       <c r="K3" s="3" t="inlineStr"/>
       <c r="L3" s="3" t="inlineStr"/>
@@ -663,7 +673,7 @@
       <c r="P3" s="3" t="inlineStr"/>
       <c r="Q3" s="3" t="inlineStr">
         <is>
-          <t>CM; RW</t>
+          <t>CM; EJH</t>
         </is>
       </c>
       <c r="R3" s="3" t="inlineStr">
@@ -681,47 +691,37 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008505</t>
+          <t>BCIO:008510</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>c) intervention temporal part</t>
+          <t>c) contact event</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>A planned process that is a part of a BCI.</t>
+          <t xml:space="preserve">An intervention temporal part that is an occasion in which a member of a BCI population comes into contact with a BCI.  </t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>planned process</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Temporal parts are defined by the authors of reports. They usually group contact events with similar delivery (e.g. face-to-face), content (e.g. CBT), or contextual features (e.g. school lessons), in order to describe their schedule. </t>
-        </is>
-      </c>
+          <t>intervention temporal part</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr"/>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>counselling sessions; the first 6 weeks of the intervention; group discussion; a presentation; the last 4 weeks of the intervention</t>
+          <t xml:space="preserve">A counselling session; An online chat session; An advertisement display. </t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>Parts are a complex entity linked to many other BCIO sub-ontologies. In theory, interventions can be broken down into any number of parts, however, we only annotate this entity when the author has named a part AND used it to describe an aspect of the intervention schedule (e.g. given it a duration, defined the frequency of contact events within it, defined its order or an interval relative to a timepoint/another part).
-Example Annotations (in context):
-The "counselling sessions" took place each week for 6 weeks, and lasted roughly one hour; Each week, participants first took part in a "group discussion" on how the previous week had gone. Following that they "redefined their goals" on the basis of this discussion, then they received a "presentation" from a health specialist on a relevant topic;During the "first 6 weeks", participants received a phone call every two weeks, then for the "last 4 weeks", this was reduced to a weekly call;</t>
+          <t>This entity is never annotated. We have defined it as part of the schedule ontology as it is part of the definition of some other entities, but there is no need to annotate it as contact events are also parts so what is expressed can be sufficiently captured using just 'part' if needed.</t>
         </is>
       </c>
       <c r="H4" s="3" t="inlineStr"/>
-      <c r="I4" s="3" t="inlineStr">
-        <is>
-          <t>BCI</t>
-        </is>
-      </c>
+      <c r="I4" s="3" t="inlineStr"/>
       <c r="J4" s="3" t="inlineStr"/>
       <c r="K4" s="3" t="inlineStr"/>
       <c r="L4" s="3" t="inlineStr"/>
@@ -731,7 +731,7 @@
       <c r="P4" s="3" t="inlineStr"/>
       <c r="Q4" s="3" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>CM; RW; EJH</t>
         </is>
       </c>
       <c r="R4" s="3" t="inlineStr">

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -49,12 +49,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
+        <fgColor rgb="00eee8aa"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00eee8aa"/>
+        <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
     <fill>
@@ -1019,275 +1019,275 @@
       <c r="T8" s="3" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>BCIO:0050000</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>h) contact event frequency</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>An attribute of a BCI schedule that is how often contact events occur within a BCI or intervention temporal part</t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>frequency (PATO)</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr"/>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr"/>
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>twice a week; daily; one a week</t>
         </is>
       </c>
-      <c r="G9" s="4" t="inlineStr">
+      <c r="G9" s="3" t="inlineStr">
         <is>
           <t>This is used to capture descriptions of the frequency of contact events within a part. 
 Example annotation (in context)
 intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks"</t>
         </is>
       </c>
-      <c r="H9" s="4" t="inlineStr"/>
-      <c r="I9" s="4" t="inlineStr"/>
-      <c r="J9" s="4" t="inlineStr"/>
-      <c r="K9" s="4" t="inlineStr"/>
-      <c r="L9" s="4" t="inlineStr"/>
-      <c r="M9" s="4" t="inlineStr"/>
-      <c r="N9" s="4" t="inlineStr"/>
-      <c r="O9" s="4" t="inlineStr"/>
-      <c r="P9" s="4" t="inlineStr"/>
-      <c r="Q9" s="4" t="inlineStr">
+      <c r="H9" s="3" t="inlineStr"/>
+      <c r="I9" s="3" t="inlineStr"/>
+      <c r="J9" s="3" t="inlineStr"/>
+      <c r="K9" s="3" t="inlineStr"/>
+      <c r="L9" s="3" t="inlineStr"/>
+      <c r="M9" s="3" t="inlineStr"/>
+      <c r="N9" s="3" t="inlineStr"/>
+      <c r="O9" s="3" t="inlineStr"/>
+      <c r="P9" s="3" t="inlineStr"/>
+      <c r="Q9" s="3" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R9" s="4" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S9" s="4" t="inlineStr"/>
-      <c r="T9" s="4" t="inlineStr"/>
+      <c r="R9" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="S9" s="3" t="inlineStr"/>
+      <c r="T9" s="3" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>BCIO:008515</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>i) number of contact events</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>A count data item that is the number of contact events in an intervention temporal part</t>
         </is>
       </c>
-      <c r="D10" s="5" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">data item - Count (STATO_0000047) </t>
         </is>
       </c>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr"/>
+      <c r="F10" s="3" t="inlineStr">
         <is>
           <t>one; 6; 12; twenty</t>
         </is>
       </c>
-      <c r="G10" s="5" t="inlineStr">
+      <c r="G10" s="3" t="inlineStr">
         <is>
           <t>This entity is used to capture the number of contacts in an intervention or part. We annotate only the number and include the sentence as context. When there is only one session in a part, we can annotate non-numerical words to indicate this, e.g. 'participants attended "a" gp visit'. Sometimes authors will break parts down in which case we annotate the number of contact events which add together to create a total e.g. 'at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes'.
 Example annotations (in context):
 participants attended "a" gp visit ; at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes</t>
         </is>
       </c>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr">
+      <c r="H10" s="3" t="inlineStr"/>
+      <c r="I10" s="3" t="inlineStr"/>
+      <c r="J10" s="3" t="inlineStr"/>
+      <c r="K10" s="3" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr">
+      <c r="L10" s="3" t="inlineStr"/>
+      <c r="M10" s="3" t="inlineStr"/>
+      <c r="N10" s="3" t="inlineStr"/>
+      <c r="O10" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P10" s="5" t="inlineStr"/>
-      <c r="Q10" s="5" t="inlineStr">
+      <c r="P10" s="3" t="inlineStr"/>
+      <c r="Q10" s="3" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R10" s="5" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="S10" s="5" t="inlineStr">
+      <c r="R10" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="S10" s="3" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T10" s="5" t="inlineStr"/>
+      <c r="T10" s="3" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>BCIO:008530</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>j) temporal reference associated with the intervention</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>A statement which describes how the delivery of intervention parts is scheduled relative to associated external events.</t>
         </is>
       </c>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr"/>
+      <c r="E11" s="4" t="inlineStr">
         <is>
           <t>Temporal references are used by authors when there is a behaviourally relevant event which structures the schedule of a BCI. This can include things like, childbirth, medical operations etc.</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>A feedback call was scheduled to be delivered around 6 months after the birth of the baby; The smoking intervention started 2 weeks after participants were enrolled into an inpatient setting</t>
         </is>
       </c>
-      <c r="G11" s="5" t="inlineStr">
+      <c r="G11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Annotate the words used by authors to describe key events which are not themselves part of the intervention but are relevant to the description of the schedule of the intervention.
 Example annotation in context:
 "A feedback call was scheduled to be delivered around 6 months after the birth of the baby". </t>
         </is>
       </c>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr">
+      <c r="H11" s="4" t="inlineStr"/>
+      <c r="I11" s="4" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr">
+      <c r="J11" s="4" t="inlineStr"/>
+      <c r="K11" s="4" t="inlineStr"/>
+      <c r="L11" s="4" t="inlineStr"/>
+      <c r="M11" s="4" t="inlineStr"/>
+      <c r="N11" s="4" t="inlineStr"/>
+      <c r="O11" s="4" t="inlineStr"/>
+      <c r="P11" s="4" t="inlineStr">
         <is>
           <t>check relationships</t>
         </is>
       </c>
-      <c r="Q11" s="5" t="inlineStr">
+      <c r="Q11" s="4" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R11" s="5" t="inlineStr">
+      <c r="R11" s="4" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S11" s="5" t="inlineStr">
+      <c r="S11" s="4" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T11" s="5" t="inlineStr"/>
+      <c r="T11" s="4" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>BCIO:0050000</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>k) intervention temporal part frequency</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>An attribute of a BCI schedule of delivery that is how often intervention temporal parts occur within a BCI.</t>
         </is>
       </c>
-      <c r="D12" s="4" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>frequency (PATO)</t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr"/>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>Participants took part in 90 minutes of PA "weekly"</t>
         </is>
       </c>
-      <c r="G12" s="4" t="inlineStr"/>
-      <c r="H12" s="4" t="inlineStr"/>
-      <c r="I12" s="4" t="inlineStr"/>
-      <c r="J12" s="4" t="inlineStr"/>
-      <c r="K12" s="4" t="inlineStr"/>
-      <c r="L12" s="4" t="inlineStr"/>
-      <c r="M12" s="4" t="inlineStr"/>
-      <c r="N12" s="4" t="inlineStr"/>
-      <c r="O12" s="4" t="inlineStr"/>
-      <c r="P12" s="4" t="inlineStr"/>
-      <c r="Q12" s="4" t="inlineStr">
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr"/>
+      <c r="L12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="inlineStr"/>
+      <c r="N12" s="5" t="inlineStr"/>
+      <c r="O12" s="5" t="inlineStr"/>
+      <c r="P12" s="5" t="inlineStr"/>
+      <c r="Q12" s="5" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R12" s="4" t="inlineStr">
+      <c r="R12" s="5" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="S12" s="4" t="inlineStr"/>
-      <c r="T12" s="4" t="inlineStr"/>
+      <c r="S12" s="5" t="inlineStr"/>
+      <c r="T12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>BCIO:008545</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>k) total contact event duration</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>A data item that is the total duration of all contact events in an intervention temporal part</t>
         </is>
       </c>
-      <c r="D13" s="5" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr"/>
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t>150 minutes; 12 hours</t>
         </is>
       </c>
-      <c r="G13" s="5" t="inlineStr">
+      <c r="G13" s="4" t="inlineStr">
         <is>
           <t>Use this entity when authors describe the total amount of contact time for a particular part/intervention across multiple contact events.
 When there is only one session, the total duration of contact events and the duration of a single contact event are technically the same. As a convention, we would annotate this under duration of contact event
@@ -1295,43 +1295,43 @@
 participants received "150" minutes of face-to-face counselling, split across five 30 minute sessions</t>
         </is>
       </c>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr">
+      <c r="H13" s="4" t="inlineStr"/>
+      <c r="I13" s="4" t="inlineStr"/>
+      <c r="J13" s="4" t="inlineStr"/>
+      <c r="K13" s="4" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr">
+      <c r="L13" s="4" t="inlineStr"/>
+      <c r="M13" s="4" t="inlineStr"/>
+      <c r="N13" s="4" t="inlineStr"/>
+      <c r="O13" s="4" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="P13" s="5" t="inlineStr">
+      <c r="P13" s="4" t="inlineStr">
         <is>
           <t>"is about" contact events or "is about" duration of contact events?</t>
         </is>
       </c>
-      <c r="Q13" s="5" t="inlineStr">
+      <c r="Q13" s="4" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="R13" s="5" t="inlineStr">
+      <c r="R13" s="4" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="S13" s="5" t="inlineStr">
+      <c r="S13" s="4" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="T13" s="5" t="inlineStr">
+      <c r="T13" s="4" t="inlineStr">
         <is>
           <t>what type of data item is this? (CM)</t>
         </is>

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -1036,7 +1036,7 @@
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>frequency (PATO)</t>
+          <t>frequency (PATO) PATO:0000044</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr"/>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>frequency (PATO)</t>
+          <t>frequency (PATO) PATO:0000044</t>
         </is>
       </c>
       <c r="E12" s="5" t="inlineStr"/>

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -1021,7 +1021,7 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>BCIO:0050000</t>
+          <t>BCIO:008700</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
@@ -1063,7 +1063,7 @@
       <c r="P9" s="3" t="inlineStr"/>
       <c r="Q9" s="3" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>CM; JH</t>
         </is>
       </c>
       <c r="R9" s="3" t="inlineStr">
@@ -1213,7 +1213,7 @@
     <row r="12">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>BCIO:0050000</t>
+          <t>BCIO:008710</t>
         </is>
       </c>
       <c r="B12" s="5" t="inlineStr">
@@ -1249,7 +1249,7 @@
       <c r="P12" s="5" t="inlineStr"/>
       <c r="Q12" s="5" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>CM; JH</t>
         </is>
       </c>
       <c r="R12" s="5" t="inlineStr">

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -587,11 +587,11 @@
       <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>This sub-ontology is used to capture descriptions of the intervention schedule within published reports. This includes descriptions of the duration and frequency of contact events, the length of parts of the intervention (e.g. 6 weeks), the order through which intervention content is presented, and the relative timing of contact events and key timepoints of relevance for the intervention (e.g. quit date/childbirth). 
-Schedule is annotated for all arms of the intervention, including control arms even when no content is delivered targeting the target behaviour. This is because it's often important to know whether the contact time of the control and intervention groups matched. 
+          <t>This sub-ontology is used to capture descriptions of the intervention schedule within published reports. This includes descriptions of the duration and frequency of contact events, the length of parts of the intervention (e.g. 6 weeks), and the relative timing of contact events and key timepoints of relevance for the intervention (e.g. quit date/childbirth). 
+The schedule of delivery is annotated for all arms of the intervention, including control arms even when no content is delivered targeting the target behaviour. This is because it's often important to know whether the contact time of the control and intervention groups matched. 
 To describe intervention schedules, authors usually break interventions down into parts (e.g. the counselling component, phase one of the intervention, the first 4 weeks of the intervention) to describe the scheduling of contact events within each part (e.g. weekly 1hr long sessions, 3 telephone calls per week), and to describe the order and timing of these parts relative to each other and relative to described timepoints.
 Papers are varied in the way in which intervention schedules are described, and the level of detail given. This sub-ontology is designed to capture as much detail as possible within a coherent framework.
-Schedule does not include things like 'number of booklets'. This forms part of dose</t>
+Schedule does not include things like 'number of booklets' or 'number of BCTs'. This forms part of dose</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr"/>
@@ -653,9 +653,9 @@
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>Parts are a complex entity linked to many other BCIO sub-ontologies. In theory, interventions can be broken down into any number of parts, however, we only annotate this entity when the author has named a part AND used it to describe an aspect of the intervention schedule (e.g. given it a duration, defined the frequency of contact events within it, defined its order or an interval relative to a timepoint/another part).
+          <t>Interventions can be broken down into any number of parts, however, we only annotate this entity when the author has named a part AND used it to describe an aspect of the intervention schedule (e.g. given it a duration, defined the frequency of contact events within it, or an interval relative to a timepoint/another part).
 Example Annotations (in context):
-The "counselling sessions" took place each week for 6 weeks, and lasted roughly one hour; Each week, participants first took part in a "group discussion" on how the previous week had gone. Following that they "redefined their goals" on the basis of this discussion, then they received a "presentation" from a health specialist on a relevant topic;During the "first 6 weeks", participants received a phone call every two weeks, then for the "last 4 weeks", this was reduced to a weekly call;</t>
+The "counselling sessions" took place each week for 6 weeks, and lasted roughly one hour; During the "first 6 weeks", participants received a phone call every two weeks, then for the "last 4 weeks", this was reduced to a weekly call;</t>
         </is>
       </c>
       <c r="H3" s="3" t="inlineStr"/>
@@ -709,7 +709,11 @@
           <t>intervention temporal part</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>All contact events are temporal parts, but not all temporal parts are contact events. Whilst contact events are single continuous events, temporal parts of an intervention can  group together multiple different contact events which might have similar features. For example, a set of 10 counselling sessions might be a temporal part within an intervention. The same intervention can have a set of 5 exercise sessions. These 5 sessions together make up another temporal part. Each single session within these parts  is a contact event.</t>
+        </is>
+      </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A counselling session; An online chat session; An advertisement display. </t>
@@ -717,7 +721,7 @@
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>This entity is never annotated. We have defined it as part of the schedule ontology as it is part of the definition of some other entities, but there is no need to annotate it as contact events are also parts so what is expressed can be sufficiently captured using just 'part' if needed.</t>
+          <t>This entity is never annotated. We have defined it as part of the schedule ontology as it is part of the definition of some other entities, but there is no need to annotate it as individual contact events are rarely named within intervention descriptions.</t>
         </is>
       </c>
       <c r="H4" s="3" t="inlineStr"/>
@@ -775,9 +779,9 @@
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>This is used to capture the overall duration of intervention delivery from first to last contact of an intervention. It does not include follow-up periods during which no content is delivered. We annotate only the number and the unit is derived from the context
-Example Annotation (in context)
-The intervention ran over "6" weeks, with weekly counselling sessions and biweekly exercise classes</t>
+          <t>This is used to capture the overall duration of intervention delivery from first to last contact of an intervention. It does not include follow-up periods during which no content is delivered. We annotate only the number and the unit is derived from the context. 
+Example Annotation (in context): The intervention ran over "6" weeks, with weekly counselling sessions and biweekly exercise classes 
+This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author</t>
         </is>
       </c>
       <c r="H5" s="3" t="inlineStr"/>
@@ -843,9 +847,9 @@
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">This is used to capture the duration of contact events. We annotate only the number and the unit is derived from the context.
-Example annotation (in context):
-The intervention ran over "6" weeks, with weekly counselling sessions and biweekly exercise classes”  </t>
+          <t xml:space="preserve">This is used to capture the duration of contact events. We annotate only the number and the unit is derived from the context. Sometimes, contact events are broken down further to describe the length of time alloted to particular aspects of content delivery. In this case, these shorter lengths of time are also annotated under contact event duration. 
+Example annotation (in context): Counselling sessions lasted for "1" hour; Exercise classes where "1" hour long with "15" minutes of instructions and "45' minutes of practice 
+This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author </t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr"/>
@@ -911,9 +915,9 @@
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>This is used to capture the overal duration of parts. We annotate only the number and the unit is derived from the context
-Example annotation (in context):
-The counselling sessions ran over a "6" week period, whilst the exercise classes took place over "2" weeks</t>
+          <t xml:space="preserve">This is used to capture the overall duration of parts. We annotate only the number and the unit is derived from the context 
+Example annotation (in context): The counselling sessions ran over a "6" week period, whilst the exercise classes took place over "2" weeks 
+This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author </t>
         </is>
       </c>
       <c r="H7" s="3" t="inlineStr"/>
@@ -979,9 +983,9 @@
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>This is used to capture intervals between BCI parts and timepoints. We annotate only the number and the unit is derived from the context
-Example annotation (in context)
-Exercise classes started "2 weeks" after the education phase of the intervention.</t>
+          <t xml:space="preserve">This is used to capture intervals between BCI parts and timepoints. We annotate only the number and the unit is derived from the context 
+Example annotation (in context): Exercise classes started "2 weeks" after the education phase of the intervention. 
+This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author </t>
         </is>
       </c>
       <c r="H8" s="3" t="inlineStr"/>
@@ -1047,9 +1051,8 @@
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>This is used to capture descriptions of the frequency of contact events within a part. 
-Example annotation (in context)
-intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks"</t>
+          <t xml:space="preserve">This is used to capture descriptions of the frequency of contact events within a part.  
+Example annotation (in context): intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks" </t>
         </is>
       </c>
       <c r="H9" s="3" t="inlineStr"/>
@@ -1103,9 +1106,9 @@
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>This entity is used to capture the number of contacts in an intervention or part. We annotate only the number and include the sentence as context. When there is only one session in a part, we can annotate non-numerical words to indicate this, e.g. 'participants attended "a" gp visit'. Sometimes authors will break parts down in which case we annotate the number of contact events which add together to create a total e.g. 'at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes'.
-Example annotations (in context):
-participants attended "a" gp visit ; at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes</t>
+          <t xml:space="preserve">This entity is used to capture the number of contacts in an intervention or part. We annotate only the number and include the sentence as context. When there is only one session in a part, we can annotate non-numerical words to indicate this, e.g. 'participants attended "a" gp visit'. Sometimes authors will break parts down in which case we annotate the number of contact events which add together to create a total e.g. 'at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes'. 
+Example annotations (in context): participants attended "a" gp visit ; at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes 
+This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author </t>
         </is>
       </c>
       <c r="H10" s="3" t="inlineStr"/>
@@ -1161,7 +1164,7 @@
       <c r="D11" s="4" t="inlineStr"/>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>Temporal references are used by authors when there is a behaviourally relevant event which structures the schedule of a BCI. This can include things like, childbirth, medical operations etc.</t>
+          <t>Temporal references are used by authors when there is a behaviourally relevant event which structures the schedule of a BCI. This can include things like quit dates, childbirth, medical operations etc.</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
@@ -1171,9 +1174,8 @@
       </c>
       <c r="G11" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Annotate the words used by authors to describe key events which are not themselves part of the intervention but are relevant to the description of the schedule of the intervention.
-Example annotation in context:
-"A feedback call was scheduled to be delivered around 6 months after the birth of the baby". </t>
+          <t xml:space="preserve">Annotate the words used by authors to describe key events which are not themselves part of the intervention but are relevant to the description of the schedule of the intervention. 
+Example annotation in context: "A feedback call was scheduled to be delivered around 6 months after the birth of the baby".  </t>
         </is>
       </c>
       <c r="H11" s="4" t="inlineStr"/>
@@ -1231,13 +1233,22 @@
           <t>frequency (PATO) PATO:0000044</t>
         </is>
       </c>
-      <c r="E12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>This is useful when grouping contact events together to the schedule of an intervention. For example, authors may describe participants as taking part in 90 minutes of physical activity weekly. These 90 minutes could be split across several contact events, however together these contact events form an intervention part which occurs weekly.</t>
+        </is>
+      </c>
       <c r="F12" s="5" t="inlineStr">
         <is>
           <t>Participants took part in 90 minutes of PA "weekly"</t>
         </is>
       </c>
-      <c r="G12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use this entity to annotate descriptions of the frequency of intervention temporal parts  that may be spread over multiple sessions. Usually descriptions refer to the frequency of a single session (e.g. a weekly telephone call) in which case you can annotate using contact event frequency. However, occasionally authors describe frequencies which may take place over multiple contact events. For example, participants may be required to take part in a certain amount of physical activity each week, which can be split over multiple sessions. In this case, annotate using intervention temporal part frequency.  
+Example annotation in context: Participants took part in 90 minutes of PA "weekly" </t>
+        </is>
+      </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="inlineStr"/>
@@ -1289,10 +1300,10 @@
       </c>
       <c r="G13" s="4" t="inlineStr">
         <is>
-          <t>Use this entity when authors describe the total amount of contact time for a particular part/intervention across multiple contact events.
-When there is only one session, the total duration of contact events and the duration of a single contact event are technically the same. As a convention, we would annotate this under duration of contact event
-Example annotation in context:
-participants received "150" minutes of face-to-face counselling, split across five 30 minute sessions</t>
+          <t xml:space="preserve">Use this entity when authors describe the total amount of contact time for a particular part/intervention across multiple contact events. 
+When there is only one session, the total duration of contact events and the duration of a single contact event are technically the same. As a convention, we would annotate this using duration of contact event instead of total duration of contact event. 
+Example annotation in context: participants received "150" minutes of face-to-face counselling, split across five 30 minute sessions; participants took part in “90” minutes of PA weekly, spread across several sessions 
+This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author </t>
         </is>
       </c>
       <c r="H13" s="4" t="inlineStr"/>
@@ -1366,7 +1377,8 @@
       </c>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>This is used to capture when the author specifies that the schedule (length and frequency of contact events) does not change over the course of a part. This is rarely annotated as it is not usually explicitly stated.</t>
+          <t xml:space="preserve">This is used to capture when the author specifies that the schedule (length and frequency of contact events) does not change over the course of a part. This is rarely annotated as it is not usually explicitly stated. 
+Example annotation in context: "The length and regularity of sessions were consistent across the duration of the intervention" </t>
         </is>
       </c>
       <c r="H14" s="3" t="inlineStr"/>
@@ -1428,7 +1440,8 @@
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>We use this to capture instances when it is clear that the schedule (i.e. duration and frequency of contact events) varies over the course of a part, but we are unable to capture the specific schedule</t>
+          <t xml:space="preserve">We use this to capture instances when authors state that the schedule (i.e. duration and frequency of contact events) varies over the course of a part or intervention. 
+Example annotation in context: "participants were free to access the app as and when they desired";"telephone feedback sessions were more frequent during the first 6 weeks" </t>
         </is>
       </c>
       <c r="H15" s="3" t="inlineStr"/>

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -789,7 +789,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>temporal interval</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr"/>

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,453 +900,547 @@
       <c r="U6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PATO:0000044</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>frequency</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A physical quality which inheres in a bearer by virtue of the number of the bearer's repetitive actions in a particular time.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>specifically dependent continuant</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>BCIO:008575</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>interval between intervention termporal parts</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>A data item that represents the temporal interval between the end of one intervention temporal part and the beginning of a subsequent intervention temporal part</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>The planned duration of a break between two parts of an intervention</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr"/>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr"/>
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>"2 weeks"; "1 day"</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">This is used to capture intervals between BCI parts and timepoints. We annotate only the number and the unit is derived from the context 
 Example annotation (in context): Exercise classes started "2 weeks" after the education phase of the intervention. 
 This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author </t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr"/>
-      <c r="J7" s="2" t="inlineStr"/>
-      <c r="K7" s="2" t="inlineStr"/>
-      <c r="L7" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr"/>
+      <c r="J8" s="2" t="inlineStr"/>
+      <c r="K8" s="2" t="inlineStr"/>
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>temporal interval</t>
         </is>
       </c>
-      <c r="M7" s="2" t="inlineStr"/>
-      <c r="N7" s="2" t="inlineStr"/>
-      <c r="O7" s="2" t="inlineStr"/>
-      <c r="P7" s="2" t="inlineStr">
+      <c r="M8" s="2" t="inlineStr"/>
+      <c r="N8" s="2" t="inlineStr"/>
+      <c r="O8" s="2" t="inlineStr"/>
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q7" s="2" t="inlineStr"/>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="Q8" s="2" t="inlineStr"/>
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>CM; JH</t>
         </is>
       </c>
-      <c r="S7" s="2" t="inlineStr">
+      <c r="S8" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="T7" s="2" t="inlineStr">
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U7" s="2" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="U8" s="2" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>BCIO:008505</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>intervention temporal part</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>A planned process that is a part of a BCI.</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>A planned part of an intervention</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Temporal parts are defined by the authors of reports. They usually group contact events with similar delivery (e.g. face-to-face), content (e.g. CBT), or contextual features (e.g. school lessons), in order to describe their schedule. </t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>counselling sessions; the first 6 weeks of the intervention; group discussion; a presentation; the last 4 weeks of the intervention</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>Interventions can be broken down into any number of parts, however, we only annotate this entity when the author has named a part AND used it to describe an aspect of the intervention schedule (e.g. given it a duration, defined the frequency of contact events within it, or an interval relative to a timepoint/another part).
 Example Annotations (in context):
 The "counselling sessions" took place each week for 6 weeks, and lasted roughly one hour; During the "first 6 weeks", participants received a phone call every two weeks, then for the "last 4 weeks", this was reduced to a weekly call;</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr"/>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr"/>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>BCI</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr"/>
-      <c r="L8" s="2" t="inlineStr"/>
-      <c r="M8" s="2" t="inlineStr"/>
-      <c r="N8" s="2" t="inlineStr"/>
-      <c r="O8" s="2" t="inlineStr"/>
-      <c r="P8" s="2" t="inlineStr"/>
-      <c r="Q8" s="2" t="inlineStr"/>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr"/>
+      <c r="L9" s="2" t="inlineStr"/>
+      <c r="M9" s="2" t="inlineStr"/>
+      <c r="N9" s="2" t="inlineStr"/>
+      <c r="O9" s="2" t="inlineStr"/>
+      <c r="P9" s="2" t="inlineStr"/>
+      <c r="Q9" s="2" t="inlineStr"/>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>CM; EJH</t>
         </is>
       </c>
-      <c r="S8" s="2" t="inlineStr">
+      <c r="S9" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="T8" s="2" t="inlineStr">
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U8" s="2" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="U9" s="2" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>BCIO:008565</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>intervention temporal part duration</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>A data item that represents the temporal interval between the start and end of an intervention temporal part</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>The planned duration of a part of an intervention</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr"/>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr"/>
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>6 weeks; 2 weeks</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">This is used to capture the overall duration of parts. We annotate only the number and the unit is derived from the context 
 Example annotation (in context): The counselling sessions ran over a "6" week period, whilst the exercise classes took place over "2" weeks 
 This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author </t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr"/>
-      <c r="J9" s="2" t="inlineStr"/>
-      <c r="K9" s="2" t="inlineStr"/>
-      <c r="L9" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr"/>
+      <c r="J10" s="2" t="inlineStr"/>
+      <c r="K10" s="2" t="inlineStr"/>
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>temporal interval</t>
         </is>
       </c>
-      <c r="M9" s="2" t="inlineStr"/>
-      <c r="N9" s="2" t="inlineStr"/>
-      <c r="O9" s="2" t="inlineStr"/>
-      <c r="P9" s="2" t="inlineStr">
+      <c r="M10" s="2" t="inlineStr"/>
+      <c r="N10" s="2" t="inlineStr"/>
+      <c r="O10" s="2" t="inlineStr"/>
+      <c r="P10" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q9" s="2" t="inlineStr"/>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="Q10" s="2" t="inlineStr"/>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>CM; JH</t>
         </is>
       </c>
-      <c r="S9" s="2" t="inlineStr">
+      <c r="S10" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="T9" s="2" t="inlineStr">
+      <c r="T10" s="2" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U9" s="2" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="U10" s="2" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>BCIO:008710</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>intervention temporal part frequency</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>An attribute of a BCI schedule of delivery that is how often intervention temporal parts occur within a BCI.</t>
         </is>
       </c>
-      <c r="D10" s="4" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>How often intervention parts are planned to occur</t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr">
         <is>
           <t>frequency</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>This is useful when grouping contact events together to the schedule of an intervention. For example, authors may describe participants as taking part in 90 minutes of physical activity weekly. These 90 minutes could be split across several contact events, however together these contact events form an intervention part which occurs weekly.</t>
         </is>
       </c>
-      <c r="G10" s="4" t="inlineStr">
+      <c r="G11" s="4" t="inlineStr">
         <is>
           <t>Participants took part in 90 minutes of PA "weekly"</t>
         </is>
       </c>
-      <c r="H10" s="4" t="inlineStr">
+      <c r="H11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Use this entity to annotate descriptions of the frequency of intervention temporal parts  that may be spread over multiple sessions. Usually descriptions refer to the frequency of a single session (e.g. a weekly telephone call) in which case you can annotate using contact event frequency. However, occasionally authors describe frequencies which may take place over multiple contact events. For example, participants may be required to take part in a certain amount of physical activity each week, which can be split over multiple sessions. In this case, annotate using intervention temporal part frequency.  
 Example annotation in context: Participants took part in 90 minutes of PA "weekly" </t>
         </is>
       </c>
-      <c r="I10" s="4" t="inlineStr"/>
-      <c r="J10" s="4" t="inlineStr"/>
-      <c r="K10" s="4" t="inlineStr"/>
-      <c r="L10" s="4" t="inlineStr"/>
-      <c r="M10" s="4" t="inlineStr"/>
-      <c r="N10" s="4" t="inlineStr"/>
-      <c r="O10" s="4" t="inlineStr"/>
-      <c r="P10" s="4" t="inlineStr"/>
-      <c r="Q10" s="4" t="inlineStr"/>
-      <c r="R10" s="4" t="inlineStr">
+      <c r="I11" s="4" t="inlineStr"/>
+      <c r="J11" s="4" t="inlineStr"/>
+      <c r="K11" s="4" t="inlineStr"/>
+      <c r="L11" s="4" t="inlineStr"/>
+      <c r="M11" s="4" t="inlineStr"/>
+      <c r="N11" s="4" t="inlineStr"/>
+      <c r="O11" s="4" t="inlineStr"/>
+      <c r="P11" s="4" t="inlineStr"/>
+      <c r="Q11" s="4" t="inlineStr"/>
+      <c r="R11" s="4" t="inlineStr">
         <is>
           <t>CM; JH</t>
         </is>
       </c>
-      <c r="S10" s="4" t="inlineStr">
+      <c r="S11" s="4" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T10" s="4" t="inlineStr"/>
-      <c r="U10" s="4" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="T11" s="4" t="inlineStr"/>
+      <c r="U11" s="4" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>BCIO:008540</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>irregular intervention schedule</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events change over the course of a temporal part or BCI.  </t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>A type of schedule which plans that the duration and frequency of sessions or digital contacts vary across the course of an intervention</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr"/>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr"/>
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>telephone feedback sessions were more frequent during the first 6 weeks; participants were free to access the app whenever they desired</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">We use this to capture instances when authors state that the schedule (i.e. duration and frequency of contact events) varies over the course of a part or intervention. 
 Example annotation in context: "participants were free to access the app as and when they desired";"telephone feedback sessions were more frequent during the first 6 weeks" </t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr"/>
-      <c r="J11" s="2" t="inlineStr"/>
-      <c r="K11" s="2" t="inlineStr"/>
-      <c r="L11" s="2" t="inlineStr"/>
-      <c r="M11" s="2" t="inlineStr"/>
-      <c r="N11" s="2" t="inlineStr"/>
-      <c r="O11" s="2" t="inlineStr"/>
-      <c r="P11" s="2" t="inlineStr"/>
-      <c r="Q11" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr"/>
+      <c r="J12" s="2" t="inlineStr"/>
+      <c r="K12" s="2" t="inlineStr"/>
+      <c r="L12" s="2" t="inlineStr"/>
+      <c r="M12" s="2" t="inlineStr"/>
+      <c r="N12" s="2" t="inlineStr"/>
+      <c r="O12" s="2" t="inlineStr"/>
+      <c r="P12" s="2" t="inlineStr"/>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>relationship? is about schedule? or is a type of schedule?</t>
         </is>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>CM; JH</t>
         </is>
       </c>
-      <c r="S11" s="2" t="inlineStr">
+      <c r="S12" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="T11" s="2" t="inlineStr">
+      <c r="T12" s="2" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U11" s="2" t="inlineStr">
+      <c r="U12" s="2" t="inlineStr">
         <is>
           <t>should we also add separate entities for fixed and variable schedule, to describe cases when schedules vary across participants? We previously had these entities within the ontology but they were removed as they didn't come up explicitly in papers and our old definition of variable schedule overlapped with the definition for irregular schedule (CM)</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>BCIO:008515</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>number of contact events</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>A count data item that is the number of contact events in an intervention temporal part</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>The planned total number of sessions or digital contacts in an intervention or part</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr"/>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr"/>
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>one; 6; 12; twenty</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">This entity is used to capture the number of contacts in an intervention or part. We annotate only the number and include the sentence as context. When there is only one session in a part, we can annotate non-numerical words to indicate this, e.g. 'participants attended "a" gp visit'. Sometimes authors will break parts down in which case we annotate the number of contact events which add together to create a total e.g. 'at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes'. 
 Example annotations (in context): participants attended "a" gp visit ; at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes 
 This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author </t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr"/>
-      <c r="J12" s="2" t="inlineStr"/>
-      <c r="K12" s="2" t="inlineStr"/>
-      <c r="L12" s="2" t="inlineStr">
+      <c r="I13" s="2" t="inlineStr"/>
+      <c r="J13" s="2" t="inlineStr"/>
+      <c r="K13" s="2" t="inlineStr"/>
+      <c r="L13" s="2" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="M12" s="2" t="inlineStr"/>
-      <c r="N12" s="2" t="inlineStr"/>
-      <c r="O12" s="2" t="inlineStr"/>
-      <c r="P12" s="2" t="inlineStr">
+      <c r="M13" s="2" t="inlineStr"/>
+      <c r="N13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="inlineStr"/>
+      <c r="P13" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q12" s="2" t="inlineStr"/>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="Q13" s="2" t="inlineStr"/>
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>CM; JH</t>
         </is>
       </c>
-      <c r="S12" s="2" t="inlineStr">
+      <c r="S13" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="T12" s="2" t="inlineStr">
+      <c r="T13" s="2" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U12" s="2" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="inlineStr">
+      <c r="U13" s="2" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BFO:0000038</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A region of time.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>BCIO:008580</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>p) order</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>A part of BCI schedule which describes the relative temporal positioning of contact events, temporal parts and timepoints.</t>
         </is>
       </c>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr">
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr">
         <is>
           <t>"After questionnaires were completed, feedback was selected
 out of a database with messages for each possible combination
@@ -1355,125 +1449,19 @@
 levels to the PA guidelines."</t>
         </is>
       </c>
-      <c r="H13" s="5" t="inlineStr">
+      <c r="H15" s="5" t="inlineStr">
         <is>
           <t>This is annotated as an open code when any aspect of order is described</t>
-        </is>
-      </c>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
-      <c r="Q13" s="5" t="inlineStr"/>
-      <c r="R13" s="5" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="S13" s="5" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T13" s="5" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="U13" s="5" t="inlineStr">
-        <is>
-          <t>not sure about definitions and relationships. Should this be remove from the schedule ontology and instead form part of the relations ontology, like before and after? (CM)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>BCIO:008595</t>
-        </is>
-      </c>
-      <c r="B14" s="5" t="inlineStr">
-        <is>
-          <t>q) same time (remove - this is a relation like before and after)</t>
-        </is>
-      </c>
-      <c r="C14" s="5" t="inlineStr">
-        <is>
-          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it occurs whilst another temporal part or timepoint occurs</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr">
-        <is>
-          <t>This is not annotated</t>
-        </is>
-      </c>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
-      <c r="Q14" s="5" t="inlineStr"/>
-      <c r="R14" s="5" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="S14" s="5" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T14" s="5" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="U14" s="5" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="inlineStr">
-        <is>
-          <t>BCIO:008585</t>
-        </is>
-      </c>
-      <c r="B15" s="5" t="inlineStr">
-        <is>
-          <t>r) before (to be removed and added to list of relations)</t>
-        </is>
-      </c>
-      <c r="C15" s="5" t="inlineStr">
-        <is>
-          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it ends prior to the beginning of another temporal part or timepoint</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This is not annotated </t>
         </is>
       </c>
       <c r="I15" s="5" t="inlineStr"/>
       <c r="J15" s="5" t="inlineStr"/>
       <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
+      <c r="L15" s="5" t="inlineStr">
+        <is>
+          <t>BCI schedule of delivery</t>
+        </is>
+      </c>
       <c r="M15" s="5" t="inlineStr"/>
       <c r="N15" s="5" t="inlineStr"/>
       <c r="O15" s="5" t="inlineStr"/>
@@ -1481,7 +1469,7 @@
       <c r="Q15" s="5" t="inlineStr"/>
       <c r="R15" s="5" t="inlineStr">
         <is>
-          <t>CM; RW</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="S15" s="5" t="inlineStr">
@@ -1494,90 +1482,77 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U15" s="5" t="inlineStr"/>
+      <c r="U15" s="5" t="inlineStr">
+        <is>
+          <t>not sure about definitions and relationships. Should this be remove from the schedule ontology and instead form part of the relations ontology, like before and after? (CM)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:008535</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>regular intervention schedule</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of Intervention temporal parts are uniform across the course of a BCI or BCI part.  </t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>A type of schedule which plans that the duration and frequency of sessions or digital contacts remain constant across the course of an intervention</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr"/>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>the length and regularity of sessions were consistent across the duration of the intervention, taking place for an hour each week</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This is used to capture when the author specifies that the schedule (length and frequency of contact events) does not change over the course of a part. This is rarely annotated as it is not usually explicitly stated. 
-Example annotation in context: "The length and regularity of sessions were consistent across the duration of the intervention" </t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr"/>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
-      <c r="L16" s="2" t="inlineStr"/>
-      <c r="M16" s="2" t="inlineStr"/>
-      <c r="N16" s="2" t="inlineStr"/>
-      <c r="O16" s="2" t="inlineStr"/>
-      <c r="P16" s="2" t="inlineStr"/>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>relationship? is about schedule? or is a type of schedule?</t>
-        </is>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>CM; JH</t>
-        </is>
-      </c>
-      <c r="S16" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T16" s="2" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>BCIO:008595</t>
+        </is>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>q) same time (remove - this is a relation like before and after)</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it occurs whilst another temporal part or timepoint occurs</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr"/>
+      <c r="E16" s="5" t="inlineStr"/>
+      <c r="F16" s="5" t="inlineStr"/>
+      <c r="G16" s="5" t="inlineStr"/>
+      <c r="H16" s="5" t="inlineStr">
+        <is>
+          <t>This is not annotated</t>
+        </is>
+      </c>
+      <c r="I16" s="5" t="inlineStr"/>
+      <c r="J16" s="5" t="inlineStr"/>
+      <c r="K16" s="5" t="inlineStr"/>
+      <c r="L16" s="5" t="inlineStr"/>
+      <c r="M16" s="5" t="inlineStr"/>
+      <c r="N16" s="5" t="inlineStr"/>
+      <c r="O16" s="5" t="inlineStr"/>
+      <c r="P16" s="5" t="inlineStr"/>
+      <c r="Q16" s="5" t="inlineStr"/>
+      <c r="R16" s="5" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="S16" s="5" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T16" s="5" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U16" s="2" t="inlineStr"/>
+      <c r="U16" s="5" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>BCIO:008590</t>
+          <t>BCIO:008585</t>
         </is>
       </c>
       <c r="B17" s="5" t="inlineStr">
         <is>
-          <t>s) after (to be removed and added to list of relations)</t>
+          <t>r) before (to be removed and added to list of relations)</t>
         </is>
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it starts following the end of another temporal part or timepoint</t>
+          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it ends prior to the beginning of another temporal part or timepoint</t>
         </is>
       </c>
       <c r="D17" s="5" t="inlineStr"/>
@@ -1586,7 +1561,7 @@
       <c r="G17" s="5" t="inlineStr"/>
       <c r="H17" s="5" t="inlineStr">
         <is>
-          <t>This is not annotated</t>
+          <t xml:space="preserve">This is not annotated </t>
         </is>
       </c>
       <c r="I17" s="5" t="inlineStr"/>
@@ -1616,114 +1591,281 @@
       <c r="U17" s="5" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:008535</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>regular intervention schedule</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of Intervention temporal parts are uniform across the course of a BCI or BCI part.  </t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>A type of schedule which plans that the duration and frequency of sessions or digital contacts remain constant across the course of an intervention</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>BCI schedule of delivery</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>the length and regularity of sessions were consistent across the duration of the intervention, taking place for an hour each week</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This is used to capture when the author specifies that the schedule (length and frequency of contact events) does not change over the course of a part. This is rarely annotated as it is not usually explicitly stated. 
+Example annotation in context: "The length and regularity of sessions were consistent across the duration of the intervention" </t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr"/>
+      <c r="J18" s="2" t="inlineStr"/>
+      <c r="K18" s="2" t="inlineStr"/>
+      <c r="L18" s="2" t="inlineStr"/>
+      <c r="M18" s="2" t="inlineStr"/>
+      <c r="N18" s="2" t="inlineStr"/>
+      <c r="O18" s="2" t="inlineStr"/>
+      <c r="P18" s="2" t="inlineStr"/>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>relationship? is about schedule? or is a type of schedule?</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>CM; JH</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>BCIO:008590</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>s) after (to be removed and added to list of relations)</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it starts following the end of another temporal part or timepoint</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr"/>
+      <c r="E19" s="5" t="inlineStr"/>
+      <c r="F19" s="5" t="inlineStr"/>
+      <c r="G19" s="5" t="inlineStr"/>
+      <c r="H19" s="5" t="inlineStr">
+        <is>
+          <t>This is not annotated</t>
+        </is>
+      </c>
+      <c r="I19" s="5" t="inlineStr"/>
+      <c r="J19" s="5" t="inlineStr"/>
+      <c r="K19" s="5" t="inlineStr"/>
+      <c r="L19" s="5" t="inlineStr"/>
+      <c r="M19" s="5" t="inlineStr"/>
+      <c r="N19" s="5" t="inlineStr"/>
+      <c r="O19" s="5" t="inlineStr"/>
+      <c r="P19" s="5" t="inlineStr"/>
+      <c r="Q19" s="5" t="inlineStr"/>
+      <c r="R19" s="5" t="inlineStr">
+        <is>
+          <t>CM; RW</t>
+        </is>
+      </c>
+      <c r="S19" s="5" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T19" s="5" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="U19" s="5" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:050312</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>temporal interval</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A temporal interval is a one-dimensional temporal region, namely that is self-connected (is without gaps or breaks).
+</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr"/>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="inlineStr"/>
+      <c r="G20" s="4" t="inlineStr"/>
+      <c r="H20" s="4" t="inlineStr"/>
+      <c r="I20" s="4" t="inlineStr"/>
+      <c r="J20" s="4" t="inlineStr"/>
+      <c r="K20" s="4" t="inlineStr"/>
+      <c r="L20" s="4" t="inlineStr"/>
+      <c r="M20" s="4" t="inlineStr"/>
+      <c r="N20" s="4" t="inlineStr"/>
+      <c r="O20" s="4" t="inlineStr"/>
+      <c r="P20" s="4" t="inlineStr"/>
+      <c r="Q20" s="4" t="inlineStr"/>
+      <c r="R20" s="4" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="S20" s="4" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T20" s="4" t="inlineStr"/>
+      <c r="U20" s="4" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
         <is>
           <t>BCIO:008530</t>
         </is>
       </c>
-      <c r="B18" s="6" t="inlineStr">
+      <c r="B21" s="6" t="inlineStr">
         <is>
           <t>temporal reference associated with the intervention</t>
         </is>
       </c>
-      <c r="C18" s="6" t="inlineStr">
+      <c r="C21" s="6" t="inlineStr">
         <is>
           <t>A statement which describes how the delivery of intervention parts is scheduled relative to associated external events.</t>
         </is>
       </c>
-      <c r="D18" s="6" t="inlineStr">
+      <c r="D21" s="6" t="inlineStr">
         <is>
           <t>A statement which describes how the delivery of intervention parts is scheduled relative to associated external events.</t>
         </is>
       </c>
-      <c r="E18" s="6" t="inlineStr">
+      <c r="E21" s="6" t="inlineStr">
         <is>
           <t>temporal interval</t>
         </is>
       </c>
-      <c r="F18" s="6" t="inlineStr">
+      <c r="F21" s="6" t="inlineStr">
         <is>
           <t>Temporal references are used by authors when there is a behaviourally relevant event which structures the schedule of a BCI. This can include things like quit dates, childbirth, medical operations etc.</t>
         </is>
       </c>
-      <c r="G18" s="6" t="inlineStr">
+      <c r="G21" s="6" t="inlineStr">
         <is>
           <t>A feedback call was scheduled to be delivered around 6 months after the birth of the baby; The smoking intervention started 2 weeks after participants were enrolled into an inpatient setting</t>
         </is>
       </c>
-      <c r="H18" s="6" t="inlineStr">
+      <c r="H21" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">Annotate the words used by authors to describe key events which are not themselves part of the intervention but are relevant to the description of the schedule of the intervention. 
 Example annotation in context: "A feedback call was scheduled to be delivered around 6 months after the birth of the baby".  </t>
         </is>
       </c>
-      <c r="I18" s="6" t="inlineStr"/>
-      <c r="J18" s="6" t="inlineStr">
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="K18" s="6" t="inlineStr"/>
-      <c r="L18" s="6" t="inlineStr"/>
-      <c r="M18" s="6" t="inlineStr"/>
-      <c r="N18" s="6" t="inlineStr"/>
-      <c r="O18" s="6" t="inlineStr"/>
-      <c r="P18" s="6" t="inlineStr"/>
-      <c r="Q18" s="6" t="inlineStr">
+      <c r="K21" s="6" t="inlineStr"/>
+      <c r="L21" s="6" t="inlineStr"/>
+      <c r="M21" s="6" t="inlineStr"/>
+      <c r="N21" s="6" t="inlineStr"/>
+      <c r="O21" s="6" t="inlineStr"/>
+      <c r="P21" s="6" t="inlineStr"/>
+      <c r="Q21" s="6" t="inlineStr">
         <is>
           <t>check relationships</t>
         </is>
       </c>
-      <c r="R18" s="6" t="inlineStr">
+      <c r="R21" s="6" t="inlineStr">
         <is>
           <t>CM; JH</t>
         </is>
       </c>
-      <c r="S18" s="6" t="inlineStr">
+      <c r="S21" s="6" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="T18" s="6" t="inlineStr">
+      <c r="T21" s="6" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U18" s="6" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="inlineStr">
+      <c r="U21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
         <is>
           <t>BCIO:008545</t>
         </is>
       </c>
-      <c r="B19" s="6" t="inlineStr">
+      <c r="B22" s="6" t="inlineStr">
         <is>
           <t>total contact event duration</t>
         </is>
       </c>
-      <c r="C19" s="6" t="inlineStr">
+      <c r="C22" s="6" t="inlineStr">
         <is>
           <t>A data item that is the total duration of all contact events in an intervention temporal part</t>
         </is>
       </c>
-      <c r="D19" s="6" t="inlineStr">
+      <c r="D22" s="6" t="inlineStr">
         <is>
           <t>The planned total duration of all sessions or digital contacts in an intervention or part</t>
         </is>
       </c>
-      <c r="E19" s="6" t="inlineStr">
+      <c r="E22" s="6" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F19" s="6" t="inlineStr"/>
-      <c r="G19" s="6" t="inlineStr">
+      <c r="F22" s="6" t="inlineStr"/>
+      <c r="G22" s="6" t="inlineStr">
         <is>
           <t>150 minutes; 12 hours</t>
         </is>
       </c>
-      <c r="H19" s="6" t="inlineStr">
+      <c r="H22" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">Use this entity when authors describe the total amount of contact time for a particular part/intervention across multiple contact events. 
 When there is only one session, the total duration of contact events and the duration of a single contact event are technically the same. As a convention, we would annotate this using duration of contact event instead of total duration of contact event. 
@@ -1731,300 +1873,83 @@
 This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author </t>
         </is>
       </c>
-      <c r="I19" s="6" t="inlineStr"/>
-      <c r="J19" s="6" t="inlineStr"/>
-      <c r="K19" s="6" t="inlineStr"/>
-      <c r="L19" s="6" t="inlineStr">
+      <c r="I22" s="6" t="inlineStr"/>
+      <c r="J22" s="6" t="inlineStr"/>
+      <c r="K22" s="6" t="inlineStr"/>
+      <c r="L22" s="6" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="M19" s="6" t="inlineStr"/>
-      <c r="N19" s="6" t="inlineStr"/>
-      <c r="O19" s="6" t="inlineStr"/>
-      <c r="P19" s="6" t="inlineStr">
+      <c r="M22" s="6" t="inlineStr"/>
+      <c r="N22" s="6" t="inlineStr"/>
+      <c r="O22" s="6" t="inlineStr"/>
+      <c r="P22" s="6" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q19" s="6" t="inlineStr">
+      <c r="Q22" s="6" t="inlineStr">
         <is>
           <t>"is about" contact events or "is about" duration of contact events?</t>
         </is>
       </c>
-      <c r="R19" s="6" t="inlineStr">
+      <c r="R22" s="6" t="inlineStr">
         <is>
           <t>CM; JH</t>
         </is>
       </c>
-      <c r="S19" s="6" t="inlineStr">
+      <c r="S22" s="6" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="T19" s="6" t="inlineStr">
+      <c r="T22" s="6" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U19" s="6" t="inlineStr">
+      <c r="U22" s="6" t="inlineStr">
         <is>
           <t>what type of data item is this? (CM)</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="inlineStr">
-        <is>
-          <t>BCIO:008605</t>
-        </is>
-      </c>
-      <c r="B20" s="5" t="inlineStr">
-        <is>
-          <t>z) (removed as equivalent to number of contact events) number of repetitions</t>
-        </is>
-      </c>
-      <c r="C20" s="5" t="inlineStr">
-        <is>
-          <t>A data item that is the number of repetitions of contact events within a temporal part or BCI for which the frequency is described</t>
-        </is>
-      </c>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr">
-        <is>
-          <t>Participants received "3" emails every 2 weeks</t>
-        </is>
-      </c>
-      <c r="H20" s="5" t="inlineStr">
-        <is>
-          <t>This is annotated when a frequency is described using a period and a number of repetitions, rather than a single word.</t>
-        </is>
-      </c>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr">
-        <is>
-          <t>contact event</t>
-        </is>
-      </c>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
-      <c r="O20" s="5" t="inlineStr"/>
-      <c r="P20" s="5" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="Q20" s="5" t="inlineStr"/>
-      <c r="R20" s="5" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="S20" s="5" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T20" s="5" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="U20" s="5" t="inlineStr">
-        <is>
-          <t>this entity was added to allow us to more flexibly capture frequencies that have been broken down into period and repetitions. This is useful for annotations but we are unsure if it makes ontological sense to include it as it isn't really distinct from a frequency itself and relates more to how a frequency is described (CM)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="5" t="inlineStr">
-        <is>
-          <t>BCIO:008550</t>
-        </is>
-      </c>
-      <c r="B21" s="5" t="inlineStr">
-        <is>
-          <t>z) contact event sum duration (still to confirm inclusion)</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="inlineStr">
-        <is>
-          <t>A data item that is the sum duration of a subset of contact events in a BCI or temporal part</t>
-        </is>
-      </c>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr">
-        <is>
-          <t>The participants took part in "90" minutes of PA weekly</t>
-        </is>
-      </c>
-      <c r="H21" s="5" t="inlineStr">
-        <is>
-          <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
-        </is>
-      </c>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr">
-        <is>
-          <t>contact event</t>
-        </is>
-      </c>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
-      <c r="O21" s="5" t="inlineStr"/>
-      <c r="P21" s="5" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="Q21" s="5" t="inlineStr">
-        <is>
-          <t>is about contact events or is about duration of contact events?</t>
-        </is>
-      </c>
-      <c r="R21" s="5" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="S21" s="5" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T21" s="5" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="U21" s="5" t="inlineStr">
-        <is>
-          <t>meeting was cut short whilst JH gave feedback on these entities. JH, please could you give feedback here? I think the suggestion was to combine these two entities (BCIO:008550 and BCIO:008555)</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="5" t="inlineStr">
-        <is>
-          <t>BCIO:008555</t>
-        </is>
-      </c>
-      <c r="B22" s="5" t="inlineStr">
-        <is>
-          <t>z) contact event sum duration frequency (still to confirm inclusion)</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="inlineStr">
-        <is>
-          <t>A data item which describes how often a specified sum duration of contact events occured during a BCI or temporal part</t>
-        </is>
-      </c>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr">
-        <is>
-          <t>The participants took part in 90 minutes of PA "weekly"</t>
-        </is>
-      </c>
-      <c r="H22" s="5" t="inlineStr">
-        <is>
-          <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
-        </is>
-      </c>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr">
-        <is>
-          <t>contact event</t>
-        </is>
-      </c>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
-      <c r="O22" s="5" t="inlineStr"/>
-      <c r="P22" s="5" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="Q22" s="5" t="inlineStr">
-        <is>
-          <t>is about contact events or is about duration of contact events?</t>
-        </is>
-      </c>
-      <c r="R22" s="5" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="S22" s="5" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T22" s="5" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="U22" s="5" t="inlineStr">
-        <is>
-          <t>meeting was cut short whilst JH gave feedback on these entities. JH, please could you give feedback here? I think the suggestion was to combine these two entities (BCIO:008550 and BCIO:008555)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="inlineStr">
         <is>
-          <t>BCIO:008600</t>
+          <t>BCIO:008605</t>
         </is>
       </c>
       <c r="B23" s="5" t="inlineStr">
         <is>
-          <t>z) frequency period</t>
+          <t>z) (removed as equivalent to number of contact events) number of repetitions</t>
         </is>
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>A temporal interval that is the length of time from start to end of an intervention temporal part</t>
+          <t>A data item that is the number of repetitions of contact events within a temporal part or BCI for which the frequency is described</t>
         </is>
       </c>
       <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr">
-        <is>
-          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
-        </is>
-      </c>
+      <c r="E23" s="5" t="inlineStr"/>
       <c r="F23" s="5" t="inlineStr"/>
       <c r="G23" s="5" t="inlineStr">
         <is>
-          <t>Participants received 3 emails every "2" weeks</t>
-        </is>
-      </c>
-      <c r="H23" s="5" t="inlineStr"/>
+          <t>Participants received "3" emails every 2 weeks</t>
+        </is>
+      </c>
+      <c r="H23" s="5" t="inlineStr">
+        <is>
+          <t>This is annotated when a frequency is described using a period and a number of repetitions, rather than a single word.</t>
+        </is>
+      </c>
       <c r="I23" s="5" t="inlineStr"/>
       <c r="J23" s="5" t="inlineStr"/>
       <c r="K23" s="5" t="inlineStr"/>
       <c r="L23" s="5" t="inlineStr">
         <is>
-          <t>intervention temporal part</t>
+          <t>contact event</t>
         </is>
       </c>
       <c r="M23" s="5" t="inlineStr"/>
@@ -2053,42 +1978,62 @@
       </c>
       <c r="U23" s="5" t="inlineStr">
         <is>
-          <t>this entity was added to allow us to more flexibly capture frequencies that have been broken down into period and repetitions. This is useful for annotations but we are unsure if it makes ontological sense to include it as it isn't really distinct from a frequency itself and relates more to how a frequency is described. Perhaps this also isn't really distinct from duration of BCI/part (CM)</t>
+          <t>this entity was added to allow us to more flexibly capture frequencies that have been broken down into period and repetitions. This is useful for annotations but we are unsure if it makes ontological sense to include it as it isn't really distinct from a frequency itself and relates more to how a frequency is described (CM)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="inlineStr">
         <is>
-          <t>BCIO:008570</t>
+          <t>BCIO:008550</t>
         </is>
       </c>
       <c r="B24" s="5" t="inlineStr">
         <is>
-          <t>z) interval (remove)</t>
-        </is>
-      </c>
-      <c r="C24" s="5" t="inlineStr"/>
+          <t>z) contact event sum duration (still to confirm inclusion)</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>A data item that is the sum duration of a subset of contact events in a BCI or temporal part</t>
+        </is>
+      </c>
       <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
+      <c r="E24" s="5" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
       <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
+      <c r="G24" s="5" t="inlineStr">
+        <is>
+          <t>The participants took part in "90" minutes of PA weekly</t>
+        </is>
+      </c>
       <c r="H24" s="5" t="inlineStr">
         <is>
-          <t>This is not annotated but included due to relationship with duration of interval</t>
+          <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
         </is>
       </c>
       <c r="I24" s="5" t="inlineStr"/>
       <c r="J24" s="5" t="inlineStr"/>
       <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
+      <c r="L24" s="5" t="inlineStr">
+        <is>
+          <t>contact event</t>
+        </is>
+      </c>
       <c r="M24" s="5" t="inlineStr"/>
       <c r="N24" s="5" t="inlineStr"/>
       <c r="O24" s="5" t="inlineStr"/>
-      <c r="P24" s="5" t="inlineStr"/>
+      <c r="P24" s="5" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
       <c r="Q24" s="5" t="inlineStr">
         <is>
-          <t>entity added so duration of interval can be specified. not sure what parent/relationships should be</t>
+          <t>is about contact events or is about duration of contact events?</t>
         </is>
       </c>
       <c r="R24" s="5" t="inlineStr">
@@ -2106,41 +2051,43 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U24" s="5" t="inlineStr"/>
+      <c r="U24" s="5" t="inlineStr">
+        <is>
+          <t>meeting was cut short whilst JH gave feedback on these entities. JH, please could you give feedback here? I think the suggestion was to combine these two entities (BCIO:008550 and BCIO:008555)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="inlineStr">
         <is>
-          <t>BCIO:008520</t>
+          <t>BCIO:008555</t>
         </is>
       </c>
       <c r="B25" s="5" t="inlineStr">
         <is>
-          <t>z) intervention temporal part frequency</t>
+          <t>z) contact event sum duration frequency (still to confirm inclusion)</t>
         </is>
       </c>
       <c r="C25" s="5" t="inlineStr">
         <is>
-          <t>An attribute of a BCI schedule of delivery that is how often intervention temporal parts occur within a BCI.</t>
+          <t>A data item which describes how often a specified sum duration of contact events occured during a BCI or temporal part</t>
         </is>
       </c>
       <c r="D25" s="5" t="inlineStr"/>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>process attribute</t>
-        </is>
-      </c>
-      <c r="F25" s="5" t="inlineStr">
-        <is>
-          <t>Contact events are intervention temporal parts so this entity also describes the frequency of contact events.</t>
-        </is>
-      </c>
-      <c r="G25" s="5" t="inlineStr"/>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="F25" s="5" t="inlineStr"/>
+      <c r="G25" s="5" t="inlineStr">
+        <is>
+          <t>The participants took part in 90 minutes of PA "weekly"</t>
+        </is>
+      </c>
       <c r="H25" s="5" t="inlineStr">
         <is>
-          <t>This is used to capture descriptions of the frequency of contact events within a part. 
-Example annotation (in context)
-intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks"</t>
+          <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
         </is>
       </c>
       <c r="I25" s="5" t="inlineStr"/>
@@ -2159,7 +2106,11 @@
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q25" s="5" t="inlineStr"/>
+      <c r="Q25" s="5" t="inlineStr">
+        <is>
+          <t>is about contact events or is about duration of contact events?</t>
+        </is>
+      </c>
       <c r="R25" s="5" t="inlineStr">
         <is>
           <t>CM</t>
@@ -2176,6 +2127,197 @@
         </is>
       </c>
       <c r="U25" s="5" t="inlineStr">
+        <is>
+          <t>meeting was cut short whilst JH gave feedback on these entities. JH, please could you give feedback here? I think the suggestion was to combine these two entities (BCIO:008550 and BCIO:008555)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>BCIO:008600</t>
+        </is>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>z) frequency period</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>A temporal interval that is the length of time from start to end of an intervention temporal part</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr"/>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="inlineStr"/>
+      <c r="G26" s="5" t="inlineStr">
+        <is>
+          <t>Participants received 3 emails every "2" weeks</t>
+        </is>
+      </c>
+      <c r="H26" s="5" t="inlineStr"/>
+      <c r="I26" s="5" t="inlineStr"/>
+      <c r="J26" s="5" t="inlineStr"/>
+      <c r="K26" s="5" t="inlineStr"/>
+      <c r="L26" s="5" t="inlineStr">
+        <is>
+          <t>intervention temporal part</t>
+        </is>
+      </c>
+      <c r="M26" s="5" t="inlineStr"/>
+      <c r="N26" s="5" t="inlineStr"/>
+      <c r="O26" s="5" t="inlineStr"/>
+      <c r="P26" s="5" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="Q26" s="5" t="inlineStr"/>
+      <c r="R26" s="5" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="S26" s="5" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T26" s="5" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="U26" s="5" t="inlineStr">
+        <is>
+          <t>this entity was added to allow us to more flexibly capture frequencies that have been broken down into period and repetitions. This is useful for annotations but we are unsure if it makes ontological sense to include it as it isn't really distinct from a frequency itself and relates more to how a frequency is described. Perhaps this also isn't really distinct from duration of BCI/part (CM)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>BCIO:008570</t>
+        </is>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>z) interval (remove)</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr"/>
+      <c r="D27" s="5" t="inlineStr"/>
+      <c r="E27" s="5" t="inlineStr"/>
+      <c r="F27" s="5" t="inlineStr"/>
+      <c r="G27" s="5" t="inlineStr"/>
+      <c r="H27" s="5" t="inlineStr">
+        <is>
+          <t>This is not annotated but included due to relationship with duration of interval</t>
+        </is>
+      </c>
+      <c r="I27" s="5" t="inlineStr"/>
+      <c r="J27" s="5" t="inlineStr"/>
+      <c r="K27" s="5" t="inlineStr"/>
+      <c r="L27" s="5" t="inlineStr"/>
+      <c r="M27" s="5" t="inlineStr"/>
+      <c r="N27" s="5" t="inlineStr"/>
+      <c r="O27" s="5" t="inlineStr"/>
+      <c r="P27" s="5" t="inlineStr"/>
+      <c r="Q27" s="5" t="inlineStr">
+        <is>
+          <t>entity added so duration of interval can be specified. not sure what parent/relationships should be</t>
+        </is>
+      </c>
+      <c r="R27" s="5" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="S27" s="5" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T27" s="5" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="U27" s="5" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>BCIO:008520</t>
+        </is>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>z) intervention temporal part frequency</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>An attribute of a BCI schedule of delivery that is how often intervention temporal parts occur within a BCI.</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr"/>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>process attribute</t>
+        </is>
+      </c>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>Contact events are intervention temporal parts so this entity also describes the frequency of contact events.</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="inlineStr"/>
+      <c r="H28" s="5" t="inlineStr">
+        <is>
+          <t>This is used to capture descriptions of the frequency of contact events within a part. 
+Example annotation (in context)
+intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks"</t>
+        </is>
+      </c>
+      <c r="I28" s="5" t="inlineStr"/>
+      <c r="J28" s="5" t="inlineStr"/>
+      <c r="K28" s="5" t="inlineStr"/>
+      <c r="L28" s="5" t="inlineStr">
+        <is>
+          <t>contact event</t>
+        </is>
+      </c>
+      <c r="M28" s="5" t="inlineStr"/>
+      <c r="N28" s="5" t="inlineStr"/>
+      <c r="O28" s="5" t="inlineStr"/>
+      <c r="P28" s="5" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="Q28" s="5" t="inlineStr"/>
+      <c r="R28" s="5" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="S28" s="5" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T28" s="5" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="U28" s="5" t="inlineStr">
         <is>
           <t>need to decide whether to have a separate additional entity for frequency of contact events (CM)</t>
         </is>

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -576,7 +576,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>A temporal interval between the start and end of a behaviour change intervention</t>
+          <t>A data item that is about the temporal interval between the start and end of a behaviour change intervention</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>temporal interval</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr"/>
@@ -607,7 +607,7 @@
       <c r="K2" s="2" t="inlineStr"/>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>BCI</t>
+          <t>temporal interval; BCI</t>
         </is>
       </c>
       <c r="M2" s="2" t="inlineStr"/>

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -649,7 +649,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>An attribute of a BCI delivery that involves its temporal organisation.</t>
+          <t>A BCI attribute that is its temporal organisation.</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr"/>
@@ -688,7 +688,7 @@
       <c r="Q3" s="3" t="inlineStr"/>
       <c r="R3" s="3" t="inlineStr">
         <is>
-          <t>JH; CM</t>
+          <t>JH; CM; PS</t>
         </is>
       </c>
       <c r="S3" s="3" t="inlineStr">

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zcjtpms_ucl_ac_uk/Documents/Documents/GitHub/ontologies/Schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="11_0DA1C4B2DD8ADEED4FC9A7B0445ED87656CD87B7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24967B00-5FFA-45C6-AB5A-C8934A29C8F9}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="11_0DA1C4B2DD8ADEED4FC9A7B0445ED87656CD87B7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F36FA42E-6E4C-435E-8686-5931CA943C56}"/>
   <bookViews>
-    <workbookView xWindow="33015" yWindow="1680" windowWidth="27270" windowHeight="17370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32445" yWindow="510" windowWidth="29775" windowHeight="18855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="218">
   <si>
     <t>ID</t>
   </si>
@@ -292,12 +292,6 @@
   </si>
   <si>
     <t>BCIO:008515</t>
-  </si>
-  <si>
-    <t>number of contact events</t>
-  </si>
-  <si>
-    <t>A count data item that is the number of contact events in an intervention temporal part</t>
   </si>
   <si>
     <t>The planned total number of sessions or digital contacts in an intervention or part</t>
@@ -422,9 +416,6 @@
     <t>A statement which describes how the delivery of intervention parts is scheduled relative to associated external events.</t>
   </si>
   <si>
-    <t>Temporal references are used by authors when there is a behaviourally relevant event which structures the schedule of a BCI. This can include things like quit dates, childbirth, medical operations etc.</t>
-  </si>
-  <si>
     <t>A feedback call was scheduled to be delivered around 6 months after the birth of the baby; The smoking intervention started 2 weeks after participants were enrolled into an inpatient setting</t>
   </si>
   <si>
@@ -439,12 +430,6 @@
   </si>
   <si>
     <t>BCIO:008545</t>
-  </si>
-  <si>
-    <t>total contact event duration</t>
-  </si>
-  <si>
-    <t>A data item that is the total duration of all contact events in an intervention temporal part</t>
   </si>
   <si>
     <t>The planned total duration of all sessions or digital contacts in an intervention or part</t>
@@ -630,6 +615,94 @@
   </si>
   <si>
     <t>A BCI contact event frequency statistic that is the central value of a collection of  BCI contact event frequencies when they are arranged in ascending order.</t>
+  </si>
+  <si>
+    <t>A data item that is the number of contact events in a BCI temporal part.</t>
+  </si>
+  <si>
+    <t>BCI contact event number statistic</t>
+  </si>
+  <si>
+    <t>A data item that is about a collection of BCI contact event numbers.</t>
+  </si>
+  <si>
+    <t>mean BCI contact event number</t>
+  </si>
+  <si>
+    <t>A BCI contact event number statistic that is the average value calculated from a collection of BCI contact event numbers.</t>
+  </si>
+  <si>
+    <t>minimum contact event number</t>
+  </si>
+  <si>
+    <t>A BCI contact event number statistic that is the lowest value from a collection of BCI contact event numbers.</t>
+  </si>
+  <si>
+    <t>maximum BCI contact event number</t>
+  </si>
+  <si>
+    <t>A BCI contact event number statistic that is the highest value from a collection of BCI contact event numbers.</t>
+  </si>
+  <si>
+    <t>median BCI contact event number</t>
+  </si>
+  <si>
+    <t>A BCI contact event number statistic that is the central value of a collection of  BCI contact event numbers when they are arranged in ascending order.</t>
+  </si>
+  <si>
+    <t>number of BCI contact events</t>
+  </si>
+  <si>
+    <t>A temporal region against which a BCI  temporal part is referenced.</t>
+  </si>
+  <si>
+    <t>temporal region</t>
+  </si>
+  <si>
+    <t>Temporal references are used by authors when there is a behaviourally relevant event which structures the schedule of a BCI. This can include things like quit dates, childbirth, medical operations etc.
+We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence.</t>
+  </si>
+  <si>
+    <t>BCI temporal part</t>
+  </si>
+  <si>
+    <t>total BCI contact event duration</t>
+  </si>
+  <si>
+    <t>A temporal interval that is the total of intervention temporal parts within a behaviour change intervention.</t>
+  </si>
+  <si>
+    <t>total BCI contact event duration statistic</t>
+  </si>
+  <si>
+    <t>A data item that is about a collection of total contact event durations.</t>
+  </si>
+  <si>
+    <t>mean total BCI contact event duration</t>
+  </si>
+  <si>
+    <t>A total contact event duration statistic that is the average value calculated from a collection of total contact event durations.</t>
+  </si>
+  <si>
+    <t>total contact event duration statistic</t>
+  </si>
+  <si>
+    <t>maximum total BCI contact event duration</t>
+  </si>
+  <si>
+    <t>A total contact event duration statistic that is the highest value from a collection of total contact event durations.</t>
+  </si>
+  <si>
+    <t>median total BCI contact event duration</t>
+  </si>
+  <si>
+    <t>A total contact event duration statistic that is the central value of a collection of total contact event durations when they are arranged in ascending order.</t>
+  </si>
+  <si>
+    <t>minimum total BCI contact event duration</t>
+  </si>
+  <si>
+    <t>A total contact event duration statistic that is the lowest value from a collection of total contact event durations.</t>
   </si>
 </sst>
 </file>
@@ -675,7 +748,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -699,11 +772,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEE8AA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -716,6 +784,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -784,13 +864,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -803,55 +882,83 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1155,16 +1262,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="13"/>
-    <col min="2" max="2" width="32" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="11"/>
+    <col min="2" max="2" width="32" style="11" customWidth="1"/>
     <col min="3" max="3" width="67.6328125" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="30.26953125" customWidth="1"/>
@@ -1173,10 +1280,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1237,402 +1344,402 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="16"/>
+    </row>
+    <row r="3" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15"/>
+      <c r="B3" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+    </row>
+    <row r="4" spans="1:21" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="15"/>
+      <c r="B4" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+    </row>
+    <row r="5" spans="1:21" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="15"/>
+      <c r="B5" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="19" t="s">
+      <c r="C5" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+    </row>
+    <row r="6" spans="1:21" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+    </row>
+    <row r="7" spans="1:21" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+    </row>
+    <row r="8" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" s="19"/>
-    </row>
-    <row r="3" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
-      <c r="B3" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="E3" s="22" t="s">
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+    </row>
+    <row r="9" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-    </row>
-    <row r="4" spans="1:21" s="20" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
-      <c r="B4" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-    </row>
-    <row r="5" spans="1:21" s="20" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
-      <c r="B5" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="C5" s="25" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="E5" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-    </row>
-    <row r="6" spans="1:21" s="20" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
-      <c r="B6" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="C6" s="25" t="s">
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+    </row>
+    <row r="10" spans="1:21" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="15"/>
+      <c r="B10" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-    </row>
-    <row r="7" spans="1:21" s="20" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="18"/>
-      <c r="B7" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-    </row>
-    <row r="8" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="C8" s="27" t="s">
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+    </row>
+    <row r="11" spans="1:21" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="15"/>
+      <c r="B11" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="S8" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-    </row>
-    <row r="9" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18"/>
-      <c r="B9" s="22" t="s">
+      <c r="C11" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="E11" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+    </row>
+    <row r="12" spans="1:21" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="15"/>
+      <c r="B12" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-    </row>
-    <row r="10" spans="1:21" s="20" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="18"/>
-      <c r="B10" s="25" t="s">
+      <c r="C12" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="E12" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+    </row>
+    <row r="13" spans="1:21" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="15"/>
+      <c r="B13" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-    </row>
-    <row r="11" spans="1:21" s="20" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="18"/>
-      <c r="B11" s="25" t="s">
+      <c r="C13" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-    </row>
-    <row r="12" spans="1:21" s="20" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="18"/>
-      <c r="B12" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-    </row>
-    <row r="13" spans="1:21" s="20" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="18"/>
-      <c r="B13" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
+      <c r="E13" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
     </row>
     <row r="14" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E14" t="s">
@@ -1641,18 +1748,18 @@
       <c r="R14" t="s">
         <v>45</v>
       </c>
-      <c r="S14" t="s">
-        <v>46</v>
+      <c r="S14" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1692,61 +1799,52 @@
       </c>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2" t="s">
+      <c r="R16" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="S16" s="2" t="s">
+      <c r="S16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="T16" s="2" t="s">
+      <c r="T16" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U16" s="2"/>
     </row>
     <row r="17" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>65</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -1787,13 +1885,13 @@
       <c r="U17" s="2"/>
     </row>
     <row r="18" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>71</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -1830,13 +1928,13 @@
       <c r="U18" s="3"/>
     </row>
     <row r="19" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>79</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -1876,677 +1974,803 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="E20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="H20" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="L20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="P20" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="R20" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="S20" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="T20" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2" t="s">
+      <c r="L21" s="25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="25"/>
+      <c r="B22" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="L22" s="25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="25"/>
+      <c r="B23" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="L23" s="25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="25"/>
+      <c r="B24" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="L24" s="25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="25"/>
+      <c r="B25" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="L25" s="25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="B26" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2" t="s">
+      <c r="C26" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" t="s">
+        <v>92</v>
+      </c>
+      <c r="R26" t="s">
+        <v>45</v>
+      </c>
+      <c r="S26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U28" s="4"/>
+    </row>
+    <row r="29" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U29" s="4"/>
+    </row>
+    <row r="30" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S20" s="2" t="s">
+      <c r="S30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T20" s="2" t="s">
+      <c r="T30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U20" s="2"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A21" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" t="s">
-        <v>94</v>
-      </c>
-      <c r="R21" t="s">
-        <v>45</v>
-      </c>
-      <c r="S21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="S22" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="T22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U22" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="15" t="s">
+      <c r="U30" s="2"/>
+    </row>
+    <row r="31" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="S23" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="T23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U23" s="4"/>
-    </row>
-    <row r="24" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="S24" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="T24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U24" s="4"/>
-    </row>
-    <row r="25" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U25" s="2"/>
-    </row>
-    <row r="26" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="S26" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="T26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U26" s="4"/>
-    </row>
-    <row r="27" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-    </row>
-    <row r="28" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="R28" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S28" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="T28" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="U28" s="5"/>
-    </row>
-    <row r="29" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q29" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="R29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S29" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="T29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="U29" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="S30" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="T30" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U30" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
-      <c r="P31" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>150</v>
-      </c>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
       <c r="R31" s="4" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="T31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="U31" s="4" t="s">
+      <c r="U31" s="4"/>
+    </row>
+    <row r="32" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+    </row>
+    <row r="33" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q33" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="R33" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="S33" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="T33" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="L34" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="P34" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q34" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="R34" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="S34" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="T34" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U34" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="25"/>
+      <c r="B35" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" s="25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="25"/>
+      <c r="B36" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="L36" s="25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="25"/>
+      <c r="B37" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="L37" s="25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="25"/>
+      <c r="B38" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="L38" s="25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="25"/>
+      <c r="B39" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="L39" s="25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S40" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="T40" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U40" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="T41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U41" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S42" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="T42" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U42" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="13" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="15" t="s">
+      <c r="B43" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="C43" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="D43" s="4"/>
+      <c r="E43" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4" t="s">
+      <c r="F43" s="4"/>
+      <c r="G43" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4" t="s">
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="T43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U43" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A44" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S44" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="T44" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U44" s="4"/>
+    </row>
+    <row r="45" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4" t="s">
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q32" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="R32" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="S32" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="T32" s="4" t="s">
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S45" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="T45" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="U32" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="S33" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="T33" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U33" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A34" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4" t="s">
+      <c r="U45" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="R34" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="S34" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="T34" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U34" s="4"/>
-    </row>
-    <row r="35" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="S35" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="T35" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U35" s="4" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U63"/>
+  <dimension ref="A1:U64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,40 +560,40 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008525</t>
+          <t>BCIO:008510</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>BCI contact event duration</t>
+          <t>BCI contact event</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>A temporal interval between the start and end of a BCI contact event.</t>
+          <t xml:space="preserve">An intervention temporal part that is an occasion in which a member of a BCI population comes into contact with a BCI.  </t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr"/>
+          <t>BCI temporal part</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>All contact events are temporal parts, but not all temporal parts are contact events. Whilst contact events are single continuous events, temporal parts of an intervention can  group together multiple different contact events which might have similar features. For example, a set of 10 counselling sessions might be a temporal part within an intervention. The same intervention can have a set of 5 exercise sessions. These 5 sessions together make up another temporal part. Each single session within these parts  is a contact event.</t>
+        </is>
+      </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>1 hour; 30 minutes; 2 minutes</t>
+          <t>A counselling session; An online chat session; An advertisement display.</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr"/>
       <c r="I2" s="2" t="inlineStr"/>
       <c r="J2" s="2" t="inlineStr"/>
       <c r="K2" s="2" t="inlineStr"/>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>contact event</t>
-        </is>
-      </c>
+      <c r="L2" s="2" t="inlineStr"/>
       <c r="M2" s="2" t="inlineStr"/>
       <c r="N2" s="2" t="inlineStr"/>
       <c r="O2" s="2" t="inlineStr"/>
@@ -613,90 +613,85 @@
       <c r="U2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050505</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>BCI contact event duration statistic</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is about a collection of BCI contact event durations.</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr"/>
-      <c r="G3" s="2" t="inlineStr"/>
-      <c r="H3" s="2" t="inlineStr"/>
-      <c r="I3" s="2" t="inlineStr"/>
-      <c r="J3" s="2" t="inlineStr"/>
-      <c r="K3" s="2" t="inlineStr"/>
-      <c r="L3" s="2" t="inlineStr"/>
-      <c r="M3" s="2" t="inlineStr"/>
-      <c r="N3" s="2" t="inlineStr"/>
-      <c r="O3" s="2" t="inlineStr"/>
-      <c r="P3" s="2" t="inlineStr"/>
-      <c r="Q3" s="2" t="inlineStr"/>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:008525</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>BCI contact event duration</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>A temporal interval between the start and end of a BCI contact event.</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr"/>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr"/>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>1 hour; 30 minutes; 2 minutes</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr"/>
+      <c r="I3" s="3" t="inlineStr"/>
+      <c r="J3" s="3" t="inlineStr"/>
+      <c r="K3" s="3" t="inlineStr"/>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>contact event</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="inlineStr"/>
+      <c r="N3" s="3" t="inlineStr"/>
+      <c r="O3" s="3" t="inlineStr"/>
+      <c r="P3" s="3" t="inlineStr"/>
+      <c r="Q3" s="3" t="inlineStr"/>
+      <c r="R3" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="S3" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T3" s="2" t="inlineStr"/>
-      <c r="U3" s="2" t="inlineStr"/>
+      <c r="S3" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T3" s="3" t="inlineStr"/>
+      <c r="U3" s="3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008700</t>
+          <t>BCIO:050505</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>BCI contact event frequency</t>
+          <t>BCI contact event duration statistic</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>A data item about the number times a contact event occurs per unit of time.</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>How often intervention sessions or digital contacts are planned to occur</t>
-        </is>
-      </c>
+          <t>A data item that is about a collection of BCI contact event durations.</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="3" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr"/>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>twice a week; daily; one a week</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This is used to capture descriptions of the frequency of contact events within a part.  
-Example annotation (in context): intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks" </t>
-        </is>
-      </c>
+      <c r="G4" s="3" t="inlineStr"/>
+      <c r="H4" s="3" t="inlineStr"/>
       <c r="I4" s="3" t="inlineStr"/>
       <c r="J4" s="3" t="inlineStr"/>
       <c r="K4" s="3" t="inlineStr"/>
@@ -708,7 +703,7 @@
       <c r="Q4" s="3" t="inlineStr"/>
       <c r="R4" s="3" t="inlineStr">
         <is>
-          <t>CM; JH</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="S4" s="3" t="inlineStr">
@@ -720,345 +715,336 @@
       <c r="U4" s="3" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:008700</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>BCI contact event frequency</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>A data item about the number times a contact event occurs per unit of time.</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>How often intervention sessions or digital contacts are planned to occur</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr"/>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>twice a week; daily; one a week</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This is used to capture descriptions of the frequency of contact events within a part.  
+Example annotation (in context): intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks" </t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr"/>
+      <c r="J5" s="3" t="inlineStr"/>
+      <c r="K5" s="3" t="inlineStr"/>
+      <c r="L5" s="3" t="inlineStr"/>
+      <c r="M5" s="3" t="inlineStr"/>
+      <c r="N5" s="3" t="inlineStr"/>
+      <c r="O5" s="3" t="inlineStr"/>
+      <c r="P5" s="3" t="inlineStr"/>
+      <c r="Q5" s="3" t="inlineStr"/>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>CM; JH</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr"/>
+      <c r="U5" s="3" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>BCIO:050485</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>BCI contact event frequency statistic</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>A data item that is about a collection of BCI contact event frequencies.</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr"/>
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr"/>
-      <c r="G5" s="2" t="inlineStr"/>
-      <c r="H5" s="2" t="inlineStr"/>
-      <c r="I5" s="2" t="inlineStr"/>
-      <c r="J5" s="2" t="inlineStr"/>
-      <c r="K5" s="2" t="inlineStr"/>
-      <c r="L5" s="2" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr"/>
+      <c r="G6" s="3" t="inlineStr"/>
+      <c r="H6" s="3" t="inlineStr"/>
+      <c r="I6" s="3" t="inlineStr"/>
+      <c r="J6" s="3" t="inlineStr"/>
+      <c r="K6" s="3" t="inlineStr"/>
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>BCI contact event frequency</t>
         </is>
       </c>
-      <c r="M5" s="2" t="inlineStr"/>
-      <c r="N5" s="2" t="inlineStr"/>
-      <c r="O5" s="2" t="inlineStr"/>
-      <c r="P5" s="2" t="inlineStr"/>
-      <c r="Q5" s="2" t="inlineStr"/>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="M6" s="3" t="inlineStr"/>
+      <c r="N6" s="3" t="inlineStr"/>
+      <c r="O6" s="3" t="inlineStr"/>
+      <c r="P6" s="3" t="inlineStr"/>
+      <c r="Q6" s="3" t="inlineStr"/>
+      <c r="R6" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr"/>
-      <c r="U5" s="2" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050486</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>BCI contact event number statistic</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is about a collection of BCI contact event numbers.</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr"/>
-      <c r="G6" s="2" t="inlineStr"/>
-      <c r="H6" s="2" t="inlineStr"/>
-      <c r="I6" s="2" t="inlineStr"/>
-      <c r="J6" s="2" t="inlineStr"/>
-      <c r="K6" s="2" t="inlineStr"/>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>number of BCI contact events</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr"/>
-      <c r="N6" s="2" t="inlineStr"/>
-      <c r="O6" s="2" t="inlineStr"/>
-      <c r="P6" s="2" t="inlineStr"/>
-      <c r="Q6" s="2" t="inlineStr"/>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="S6" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T6" s="2" t="inlineStr"/>
-      <c r="U6" s="2" t="inlineStr"/>
+      <c r="S6" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T6" s="3" t="inlineStr"/>
+      <c r="U6" s="3" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008560</t>
+          <t>BCIO:050486</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>BCI duration</t>
+          <t>BCI contact event number statistic</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>A temporal interval between the start and end of a BCI.</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>The planned duration of an intervention</t>
-        </is>
-      </c>
+          <t>A data item that is about a collection of BCI contact event numbers.</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>one-dimensional temporal region</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr"/>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>6 weeks; 2 months; 1 year</t>
-        </is>
-      </c>
-      <c r="H7" s="3" t="inlineStr">
-        <is>
-          <t>This is used to capture the overall duration of intervention delivery from first to last contact of an intervention. It does not include follow-up periods during which no content is delivered. We annotate only the number and the unit is derived from the context. 
-Example Annotation (in context): The intervention ran over "6" weeks, with weekly counselling sessions and biweekly exercise classes 
-This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author</t>
-        </is>
-      </c>
+      <c r="G7" s="3" t="inlineStr"/>
+      <c r="H7" s="3" t="inlineStr"/>
       <c r="I7" s="3" t="inlineStr"/>
       <c r="J7" s="3" t="inlineStr"/>
       <c r="K7" s="3" t="inlineStr"/>
       <c r="L7" s="3" t="inlineStr">
         <is>
-          <t>temporal interval; BCI</t>
+          <t>number of BCI contact events</t>
         </is>
       </c>
       <c r="M7" s="3" t="inlineStr"/>
       <c r="N7" s="3" t="inlineStr"/>
       <c r="O7" s="3" t="inlineStr"/>
-      <c r="P7" s="3" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
+      <c r="P7" s="3" t="inlineStr"/>
       <c r="Q7" s="3" t="inlineStr"/>
       <c r="R7" s="3" t="inlineStr">
         <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="S7" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T7" s="3" t="inlineStr"/>
+      <c r="U7" s="3" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:008560</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>BCI duration</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>A temporal interval between the start and end of a BCI.</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>The planned duration of an intervention</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr"/>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>6 weeks; 2 months; 1 year</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>This is used to capture the overall duration of intervention delivery from first to last contact of an intervention. It does not include follow-up periods during which no content is delivered. We annotate only the number and the unit is derived from the context. 
+Example Annotation (in context): The intervention ran over "6" weeks, with weekly counselling sessions and biweekly exercise classes 
+This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="inlineStr"/>
+      <c r="J8" s="3" t="inlineStr"/>
+      <c r="K8" s="3" t="inlineStr"/>
+      <c r="L8" s="3" t="inlineStr">
+        <is>
+          <t>temporal interval; BCI</t>
+        </is>
+      </c>
+      <c r="M8" s="3" t="inlineStr"/>
+      <c r="N8" s="3" t="inlineStr"/>
+      <c r="O8" s="3" t="inlineStr"/>
+      <c r="P8" s="3" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="Q8" s="3" t="inlineStr"/>
+      <c r="R8" s="3" t="inlineStr">
+        <is>
           <t>CM; RW; JH</t>
         </is>
       </c>
-      <c r="S7" s="3" t="inlineStr">
+      <c r="S8" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="T7" s="3" t="inlineStr">
+      <c r="T8" s="3" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U7" s="3" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="U8" s="3" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>BCIO:050487</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>BCI duration statistic</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>A data item that is about a collection of BCI durations.</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr"/>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr"/>
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr"/>
-      <c r="G8" s="2" t="inlineStr"/>
-      <c r="H8" s="2" t="inlineStr"/>
-      <c r="I8" s="2" t="inlineStr"/>
-      <c r="J8" s="2" t="inlineStr"/>
-      <c r="K8" s="2" t="inlineStr"/>
-      <c r="L8" s="2" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr"/>
+      <c r="G9" s="3" t="inlineStr"/>
+      <c r="H9" s="3" t="inlineStr"/>
+      <c r="I9" s="3" t="inlineStr"/>
+      <c r="J9" s="3" t="inlineStr"/>
+      <c r="K9" s="3" t="inlineStr"/>
+      <c r="L9" s="3" t="inlineStr">
         <is>
           <t>BCI duration</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr"/>
-      <c r="N8" s="2" t="inlineStr"/>
-      <c r="O8" s="2" t="inlineStr"/>
-      <c r="P8" s="2" t="inlineStr"/>
-      <c r="Q8" s="2" t="inlineStr"/>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="M9" s="3" t="inlineStr"/>
+      <c r="N9" s="3" t="inlineStr"/>
+      <c r="O9" s="3" t="inlineStr"/>
+      <c r="P9" s="3" t="inlineStr"/>
+      <c r="Q9" s="3" t="inlineStr"/>
+      <c r="R9" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="S8" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T8" s="2" t="inlineStr"/>
-      <c r="U8" s="2" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:008500</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A BCI attribute that is its temporal organisation </t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr"/>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BCI attribute </t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>Includes the start and end of a BCI, its parts, and their organisation around relevant timepoints.</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr"/>
-      <c r="H9" s="2" t="inlineStr"/>
-      <c r="I9" s="2" t="inlineStr"/>
-      <c r="J9" s="2" t="inlineStr"/>
-      <c r="K9" s="2" t="inlineStr"/>
-      <c r="L9" s="2" t="inlineStr"/>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>BCI delivery</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr"/>
-      <c r="O9" s="2" t="inlineStr"/>
-      <c r="P9" s="2" t="inlineStr"/>
-      <c r="Q9" s="2" t="inlineStr"/>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="S9" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T9" s="2" t="inlineStr"/>
-      <c r="U9" s="2" t="inlineStr"/>
+      <c r="S9" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T9" s="3" t="inlineStr"/>
+      <c r="U9" s="3" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008505</t>
+          <t>BCIO:008500</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>BCI temporal part</t>
+          <t>BCI schedule of delivery</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>A planned process that is a part of a BCI.</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>A planned part of an intervention</t>
-        </is>
-      </c>
+          <t xml:space="preserve">A BCI attribute that is its temporal organisation </t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t xml:space="preserve">BCI attribute </t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Temporal parts are defined by the authors of reports. They usually group contact events with similar delivery (e.g. face-to-face), content (e.g. CBT), or contextual features (e.g. school lessons), in order to describe their schedule. </t>
-        </is>
-      </c>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>counselling sessions; the first 6 weeks of the intervention; group discussion; a presentation; the last 4 weeks of the intervention</t>
-        </is>
-      </c>
-      <c r="H10" s="3" t="inlineStr">
-        <is>
-          <t>Interventions can be broken down into any number of parts, however, we only annotate this entity when the author has named a part AND used it to describe an aspect of the intervention schedule (e.g. given it a duration, defined the frequency of contact events within it, or an interval relative to a timepoint/another part).
-Example Annotations (in context):
-The "counselling sessions" took place each week for 6 weeks, and lasted roughly one hour; During the "first 6 weeks", participants received a phone call every two weeks, then for the "last 4 weeks", this was reduced to a weekly call;</t>
-        </is>
-      </c>
+          <t>Includes the start and end of a BCI, its parts, and their organisation around relevant timepoints.</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr"/>
+      <c r="H10" s="3" t="inlineStr"/>
       <c r="I10" s="3" t="inlineStr"/>
-      <c r="J10" s="3" t="inlineStr">
-        <is>
-          <t>BCI</t>
-        </is>
-      </c>
+      <c r="J10" s="3" t="inlineStr"/>
       <c r="K10" s="3" t="inlineStr"/>
       <c r="L10" s="3" t="inlineStr"/>
-      <c r="M10" s="3" t="inlineStr"/>
+      <c r="M10" s="3" t="inlineStr">
+        <is>
+          <t>BCI delivery</t>
+        </is>
+      </c>
       <c r="N10" s="3" t="inlineStr"/>
       <c r="O10" s="3" t="inlineStr"/>
       <c r="P10" s="3" t="inlineStr"/>
       <c r="Q10" s="3" t="inlineStr"/>
       <c r="R10" s="3" t="inlineStr">
         <is>
-          <t>CM; EJH</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="S10" s="3" t="inlineStr">
@@ -1066,175 +1052,180 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="T10" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
+      <c r="T10" s="3" t="inlineStr"/>
       <c r="U10" s="3" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
+          <t>BCIO:008505</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>BCI temporal part</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>A planned process that is a part of a BCI.</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>A planned part of an intervention</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Temporal parts are defined by the authors of reports. They usually group contact events with similar delivery (e.g. face-to-face), content (e.g. CBT), or contextual features (e.g. school lessons), in order to describe their schedule. </t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>counselling sessions; the first 6 weeks of the intervention; group discussion; a presentation; the last 4 weeks of the intervention</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>Interventions can be broken down into any number of parts, however, we only annotate this entity when the author has named a part AND used it to describe an aspect of the intervention schedule (e.g. given it a duration, defined the frequency of contact events within it, or an interval relative to a timepoint/another part).
+Example Annotations (in context):
+The "counselling sessions" took place each week for 6 weeks, and lasted roughly one hour; During the "first 6 weeks", participants received a phone call every two weeks, then for the "last 4 weeks", this was reduced to a weekly call;</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="inlineStr"/>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+      <c r="K11" s="3" t="inlineStr"/>
+      <c r="L11" s="3" t="inlineStr"/>
+      <c r="M11" s="3" t="inlineStr"/>
+      <c r="N11" s="3" t="inlineStr"/>
+      <c r="O11" s="3" t="inlineStr"/>
+      <c r="P11" s="3" t="inlineStr"/>
+      <c r="Q11" s="3" t="inlineStr"/>
+      <c r="R11" s="3" t="inlineStr">
+        <is>
+          <t>CM; EJH</t>
+        </is>
+      </c>
+      <c r="S11" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T11" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="U11" s="3" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
           <t>BCIO:008565</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>BCI temporal part duration</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>A temporal interval between the start and end of an intervention temporal part.</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>The planned duration of a part of an intervention</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="F11" s="3" t="inlineStr"/>
-      <c r="G11" s="3" t="inlineStr">
+      <c r="F12" s="3" t="inlineStr"/>
+      <c r="G12" s="3" t="inlineStr">
         <is>
           <t>6 weeks; 2 weeks</t>
         </is>
       </c>
-      <c r="H11" s="3" t="inlineStr">
+      <c r="H12" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">This is used to capture the overall duration of parts. We annotate only the number and the unit is derived from the context 
 Example annotation (in context): The counselling sessions ran over a "6" week period, whilst the exercise classes took place over "2" weeks 
 This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author </t>
         </is>
       </c>
-      <c r="I11" s="3" t="inlineStr"/>
-      <c r="J11" s="3" t="inlineStr"/>
-      <c r="K11" s="3" t="inlineStr"/>
-      <c r="L11" s="3" t="inlineStr">
+      <c r="I12" s="3" t="inlineStr"/>
+      <c r="J12" s="3" t="inlineStr"/>
+      <c r="K12" s="3" t="inlineStr"/>
+      <c r="L12" s="3" t="inlineStr">
         <is>
           <t>temporal interval</t>
         </is>
       </c>
-      <c r="M11" s="3" t="inlineStr"/>
-      <c r="N11" s="3" t="inlineStr"/>
-      <c r="O11" s="3" t="inlineStr"/>
-      <c r="P11" s="3" t="inlineStr">
+      <c r="M12" s="3" t="inlineStr"/>
+      <c r="N12" s="3" t="inlineStr"/>
+      <c r="O12" s="3" t="inlineStr"/>
+      <c r="P12" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q11" s="3" t="inlineStr"/>
-      <c r="R11" s="3" t="inlineStr">
+      <c r="Q12" s="3" t="inlineStr"/>
+      <c r="R12" s="3" t="inlineStr">
         <is>
           <t>CM; JH; PS</t>
         </is>
       </c>
-      <c r="S11" s="3" t="inlineStr">
+      <c r="S12" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="T11" s="3" t="inlineStr">
+      <c r="T12" s="3" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U11" s="3" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050506</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>BCI temporal part duration statistic</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is about a collection of intervention temporal part durations.</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr"/>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr"/>
-      <c r="G12" s="2" t="inlineStr"/>
-      <c r="H12" s="2" t="inlineStr"/>
-      <c r="I12" s="2" t="inlineStr"/>
-      <c r="J12" s="2" t="inlineStr"/>
-      <c r="K12" s="2" t="inlineStr"/>
-      <c r="L12" s="2" t="inlineStr"/>
-      <c r="M12" s="2" t="inlineStr"/>
-      <c r="N12" s="2" t="inlineStr"/>
-      <c r="O12" s="2" t="inlineStr"/>
-      <c r="P12" s="2" t="inlineStr"/>
-      <c r="Q12" s="2" t="inlineStr"/>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="S12" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T12" s="2" t="inlineStr"/>
-      <c r="U12" s="2" t="inlineStr"/>
+      <c r="U12" s="3" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008710</t>
+          <t>BCIO:050506</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>BCI temporal part frequency</t>
+          <t>BCI temporal part duration statistic</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>A data item that is how often intervention temporal parts occur within a BCI.</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>How often intervention parts are planned to occur</t>
-        </is>
-      </c>
+          <t>A data item that is about a collection of intervention temporal part durations.</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>This is useful when grouping contact events together to the schedule of an intervention. For example, authors may describe participants as taking part in 90 minutes of physical activity weekly. These 90 minutes could be split across several contact events, however together these contact events form an intervention part which occurs weekly.</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>Participants took part in 90 minutes of PA "weekly"</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Use this entity to annotate descriptions of the frequency of intervention temporal parts  that may be spread over multiple sessions. Usually descriptions refer to the frequency of a single session (e.g. a weekly telephone call) in which case you can annotate using contact event frequency. However, occasionally authors describe frequencies which may take place over multiple contact events. For example, participants may be required to take part in a certain amount of physical activity each week, which can be split over multiple sessions. In this case, annotate using intervention temporal part frequency.  
-Example annotation in context: Participants took part in 90 minutes of PA "weekly" </t>
-        </is>
-      </c>
+      <c r="F13" s="2" t="inlineStr"/>
+      <c r="G13" s="2" t="inlineStr"/>
+      <c r="H13" s="2" t="inlineStr"/>
       <c r="I13" s="2" t="inlineStr"/>
       <c r="J13" s="2" t="inlineStr"/>
       <c r="K13" s="2" t="inlineStr"/>
@@ -1246,7 +1237,7 @@
       <c r="Q13" s="2" t="inlineStr"/>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>CM; JH</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
@@ -1260,36 +1251,49 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050516</t>
+          <t>BCIO:008710</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>BCI temporal part frequency statistic</t>
+          <t>BCI temporal part frequency</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about a collection of BCI temporal part frequencies.</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr"/>
+          <t>A data item that is how often intervention temporal parts occur within a BCI.</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>How often intervention parts are planned to occur</t>
+        </is>
+      </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr"/>
-      <c r="G14" s="2" t="inlineStr"/>
-      <c r="H14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>This is useful when grouping contact events together to the schedule of an intervention. For example, authors may describe participants as taking part in 90 minutes of physical activity weekly. These 90 minutes could be split across several contact events, however together these contact events form an intervention part which occurs weekly.</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>Participants took part in 90 minutes of PA "weekly"</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use this entity to annotate descriptions of the frequency of intervention temporal parts  that may be spread over multiple sessions. Usually descriptions refer to the frequency of a single session (e.g. a weekly telephone call) in which case you can annotate using contact event frequency. However, occasionally authors describe frequencies which may take place over multiple contact events. For example, participants may be required to take part in a certain amount of physical activity each week, which can be split over multiple sessions. In this case, annotate using intervention temporal part frequency.  
+Example annotation in context: Participants took part in 90 minutes of PA "weekly" </t>
+        </is>
+      </c>
       <c r="I14" s="2" t="inlineStr"/>
       <c r="J14" s="2" t="inlineStr"/>
       <c r="K14" s="2" t="inlineStr"/>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>BCI temporal part frequency</t>
-        </is>
-      </c>
+      <c r="L14" s="2" t="inlineStr"/>
       <c r="M14" s="2" t="inlineStr"/>
       <c r="N14" s="2" t="inlineStr"/>
       <c r="O14" s="2" t="inlineStr"/>
@@ -1297,7 +1301,7 @@
       <c r="Q14" s="2" t="inlineStr"/>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>CM; JH</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
@@ -1309,264 +1313,268 @@
       <c r="U14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050516</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>BCI temporal part frequency statistic</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is about a collection of BCI temporal part frequencies.</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr"/>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr"/>
+      <c r="G15" s="2" t="inlineStr"/>
+      <c r="H15" s="2" t="inlineStr"/>
+      <c r="I15" s="2" t="inlineStr"/>
+      <c r="J15" s="2" t="inlineStr"/>
+      <c r="K15" s="2" t="inlineStr"/>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>BCI temporal part frequency</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr"/>
+      <c r="N15" s="2" t="inlineStr"/>
+      <c r="O15" s="2" t="inlineStr"/>
+      <c r="P15" s="2" t="inlineStr"/>
+      <c r="Q15" s="2" t="inlineStr"/>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr"/>
+      <c r="U15" s="2" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>PATO:0000044</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>frequency</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>A physical quality which inheres in a bearer by virtue of the number of the bearer's repetitive actions in a particular time.</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>BCIO:008575</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>interval between BCI temporal parts</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>A temporal interval between the end of one BCI temporal part and the beginning of a subsequent BCI temporal part.</t>
         </is>
       </c>
-      <c r="D16" s="3" t="inlineStr">
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t>The planned duration of a break between two parts of an intervention</t>
         </is>
       </c>
-      <c r="E16" s="3" t="inlineStr">
+      <c r="E17" s="3" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="F16" s="3" t="inlineStr"/>
-      <c r="G16" s="3" t="inlineStr">
+      <c r="F17" s="3" t="inlineStr"/>
+      <c r="G17" s="3" t="inlineStr">
         <is>
           <t>"2 weeks"; "1 day"</t>
         </is>
       </c>
-      <c r="H16" s="3" t="inlineStr">
+      <c r="H17" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">This is used to capture intervals between BCI parts and timepoints. We annotate only the number and the unit is derived from the context 
 Example annotation (in context): Exercise classes started "2 weeks" after the education phase of the intervention. 
 This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author </t>
         </is>
       </c>
-      <c r="I16" s="3" t="inlineStr"/>
-      <c r="J16" s="3" t="inlineStr"/>
-      <c r="K16" s="3" t="inlineStr"/>
-      <c r="L16" s="3" t="inlineStr">
-        <is>
-          <t>temporal interval</t>
-        </is>
-      </c>
-      <c r="M16" s="3" t="inlineStr"/>
-      <c r="N16" s="3" t="inlineStr"/>
-      <c r="O16" s="3" t="inlineStr"/>
-      <c r="P16" s="3" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="Q16" s="3" t="inlineStr"/>
-      <c r="R16" s="3" t="inlineStr">
-        <is>
-          <t>CM; JH</t>
-        </is>
-      </c>
-      <c r="S16" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T16" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="U16" s="3" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:008540</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>irregular intervention schedule</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events change over the course of a temporal part or BCI.  </t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>A type of schedule which plans that the duration and frequency of sessions or digital contacts vary across the course of an intervention</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>BCI schedule of delivery</t>
-        </is>
-      </c>
-      <c r="F17" s="3" t="inlineStr"/>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>telephone feedback sessions were more frequent during the first 6 weeks; participants were free to access the app whenever they desired</t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We use this to capture instances when authors state that the schedule (i.e. duration and frequency of contact events) varies over the course of a part or intervention. 
-Example annotation in context: "participants were free to access the app as and when they desired";"telephone feedback sessions were more frequent during the first 6 weeks" </t>
-        </is>
-      </c>
       <c r="I17" s="3" t="inlineStr"/>
       <c r="J17" s="3" t="inlineStr"/>
       <c r="K17" s="3" t="inlineStr"/>
-      <c r="L17" s="3" t="inlineStr"/>
+      <c r="L17" s="3" t="inlineStr">
+        <is>
+          <t>temporal interval</t>
+        </is>
+      </c>
       <c r="M17" s="3" t="inlineStr"/>
       <c r="N17" s="3" t="inlineStr"/>
       <c r="O17" s="3" t="inlineStr"/>
-      <c r="P17" s="3" t="inlineStr"/>
-      <c r="Q17" s="3" t="inlineStr">
+      <c r="P17" s="3" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="Q17" s="3" t="inlineStr"/>
+      <c r="R17" s="3" t="inlineStr">
+        <is>
+          <t>CM; JH</t>
+        </is>
+      </c>
+      <c r="S17" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T17" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="U17" s="3" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:008540</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>irregular intervention schedule</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events change over the course of a temporal part or BCI.  </t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>A type of schedule which plans that the duration and frequency of sessions or digital contacts vary across the course of an intervention</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>BCI schedule of delivery</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr"/>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>telephone feedback sessions were more frequent during the first 6 weeks; participants were free to access the app whenever they desired</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We use this to capture instances when authors state that the schedule (i.e. duration and frequency of contact events) varies over the course of a part or intervention. 
+Example annotation in context: "participants were free to access the app as and when they desired";"telephone feedback sessions were more frequent during the first 6 weeks" </t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr"/>
+      <c r="J18" s="3" t="inlineStr"/>
+      <c r="K18" s="3" t="inlineStr"/>
+      <c r="L18" s="3" t="inlineStr"/>
+      <c r="M18" s="3" t="inlineStr"/>
+      <c r="N18" s="3" t="inlineStr"/>
+      <c r="O18" s="3" t="inlineStr"/>
+      <c r="P18" s="3" t="inlineStr"/>
+      <c r="Q18" s="3" t="inlineStr">
         <is>
           <t>relationship? is about schedule? or is a type of schedule?</t>
         </is>
       </c>
-      <c r="R17" s="3" t="inlineStr">
+      <c r="R18" s="3" t="inlineStr">
         <is>
           <t>CM; JH</t>
         </is>
       </c>
-      <c r="S17" s="3" t="inlineStr">
+      <c r="S18" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="T17" s="3" t="inlineStr">
+      <c r="T18" s="3" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U17" s="3" t="inlineStr">
+      <c r="U18" s="3" t="inlineStr">
         <is>
           <t>should we also add separate entities for fixed and variable schedule, to describe cases when schedules vary across participants? We previously had these entities within the ontology but they were removed as they didn't come up explicitly in papers and our old definition of variable schedule overlapped with the definition for irregular schedule (CM)</t>
         </is>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050507</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>maximum BCI contact event duration</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>A BCI contact event duration statistic that is the highest value from a collection of BCI contact event durations.</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr"/>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>BCI contact event duration statistic</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr"/>
-      <c r="G18" s="2" t="inlineStr"/>
-      <c r="H18" s="2" t="inlineStr"/>
-      <c r="I18" s="2" t="inlineStr"/>
-      <c r="J18" s="2" t="inlineStr"/>
-      <c r="K18" s="2" t="inlineStr"/>
-      <c r="L18" s="2" t="inlineStr"/>
-      <c r="M18" s="2" t="inlineStr"/>
-      <c r="N18" s="2" t="inlineStr"/>
-      <c r="O18" s="2" t="inlineStr"/>
-      <c r="P18" s="2" t="inlineStr"/>
-      <c r="Q18" s="2" t="inlineStr"/>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="S18" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T18" s="2" t="inlineStr"/>
-      <c r="U18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050488</t>
+          <t>BCIO:050507</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>maximum BCI contact event frequency</t>
+          <t>maximum BCI contact event duration</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>A BCI contact event frequency statistic that is the highest value from a collection of BCI contact event frequencies.</t>
+          <t>A BCI contact event duration statistic that is the highest value from a collection of BCI contact event durations.</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>BCI contact event frequency statistic</t>
+          <t>BCI contact event duration statistic</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr"/>
@@ -1575,11 +1583,7 @@
       <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>BCI contact event frequency</t>
-        </is>
-      </c>
+      <c r="L19" s="2" t="inlineStr"/>
       <c r="M19" s="2" t="inlineStr"/>
       <c r="N19" s="2" t="inlineStr"/>
       <c r="O19" s="2" t="inlineStr"/>
@@ -1601,23 +1605,23 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050489</t>
+          <t>BCIO:050488</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>maximum BCI contact event number</t>
+          <t>maximum BCI contact event frequency</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>A BCI contact event number statistic that is the highest value from a collection of BCI contact event numbers.</t>
+          <t>A BCI contact event frequency statistic that is the highest value from a collection of BCI contact event frequencies.</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>BCI contact event number statistic</t>
+          <t>BCI contact event frequency statistic</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr"/>
@@ -1628,7 +1632,7 @@
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>number of BCI contact events</t>
+          <t>BCI contact event frequency</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr"/>
@@ -1652,23 +1656,23 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050490</t>
+          <t>BCIO:050489</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>maximum BCI duration</t>
+          <t>maximum BCI contact event number</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>A BCI duration statistic that is the highest value from a collection of BCI durations.</t>
+          <t>A BCI contact event number statistic that is the highest value from a collection of BCI contact event numbers.</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>BCI duration statistic</t>
+          <t>BCI contact event number statistic</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr"/>
@@ -1679,7 +1683,7 @@
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>BCI duration</t>
+          <t>number of BCI contact events</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr"/>
@@ -1703,23 +1707,23 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050508</t>
+          <t>BCIO:050490</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>maximum BCI temporal part duration</t>
+          <t>maximum BCI duration</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>A BCI temporal part duration statistic that denotes the highest value from a collection of BCI temporal part durations.</t>
+          <t>A BCI duration statistic that is the highest value from a collection of BCI durations.</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>BCI temporal part duration statistic</t>
+          <t>BCI duration statistic</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr"/>
@@ -1728,7 +1732,11 @@
       <c r="I22" s="2" t="inlineStr"/>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
-      <c r="L22" s="2" t="inlineStr"/>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>BCI duration</t>
+        </is>
+      </c>
       <c r="M22" s="2" t="inlineStr"/>
       <c r="N22" s="2" t="inlineStr"/>
       <c r="O22" s="2" t="inlineStr"/>
@@ -1750,23 +1758,23 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050517</t>
+          <t>BCIO:050508</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>maximum BCI temporal part frequency statistic</t>
+          <t>maximum BCI temporal part duration</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>A BCI temporal part frequency statistic that is the highest value from a collection of BCI temporal part frequencies.</t>
+          <t>A BCI temporal part duration statistic that denotes the highest value from a collection of BCI temporal part durations.</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>BCI temporal part frequency statistic</t>
+          <t>BCI temporal part duration statistic</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr"/>
@@ -1775,11 +1783,7 @@
       <c r="I23" s="2" t="inlineStr"/>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>BCI temporal part frequency</t>
-        </is>
-      </c>
+      <c r="L23" s="2" t="inlineStr"/>
       <c r="M23" s="2" t="inlineStr"/>
       <c r="N23" s="2" t="inlineStr"/>
       <c r="O23" s="2" t="inlineStr"/>
@@ -1801,23 +1805,23 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050491</t>
+          <t>BCIO:050517</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>maximum total BCI contact event duration</t>
+          <t>maximum BCI temporal part frequency statistic</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>A total contact event duration statistic that is the highest value from a collection of total contact event durations.</t>
+          <t>A BCI temporal part frequency statistic that is the highest value from a collection of BCI temporal part frequencies.</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>total contact event duration statistic</t>
+          <t>BCI temporal part frequency statistic</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr"/>
@@ -1828,7 +1832,7 @@
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>total BCI contact event duration</t>
+          <t>BCI temporal part frequency</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr"/>
@@ -1852,23 +1856,23 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050509</t>
+          <t>BCIO:050491</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>mean BCI contact event duration</t>
+          <t>maximum total BCI contact event duration</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>A BCI contact event duration statistic that is the average value calculated from a collection of BCI contact event durations.</t>
+          <t>A total contact event duration statistic that is the highest value from a collection of total contact event durations.</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>BCI contact event duration statistic</t>
+          <t>total contact event duration statistic</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr"/>
@@ -1877,7 +1881,11 @@
       <c r="I25" s="2" t="inlineStr"/>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
-      <c r="L25" s="2" t="inlineStr"/>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>total BCI contact event duration</t>
+        </is>
+      </c>
       <c r="M25" s="2" t="inlineStr"/>
       <c r="N25" s="2" t="inlineStr"/>
       <c r="O25" s="2" t="inlineStr"/>
@@ -1899,23 +1907,23 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050492</t>
+          <t>BCIO:050509</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>mean BCI contact event frequency</t>
+          <t>mean BCI contact event duration</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>A BCI contact event frequency statistic that is the average value calculated from a collection of BCI contact event frequencies.</t>
+          <t>A BCI contact event duration statistic that is the average value calculated from a collection of BCI contact event durations.</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>BCI contact event frequency statistic</t>
+          <t>BCI contact event duration statistic</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr"/>
@@ -1924,11 +1932,7 @@
       <c r="I26" s="2" t="inlineStr"/>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>BCI contact event frequency</t>
-        </is>
-      </c>
+      <c r="L26" s="2" t="inlineStr"/>
       <c r="M26" s="2" t="inlineStr"/>
       <c r="N26" s="2" t="inlineStr"/>
       <c r="O26" s="2" t="inlineStr"/>
@@ -1950,23 +1954,23 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050493</t>
+          <t>BCIO:050492</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>mean BCI contact event number</t>
+          <t>mean BCI contact event frequency</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>A BCI contact event number statistic that is the average value calculated from a collection of BCI contact event numbers.</t>
+          <t>A BCI contact event frequency statistic that is the average value calculated from a collection of BCI contact event frequencies.</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>BCI contact event number statistic</t>
+          <t>BCI contact event frequency statistic</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr"/>
@@ -1977,7 +1981,7 @@
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>number of BCI contact events</t>
+          <t>BCI contact event frequency</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr"/>
@@ -2001,23 +2005,23 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050494</t>
+          <t>BCIO:050493</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>mean BCI duration</t>
+          <t>mean BCI contact event number</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>A BCI duration statistic that is the average value calculated from a collection of BCI durations.</t>
+          <t>A BCI contact event number statistic that is the average value calculated from a collection of BCI contact event numbers.</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>BCI duration statistic</t>
+          <t>BCI contact event number statistic</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr"/>
@@ -2028,7 +2032,7 @@
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>BCI duration</t>
+          <t>number of BCI contact events</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr"/>
@@ -2052,23 +2056,23 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050510</t>
+          <t>BCIO:050494</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>mean BCI temporal part duration</t>
+          <t>mean BCI duration</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>A BCI temporal part duration statistic that is the average value calculated from a collection of BCI temporal part durations.</t>
+          <t>A BCI duration statistic that is the average value calculated from a collection of BCI durations.</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>BCI temporal part duration statistic</t>
+          <t>BCI duration statistic</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr"/>
@@ -2077,7 +2081,11 @@
       <c r="I29" s="2" t="inlineStr"/>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
-      <c r="L29" s="2" t="inlineStr"/>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>BCI duration</t>
+        </is>
+      </c>
       <c r="M29" s="2" t="inlineStr"/>
       <c r="N29" s="2" t="inlineStr"/>
       <c r="O29" s="2" t="inlineStr"/>
@@ -2099,23 +2107,23 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050518</t>
+          <t>BCIO:050510</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>mean BCI temporal part frequency statistic</t>
+          <t>mean BCI temporal part duration</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>A BCI temporal part frequency statistic that is the average value calculated from a collection of BCI temporal part frequencies.</t>
+          <t>A BCI temporal part duration statistic that is the average value calculated from a collection of BCI temporal part durations.</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>BCI temporal part frequency statistic</t>
+          <t>BCI temporal part duration statistic</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr"/>
@@ -2124,11 +2132,7 @@
       <c r="I30" s="2" t="inlineStr"/>
       <c r="J30" s="2" t="inlineStr"/>
       <c r="K30" s="2" t="inlineStr"/>
-      <c r="L30" s="2" t="inlineStr">
-        <is>
-          <t>BCI temporal part frequency</t>
-        </is>
-      </c>
+      <c r="L30" s="2" t="inlineStr"/>
       <c r="M30" s="2" t="inlineStr"/>
       <c r="N30" s="2" t="inlineStr"/>
       <c r="O30" s="2" t="inlineStr"/>
@@ -2150,23 +2154,23 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050495</t>
+          <t>BCIO:050518</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>mean total BCI contact event duration</t>
+          <t>mean BCI temporal part frequency statistic</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>A total contact event duration statistic that is the average value calculated from a collection of total contact event durations.</t>
+          <t>A BCI temporal part frequency statistic that is the average value calculated from a collection of BCI temporal part frequencies.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>total contact event duration statistic</t>
+          <t>BCI temporal part frequency statistic</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr"/>
@@ -2177,7 +2181,7 @@
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>total BCI contact event duration</t>
+          <t>BCI temporal part frequency</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr"/>
@@ -2201,23 +2205,23 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050511</t>
+          <t>BCIO:050495</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>median BCI contact event duration</t>
+          <t>mean total BCI contact event duration</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>A BCI contact event duration statistic that is the central value of a collection of BCI contact event durations when they are arranged in ascending order.</t>
+          <t>A total contact event duration statistic that is the average value calculated from a collection of total contact event durations.</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>BCI contact event duration statistic</t>
+          <t>total contact event duration statistic</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr"/>
@@ -2226,7 +2230,11 @@
       <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
-      <c r="L32" s="2" t="inlineStr"/>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>total BCI contact event duration</t>
+        </is>
+      </c>
       <c r="M32" s="2" t="inlineStr"/>
       <c r="N32" s="2" t="inlineStr"/>
       <c r="O32" s="2" t="inlineStr"/>
@@ -2248,23 +2256,23 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050496</t>
+          <t>BCIO:050511</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>median BCI contact event frequency</t>
+          <t>median BCI contact event duration</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>A BCI contact event frequency statistic that is the central value of a collection of  BCI contact event frequencies when they are arranged in ascending order.</t>
+          <t>A BCI contact event duration statistic that is the central value of a collection of BCI contact event durations when they are arranged in ascending order.</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>BCI contact event frequency statistic</t>
+          <t>BCI contact event duration statistic</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr"/>
@@ -2273,11 +2281,7 @@
       <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
-      <c r="L33" s="2" t="inlineStr">
-        <is>
-          <t>BCI contact event frequency</t>
-        </is>
-      </c>
+      <c r="L33" s="2" t="inlineStr"/>
       <c r="M33" s="2" t="inlineStr"/>
       <c r="N33" s="2" t="inlineStr"/>
       <c r="O33" s="2" t="inlineStr"/>
@@ -2299,23 +2303,23 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050497</t>
+          <t>BCIO:050496</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>median BCI contact event number</t>
+          <t>median BCI contact event frequency</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>A BCI contact event number statistic that is the central value of a collection of  BCI contact event numbers when they are arranged in ascending order.</t>
+          <t>A BCI contact event frequency statistic that is the central value of a collection of  BCI contact event frequencies when they are arranged in ascending order.</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>BCI contact event number statistic</t>
+          <t>BCI contact event frequency statistic</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr"/>
@@ -2326,7 +2330,7 @@
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>number of BCI contact events</t>
+          <t>BCI contact event frequency</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr"/>
@@ -2350,23 +2354,23 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050498</t>
+          <t>BCIO:050497</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>median BCI duration</t>
+          <t>median BCI contact event number</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>A BCI duration statistic that is the central value of a collection of BCI durations when they are arranged in ascending order.</t>
+          <t>A BCI contact event number statistic that is the central value of a collection of  BCI contact event numbers when they are arranged in ascending order.</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>BCI duration statistic</t>
+          <t>BCI contact event number statistic</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr"/>
@@ -2377,7 +2381,7 @@
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>BCI duration</t>
+          <t>number of BCI contact events</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr"/>
@@ -2401,23 +2405,23 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050512</t>
+          <t>BCIO:050498</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>median BCI temporal part duration</t>
+          <t>median BCI duration</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>A BCI temporal part duration statistic that is the central value of a collection of BCI temporal part durations when they are arranged in ascending order.</t>
+          <t>A BCI duration statistic that is the central value of a collection of BCI durations when they are arranged in ascending order.</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>BCI temporal part duration statistic</t>
+          <t>BCI duration statistic</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr"/>
@@ -2426,7 +2430,11 @@
       <c r="I36" s="2" t="inlineStr"/>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
-      <c r="L36" s="2" t="inlineStr"/>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>BCI duration</t>
+        </is>
+      </c>
       <c r="M36" s="2" t="inlineStr"/>
       <c r="N36" s="2" t="inlineStr"/>
       <c r="O36" s="2" t="inlineStr"/>
@@ -2448,23 +2456,23 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050519</t>
+          <t>BCIO:050512</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>median BCI temporal part frequency statistic</t>
+          <t>median BCI temporal part duration</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>A BCI temporal part frequency statistic that is the central value of a collection of BCI temporal part frequencies when they are arranged in ascending order.</t>
+          <t>A BCI temporal part duration statistic that is the central value of a collection of BCI temporal part durations when they are arranged in ascending order.</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>BCI temporal part frequency statistic</t>
+          <t>BCI temporal part duration statistic</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr"/>
@@ -2473,11 +2481,7 @@
       <c r="I37" s="2" t="inlineStr"/>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
-      <c r="L37" s="2" t="inlineStr">
-        <is>
-          <t>BCI temporal part frequency</t>
-        </is>
-      </c>
+      <c r="L37" s="2" t="inlineStr"/>
       <c r="M37" s="2" t="inlineStr"/>
       <c r="N37" s="2" t="inlineStr"/>
       <c r="O37" s="2" t="inlineStr"/>
@@ -2499,23 +2503,23 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050499</t>
+          <t>BCIO:050519</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>median total BCI contact event duration</t>
+          <t>median BCI temporal part frequency statistic</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>A total contact event duration statistic that is the central value of a collection of total contact event durations when they are arranged in ascending order.</t>
+          <t>A BCI temporal part frequency statistic that is the central value of a collection of BCI temporal part frequencies when they are arranged in ascending order.</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>total contact event duration statistic</t>
+          <t>BCI temporal part frequency statistic</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr"/>
@@ -2526,7 +2530,7 @@
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>total BCI contact event duration</t>
+          <t>BCI temporal part frequency</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr"/>
@@ -2550,23 +2554,23 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050513</t>
+          <t>BCIO:050499</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>minimum BCI contact event duration</t>
+          <t>median total BCI contact event duration</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>A BCI contact event duration statistic that is the lowest value from a collection of BCI contact event durations.</t>
+          <t>A total contact event duration statistic that is the central value of a collection of total contact event durations when they are arranged in ascending order.</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>BCI contact event duration statistic</t>
+          <t>total contact event duration statistic</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr"/>
@@ -2575,7 +2579,11 @@
       <c r="I39" s="2" t="inlineStr"/>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
-      <c r="L39" s="2" t="inlineStr"/>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>total BCI contact event duration</t>
+        </is>
+      </c>
       <c r="M39" s="2" t="inlineStr"/>
       <c r="N39" s="2" t="inlineStr"/>
       <c r="O39" s="2" t="inlineStr"/>
@@ -2597,23 +2605,23 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050500</t>
+          <t>BCIO:050513</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>minimum BCI contact event frequency</t>
+          <t>minimum BCI contact event duration</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>A BCI contact event frequency statistic that is the lowest value from a collection of BCI contact event frequencies.</t>
+          <t>A BCI contact event duration statistic that is the lowest value from a collection of BCI contact event durations.</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>BCI contact event frequency statistic</t>
+          <t>BCI contact event duration statistic</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr"/>
@@ -2622,11 +2630,7 @@
       <c r="I40" s="2" t="inlineStr"/>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
-      <c r="L40" s="2" t="inlineStr">
-        <is>
-          <t>BCI contact event frequency</t>
-        </is>
-      </c>
+      <c r="L40" s="2" t="inlineStr"/>
       <c r="M40" s="2" t="inlineStr"/>
       <c r="N40" s="2" t="inlineStr"/>
       <c r="O40" s="2" t="inlineStr"/>
@@ -2648,23 +2652,23 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050501</t>
+          <t>BCIO:050500</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>minimum BCI duration</t>
+          <t>minimum BCI contact event frequency</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>A BCI duration statistic that is the lowest value from a collection of BCI durations.</t>
+          <t>A BCI contact event frequency statistic that is the lowest value from a collection of BCI contact event frequencies.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>BCI duration statistic</t>
+          <t>BCI contact event frequency statistic</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr"/>
@@ -2675,7 +2679,7 @@
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>BCI duration</t>
+          <t>BCI contact event frequency</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr"/>
@@ -2699,23 +2703,23 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050514</t>
+          <t>BCIO:050501</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>minimum BCI temporal part duration</t>
+          <t>minimum BCI duration</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>A BCI temporal part duration statistic that denotes the lowest value from a collection of BCI temporal part durations.</t>
+          <t>A BCI duration statistic that is the lowest value from a collection of BCI durations.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>BCI temporal part duration statistic</t>
+          <t>BCI duration statistic</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr"/>
@@ -2724,7 +2728,11 @@
       <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr"/>
       <c r="K42" s="2" t="inlineStr"/>
-      <c r="L42" s="2" t="inlineStr"/>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>BCI duration</t>
+        </is>
+      </c>
       <c r="M42" s="2" t="inlineStr"/>
       <c r="N42" s="2" t="inlineStr"/>
       <c r="O42" s="2" t="inlineStr"/>
@@ -2746,23 +2754,23 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050520</t>
+          <t>BCIO:050514</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>minimum BCI temporal part frequency statistic</t>
+          <t>minimum BCI temporal part duration</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>A BCI temporal part frequency statistic that is the lowest value from a collection of BCI temporal part frequencies.</t>
+          <t>A BCI temporal part duration statistic that denotes the lowest value from a collection of BCI temporal part durations.</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>BCI temporal part frequency statistic</t>
+          <t>BCI temporal part duration statistic</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr"/>
@@ -2771,11 +2779,7 @@
       <c r="I43" s="2" t="inlineStr"/>
       <c r="J43" s="2" t="inlineStr"/>
       <c r="K43" s="2" t="inlineStr"/>
-      <c r="L43" s="2" t="inlineStr">
-        <is>
-          <t>BCI temporal part frequency</t>
-        </is>
-      </c>
+      <c r="L43" s="2" t="inlineStr"/>
       <c r="M43" s="2" t="inlineStr"/>
       <c r="N43" s="2" t="inlineStr"/>
       <c r="O43" s="2" t="inlineStr"/>
@@ -2797,23 +2801,23 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050502</t>
+          <t>BCIO:050520</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>minimum contact event number</t>
+          <t>minimum BCI temporal part frequency statistic</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>A BCI contact event number statistic that is the lowest value from a collection of BCI contact event numbers.</t>
+          <t>A BCI temporal part frequency statistic that is the lowest value from a collection of BCI temporal part frequencies.</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>BCI contact event number statistic</t>
+          <t>BCI temporal part frequency statistic</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr"/>
@@ -2824,7 +2828,7 @@
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>number of BCI contact events</t>
+          <t>BCI temporal part frequency</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr"/>
@@ -2848,23 +2852,23 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050503</t>
+          <t>BCIO:050502</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>minimum total BCI contact event duration</t>
+          <t>minimum contact event number</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>A total contact event duration statistic that is the lowest value from a collection of total contact event durations.</t>
+          <t>A BCI contact event number statistic that is the lowest value from a collection of BCI contact event numbers.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>total contact event duration statistic</t>
+          <t>BCI contact event number statistic</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr"/>
@@ -2875,7 +2879,7 @@
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>total BCI contact event duration</t>
+          <t>number of BCI contact events</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr"/>
@@ -2897,145 +2901,196 @@
       <c r="U45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="inlineStr">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050503</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>minimum total BCI contact event duration</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>A total contact event duration statistic that is the lowest value from a collection of total contact event durations.</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr"/>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>total contact event duration statistic</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr"/>
+      <c r="G46" s="2" t="inlineStr"/>
+      <c r="H46" s="2" t="inlineStr"/>
+      <c r="I46" s="2" t="inlineStr"/>
+      <c r="J46" s="2" t="inlineStr"/>
+      <c r="K46" s="2" t="inlineStr"/>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>total BCI contact event duration</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr"/>
+      <c r="N46" s="2" t="inlineStr"/>
+      <c r="O46" s="2" t="inlineStr"/>
+      <c r="P46" s="2" t="inlineStr"/>
+      <c r="Q46" s="2" t="inlineStr"/>
+      <c r="R46" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="S46" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T46" s="2" t="inlineStr"/>
+      <c r="U46" s="2" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
         <is>
           <t>BCIO:008515</t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr">
+      <c r="B47" s="3" t="inlineStr">
         <is>
           <t>number of BCI contact events</t>
         </is>
       </c>
-      <c r="C46" s="3" t="inlineStr">
+      <c r="C47" s="3" t="inlineStr">
         <is>
           <t>A data item that is the number of contact events in a BCI temporal part.</t>
         </is>
       </c>
-      <c r="D46" s="3" t="inlineStr">
+      <c r="D47" s="3" t="inlineStr">
         <is>
           <t>The planned total number of sessions or digital contacts in an intervention or part</t>
         </is>
       </c>
-      <c r="E46" s="3" t="inlineStr">
+      <c r="E47" s="3" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F46" s="3" t="inlineStr"/>
-      <c r="G46" s="3" t="inlineStr">
+      <c r="F47" s="3" t="inlineStr"/>
+      <c r="G47" s="3" t="inlineStr">
         <is>
           <t>one; 6; 12; twenty</t>
         </is>
       </c>
-      <c r="H46" s="3" t="inlineStr">
+      <c r="H47" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">This entity is used to capture the number of contacts in an intervention or part. We annotate only the number and include the sentence as context. When there is only one session in a part, we can annotate non-numerical words to indicate this, e.g. 'participants attended "a" gp visit'. Sometimes authors will break parts down in which case we annotate the number of contact events which add together to create a total e.g. 'at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes'. 
 Example annotations (in context): participants attended "a" gp visit ; at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes 
 This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author </t>
         </is>
       </c>
-      <c r="I46" s="3" t="inlineStr"/>
-      <c r="J46" s="3" t="inlineStr"/>
-      <c r="K46" s="3" t="inlineStr"/>
-      <c r="L46" s="3" t="inlineStr">
+      <c r="I47" s="3" t="inlineStr"/>
+      <c r="J47" s="3" t="inlineStr"/>
+      <c r="K47" s="3" t="inlineStr"/>
+      <c r="L47" s="3" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="M46" s="3" t="inlineStr"/>
-      <c r="N46" s="3" t="inlineStr"/>
-      <c r="O46" s="3" t="inlineStr"/>
-      <c r="P46" s="3" t="inlineStr">
+      <c r="M47" s="3" t="inlineStr"/>
+      <c r="N47" s="3" t="inlineStr"/>
+      <c r="O47" s="3" t="inlineStr"/>
+      <c r="P47" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q46" s="3" t="inlineStr"/>
-      <c r="R46" s="3" t="inlineStr">
+      <c r="Q47" s="3" t="inlineStr"/>
+      <c r="R47" s="3" t="inlineStr">
         <is>
           <t>CM; JH</t>
         </is>
       </c>
-      <c r="S46" s="3" t="inlineStr">
+      <c r="S47" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="T46" s="3" t="inlineStr">
+      <c r="T47" s="3" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U46" s="3" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="U47" s="3" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>BFO:0000038</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>A region of time.</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
         <is>
           <t>occurrent</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="S47" t="inlineStr">
+      <c r="S48" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="inlineStr">
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
         <is>
           <t>BCIO:008580</t>
         </is>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">order of BCI temporal parts </t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>A BCI attribute that is the  temporal positioning of BCI temporal parts.</t>
         </is>
       </c>
-      <c r="D48" s="2" t="inlineStr"/>
-      <c r="E48" s="2" t="inlineStr"/>
-      <c r="F48" s="2" t="inlineStr"/>
-      <c r="G48" s="2" t="inlineStr">
+      <c r="D49" s="2" t="inlineStr"/>
+      <c r="E49" s="2" t="inlineStr"/>
+      <c r="F49" s="2" t="inlineStr"/>
+      <c r="G49" s="2" t="inlineStr">
         <is>
           <t>"After questionnaires were completed, feedback was selected
 out of a database with messages for each possible combination
@@ -3044,110 +3099,59 @@
 levels to the PA guidelines."</t>
         </is>
       </c>
-      <c r="H48" s="2" t="inlineStr">
+      <c r="H49" s="2" t="inlineStr">
         <is>
           <t>This is annotated as an open code when any aspect of order is described</t>
         </is>
       </c>
-      <c r="I48" s="2" t="inlineStr"/>
-      <c r="J48" s="2" t="inlineStr"/>
-      <c r="K48" s="2" t="inlineStr"/>
-      <c r="L48" s="2" t="inlineStr">
+      <c r="I49" s="2" t="inlineStr"/>
+      <c r="J49" s="2" t="inlineStr"/>
+      <c r="K49" s="2" t="inlineStr"/>
+      <c r="L49" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">BCI attribute </t>
         </is>
       </c>
-      <c r="M48" s="2" t="inlineStr">
+      <c r="M49" s="2" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="N48" s="2" t="inlineStr"/>
-      <c r="O48" s="2" t="inlineStr"/>
-      <c r="P48" s="2" t="inlineStr"/>
-      <c r="Q48" s="2" t="inlineStr"/>
-      <c r="R48" s="2" t="inlineStr">
+      <c r="N49" s="2" t="inlineStr"/>
+      <c r="O49" s="2" t="inlineStr"/>
+      <c r="P49" s="2" t="inlineStr"/>
+      <c r="Q49" s="2" t="inlineStr"/>
+      <c r="R49" s="2" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="S48" s="2" t="inlineStr">
+      <c r="S49" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T48" s="2" t="inlineStr">
+      <c r="T49" s="2" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U48" s="2" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:008595</t>
-        </is>
-      </c>
-      <c r="B49" s="4" t="inlineStr">
-        <is>
-          <t>q) same time (remove - this is a relation like before and after)</t>
-        </is>
-      </c>
-      <c r="C49" s="4" t="inlineStr">
-        <is>
-          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it occurs whilst another temporal part or timepoint occurs</t>
-        </is>
-      </c>
-      <c r="D49" s="4" t="inlineStr"/>
-      <c r="E49" s="4" t="inlineStr"/>
-      <c r="F49" s="4" t="inlineStr"/>
-      <c r="G49" s="4" t="inlineStr"/>
-      <c r="H49" s="4" t="inlineStr">
-        <is>
-          <t>This is not annotated</t>
-        </is>
-      </c>
-      <c r="I49" s="4" t="inlineStr"/>
-      <c r="J49" s="4" t="inlineStr"/>
-      <c r="K49" s="4" t="inlineStr"/>
-      <c r="L49" s="4" t="inlineStr"/>
-      <c r="M49" s="4" t="inlineStr"/>
-      <c r="N49" s="4" t="inlineStr"/>
-      <c r="O49" s="4" t="inlineStr"/>
-      <c r="P49" s="4" t="inlineStr"/>
-      <c r="Q49" s="4" t="inlineStr"/>
-      <c r="R49" s="4" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="S49" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T49" s="4" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="U49" s="4" t="inlineStr"/>
+      <c r="U49" s="2" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>BCIO:008585</t>
+          <t>BCIO:008595</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>r) before (to be removed and added to list of relations)</t>
+          <t>q) same time (remove - this is a relation like before and after)</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it ends prior to the beginning of another temporal part or timepoint</t>
+          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it occurs whilst another temporal part or timepoint occurs</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr"/>
@@ -3156,7 +3160,7 @@
       <c r="G50" s="4" t="inlineStr"/>
       <c r="H50" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">This is not annotated </t>
+          <t>This is not annotated</t>
         </is>
       </c>
       <c r="I50" s="4" t="inlineStr"/>
@@ -3170,166 +3174,165 @@
       <c r="Q50" s="4" t="inlineStr"/>
       <c r="R50" s="4" t="inlineStr">
         <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="S50" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T50" s="4" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="U50" s="4" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:008585</t>
+        </is>
+      </c>
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>r) before (to be removed and added to list of relations)</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it ends prior to the beginning of another temporal part or timepoint</t>
+        </is>
+      </c>
+      <c r="D51" s="4" t="inlineStr"/>
+      <c r="E51" s="4" t="inlineStr"/>
+      <c r="F51" s="4" t="inlineStr"/>
+      <c r="G51" s="4" t="inlineStr"/>
+      <c r="H51" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This is not annotated </t>
+        </is>
+      </c>
+      <c r="I51" s="4" t="inlineStr"/>
+      <c r="J51" s="4" t="inlineStr"/>
+      <c r="K51" s="4" t="inlineStr"/>
+      <c r="L51" s="4" t="inlineStr"/>
+      <c r="M51" s="4" t="inlineStr"/>
+      <c r="N51" s="4" t="inlineStr"/>
+      <c r="O51" s="4" t="inlineStr"/>
+      <c r="P51" s="4" t="inlineStr"/>
+      <c r="Q51" s="4" t="inlineStr"/>
+      <c r="R51" s="4" t="inlineStr">
+        <is>
           <t>CM; RW</t>
         </is>
       </c>
-      <c r="S50" s="4" t="inlineStr">
+      <c r="S51" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T50" s="4" t="inlineStr">
+      <c r="T51" s="4" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U50" s="4" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="3" t="inlineStr">
+      <c r="U51" s="4" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
         <is>
           <t>BCIO:008535</t>
         </is>
       </c>
-      <c r="B51" s="3" t="inlineStr">
+      <c r="B52" s="3" t="inlineStr">
         <is>
           <t>regular intervention schedule</t>
         </is>
       </c>
-      <c r="C51" s="3" t="inlineStr">
+      <c r="C52" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of Intervention temporal parts are uniform across the course of a BCI or BCI part.  </t>
         </is>
       </c>
-      <c r="D51" s="3" t="inlineStr">
+      <c r="D52" s="3" t="inlineStr">
         <is>
           <t>A type of schedule which plans that the duration and frequency of sessions or digital contacts remain constant across the course of an intervention</t>
         </is>
       </c>
-      <c r="E51" s="3" t="inlineStr">
+      <c r="E52" s="3" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="F51" s="3" t="inlineStr"/>
-      <c r="G51" s="3" t="inlineStr">
+      <c r="F52" s="3" t="inlineStr"/>
+      <c r="G52" s="3" t="inlineStr">
         <is>
           <t>the length and regularity of sessions were consistent across the duration of the intervention, taking place for an hour each week</t>
         </is>
       </c>
-      <c r="H51" s="3" t="inlineStr">
+      <c r="H52" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">This is used to capture when the author specifies that the schedule (length and frequency of contact events) does not change over the course of a part. This is rarely annotated as it is not usually explicitly stated. 
 Example annotation in context: "The length and regularity of sessions were consistent across the duration of the intervention" </t>
         </is>
       </c>
-      <c r="I51" s="3" t="inlineStr"/>
-      <c r="J51" s="3" t="inlineStr"/>
-      <c r="K51" s="3" t="inlineStr"/>
-      <c r="L51" s="3" t="inlineStr"/>
-      <c r="M51" s="3" t="inlineStr"/>
-      <c r="N51" s="3" t="inlineStr"/>
-      <c r="O51" s="3" t="inlineStr"/>
-      <c r="P51" s="3" t="inlineStr"/>
-      <c r="Q51" s="3" t="inlineStr">
+      <c r="I52" s="3" t="inlineStr"/>
+      <c r="J52" s="3" t="inlineStr"/>
+      <c r="K52" s="3" t="inlineStr"/>
+      <c r="L52" s="3" t="inlineStr"/>
+      <c r="M52" s="3" t="inlineStr"/>
+      <c r="N52" s="3" t="inlineStr"/>
+      <c r="O52" s="3" t="inlineStr"/>
+      <c r="P52" s="3" t="inlineStr"/>
+      <c r="Q52" s="3" t="inlineStr">
         <is>
           <t>relationship? is about schedule? or is a type of schedule?</t>
         </is>
       </c>
-      <c r="R51" s="3" t="inlineStr">
+      <c r="R52" s="3" t="inlineStr">
         <is>
           <t>CM; JH</t>
         </is>
       </c>
-      <c r="S51" s="3" t="inlineStr">
+      <c r="S52" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="T51" s="3" t="inlineStr">
+      <c r="T52" s="3" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U51" s="3" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:008590</t>
-        </is>
-      </c>
-      <c r="B52" s="4" t="inlineStr">
-        <is>
-          <t>s) after (to be removed and added to list of relations)</t>
-        </is>
-      </c>
-      <c r="C52" s="4" t="inlineStr">
-        <is>
-          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it starts following the end of another temporal part or timepoint</t>
-        </is>
-      </c>
-      <c r="D52" s="4" t="inlineStr"/>
-      <c r="E52" s="4" t="inlineStr"/>
-      <c r="F52" s="4" t="inlineStr"/>
-      <c r="G52" s="4" t="inlineStr"/>
-      <c r="H52" s="4" t="inlineStr">
-        <is>
-          <t>This is not annotated</t>
-        </is>
-      </c>
-      <c r="I52" s="4" t="inlineStr"/>
-      <c r="J52" s="4" t="inlineStr"/>
-      <c r="K52" s="4" t="inlineStr"/>
-      <c r="L52" s="4" t="inlineStr"/>
-      <c r="M52" s="4" t="inlineStr"/>
-      <c r="N52" s="4" t="inlineStr"/>
-      <c r="O52" s="4" t="inlineStr"/>
-      <c r="P52" s="4" t="inlineStr"/>
-      <c r="Q52" s="4" t="inlineStr"/>
-      <c r="R52" s="4" t="inlineStr">
-        <is>
-          <t>CM; RW</t>
-        </is>
-      </c>
-      <c r="S52" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T52" s="4" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="U52" s="4" t="inlineStr"/>
+      <c r="U52" s="3" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>BCIO:050312</t>
+          <t>BCIO:008590</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>temporal interval</t>
+          <t>s) after (to be removed and added to list of relations)</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">A temporal interval is a one-dimensional temporal region, namely that is self-connected (is without gaps or breaks).
-</t>
+          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it starts following the end of another temporal part or timepoint</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr"/>
-      <c r="E53" s="4" t="inlineStr">
-        <is>
-          <t>one-dimensional temporal region</t>
-        </is>
-      </c>
+      <c r="E53" s="4" t="inlineStr"/>
       <c r="F53" s="4" t="inlineStr"/>
       <c r="G53" s="4" t="inlineStr"/>
-      <c r="H53" s="4" t="inlineStr"/>
+      <c r="H53" s="4" t="inlineStr">
+        <is>
+          <t>This is not annotated</t>
+        </is>
+      </c>
       <c r="I53" s="4" t="inlineStr"/>
       <c r="J53" s="4" t="inlineStr"/>
       <c r="K53" s="4" t="inlineStr"/>
@@ -3341,7 +3344,7 @@
       <c r="Q53" s="4" t="inlineStr"/>
       <c r="R53" s="4" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>CM; RW</t>
         </is>
       </c>
       <c r="S53" s="4" t="inlineStr">
@@ -3349,23 +3352,28 @@
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T53" s="4" t="inlineStr"/>
+      <c r="T53" s="4" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
       <c r="U53" s="4" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>BCIO:050515</t>
+          <t>BCIO:050312</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>temporal part</t>
+          <t>temporal interval</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>A data item between the start and end of an intervention temporal part.</t>
+          <t xml:space="preserve">A temporal interval is a one-dimensional temporal region, namely that is self-connected (is without gaps or breaks).
+</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr"/>
@@ -3375,11 +3383,7 @@
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr"/>
-      <c r="G54" s="4" t="inlineStr">
-        <is>
-          <t>6 weeks; 2 weeks</t>
-        </is>
-      </c>
+      <c r="G54" s="4" t="inlineStr"/>
       <c r="H54" s="4" t="inlineStr"/>
       <c r="I54" s="4" t="inlineStr"/>
       <c r="J54" s="4" t="inlineStr"/>
@@ -3392,7 +3396,7 @@
       <c r="Q54" s="4" t="inlineStr"/>
       <c r="R54" s="4" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="S54" s="4" t="inlineStr">
@@ -3404,115 +3408,166 @@
       <c r="U54" s="4" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="inlineStr">
+      <c r="A55" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:050515</t>
+        </is>
+      </c>
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>temporal part</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>A data item between the start and end of an intervention temporal part.</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr"/>
+      <c r="E55" s="4" t="inlineStr">
+        <is>
+          <t>one-dimensional temporal region</t>
+        </is>
+      </c>
+      <c r="F55" s="4" t="inlineStr"/>
+      <c r="G55" s="4" t="inlineStr">
+        <is>
+          <t>6 weeks; 2 weeks</t>
+        </is>
+      </c>
+      <c r="H55" s="4" t="inlineStr"/>
+      <c r="I55" s="4" t="inlineStr"/>
+      <c r="J55" s="4" t="inlineStr"/>
+      <c r="K55" s="4" t="inlineStr"/>
+      <c r="L55" s="4" t="inlineStr"/>
+      <c r="M55" s="4" t="inlineStr"/>
+      <c r="N55" s="4" t="inlineStr"/>
+      <c r="O55" s="4" t="inlineStr"/>
+      <c r="P55" s="4" t="inlineStr"/>
+      <c r="Q55" s="4" t="inlineStr"/>
+      <c r="R55" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="S55" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T55" s="4" t="inlineStr"/>
+      <c r="U55" s="4" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="inlineStr">
         <is>
           <t>BCIO:008530</t>
         </is>
       </c>
-      <c r="B55" s="5" t="inlineStr">
+      <c r="B56" s="5" t="inlineStr">
         <is>
           <t>temporal reference associated with the intervention</t>
         </is>
       </c>
-      <c r="C55" s="5" t="inlineStr">
+      <c r="C56" s="5" t="inlineStr">
         <is>
           <t>A temporal region against which a BCI  temporal part is referenced.</t>
         </is>
       </c>
-      <c r="D55" s="5" t="inlineStr">
+      <c r="D56" s="5" t="inlineStr">
         <is>
           <t>A statement which describes how the delivery of intervention parts is scheduled relative to associated external events.</t>
         </is>
       </c>
-      <c r="E55" s="5" t="inlineStr">
+      <c r="E56" s="5" t="inlineStr">
         <is>
           <t>temporal region</t>
         </is>
       </c>
-      <c r="F55" s="5" t="inlineStr">
+      <c r="F56" s="5" t="inlineStr">
         <is>
           <t>Temporal references are used by authors when there is a behaviourally relevant event which structures the schedule of a BCI. This can include things like quit dates, childbirth, medical operations etc.
 We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence.</t>
         </is>
       </c>
-      <c r="G55" s="5" t="inlineStr">
+      <c r="G56" s="5" t="inlineStr">
         <is>
           <t>A feedback call was scheduled to be delivered around 6 months after the birth of the baby; The smoking intervention started 2 weeks after participants were enrolled into an inpatient setting</t>
         </is>
       </c>
-      <c r="H55" s="5" t="inlineStr">
+      <c r="H56" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Annotate the words used by authors to describe key events which are not themselves part of the intervention but are relevant to the description of the schedule of the intervention. 
 Example annotation in context: "A feedback call was scheduled to be delivered around 6 months after the birth of the baby".  </t>
         </is>
       </c>
-      <c r="I55" s="5" t="inlineStr"/>
-      <c r="J55" s="5" t="inlineStr">
+      <c r="I56" s="5" t="inlineStr"/>
+      <c r="J56" s="5" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="K55" s="5" t="inlineStr"/>
-      <c r="L55" s="5" t="inlineStr"/>
-      <c r="M55" s="5" t="inlineStr"/>
-      <c r="N55" s="5" t="inlineStr"/>
-      <c r="O55" s="5" t="inlineStr"/>
-      <c r="P55" s="5" t="inlineStr"/>
-      <c r="Q55" s="5" t="inlineStr">
+      <c r="K56" s="5" t="inlineStr"/>
+      <c r="L56" s="5" t="inlineStr"/>
+      <c r="M56" s="5" t="inlineStr"/>
+      <c r="N56" s="5" t="inlineStr"/>
+      <c r="O56" s="5" t="inlineStr"/>
+      <c r="P56" s="5" t="inlineStr"/>
+      <c r="Q56" s="5" t="inlineStr">
         <is>
           <t>check relationships</t>
         </is>
       </c>
-      <c r="R55" s="5" t="inlineStr">
+      <c r="R56" s="5" t="inlineStr">
         <is>
           <t>CM; JH</t>
         </is>
       </c>
-      <c r="S55" s="5" t="inlineStr">
+      <c r="S56" s="5" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="T55" s="5" t="inlineStr">
+      <c r="T56" s="5" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U55" s="5" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="5" t="inlineStr">
+      <c r="U56" s="5" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="inlineStr">
         <is>
           <t>BCIO:008545</t>
         </is>
       </c>
-      <c r="B56" s="5" t="inlineStr">
+      <c r="B57" s="5" t="inlineStr">
         <is>
           <t>total BCI contact event duration</t>
         </is>
       </c>
-      <c r="C56" s="5" t="inlineStr">
+      <c r="C57" s="5" t="inlineStr">
         <is>
           <t>A temporal interval that is the total of intervention temporal parts within a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="D56" s="5" t="inlineStr">
+      <c r="D57" s="5" t="inlineStr">
         <is>
           <t>The planned total duration of all sessions or digital contacts in an intervention or part</t>
         </is>
       </c>
-      <c r="E56" s="5" t="inlineStr">
+      <c r="E57" s="5" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="F56" s="5" t="inlineStr"/>
-      <c r="G56" s="5" t="inlineStr">
+      <c r="F57" s="5" t="inlineStr"/>
+      <c r="G57" s="5" t="inlineStr">
         <is>
           <t>150 minutes; 12 hours</t>
         </is>
       </c>
-      <c r="H56" s="5" t="inlineStr">
+      <c r="H57" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Use this entity when authors describe the total amount of contact time for a particular part/intervention across multiple contact events. 
 When there is only one session, the total duration of contact events and the duration of a single contact event are technically the same. As a convention, we would annotate this using duration of contact event instead of total duration of contact event. 
@@ -3520,197 +3575,126 @@
 This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author </t>
         </is>
       </c>
-      <c r="I56" s="5" t="inlineStr"/>
-      <c r="J56" s="5" t="inlineStr"/>
-      <c r="K56" s="5" t="inlineStr"/>
-      <c r="L56" s="5" t="inlineStr">
+      <c r="I57" s="5" t="inlineStr"/>
+      <c r="J57" s="5" t="inlineStr"/>
+      <c r="K57" s="5" t="inlineStr"/>
+      <c r="L57" s="5" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="M56" s="5" t="inlineStr"/>
-      <c r="N56" s="5" t="inlineStr"/>
-      <c r="O56" s="5" t="inlineStr"/>
-      <c r="P56" s="5" t="inlineStr">
+      <c r="M57" s="5" t="inlineStr"/>
+      <c r="N57" s="5" t="inlineStr"/>
+      <c r="O57" s="5" t="inlineStr"/>
+      <c r="P57" s="5" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q56" s="5" t="inlineStr">
+      <c r="Q57" s="5" t="inlineStr">
         <is>
           <t>"is about" contact events or "is about" duration of contact events?</t>
         </is>
       </c>
-      <c r="R56" s="5" t="inlineStr">
+      <c r="R57" s="5" t="inlineStr">
         <is>
           <t>CM; JH</t>
         </is>
       </c>
-      <c r="S56" s="5" t="inlineStr">
+      <c r="S57" s="5" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="T56" s="5" t="inlineStr">
+      <c r="T57" s="5" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U56" s="5" t="inlineStr">
+      <c r="U57" s="5" t="inlineStr">
         <is>
           <t>what type of data item is this? (CM)</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="inlineStr">
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
         <is>
           <t>BCIO:050504</t>
         </is>
       </c>
-      <c r="B57" s="2" t="inlineStr">
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>total BCI contact event duration statistic</t>
         </is>
       </c>
-      <c r="C57" s="2" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr">
         <is>
           <t>A data item that is about a collection of total contact event durations.</t>
         </is>
       </c>
-      <c r="D57" s="2" t="inlineStr"/>
-      <c r="E57" s="2" t="inlineStr">
+      <c r="D58" s="2" t="inlineStr"/>
+      <c r="E58" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F57" s="2" t="inlineStr"/>
-      <c r="G57" s="2" t="inlineStr"/>
-      <c r="H57" s="2" t="inlineStr"/>
-      <c r="I57" s="2" t="inlineStr"/>
-      <c r="J57" s="2" t="inlineStr"/>
-      <c r="K57" s="2" t="inlineStr"/>
-      <c r="L57" s="2" t="inlineStr">
+      <c r="F58" s="2" t="inlineStr"/>
+      <c r="G58" s="2" t="inlineStr"/>
+      <c r="H58" s="2" t="inlineStr"/>
+      <c r="I58" s="2" t="inlineStr"/>
+      <c r="J58" s="2" t="inlineStr"/>
+      <c r="K58" s="2" t="inlineStr"/>
+      <c r="L58" s="2" t="inlineStr">
         <is>
           <t>total BCI contact event duration</t>
         </is>
       </c>
-      <c r="M57" s="2" t="inlineStr"/>
-      <c r="N57" s="2" t="inlineStr"/>
-      <c r="O57" s="2" t="inlineStr"/>
-      <c r="P57" s="2" t="inlineStr"/>
-      <c r="Q57" s="2" t="inlineStr"/>
-      <c r="R57" s="2" t="inlineStr">
+      <c r="M58" s="2" t="inlineStr"/>
+      <c r="N58" s="2" t="inlineStr"/>
+      <c r="O58" s="2" t="inlineStr"/>
+      <c r="P58" s="2" t="inlineStr"/>
+      <c r="Q58" s="2" t="inlineStr"/>
+      <c r="R58" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="S57" s="2" t="inlineStr">
+      <c r="S58" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T57" s="2" t="inlineStr"/>
-      <c r="U57" s="2" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:008605</t>
-        </is>
-      </c>
-      <c r="B58" s="4" t="inlineStr">
-        <is>
-          <t>z) (removed as equivalent to number of contact events) number of repetitions</t>
-        </is>
-      </c>
-      <c r="C58" s="4" t="inlineStr">
-        <is>
-          <t>A data item that is the number of repetitions of contact events within a temporal part or BCI for which the frequency is described</t>
-        </is>
-      </c>
-      <c r="D58" s="4" t="inlineStr"/>
-      <c r="E58" s="4" t="inlineStr"/>
-      <c r="F58" s="4" t="inlineStr"/>
-      <c r="G58" s="4" t="inlineStr">
-        <is>
-          <t>Participants received "3" emails every 2 weeks</t>
-        </is>
-      </c>
-      <c r="H58" s="4" t="inlineStr">
-        <is>
-          <t>This is annotated when a frequency is described using a period and a number of repetitions, rather than a single word.</t>
-        </is>
-      </c>
-      <c r="I58" s="4" t="inlineStr"/>
-      <c r="J58" s="4" t="inlineStr"/>
-      <c r="K58" s="4" t="inlineStr"/>
-      <c r="L58" s="4" t="inlineStr">
-        <is>
-          <t>contact event</t>
-        </is>
-      </c>
-      <c r="M58" s="4" t="inlineStr"/>
-      <c r="N58" s="4" t="inlineStr"/>
-      <c r="O58" s="4" t="inlineStr"/>
-      <c r="P58" s="4" t="inlineStr">
-        <is>
-          <t>Mean;Minimum;Maximum;Median</t>
-        </is>
-      </c>
-      <c r="Q58" s="4" t="inlineStr"/>
-      <c r="R58" s="4" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="S58" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T58" s="4" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="U58" s="4" t="inlineStr">
-        <is>
-          <t>this entity was added to allow us to more flexibly capture frequencies that have been broken down into period and repetitions. This is useful for annotations but we are unsure if it makes ontological sense to include it as it isn't really distinct from a frequency itself and relates more to how a frequency is described (CM)</t>
-        </is>
-      </c>
+      <c r="T58" s="2" t="inlineStr"/>
+      <c r="U58" s="2" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>BCIO:008550</t>
+          <t>BCIO:008605</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>z) contact event sum duration (still to confirm inclusion)</t>
+          <t>z) (removed as equivalent to number of contact events) number of repetitions</t>
         </is>
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>A data item that is the sum duration of a subset of contact events in a BCI or temporal part</t>
+          <t>A data item that is the number of repetitions of contact events within a temporal part or BCI for which the frequency is described</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr"/>
-      <c r="E59" s="4" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
+      <c r="E59" s="4" t="inlineStr"/>
       <c r="F59" s="4" t="inlineStr"/>
       <c r="G59" s="4" t="inlineStr">
         <is>
-          <t>The participants took part in "90" minutes of PA weekly</t>
+          <t>Participants received "3" emails every 2 weeks</t>
         </is>
       </c>
       <c r="H59" s="4" t="inlineStr">
         <is>
-          <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
+          <t>This is annotated when a frequency is described using a period and a number of repetitions, rather than a single word.</t>
         </is>
       </c>
       <c r="I59" s="4" t="inlineStr"/>
@@ -3729,11 +3713,7 @@
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q59" s="4" t="inlineStr">
-        <is>
-          <t>is about contact events or is about duration of contact events?</t>
-        </is>
-      </c>
+      <c r="Q59" s="4" t="inlineStr"/>
       <c r="R59" s="4" t="inlineStr">
         <is>
           <t>CM</t>
@@ -3751,24 +3731,24 @@
       </c>
       <c r="U59" s="4" t="inlineStr">
         <is>
-          <t>meeting was cut short whilst JH gave feedback on these entities. JH, please could you give feedback here? I think the suggestion was to combine these two entities (BCIO:008550 and BCIO:008555)</t>
+          <t>this entity was added to allow us to more flexibly capture frequencies that have been broken down into period and repetitions. This is useful for annotations but we are unsure if it makes ontological sense to include it as it isn't really distinct from a frequency itself and relates more to how a frequency is described (CM)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>BCIO:008555</t>
+          <t>BCIO:008550</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>z) contact event sum duration frequency (still to confirm inclusion)</t>
+          <t>z) contact event sum duration (still to confirm inclusion)</t>
         </is>
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>A data item which describes how often a specified sum duration of contact events occured during a BCI or temporal part</t>
+          <t>A data item that is the sum duration of a subset of contact events in a BCI or temporal part</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr"/>
@@ -3780,7 +3760,7 @@
       <c r="F60" s="4" t="inlineStr"/>
       <c r="G60" s="4" t="inlineStr">
         <is>
-          <t>The participants took part in 90 minutes of PA "weekly"</t>
+          <t>The participants took part in "90" minutes of PA weekly</t>
         </is>
       </c>
       <c r="H60" s="4" t="inlineStr">
@@ -3833,38 +3813,42 @@
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>BCIO:008600</t>
+          <t>BCIO:008555</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>z) frequency period</t>
+          <t>z) contact event sum duration frequency (still to confirm inclusion)</t>
         </is>
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>A temporal interval that is the length of time from start to end of an intervention temporal part</t>
+          <t>A data item which describes how often a specified sum duration of contact events occured during a BCI or temporal part</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr"/>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr"/>
       <c r="G61" s="4" t="inlineStr">
         <is>
-          <t>Participants received 3 emails every "2" weeks</t>
-        </is>
-      </c>
-      <c r="H61" s="4" t="inlineStr"/>
+          <t>The participants took part in 90 minutes of PA "weekly"</t>
+        </is>
+      </c>
+      <c r="H61" s="4" t="inlineStr">
+        <is>
+          <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
+        </is>
+      </c>
       <c r="I61" s="4" t="inlineStr"/>
       <c r="J61" s="4" t="inlineStr"/>
       <c r="K61" s="4" t="inlineStr"/>
       <c r="L61" s="4" t="inlineStr">
         <is>
-          <t>intervention temporal part</t>
+          <t>contact event</t>
         </is>
       </c>
       <c r="M61" s="4" t="inlineStr"/>
@@ -3875,7 +3859,11 @@
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q61" s="4" t="inlineStr"/>
+      <c r="Q61" s="4" t="inlineStr">
+        <is>
+          <t>is about contact events or is about duration of contact events?</t>
+        </is>
+      </c>
       <c r="R61" s="4" t="inlineStr">
         <is>
           <t>CM</t>
@@ -3893,44 +3881,56 @@
       </c>
       <c r="U61" s="4" t="inlineStr">
         <is>
-          <t>this entity was added to allow us to more flexibly capture frequencies that have been broken down into period and repetitions. This is useful for annotations but we are unsure if it makes ontological sense to include it as it isn't really distinct from a frequency itself and relates more to how a frequency is described. Perhaps this also isn't really distinct from duration of BCI/part (CM)</t>
+          <t>meeting was cut short whilst JH gave feedback on these entities. JH, please could you give feedback here? I think the suggestion was to combine these two entities (BCIO:008550 and BCIO:008555)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>BCIO:008570</t>
+          <t>BCIO:008600</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>z) interval (remove)</t>
-        </is>
-      </c>
-      <c r="C62" s="4" t="inlineStr"/>
+          <t>z) frequency period</t>
+        </is>
+      </c>
+      <c r="C62" s="4" t="inlineStr">
+        <is>
+          <t>A temporal interval that is the length of time from start to end of an intervention temporal part</t>
+        </is>
+      </c>
       <c r="D62" s="4" t="inlineStr"/>
-      <c r="E62" s="4" t="inlineStr"/>
+      <c r="E62" s="4" t="inlineStr">
+        <is>
+          <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
+        </is>
+      </c>
       <c r="F62" s="4" t="inlineStr"/>
-      <c r="G62" s="4" t="inlineStr"/>
-      <c r="H62" s="4" t="inlineStr">
-        <is>
-          <t>This is not annotated but included due to relationship with duration of interval</t>
-        </is>
-      </c>
+      <c r="G62" s="4" t="inlineStr">
+        <is>
+          <t>Participants received 3 emails every "2" weeks</t>
+        </is>
+      </c>
+      <c r="H62" s="4" t="inlineStr"/>
       <c r="I62" s="4" t="inlineStr"/>
       <c r="J62" s="4" t="inlineStr"/>
       <c r="K62" s="4" t="inlineStr"/>
-      <c r="L62" s="4" t="inlineStr"/>
+      <c r="L62" s="4" t="inlineStr">
+        <is>
+          <t>intervention temporal part</t>
+        </is>
+      </c>
       <c r="M62" s="4" t="inlineStr"/>
       <c r="N62" s="4" t="inlineStr"/>
       <c r="O62" s="4" t="inlineStr"/>
-      <c r="P62" s="4" t="inlineStr"/>
-      <c r="Q62" s="4" t="inlineStr">
-        <is>
-          <t>entity added so duration of interval can be specified. not sure what parent/relationships should be</t>
-        </is>
-      </c>
+      <c r="P62" s="4" t="inlineStr">
+        <is>
+          <t>Mean;Minimum;Maximum;Median</t>
+        </is>
+      </c>
+      <c r="Q62" s="4" t="inlineStr"/>
       <c r="R62" s="4" t="inlineStr">
         <is>
           <t>CM</t>
@@ -3946,76 +3946,131 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U62" s="4" t="inlineStr"/>
+      <c r="U62" s="4" t="inlineStr">
+        <is>
+          <t>this entity was added to allow us to more flexibly capture frequencies that have been broken down into period and repetitions. This is useful for annotations but we are unsure if it makes ontological sense to include it as it isn't really distinct from a frequency itself and relates more to how a frequency is described. Perhaps this also isn't really distinct from duration of BCI/part (CM)</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>BCIO:008520</t>
+          <t>BCIO:008570</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>z) intervention temporal part frequency</t>
-        </is>
-      </c>
-      <c r="C63" s="4" t="inlineStr">
-        <is>
-          <t>An attribute of a BCI schedule of delivery that is how often intervention temporal parts occur within a BCI.</t>
-        </is>
-      </c>
+          <t>z) interval (remove)</t>
+        </is>
+      </c>
+      <c r="C63" s="4" t="inlineStr"/>
       <c r="D63" s="4" t="inlineStr"/>
-      <c r="E63" s="4" t="inlineStr">
-        <is>
-          <t>process attribute</t>
-        </is>
-      </c>
-      <c r="F63" s="4" t="inlineStr">
-        <is>
-          <t>Contact events are intervention temporal parts so this entity also describes the frequency of contact events.</t>
-        </is>
-      </c>
+      <c r="E63" s="4" t="inlineStr"/>
+      <c r="F63" s="4" t="inlineStr"/>
       <c r="G63" s="4" t="inlineStr"/>
       <c r="H63" s="4" t="inlineStr">
+        <is>
+          <t>This is not annotated but included due to relationship with duration of interval</t>
+        </is>
+      </c>
+      <c r="I63" s="4" t="inlineStr"/>
+      <c r="J63" s="4" t="inlineStr"/>
+      <c r="K63" s="4" t="inlineStr"/>
+      <c r="L63" s="4" t="inlineStr"/>
+      <c r="M63" s="4" t="inlineStr"/>
+      <c r="N63" s="4" t="inlineStr"/>
+      <c r="O63" s="4" t="inlineStr"/>
+      <c r="P63" s="4" t="inlineStr"/>
+      <c r="Q63" s="4" t="inlineStr">
+        <is>
+          <t>entity added so duration of interval can be specified. not sure what parent/relationships should be</t>
+        </is>
+      </c>
+      <c r="R63" s="4" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="S63" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T63" s="4" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="U63" s="4" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:008520</t>
+        </is>
+      </c>
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>z) intervention temporal part frequency</t>
+        </is>
+      </c>
+      <c r="C64" s="4" t="inlineStr">
+        <is>
+          <t>An attribute of a BCI schedule of delivery that is how often intervention temporal parts occur within a BCI.</t>
+        </is>
+      </c>
+      <c r="D64" s="4" t="inlineStr"/>
+      <c r="E64" s="4" t="inlineStr">
+        <is>
+          <t>process attribute</t>
+        </is>
+      </c>
+      <c r="F64" s="4" t="inlineStr">
+        <is>
+          <t>Contact events are intervention temporal parts so this entity also describes the frequency of contact events.</t>
+        </is>
+      </c>
+      <c r="G64" s="4" t="inlineStr"/>
+      <c r="H64" s="4" t="inlineStr">
         <is>
           <t>This is used to capture descriptions of the frequency of contact events within a part. 
 Example annotation (in context)
 intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks"</t>
         </is>
       </c>
-      <c r="I63" s="4" t="inlineStr"/>
-      <c r="J63" s="4" t="inlineStr"/>
-      <c r="K63" s="4" t="inlineStr"/>
-      <c r="L63" s="4" t="inlineStr">
+      <c r="I64" s="4" t="inlineStr"/>
+      <c r="J64" s="4" t="inlineStr"/>
+      <c r="K64" s="4" t="inlineStr"/>
+      <c r="L64" s="4" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="M63" s="4" t="inlineStr"/>
-      <c r="N63" s="4" t="inlineStr"/>
-      <c r="O63" s="4" t="inlineStr"/>
-      <c r="P63" s="4" t="inlineStr">
+      <c r="M64" s="4" t="inlineStr"/>
+      <c r="N64" s="4" t="inlineStr"/>
+      <c r="O64" s="4" t="inlineStr"/>
+      <c r="P64" s="4" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q63" s="4" t="inlineStr"/>
-      <c r="R63" s="4" t="inlineStr">
+      <c r="Q64" s="4" t="inlineStr"/>
+      <c r="R64" s="4" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="S63" s="4" t="inlineStr">
+      <c r="S64" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T63" s="4" t="inlineStr">
+      <c r="T64" s="4" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U63" s="4" t="inlineStr">
+      <c r="U64" s="4" t="inlineStr">
         <is>
           <t>need to decide whether to have a separate additional entity for frequency of contact events (CM)</t>
         </is>

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -39,12 +39,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
+        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
+        <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
     <fill>
@@ -606,600 +606,600 @@
       </c>
       <c r="S2" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T2" s="2" t="inlineStr"/>
       <c r="U2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>BCIO:008525</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>BCI contact event duration</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>A temporal interval between the start and end of a BCI contact event.</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr"/>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr"/>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>1 hour; 30 minutes; 2 minutes</t>
         </is>
       </c>
-      <c r="H3" s="3" t="inlineStr"/>
-      <c r="I3" s="3" t="inlineStr"/>
-      <c r="J3" s="3" t="inlineStr"/>
-      <c r="K3" s="3" t="inlineStr"/>
-      <c r="L3" s="3" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr"/>
+      <c r="I3" s="2" t="inlineStr"/>
+      <c r="J3" s="2" t="inlineStr"/>
+      <c r="K3" s="2" t="inlineStr"/>
+      <c r="L3" s="2" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="M3" s="3" t="inlineStr"/>
-      <c r="N3" s="3" t="inlineStr"/>
-      <c r="O3" s="3" t="inlineStr"/>
-      <c r="P3" s="3" t="inlineStr"/>
-      <c r="Q3" s="3" t="inlineStr"/>
-      <c r="R3" s="3" t="inlineStr">
+      <c r="M3" s="2" t="inlineStr"/>
+      <c r="N3" s="2" t="inlineStr"/>
+      <c r="O3" s="2" t="inlineStr"/>
+      <c r="P3" s="2" t="inlineStr"/>
+      <c r="Q3" s="2" t="inlineStr"/>
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="S3" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T3" s="3" t="inlineStr"/>
-      <c r="U3" s="3" t="inlineStr"/>
+      <c r="S3" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T3" s="2" t="inlineStr"/>
+      <c r="U3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>BCIO:050505</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>BCI contact event duration statistic</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>A data item that is about a collection of BCI contact event durations.</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr"/>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr"/>
-      <c r="G4" s="3" t="inlineStr"/>
-      <c r="H4" s="3" t="inlineStr"/>
-      <c r="I4" s="3" t="inlineStr"/>
-      <c r="J4" s="3" t="inlineStr"/>
-      <c r="K4" s="3" t="inlineStr"/>
-      <c r="L4" s="3" t="inlineStr"/>
-      <c r="M4" s="3" t="inlineStr"/>
-      <c r="N4" s="3" t="inlineStr"/>
-      <c r="O4" s="3" t="inlineStr"/>
-      <c r="P4" s="3" t="inlineStr"/>
-      <c r="Q4" s="3" t="inlineStr"/>
-      <c r="R4" s="3" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr"/>
+      <c r="H4" s="2" t="inlineStr"/>
+      <c r="I4" s="2" t="inlineStr"/>
+      <c r="J4" s="2" t="inlineStr"/>
+      <c r="K4" s="2" t="inlineStr"/>
+      <c r="L4" s="2" t="inlineStr"/>
+      <c r="M4" s="2" t="inlineStr"/>
+      <c r="N4" s="2" t="inlineStr"/>
+      <c r="O4" s="2" t="inlineStr"/>
+      <c r="P4" s="2" t="inlineStr"/>
+      <c r="Q4" s="2" t="inlineStr"/>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="S4" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T4" s="3" t="inlineStr"/>
-      <c r="U4" s="3" t="inlineStr"/>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr"/>
+      <c r="U4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>BCIO:008700</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>BCI contact event frequency</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>A data item about the number times a contact event occurs per unit of time.</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>How often intervention sessions or digital contacts are planned to occur</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr"/>
-      <c r="G5" s="3" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr"/>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>twice a week; daily; one a week</t>
         </is>
       </c>
-      <c r="H5" s="3" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">This is used to capture descriptions of the frequency of contact events within a part.  
 Example annotation (in context): intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks" </t>
         </is>
       </c>
-      <c r="I5" s="3" t="inlineStr"/>
-      <c r="J5" s="3" t="inlineStr"/>
-      <c r="K5" s="3" t="inlineStr"/>
-      <c r="L5" s="3" t="inlineStr"/>
-      <c r="M5" s="3" t="inlineStr"/>
-      <c r="N5" s="3" t="inlineStr"/>
-      <c r="O5" s="3" t="inlineStr"/>
-      <c r="P5" s="3" t="inlineStr"/>
-      <c r="Q5" s="3" t="inlineStr"/>
-      <c r="R5" s="3" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr"/>
+      <c r="J5" s="2" t="inlineStr"/>
+      <c r="K5" s="2" t="inlineStr"/>
+      <c r="L5" s="2" t="inlineStr"/>
+      <c r="M5" s="2" t="inlineStr"/>
+      <c r="N5" s="2" t="inlineStr"/>
+      <c r="O5" s="2" t="inlineStr"/>
+      <c r="P5" s="2" t="inlineStr"/>
+      <c r="Q5" s="2" t="inlineStr"/>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>CM; JH</t>
         </is>
       </c>
-      <c r="S5" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T5" s="3" t="inlineStr"/>
-      <c r="U5" s="3" t="inlineStr"/>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr"/>
+      <c r="U5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>BCIO:050485</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>BCI contact event frequency statistic</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>A data item that is about a collection of BCI contact event frequencies.</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr"/>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr"/>
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr"/>
-      <c r="G6" s="3" t="inlineStr"/>
-      <c r="H6" s="3" t="inlineStr"/>
-      <c r="I6" s="3" t="inlineStr"/>
-      <c r="J6" s="3" t="inlineStr"/>
-      <c r="K6" s="3" t="inlineStr"/>
-      <c r="L6" s="3" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr"/>
+      <c r="H6" s="2" t="inlineStr"/>
+      <c r="I6" s="2" t="inlineStr"/>
+      <c r="J6" s="2" t="inlineStr"/>
+      <c r="K6" s="2" t="inlineStr"/>
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>BCI contact event frequency</t>
         </is>
       </c>
-      <c r="M6" s="3" t="inlineStr"/>
-      <c r="N6" s="3" t="inlineStr"/>
-      <c r="O6" s="3" t="inlineStr"/>
-      <c r="P6" s="3" t="inlineStr"/>
-      <c r="Q6" s="3" t="inlineStr"/>
-      <c r="R6" s="3" t="inlineStr">
+      <c r="M6" s="2" t="inlineStr"/>
+      <c r="N6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="inlineStr"/>
+      <c r="P6" s="2" t="inlineStr"/>
+      <c r="Q6" s="2" t="inlineStr"/>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="S6" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T6" s="3" t="inlineStr"/>
-      <c r="U6" s="3" t="inlineStr"/>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr"/>
+      <c r="U6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>BCIO:050486</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>BCI contact event number statistic</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>A data item that is about a collection of BCI contact event numbers.</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr"/>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr"/>
-      <c r="G7" s="3" t="inlineStr"/>
-      <c r="H7" s="3" t="inlineStr"/>
-      <c r="I7" s="3" t="inlineStr"/>
-      <c r="J7" s="3" t="inlineStr"/>
-      <c r="K7" s="3" t="inlineStr"/>
-      <c r="L7" s="3" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr"/>
+      <c r="G7" s="2" t="inlineStr"/>
+      <c r="H7" s="2" t="inlineStr"/>
+      <c r="I7" s="2" t="inlineStr"/>
+      <c r="J7" s="2" t="inlineStr"/>
+      <c r="K7" s="2" t="inlineStr"/>
+      <c r="L7" s="2" t="inlineStr">
         <is>
           <t>number of BCI contact events</t>
         </is>
       </c>
-      <c r="M7" s="3" t="inlineStr"/>
-      <c r="N7" s="3" t="inlineStr"/>
-      <c r="O7" s="3" t="inlineStr"/>
-      <c r="P7" s="3" t="inlineStr"/>
-      <c r="Q7" s="3" t="inlineStr"/>
-      <c r="R7" s="3" t="inlineStr">
+      <c r="M7" s="2" t="inlineStr"/>
+      <c r="N7" s="2" t="inlineStr"/>
+      <c r="O7" s="2" t="inlineStr"/>
+      <c r="P7" s="2" t="inlineStr"/>
+      <c r="Q7" s="2" t="inlineStr"/>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="S7" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T7" s="3" t="inlineStr"/>
-      <c r="U7" s="3" t="inlineStr"/>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr"/>
+      <c r="U7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>BCIO:008560</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>BCI duration</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>A temporal interval between the start and end of a BCI.</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>The planned duration of an intervention</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="F8" s="3" t="inlineStr"/>
-      <c r="G8" s="3" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr"/>
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>6 weeks; 2 months; 1 year</t>
         </is>
       </c>
-      <c r="H8" s="3" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>This is used to capture the overall duration of intervention delivery from first to last contact of an intervention. It does not include follow-up periods during which no content is delivered. We annotate only the number and the unit is derived from the context. 
 Example Annotation (in context): The intervention ran over "6" weeks, with weekly counselling sessions and biweekly exercise classes 
 This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author</t>
         </is>
       </c>
-      <c r="I8" s="3" t="inlineStr"/>
-      <c r="J8" s="3" t="inlineStr"/>
-      <c r="K8" s="3" t="inlineStr"/>
-      <c r="L8" s="3" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr"/>
+      <c r="J8" s="2" t="inlineStr"/>
+      <c r="K8" s="2" t="inlineStr"/>
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>temporal interval; BCI</t>
         </is>
       </c>
-      <c r="M8" s="3" t="inlineStr"/>
-      <c r="N8" s="3" t="inlineStr"/>
-      <c r="O8" s="3" t="inlineStr"/>
-      <c r="P8" s="3" t="inlineStr">
+      <c r="M8" s="2" t="inlineStr"/>
+      <c r="N8" s="2" t="inlineStr"/>
+      <c r="O8" s="2" t="inlineStr"/>
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q8" s="3" t="inlineStr"/>
-      <c r="R8" s="3" t="inlineStr">
+      <c r="Q8" s="2" t="inlineStr"/>
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>CM; RW; JH</t>
         </is>
       </c>
-      <c r="S8" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T8" s="3" t="inlineStr">
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U8" s="3" t="inlineStr"/>
+      <c r="U8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>BCIO:050487</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>BCI duration statistic</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>A data item that is about a collection of BCI durations.</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr"/>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr"/>
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F9" s="3" t="inlineStr"/>
-      <c r="G9" s="3" t="inlineStr"/>
-      <c r="H9" s="3" t="inlineStr"/>
-      <c r="I9" s="3" t="inlineStr"/>
-      <c r="J9" s="3" t="inlineStr"/>
-      <c r="K9" s="3" t="inlineStr"/>
-      <c r="L9" s="3" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr"/>
+      <c r="G9" s="2" t="inlineStr"/>
+      <c r="H9" s="2" t="inlineStr"/>
+      <c r="I9" s="2" t="inlineStr"/>
+      <c r="J9" s="2" t="inlineStr"/>
+      <c r="K9" s="2" t="inlineStr"/>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>BCI duration</t>
         </is>
       </c>
-      <c r="M9" s="3" t="inlineStr"/>
-      <c r="N9" s="3" t="inlineStr"/>
-      <c r="O9" s="3" t="inlineStr"/>
-      <c r="P9" s="3" t="inlineStr"/>
-      <c r="Q9" s="3" t="inlineStr"/>
-      <c r="R9" s="3" t="inlineStr">
+      <c r="M9" s="2" t="inlineStr"/>
+      <c r="N9" s="2" t="inlineStr"/>
+      <c r="O9" s="2" t="inlineStr"/>
+      <c r="P9" s="2" t="inlineStr"/>
+      <c r="Q9" s="2" t="inlineStr"/>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="S9" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T9" s="3" t="inlineStr"/>
-      <c r="U9" s="3" t="inlineStr"/>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr"/>
+      <c r="U9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>BCIO:008500</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI attribute that is its temporal organisation </t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr"/>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">BCI attribute </t>
         </is>
       </c>
-      <c r="F10" s="3" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>Includes the start and end of a BCI, its parts, and their organisation around relevant timepoints.</t>
         </is>
       </c>
-      <c r="G10" s="3" t="inlineStr"/>
-      <c r="H10" s="3" t="inlineStr"/>
-      <c r="I10" s="3" t="inlineStr"/>
-      <c r="J10" s="3" t="inlineStr"/>
-      <c r="K10" s="3" t="inlineStr"/>
-      <c r="L10" s="3" t="inlineStr"/>
-      <c r="M10" s="3" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr"/>
+      <c r="H10" s="2" t="inlineStr"/>
+      <c r="I10" s="2" t="inlineStr"/>
+      <c r="J10" s="2" t="inlineStr"/>
+      <c r="K10" s="2" t="inlineStr"/>
+      <c r="L10" s="2" t="inlineStr"/>
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>BCI delivery</t>
         </is>
       </c>
-      <c r="N10" s="3" t="inlineStr"/>
-      <c r="O10" s="3" t="inlineStr"/>
-      <c r="P10" s="3" t="inlineStr"/>
-      <c r="Q10" s="3" t="inlineStr"/>
-      <c r="R10" s="3" t="inlineStr">
+      <c r="N10" s="2" t="inlineStr"/>
+      <c r="O10" s="2" t="inlineStr"/>
+      <c r="P10" s="2" t="inlineStr"/>
+      <c r="Q10" s="2" t="inlineStr"/>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="S10" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T10" s="3" t="inlineStr"/>
-      <c r="U10" s="3" t="inlineStr"/>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr"/>
+      <c r="U10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>BCIO:008505</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>A planned process that is a part of a BCI.</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>A planned part of an intervention</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>planned process</t>
         </is>
       </c>
-      <c r="F11" s="3" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Temporal parts are defined by the authors of reports. They usually group contact events with similar delivery (e.g. face-to-face), content (e.g. CBT), or contextual features (e.g. school lessons), in order to describe their schedule. </t>
         </is>
       </c>
-      <c r="G11" s="3" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>counselling sessions; the first 6 weeks of the intervention; group discussion; a presentation; the last 4 weeks of the intervention</t>
         </is>
       </c>
-      <c r="H11" s="3" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>Interventions can be broken down into any number of parts, however, we only annotate this entity when the author has named a part AND used it to describe an aspect of the intervention schedule (e.g. given it a duration, defined the frequency of contact events within it, or an interval relative to a timepoint/another part).
 Example Annotations (in context):
 The "counselling sessions" took place each week for 6 weeks, and lasted roughly one hour; During the "first 6 weeks", participants received a phone call every two weeks, then for the "last 4 weeks", this was reduced to a weekly call;</t>
         </is>
       </c>
-      <c r="I11" s="3" t="inlineStr"/>
-      <c r="J11" s="3" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr"/>
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>BCI</t>
         </is>
       </c>
-      <c r="K11" s="3" t="inlineStr"/>
-      <c r="L11" s="3" t="inlineStr"/>
-      <c r="M11" s="3" t="inlineStr"/>
-      <c r="N11" s="3" t="inlineStr"/>
-      <c r="O11" s="3" t="inlineStr"/>
-      <c r="P11" s="3" t="inlineStr"/>
-      <c r="Q11" s="3" t="inlineStr"/>
-      <c r="R11" s="3" t="inlineStr">
+      <c r="K11" s="2" t="inlineStr"/>
+      <c r="L11" s="2" t="inlineStr"/>
+      <c r="M11" s="2" t="inlineStr"/>
+      <c r="N11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="inlineStr"/>
+      <c r="P11" s="2" t="inlineStr"/>
+      <c r="Q11" s="2" t="inlineStr"/>
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>CM; EJH</t>
         </is>
       </c>
-      <c r="S11" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T11" s="3" t="inlineStr">
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U11" s="3" t="inlineStr"/>
+      <c r="U11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>BCIO:008565</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part duration</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>A temporal interval between the start and end of an intervention temporal part.</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>The planned duration of a part of an intervention</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="F12" s="3" t="inlineStr"/>
-      <c r="G12" s="3" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr"/>
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>6 weeks; 2 weeks</t>
         </is>
       </c>
-      <c r="H12" s="3" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">This is used to capture the overall duration of parts. We annotate only the number and the unit is derived from the context 
 Example annotation (in context): The counselling sessions ran over a "6" week period, whilst the exercise classes took place over "2" weeks 
 This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author </t>
         </is>
       </c>
-      <c r="I12" s="3" t="inlineStr"/>
-      <c r="J12" s="3" t="inlineStr"/>
-      <c r="K12" s="3" t="inlineStr"/>
-      <c r="L12" s="3" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr"/>
+      <c r="J12" s="2" t="inlineStr"/>
+      <c r="K12" s="2" t="inlineStr"/>
+      <c r="L12" s="2" t="inlineStr">
         <is>
           <t>temporal interval</t>
         </is>
       </c>
-      <c r="M12" s="3" t="inlineStr"/>
-      <c r="N12" s="3" t="inlineStr"/>
-      <c r="O12" s="3" t="inlineStr"/>
-      <c r="P12" s="3" t="inlineStr">
+      <c r="M12" s="2" t="inlineStr"/>
+      <c r="N12" s="2" t="inlineStr"/>
+      <c r="O12" s="2" t="inlineStr"/>
+      <c r="P12" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q12" s="3" t="inlineStr"/>
-      <c r="R12" s="3" t="inlineStr">
+      <c r="Q12" s="2" t="inlineStr"/>
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>CM; JH; PS</t>
         </is>
       </c>
-      <c r="S12" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T12" s="3" t="inlineStr">
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U12" s="3" t="inlineStr"/>
+      <c r="U12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr"/>
@@ -1301,12 +1301,12 @@
       <c r="Q14" s="2" t="inlineStr"/>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>CM; JH</t>
+          <t>CM; JH; PS</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr"/>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr"/>
@@ -1411,145 +1411,145 @@
       <c r="U16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>BCIO:008575</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>interval between BCI temporal parts</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>A temporal interval between the end of one BCI temporal part and the beginning of a subsequent BCI temporal part.</t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t>The planned duration of a break between two parts of an intervention</t>
         </is>
       </c>
-      <c r="E17" s="3" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="F17" s="3" t="inlineStr"/>
-      <c r="G17" s="3" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr"/>
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>"2 weeks"; "1 day"</t>
         </is>
       </c>
-      <c r="H17" s="3" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">This is used to capture intervals between BCI parts and timepoints. We annotate only the number and the unit is derived from the context 
 Example annotation (in context): Exercise classes started "2 weeks" after the education phase of the intervention. 
 This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author </t>
         </is>
       </c>
-      <c r="I17" s="3" t="inlineStr"/>
-      <c r="J17" s="3" t="inlineStr"/>
-      <c r="K17" s="3" t="inlineStr"/>
-      <c r="L17" s="3" t="inlineStr">
+      <c r="I17" s="2" t="inlineStr"/>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
+      <c r="L17" s="2" t="inlineStr">
         <is>
           <t>temporal interval</t>
         </is>
       </c>
-      <c r="M17" s="3" t="inlineStr"/>
-      <c r="N17" s="3" t="inlineStr"/>
-      <c r="O17" s="3" t="inlineStr"/>
-      <c r="P17" s="3" t="inlineStr">
+      <c r="M17" s="2" t="inlineStr"/>
+      <c r="N17" s="2" t="inlineStr"/>
+      <c r="O17" s="2" t="inlineStr"/>
+      <c r="P17" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q17" s="3" t="inlineStr"/>
-      <c r="R17" s="3" t="inlineStr">
+      <c r="Q17" s="2" t="inlineStr"/>
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>CM; JH</t>
         </is>
       </c>
-      <c r="S17" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T17" s="3" t="inlineStr">
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U17" s="3" t="inlineStr"/>
+      <c r="U17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>BCIO:008540</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>irregular intervention schedule</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of contact events change over the course of a temporal part or BCI.  </t>
         </is>
       </c>
-      <c r="D18" s="3" t="inlineStr">
+      <c r="D18" s="2" t="inlineStr">
         <is>
           <t>A type of schedule which plans that the duration and frequency of sessions or digital contacts vary across the course of an intervention</t>
         </is>
       </c>
-      <c r="E18" s="3" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="F18" s="3" t="inlineStr"/>
-      <c r="G18" s="3" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>telephone feedback sessions were more frequent during the first 6 weeks; participants were free to access the app whenever they desired</t>
         </is>
       </c>
-      <c r="H18" s="3" t="inlineStr">
+      <c r="H18" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">We use this to capture instances when authors state that the schedule (i.e. duration and frequency of contact events) varies over the course of a part or intervention. 
 Example annotation in context: "participants were free to access the app as and when they desired";"telephone feedback sessions were more frequent during the first 6 weeks" </t>
         </is>
       </c>
-      <c r="I18" s="3" t="inlineStr"/>
-      <c r="J18" s="3" t="inlineStr"/>
-      <c r="K18" s="3" t="inlineStr"/>
-      <c r="L18" s="3" t="inlineStr"/>
-      <c r="M18" s="3" t="inlineStr"/>
-      <c r="N18" s="3" t="inlineStr"/>
-      <c r="O18" s="3" t="inlineStr"/>
-      <c r="P18" s="3" t="inlineStr"/>
-      <c r="Q18" s="3" t="inlineStr">
+      <c r="I18" s="2" t="inlineStr"/>
+      <c r="J18" s="2" t="inlineStr"/>
+      <c r="K18" s="2" t="inlineStr"/>
+      <c r="L18" s="2" t="inlineStr"/>
+      <c r="M18" s="2" t="inlineStr"/>
+      <c r="N18" s="2" t="inlineStr"/>
+      <c r="O18" s="2" t="inlineStr"/>
+      <c r="P18" s="2" t="inlineStr"/>
+      <c r="Q18" s="2" t="inlineStr">
         <is>
           <t>relationship? is about schedule? or is a type of schedule?</t>
         </is>
       </c>
-      <c r="R18" s="3" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>CM; JH</t>
         </is>
       </c>
-      <c r="S18" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T18" s="3" t="inlineStr">
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U18" s="3" t="inlineStr">
+      <c r="U18" s="2" t="inlineStr">
         <is>
           <t>should we also add separate entities for fixed and variable schedule, to describe cases when schedules vary across participants? We previously had these entities within the ontology but they were removed as they didn't come up explicitly in papers and our old definition of variable schedule overlapped with the definition for irregular schedule (CM)</t>
         </is>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr"/>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr"/>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr"/>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr"/>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr"/>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr"/>
@@ -1898,7 +1898,7 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr"/>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr"/>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr"/>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr"/>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr"/>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr"/>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr"/>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr"/>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr"/>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr"/>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr"/>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr"/>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr"/>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr"/>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr"/>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr"/>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr"/>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr"/>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="S44" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T44" s="2" t="inlineStr"/>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="S45" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T45" s="2" t="inlineStr"/>
@@ -2945,84 +2945,84 @@
       </c>
       <c r="S46" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T46" s="2" t="inlineStr"/>
       <c r="U46" s="2" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="inlineStr">
+      <c r="A47" s="2" t="inlineStr">
         <is>
           <t>BCIO:008515</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr">
+      <c r="B47" s="2" t="inlineStr">
         <is>
           <t>number of BCI contact events</t>
         </is>
       </c>
-      <c r="C47" s="3" t="inlineStr">
+      <c r="C47" s="2" t="inlineStr">
         <is>
           <t>A data item that is the number of contact events in a BCI temporal part.</t>
         </is>
       </c>
-      <c r="D47" s="3" t="inlineStr">
+      <c r="D47" s="2" t="inlineStr">
         <is>
           <t>The planned total number of sessions or digital contacts in an intervention or part</t>
         </is>
       </c>
-      <c r="E47" s="3" t="inlineStr">
+      <c r="E47" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F47" s="3" t="inlineStr"/>
-      <c r="G47" s="3" t="inlineStr">
+      <c r="F47" s="2" t="inlineStr"/>
+      <c r="G47" s="2" t="inlineStr">
         <is>
           <t>one; 6; 12; twenty</t>
         </is>
       </c>
-      <c r="H47" s="3" t="inlineStr">
+      <c r="H47" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">This entity is used to capture the number of contacts in an intervention or part. We annotate only the number and include the sentence as context. When there is only one session in a part, we can annotate non-numerical words to indicate this, e.g. 'participants attended "a" gp visit'. Sometimes authors will break parts down in which case we annotate the number of contact events which add together to create a total e.g. 'at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes'. 
 Example annotations (in context): participants attended "a" gp visit ; at the first "two" sessions participants received counslling and at the final "six" they took part in exercise classes 
 This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author </t>
         </is>
       </c>
-      <c r="I47" s="3" t="inlineStr"/>
-      <c r="J47" s="3" t="inlineStr"/>
-      <c r="K47" s="3" t="inlineStr"/>
-      <c r="L47" s="3" t="inlineStr">
+      <c r="I47" s="2" t="inlineStr"/>
+      <c r="J47" s="2" t="inlineStr"/>
+      <c r="K47" s="2" t="inlineStr"/>
+      <c r="L47" s="2" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="M47" s="3" t="inlineStr"/>
-      <c r="N47" s="3" t="inlineStr"/>
-      <c r="O47" s="3" t="inlineStr"/>
-      <c r="P47" s="3" t="inlineStr">
+      <c r="M47" s="2" t="inlineStr"/>
+      <c r="N47" s="2" t="inlineStr"/>
+      <c r="O47" s="2" t="inlineStr"/>
+      <c r="P47" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q47" s="3" t="inlineStr"/>
-      <c r="R47" s="3" t="inlineStr">
+      <c r="Q47" s="2" t="inlineStr"/>
+      <c r="R47" s="2" t="inlineStr">
         <is>
           <t>CM; JH</t>
         </is>
       </c>
-      <c r="S47" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T47" s="3" t="inlineStr">
+      <c r="S47" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T47" s="2" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U47" s="3" t="inlineStr"/>
+      <c r="U47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3072,25 +3072,25 @@
       <c r="U48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
+      <c r="A49" s="3" t="inlineStr">
         <is>
           <t>BCIO:008580</t>
         </is>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">order of BCI temporal parts </t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" s="3" t="inlineStr">
         <is>
           <t>A BCI attribute that is the  temporal positioning of BCI temporal parts.</t>
         </is>
       </c>
-      <c r="D49" s="2" t="inlineStr"/>
-      <c r="E49" s="2" t="inlineStr"/>
-      <c r="F49" s="2" t="inlineStr"/>
-      <c r="G49" s="2" t="inlineStr">
+      <c r="D49" s="3" t="inlineStr"/>
+      <c r="E49" s="3" t="inlineStr"/>
+      <c r="F49" s="3" t="inlineStr"/>
+      <c r="G49" s="3" t="inlineStr">
         <is>
           <t>"After questionnaires were completed, feedback was selected
 out of a database with messages for each possible combination
@@ -3099,44 +3099,44 @@
 levels to the PA guidelines."</t>
         </is>
       </c>
-      <c r="H49" s="2" t="inlineStr">
+      <c r="H49" s="3" t="inlineStr">
         <is>
           <t>This is annotated as an open code when any aspect of order is described</t>
         </is>
       </c>
-      <c r="I49" s="2" t="inlineStr"/>
-      <c r="J49" s="2" t="inlineStr"/>
-      <c r="K49" s="2" t="inlineStr"/>
-      <c r="L49" s="2" t="inlineStr">
+      <c r="I49" s="3" t="inlineStr"/>
+      <c r="J49" s="3" t="inlineStr"/>
+      <c r="K49" s="3" t="inlineStr"/>
+      <c r="L49" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">BCI attribute </t>
         </is>
       </c>
-      <c r="M49" s="2" t="inlineStr">
+      <c r="M49" s="3" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="N49" s="2" t="inlineStr"/>
-      <c r="O49" s="2" t="inlineStr"/>
-      <c r="P49" s="2" t="inlineStr"/>
-      <c r="Q49" s="2" t="inlineStr"/>
-      <c r="R49" s="2" t="inlineStr">
-        <is>
-          <t>CM</t>
-        </is>
-      </c>
-      <c r="S49" s="2" t="inlineStr">
+      <c r="N49" s="3" t="inlineStr"/>
+      <c r="O49" s="3" t="inlineStr"/>
+      <c r="P49" s="3" t="inlineStr"/>
+      <c r="Q49" s="3" t="inlineStr"/>
+      <c r="R49" s="3" t="inlineStr">
+        <is>
+          <t>CM; PS</t>
+        </is>
+      </c>
+      <c r="S49" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T49" s="2" t="inlineStr">
+      <c r="T49" s="3" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U49" s="2" t="inlineStr"/>
+      <c r="U49" s="3" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="4" t="inlineStr">
@@ -3241,72 +3241,72 @@
       <c r="U51" s="4" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="inlineStr">
+      <c r="A52" s="2" t="inlineStr">
         <is>
           <t>BCIO:008535</t>
         </is>
       </c>
-      <c r="B52" s="3" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>regular intervention schedule</t>
         </is>
       </c>
-      <c r="C52" s="3" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A BCI schedule of delivery in which the frequency and duration of Intervention temporal parts are uniform across the course of a BCI or BCI part.  </t>
         </is>
       </c>
-      <c r="D52" s="3" t="inlineStr">
+      <c r="D52" s="2" t="inlineStr">
         <is>
           <t>A type of schedule which plans that the duration and frequency of sessions or digital contacts remain constant across the course of an intervention</t>
         </is>
       </c>
-      <c r="E52" s="3" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="F52" s="3" t="inlineStr"/>
-      <c r="G52" s="3" t="inlineStr">
+      <c r="F52" s="2" t="inlineStr"/>
+      <c r="G52" s="2" t="inlineStr">
         <is>
           <t>the length and regularity of sessions were consistent across the duration of the intervention, taking place for an hour each week</t>
         </is>
       </c>
-      <c r="H52" s="3" t="inlineStr">
+      <c r="H52" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">This is used to capture when the author specifies that the schedule (length and frequency of contact events) does not change over the course of a part. This is rarely annotated as it is not usually explicitly stated. 
 Example annotation in context: "The length and regularity of sessions were consistent across the duration of the intervention" </t>
         </is>
       </c>
-      <c r="I52" s="3" t="inlineStr"/>
-      <c r="J52" s="3" t="inlineStr"/>
-      <c r="K52" s="3" t="inlineStr"/>
-      <c r="L52" s="3" t="inlineStr"/>
-      <c r="M52" s="3" t="inlineStr"/>
-      <c r="N52" s="3" t="inlineStr"/>
-      <c r="O52" s="3" t="inlineStr"/>
-      <c r="P52" s="3" t="inlineStr"/>
-      <c r="Q52" s="3" t="inlineStr">
+      <c r="I52" s="2" t="inlineStr"/>
+      <c r="J52" s="2" t="inlineStr"/>
+      <c r="K52" s="2" t="inlineStr"/>
+      <c r="L52" s="2" t="inlineStr"/>
+      <c r="M52" s="2" t="inlineStr"/>
+      <c r="N52" s="2" t="inlineStr"/>
+      <c r="O52" s="2" t="inlineStr"/>
+      <c r="P52" s="2" t="inlineStr"/>
+      <c r="Q52" s="2" t="inlineStr">
         <is>
           <t>relationship? is about schedule? or is a type of schedule?</t>
         </is>
       </c>
-      <c r="R52" s="3" t="inlineStr">
+      <c r="R52" s="2" t="inlineStr">
         <is>
           <t>CM; JH</t>
         </is>
       </c>
-      <c r="S52" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T52" s="3" t="inlineStr">
+      <c r="S52" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T52" s="2" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U52" s="3" t="inlineStr"/>
+      <c r="U52" s="2" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
@@ -3618,55 +3618,55 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="inlineStr">
+      <c r="A58" s="3" t="inlineStr">
         <is>
           <t>BCIO:050504</t>
         </is>
       </c>
-      <c r="B58" s="2" t="inlineStr">
+      <c r="B58" s="3" t="inlineStr">
         <is>
           <t>total BCI contact event duration statistic</t>
         </is>
       </c>
-      <c r="C58" s="2" t="inlineStr">
+      <c r="C58" s="3" t="inlineStr">
         <is>
           <t>A data item that is about a collection of total contact event durations.</t>
         </is>
       </c>
-      <c r="D58" s="2" t="inlineStr"/>
-      <c r="E58" s="2" t="inlineStr">
+      <c r="D58" s="3" t="inlineStr"/>
+      <c r="E58" s="3" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F58" s="2" t="inlineStr"/>
-      <c r="G58" s="2" t="inlineStr"/>
-      <c r="H58" s="2" t="inlineStr"/>
-      <c r="I58" s="2" t="inlineStr"/>
-      <c r="J58" s="2" t="inlineStr"/>
-      <c r="K58" s="2" t="inlineStr"/>
-      <c r="L58" s="2" t="inlineStr">
+      <c r="F58" s="3" t="inlineStr"/>
+      <c r="G58" s="3" t="inlineStr"/>
+      <c r="H58" s="3" t="inlineStr"/>
+      <c r="I58" s="3" t="inlineStr"/>
+      <c r="J58" s="3" t="inlineStr"/>
+      <c r="K58" s="3" t="inlineStr"/>
+      <c r="L58" s="3" t="inlineStr">
         <is>
           <t>total BCI contact event duration</t>
         </is>
       </c>
-      <c r="M58" s="2" t="inlineStr"/>
-      <c r="N58" s="2" t="inlineStr"/>
-      <c r="O58" s="2" t="inlineStr"/>
-      <c r="P58" s="2" t="inlineStr"/>
-      <c r="Q58" s="2" t="inlineStr"/>
-      <c r="R58" s="2" t="inlineStr">
+      <c r="M58" s="3" t="inlineStr"/>
+      <c r="N58" s="3" t="inlineStr"/>
+      <c r="O58" s="3" t="inlineStr"/>
+      <c r="P58" s="3" t="inlineStr"/>
+      <c r="Q58" s="3" t="inlineStr"/>
+      <c r="R58" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="S58" s="2" t="inlineStr">
+      <c r="S58" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T58" s="2" t="inlineStr"/>
-      <c r="U58" s="2" t="inlineStr"/>
+      <c r="T58" s="3" t="inlineStr"/>
+      <c r="U58" s="3" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="4" t="inlineStr">

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -39,22 +39,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="007fffd4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="002f4f4f"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00eee8aa"/>
       </patternFill>
     </fill>
   </fills>
@@ -70,13 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -606,7 +600,7 @@
       </c>
       <c r="S2" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T2" s="2" t="inlineStr"/>
@@ -661,7 +655,7 @@
       </c>
       <c r="S3" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T3" s="2" t="inlineStr"/>
@@ -708,7 +702,7 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr"/>
@@ -763,12 +757,12 @@
       <c r="Q5" s="2" t="inlineStr"/>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>CM; JH</t>
+          <t>CM; JH; PS</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr"/>
@@ -819,7 +813,7 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr"/>
@@ -870,7 +864,7 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr"/>
@@ -934,12 +928,12 @@
       <c r="Q8" s="2" t="inlineStr"/>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>CM; RW; JH</t>
+          <t>CM; RW; JH; PS</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
@@ -994,7 +988,7 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr"/>
@@ -1049,7 +1043,7 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr"/>
@@ -1113,12 +1107,12 @@
       <c r="Q11" s="2" t="inlineStr"/>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>CM; EJH</t>
+          <t>CM; EJH; PS</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
@@ -1191,7 +1185,7 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
@@ -1242,7 +1236,7 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr"/>
@@ -1306,7 +1300,7 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr"/>
@@ -1357,7 +1351,7 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr"/>
@@ -1468,12 +1462,12 @@
       <c r="Q17" s="2" t="inlineStr"/>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>CM; JH</t>
+          <t>CM; JH; PS</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
@@ -1536,12 +1530,12 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>CM; JH</t>
+          <t>CM; JH; PS</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
@@ -1596,7 +1590,7 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr"/>
@@ -1647,7 +1641,7 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr"/>
@@ -1698,7 +1692,7 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr"/>
@@ -1749,7 +1743,7 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr"/>
@@ -1796,7 +1790,7 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr"/>
@@ -1847,7 +1841,7 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr"/>
@@ -1898,7 +1892,7 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr"/>
@@ -1945,7 +1939,7 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr"/>
@@ -1996,7 +1990,7 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr"/>
@@ -2047,7 +2041,7 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr"/>
@@ -2098,7 +2092,7 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr"/>
@@ -2145,7 +2139,7 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr"/>
@@ -2196,7 +2190,7 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr"/>
@@ -2247,7 +2241,7 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr"/>
@@ -2294,7 +2288,7 @@
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr"/>
@@ -2345,7 +2339,7 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr"/>
@@ -2396,7 +2390,7 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr"/>
@@ -2447,7 +2441,7 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr"/>
@@ -2494,7 +2488,7 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr"/>
@@ -2545,7 +2539,7 @@
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr"/>
@@ -2596,7 +2590,7 @@
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr"/>
@@ -2643,7 +2637,7 @@
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr"/>
@@ -2694,7 +2688,7 @@
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr"/>
@@ -2745,7 +2739,7 @@
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr"/>
@@ -2792,7 +2786,7 @@
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr"/>
@@ -2843,7 +2837,7 @@
       </c>
       <c r="S44" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T44" s="2" t="inlineStr"/>
@@ -2894,7 +2888,7 @@
       </c>
       <c r="S45" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T45" s="2" t="inlineStr"/>
@@ -2945,7 +2939,7 @@
       </c>
       <c r="S46" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T46" s="2" t="inlineStr"/>
@@ -3009,12 +3003,12 @@
       <c r="Q47" s="2" t="inlineStr"/>
       <c r="R47" s="2" t="inlineStr">
         <is>
-          <t>CM; JH</t>
+          <t>CM; JH; PS</t>
         </is>
       </c>
       <c r="S47" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T47" s="2" t="inlineStr">
@@ -3088,7 +3082,11 @@
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr"/>
-      <c r="E49" s="3" t="inlineStr"/>
+      <c r="E49" s="3" t="inlineStr">
+        <is>
+          <t>BCI attribute</t>
+        </is>
+      </c>
       <c r="F49" s="3" t="inlineStr"/>
       <c r="G49" s="3" t="inlineStr">
         <is>
@@ -3128,7 +3126,7 @@
       </c>
       <c r="S49" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T49" s="3" t="inlineStr">
@@ -3293,12 +3291,12 @@
       </c>
       <c r="R52" s="2" t="inlineStr">
         <is>
-          <t>CM; JH</t>
+          <t>CM; JH; PS</t>
         </is>
       </c>
       <c r="S52" s="2" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T52" s="2" t="inlineStr">
@@ -3459,115 +3457,115 @@
       <c r="U55" s="4" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="inlineStr">
+      <c r="A56" s="3" t="inlineStr">
         <is>
           <t>BCIO:008530</t>
         </is>
       </c>
-      <c r="B56" s="5" t="inlineStr">
+      <c r="B56" s="3" t="inlineStr">
         <is>
           <t>temporal reference associated with the intervention</t>
         </is>
       </c>
-      <c r="C56" s="5" t="inlineStr">
+      <c r="C56" s="3" t="inlineStr">
         <is>
           <t>A temporal region against which a BCI  temporal part is referenced.</t>
         </is>
       </c>
-      <c r="D56" s="5" t="inlineStr">
+      <c r="D56" s="3" t="inlineStr">
         <is>
           <t>A statement which describes how the delivery of intervention parts is scheduled relative to associated external events.</t>
         </is>
       </c>
-      <c r="E56" s="5" t="inlineStr">
+      <c r="E56" s="3" t="inlineStr">
         <is>
           <t>temporal region</t>
         </is>
       </c>
-      <c r="F56" s="5" t="inlineStr">
+      <c r="F56" s="3" t="inlineStr">
         <is>
           <t>Temporal references are used by authors when there is a behaviourally relevant event which structures the schedule of a BCI. This can include things like quit dates, childbirth, medical operations etc.
 We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence.</t>
         </is>
       </c>
-      <c r="G56" s="5" t="inlineStr">
+      <c r="G56" s="3" t="inlineStr">
         <is>
           <t>A feedback call was scheduled to be delivered around 6 months after the birth of the baby; The smoking intervention started 2 weeks after participants were enrolled into an inpatient setting</t>
         </is>
       </c>
-      <c r="H56" s="5" t="inlineStr">
+      <c r="H56" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Annotate the words used by authors to describe key events which are not themselves part of the intervention but are relevant to the description of the schedule of the intervention. 
 Example annotation in context: "A feedback call was scheduled to be delivered around 6 months after the birth of the baby".  </t>
         </is>
       </c>
-      <c r="I56" s="5" t="inlineStr"/>
-      <c r="J56" s="5" t="inlineStr">
+      <c r="I56" s="3" t="inlineStr"/>
+      <c r="J56" s="3" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="K56" s="5" t="inlineStr"/>
-      <c r="L56" s="5" t="inlineStr"/>
-      <c r="M56" s="5" t="inlineStr"/>
-      <c r="N56" s="5" t="inlineStr"/>
-      <c r="O56" s="5" t="inlineStr"/>
-      <c r="P56" s="5" t="inlineStr"/>
-      <c r="Q56" s="5" t="inlineStr">
+      <c r="K56" s="3" t="inlineStr"/>
+      <c r="L56" s="3" t="inlineStr"/>
+      <c r="M56" s="3" t="inlineStr"/>
+      <c r="N56" s="3" t="inlineStr"/>
+      <c r="O56" s="3" t="inlineStr"/>
+      <c r="P56" s="3" t="inlineStr"/>
+      <c r="Q56" s="3" t="inlineStr">
         <is>
           <t>check relationships</t>
         </is>
       </c>
-      <c r="R56" s="5" t="inlineStr">
-        <is>
-          <t>CM; JH</t>
-        </is>
-      </c>
-      <c r="S56" s="5" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="T56" s="5" t="inlineStr">
+      <c r="R56" s="3" t="inlineStr">
+        <is>
+          <t>CM; JH; PS</t>
+        </is>
+      </c>
+      <c r="S56" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T56" s="3" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U56" s="5" t="inlineStr"/>
+      <c r="U56" s="3" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="inlineStr">
+      <c r="A57" s="3" t="inlineStr">
         <is>
           <t>BCIO:008545</t>
         </is>
       </c>
-      <c r="B57" s="5" t="inlineStr">
+      <c r="B57" s="3" t="inlineStr">
         <is>
           <t>total BCI contact event duration</t>
         </is>
       </c>
-      <c r="C57" s="5" t="inlineStr">
+      <c r="C57" s="3" t="inlineStr">
         <is>
           <t>A temporal interval that is the total of intervention temporal parts within a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="D57" s="5" t="inlineStr">
+      <c r="D57" s="3" t="inlineStr">
         <is>
           <t>The planned total duration of all sessions or digital contacts in an intervention or part</t>
         </is>
       </c>
-      <c r="E57" s="5" t="inlineStr">
+      <c r="E57" s="3" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="F57" s="5" t="inlineStr"/>
-      <c r="G57" s="5" t="inlineStr">
+      <c r="F57" s="3" t="inlineStr"/>
+      <c r="G57" s="3" t="inlineStr">
         <is>
           <t>150 minutes; 12 hours</t>
         </is>
       </c>
-      <c r="H57" s="5" t="inlineStr">
+      <c r="H57" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Use this entity when authors describe the total amount of contact time for a particular part/intervention across multiple contact events. 
 When there is only one session, the total duration of contact events and the duration of a single contact event are technically the same. As a convention, we would annotate this using duration of contact event instead of total duration of contact event. 
@@ -3575,43 +3573,43 @@
 This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author </t>
         </is>
       </c>
-      <c r="I57" s="5" t="inlineStr"/>
-      <c r="J57" s="5" t="inlineStr"/>
-      <c r="K57" s="5" t="inlineStr"/>
-      <c r="L57" s="5" t="inlineStr">
+      <c r="I57" s="3" t="inlineStr"/>
+      <c r="J57" s="3" t="inlineStr"/>
+      <c r="K57" s="3" t="inlineStr"/>
+      <c r="L57" s="3" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="M57" s="5" t="inlineStr"/>
-      <c r="N57" s="5" t="inlineStr"/>
-      <c r="O57" s="5" t="inlineStr"/>
-      <c r="P57" s="5" t="inlineStr">
+      <c r="M57" s="3" t="inlineStr"/>
+      <c r="N57" s="3" t="inlineStr"/>
+      <c r="O57" s="3" t="inlineStr"/>
+      <c r="P57" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q57" s="5" t="inlineStr">
+      <c r="Q57" s="3" t="inlineStr">
         <is>
           <t>"is about" contact events or "is about" duration of contact events?</t>
         </is>
       </c>
-      <c r="R57" s="5" t="inlineStr">
-        <is>
-          <t>CM; JH</t>
-        </is>
-      </c>
-      <c r="S57" s="5" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="T57" s="5" t="inlineStr">
+      <c r="R57" s="3" t="inlineStr">
+        <is>
+          <t>CM; JH; PS</t>
+        </is>
+      </c>
+      <c r="S57" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T57" s="3" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U57" s="5" t="inlineStr">
+      <c r="U57" s="3" t="inlineStr">
         <is>
           <t>what type of data item is this? (CM)</t>
         </is>
@@ -3662,7 +3660,7 @@
       </c>
       <c r="S58" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="T58" s="3" t="inlineStr"/>

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -40,11 +40,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="007fffd4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
     <fill>
@@ -65,12 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -3066,29 +3060,29 @@
       <c r="U48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="inlineStr">
+      <c r="A49" s="2" t="inlineStr">
         <is>
           <t>BCIO:008580</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">order of BCI temporal parts </t>
         </is>
       </c>
-      <c r="C49" s="3" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>A BCI attribute that is the  temporal positioning of BCI temporal parts.</t>
         </is>
       </c>
-      <c r="D49" s="3" t="inlineStr"/>
-      <c r="E49" s="3" t="inlineStr">
+      <c r="D49" s="2" t="inlineStr"/>
+      <c r="E49" s="2" t="inlineStr">
         <is>
           <t>BCI attribute</t>
         </is>
       </c>
-      <c r="F49" s="3" t="inlineStr"/>
-      <c r="G49" s="3" t="inlineStr">
+      <c r="F49" s="2" t="inlineStr"/>
+      <c r="G49" s="2" t="inlineStr">
         <is>
           <t>"After questionnaires were completed, feedback was selected
 out of a database with messages for each possible combination
@@ -3097,146 +3091,146 @@
 levels to the PA guidelines."</t>
         </is>
       </c>
-      <c r="H49" s="3" t="inlineStr">
+      <c r="H49" s="2" t="inlineStr">
         <is>
           <t>This is annotated as an open code when any aspect of order is described</t>
         </is>
       </c>
-      <c r="I49" s="3" t="inlineStr"/>
-      <c r="J49" s="3" t="inlineStr"/>
-      <c r="K49" s="3" t="inlineStr"/>
-      <c r="L49" s="3" t="inlineStr">
+      <c r="I49" s="2" t="inlineStr"/>
+      <c r="J49" s="2" t="inlineStr"/>
+      <c r="K49" s="2" t="inlineStr"/>
+      <c r="L49" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">BCI attribute </t>
         </is>
       </c>
-      <c r="M49" s="3" t="inlineStr">
+      <c r="M49" s="2" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="N49" s="3" t="inlineStr"/>
-      <c r="O49" s="3" t="inlineStr"/>
-      <c r="P49" s="3" t="inlineStr"/>
-      <c r="Q49" s="3" t="inlineStr"/>
-      <c r="R49" s="3" t="inlineStr">
+      <c r="N49" s="2" t="inlineStr"/>
+      <c r="O49" s="2" t="inlineStr"/>
+      <c r="P49" s="2" t="inlineStr"/>
+      <c r="Q49" s="2" t="inlineStr"/>
+      <c r="R49" s="2" t="inlineStr">
         <is>
           <t>CM; PS</t>
         </is>
       </c>
-      <c r="S49" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T49" s="3" t="inlineStr">
+      <c r="S49" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T49" s="2" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U49" s="3" t="inlineStr"/>
+      <c r="U49" s="2" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="inlineStr">
+      <c r="A50" s="3" t="inlineStr">
         <is>
           <t>BCIO:008595</t>
         </is>
       </c>
-      <c r="B50" s="4" t="inlineStr">
+      <c r="B50" s="3" t="inlineStr">
         <is>
           <t>q) same time (remove - this is a relation like before and after)</t>
         </is>
       </c>
-      <c r="C50" s="4" t="inlineStr">
+      <c r="C50" s="3" t="inlineStr">
         <is>
           <t>A part of a BCI schedule which is the relation a specified temporal part is in when it occurs whilst another temporal part or timepoint occurs</t>
         </is>
       </c>
-      <c r="D50" s="4" t="inlineStr"/>
-      <c r="E50" s="4" t="inlineStr"/>
-      <c r="F50" s="4" t="inlineStr"/>
-      <c r="G50" s="4" t="inlineStr"/>
-      <c r="H50" s="4" t="inlineStr">
+      <c r="D50" s="3" t="inlineStr"/>
+      <c r="E50" s="3" t="inlineStr"/>
+      <c r="F50" s="3" t="inlineStr"/>
+      <c r="G50" s="3" t="inlineStr"/>
+      <c r="H50" s="3" t="inlineStr">
         <is>
           <t>This is not annotated</t>
         </is>
       </c>
-      <c r="I50" s="4" t="inlineStr"/>
-      <c r="J50" s="4" t="inlineStr"/>
-      <c r="K50" s="4" t="inlineStr"/>
-      <c r="L50" s="4" t="inlineStr"/>
-      <c r="M50" s="4" t="inlineStr"/>
-      <c r="N50" s="4" t="inlineStr"/>
-      <c r="O50" s="4" t="inlineStr"/>
-      <c r="P50" s="4" t="inlineStr"/>
-      <c r="Q50" s="4" t="inlineStr"/>
-      <c r="R50" s="4" t="inlineStr">
+      <c r="I50" s="3" t="inlineStr"/>
+      <c r="J50" s="3" t="inlineStr"/>
+      <c r="K50" s="3" t="inlineStr"/>
+      <c r="L50" s="3" t="inlineStr"/>
+      <c r="M50" s="3" t="inlineStr"/>
+      <c r="N50" s="3" t="inlineStr"/>
+      <c r="O50" s="3" t="inlineStr"/>
+      <c r="P50" s="3" t="inlineStr"/>
+      <c r="Q50" s="3" t="inlineStr"/>
+      <c r="R50" s="3" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="S50" s="4" t="inlineStr">
+      <c r="S50" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T50" s="4" t="inlineStr">
+      <c r="T50" s="3" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U50" s="4" t="inlineStr"/>
+      <c r="U50" s="3" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="inlineStr">
+      <c r="A51" s="3" t="inlineStr">
         <is>
           <t>BCIO:008585</t>
         </is>
       </c>
-      <c r="B51" s="4" t="inlineStr">
+      <c r="B51" s="3" t="inlineStr">
         <is>
           <t>r) before (to be removed and added to list of relations)</t>
         </is>
       </c>
-      <c r="C51" s="4" t="inlineStr">
+      <c r="C51" s="3" t="inlineStr">
         <is>
           <t>A part of a BCI schedule which is the relation a specified temporal part is in when it ends prior to the beginning of another temporal part or timepoint</t>
         </is>
       </c>
-      <c r="D51" s="4" t="inlineStr"/>
-      <c r="E51" s="4" t="inlineStr"/>
-      <c r="F51" s="4" t="inlineStr"/>
-      <c r="G51" s="4" t="inlineStr"/>
-      <c r="H51" s="4" t="inlineStr">
+      <c r="D51" s="3" t="inlineStr"/>
+      <c r="E51" s="3" t="inlineStr"/>
+      <c r="F51" s="3" t="inlineStr"/>
+      <c r="G51" s="3" t="inlineStr"/>
+      <c r="H51" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">This is not annotated </t>
         </is>
       </c>
-      <c r="I51" s="4" t="inlineStr"/>
-      <c r="J51" s="4" t="inlineStr"/>
-      <c r="K51" s="4" t="inlineStr"/>
-      <c r="L51" s="4" t="inlineStr"/>
-      <c r="M51" s="4" t="inlineStr"/>
-      <c r="N51" s="4" t="inlineStr"/>
-      <c r="O51" s="4" t="inlineStr"/>
-      <c r="P51" s="4" t="inlineStr"/>
-      <c r="Q51" s="4" t="inlineStr"/>
-      <c r="R51" s="4" t="inlineStr">
+      <c r="I51" s="3" t="inlineStr"/>
+      <c r="J51" s="3" t="inlineStr"/>
+      <c r="K51" s="3" t="inlineStr"/>
+      <c r="L51" s="3" t="inlineStr"/>
+      <c r="M51" s="3" t="inlineStr"/>
+      <c r="N51" s="3" t="inlineStr"/>
+      <c r="O51" s="3" t="inlineStr"/>
+      <c r="P51" s="3" t="inlineStr"/>
+      <c r="Q51" s="3" t="inlineStr"/>
+      <c r="R51" s="3" t="inlineStr">
         <is>
           <t>CM; RW</t>
         </is>
       </c>
-      <c r="S51" s="4" t="inlineStr">
+      <c r="S51" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T51" s="4" t="inlineStr">
+      <c r="T51" s="3" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U51" s="4" t="inlineStr"/>
+      <c r="U51" s="3" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
@@ -3307,265 +3301,265 @@
       <c r="U52" s="2" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="inlineStr">
+      <c r="A53" s="3" t="inlineStr">
         <is>
           <t>BCIO:008590</t>
         </is>
       </c>
-      <c r="B53" s="4" t="inlineStr">
+      <c r="B53" s="3" t="inlineStr">
         <is>
           <t>s) after (to be removed and added to list of relations)</t>
         </is>
       </c>
-      <c r="C53" s="4" t="inlineStr">
+      <c r="C53" s="3" t="inlineStr">
         <is>
           <t>A part of a BCI schedule which is the relation a specified temporal part is in when it starts following the end of another temporal part or timepoint</t>
         </is>
       </c>
-      <c r="D53" s="4" t="inlineStr"/>
-      <c r="E53" s="4" t="inlineStr"/>
-      <c r="F53" s="4" t="inlineStr"/>
-      <c r="G53" s="4" t="inlineStr"/>
-      <c r="H53" s="4" t="inlineStr">
+      <c r="D53" s="3" t="inlineStr"/>
+      <c r="E53" s="3" t="inlineStr"/>
+      <c r="F53" s="3" t="inlineStr"/>
+      <c r="G53" s="3" t="inlineStr"/>
+      <c r="H53" s="3" t="inlineStr">
         <is>
           <t>This is not annotated</t>
         </is>
       </c>
-      <c r="I53" s="4" t="inlineStr"/>
-      <c r="J53" s="4" t="inlineStr"/>
-      <c r="K53" s="4" t="inlineStr"/>
-      <c r="L53" s="4" t="inlineStr"/>
-      <c r="M53" s="4" t="inlineStr"/>
-      <c r="N53" s="4" t="inlineStr"/>
-      <c r="O53" s="4" t="inlineStr"/>
-      <c r="P53" s="4" t="inlineStr"/>
-      <c r="Q53" s="4" t="inlineStr"/>
-      <c r="R53" s="4" t="inlineStr">
+      <c r="I53" s="3" t="inlineStr"/>
+      <c r="J53" s="3" t="inlineStr"/>
+      <c r="K53" s="3" t="inlineStr"/>
+      <c r="L53" s="3" t="inlineStr"/>
+      <c r="M53" s="3" t="inlineStr"/>
+      <c r="N53" s="3" t="inlineStr"/>
+      <c r="O53" s="3" t="inlineStr"/>
+      <c r="P53" s="3" t="inlineStr"/>
+      <c r="Q53" s="3" t="inlineStr"/>
+      <c r="R53" s="3" t="inlineStr">
         <is>
           <t>CM; RW</t>
         </is>
       </c>
-      <c r="S53" s="4" t="inlineStr">
+      <c r="S53" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T53" s="4" t="inlineStr">
+      <c r="T53" s="3" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U53" s="4" t="inlineStr"/>
+      <c r="U53" s="3" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="inlineStr">
+      <c r="A54" s="3" t="inlineStr">
         <is>
           <t>BCIO:050312</t>
         </is>
       </c>
-      <c r="B54" s="4" t="inlineStr">
+      <c r="B54" s="3" t="inlineStr">
         <is>
           <t>temporal interval</t>
         </is>
       </c>
-      <c r="C54" s="4" t="inlineStr">
+      <c r="C54" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A temporal interval is a one-dimensional temporal region, namely that is self-connected (is without gaps or breaks).
 </t>
         </is>
       </c>
-      <c r="D54" s="4" t="inlineStr"/>
-      <c r="E54" s="4" t="inlineStr">
+      <c r="D54" s="3" t="inlineStr"/>
+      <c r="E54" s="3" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="F54" s="4" t="inlineStr"/>
-      <c r="G54" s="4" t="inlineStr"/>
-      <c r="H54" s="4" t="inlineStr"/>
-      <c r="I54" s="4" t="inlineStr"/>
-      <c r="J54" s="4" t="inlineStr"/>
-      <c r="K54" s="4" t="inlineStr"/>
-      <c r="L54" s="4" t="inlineStr"/>
-      <c r="M54" s="4" t="inlineStr"/>
-      <c r="N54" s="4" t="inlineStr"/>
-      <c r="O54" s="4" t="inlineStr"/>
-      <c r="P54" s="4" t="inlineStr"/>
-      <c r="Q54" s="4" t="inlineStr"/>
-      <c r="R54" s="4" t="inlineStr">
+      <c r="F54" s="3" t="inlineStr"/>
+      <c r="G54" s="3" t="inlineStr"/>
+      <c r="H54" s="3" t="inlineStr"/>
+      <c r="I54" s="3" t="inlineStr"/>
+      <c r="J54" s="3" t="inlineStr"/>
+      <c r="K54" s="3" t="inlineStr"/>
+      <c r="L54" s="3" t="inlineStr"/>
+      <c r="M54" s="3" t="inlineStr"/>
+      <c r="N54" s="3" t="inlineStr"/>
+      <c r="O54" s="3" t="inlineStr"/>
+      <c r="P54" s="3" t="inlineStr"/>
+      <c r="Q54" s="3" t="inlineStr"/>
+      <c r="R54" s="3" t="inlineStr">
         <is>
           <t>JH</t>
         </is>
       </c>
-      <c r="S54" s="4" t="inlineStr">
+      <c r="S54" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T54" s="4" t="inlineStr"/>
-      <c r="U54" s="4" t="inlineStr"/>
+      <c r="T54" s="3" t="inlineStr"/>
+      <c r="U54" s="3" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="4" t="inlineStr">
+      <c r="A55" s="3" t="inlineStr">
         <is>
           <t>BCIO:050515</t>
         </is>
       </c>
-      <c r="B55" s="4" t="inlineStr">
+      <c r="B55" s="3" t="inlineStr">
         <is>
           <t>temporal part</t>
         </is>
       </c>
-      <c r="C55" s="4" t="inlineStr">
+      <c r="C55" s="3" t="inlineStr">
         <is>
           <t>A data item between the start and end of an intervention temporal part.</t>
         </is>
       </c>
-      <c r="D55" s="4" t="inlineStr"/>
-      <c r="E55" s="4" t="inlineStr">
+      <c r="D55" s="3" t="inlineStr"/>
+      <c r="E55" s="3" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="F55" s="4" t="inlineStr"/>
-      <c r="G55" s="4" t="inlineStr">
+      <c r="F55" s="3" t="inlineStr"/>
+      <c r="G55" s="3" t="inlineStr">
         <is>
           <t>6 weeks; 2 weeks</t>
         </is>
       </c>
-      <c r="H55" s="4" t="inlineStr"/>
-      <c r="I55" s="4" t="inlineStr"/>
-      <c r="J55" s="4" t="inlineStr"/>
-      <c r="K55" s="4" t="inlineStr"/>
-      <c r="L55" s="4" t="inlineStr"/>
-      <c r="M55" s="4" t="inlineStr"/>
-      <c r="N55" s="4" t="inlineStr"/>
-      <c r="O55" s="4" t="inlineStr"/>
-      <c r="P55" s="4" t="inlineStr"/>
-      <c r="Q55" s="4" t="inlineStr"/>
-      <c r="R55" s="4" t="inlineStr">
+      <c r="H55" s="3" t="inlineStr"/>
+      <c r="I55" s="3" t="inlineStr"/>
+      <c r="J55" s="3" t="inlineStr"/>
+      <c r="K55" s="3" t="inlineStr"/>
+      <c r="L55" s="3" t="inlineStr"/>
+      <c r="M55" s="3" t="inlineStr"/>
+      <c r="N55" s="3" t="inlineStr"/>
+      <c r="O55" s="3" t="inlineStr"/>
+      <c r="P55" s="3" t="inlineStr"/>
+      <c r="Q55" s="3" t="inlineStr"/>
+      <c r="R55" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="S55" s="4" t="inlineStr">
+      <c r="S55" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T55" s="4" t="inlineStr"/>
-      <c r="U55" s="4" t="inlineStr"/>
+      <c r="T55" s="3" t="inlineStr"/>
+      <c r="U55" s="3" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="inlineStr">
+      <c r="A56" s="2" t="inlineStr">
         <is>
           <t>BCIO:008530</t>
         </is>
       </c>
-      <c r="B56" s="3" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>temporal reference associated with the intervention</t>
         </is>
       </c>
-      <c r="C56" s="3" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>A temporal region against which a BCI  temporal part is referenced.</t>
         </is>
       </c>
-      <c r="D56" s="3" t="inlineStr">
+      <c r="D56" s="2" t="inlineStr">
         <is>
           <t>A statement which describes how the delivery of intervention parts is scheduled relative to associated external events.</t>
         </is>
       </c>
-      <c r="E56" s="3" t="inlineStr">
+      <c r="E56" s="2" t="inlineStr">
         <is>
           <t>temporal region</t>
         </is>
       </c>
-      <c r="F56" s="3" t="inlineStr">
+      <c r="F56" s="2" t="inlineStr">
         <is>
           <t>Temporal references are used by authors when there is a behaviourally relevant event which structures the schedule of a BCI. This can include things like quit dates, childbirth, medical operations etc.
 We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence.</t>
         </is>
       </c>
-      <c r="G56" s="3" t="inlineStr">
+      <c r="G56" s="2" t="inlineStr">
         <is>
           <t>A feedback call was scheduled to be delivered around 6 months after the birth of the baby; The smoking intervention started 2 weeks after participants were enrolled into an inpatient setting</t>
         </is>
       </c>
-      <c r="H56" s="3" t="inlineStr">
+      <c r="H56" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Annotate the words used by authors to describe key events which are not themselves part of the intervention but are relevant to the description of the schedule of the intervention. 
 Example annotation in context: "A feedback call was scheduled to be delivered around 6 months after the birth of the baby".  </t>
         </is>
       </c>
-      <c r="I56" s="3" t="inlineStr"/>
-      <c r="J56" s="3" t="inlineStr">
+      <c r="I56" s="2" t="inlineStr"/>
+      <c r="J56" s="2" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="K56" s="3" t="inlineStr"/>
-      <c r="L56" s="3" t="inlineStr"/>
-      <c r="M56" s="3" t="inlineStr"/>
-      <c r="N56" s="3" t="inlineStr"/>
-      <c r="O56" s="3" t="inlineStr"/>
-      <c r="P56" s="3" t="inlineStr"/>
-      <c r="Q56" s="3" t="inlineStr">
+      <c r="K56" s="2" t="inlineStr"/>
+      <c r="L56" s="2" t="inlineStr"/>
+      <c r="M56" s="2" t="inlineStr"/>
+      <c r="N56" s="2" t="inlineStr"/>
+      <c r="O56" s="2" t="inlineStr"/>
+      <c r="P56" s="2" t="inlineStr"/>
+      <c r="Q56" s="2" t="inlineStr">
         <is>
           <t>check relationships</t>
         </is>
       </c>
-      <c r="R56" s="3" t="inlineStr">
+      <c r="R56" s="2" t="inlineStr">
         <is>
           <t>CM; JH; PS</t>
         </is>
       </c>
-      <c r="S56" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T56" s="3" t="inlineStr">
+      <c r="S56" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T56" s="2" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U56" s="3" t="inlineStr"/>
+      <c r="U56" s="2" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="inlineStr">
+      <c r="A57" s="2" t="inlineStr">
         <is>
           <t>BCIO:008545</t>
         </is>
       </c>
-      <c r="B57" s="3" t="inlineStr">
+      <c r="B57" s="2" t="inlineStr">
         <is>
           <t>total BCI contact event duration</t>
         </is>
       </c>
-      <c r="C57" s="3" t="inlineStr">
+      <c r="C57" s="2" t="inlineStr">
         <is>
           <t>A temporal interval that is the total of intervention temporal parts within a behaviour change intervention.</t>
         </is>
       </c>
-      <c r="D57" s="3" t="inlineStr">
+      <c r="D57" s="2" t="inlineStr">
         <is>
           <t>The planned total duration of all sessions or digital contacts in an intervention or part</t>
         </is>
       </c>
-      <c r="E57" s="3" t="inlineStr">
+      <c r="E57" s="2" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="F57" s="3" t="inlineStr"/>
-      <c r="G57" s="3" t="inlineStr">
+      <c r="F57" s="2" t="inlineStr"/>
+      <c r="G57" s="2" t="inlineStr">
         <is>
           <t>150 minutes; 12 hours</t>
         </is>
       </c>
-      <c r="H57" s="3" t="inlineStr">
+      <c r="H57" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Use this entity when authors describe the total amount of contact time for a particular part/intervention across multiple contact events. 
 When there is only one session, the total duration of contact events and the duration of a single contact event are technically the same. As a convention, we would annotate this using duration of contact event instead of total duration of contact event. 
@@ -3573,502 +3567,502 @@
 This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author </t>
         </is>
       </c>
-      <c r="I57" s="3" t="inlineStr"/>
-      <c r="J57" s="3" t="inlineStr"/>
-      <c r="K57" s="3" t="inlineStr"/>
-      <c r="L57" s="3" t="inlineStr">
+      <c r="I57" s="2" t="inlineStr"/>
+      <c r="J57" s="2" t="inlineStr"/>
+      <c r="K57" s="2" t="inlineStr"/>
+      <c r="L57" s="2" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="M57" s="3" t="inlineStr"/>
-      <c r="N57" s="3" t="inlineStr"/>
-      <c r="O57" s="3" t="inlineStr"/>
-      <c r="P57" s="3" t="inlineStr">
+      <c r="M57" s="2" t="inlineStr"/>
+      <c r="N57" s="2" t="inlineStr"/>
+      <c r="O57" s="2" t="inlineStr"/>
+      <c r="P57" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q57" s="3" t="inlineStr">
+      <c r="Q57" s="2" t="inlineStr">
         <is>
           <t>"is about" contact events or "is about" duration of contact events?</t>
         </is>
       </c>
-      <c r="R57" s="3" t="inlineStr">
+      <c r="R57" s="2" t="inlineStr">
         <is>
           <t>CM; JH; PS</t>
         </is>
       </c>
-      <c r="S57" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T57" s="3" t="inlineStr">
+      <c r="S57" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T57" s="2" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U57" s="3" t="inlineStr">
+      <c r="U57" s="2" t="inlineStr">
         <is>
           <t>what type of data item is this? (CM)</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="inlineStr">
+      <c r="A58" s="2" t="inlineStr">
         <is>
           <t>BCIO:050504</t>
         </is>
       </c>
-      <c r="B58" s="3" t="inlineStr">
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>total BCI contact event duration statistic</t>
         </is>
       </c>
-      <c r="C58" s="3" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr">
         <is>
           <t>A data item that is about a collection of total contact event durations.</t>
         </is>
       </c>
-      <c r="D58" s="3" t="inlineStr"/>
-      <c r="E58" s="3" t="inlineStr">
+      <c r="D58" s="2" t="inlineStr"/>
+      <c r="E58" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F58" s="3" t="inlineStr"/>
-      <c r="G58" s="3" t="inlineStr"/>
-      <c r="H58" s="3" t="inlineStr"/>
-      <c r="I58" s="3" t="inlineStr"/>
-      <c r="J58" s="3" t="inlineStr"/>
-      <c r="K58" s="3" t="inlineStr"/>
-      <c r="L58" s="3" t="inlineStr">
+      <c r="F58" s="2" t="inlineStr"/>
+      <c r="G58" s="2" t="inlineStr"/>
+      <c r="H58" s="2" t="inlineStr"/>
+      <c r="I58" s="2" t="inlineStr"/>
+      <c r="J58" s="2" t="inlineStr"/>
+      <c r="K58" s="2" t="inlineStr"/>
+      <c r="L58" s="2" t="inlineStr">
         <is>
           <t>total BCI contact event duration</t>
         </is>
       </c>
-      <c r="M58" s="3" t="inlineStr"/>
-      <c r="N58" s="3" t="inlineStr"/>
-      <c r="O58" s="3" t="inlineStr"/>
-      <c r="P58" s="3" t="inlineStr"/>
-      <c r="Q58" s="3" t="inlineStr"/>
-      <c r="R58" s="3" t="inlineStr">
+      <c r="M58" s="2" t="inlineStr"/>
+      <c r="N58" s="2" t="inlineStr"/>
+      <c r="O58" s="2" t="inlineStr"/>
+      <c r="P58" s="2" t="inlineStr"/>
+      <c r="Q58" s="2" t="inlineStr"/>
+      <c r="R58" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="S58" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T58" s="3" t="inlineStr"/>
-      <c r="U58" s="3" t="inlineStr"/>
+      <c r="S58" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T58" s="2" t="inlineStr"/>
+      <c r="U58" s="2" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="4" t="inlineStr">
+      <c r="A59" s="3" t="inlineStr">
         <is>
           <t>BCIO:008605</t>
         </is>
       </c>
-      <c r="B59" s="4" t="inlineStr">
+      <c r="B59" s="3" t="inlineStr">
         <is>
           <t>z) (removed as equivalent to number of contact events) number of repetitions</t>
         </is>
       </c>
-      <c r="C59" s="4" t="inlineStr">
+      <c r="C59" s="3" t="inlineStr">
         <is>
           <t>A data item that is the number of repetitions of contact events within a temporal part or BCI for which the frequency is described</t>
         </is>
       </c>
-      <c r="D59" s="4" t="inlineStr"/>
-      <c r="E59" s="4" t="inlineStr"/>
-      <c r="F59" s="4" t="inlineStr"/>
-      <c r="G59" s="4" t="inlineStr">
+      <c r="D59" s="3" t="inlineStr"/>
+      <c r="E59" s="3" t="inlineStr"/>
+      <c r="F59" s="3" t="inlineStr"/>
+      <c r="G59" s="3" t="inlineStr">
         <is>
           <t>Participants received "3" emails every 2 weeks</t>
         </is>
       </c>
-      <c r="H59" s="4" t="inlineStr">
+      <c r="H59" s="3" t="inlineStr">
         <is>
           <t>This is annotated when a frequency is described using a period and a number of repetitions, rather than a single word.</t>
         </is>
       </c>
-      <c r="I59" s="4" t="inlineStr"/>
-      <c r="J59" s="4" t="inlineStr"/>
-      <c r="K59" s="4" t="inlineStr"/>
-      <c r="L59" s="4" t="inlineStr">
+      <c r="I59" s="3" t="inlineStr"/>
+      <c r="J59" s="3" t="inlineStr"/>
+      <c r="K59" s="3" t="inlineStr"/>
+      <c r="L59" s="3" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="M59" s="4" t="inlineStr"/>
-      <c r="N59" s="4" t="inlineStr"/>
-      <c r="O59" s="4" t="inlineStr"/>
-      <c r="P59" s="4" t="inlineStr">
+      <c r="M59" s="3" t="inlineStr"/>
+      <c r="N59" s="3" t="inlineStr"/>
+      <c r="O59" s="3" t="inlineStr"/>
+      <c r="P59" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q59" s="4" t="inlineStr"/>
-      <c r="R59" s="4" t="inlineStr">
+      <c r="Q59" s="3" t="inlineStr"/>
+      <c r="R59" s="3" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="S59" s="4" t="inlineStr">
+      <c r="S59" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T59" s="4" t="inlineStr">
+      <c r="T59" s="3" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U59" s="4" t="inlineStr">
+      <c r="U59" s="3" t="inlineStr">
         <is>
           <t>this entity was added to allow us to more flexibly capture frequencies that have been broken down into period and repetitions. This is useful for annotations but we are unsure if it makes ontological sense to include it as it isn't really distinct from a frequency itself and relates more to how a frequency is described (CM)</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="inlineStr">
+      <c r="A60" s="3" t="inlineStr">
         <is>
           <t>BCIO:008550</t>
         </is>
       </c>
-      <c r="B60" s="4" t="inlineStr">
+      <c r="B60" s="3" t="inlineStr">
         <is>
           <t>z) contact event sum duration (still to confirm inclusion)</t>
         </is>
       </c>
-      <c r="C60" s="4" t="inlineStr">
+      <c r="C60" s="3" t="inlineStr">
         <is>
           <t>A data item that is the sum duration of a subset of contact events in a BCI or temporal part</t>
         </is>
       </c>
-      <c r="D60" s="4" t="inlineStr"/>
-      <c r="E60" s="4" t="inlineStr">
+      <c r="D60" s="3" t="inlineStr"/>
+      <c r="E60" s="3" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F60" s="4" t="inlineStr"/>
-      <c r="G60" s="4" t="inlineStr">
+      <c r="F60" s="3" t="inlineStr"/>
+      <c r="G60" s="3" t="inlineStr">
         <is>
           <t>The participants took part in "90" minutes of PA weekly</t>
         </is>
       </c>
-      <c r="H60" s="4" t="inlineStr">
+      <c r="H60" s="3" t="inlineStr">
         <is>
           <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
         </is>
       </c>
-      <c r="I60" s="4" t="inlineStr"/>
-      <c r="J60" s="4" t="inlineStr"/>
-      <c r="K60" s="4" t="inlineStr"/>
-      <c r="L60" s="4" t="inlineStr">
+      <c r="I60" s="3" t="inlineStr"/>
+      <c r="J60" s="3" t="inlineStr"/>
+      <c r="K60" s="3" t="inlineStr"/>
+      <c r="L60" s="3" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="M60" s="4" t="inlineStr"/>
-      <c r="N60" s="4" t="inlineStr"/>
-      <c r="O60" s="4" t="inlineStr"/>
-      <c r="P60" s="4" t="inlineStr">
+      <c r="M60" s="3" t="inlineStr"/>
+      <c r="N60" s="3" t="inlineStr"/>
+      <c r="O60" s="3" t="inlineStr"/>
+      <c r="P60" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q60" s="4" t="inlineStr">
+      <c r="Q60" s="3" t="inlineStr">
         <is>
           <t>is about contact events or is about duration of contact events?</t>
         </is>
       </c>
-      <c r="R60" s="4" t="inlineStr">
+      <c r="R60" s="3" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="S60" s="4" t="inlineStr">
+      <c r="S60" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T60" s="4" t="inlineStr">
+      <c r="T60" s="3" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U60" s="4" t="inlineStr">
+      <c r="U60" s="3" t="inlineStr">
         <is>
           <t>meeting was cut short whilst JH gave feedback on these entities. JH, please could you give feedback here? I think the suggestion was to combine these two entities (BCIO:008550 and BCIO:008555)</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="4" t="inlineStr">
+      <c r="A61" s="3" t="inlineStr">
         <is>
           <t>BCIO:008555</t>
         </is>
       </c>
-      <c r="B61" s="4" t="inlineStr">
+      <c r="B61" s="3" t="inlineStr">
         <is>
           <t>z) contact event sum duration frequency (still to confirm inclusion)</t>
         </is>
       </c>
-      <c r="C61" s="4" t="inlineStr">
+      <c r="C61" s="3" t="inlineStr">
         <is>
           <t>A data item which describes how often a specified sum duration of contact events occured during a BCI or temporal part</t>
         </is>
       </c>
-      <c r="D61" s="4" t="inlineStr"/>
-      <c r="E61" s="4" t="inlineStr">
+      <c r="D61" s="3" t="inlineStr"/>
+      <c r="E61" s="3" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F61" s="4" t="inlineStr"/>
-      <c r="G61" s="4" t="inlineStr">
+      <c r="F61" s="3" t="inlineStr"/>
+      <c r="G61" s="3" t="inlineStr">
         <is>
           <t>The participants took part in 90 minutes of PA "weekly"</t>
         </is>
       </c>
-      <c r="H61" s="4" t="inlineStr">
+      <c r="H61" s="3" t="inlineStr">
         <is>
           <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
         </is>
       </c>
-      <c r="I61" s="4" t="inlineStr"/>
-      <c r="J61" s="4" t="inlineStr"/>
-      <c r="K61" s="4" t="inlineStr"/>
-      <c r="L61" s="4" t="inlineStr">
+      <c r="I61" s="3" t="inlineStr"/>
+      <c r="J61" s="3" t="inlineStr"/>
+      <c r="K61" s="3" t="inlineStr"/>
+      <c r="L61" s="3" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="M61" s="4" t="inlineStr"/>
-      <c r="N61" s="4" t="inlineStr"/>
-      <c r="O61" s="4" t="inlineStr"/>
-      <c r="P61" s="4" t="inlineStr">
+      <c r="M61" s="3" t="inlineStr"/>
+      <c r="N61" s="3" t="inlineStr"/>
+      <c r="O61" s="3" t="inlineStr"/>
+      <c r="P61" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q61" s="4" t="inlineStr">
+      <c r="Q61" s="3" t="inlineStr">
         <is>
           <t>is about contact events or is about duration of contact events?</t>
         </is>
       </c>
-      <c r="R61" s="4" t="inlineStr">
+      <c r="R61" s="3" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="S61" s="4" t="inlineStr">
+      <c r="S61" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T61" s="4" t="inlineStr">
+      <c r="T61" s="3" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U61" s="4" t="inlineStr">
+      <c r="U61" s="3" t="inlineStr">
         <is>
           <t>meeting was cut short whilst JH gave feedback on these entities. JH, please could you give feedback here? I think the suggestion was to combine these two entities (BCIO:008550 and BCIO:008555)</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="4" t="inlineStr">
+      <c r="A62" s="3" t="inlineStr">
         <is>
           <t>BCIO:008600</t>
         </is>
       </c>
-      <c r="B62" s="4" t="inlineStr">
+      <c r="B62" s="3" t="inlineStr">
         <is>
           <t>z) frequency period</t>
         </is>
       </c>
-      <c r="C62" s="4" t="inlineStr">
+      <c r="C62" s="3" t="inlineStr">
         <is>
           <t>A temporal interval that is the length of time from start to end of an intervention temporal part</t>
         </is>
       </c>
-      <c r="D62" s="4" t="inlineStr"/>
-      <c r="E62" s="4" t="inlineStr">
+      <c r="D62" s="3" t="inlineStr"/>
+      <c r="E62" s="3" t="inlineStr">
         <is>
           <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
         </is>
       </c>
-      <c r="F62" s="4" t="inlineStr"/>
-      <c r="G62" s="4" t="inlineStr">
+      <c r="F62" s="3" t="inlineStr"/>
+      <c r="G62" s="3" t="inlineStr">
         <is>
           <t>Participants received 3 emails every "2" weeks</t>
         </is>
       </c>
-      <c r="H62" s="4" t="inlineStr"/>
-      <c r="I62" s="4" t="inlineStr"/>
-      <c r="J62" s="4" t="inlineStr"/>
-      <c r="K62" s="4" t="inlineStr"/>
-      <c r="L62" s="4" t="inlineStr">
+      <c r="H62" s="3" t="inlineStr"/>
+      <c r="I62" s="3" t="inlineStr"/>
+      <c r="J62" s="3" t="inlineStr"/>
+      <c r="K62" s="3" t="inlineStr"/>
+      <c r="L62" s="3" t="inlineStr">
         <is>
           <t>intervention temporal part</t>
         </is>
       </c>
-      <c r="M62" s="4" t="inlineStr"/>
-      <c r="N62" s="4" t="inlineStr"/>
-      <c r="O62" s="4" t="inlineStr"/>
-      <c r="P62" s="4" t="inlineStr">
+      <c r="M62" s="3" t="inlineStr"/>
+      <c r="N62" s="3" t="inlineStr"/>
+      <c r="O62" s="3" t="inlineStr"/>
+      <c r="P62" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q62" s="4" t="inlineStr"/>
-      <c r="R62" s="4" t="inlineStr">
+      <c r="Q62" s="3" t="inlineStr"/>
+      <c r="R62" s="3" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="S62" s="4" t="inlineStr">
+      <c r="S62" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T62" s="4" t="inlineStr">
+      <c r="T62" s="3" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U62" s="4" t="inlineStr">
+      <c r="U62" s="3" t="inlineStr">
         <is>
           <t>this entity was added to allow us to more flexibly capture frequencies that have been broken down into period and repetitions. This is useful for annotations but we are unsure if it makes ontological sense to include it as it isn't really distinct from a frequency itself and relates more to how a frequency is described. Perhaps this also isn't really distinct from duration of BCI/part (CM)</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="4" t="inlineStr">
+      <c r="A63" s="3" t="inlineStr">
         <is>
           <t>BCIO:008570</t>
         </is>
       </c>
-      <c r="B63" s="4" t="inlineStr">
+      <c r="B63" s="3" t="inlineStr">
         <is>
           <t>z) interval (remove)</t>
         </is>
       </c>
-      <c r="C63" s="4" t="inlineStr"/>
-      <c r="D63" s="4" t="inlineStr"/>
-      <c r="E63" s="4" t="inlineStr"/>
-      <c r="F63" s="4" t="inlineStr"/>
-      <c r="G63" s="4" t="inlineStr"/>
-      <c r="H63" s="4" t="inlineStr">
+      <c r="C63" s="3" t="inlineStr"/>
+      <c r="D63" s="3" t="inlineStr"/>
+      <c r="E63" s="3" t="inlineStr"/>
+      <c r="F63" s="3" t="inlineStr"/>
+      <c r="G63" s="3" t="inlineStr"/>
+      <c r="H63" s="3" t="inlineStr">
         <is>
           <t>This is not annotated but included due to relationship with duration of interval</t>
         </is>
       </c>
-      <c r="I63" s="4" t="inlineStr"/>
-      <c r="J63" s="4" t="inlineStr"/>
-      <c r="K63" s="4" t="inlineStr"/>
-      <c r="L63" s="4" t="inlineStr"/>
-      <c r="M63" s="4" t="inlineStr"/>
-      <c r="N63" s="4" t="inlineStr"/>
-      <c r="O63" s="4" t="inlineStr"/>
-      <c r="P63" s="4" t="inlineStr"/>
-      <c r="Q63" s="4" t="inlineStr">
+      <c r="I63" s="3" t="inlineStr"/>
+      <c r="J63" s="3" t="inlineStr"/>
+      <c r="K63" s="3" t="inlineStr"/>
+      <c r="L63" s="3" t="inlineStr"/>
+      <c r="M63" s="3" t="inlineStr"/>
+      <c r="N63" s="3" t="inlineStr"/>
+      <c r="O63" s="3" t="inlineStr"/>
+      <c r="P63" s="3" t="inlineStr"/>
+      <c r="Q63" s="3" t="inlineStr">
         <is>
           <t>entity added so duration of interval can be specified. not sure what parent/relationships should be</t>
         </is>
       </c>
-      <c r="R63" s="4" t="inlineStr">
+      <c r="R63" s="3" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="S63" s="4" t="inlineStr">
+      <c r="S63" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T63" s="4" t="inlineStr">
+      <c r="T63" s="3" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U63" s="4" t="inlineStr"/>
+      <c r="U63" s="3" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" s="4" t="inlineStr">
+      <c r="A64" s="3" t="inlineStr">
         <is>
           <t>BCIO:008520</t>
         </is>
       </c>
-      <c r="B64" s="4" t="inlineStr">
+      <c r="B64" s="3" t="inlineStr">
         <is>
           <t>z) intervention temporal part frequency</t>
         </is>
       </c>
-      <c r="C64" s="4" t="inlineStr">
+      <c r="C64" s="3" t="inlineStr">
         <is>
           <t>An attribute of a BCI schedule of delivery that is how often intervention temporal parts occur within a BCI.</t>
         </is>
       </c>
-      <c r="D64" s="4" t="inlineStr"/>
-      <c r="E64" s="4" t="inlineStr">
+      <c r="D64" s="3" t="inlineStr"/>
+      <c r="E64" s="3" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="F64" s="4" t="inlineStr">
+      <c r="F64" s="3" t="inlineStr">
         <is>
           <t>Contact events are intervention temporal parts so this entity also describes the frequency of contact events.</t>
         </is>
       </c>
-      <c r="G64" s="4" t="inlineStr"/>
-      <c r="H64" s="4" t="inlineStr">
+      <c r="G64" s="3" t="inlineStr"/>
+      <c r="H64" s="3" t="inlineStr">
         <is>
           <t>This is used to capture descriptions of the frequency of contact events within a part. 
 Example annotation (in context)
 intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks"</t>
         </is>
       </c>
-      <c r="I64" s="4" t="inlineStr"/>
-      <c r="J64" s="4" t="inlineStr"/>
-      <c r="K64" s="4" t="inlineStr"/>
-      <c r="L64" s="4" t="inlineStr">
+      <c r="I64" s="3" t="inlineStr"/>
+      <c r="J64" s="3" t="inlineStr"/>
+      <c r="K64" s="3" t="inlineStr"/>
+      <c r="L64" s="3" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="M64" s="4" t="inlineStr"/>
-      <c r="N64" s="4" t="inlineStr"/>
-      <c r="O64" s="4" t="inlineStr"/>
-      <c r="P64" s="4" t="inlineStr">
+      <c r="M64" s="3" t="inlineStr"/>
+      <c r="N64" s="3" t="inlineStr"/>
+      <c r="O64" s="3" t="inlineStr"/>
+      <c r="P64" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q64" s="4" t="inlineStr"/>
-      <c r="R64" s="4" t="inlineStr">
+      <c r="Q64" s="3" t="inlineStr"/>
+      <c r="R64" s="3" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="S64" s="4" t="inlineStr">
+      <c r="S64" s="3" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T64" s="4" t="inlineStr">
+      <c r="T64" s="3" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U64" s="4" t="inlineStr">
+      <c r="U64" s="3" t="inlineStr">
         <is>
           <t>need to decide whether to have a separate additional entity for frequency of contact events (CM)</t>
         </is>

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -1352,51 +1352,51 @@
       <c r="U15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>PATO:0000044</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>frequency</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>A physical quality which inheres in a bearer by virtue of the number of the bearer's repetitive actions in a particular time.</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
+      <c r="D16" s="3" t="inlineStr"/>
+      <c r="E16" s="3" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
+      <c r="F16" s="3" t="inlineStr"/>
+      <c r="G16" s="3" t="inlineStr"/>
+      <c r="H16" s="3" t="inlineStr"/>
+      <c r="I16" s="3" t="inlineStr"/>
+      <c r="J16" s="3" t="inlineStr"/>
+      <c r="K16" s="3" t="inlineStr"/>
+      <c r="L16" s="3" t="inlineStr"/>
+      <c r="M16" s="3" t="inlineStr"/>
+      <c r="N16" s="3" t="inlineStr"/>
+      <c r="O16" s="3" t="inlineStr"/>
+      <c r="P16" s="3" t="inlineStr"/>
+      <c r="Q16" s="3" t="inlineStr"/>
+      <c r="R16" s="3" t="inlineStr">
+        <is>
+          <t>JH; PS</t>
+        </is>
+      </c>
+      <c r="S16" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T16" s="3" t="inlineStr"/>
+      <c r="U16" s="3" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -1860,7 +1860,7 @@
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>total contact event duration statistic</t>
+          <t>total BCI contact event duration statistic</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr"/>
@@ -2209,7 +2209,7 @@
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>total contact event duration statistic</t>
+          <t>total BCI contact event duration statistic</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr"/>
@@ -2558,7 +2558,7 @@
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>total contact event duration statistic</t>
+          <t>total BCI contact event duration statistic</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr"/>
@@ -2907,7 +2907,7 @@
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>total contact event duration statistic</t>
+          <t>total BCI contact event duration statistic</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr"/>

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -683,7 +683,11 @@
       <c r="I4" s="2" t="inlineStr"/>
       <c r="J4" s="2" t="inlineStr"/>
       <c r="K4" s="2" t="inlineStr"/>
-      <c r="L4" s="2" t="inlineStr"/>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>BCI contact event duration</t>
+        </is>
+      </c>
       <c r="M4" s="2" t="inlineStr"/>
       <c r="N4" s="2" t="inlineStr"/>
       <c r="O4" s="2" t="inlineStr"/>
@@ -743,7 +747,11 @@
       <c r="I5" s="2" t="inlineStr"/>
       <c r="J5" s="2" t="inlineStr"/>
       <c r="K5" s="2" t="inlineStr"/>
-      <c r="L5" s="2" t="inlineStr"/>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>BCI contact event</t>
+        </is>
+      </c>
       <c r="M5" s="2" t="inlineStr"/>
       <c r="N5" s="2" t="inlineStr"/>
       <c r="O5" s="2" t="inlineStr"/>
@@ -908,7 +916,7 @@
       <c r="K8" s="2" t="inlineStr"/>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>temporal interval; BCI</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr"/>
@@ -1160,7 +1168,7 @@
       <c r="K12" s="2" t="inlineStr"/>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>temporal interval</t>
+          <t>BCI temporal part</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr"/>
@@ -1217,7 +1225,11 @@
       <c r="I13" s="2" t="inlineStr"/>
       <c r="J13" s="2" t="inlineStr"/>
       <c r="K13" s="2" t="inlineStr"/>
-      <c r="L13" s="2" t="inlineStr"/>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>BCI temporal part duration</t>
+        </is>
+      </c>
       <c r="M13" s="2" t="inlineStr"/>
       <c r="N13" s="2" t="inlineStr"/>
       <c r="O13" s="2" t="inlineStr"/>
@@ -1281,7 +1293,11 @@
       <c r="I14" s="2" t="inlineStr"/>
       <c r="J14" s="2" t="inlineStr"/>
       <c r="K14" s="2" t="inlineStr"/>
-      <c r="L14" s="2" t="inlineStr"/>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>BCI temporal part</t>
+        </is>
+      </c>
       <c r="M14" s="2" t="inlineStr"/>
       <c r="N14" s="2" t="inlineStr"/>
       <c r="O14" s="2" t="inlineStr"/>
@@ -1442,7 +1458,7 @@
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>temporal interval</t>
+          <t>BCI temporal part</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr"/>
@@ -1571,7 +1587,11 @@
       <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
-      <c r="L19" s="2" t="inlineStr"/>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>BCI contact event duration</t>
+        </is>
+      </c>
       <c r="M19" s="2" t="inlineStr"/>
       <c r="N19" s="2" t="inlineStr"/>
       <c r="O19" s="2" t="inlineStr"/>
@@ -1771,7 +1791,11 @@
       <c r="I23" s="2" t="inlineStr"/>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
-      <c r="L23" s="2" t="inlineStr"/>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>BCI temporal part duration</t>
+        </is>
+      </c>
       <c r="M23" s="2" t="inlineStr"/>
       <c r="N23" s="2" t="inlineStr"/>
       <c r="O23" s="2" t="inlineStr"/>
@@ -1920,7 +1944,11 @@
       <c r="I26" s="2" t="inlineStr"/>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
-      <c r="L26" s="2" t="inlineStr"/>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>BCI contact event duration</t>
+        </is>
+      </c>
       <c r="M26" s="2" t="inlineStr"/>
       <c r="N26" s="2" t="inlineStr"/>
       <c r="O26" s="2" t="inlineStr"/>
@@ -2120,7 +2148,11 @@
       <c r="I30" s="2" t="inlineStr"/>
       <c r="J30" s="2" t="inlineStr"/>
       <c r="K30" s="2" t="inlineStr"/>
-      <c r="L30" s="2" t="inlineStr"/>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>BCI temporal part duration</t>
+        </is>
+      </c>
       <c r="M30" s="2" t="inlineStr"/>
       <c r="N30" s="2" t="inlineStr"/>
       <c r="O30" s="2" t="inlineStr"/>
@@ -2269,7 +2301,11 @@
       <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
-      <c r="L33" s="2" t="inlineStr"/>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>BCI contact event duration</t>
+        </is>
+      </c>
       <c r="M33" s="2" t="inlineStr"/>
       <c r="N33" s="2" t="inlineStr"/>
       <c r="O33" s="2" t="inlineStr"/>
@@ -2469,7 +2505,11 @@
       <c r="I37" s="2" t="inlineStr"/>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
-      <c r="L37" s="2" t="inlineStr"/>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>BCI temporal part duration</t>
+        </is>
+      </c>
       <c r="M37" s="2" t="inlineStr"/>
       <c r="N37" s="2" t="inlineStr"/>
       <c r="O37" s="2" t="inlineStr"/>
@@ -2618,7 +2658,11 @@
       <c r="I40" s="2" t="inlineStr"/>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
-      <c r="L40" s="2" t="inlineStr"/>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>BCI contact event duration</t>
+        </is>
+      </c>
       <c r="M40" s="2" t="inlineStr"/>
       <c r="N40" s="2" t="inlineStr"/>
       <c r="O40" s="2" t="inlineStr"/>
@@ -2818,7 +2862,11 @@
       <c r="I44" s="2" t="inlineStr"/>
       <c r="J44" s="2" t="inlineStr"/>
       <c r="K44" s="2" t="inlineStr"/>
-      <c r="L44" s="2" t="inlineStr"/>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>BCI temporal part duration</t>
+        </is>
+      </c>
       <c r="M44" s="2" t="inlineStr"/>
       <c r="N44" s="2" t="inlineStr"/>
       <c r="O44" s="2" t="inlineStr"/>

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -634,7 +634,7 @@
       <c r="K3" s="2" t="inlineStr"/>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>contact event</t>
+          <t>BCI contact event</t>
         </is>
       </c>
       <c r="M3" s="2" t="inlineStr"/>
@@ -3031,7 +3031,7 @@
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>contact event</t>
+          <t>BCI contact event</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr"/>
@@ -3620,7 +3620,7 @@
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>contact event</t>
+          <t>BCI contact event</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr"/>

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -1031,7 +1031,7 @@
       <c r="L10" s="2" t="inlineStr"/>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>BCI delivery</t>
+          <t>behaviour change intervention delivery</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr"/>
@@ -1097,7 +1097,7 @@
       <c r="I11" s="2" t="inlineStr"/>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>BCI</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr"/>

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -773,7 +773,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050485</t>
+          <t>BCIO:050903</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -824,7 +824,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050486</t>
+          <t>BCIO:050904</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -948,7 +948,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050487</t>
+          <t>BCIO:050905</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -948,7 +948,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050905</t>
+          <t>BCIO:050487</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -1613,7 +1613,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050488</t>
+          <t>BCIO:050906</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -561,7 +561,7 @@
           <t xml:space="preserve">A &lt;BCI temporal part&gt; that is an occasion in which a member of a BCI population comes into contact with a BCI.  </t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="n"/>
       <c r="E2" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part</t>
@@ -577,16 +577,16 @@
           <t>A counselling session; An online chat session; An advertisement display.</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr"/>
-      <c r="I2" s="2" t="inlineStr"/>
-      <c r="J2" s="2" t="inlineStr"/>
-      <c r="K2" s="2" t="inlineStr"/>
-      <c r="L2" s="2" t="inlineStr"/>
-      <c r="M2" s="2" t="inlineStr"/>
-      <c r="N2" s="2" t="inlineStr"/>
-      <c r="O2" s="2" t="inlineStr"/>
-      <c r="P2" s="2" t="inlineStr"/>
-      <c r="Q2" s="2" t="inlineStr"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="2" t="n"/>
+      <c r="N2" s="2" t="n"/>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="n"/>
+      <c r="Q2" s="2" t="n"/>
       <c r="R2" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -597,8 +597,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T2" s="2" t="inlineStr"/>
-      <c r="U2" s="2" t="inlineStr"/>
+      <c r="T2" s="2" t="n"/>
+      <c r="U2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -616,32 +616,32 @@
           <t>A &lt;temporal interval&gt; between the start and end of a BCI contact event.</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="inlineStr">
         <is>
           <t>1 hour; 30 minutes; 2 minutes</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr"/>
-      <c r="I3" s="2" t="inlineStr"/>
-      <c r="J3" s="2" t="inlineStr"/>
-      <c r="K3" s="2" t="inlineStr"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="inlineStr">
         <is>
           <t>BCI contact event</t>
         </is>
       </c>
-      <c r="M3" s="2" t="inlineStr"/>
-      <c r="N3" s="2" t="inlineStr"/>
-      <c r="O3" s="2" t="inlineStr"/>
-      <c r="P3" s="2" t="inlineStr"/>
-      <c r="Q3" s="2" t="inlineStr"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
       <c r="R3" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -652,8 +652,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T3" s="2" t="inlineStr"/>
-      <c r="U3" s="2" t="inlineStr"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -671,28 +671,28 @@
           <t>A &lt;data item&gt; that is about a collection of BCI contact event durations.</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="n"/>
       <c r="E4" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr"/>
-      <c r="G4" s="2" t="inlineStr"/>
-      <c r="H4" s="2" t="inlineStr"/>
-      <c r="I4" s="2" t="inlineStr"/>
-      <c r="J4" s="2" t="inlineStr"/>
-      <c r="K4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
+      <c r="K4" s="2" t="n"/>
       <c r="L4" s="2" t="inlineStr">
         <is>
           <t>BCI contact event duration</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr"/>
-      <c r="N4" s="2" t="inlineStr"/>
-      <c r="O4" s="2" t="inlineStr"/>
-      <c r="P4" s="2" t="inlineStr"/>
-      <c r="Q4" s="2" t="inlineStr"/>
+      <c r="M4" s="2" t="n"/>
+      <c r="N4" s="2" t="n"/>
+      <c r="O4" s="2" t="n"/>
+      <c r="P4" s="2" t="n"/>
+      <c r="Q4" s="2" t="n"/>
       <c r="R4" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -703,8 +703,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T4" s="2" t="inlineStr"/>
-      <c r="U4" s="2" t="inlineStr"/>
+      <c r="T4" s="2" t="n"/>
+      <c r="U4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -732,7 +732,7 @@
           <t>data item</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="n"/>
       <c r="G5" s="2" t="inlineStr">
         <is>
           <t>twice a week; daily; one a week</t>
@@ -744,19 +744,19 @@
 Example annotation (in context): intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks" </t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr"/>
-      <c r="J5" s="2" t="inlineStr"/>
-      <c r="K5" s="2" t="inlineStr"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
+      <c r="K5" s="2" t="n"/>
       <c r="L5" s="2" t="inlineStr">
         <is>
           <t>BCI contact event</t>
         </is>
       </c>
-      <c r="M5" s="2" t="inlineStr"/>
-      <c r="N5" s="2" t="inlineStr"/>
-      <c r="O5" s="2" t="inlineStr"/>
-      <c r="P5" s="2" t="inlineStr"/>
-      <c r="Q5" s="2" t="inlineStr"/>
+      <c r="M5" s="2" t="n"/>
+      <c r="N5" s="2" t="n"/>
+      <c r="O5" s="2" t="n"/>
+      <c r="P5" s="2" t="n"/>
+      <c r="Q5" s="2" t="n"/>
       <c r="R5" s="2" t="inlineStr">
         <is>
           <t>CM; JH; PS</t>
@@ -767,8 +767,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T5" s="2" t="inlineStr"/>
-      <c r="U5" s="2" t="inlineStr"/>
+      <c r="T5" s="2" t="n"/>
+      <c r="U5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -786,28 +786,28 @@
           <t>A &lt;data item&gt; that is about a collection of BCI contact event frequencies.</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr"/>
+      <c r="D6" s="2" t="n"/>
       <c r="E6" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr"/>
-      <c r="G6" s="2" t="inlineStr"/>
-      <c r="H6" s="2" t="inlineStr"/>
-      <c r="I6" s="2" t="inlineStr"/>
-      <c r="J6" s="2" t="inlineStr"/>
-      <c r="K6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="2" t="n"/>
       <c r="L6" s="2" t="inlineStr">
         <is>
           <t>BCI contact event frequency</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr"/>
-      <c r="N6" s="2" t="inlineStr"/>
-      <c r="O6" s="2" t="inlineStr"/>
-      <c r="P6" s="2" t="inlineStr"/>
-      <c r="Q6" s="2" t="inlineStr"/>
+      <c r="M6" s="2" t="n"/>
+      <c r="N6" s="2" t="n"/>
+      <c r="O6" s="2" t="n"/>
+      <c r="P6" s="2" t="n"/>
+      <c r="Q6" s="2" t="n"/>
       <c r="R6" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -818,8 +818,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T6" s="2" t="inlineStr"/>
-      <c r="U6" s="2" t="inlineStr"/>
+      <c r="T6" s="2" t="n"/>
+      <c r="U6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -837,28 +837,28 @@
           <t>A &lt;data item&gt; that is about a collection of BCI contact event numbers.</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="n"/>
       <c r="E7" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr"/>
-      <c r="G7" s="2" t="inlineStr"/>
-      <c r="H7" s="2" t="inlineStr"/>
-      <c r="I7" s="2" t="inlineStr"/>
-      <c r="J7" s="2" t="inlineStr"/>
-      <c r="K7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="2" t="n"/>
+      <c r="J7" s="2" t="n"/>
+      <c r="K7" s="2" t="n"/>
       <c r="L7" s="2" t="inlineStr">
         <is>
           <t>number of BCI contact events</t>
         </is>
       </c>
-      <c r="M7" s="2" t="inlineStr"/>
-      <c r="N7" s="2" t="inlineStr"/>
-      <c r="O7" s="2" t="inlineStr"/>
-      <c r="P7" s="2" t="inlineStr"/>
-      <c r="Q7" s="2" t="inlineStr"/>
+      <c r="M7" s="2" t="n"/>
+      <c r="N7" s="2" t="n"/>
+      <c r="O7" s="2" t="n"/>
+      <c r="P7" s="2" t="n"/>
+      <c r="Q7" s="2" t="n"/>
       <c r="R7" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -869,8 +869,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T7" s="2" t="inlineStr"/>
-      <c r="U7" s="2" t="inlineStr"/>
+      <c r="T7" s="2" t="n"/>
+      <c r="U7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -898,7 +898,7 @@
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="n"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
           <t>6 weeks; 2 months; 1 year</t>
@@ -911,23 +911,23 @@
 This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr"/>
-      <c r="J8" s="2" t="inlineStr"/>
-      <c r="K8" s="2" t="inlineStr"/>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="2" t="n"/>
       <c r="L8" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr"/>
-      <c r="N8" s="2" t="inlineStr"/>
-      <c r="O8" s="2" t="inlineStr"/>
+      <c r="M8" s="2" t="n"/>
+      <c r="N8" s="2" t="n"/>
+      <c r="O8" s="2" t="n"/>
       <c r="P8" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q8" s="2" t="inlineStr"/>
+      <c r="Q8" s="2" t="n"/>
       <c r="R8" s="2" t="inlineStr">
         <is>
           <t>CM; RW; JH; PS</t>
@@ -943,7 +943,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U8" s="2" t="inlineStr"/>
+      <c r="U8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -961,28 +961,28 @@
           <t>A &lt;data item&gt; that is about a collection of BCI durations.</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr"/>
+      <c r="D9" s="2" t="n"/>
       <c r="E9" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr"/>
-      <c r="G9" s="2" t="inlineStr"/>
-      <c r="H9" s="2" t="inlineStr"/>
-      <c r="I9" s="2" t="inlineStr"/>
-      <c r="J9" s="2" t="inlineStr"/>
-      <c r="K9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="n"/>
+      <c r="G9" s="2" t="n"/>
+      <c r="H9" s="2" t="n"/>
+      <c r="I9" s="2" t="n"/>
+      <c r="J9" s="2" t="n"/>
+      <c r="K9" s="2" t="n"/>
       <c r="L9" s="2" t="inlineStr">
         <is>
           <t>BCI duration</t>
         </is>
       </c>
-      <c r="M9" s="2" t="inlineStr"/>
-      <c r="N9" s="2" t="inlineStr"/>
-      <c r="O9" s="2" t="inlineStr"/>
-      <c r="P9" s="2" t="inlineStr"/>
-      <c r="Q9" s="2" t="inlineStr"/>
+      <c r="M9" s="2" t="n"/>
+      <c r="N9" s="2" t="n"/>
+      <c r="O9" s="2" t="n"/>
+      <c r="P9" s="2" t="n"/>
+      <c r="Q9" s="2" t="n"/>
       <c r="R9" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -993,8 +993,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T9" s="2" t="inlineStr"/>
-      <c r="U9" s="2" t="inlineStr"/>
+      <c r="T9" s="2" t="n"/>
+      <c r="U9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -1012,7 +1012,7 @@
           <t xml:space="preserve">A &lt;BCI attribute&gt; that is its temporal organisation </t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr"/>
+      <c r="D10" s="2" t="n"/>
       <c r="E10" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">BCI attribute </t>
@@ -1023,21 +1023,21 @@
           <t>Includes the start and end of a BCI, its parts, and their organisation around relevant timepoints.</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr"/>
-      <c r="H10" s="2" t="inlineStr"/>
-      <c r="I10" s="2" t="inlineStr"/>
-      <c r="J10" s="2" t="inlineStr"/>
-      <c r="K10" s="2" t="inlineStr"/>
-      <c r="L10" s="2" t="inlineStr"/>
+      <c r="G10" s="2" t="n"/>
+      <c r="H10" s="2" t="n"/>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="2" t="n"/>
+      <c r="L10" s="2" t="n"/>
       <c r="M10" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention delivery</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr"/>
-      <c r="O10" s="2" t="inlineStr"/>
-      <c r="P10" s="2" t="inlineStr"/>
-      <c r="Q10" s="2" t="inlineStr"/>
+      <c r="N10" s="2" t="n"/>
+      <c r="O10" s="2" t="n"/>
+      <c r="P10" s="2" t="n"/>
+      <c r="Q10" s="2" t="n"/>
       <c r="R10" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1048,8 +1048,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T10" s="2" t="inlineStr"/>
-      <c r="U10" s="2" t="inlineStr"/>
+      <c r="T10" s="2" t="n"/>
+      <c r="U10" s="2" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -1094,19 +1094,19 @@
 The "counselling sessions" took place each week for 6 weeks, and lasted roughly one hour; During the "first 6 weeks", participants received a phone call every two weeks, then for the "last 4 weeks", this was reduced to a weekly call;</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr"/>
+      <c r="I11" s="2" t="n"/>
       <c r="J11" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention</t>
         </is>
       </c>
-      <c r="K11" s="2" t="inlineStr"/>
-      <c r="L11" s="2" t="inlineStr"/>
-      <c r="M11" s="2" t="inlineStr"/>
-      <c r="N11" s="2" t="inlineStr"/>
-      <c r="O11" s="2" t="inlineStr"/>
-      <c r="P11" s="2" t="inlineStr"/>
-      <c r="Q11" s="2" t="inlineStr"/>
+      <c r="K11" s="2" t="n"/>
+      <c r="L11" s="2" t="n"/>
+      <c r="M11" s="2" t="n"/>
+      <c r="N11" s="2" t="n"/>
+      <c r="O11" s="2" t="n"/>
+      <c r="P11" s="2" t="n"/>
+      <c r="Q11" s="2" t="n"/>
       <c r="R11" s="2" t="inlineStr">
         <is>
           <t>CM; EJH; PS</t>
@@ -1122,7 +1122,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U11" s="2" t="inlineStr"/>
+      <c r="U11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -1150,7 +1150,7 @@
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="n"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
           <t>6 weeks; 2 weeks</t>
@@ -1163,23 +1163,23 @@
 This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author </t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr"/>
-      <c r="J12" s="2" t="inlineStr"/>
-      <c r="K12" s="2" t="inlineStr"/>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
+      <c r="K12" s="2" t="n"/>
       <c r="L12" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part</t>
         </is>
       </c>
-      <c r="M12" s="2" t="inlineStr"/>
-      <c r="N12" s="2" t="inlineStr"/>
-      <c r="O12" s="2" t="inlineStr"/>
+      <c r="M12" s="2" t="n"/>
+      <c r="N12" s="2" t="n"/>
+      <c r="O12" s="2" t="n"/>
       <c r="P12" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q12" s="2" t="inlineStr"/>
+      <c r="Q12" s="2" t="n"/>
       <c r="R12" s="2" t="inlineStr">
         <is>
           <t>CM; JH; PS</t>
@@ -1195,7 +1195,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U12" s="2" t="inlineStr"/>
+      <c r="U12" s="2" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -1213,28 +1213,28 @@
           <t>A &lt;data item&gt; that is about a collection of intervention temporal part durations.</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr"/>
+      <c r="D13" s="2" t="n"/>
       <c r="E13" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr"/>
-      <c r="G13" s="2" t="inlineStr"/>
-      <c r="H13" s="2" t="inlineStr"/>
-      <c r="I13" s="2" t="inlineStr"/>
-      <c r="J13" s="2" t="inlineStr"/>
-      <c r="K13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="n"/>
+      <c r="G13" s="2" t="n"/>
+      <c r="H13" s="2" t="n"/>
+      <c r="I13" s="2" t="n"/>
+      <c r="J13" s="2" t="n"/>
+      <c r="K13" s="2" t="n"/>
       <c r="L13" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part duration</t>
         </is>
       </c>
-      <c r="M13" s="2" t="inlineStr"/>
-      <c r="N13" s="2" t="inlineStr"/>
-      <c r="O13" s="2" t="inlineStr"/>
-      <c r="P13" s="2" t="inlineStr"/>
-      <c r="Q13" s="2" t="inlineStr"/>
+      <c r="M13" s="2" t="n"/>
+      <c r="N13" s="2" t="n"/>
+      <c r="O13" s="2" t="n"/>
+      <c r="P13" s="2" t="n"/>
+      <c r="Q13" s="2" t="n"/>
       <c r="R13" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1245,8 +1245,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T13" s="2" t="inlineStr"/>
-      <c r="U13" s="2" t="inlineStr"/>
+      <c r="T13" s="2" t="n"/>
+      <c r="U13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -1290,19 +1290,19 @@
 Example annotation in context: Participants took part in 90 minutes of PA "weekly" </t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr"/>
-      <c r="J14" s="2" t="inlineStr"/>
-      <c r="K14" s="2" t="inlineStr"/>
+      <c r="I14" s="2" t="n"/>
+      <c r="J14" s="2" t="n"/>
+      <c r="K14" s="2" t="n"/>
       <c r="L14" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part</t>
         </is>
       </c>
-      <c r="M14" s="2" t="inlineStr"/>
-      <c r="N14" s="2" t="inlineStr"/>
-      <c r="O14" s="2" t="inlineStr"/>
-      <c r="P14" s="2" t="inlineStr"/>
-      <c r="Q14" s="2" t="inlineStr"/>
+      <c r="M14" s="2" t="n"/>
+      <c r="N14" s="2" t="n"/>
+      <c r="O14" s="2" t="n"/>
+      <c r="P14" s="2" t="n"/>
+      <c r="Q14" s="2" t="n"/>
       <c r="R14" s="2" t="inlineStr">
         <is>
           <t>CM; JH; PS</t>
@@ -1313,8 +1313,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T14" s="2" t="inlineStr"/>
-      <c r="U14" s="2" t="inlineStr"/>
+      <c r="T14" s="2" t="n"/>
+      <c r="U14" s="2" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -1332,28 +1332,28 @@
           <t>A &lt;data item&gt; that is about a collection of BCI temporal part frequencies.</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr"/>
+      <c r="D15" s="2" t="n"/>
       <c r="E15" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr"/>
-      <c r="G15" s="2" t="inlineStr"/>
-      <c r="H15" s="2" t="inlineStr"/>
-      <c r="I15" s="2" t="inlineStr"/>
-      <c r="J15" s="2" t="inlineStr"/>
-      <c r="K15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="n"/>
+      <c r="G15" s="2" t="n"/>
+      <c r="H15" s="2" t="n"/>
+      <c r="I15" s="2" t="n"/>
+      <c r="J15" s="2" t="n"/>
+      <c r="K15" s="2" t="n"/>
       <c r="L15" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part frequency</t>
         </is>
       </c>
-      <c r="M15" s="2" t="inlineStr"/>
-      <c r="N15" s="2" t="inlineStr"/>
-      <c r="O15" s="2" t="inlineStr"/>
-      <c r="P15" s="2" t="inlineStr"/>
-      <c r="Q15" s="2" t="inlineStr"/>
+      <c r="M15" s="2" t="n"/>
+      <c r="N15" s="2" t="n"/>
+      <c r="O15" s="2" t="n"/>
+      <c r="P15" s="2" t="n"/>
+      <c r="Q15" s="2" t="n"/>
       <c r="R15" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1364,8 +1364,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T15" s="2" t="inlineStr"/>
-      <c r="U15" s="2" t="inlineStr"/>
+      <c r="T15" s="2" t="n"/>
+      <c r="U15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1383,24 +1383,11 @@
           <t>A physical quality which inheres in a bearer by virtue of the number of the bearer's repetitive actions in a particular time.</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
           <t>JH; PS</t>
@@ -1411,8 +1398,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -1440,7 +1425,7 @@
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="n"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
           <t>"2 weeks"; "1 day"</t>
@@ -1453,23 +1438,23 @@
 This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author </t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr"/>
-      <c r="J17" s="2" t="inlineStr"/>
-      <c r="K17" s="2" t="inlineStr"/>
+      <c r="I17" s="2" t="n"/>
+      <c r="J17" s="2" t="n"/>
+      <c r="K17" s="2" t="n"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr"/>
-      <c r="N17" s="2" t="inlineStr"/>
-      <c r="O17" s="2" t="inlineStr"/>
+      <c r="M17" s="2" t="n"/>
+      <c r="N17" s="2" t="n"/>
+      <c r="O17" s="2" t="n"/>
       <c r="P17" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q17" s="2" t="inlineStr"/>
+      <c r="Q17" s="2" t="n"/>
       <c r="R17" s="2" t="inlineStr">
         <is>
           <t>CM; JH; PS</t>
@@ -1485,7 +1470,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U17" s="2" t="inlineStr"/>
+      <c r="U17" s="2" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -1513,7 +1498,7 @@
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="n"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
           <t>telephone feedback sessions were more frequent during the first 6 weeks; participants were free to access the app whenever they desired</t>
@@ -1525,14 +1510,14 @@
 Example annotation in context: "participants were free to access the app as and when they desired";"telephone feedback sessions were more frequent during the first 6 weeks" </t>
         </is>
       </c>
-      <c r="I18" s="2" t="inlineStr"/>
-      <c r="J18" s="2" t="inlineStr"/>
-      <c r="K18" s="2" t="inlineStr"/>
-      <c r="L18" s="2" t="inlineStr"/>
-      <c r="M18" s="2" t="inlineStr"/>
-      <c r="N18" s="2" t="inlineStr"/>
-      <c r="O18" s="2" t="inlineStr"/>
-      <c r="P18" s="2" t="inlineStr"/>
+      <c r="I18" s="2" t="n"/>
+      <c r="J18" s="2" t="n"/>
+      <c r="K18" s="2" t="n"/>
+      <c r="L18" s="2" t="n"/>
+      <c r="M18" s="2" t="n"/>
+      <c r="N18" s="2" t="n"/>
+      <c r="O18" s="2" t="n"/>
+      <c r="P18" s="2" t="n"/>
       <c r="Q18" s="2" t="inlineStr">
         <is>
           <t>relationship? is about schedule? or is a type of schedule?</t>
@@ -1575,28 +1560,28 @@
           <t>A &lt;BCI contact event duration statistic&gt; that is the highest value from a collection of BCI contact event durations.</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr"/>
+      <c r="D19" s="2" t="n"/>
       <c r="E19" s="2" t="inlineStr">
         <is>
           <t>BCI contact event duration statistic</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr"/>
-      <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr"/>
-      <c r="J19" s="2" t="inlineStr"/>
-      <c r="K19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="n"/>
+      <c r="G19" s="2" t="n"/>
+      <c r="H19" s="2" t="n"/>
+      <c r="I19" s="2" t="n"/>
+      <c r="J19" s="2" t="n"/>
+      <c r="K19" s="2" t="n"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
           <t>BCI contact event duration</t>
         </is>
       </c>
-      <c r="M19" s="2" t="inlineStr"/>
-      <c r="N19" s="2" t="inlineStr"/>
-      <c r="O19" s="2" t="inlineStr"/>
-      <c r="P19" s="2" t="inlineStr"/>
-      <c r="Q19" s="2" t="inlineStr"/>
+      <c r="M19" s="2" t="n"/>
+      <c r="N19" s="2" t="n"/>
+      <c r="O19" s="2" t="n"/>
+      <c r="P19" s="2" t="n"/>
+      <c r="Q19" s="2" t="n"/>
       <c r="R19" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1607,13 +1592,13 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T19" s="2" t="inlineStr"/>
-      <c r="U19" s="2" t="inlineStr"/>
+      <c r="T19" s="2" t="n"/>
+      <c r="U19" s="2" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050488</t>
+          <t>BCIO:050906</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1626,28 +1611,28 @@
           <t>A &lt;BCI contact event frequency statistic&gt; that is the highest value from a collection of BCI contact event frequencies.</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr"/>
+      <c r="D20" s="2" t="n"/>
       <c r="E20" s="2" t="inlineStr">
         <is>
           <t>BCI contact event frequency statistic</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr"/>
-      <c r="H20" s="2" t="inlineStr"/>
-      <c r="I20" s="2" t="inlineStr"/>
-      <c r="J20" s="2" t="inlineStr"/>
-      <c r="K20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="n"/>
+      <c r="G20" s="2" t="n"/>
+      <c r="H20" s="2" t="n"/>
+      <c r="I20" s="2" t="n"/>
+      <c r="J20" s="2" t="n"/>
+      <c r="K20" s="2" t="n"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
           <t>BCI contact event frequency</t>
         </is>
       </c>
-      <c r="M20" s="2" t="inlineStr"/>
-      <c r="N20" s="2" t="inlineStr"/>
-      <c r="O20" s="2" t="inlineStr"/>
-      <c r="P20" s="2" t="inlineStr"/>
-      <c r="Q20" s="2" t="inlineStr"/>
+      <c r="M20" s="2" t="n"/>
+      <c r="N20" s="2" t="n"/>
+      <c r="O20" s="2" t="n"/>
+      <c r="P20" s="2" t="n"/>
+      <c r="Q20" s="2" t="n"/>
       <c r="R20" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1658,8 +1643,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T20" s="2" t="inlineStr"/>
-      <c r="U20" s="2" t="inlineStr"/>
+      <c r="T20" s="2" t="n"/>
+      <c r="U20" s="2" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -1677,28 +1662,28 @@
           <t>A &lt;BCI contact event number statistic&gt; that is the highest value from a collection of BCI contact event numbers.</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr"/>
+      <c r="D21" s="2" t="n"/>
       <c r="E21" s="2" t="inlineStr">
         <is>
           <t>BCI contact event number statistic</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr"/>
-      <c r="H21" s="2" t="inlineStr"/>
-      <c r="I21" s="2" t="inlineStr"/>
-      <c r="J21" s="2" t="inlineStr"/>
-      <c r="K21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="n"/>
+      <c r="G21" s="2" t="n"/>
+      <c r="H21" s="2" t="n"/>
+      <c r="I21" s="2" t="n"/>
+      <c r="J21" s="2" t="n"/>
+      <c r="K21" s="2" t="n"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
           <t>number of BCI contact events</t>
         </is>
       </c>
-      <c r="M21" s="2" t="inlineStr"/>
-      <c r="N21" s="2" t="inlineStr"/>
-      <c r="O21" s="2" t="inlineStr"/>
-      <c r="P21" s="2" t="inlineStr"/>
-      <c r="Q21" s="2" t="inlineStr"/>
+      <c r="M21" s="2" t="n"/>
+      <c r="N21" s="2" t="n"/>
+      <c r="O21" s="2" t="n"/>
+      <c r="P21" s="2" t="n"/>
+      <c r="Q21" s="2" t="n"/>
       <c r="R21" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1709,8 +1694,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T21" s="2" t="inlineStr"/>
-      <c r="U21" s="2" t="inlineStr"/>
+      <c r="T21" s="2" t="n"/>
+      <c r="U21" s="2" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
@@ -1728,28 +1713,28 @@
           <t>A &lt;BCI duration statistic&gt; that is the highest value from a collection of BCI durations.</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr"/>
+      <c r="D22" s="2" t="n"/>
       <c r="E22" s="2" t="inlineStr">
         <is>
           <t>BCI duration statistic</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr"/>
-      <c r="G22" s="2" t="inlineStr"/>
-      <c r="H22" s="2" t="inlineStr"/>
-      <c r="I22" s="2" t="inlineStr"/>
-      <c r="J22" s="2" t="inlineStr"/>
-      <c r="K22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="n"/>
+      <c r="G22" s="2" t="n"/>
+      <c r="H22" s="2" t="n"/>
+      <c r="I22" s="2" t="n"/>
+      <c r="J22" s="2" t="n"/>
+      <c r="K22" s="2" t="n"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
           <t>BCI duration</t>
         </is>
       </c>
-      <c r="M22" s="2" t="inlineStr"/>
-      <c r="N22" s="2" t="inlineStr"/>
-      <c r="O22" s="2" t="inlineStr"/>
-      <c r="P22" s="2" t="inlineStr"/>
-      <c r="Q22" s="2" t="inlineStr"/>
+      <c r="M22" s="2" t="n"/>
+      <c r="N22" s="2" t="n"/>
+      <c r="O22" s="2" t="n"/>
+      <c r="P22" s="2" t="n"/>
+      <c r="Q22" s="2" t="n"/>
       <c r="R22" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1760,8 +1745,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T22" s="2" t="inlineStr"/>
-      <c r="U22" s="2" t="inlineStr"/>
+      <c r="T22" s="2" t="n"/>
+      <c r="U22" s="2" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
@@ -1779,28 +1764,28 @@
           <t>A &lt;BCI temporal part duration statistic&gt; that denotes the highest value from a collection of BCI temporal part durations.</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr"/>
+      <c r="D23" s="2" t="n"/>
       <c r="E23" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part duration statistic</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr"/>
-      <c r="G23" s="2" t="inlineStr"/>
-      <c r="H23" s="2" t="inlineStr"/>
-      <c r="I23" s="2" t="inlineStr"/>
-      <c r="J23" s="2" t="inlineStr"/>
-      <c r="K23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="n"/>
+      <c r="G23" s="2" t="n"/>
+      <c r="H23" s="2" t="n"/>
+      <c r="I23" s="2" t="n"/>
+      <c r="J23" s="2" t="n"/>
+      <c r="K23" s="2" t="n"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part duration</t>
         </is>
       </c>
-      <c r="M23" s="2" t="inlineStr"/>
-      <c r="N23" s="2" t="inlineStr"/>
-      <c r="O23" s="2" t="inlineStr"/>
-      <c r="P23" s="2" t="inlineStr"/>
-      <c r="Q23" s="2" t="inlineStr"/>
+      <c r="M23" s="2" t="n"/>
+      <c r="N23" s="2" t="n"/>
+      <c r="O23" s="2" t="n"/>
+      <c r="P23" s="2" t="n"/>
+      <c r="Q23" s="2" t="n"/>
       <c r="R23" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1811,8 +1796,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T23" s="2" t="inlineStr"/>
-      <c r="U23" s="2" t="inlineStr"/>
+      <c r="T23" s="2" t="n"/>
+      <c r="U23" s="2" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
@@ -1830,28 +1815,28 @@
           <t>A &lt;BCI temporal part frequency statistic&gt; that is the highest value from a collection of BCI temporal part frequencies.</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr"/>
+      <c r="D24" s="2" t="n"/>
       <c r="E24" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part frequency statistic</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr"/>
-      <c r="G24" s="2" t="inlineStr"/>
-      <c r="H24" s="2" t="inlineStr"/>
-      <c r="I24" s="2" t="inlineStr"/>
-      <c r="J24" s="2" t="inlineStr"/>
-      <c r="K24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="n"/>
+      <c r="G24" s="2" t="n"/>
+      <c r="H24" s="2" t="n"/>
+      <c r="I24" s="2" t="n"/>
+      <c r="J24" s="2" t="n"/>
+      <c r="K24" s="2" t="n"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part frequency</t>
         </is>
       </c>
-      <c r="M24" s="2" t="inlineStr"/>
-      <c r="N24" s="2" t="inlineStr"/>
-      <c r="O24" s="2" t="inlineStr"/>
-      <c r="P24" s="2" t="inlineStr"/>
-      <c r="Q24" s="2" t="inlineStr"/>
+      <c r="M24" s="2" t="n"/>
+      <c r="N24" s="2" t="n"/>
+      <c r="O24" s="2" t="n"/>
+      <c r="P24" s="2" t="n"/>
+      <c r="Q24" s="2" t="n"/>
       <c r="R24" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1862,8 +1847,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T24" s="2" t="inlineStr"/>
-      <c r="U24" s="2" t="inlineStr"/>
+      <c r="T24" s="2" t="n"/>
+      <c r="U24" s="2" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -1881,28 +1866,28 @@
           <t>A &lt;total contact event duration statistic&gt; that is the highest value from a collection of total contact event durations.</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr"/>
+      <c r="D25" s="2" t="n"/>
       <c r="E25" s="2" t="inlineStr">
         <is>
           <t>total BCI contact event duration statistic</t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr"/>
-      <c r="G25" s="2" t="inlineStr"/>
-      <c r="H25" s="2" t="inlineStr"/>
-      <c r="I25" s="2" t="inlineStr"/>
-      <c r="J25" s="2" t="inlineStr"/>
-      <c r="K25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="n"/>
+      <c r="G25" s="2" t="n"/>
+      <c r="H25" s="2" t="n"/>
+      <c r="I25" s="2" t="n"/>
+      <c r="J25" s="2" t="n"/>
+      <c r="K25" s="2" t="n"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
           <t>total BCI contact event duration</t>
         </is>
       </c>
-      <c r="M25" s="2" t="inlineStr"/>
-      <c r="N25" s="2" t="inlineStr"/>
-      <c r="O25" s="2" t="inlineStr"/>
-      <c r="P25" s="2" t="inlineStr"/>
-      <c r="Q25" s="2" t="inlineStr"/>
+      <c r="M25" s="2" t="n"/>
+      <c r="N25" s="2" t="n"/>
+      <c r="O25" s="2" t="n"/>
+      <c r="P25" s="2" t="n"/>
+      <c r="Q25" s="2" t="n"/>
       <c r="R25" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1913,8 +1898,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T25" s="2" t="inlineStr"/>
-      <c r="U25" s="2" t="inlineStr"/>
+      <c r="T25" s="2" t="n"/>
+      <c r="U25" s="2" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -1932,28 +1917,28 @@
           <t>A &lt;BCI contact event duration statistic&gt; that is the average value calculated from a collection of BCI contact event durations.</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr"/>
+      <c r="D26" s="2" t="n"/>
       <c r="E26" s="2" t="inlineStr">
         <is>
           <t>BCI contact event duration statistic</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr"/>
-      <c r="G26" s="2" t="inlineStr"/>
-      <c r="H26" s="2" t="inlineStr"/>
-      <c r="I26" s="2" t="inlineStr"/>
-      <c r="J26" s="2" t="inlineStr"/>
-      <c r="K26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="n"/>
+      <c r="G26" s="2" t="n"/>
+      <c r="H26" s="2" t="n"/>
+      <c r="I26" s="2" t="n"/>
+      <c r="J26" s="2" t="n"/>
+      <c r="K26" s="2" t="n"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
           <t>BCI contact event duration</t>
         </is>
       </c>
-      <c r="M26" s="2" t="inlineStr"/>
-      <c r="N26" s="2" t="inlineStr"/>
-      <c r="O26" s="2" t="inlineStr"/>
-      <c r="P26" s="2" t="inlineStr"/>
-      <c r="Q26" s="2" t="inlineStr"/>
+      <c r="M26" s="2" t="n"/>
+      <c r="N26" s="2" t="n"/>
+      <c r="O26" s="2" t="n"/>
+      <c r="P26" s="2" t="n"/>
+      <c r="Q26" s="2" t="n"/>
       <c r="R26" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1964,8 +1949,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T26" s="2" t="inlineStr"/>
-      <c r="U26" s="2" t="inlineStr"/>
+      <c r="T26" s="2" t="n"/>
+      <c r="U26" s="2" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
@@ -1983,28 +1968,28 @@
           <t>A &lt;BCI contact event frequency statistic&gt; that is the average value calculated from a collection of BCI contact event frequencies.</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr"/>
+      <c r="D27" s="2" t="n"/>
       <c r="E27" s="2" t="inlineStr">
         <is>
           <t>BCI contact event frequency statistic</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr"/>
-      <c r="G27" s="2" t="inlineStr"/>
-      <c r="H27" s="2" t="inlineStr"/>
-      <c r="I27" s="2" t="inlineStr"/>
-      <c r="J27" s="2" t="inlineStr"/>
-      <c r="K27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="n"/>
+      <c r="G27" s="2" t="n"/>
+      <c r="H27" s="2" t="n"/>
+      <c r="I27" s="2" t="n"/>
+      <c r="J27" s="2" t="n"/>
+      <c r="K27" s="2" t="n"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
           <t>BCI contact event frequency</t>
         </is>
       </c>
-      <c r="M27" s="2" t="inlineStr"/>
-      <c r="N27" s="2" t="inlineStr"/>
-      <c r="O27" s="2" t="inlineStr"/>
-      <c r="P27" s="2" t="inlineStr"/>
-      <c r="Q27" s="2" t="inlineStr"/>
+      <c r="M27" s="2" t="n"/>
+      <c r="N27" s="2" t="n"/>
+      <c r="O27" s="2" t="n"/>
+      <c r="P27" s="2" t="n"/>
+      <c r="Q27" s="2" t="n"/>
       <c r="R27" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2015,8 +2000,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T27" s="2" t="inlineStr"/>
-      <c r="U27" s="2" t="inlineStr"/>
+      <c r="T27" s="2" t="n"/>
+      <c r="U27" s="2" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
@@ -2034,28 +2019,28 @@
           <t>A &lt;BCI contact event number statistic&gt; that is the average value calculated from a collection of BCI contact event numbers.</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr"/>
+      <c r="D28" s="2" t="n"/>
       <c r="E28" s="2" t="inlineStr">
         <is>
           <t>BCI contact event number statistic</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr"/>
-      <c r="G28" s="2" t="inlineStr"/>
-      <c r="H28" s="2" t="inlineStr"/>
-      <c r="I28" s="2" t="inlineStr"/>
-      <c r="J28" s="2" t="inlineStr"/>
-      <c r="K28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="n"/>
+      <c r="G28" s="2" t="n"/>
+      <c r="H28" s="2" t="n"/>
+      <c r="I28" s="2" t="n"/>
+      <c r="J28" s="2" t="n"/>
+      <c r="K28" s="2" t="n"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
           <t>number of BCI contact events</t>
         </is>
       </c>
-      <c r="M28" s="2" t="inlineStr"/>
-      <c r="N28" s="2" t="inlineStr"/>
-      <c r="O28" s="2" t="inlineStr"/>
-      <c r="P28" s="2" t="inlineStr"/>
-      <c r="Q28" s="2" t="inlineStr"/>
+      <c r="M28" s="2" t="n"/>
+      <c r="N28" s="2" t="n"/>
+      <c r="O28" s="2" t="n"/>
+      <c r="P28" s="2" t="n"/>
+      <c r="Q28" s="2" t="n"/>
       <c r="R28" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2066,8 +2051,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T28" s="2" t="inlineStr"/>
-      <c r="U28" s="2" t="inlineStr"/>
+      <c r="T28" s="2" t="n"/>
+      <c r="U28" s="2" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -2085,28 +2070,28 @@
           <t>A &lt;BCI duration statistic&gt; that is the average value calculated from a collection of BCI durations.</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr"/>
+      <c r="D29" s="2" t="n"/>
       <c r="E29" s="2" t="inlineStr">
         <is>
           <t>BCI duration statistic</t>
         </is>
       </c>
-      <c r="F29" s="2" t="inlineStr"/>
-      <c r="G29" s="2" t="inlineStr"/>
-      <c r="H29" s="2" t="inlineStr"/>
-      <c r="I29" s="2" t="inlineStr"/>
-      <c r="J29" s="2" t="inlineStr"/>
-      <c r="K29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="n"/>
+      <c r="G29" s="2" t="n"/>
+      <c r="H29" s="2" t="n"/>
+      <c r="I29" s="2" t="n"/>
+      <c r="J29" s="2" t="n"/>
+      <c r="K29" s="2" t="n"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
           <t>BCI duration</t>
         </is>
       </c>
-      <c r="M29" s="2" t="inlineStr"/>
-      <c r="N29" s="2" t="inlineStr"/>
-      <c r="O29" s="2" t="inlineStr"/>
-      <c r="P29" s="2" t="inlineStr"/>
-      <c r="Q29" s="2" t="inlineStr"/>
+      <c r="M29" s="2" t="n"/>
+      <c r="N29" s="2" t="n"/>
+      <c r="O29" s="2" t="n"/>
+      <c r="P29" s="2" t="n"/>
+      <c r="Q29" s="2" t="n"/>
       <c r="R29" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2117,8 +2102,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T29" s="2" t="inlineStr"/>
-      <c r="U29" s="2" t="inlineStr"/>
+      <c r="T29" s="2" t="n"/>
+      <c r="U29" s="2" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -2136,28 +2121,28 @@
           <t>A &lt;BCI temporal part duration statistic&gt; that is the average value calculated from a collection of BCI temporal part durations.</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr"/>
+      <c r="D30" s="2" t="n"/>
       <c r="E30" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part duration statistic</t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr"/>
-      <c r="G30" s="2" t="inlineStr"/>
-      <c r="H30" s="2" t="inlineStr"/>
-      <c r="I30" s="2" t="inlineStr"/>
-      <c r="J30" s="2" t="inlineStr"/>
-      <c r="K30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="n"/>
+      <c r="G30" s="2" t="n"/>
+      <c r="H30" s="2" t="n"/>
+      <c r="I30" s="2" t="n"/>
+      <c r="J30" s="2" t="n"/>
+      <c r="K30" s="2" t="n"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part duration</t>
         </is>
       </c>
-      <c r="M30" s="2" t="inlineStr"/>
-      <c r="N30" s="2" t="inlineStr"/>
-      <c r="O30" s="2" t="inlineStr"/>
-      <c r="P30" s="2" t="inlineStr"/>
-      <c r="Q30" s="2" t="inlineStr"/>
+      <c r="M30" s="2" t="n"/>
+      <c r="N30" s="2" t="n"/>
+      <c r="O30" s="2" t="n"/>
+      <c r="P30" s="2" t="n"/>
+      <c r="Q30" s="2" t="n"/>
       <c r="R30" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2168,8 +2153,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T30" s="2" t="inlineStr"/>
-      <c r="U30" s="2" t="inlineStr"/>
+      <c r="T30" s="2" t="n"/>
+      <c r="U30" s="2" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -2187,28 +2172,28 @@
           <t>A &lt;BCI temporal part frequency statistic&gt; that is the average value calculated from a collection of BCI temporal part frequencies.</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr"/>
+      <c r="D31" s="2" t="n"/>
       <c r="E31" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part frequency statistic</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr"/>
-      <c r="G31" s="2" t="inlineStr"/>
-      <c r="H31" s="2" t="inlineStr"/>
-      <c r="I31" s="2" t="inlineStr"/>
-      <c r="J31" s="2" t="inlineStr"/>
-      <c r="K31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="n"/>
+      <c r="G31" s="2" t="n"/>
+      <c r="H31" s="2" t="n"/>
+      <c r="I31" s="2" t="n"/>
+      <c r="J31" s="2" t="n"/>
+      <c r="K31" s="2" t="n"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part frequency</t>
         </is>
       </c>
-      <c r="M31" s="2" t="inlineStr"/>
-      <c r="N31" s="2" t="inlineStr"/>
-      <c r="O31" s="2" t="inlineStr"/>
-      <c r="P31" s="2" t="inlineStr"/>
-      <c r="Q31" s="2" t="inlineStr"/>
+      <c r="M31" s="2" t="n"/>
+      <c r="N31" s="2" t="n"/>
+      <c r="O31" s="2" t="n"/>
+      <c r="P31" s="2" t="n"/>
+      <c r="Q31" s="2" t="n"/>
       <c r="R31" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2219,8 +2204,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T31" s="2" t="inlineStr"/>
-      <c r="U31" s="2" t="inlineStr"/>
+      <c r="T31" s="2" t="n"/>
+      <c r="U31" s="2" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -2238,28 +2223,28 @@
           <t>A &lt;total contact event duration statistic&gt; that is the average value calculated from a collection of total contact event durations.</t>
         </is>
       </c>
-      <c r="D32" s="2" t="inlineStr"/>
+      <c r="D32" s="2" t="n"/>
       <c r="E32" s="2" t="inlineStr">
         <is>
           <t>total BCI contact event duration statistic</t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="2" t="inlineStr"/>
-      <c r="H32" s="2" t="inlineStr"/>
-      <c r="I32" s="2" t="inlineStr"/>
-      <c r="J32" s="2" t="inlineStr"/>
-      <c r="K32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="n"/>
+      <c r="G32" s="2" t="n"/>
+      <c r="H32" s="2" t="n"/>
+      <c r="I32" s="2" t="n"/>
+      <c r="J32" s="2" t="n"/>
+      <c r="K32" s="2" t="n"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
           <t>total BCI contact event duration</t>
         </is>
       </c>
-      <c r="M32" s="2" t="inlineStr"/>
-      <c r="N32" s="2" t="inlineStr"/>
-      <c r="O32" s="2" t="inlineStr"/>
-      <c r="P32" s="2" t="inlineStr"/>
-      <c r="Q32" s="2" t="inlineStr"/>
+      <c r="M32" s="2" t="n"/>
+      <c r="N32" s="2" t="n"/>
+      <c r="O32" s="2" t="n"/>
+      <c r="P32" s="2" t="n"/>
+      <c r="Q32" s="2" t="n"/>
       <c r="R32" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2270,8 +2255,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T32" s="2" t="inlineStr"/>
-      <c r="U32" s="2" t="inlineStr"/>
+      <c r="T32" s="2" t="n"/>
+      <c r="U32" s="2" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -2289,28 +2274,28 @@
           <t>A &lt;BCI contact event duration statistic&gt; that is the central value of a collection of BCI contact event durations when they are arranged in ascending order.</t>
         </is>
       </c>
-      <c r="D33" s="2" t="inlineStr"/>
+      <c r="D33" s="2" t="n"/>
       <c r="E33" s="2" t="inlineStr">
         <is>
           <t>BCI contact event duration statistic</t>
         </is>
       </c>
-      <c r="F33" s="2" t="inlineStr"/>
-      <c r="G33" s="2" t="inlineStr"/>
-      <c r="H33" s="2" t="inlineStr"/>
-      <c r="I33" s="2" t="inlineStr"/>
-      <c r="J33" s="2" t="inlineStr"/>
-      <c r="K33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="n"/>
+      <c r="G33" s="2" t="n"/>
+      <c r="H33" s="2" t="n"/>
+      <c r="I33" s="2" t="n"/>
+      <c r="J33" s="2" t="n"/>
+      <c r="K33" s="2" t="n"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
           <t>BCI contact event duration</t>
         </is>
       </c>
-      <c r="M33" s="2" t="inlineStr"/>
-      <c r="N33" s="2" t="inlineStr"/>
-      <c r="O33" s="2" t="inlineStr"/>
-      <c r="P33" s="2" t="inlineStr"/>
-      <c r="Q33" s="2" t="inlineStr"/>
+      <c r="M33" s="2" t="n"/>
+      <c r="N33" s="2" t="n"/>
+      <c r="O33" s="2" t="n"/>
+      <c r="P33" s="2" t="n"/>
+      <c r="Q33" s="2" t="n"/>
       <c r="R33" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2321,8 +2306,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T33" s="2" t="inlineStr"/>
-      <c r="U33" s="2" t="inlineStr"/>
+      <c r="T33" s="2" t="n"/>
+      <c r="U33" s="2" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -2340,28 +2325,28 @@
           <t>A &lt;BCI contact event frequency statistic&gt; that is the central value of a collection of  BCI contact event frequencies when they are arranged in ascending order.</t>
         </is>
       </c>
-      <c r="D34" s="2" t="inlineStr"/>
+      <c r="D34" s="2" t="n"/>
       <c r="E34" s="2" t="inlineStr">
         <is>
           <t>BCI contact event frequency statistic</t>
         </is>
       </c>
-      <c r="F34" s="2" t="inlineStr"/>
-      <c r="G34" s="2" t="inlineStr"/>
-      <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr"/>
-      <c r="J34" s="2" t="inlineStr"/>
-      <c r="K34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="n"/>
+      <c r="G34" s="2" t="n"/>
+      <c r="H34" s="2" t="n"/>
+      <c r="I34" s="2" t="n"/>
+      <c r="J34" s="2" t="n"/>
+      <c r="K34" s="2" t="n"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
           <t>BCI contact event frequency</t>
         </is>
       </c>
-      <c r="M34" s="2" t="inlineStr"/>
-      <c r="N34" s="2" t="inlineStr"/>
-      <c r="O34" s="2" t="inlineStr"/>
-      <c r="P34" s="2" t="inlineStr"/>
-      <c r="Q34" s="2" t="inlineStr"/>
+      <c r="M34" s="2" t="n"/>
+      <c r="N34" s="2" t="n"/>
+      <c r="O34" s="2" t="n"/>
+      <c r="P34" s="2" t="n"/>
+      <c r="Q34" s="2" t="n"/>
       <c r="R34" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2372,8 +2357,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T34" s="2" t="inlineStr"/>
-      <c r="U34" s="2" t="inlineStr"/>
+      <c r="T34" s="2" t="n"/>
+      <c r="U34" s="2" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -2391,28 +2376,28 @@
           <t>A &lt;BCI contact event number statistic&gt; that is the central value of a collection of  BCI contact event numbers when they are arranged in ascending order.</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr"/>
+      <c r="D35" s="2" t="n"/>
       <c r="E35" s="2" t="inlineStr">
         <is>
           <t>BCI contact event number statistic</t>
         </is>
       </c>
-      <c r="F35" s="2" t="inlineStr"/>
-      <c r="G35" s="2" t="inlineStr"/>
-      <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr"/>
-      <c r="J35" s="2" t="inlineStr"/>
-      <c r="K35" s="2" t="inlineStr"/>
+      <c r="F35" s="2" t="n"/>
+      <c r="G35" s="2" t="n"/>
+      <c r="H35" s="2" t="n"/>
+      <c r="I35" s="2" t="n"/>
+      <c r="J35" s="2" t="n"/>
+      <c r="K35" s="2" t="n"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
           <t>number of BCI contact events</t>
         </is>
       </c>
-      <c r="M35" s="2" t="inlineStr"/>
-      <c r="N35" s="2" t="inlineStr"/>
-      <c r="O35" s="2" t="inlineStr"/>
-      <c r="P35" s="2" t="inlineStr"/>
-      <c r="Q35" s="2" t="inlineStr"/>
+      <c r="M35" s="2" t="n"/>
+      <c r="N35" s="2" t="n"/>
+      <c r="O35" s="2" t="n"/>
+      <c r="P35" s="2" t="n"/>
+      <c r="Q35" s="2" t="n"/>
       <c r="R35" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2423,8 +2408,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T35" s="2" t="inlineStr"/>
-      <c r="U35" s="2" t="inlineStr"/>
+      <c r="T35" s="2" t="n"/>
+      <c r="U35" s="2" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -2442,28 +2427,28 @@
           <t>A &lt;BCI duration statistic&gt; that is the central value of a collection of BCI durations when they are arranged in ascending order.</t>
         </is>
       </c>
-      <c r="D36" s="2" t="inlineStr"/>
+      <c r="D36" s="2" t="n"/>
       <c r="E36" s="2" t="inlineStr">
         <is>
           <t>BCI duration statistic</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr"/>
-      <c r="G36" s="2" t="inlineStr"/>
-      <c r="H36" s="2" t="inlineStr"/>
-      <c r="I36" s="2" t="inlineStr"/>
-      <c r="J36" s="2" t="inlineStr"/>
-      <c r="K36" s="2" t="inlineStr"/>
+      <c r="F36" s="2" t="n"/>
+      <c r="G36" s="2" t="n"/>
+      <c r="H36" s="2" t="n"/>
+      <c r="I36" s="2" t="n"/>
+      <c r="J36" s="2" t="n"/>
+      <c r="K36" s="2" t="n"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
           <t>BCI duration</t>
         </is>
       </c>
-      <c r="M36" s="2" t="inlineStr"/>
-      <c r="N36" s="2" t="inlineStr"/>
-      <c r="O36" s="2" t="inlineStr"/>
-      <c r="P36" s="2" t="inlineStr"/>
-      <c r="Q36" s="2" t="inlineStr"/>
+      <c r="M36" s="2" t="n"/>
+      <c r="N36" s="2" t="n"/>
+      <c r="O36" s="2" t="n"/>
+      <c r="P36" s="2" t="n"/>
+      <c r="Q36" s="2" t="n"/>
       <c r="R36" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2474,8 +2459,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T36" s="2" t="inlineStr"/>
-      <c r="U36" s="2" t="inlineStr"/>
+      <c r="T36" s="2" t="n"/>
+      <c r="U36" s="2" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -2493,28 +2478,28 @@
           <t>A &lt;BCI temporal part duration statistic&gt; that is the central value of a collection of BCI temporal part durations when they are arranged in ascending order.</t>
         </is>
       </c>
-      <c r="D37" s="2" t="inlineStr"/>
+      <c r="D37" s="2" t="n"/>
       <c r="E37" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part duration statistic</t>
         </is>
       </c>
-      <c r="F37" s="2" t="inlineStr"/>
-      <c r="G37" s="2" t="inlineStr"/>
-      <c r="H37" s="2" t="inlineStr"/>
-      <c r="I37" s="2" t="inlineStr"/>
-      <c r="J37" s="2" t="inlineStr"/>
-      <c r="K37" s="2" t="inlineStr"/>
+      <c r="F37" s="2" t="n"/>
+      <c r="G37" s="2" t="n"/>
+      <c r="H37" s="2" t="n"/>
+      <c r="I37" s="2" t="n"/>
+      <c r="J37" s="2" t="n"/>
+      <c r="K37" s="2" t="n"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part duration</t>
         </is>
       </c>
-      <c r="M37" s="2" t="inlineStr"/>
-      <c r="N37" s="2" t="inlineStr"/>
-      <c r="O37" s="2" t="inlineStr"/>
-      <c r="P37" s="2" t="inlineStr"/>
-      <c r="Q37" s="2" t="inlineStr"/>
+      <c r="M37" s="2" t="n"/>
+      <c r="N37" s="2" t="n"/>
+      <c r="O37" s="2" t="n"/>
+      <c r="P37" s="2" t="n"/>
+      <c r="Q37" s="2" t="n"/>
       <c r="R37" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2525,8 +2510,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T37" s="2" t="inlineStr"/>
-      <c r="U37" s="2" t="inlineStr"/>
+      <c r="T37" s="2" t="n"/>
+      <c r="U37" s="2" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -2544,28 +2529,28 @@
           <t>A &lt;BCI temporal part frequency statistic&gt; that is the central value of a collection of BCI temporal part frequencies when they are arranged in ascending order.</t>
         </is>
       </c>
-      <c r="D38" s="2" t="inlineStr"/>
+      <c r="D38" s="2" t="n"/>
       <c r="E38" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part frequency statistic</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr"/>
-      <c r="G38" s="2" t="inlineStr"/>
-      <c r="H38" s="2" t="inlineStr"/>
-      <c r="I38" s="2" t="inlineStr"/>
-      <c r="J38" s="2" t="inlineStr"/>
-      <c r="K38" s="2" t="inlineStr"/>
+      <c r="F38" s="2" t="n"/>
+      <c r="G38" s="2" t="n"/>
+      <c r="H38" s="2" t="n"/>
+      <c r="I38" s="2" t="n"/>
+      <c r="J38" s="2" t="n"/>
+      <c r="K38" s="2" t="n"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part frequency</t>
         </is>
       </c>
-      <c r="M38" s="2" t="inlineStr"/>
-      <c r="N38" s="2" t="inlineStr"/>
-      <c r="O38" s="2" t="inlineStr"/>
-      <c r="P38" s="2" t="inlineStr"/>
-      <c r="Q38" s="2" t="inlineStr"/>
+      <c r="M38" s="2" t="n"/>
+      <c r="N38" s="2" t="n"/>
+      <c r="O38" s="2" t="n"/>
+      <c r="P38" s="2" t="n"/>
+      <c r="Q38" s="2" t="n"/>
       <c r="R38" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2576,8 +2561,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T38" s="2" t="inlineStr"/>
-      <c r="U38" s="2" t="inlineStr"/>
+      <c r="T38" s="2" t="n"/>
+      <c r="U38" s="2" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -2595,28 +2580,28 @@
           <t>A &lt;total contact event duration statistic&gt; that is the central value of a collection of total contact event durations when they are arranged in ascending order.</t>
         </is>
       </c>
-      <c r="D39" s="2" t="inlineStr"/>
+      <c r="D39" s="2" t="n"/>
       <c r="E39" s="2" t="inlineStr">
         <is>
           <t>total BCI contact event duration statistic</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr"/>
-      <c r="G39" s="2" t="inlineStr"/>
-      <c r="H39" s="2" t="inlineStr"/>
-      <c r="I39" s="2" t="inlineStr"/>
-      <c r="J39" s="2" t="inlineStr"/>
-      <c r="K39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="n"/>
+      <c r="G39" s="2" t="n"/>
+      <c r="H39" s="2" t="n"/>
+      <c r="I39" s="2" t="n"/>
+      <c r="J39" s="2" t="n"/>
+      <c r="K39" s="2" t="n"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
           <t>total BCI contact event duration</t>
         </is>
       </c>
-      <c r="M39" s="2" t="inlineStr"/>
-      <c r="N39" s="2" t="inlineStr"/>
-      <c r="O39" s="2" t="inlineStr"/>
-      <c r="P39" s="2" t="inlineStr"/>
-      <c r="Q39" s="2" t="inlineStr"/>
+      <c r="M39" s="2" t="n"/>
+      <c r="N39" s="2" t="n"/>
+      <c r="O39" s="2" t="n"/>
+      <c r="P39" s="2" t="n"/>
+      <c r="Q39" s="2" t="n"/>
       <c r="R39" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2627,8 +2612,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T39" s="2" t="inlineStr"/>
-      <c r="U39" s="2" t="inlineStr"/>
+      <c r="T39" s="2" t="n"/>
+      <c r="U39" s="2" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
@@ -2646,28 +2631,28 @@
           <t>A &lt;BCI contact event duration statistic&gt; that is the lowest value from a collection of BCI contact event durations.</t>
         </is>
       </c>
-      <c r="D40" s="2" t="inlineStr"/>
+      <c r="D40" s="2" t="n"/>
       <c r="E40" s="2" t="inlineStr">
         <is>
           <t>BCI contact event duration statistic</t>
         </is>
       </c>
-      <c r="F40" s="2" t="inlineStr"/>
-      <c r="G40" s="2" t="inlineStr"/>
-      <c r="H40" s="2" t="inlineStr"/>
-      <c r="I40" s="2" t="inlineStr"/>
-      <c r="J40" s="2" t="inlineStr"/>
-      <c r="K40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="n"/>
+      <c r="G40" s="2" t="n"/>
+      <c r="H40" s="2" t="n"/>
+      <c r="I40" s="2" t="n"/>
+      <c r="J40" s="2" t="n"/>
+      <c r="K40" s="2" t="n"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
           <t>BCI contact event duration</t>
         </is>
       </c>
-      <c r="M40" s="2" t="inlineStr"/>
-      <c r="N40" s="2" t="inlineStr"/>
-      <c r="O40" s="2" t="inlineStr"/>
-      <c r="P40" s="2" t="inlineStr"/>
-      <c r="Q40" s="2" t="inlineStr"/>
+      <c r="M40" s="2" t="n"/>
+      <c r="N40" s="2" t="n"/>
+      <c r="O40" s="2" t="n"/>
+      <c r="P40" s="2" t="n"/>
+      <c r="Q40" s="2" t="n"/>
       <c r="R40" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2678,8 +2663,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T40" s="2" t="inlineStr"/>
-      <c r="U40" s="2" t="inlineStr"/>
+      <c r="T40" s="2" t="n"/>
+      <c r="U40" s="2" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
@@ -2697,28 +2682,28 @@
           <t>A &lt;BCI contact event frequency statistic&gt; that is the lowest value from a collection of BCI contact event frequencies.</t>
         </is>
       </c>
-      <c r="D41" s="2" t="inlineStr"/>
+      <c r="D41" s="2" t="n"/>
       <c r="E41" s="2" t="inlineStr">
         <is>
           <t>BCI contact event frequency statistic</t>
         </is>
       </c>
-      <c r="F41" s="2" t="inlineStr"/>
-      <c r="G41" s="2" t="inlineStr"/>
-      <c r="H41" s="2" t="inlineStr"/>
-      <c r="I41" s="2" t="inlineStr"/>
-      <c r="J41" s="2" t="inlineStr"/>
-      <c r="K41" s="2" t="inlineStr"/>
+      <c r="F41" s="2" t="n"/>
+      <c r="G41" s="2" t="n"/>
+      <c r="H41" s="2" t="n"/>
+      <c r="I41" s="2" t="n"/>
+      <c r="J41" s="2" t="n"/>
+      <c r="K41" s="2" t="n"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
           <t>BCI contact event frequency</t>
         </is>
       </c>
-      <c r="M41" s="2" t="inlineStr"/>
-      <c r="N41" s="2" t="inlineStr"/>
-      <c r="O41" s="2" t="inlineStr"/>
-      <c r="P41" s="2" t="inlineStr"/>
-      <c r="Q41" s="2" t="inlineStr"/>
+      <c r="M41" s="2" t="n"/>
+      <c r="N41" s="2" t="n"/>
+      <c r="O41" s="2" t="n"/>
+      <c r="P41" s="2" t="n"/>
+      <c r="Q41" s="2" t="n"/>
       <c r="R41" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2729,8 +2714,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T41" s="2" t="inlineStr"/>
-      <c r="U41" s="2" t="inlineStr"/>
+      <c r="T41" s="2" t="n"/>
+      <c r="U41" s="2" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -2748,28 +2733,28 @@
           <t>A &lt;BCI contact event number statistic&gt; that is the lowest value from a collection of BCI contact event numbers.</t>
         </is>
       </c>
-      <c r="D42" s="2" t="inlineStr"/>
+      <c r="D42" s="2" t="n"/>
       <c r="E42" s="2" t="inlineStr">
         <is>
           <t>BCI contact event number statistic</t>
         </is>
       </c>
-      <c r="F42" s="2" t="inlineStr"/>
-      <c r="G42" s="2" t="inlineStr"/>
-      <c r="H42" s="2" t="inlineStr"/>
-      <c r="I42" s="2" t="inlineStr"/>
-      <c r="J42" s="2" t="inlineStr"/>
-      <c r="K42" s="2" t="inlineStr"/>
+      <c r="F42" s="2" t="n"/>
+      <c r="G42" s="2" t="n"/>
+      <c r="H42" s="2" t="n"/>
+      <c r="I42" s="2" t="n"/>
+      <c r="J42" s="2" t="n"/>
+      <c r="K42" s="2" t="n"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
           <t>number of BCI contact events</t>
         </is>
       </c>
-      <c r="M42" s="2" t="inlineStr"/>
-      <c r="N42" s="2" t="inlineStr"/>
-      <c r="O42" s="2" t="inlineStr"/>
-      <c r="P42" s="2" t="inlineStr"/>
-      <c r="Q42" s="2" t="inlineStr"/>
+      <c r="M42" s="2" t="n"/>
+      <c r="N42" s="2" t="n"/>
+      <c r="O42" s="2" t="n"/>
+      <c r="P42" s="2" t="n"/>
+      <c r="Q42" s="2" t="n"/>
       <c r="R42" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2780,8 +2765,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T42" s="2" t="inlineStr"/>
-      <c r="U42" s="2" t="inlineStr"/>
+      <c r="T42" s="2" t="n"/>
+      <c r="U42" s="2" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -2799,28 +2784,28 @@
           <t>A &lt;BCI duration statistic&gt; that is the lowest value from a collection of BCI durations.</t>
         </is>
       </c>
-      <c r="D43" s="2" t="inlineStr"/>
+      <c r="D43" s="2" t="n"/>
       <c r="E43" s="2" t="inlineStr">
         <is>
           <t>BCI duration statistic</t>
         </is>
       </c>
-      <c r="F43" s="2" t="inlineStr"/>
-      <c r="G43" s="2" t="inlineStr"/>
-      <c r="H43" s="2" t="inlineStr"/>
-      <c r="I43" s="2" t="inlineStr"/>
-      <c r="J43" s="2" t="inlineStr"/>
-      <c r="K43" s="2" t="inlineStr"/>
+      <c r="F43" s="2" t="n"/>
+      <c r="G43" s="2" t="n"/>
+      <c r="H43" s="2" t="n"/>
+      <c r="I43" s="2" t="n"/>
+      <c r="J43" s="2" t="n"/>
+      <c r="K43" s="2" t="n"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
           <t>BCI duration</t>
         </is>
       </c>
-      <c r="M43" s="2" t="inlineStr"/>
-      <c r="N43" s="2" t="inlineStr"/>
-      <c r="O43" s="2" t="inlineStr"/>
-      <c r="P43" s="2" t="inlineStr"/>
-      <c r="Q43" s="2" t="inlineStr"/>
+      <c r="M43" s="2" t="n"/>
+      <c r="N43" s="2" t="n"/>
+      <c r="O43" s="2" t="n"/>
+      <c r="P43" s="2" t="n"/>
+      <c r="Q43" s="2" t="n"/>
       <c r="R43" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2831,8 +2816,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T43" s="2" t="inlineStr"/>
-      <c r="U43" s="2" t="inlineStr"/>
+      <c r="T43" s="2" t="n"/>
+      <c r="U43" s="2" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -2850,28 +2835,28 @@
           <t>A &lt;BCI temporal part duration statistic&gt; that denotes the lowest value from a collection of BCI temporal part durations.</t>
         </is>
       </c>
-      <c r="D44" s="2" t="inlineStr"/>
+      <c r="D44" s="2" t="n"/>
       <c r="E44" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part duration statistic</t>
         </is>
       </c>
-      <c r="F44" s="2" t="inlineStr"/>
-      <c r="G44" s="2" t="inlineStr"/>
-      <c r="H44" s="2" t="inlineStr"/>
-      <c r="I44" s="2" t="inlineStr"/>
-      <c r="J44" s="2" t="inlineStr"/>
-      <c r="K44" s="2" t="inlineStr"/>
+      <c r="F44" s="2" t="n"/>
+      <c r="G44" s="2" t="n"/>
+      <c r="H44" s="2" t="n"/>
+      <c r="I44" s="2" t="n"/>
+      <c r="J44" s="2" t="n"/>
+      <c r="K44" s="2" t="n"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part duration</t>
         </is>
       </c>
-      <c r="M44" s="2" t="inlineStr"/>
-      <c r="N44" s="2" t="inlineStr"/>
-      <c r="O44" s="2" t="inlineStr"/>
-      <c r="P44" s="2" t="inlineStr"/>
-      <c r="Q44" s="2" t="inlineStr"/>
+      <c r="M44" s="2" t="n"/>
+      <c r="N44" s="2" t="n"/>
+      <c r="O44" s="2" t="n"/>
+      <c r="P44" s="2" t="n"/>
+      <c r="Q44" s="2" t="n"/>
       <c r="R44" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2882,8 +2867,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T44" s="2" t="inlineStr"/>
-      <c r="U44" s="2" t="inlineStr"/>
+      <c r="T44" s="2" t="n"/>
+      <c r="U44" s="2" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -2901,28 +2886,28 @@
           <t>A &lt;BCI temporal part frequency statistic&gt; that is the lowest value from a collection of BCI temporal part frequencies.</t>
         </is>
       </c>
-      <c r="D45" s="2" t="inlineStr"/>
+      <c r="D45" s="2" t="n"/>
       <c r="E45" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part frequency statistic</t>
         </is>
       </c>
-      <c r="F45" s="2" t="inlineStr"/>
-      <c r="G45" s="2" t="inlineStr"/>
-      <c r="H45" s="2" t="inlineStr"/>
-      <c r="I45" s="2" t="inlineStr"/>
-      <c r="J45" s="2" t="inlineStr"/>
-      <c r="K45" s="2" t="inlineStr"/>
+      <c r="F45" s="2" t="n"/>
+      <c r="G45" s="2" t="n"/>
+      <c r="H45" s="2" t="n"/>
+      <c r="I45" s="2" t="n"/>
+      <c r="J45" s="2" t="n"/>
+      <c r="K45" s="2" t="n"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part frequency</t>
         </is>
       </c>
-      <c r="M45" s="2" t="inlineStr"/>
-      <c r="N45" s="2" t="inlineStr"/>
-      <c r="O45" s="2" t="inlineStr"/>
-      <c r="P45" s="2" t="inlineStr"/>
-      <c r="Q45" s="2" t="inlineStr"/>
+      <c r="M45" s="2" t="n"/>
+      <c r="N45" s="2" t="n"/>
+      <c r="O45" s="2" t="n"/>
+      <c r="P45" s="2" t="n"/>
+      <c r="Q45" s="2" t="n"/>
       <c r="R45" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2933,8 +2918,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T45" s="2" t="inlineStr"/>
-      <c r="U45" s="2" t="inlineStr"/>
+      <c r="T45" s="2" t="n"/>
+      <c r="U45" s="2" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -2952,28 +2937,28 @@
           <t>A &lt;total contact event duration statistic&gt; that is the lowest value from a collection of total contact event durations.</t>
         </is>
       </c>
-      <c r="D46" s="2" t="inlineStr"/>
+      <c r="D46" s="2" t="n"/>
       <c r="E46" s="2" t="inlineStr">
         <is>
           <t>total BCI contact event duration statistic</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr"/>
-      <c r="G46" s="2" t="inlineStr"/>
-      <c r="H46" s="2" t="inlineStr"/>
-      <c r="I46" s="2" t="inlineStr"/>
-      <c r="J46" s="2" t="inlineStr"/>
-      <c r="K46" s="2" t="inlineStr"/>
+      <c r="F46" s="2" t="n"/>
+      <c r="G46" s="2" t="n"/>
+      <c r="H46" s="2" t="n"/>
+      <c r="I46" s="2" t="n"/>
+      <c r="J46" s="2" t="n"/>
+      <c r="K46" s="2" t="n"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
           <t>total BCI contact event duration</t>
         </is>
       </c>
-      <c r="M46" s="2" t="inlineStr"/>
-      <c r="N46" s="2" t="inlineStr"/>
-      <c r="O46" s="2" t="inlineStr"/>
-      <c r="P46" s="2" t="inlineStr"/>
-      <c r="Q46" s="2" t="inlineStr"/>
+      <c r="M46" s="2" t="n"/>
+      <c r="N46" s="2" t="n"/>
+      <c r="O46" s="2" t="n"/>
+      <c r="P46" s="2" t="n"/>
+      <c r="Q46" s="2" t="n"/>
       <c r="R46" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2984,8 +2969,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T46" s="2" t="inlineStr"/>
-      <c r="U46" s="2" t="inlineStr"/>
+      <c r="T46" s="2" t="n"/>
+      <c r="U46" s="2" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -3013,7 +2998,7 @@
           <t>data item</t>
         </is>
       </c>
-      <c r="F47" s="2" t="inlineStr"/>
+      <c r="F47" s="2" t="n"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
           <t>one; 6; 12; twenty</t>
@@ -3026,23 +3011,23 @@
 This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author </t>
         </is>
       </c>
-      <c r="I47" s="2" t="inlineStr"/>
-      <c r="J47" s="2" t="inlineStr"/>
-      <c r="K47" s="2" t="inlineStr"/>
+      <c r="I47" s="2" t="n"/>
+      <c r="J47" s="2" t="n"/>
+      <c r="K47" s="2" t="n"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
           <t>BCI contact event</t>
         </is>
       </c>
-      <c r="M47" s="2" t="inlineStr"/>
-      <c r="N47" s="2" t="inlineStr"/>
-      <c r="O47" s="2" t="inlineStr"/>
+      <c r="M47" s="2" t="n"/>
+      <c r="N47" s="2" t="n"/>
+      <c r="O47" s="2" t="n"/>
       <c r="P47" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q47" s="2" t="inlineStr"/>
+      <c r="Q47" s="2" t="n"/>
       <c r="R47" s="2" t="inlineStr">
         <is>
           <t>CM; JH; PS</t>
@@ -3058,7 +3043,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U47" s="2" t="inlineStr"/>
+      <c r="U47" s="2" t="n"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3076,24 +3061,11 @@
           <t>A region of time.</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
           <t>occurrent</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
           <t>JH</t>
@@ -3104,8 +3076,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -3123,13 +3093,13 @@
           <t>A &lt;BCI attribute&gt; that is the  temporal positioning of BCI temporal parts.</t>
         </is>
       </c>
-      <c r="D49" s="2" t="inlineStr"/>
+      <c r="D49" s="2" t="n"/>
       <c r="E49" s="2" t="inlineStr">
         <is>
           <t>BCI attribute</t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr"/>
+      <c r="F49" s="2" t="n"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
           <t>"After questionnaires were completed, feedback was selected
@@ -3144,9 +3114,9 @@
           <t>This is annotated as an open code when any aspect of order is described</t>
         </is>
       </c>
-      <c r="I49" s="2" t="inlineStr"/>
-      <c r="J49" s="2" t="inlineStr"/>
-      <c r="K49" s="2" t="inlineStr"/>
+      <c r="I49" s="2" t="n"/>
+      <c r="J49" s="2" t="n"/>
+      <c r="K49" s="2" t="n"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">BCI attribute </t>
@@ -3157,10 +3127,10 @@
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="N49" s="2" t="inlineStr"/>
-      <c r="O49" s="2" t="inlineStr"/>
-      <c r="P49" s="2" t="inlineStr"/>
-      <c r="Q49" s="2" t="inlineStr"/>
+      <c r="N49" s="2" t="n"/>
+      <c r="O49" s="2" t="n"/>
+      <c r="P49" s="2" t="n"/>
+      <c r="Q49" s="2" t="n"/>
       <c r="R49" s="2" t="inlineStr">
         <is>
           <t>CM; PS</t>
@@ -3176,7 +3146,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U49" s="2" t="inlineStr"/>
+      <c r="U49" s="2" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
@@ -3194,24 +3164,24 @@
           <t>A part of a BCI schedule which is the relation a specified temporal part is in when it occurs whilst another temporal part or timepoint occurs</t>
         </is>
       </c>
-      <c r="D50" s="3" t="inlineStr"/>
-      <c r="E50" s="3" t="inlineStr"/>
-      <c r="F50" s="3" t="inlineStr"/>
-      <c r="G50" s="3" t="inlineStr"/>
+      <c r="D50" s="3" t="n"/>
+      <c r="E50" s="3" t="n"/>
+      <c r="F50" s="3" t="n"/>
+      <c r="G50" s="3" t="n"/>
       <c r="H50" s="3" t="inlineStr">
         <is>
           <t>This is not annotated</t>
         </is>
       </c>
-      <c r="I50" s="3" t="inlineStr"/>
-      <c r="J50" s="3" t="inlineStr"/>
-      <c r="K50" s="3" t="inlineStr"/>
-      <c r="L50" s="3" t="inlineStr"/>
-      <c r="M50" s="3" t="inlineStr"/>
-      <c r="N50" s="3" t="inlineStr"/>
-      <c r="O50" s="3" t="inlineStr"/>
-      <c r="P50" s="3" t="inlineStr"/>
-      <c r="Q50" s="3" t="inlineStr"/>
+      <c r="I50" s="3" t="n"/>
+      <c r="J50" s="3" t="n"/>
+      <c r="K50" s="3" t="n"/>
+      <c r="L50" s="3" t="n"/>
+      <c r="M50" s="3" t="n"/>
+      <c r="N50" s="3" t="n"/>
+      <c r="O50" s="3" t="n"/>
+      <c r="P50" s="3" t="n"/>
+      <c r="Q50" s="3" t="n"/>
       <c r="R50" s="3" t="inlineStr">
         <is>
           <t>CM</t>
@@ -3227,7 +3197,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U50" s="3" t="inlineStr"/>
+      <c r="U50" s="3" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
@@ -3245,24 +3215,24 @@
           <t>A part of a BCI schedule which is the relation a specified temporal part is in when it ends prior to the beginning of another temporal part or timepoint</t>
         </is>
       </c>
-      <c r="D51" s="3" t="inlineStr"/>
-      <c r="E51" s="3" t="inlineStr"/>
-      <c r="F51" s="3" t="inlineStr"/>
-      <c r="G51" s="3" t="inlineStr"/>
+      <c r="D51" s="3" t="n"/>
+      <c r="E51" s="3" t="n"/>
+      <c r="F51" s="3" t="n"/>
+      <c r="G51" s="3" t="n"/>
       <c r="H51" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">This is not annotated </t>
         </is>
       </c>
-      <c r="I51" s="3" t="inlineStr"/>
-      <c r="J51" s="3" t="inlineStr"/>
-      <c r="K51" s="3" t="inlineStr"/>
-      <c r="L51" s="3" t="inlineStr"/>
-      <c r="M51" s="3" t="inlineStr"/>
-      <c r="N51" s="3" t="inlineStr"/>
-      <c r="O51" s="3" t="inlineStr"/>
-      <c r="P51" s="3" t="inlineStr"/>
-      <c r="Q51" s="3" t="inlineStr"/>
+      <c r="I51" s="3" t="n"/>
+      <c r="J51" s="3" t="n"/>
+      <c r="K51" s="3" t="n"/>
+      <c r="L51" s="3" t="n"/>
+      <c r="M51" s="3" t="n"/>
+      <c r="N51" s="3" t="n"/>
+      <c r="O51" s="3" t="n"/>
+      <c r="P51" s="3" t="n"/>
+      <c r="Q51" s="3" t="n"/>
       <c r="R51" s="3" t="inlineStr">
         <is>
           <t>CM; RW</t>
@@ -3278,7 +3248,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U51" s="3" t="inlineStr"/>
+      <c r="U51" s="3" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
@@ -3306,7 +3276,7 @@
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr"/>
+      <c r="F52" s="2" t="n"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
           <t>the length and regularity of sessions were consistent across the duration of the intervention, taking place for an hour each week</t>
@@ -3318,14 +3288,14 @@
 Example annotation in context: "The length and regularity of sessions were consistent across the duration of the intervention" </t>
         </is>
       </c>
-      <c r="I52" s="2" t="inlineStr"/>
-      <c r="J52" s="2" t="inlineStr"/>
-      <c r="K52" s="2" t="inlineStr"/>
-      <c r="L52" s="2" t="inlineStr"/>
-      <c r="M52" s="2" t="inlineStr"/>
-      <c r="N52" s="2" t="inlineStr"/>
-      <c r="O52" s="2" t="inlineStr"/>
-      <c r="P52" s="2" t="inlineStr"/>
+      <c r="I52" s="2" t="n"/>
+      <c r="J52" s="2" t="n"/>
+      <c r="K52" s="2" t="n"/>
+      <c r="L52" s="2" t="n"/>
+      <c r="M52" s="2" t="n"/>
+      <c r="N52" s="2" t="n"/>
+      <c r="O52" s="2" t="n"/>
+      <c r="P52" s="2" t="n"/>
       <c r="Q52" s="2" t="inlineStr">
         <is>
           <t>relationship? is about schedule? or is a type of schedule?</t>
@@ -3346,7 +3316,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U52" s="2" t="inlineStr"/>
+      <c r="U52" s="2" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
@@ -3364,24 +3334,24 @@
           <t>A part of a BCI schedule which is the relation a specified temporal part is in when it starts following the end of another temporal part or timepoint</t>
         </is>
       </c>
-      <c r="D53" s="3" t="inlineStr"/>
-      <c r="E53" s="3" t="inlineStr"/>
-      <c r="F53" s="3" t="inlineStr"/>
-      <c r="G53" s="3" t="inlineStr"/>
+      <c r="D53" s="3" t="n"/>
+      <c r="E53" s="3" t="n"/>
+      <c r="F53" s="3" t="n"/>
+      <c r="G53" s="3" t="n"/>
       <c r="H53" s="3" t="inlineStr">
         <is>
           <t>This is not annotated</t>
         </is>
       </c>
-      <c r="I53" s="3" t="inlineStr"/>
-      <c r="J53" s="3" t="inlineStr"/>
-      <c r="K53" s="3" t="inlineStr"/>
-      <c r="L53" s="3" t="inlineStr"/>
-      <c r="M53" s="3" t="inlineStr"/>
-      <c r="N53" s="3" t="inlineStr"/>
-      <c r="O53" s="3" t="inlineStr"/>
-      <c r="P53" s="3" t="inlineStr"/>
-      <c r="Q53" s="3" t="inlineStr"/>
+      <c r="I53" s="3" t="n"/>
+      <c r="J53" s="3" t="n"/>
+      <c r="K53" s="3" t="n"/>
+      <c r="L53" s="3" t="n"/>
+      <c r="M53" s="3" t="n"/>
+      <c r="N53" s="3" t="n"/>
+      <c r="O53" s="3" t="n"/>
+      <c r="P53" s="3" t="n"/>
+      <c r="Q53" s="3" t="n"/>
       <c r="R53" s="3" t="inlineStr">
         <is>
           <t>CM; RW</t>
@@ -3397,7 +3367,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U53" s="3" t="inlineStr"/>
+      <c r="U53" s="3" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
@@ -3416,24 +3386,24 @@
 </t>
         </is>
       </c>
-      <c r="D54" s="3" t="inlineStr"/>
+      <c r="D54" s="3" t="n"/>
       <c r="E54" s="3" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="F54" s="3" t="inlineStr"/>
-      <c r="G54" s="3" t="inlineStr"/>
-      <c r="H54" s="3" t="inlineStr"/>
-      <c r="I54" s="3" t="inlineStr"/>
-      <c r="J54" s="3" t="inlineStr"/>
-      <c r="K54" s="3" t="inlineStr"/>
-      <c r="L54" s="3" t="inlineStr"/>
-      <c r="M54" s="3" t="inlineStr"/>
-      <c r="N54" s="3" t="inlineStr"/>
-      <c r="O54" s="3" t="inlineStr"/>
-      <c r="P54" s="3" t="inlineStr"/>
-      <c r="Q54" s="3" t="inlineStr"/>
+      <c r="F54" s="3" t="n"/>
+      <c r="G54" s="3" t="n"/>
+      <c r="H54" s="3" t="n"/>
+      <c r="I54" s="3" t="n"/>
+      <c r="J54" s="3" t="n"/>
+      <c r="K54" s="3" t="n"/>
+      <c r="L54" s="3" t="n"/>
+      <c r="M54" s="3" t="n"/>
+      <c r="N54" s="3" t="n"/>
+      <c r="O54" s="3" t="n"/>
+      <c r="P54" s="3" t="n"/>
+      <c r="Q54" s="3" t="n"/>
       <c r="R54" s="3" t="inlineStr">
         <is>
           <t>JH</t>
@@ -3444,8 +3414,8 @@
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T54" s="3" t="inlineStr"/>
-      <c r="U54" s="3" t="inlineStr"/>
+      <c r="T54" s="3" t="n"/>
+      <c r="U54" s="3" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
@@ -3463,28 +3433,28 @@
           <t>A data item between the start and end of an intervention temporal part.</t>
         </is>
       </c>
-      <c r="D55" s="3" t="inlineStr"/>
+      <c r="D55" s="3" t="n"/>
       <c r="E55" s="3" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="F55" s="3" t="inlineStr"/>
+      <c r="F55" s="3" t="n"/>
       <c r="G55" s="3" t="inlineStr">
         <is>
           <t>6 weeks; 2 weeks</t>
         </is>
       </c>
-      <c r="H55" s="3" t="inlineStr"/>
-      <c r="I55" s="3" t="inlineStr"/>
-      <c r="J55" s="3" t="inlineStr"/>
-      <c r="K55" s="3" t="inlineStr"/>
-      <c r="L55" s="3" t="inlineStr"/>
-      <c r="M55" s="3" t="inlineStr"/>
-      <c r="N55" s="3" t="inlineStr"/>
-      <c r="O55" s="3" t="inlineStr"/>
-      <c r="P55" s="3" t="inlineStr"/>
-      <c r="Q55" s="3" t="inlineStr"/>
+      <c r="H55" s="3" t="n"/>
+      <c r="I55" s="3" t="n"/>
+      <c r="J55" s="3" t="n"/>
+      <c r="K55" s="3" t="n"/>
+      <c r="L55" s="3" t="n"/>
+      <c r="M55" s="3" t="n"/>
+      <c r="N55" s="3" t="n"/>
+      <c r="O55" s="3" t="n"/>
+      <c r="P55" s="3" t="n"/>
+      <c r="Q55" s="3" t="n"/>
       <c r="R55" s="3" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3495,8 +3465,8 @@
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T55" s="3" t="inlineStr"/>
-      <c r="U55" s="3" t="inlineStr"/>
+      <c r="T55" s="3" t="n"/>
+      <c r="U55" s="3" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
@@ -3541,18 +3511,18 @@
 Example annotation in context: "A feedback call was scheduled to be delivered around 6 months after the birth of the baby".  </t>
         </is>
       </c>
-      <c r="I56" s="2" t="inlineStr"/>
+      <c r="I56" s="2" t="n"/>
       <c r="J56" s="2" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="K56" s="2" t="inlineStr"/>
-      <c r="L56" s="2" t="inlineStr"/>
-      <c r="M56" s="2" t="inlineStr"/>
-      <c r="N56" s="2" t="inlineStr"/>
-      <c r="O56" s="2" t="inlineStr"/>
-      <c r="P56" s="2" t="inlineStr"/>
+      <c r="K56" s="2" t="n"/>
+      <c r="L56" s="2" t="n"/>
+      <c r="M56" s="2" t="n"/>
+      <c r="N56" s="2" t="n"/>
+      <c r="O56" s="2" t="n"/>
+      <c r="P56" s="2" t="n"/>
       <c r="Q56" s="2" t="inlineStr">
         <is>
           <t>check relationships</t>
@@ -3573,7 +3543,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U56" s="2" t="inlineStr"/>
+      <c r="U56" s="2" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
@@ -3601,7 +3571,7 @@
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="F57" s="2" t="inlineStr"/>
+      <c r="F57" s="2" t="n"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
           <t>150 minutes; 12 hours</t>
@@ -3615,17 +3585,17 @@
 This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author </t>
         </is>
       </c>
-      <c r="I57" s="2" t="inlineStr"/>
-      <c r="J57" s="2" t="inlineStr"/>
-      <c r="K57" s="2" t="inlineStr"/>
+      <c r="I57" s="2" t="n"/>
+      <c r="J57" s="2" t="n"/>
+      <c r="K57" s="2" t="n"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
           <t>BCI contact event</t>
         </is>
       </c>
-      <c r="M57" s="2" t="inlineStr"/>
-      <c r="N57" s="2" t="inlineStr"/>
-      <c r="O57" s="2" t="inlineStr"/>
+      <c r="M57" s="2" t="n"/>
+      <c r="N57" s="2" t="n"/>
+      <c r="O57" s="2" t="n"/>
       <c r="P57" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
@@ -3673,28 +3643,28 @@
           <t>A &lt;data item&gt; that is about a collection of total contact event durations.</t>
         </is>
       </c>
-      <c r="D58" s="2" t="inlineStr"/>
+      <c r="D58" s="2" t="n"/>
       <c r="E58" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F58" s="2" t="inlineStr"/>
-      <c r="G58" s="2" t="inlineStr"/>
-      <c r="H58" s="2" t="inlineStr"/>
-      <c r="I58" s="2" t="inlineStr"/>
-      <c r="J58" s="2" t="inlineStr"/>
-      <c r="K58" s="2" t="inlineStr"/>
+      <c r="F58" s="2" t="n"/>
+      <c r="G58" s="2" t="n"/>
+      <c r="H58" s="2" t="n"/>
+      <c r="I58" s="2" t="n"/>
+      <c r="J58" s="2" t="n"/>
+      <c r="K58" s="2" t="n"/>
       <c r="L58" s="2" t="inlineStr">
         <is>
           <t>total BCI contact event duration</t>
         </is>
       </c>
-      <c r="M58" s="2" t="inlineStr"/>
-      <c r="N58" s="2" t="inlineStr"/>
-      <c r="O58" s="2" t="inlineStr"/>
-      <c r="P58" s="2" t="inlineStr"/>
-      <c r="Q58" s="2" t="inlineStr"/>
+      <c r="M58" s="2" t="n"/>
+      <c r="N58" s="2" t="n"/>
+      <c r="O58" s="2" t="n"/>
+      <c r="P58" s="2" t="n"/>
+      <c r="Q58" s="2" t="n"/>
       <c r="R58" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3705,8 +3675,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T58" s="2" t="inlineStr"/>
-      <c r="U58" s="2" t="inlineStr"/>
+      <c r="T58" s="2" t="n"/>
+      <c r="U58" s="2" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
@@ -3724,9 +3694,9 @@
           <t>A data item that is the number of repetitions of contact events within a temporal part or BCI for which the frequency is described</t>
         </is>
       </c>
-      <c r="D59" s="3" t="inlineStr"/>
-      <c r="E59" s="3" t="inlineStr"/>
-      <c r="F59" s="3" t="inlineStr"/>
+      <c r="D59" s="3" t="n"/>
+      <c r="E59" s="3" t="n"/>
+      <c r="F59" s="3" t="n"/>
       <c r="G59" s="3" t="inlineStr">
         <is>
           <t>Participants received "3" emails every 2 weeks</t>
@@ -3737,23 +3707,23 @@
           <t>This is annotated when a frequency is described using a period and a number of repetitions, rather than a single word.</t>
         </is>
       </c>
-      <c r="I59" s="3" t="inlineStr"/>
-      <c r="J59" s="3" t="inlineStr"/>
-      <c r="K59" s="3" t="inlineStr"/>
+      <c r="I59" s="3" t="n"/>
+      <c r="J59" s="3" t="n"/>
+      <c r="K59" s="3" t="n"/>
       <c r="L59" s="3" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="M59" s="3" t="inlineStr"/>
-      <c r="N59" s="3" t="inlineStr"/>
-      <c r="O59" s="3" t="inlineStr"/>
+      <c r="M59" s="3" t="n"/>
+      <c r="N59" s="3" t="n"/>
+      <c r="O59" s="3" t="n"/>
       <c r="P59" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q59" s="3" t="inlineStr"/>
+      <c r="Q59" s="3" t="n"/>
       <c r="R59" s="3" t="inlineStr">
         <is>
           <t>CM</t>
@@ -3791,13 +3761,13 @@
           <t>A data item that is the sum duration of a subset of contact events in a BCI or temporal part</t>
         </is>
       </c>
-      <c r="D60" s="3" t="inlineStr"/>
+      <c r="D60" s="3" t="n"/>
       <c r="E60" s="3" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F60" s="3" t="inlineStr"/>
+      <c r="F60" s="3" t="n"/>
       <c r="G60" s="3" t="inlineStr">
         <is>
           <t>The participants took part in "90" minutes of PA weekly</t>
@@ -3808,17 +3778,17 @@
           <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
         </is>
       </c>
-      <c r="I60" s="3" t="inlineStr"/>
-      <c r="J60" s="3" t="inlineStr"/>
-      <c r="K60" s="3" t="inlineStr"/>
+      <c r="I60" s="3" t="n"/>
+      <c r="J60" s="3" t="n"/>
+      <c r="K60" s="3" t="n"/>
       <c r="L60" s="3" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="M60" s="3" t="inlineStr"/>
-      <c r="N60" s="3" t="inlineStr"/>
-      <c r="O60" s="3" t="inlineStr"/>
+      <c r="M60" s="3" t="n"/>
+      <c r="N60" s="3" t="n"/>
+      <c r="O60" s="3" t="n"/>
       <c r="P60" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
@@ -3866,13 +3836,13 @@
           <t>A data item which describes how often a specified sum duration of contact events occured during a BCI or temporal part</t>
         </is>
       </c>
-      <c r="D61" s="3" t="inlineStr"/>
+      <c r="D61" s="3" t="n"/>
       <c r="E61" s="3" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F61" s="3" t="inlineStr"/>
+      <c r="F61" s="3" t="n"/>
       <c r="G61" s="3" t="inlineStr">
         <is>
           <t>The participants took part in 90 minutes of PA "weekly"</t>
@@ -3883,17 +3853,17 @@
           <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
         </is>
       </c>
-      <c r="I61" s="3" t="inlineStr"/>
-      <c r="J61" s="3" t="inlineStr"/>
-      <c r="K61" s="3" t="inlineStr"/>
+      <c r="I61" s="3" t="n"/>
+      <c r="J61" s="3" t="n"/>
+      <c r="K61" s="3" t="n"/>
       <c r="L61" s="3" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="M61" s="3" t="inlineStr"/>
-      <c r="N61" s="3" t="inlineStr"/>
-      <c r="O61" s="3" t="inlineStr"/>
+      <c r="M61" s="3" t="n"/>
+      <c r="N61" s="3" t="n"/>
+      <c r="O61" s="3" t="n"/>
       <c r="P61" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
@@ -3941,36 +3911,36 @@
           <t>A temporal interval that is the length of time from start to end of an intervention temporal part</t>
         </is>
       </c>
-      <c r="D62" s="3" t="inlineStr"/>
+      <c r="D62" s="3" t="n"/>
       <c r="E62" s="3" t="inlineStr">
         <is>
           <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
         </is>
       </c>
-      <c r="F62" s="3" t="inlineStr"/>
+      <c r="F62" s="3" t="n"/>
       <c r="G62" s="3" t="inlineStr">
         <is>
           <t>Participants received 3 emails every "2" weeks</t>
         </is>
       </c>
-      <c r="H62" s="3" t="inlineStr"/>
-      <c r="I62" s="3" t="inlineStr"/>
-      <c r="J62" s="3" t="inlineStr"/>
-      <c r="K62" s="3" t="inlineStr"/>
+      <c r="H62" s="3" t="n"/>
+      <c r="I62" s="3" t="n"/>
+      <c r="J62" s="3" t="n"/>
+      <c r="K62" s="3" t="n"/>
       <c r="L62" s="3" t="inlineStr">
         <is>
           <t>intervention temporal part</t>
         </is>
       </c>
-      <c r="M62" s="3" t="inlineStr"/>
-      <c r="N62" s="3" t="inlineStr"/>
-      <c r="O62" s="3" t="inlineStr"/>
+      <c r="M62" s="3" t="n"/>
+      <c r="N62" s="3" t="n"/>
+      <c r="O62" s="3" t="n"/>
       <c r="P62" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q62" s="3" t="inlineStr"/>
+      <c r="Q62" s="3" t="n"/>
       <c r="R62" s="3" t="inlineStr">
         <is>
           <t>CM</t>
@@ -4003,24 +3973,24 @@
           <t>z) interval (remove)</t>
         </is>
       </c>
-      <c r="C63" s="3" t="inlineStr"/>
-      <c r="D63" s="3" t="inlineStr"/>
-      <c r="E63" s="3" t="inlineStr"/>
-      <c r="F63" s="3" t="inlineStr"/>
-      <c r="G63" s="3" t="inlineStr"/>
+      <c r="C63" s="3" t="n"/>
+      <c r="D63" s="3" t="n"/>
+      <c r="E63" s="3" t="n"/>
+      <c r="F63" s="3" t="n"/>
+      <c r="G63" s="3" t="n"/>
       <c r="H63" s="3" t="inlineStr">
         <is>
           <t>This is not annotated but included due to relationship with duration of interval</t>
         </is>
       </c>
-      <c r="I63" s="3" t="inlineStr"/>
-      <c r="J63" s="3" t="inlineStr"/>
-      <c r="K63" s="3" t="inlineStr"/>
-      <c r="L63" s="3" t="inlineStr"/>
-      <c r="M63" s="3" t="inlineStr"/>
-      <c r="N63" s="3" t="inlineStr"/>
-      <c r="O63" s="3" t="inlineStr"/>
-      <c r="P63" s="3" t="inlineStr"/>
+      <c r="I63" s="3" t="n"/>
+      <c r="J63" s="3" t="n"/>
+      <c r="K63" s="3" t="n"/>
+      <c r="L63" s="3" t="n"/>
+      <c r="M63" s="3" t="n"/>
+      <c r="N63" s="3" t="n"/>
+      <c r="O63" s="3" t="n"/>
+      <c r="P63" s="3" t="n"/>
       <c r="Q63" s="3" t="inlineStr">
         <is>
           <t>entity added so duration of interval can be specified. not sure what parent/relationships should be</t>
@@ -4041,7 +4011,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U63" s="3" t="inlineStr"/>
+      <c r="U63" s="3" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
@@ -4059,7 +4029,7 @@
           <t>An attribute of a BCI schedule of delivery that is how often intervention temporal parts occur within a BCI.</t>
         </is>
       </c>
-      <c r="D64" s="3" t="inlineStr"/>
+      <c r="D64" s="3" t="n"/>
       <c r="E64" s="3" t="inlineStr">
         <is>
           <t>process attribute</t>
@@ -4070,7 +4040,7 @@
           <t>Contact events are intervention temporal parts so this entity also describes the frequency of contact events.</t>
         </is>
       </c>
-      <c r="G64" s="3" t="inlineStr"/>
+      <c r="G64" s="3" t="n"/>
       <c r="H64" s="3" t="inlineStr">
         <is>
           <t>This is used to capture descriptions of the frequency of contact events within a part. 
@@ -4078,23 +4048,23 @@
 intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks"</t>
         </is>
       </c>
-      <c r="I64" s="3" t="inlineStr"/>
-      <c r="J64" s="3" t="inlineStr"/>
-      <c r="K64" s="3" t="inlineStr"/>
+      <c r="I64" s="3" t="n"/>
+      <c r="J64" s="3" t="n"/>
+      <c r="K64" s="3" t="n"/>
       <c r="L64" s="3" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="M64" s="3" t="inlineStr"/>
-      <c r="N64" s="3" t="inlineStr"/>
-      <c r="O64" s="3" t="inlineStr"/>
+      <c r="M64" s="3" t="n"/>
+      <c r="N64" s="3" t="n"/>
+      <c r="O64" s="3" t="n"/>
       <c r="P64" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q64" s="3" t="inlineStr"/>
+      <c r="Q64" s="3" t="n"/>
       <c r="R64" s="3" t="inlineStr">
         <is>
           <t>CM</t>

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -561,7 +561,7 @@
           <t xml:space="preserve">A &lt;BCI temporal part&gt; that is an occasion in which a member of a BCI population comes into contact with a BCI.  </t>
         </is>
       </c>
-      <c r="D2" s="2" t="n"/>
+      <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part</t>
@@ -577,16 +577,16 @@
           <t>A counselling session; An online chat session; An advertisement display.</t>
         </is>
       </c>
-      <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="n"/>
-      <c r="K2" s="2" t="n"/>
-      <c r="L2" s="2" t="n"/>
-      <c r="M2" s="2" t="n"/>
-      <c r="N2" s="2" t="n"/>
-      <c r="O2" s="2" t="n"/>
-      <c r="P2" s="2" t="n"/>
-      <c r="Q2" s="2" t="n"/>
+      <c r="H2" s="2" t="inlineStr"/>
+      <c r="I2" s="2" t="inlineStr"/>
+      <c r="J2" s="2" t="inlineStr"/>
+      <c r="K2" s="2" t="inlineStr"/>
+      <c r="L2" s="2" t="inlineStr"/>
+      <c r="M2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="inlineStr"/>
+      <c r="P2" s="2" t="inlineStr"/>
+      <c r="Q2" s="2" t="inlineStr"/>
       <c r="R2" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -597,8 +597,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T2" s="2" t="n"/>
-      <c r="U2" s="2" t="n"/>
+      <c r="T2" s="2" t="inlineStr"/>
+      <c r="U2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -616,32 +616,32 @@
           <t>A &lt;temporal interval&gt; between the start and end of a BCI contact event.</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n"/>
+      <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="F3" s="2" t="n"/>
+      <c r="F3" s="2" t="inlineStr"/>
       <c r="G3" s="2" t="inlineStr">
         <is>
           <t>1 hour; 30 minutes; 2 minutes</t>
         </is>
       </c>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
+      <c r="H3" s="2" t="inlineStr"/>
+      <c r="I3" s="2" t="inlineStr"/>
+      <c r="J3" s="2" t="inlineStr"/>
+      <c r="K3" s="2" t="inlineStr"/>
       <c r="L3" s="2" t="inlineStr">
         <is>
           <t>BCI contact event</t>
         </is>
       </c>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
-      <c r="O3" s="2" t="n"/>
-      <c r="P3" s="2" t="n"/>
-      <c r="Q3" s="2" t="n"/>
+      <c r="M3" s="2" t="inlineStr"/>
+      <c r="N3" s="2" t="inlineStr"/>
+      <c r="O3" s="2" t="inlineStr"/>
+      <c r="P3" s="2" t="inlineStr"/>
+      <c r="Q3" s="2" t="inlineStr"/>
       <c r="R3" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -652,8 +652,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T3" s="2" t="n"/>
-      <c r="U3" s="2" t="n"/>
+      <c r="T3" s="2" t="inlineStr"/>
+      <c r="U3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -671,28 +671,28 @@
           <t>A &lt;data item&gt; that is about a collection of BCI contact event durations.</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n"/>
+      <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="2" t="n"/>
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr"/>
+      <c r="H4" s="2" t="inlineStr"/>
+      <c r="I4" s="2" t="inlineStr"/>
+      <c r="J4" s="2" t="inlineStr"/>
+      <c r="K4" s="2" t="inlineStr"/>
       <c r="L4" s="2" t="inlineStr">
         <is>
           <t>BCI contact event duration</t>
         </is>
       </c>
-      <c r="M4" s="2" t="n"/>
-      <c r="N4" s="2" t="n"/>
-      <c r="O4" s="2" t="n"/>
-      <c r="P4" s="2" t="n"/>
-      <c r="Q4" s="2" t="n"/>
+      <c r="M4" s="2" t="inlineStr"/>
+      <c r="N4" s="2" t="inlineStr"/>
+      <c r="O4" s="2" t="inlineStr"/>
+      <c r="P4" s="2" t="inlineStr"/>
+      <c r="Q4" s="2" t="inlineStr"/>
       <c r="R4" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -703,8 +703,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T4" s="2" t="n"/>
-      <c r="U4" s="2" t="n"/>
+      <c r="T4" s="2" t="inlineStr"/>
+      <c r="U4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -732,7 +732,7 @@
           <t>data item</t>
         </is>
       </c>
-      <c r="F5" s="2" t="n"/>
+      <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="2" t="inlineStr">
         <is>
           <t>twice a week; daily; one a week</t>
@@ -744,19 +744,19 @@
 Example annotation (in context): intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks" </t>
         </is>
       </c>
-      <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="n"/>
-      <c r="K5" s="2" t="n"/>
+      <c r="I5" s="2" t="inlineStr"/>
+      <c r="J5" s="2" t="inlineStr"/>
+      <c r="K5" s="2" t="inlineStr"/>
       <c r="L5" s="2" t="inlineStr">
         <is>
           <t>BCI contact event</t>
         </is>
       </c>
-      <c r="M5" s="2" t="n"/>
-      <c r="N5" s="2" t="n"/>
-      <c r="O5" s="2" t="n"/>
-      <c r="P5" s="2" t="n"/>
-      <c r="Q5" s="2" t="n"/>
+      <c r="M5" s="2" t="inlineStr"/>
+      <c r="N5" s="2" t="inlineStr"/>
+      <c r="O5" s="2" t="inlineStr"/>
+      <c r="P5" s="2" t="inlineStr"/>
+      <c r="Q5" s="2" t="inlineStr"/>
       <c r="R5" s="2" t="inlineStr">
         <is>
           <t>CM; JH; PS</t>
@@ -767,8 +767,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T5" s="2" t="n"/>
-      <c r="U5" s="2" t="n"/>
+      <c r="T5" s="2" t="inlineStr"/>
+      <c r="U5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -786,28 +786,28 @@
           <t>A &lt;data item&gt; that is about a collection of BCI contact event frequencies.</t>
         </is>
       </c>
-      <c r="D6" s="2" t="n"/>
+      <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="n"/>
-      <c r="K6" s="2" t="n"/>
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr"/>
+      <c r="H6" s="2" t="inlineStr"/>
+      <c r="I6" s="2" t="inlineStr"/>
+      <c r="J6" s="2" t="inlineStr"/>
+      <c r="K6" s="2" t="inlineStr"/>
       <c r="L6" s="2" t="inlineStr">
         <is>
           <t>BCI contact event frequency</t>
         </is>
       </c>
-      <c r="M6" s="2" t="n"/>
-      <c r="N6" s="2" t="n"/>
-      <c r="O6" s="2" t="n"/>
-      <c r="P6" s="2" t="n"/>
-      <c r="Q6" s="2" t="n"/>
+      <c r="M6" s="2" t="inlineStr"/>
+      <c r="N6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="inlineStr"/>
+      <c r="P6" s="2" t="inlineStr"/>
+      <c r="Q6" s="2" t="inlineStr"/>
       <c r="R6" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -818,8 +818,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T6" s="2" t="n"/>
-      <c r="U6" s="2" t="n"/>
+      <c r="T6" s="2" t="inlineStr"/>
+      <c r="U6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -837,28 +837,28 @@
           <t>A &lt;data item&gt; that is about a collection of BCI contact event numbers.</t>
         </is>
       </c>
-      <c r="D7" s="2" t="n"/>
+      <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
-      <c r="J7" s="2" t="n"/>
-      <c r="K7" s="2" t="n"/>
+      <c r="F7" s="2" t="inlineStr"/>
+      <c r="G7" s="2" t="inlineStr"/>
+      <c r="H7" s="2" t="inlineStr"/>
+      <c r="I7" s="2" t="inlineStr"/>
+      <c r="J7" s="2" t="inlineStr"/>
+      <c r="K7" s="2" t="inlineStr"/>
       <c r="L7" s="2" t="inlineStr">
         <is>
           <t>number of BCI contact events</t>
         </is>
       </c>
-      <c r="M7" s="2" t="n"/>
-      <c r="N7" s="2" t="n"/>
-      <c r="O7" s="2" t="n"/>
-      <c r="P7" s="2" t="n"/>
-      <c r="Q7" s="2" t="n"/>
+      <c r="M7" s="2" t="inlineStr"/>
+      <c r="N7" s="2" t="inlineStr"/>
+      <c r="O7" s="2" t="inlineStr"/>
+      <c r="P7" s="2" t="inlineStr"/>
+      <c r="Q7" s="2" t="inlineStr"/>
       <c r="R7" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -869,8 +869,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T7" s="2" t="n"/>
-      <c r="U7" s="2" t="n"/>
+      <c r="T7" s="2" t="inlineStr"/>
+      <c r="U7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -898,7 +898,7 @@
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="F8" s="2" t="n"/>
+      <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
           <t>6 weeks; 2 months; 1 year</t>
@@ -911,23 +911,23 @@
 This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author</t>
         </is>
       </c>
-      <c r="I8" s="2" t="n"/>
-      <c r="J8" s="2" t="n"/>
-      <c r="K8" s="2" t="n"/>
+      <c r="I8" s="2" t="inlineStr"/>
+      <c r="J8" s="2" t="inlineStr"/>
+      <c r="K8" s="2" t="inlineStr"/>
       <c r="L8" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention</t>
         </is>
       </c>
-      <c r="M8" s="2" t="n"/>
-      <c r="N8" s="2" t="n"/>
-      <c r="O8" s="2" t="n"/>
+      <c r="M8" s="2" t="inlineStr"/>
+      <c r="N8" s="2" t="inlineStr"/>
+      <c r="O8" s="2" t="inlineStr"/>
       <c r="P8" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q8" s="2" t="n"/>
+      <c r="Q8" s="2" t="inlineStr"/>
       <c r="R8" s="2" t="inlineStr">
         <is>
           <t>CM; RW; JH; PS</t>
@@ -943,7 +943,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U8" s="2" t="n"/>
+      <c r="U8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -961,28 +961,28 @@
           <t>A &lt;data item&gt; that is about a collection of BCI durations.</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n"/>
+      <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F9" s="2" t="n"/>
-      <c r="G9" s="2" t="n"/>
-      <c r="H9" s="2" t="n"/>
-      <c r="I9" s="2" t="n"/>
-      <c r="J9" s="2" t="n"/>
-      <c r="K9" s="2" t="n"/>
+      <c r="F9" s="2" t="inlineStr"/>
+      <c r="G9" s="2" t="inlineStr"/>
+      <c r="H9" s="2" t="inlineStr"/>
+      <c r="I9" s="2" t="inlineStr"/>
+      <c r="J9" s="2" t="inlineStr"/>
+      <c r="K9" s="2" t="inlineStr"/>
       <c r="L9" s="2" t="inlineStr">
         <is>
           <t>BCI duration</t>
         </is>
       </c>
-      <c r="M9" s="2" t="n"/>
-      <c r="N9" s="2" t="n"/>
-      <c r="O9" s="2" t="n"/>
-      <c r="P9" s="2" t="n"/>
-      <c r="Q9" s="2" t="n"/>
+      <c r="M9" s="2" t="inlineStr"/>
+      <c r="N9" s="2" t="inlineStr"/>
+      <c r="O9" s="2" t="inlineStr"/>
+      <c r="P9" s="2" t="inlineStr"/>
+      <c r="Q9" s="2" t="inlineStr"/>
       <c r="R9" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -993,8 +993,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T9" s="2" t="n"/>
-      <c r="U9" s="2" t="n"/>
+      <c r="T9" s="2" t="inlineStr"/>
+      <c r="U9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -1012,7 +1012,7 @@
           <t xml:space="preserve">A &lt;BCI attribute&gt; that is its temporal organisation </t>
         </is>
       </c>
-      <c r="D10" s="2" t="n"/>
+      <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">BCI attribute </t>
@@ -1023,21 +1023,21 @@
           <t>Includes the start and end of a BCI, its parts, and their organisation around relevant timepoints.</t>
         </is>
       </c>
-      <c r="G10" s="2" t="n"/>
-      <c r="H10" s="2" t="n"/>
-      <c r="I10" s="2" t="n"/>
-      <c r="J10" s="2" t="n"/>
-      <c r="K10" s="2" t="n"/>
-      <c r="L10" s="2" t="n"/>
+      <c r="G10" s="2" t="inlineStr"/>
+      <c r="H10" s="2" t="inlineStr"/>
+      <c r="I10" s="2" t="inlineStr"/>
+      <c r="J10" s="2" t="inlineStr"/>
+      <c r="K10" s="2" t="inlineStr"/>
+      <c r="L10" s="2" t="inlineStr"/>
       <c r="M10" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention delivery</t>
         </is>
       </c>
-      <c r="N10" s="2" t="n"/>
-      <c r="O10" s="2" t="n"/>
-      <c r="P10" s="2" t="n"/>
-      <c r="Q10" s="2" t="n"/>
+      <c r="N10" s="2" t="inlineStr"/>
+      <c r="O10" s="2" t="inlineStr"/>
+      <c r="P10" s="2" t="inlineStr"/>
+      <c r="Q10" s="2" t="inlineStr"/>
       <c r="R10" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1048,8 +1048,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T10" s="2" t="n"/>
-      <c r="U10" s="2" t="n"/>
+      <c r="T10" s="2" t="inlineStr"/>
+      <c r="U10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -1094,19 +1094,19 @@
 The "counselling sessions" took place each week for 6 weeks, and lasted roughly one hour; During the "first 6 weeks", participants received a phone call every two weeks, then for the "last 4 weeks", this was reduced to a weekly call;</t>
         </is>
       </c>
-      <c r="I11" s="2" t="n"/>
+      <c r="I11" s="2" t="inlineStr"/>
       <c r="J11" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention</t>
         </is>
       </c>
-      <c r="K11" s="2" t="n"/>
-      <c r="L11" s="2" t="n"/>
-      <c r="M11" s="2" t="n"/>
-      <c r="N11" s="2" t="n"/>
-      <c r="O11" s="2" t="n"/>
-      <c r="P11" s="2" t="n"/>
-      <c r="Q11" s="2" t="n"/>
+      <c r="K11" s="2" t="inlineStr"/>
+      <c r="L11" s="2" t="inlineStr"/>
+      <c r="M11" s="2" t="inlineStr"/>
+      <c r="N11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="inlineStr"/>
+      <c r="P11" s="2" t="inlineStr"/>
+      <c r="Q11" s="2" t="inlineStr"/>
       <c r="R11" s="2" t="inlineStr">
         <is>
           <t>CM; EJH; PS</t>
@@ -1122,7 +1122,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U11" s="2" t="n"/>
+      <c r="U11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -1150,7 +1150,7 @@
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="F12" s="2" t="n"/>
+      <c r="F12" s="2" t="inlineStr"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
           <t>6 weeks; 2 weeks</t>
@@ -1163,23 +1163,23 @@
 This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author </t>
         </is>
       </c>
-      <c r="I12" s="2" t="n"/>
-      <c r="J12" s="2" t="n"/>
-      <c r="K12" s="2" t="n"/>
+      <c r="I12" s="2" t="inlineStr"/>
+      <c r="J12" s="2" t="inlineStr"/>
+      <c r="K12" s="2" t="inlineStr"/>
       <c r="L12" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part</t>
         </is>
       </c>
-      <c r="M12" s="2" t="n"/>
-      <c r="N12" s="2" t="n"/>
-      <c r="O12" s="2" t="n"/>
+      <c r="M12" s="2" t="inlineStr"/>
+      <c r="N12" s="2" t="inlineStr"/>
+      <c r="O12" s="2" t="inlineStr"/>
       <c r="P12" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q12" s="2" t="n"/>
+      <c r="Q12" s="2" t="inlineStr"/>
       <c r="R12" s="2" t="inlineStr">
         <is>
           <t>CM; JH; PS</t>
@@ -1195,7 +1195,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U12" s="2" t="n"/>
+      <c r="U12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -1213,28 +1213,28 @@
           <t>A &lt;data item&gt; that is about a collection of intervention temporal part durations.</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n"/>
+      <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F13" s="2" t="n"/>
-      <c r="G13" s="2" t="n"/>
-      <c r="H13" s="2" t="n"/>
-      <c r="I13" s="2" t="n"/>
-      <c r="J13" s="2" t="n"/>
-      <c r="K13" s="2" t="n"/>
+      <c r="F13" s="2" t="inlineStr"/>
+      <c r="G13" s="2" t="inlineStr"/>
+      <c r="H13" s="2" t="inlineStr"/>
+      <c r="I13" s="2" t="inlineStr"/>
+      <c r="J13" s="2" t="inlineStr"/>
+      <c r="K13" s="2" t="inlineStr"/>
       <c r="L13" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part duration</t>
         </is>
       </c>
-      <c r="M13" s="2" t="n"/>
-      <c r="N13" s="2" t="n"/>
-      <c r="O13" s="2" t="n"/>
-      <c r="P13" s="2" t="n"/>
-      <c r="Q13" s="2" t="n"/>
+      <c r="M13" s="2" t="inlineStr"/>
+      <c r="N13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="inlineStr"/>
+      <c r="P13" s="2" t="inlineStr"/>
+      <c r="Q13" s="2" t="inlineStr"/>
       <c r="R13" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1245,8 +1245,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T13" s="2" t="n"/>
-      <c r="U13" s="2" t="n"/>
+      <c r="T13" s="2" t="inlineStr"/>
+      <c r="U13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -1290,19 +1290,19 @@
 Example annotation in context: Participants took part in 90 minutes of PA "weekly" </t>
         </is>
       </c>
-      <c r="I14" s="2" t="n"/>
-      <c r="J14" s="2" t="n"/>
-      <c r="K14" s="2" t="n"/>
+      <c r="I14" s="2" t="inlineStr"/>
+      <c r="J14" s="2" t="inlineStr"/>
+      <c r="K14" s="2" t="inlineStr"/>
       <c r="L14" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part</t>
         </is>
       </c>
-      <c r="M14" s="2" t="n"/>
-      <c r="N14" s="2" t="n"/>
-      <c r="O14" s="2" t="n"/>
-      <c r="P14" s="2" t="n"/>
-      <c r="Q14" s="2" t="n"/>
+      <c r="M14" s="2" t="inlineStr"/>
+      <c r="N14" s="2" t="inlineStr"/>
+      <c r="O14" s="2" t="inlineStr"/>
+      <c r="P14" s="2" t="inlineStr"/>
+      <c r="Q14" s="2" t="inlineStr"/>
       <c r="R14" s="2" t="inlineStr">
         <is>
           <t>CM; JH; PS</t>
@@ -1313,8 +1313,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T14" s="2" t="n"/>
-      <c r="U14" s="2" t="n"/>
+      <c r="T14" s="2" t="inlineStr"/>
+      <c r="U14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -1332,28 +1332,28 @@
           <t>A &lt;data item&gt; that is about a collection of BCI temporal part frequencies.</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n"/>
+      <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F15" s="2" t="n"/>
-      <c r="G15" s="2" t="n"/>
-      <c r="H15" s="2" t="n"/>
-      <c r="I15" s="2" t="n"/>
-      <c r="J15" s="2" t="n"/>
-      <c r="K15" s="2" t="n"/>
+      <c r="F15" s="2" t="inlineStr"/>
+      <c r="G15" s="2" t="inlineStr"/>
+      <c r="H15" s="2" t="inlineStr"/>
+      <c r="I15" s="2" t="inlineStr"/>
+      <c r="J15" s="2" t="inlineStr"/>
+      <c r="K15" s="2" t="inlineStr"/>
       <c r="L15" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part frequency</t>
         </is>
       </c>
-      <c r="M15" s="2" t="n"/>
-      <c r="N15" s="2" t="n"/>
-      <c r="O15" s="2" t="n"/>
-      <c r="P15" s="2" t="n"/>
-      <c r="Q15" s="2" t="n"/>
+      <c r="M15" s="2" t="inlineStr"/>
+      <c r="N15" s="2" t="inlineStr"/>
+      <c r="O15" s="2" t="inlineStr"/>
+      <c r="P15" s="2" t="inlineStr"/>
+      <c r="Q15" s="2" t="inlineStr"/>
       <c r="R15" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1364,8 +1364,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T15" s="2" t="n"/>
-      <c r="U15" s="2" t="n"/>
+      <c r="T15" s="2" t="inlineStr"/>
+      <c r="U15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1383,11 +1383,24 @@
           <t>A physical quality which inheres in a bearer by virtue of the number of the bearer's repetitive actions in a particular time.</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
           <t>JH; PS</t>
@@ -1398,6 +1411,8 @@
           <t>External</t>
         </is>
       </c>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -1425,7 +1440,7 @@
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="F17" s="2" t="n"/>
+      <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
           <t>"2 weeks"; "1 day"</t>
@@ -1438,23 +1453,23 @@
 This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author </t>
         </is>
       </c>
-      <c r="I17" s="2" t="n"/>
-      <c r="J17" s="2" t="n"/>
-      <c r="K17" s="2" t="n"/>
+      <c r="I17" s="2" t="inlineStr"/>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part</t>
         </is>
       </c>
-      <c r="M17" s="2" t="n"/>
-      <c r="N17" s="2" t="n"/>
-      <c r="O17" s="2" t="n"/>
+      <c r="M17" s="2" t="inlineStr"/>
+      <c r="N17" s="2" t="inlineStr"/>
+      <c r="O17" s="2" t="inlineStr"/>
       <c r="P17" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q17" s="2" t="n"/>
+      <c r="Q17" s="2" t="inlineStr"/>
       <c r="R17" s="2" t="inlineStr">
         <is>
           <t>CM; JH; PS</t>
@@ -1470,7 +1485,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U17" s="2" t="n"/>
+      <c r="U17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -1498,7 +1513,7 @@
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="F18" s="2" t="n"/>
+      <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
           <t>telephone feedback sessions were more frequent during the first 6 weeks; participants were free to access the app whenever they desired</t>
@@ -1510,14 +1525,14 @@
 Example annotation in context: "participants were free to access the app as and when they desired";"telephone feedback sessions were more frequent during the first 6 weeks" </t>
         </is>
       </c>
-      <c r="I18" s="2" t="n"/>
-      <c r="J18" s="2" t="n"/>
-      <c r="K18" s="2" t="n"/>
-      <c r="L18" s="2" t="n"/>
-      <c r="M18" s="2" t="n"/>
-      <c r="N18" s="2" t="n"/>
-      <c r="O18" s="2" t="n"/>
-      <c r="P18" s="2" t="n"/>
+      <c r="I18" s="2" t="inlineStr"/>
+      <c r="J18" s="2" t="inlineStr"/>
+      <c r="K18" s="2" t="inlineStr"/>
+      <c r="L18" s="2" t="inlineStr"/>
+      <c r="M18" s="2" t="inlineStr"/>
+      <c r="N18" s="2" t="inlineStr"/>
+      <c r="O18" s="2" t="inlineStr"/>
+      <c r="P18" s="2" t="inlineStr"/>
       <c r="Q18" s="2" t="inlineStr">
         <is>
           <t>relationship? is about schedule? or is a type of schedule?</t>
@@ -1560,28 +1575,28 @@
           <t>A &lt;BCI contact event duration statistic&gt; that is the highest value from a collection of BCI contact event durations.</t>
         </is>
       </c>
-      <c r="D19" s="2" t="n"/>
+      <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="inlineStr">
         <is>
           <t>BCI contact event duration statistic</t>
         </is>
       </c>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
-      <c r="H19" s="2" t="n"/>
-      <c r="I19" s="2" t="n"/>
-      <c r="J19" s="2" t="n"/>
-      <c r="K19" s="2" t="n"/>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr"/>
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr"/>
+      <c r="J19" s="2" t="inlineStr"/>
+      <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
           <t>BCI contact event duration</t>
         </is>
       </c>
-      <c r="M19" s="2" t="n"/>
-      <c r="N19" s="2" t="n"/>
-      <c r="O19" s="2" t="n"/>
-      <c r="P19" s="2" t="n"/>
-      <c r="Q19" s="2" t="n"/>
+      <c r="M19" s="2" t="inlineStr"/>
+      <c r="N19" s="2" t="inlineStr"/>
+      <c r="O19" s="2" t="inlineStr"/>
+      <c r="P19" s="2" t="inlineStr"/>
+      <c r="Q19" s="2" t="inlineStr"/>
       <c r="R19" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1592,8 +1607,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T19" s="2" t="n"/>
-      <c r="U19" s="2" t="n"/>
+      <c r="T19" s="2" t="inlineStr"/>
+      <c r="U19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -1611,28 +1626,28 @@
           <t>A &lt;BCI contact event frequency statistic&gt; that is the highest value from a collection of BCI contact event frequencies.</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n"/>
+      <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="inlineStr">
         <is>
           <t>BCI contact event frequency statistic</t>
         </is>
       </c>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
-      <c r="H20" s="2" t="n"/>
-      <c r="I20" s="2" t="n"/>
-      <c r="J20" s="2" t="n"/>
-      <c r="K20" s="2" t="n"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
+      <c r="H20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="inlineStr"/>
+      <c r="J20" s="2" t="inlineStr"/>
+      <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
           <t>BCI contact event frequency</t>
         </is>
       </c>
-      <c r="M20" s="2" t="n"/>
-      <c r="N20" s="2" t="n"/>
-      <c r="O20" s="2" t="n"/>
-      <c r="P20" s="2" t="n"/>
-      <c r="Q20" s="2" t="n"/>
+      <c r="M20" s="2" t="inlineStr"/>
+      <c r="N20" s="2" t="inlineStr"/>
+      <c r="O20" s="2" t="inlineStr"/>
+      <c r="P20" s="2" t="inlineStr"/>
+      <c r="Q20" s="2" t="inlineStr"/>
       <c r="R20" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1643,13 +1658,13 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T20" s="2" t="n"/>
-      <c r="U20" s="2" t="n"/>
+      <c r="T20" s="2" t="inlineStr"/>
+      <c r="U20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050489</t>
+          <t>BCIO:050907</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -1662,28 +1677,28 @@
           <t>A &lt;BCI contact event number statistic&gt; that is the highest value from a collection of BCI contact event numbers.</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n"/>
+      <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="inlineStr">
         <is>
           <t>BCI contact event number statistic</t>
         </is>
       </c>
-      <c r="F21" s="2" t="n"/>
-      <c r="G21" s="2" t="n"/>
-      <c r="H21" s="2" t="n"/>
-      <c r="I21" s="2" t="n"/>
-      <c r="J21" s="2" t="n"/>
-      <c r="K21" s="2" t="n"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr"/>
+      <c r="H21" s="2" t="inlineStr"/>
+      <c r="I21" s="2" t="inlineStr"/>
+      <c r="J21" s="2" t="inlineStr"/>
+      <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
           <t>number of BCI contact events</t>
         </is>
       </c>
-      <c r="M21" s="2" t="n"/>
-      <c r="N21" s="2" t="n"/>
-      <c r="O21" s="2" t="n"/>
-      <c r="P21" s="2" t="n"/>
-      <c r="Q21" s="2" t="n"/>
+      <c r="M21" s="2" t="inlineStr"/>
+      <c r="N21" s="2" t="inlineStr"/>
+      <c r="O21" s="2" t="inlineStr"/>
+      <c r="P21" s="2" t="inlineStr"/>
+      <c r="Q21" s="2" t="inlineStr"/>
       <c r="R21" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1694,8 +1709,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T21" s="2" t="n"/>
-      <c r="U21" s="2" t="n"/>
+      <c r="T21" s="2" t="inlineStr"/>
+      <c r="U21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
@@ -1713,28 +1728,28 @@
           <t>A &lt;BCI duration statistic&gt; that is the highest value from a collection of BCI durations.</t>
         </is>
       </c>
-      <c r="D22" s="2" t="n"/>
+      <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="inlineStr">
         <is>
           <t>BCI duration statistic</t>
         </is>
       </c>
-      <c r="F22" s="2" t="n"/>
-      <c r="G22" s="2" t="n"/>
-      <c r="H22" s="2" t="n"/>
-      <c r="I22" s="2" t="n"/>
-      <c r="J22" s="2" t="n"/>
-      <c r="K22" s="2" t="n"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr"/>
+      <c r="H22" s="2" t="inlineStr"/>
+      <c r="I22" s="2" t="inlineStr"/>
+      <c r="J22" s="2" t="inlineStr"/>
+      <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
           <t>BCI duration</t>
         </is>
       </c>
-      <c r="M22" s="2" t="n"/>
-      <c r="N22" s="2" t="n"/>
-      <c r="O22" s="2" t="n"/>
-      <c r="P22" s="2" t="n"/>
-      <c r="Q22" s="2" t="n"/>
+      <c r="M22" s="2" t="inlineStr"/>
+      <c r="N22" s="2" t="inlineStr"/>
+      <c r="O22" s="2" t="inlineStr"/>
+      <c r="P22" s="2" t="inlineStr"/>
+      <c r="Q22" s="2" t="inlineStr"/>
       <c r="R22" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1745,8 +1760,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T22" s="2" t="n"/>
-      <c r="U22" s="2" t="n"/>
+      <c r="T22" s="2" t="inlineStr"/>
+      <c r="U22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
@@ -1764,28 +1779,28 @@
           <t>A &lt;BCI temporal part duration statistic&gt; that denotes the highest value from a collection of BCI temporal part durations.</t>
         </is>
       </c>
-      <c r="D23" s="2" t="n"/>
+      <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part duration statistic</t>
         </is>
       </c>
-      <c r="F23" s="2" t="n"/>
-      <c r="G23" s="2" t="n"/>
-      <c r="H23" s="2" t="n"/>
-      <c r="I23" s="2" t="n"/>
-      <c r="J23" s="2" t="n"/>
-      <c r="K23" s="2" t="n"/>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr"/>
+      <c r="H23" s="2" t="inlineStr"/>
+      <c r="I23" s="2" t="inlineStr"/>
+      <c r="J23" s="2" t="inlineStr"/>
+      <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part duration</t>
         </is>
       </c>
-      <c r="M23" s="2" t="n"/>
-      <c r="N23" s="2" t="n"/>
-      <c r="O23" s="2" t="n"/>
-      <c r="P23" s="2" t="n"/>
-      <c r="Q23" s="2" t="n"/>
+      <c r="M23" s="2" t="inlineStr"/>
+      <c r="N23" s="2" t="inlineStr"/>
+      <c r="O23" s="2" t="inlineStr"/>
+      <c r="P23" s="2" t="inlineStr"/>
+      <c r="Q23" s="2" t="inlineStr"/>
       <c r="R23" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1796,8 +1811,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T23" s="2" t="n"/>
-      <c r="U23" s="2" t="n"/>
+      <c r="T23" s="2" t="inlineStr"/>
+      <c r="U23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
@@ -1815,28 +1830,28 @@
           <t>A &lt;BCI temporal part frequency statistic&gt; that is the highest value from a collection of BCI temporal part frequencies.</t>
         </is>
       </c>
-      <c r="D24" s="2" t="n"/>
+      <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part frequency statistic</t>
         </is>
       </c>
-      <c r="F24" s="2" t="n"/>
-      <c r="G24" s="2" t="n"/>
-      <c r="H24" s="2" t="n"/>
-      <c r="I24" s="2" t="n"/>
-      <c r="J24" s="2" t="n"/>
-      <c r="K24" s="2" t="n"/>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr"/>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr"/>
+      <c r="J24" s="2" t="inlineStr"/>
+      <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part frequency</t>
         </is>
       </c>
-      <c r="M24" s="2" t="n"/>
-      <c r="N24" s="2" t="n"/>
-      <c r="O24" s="2" t="n"/>
-      <c r="P24" s="2" t="n"/>
-      <c r="Q24" s="2" t="n"/>
+      <c r="M24" s="2" t="inlineStr"/>
+      <c r="N24" s="2" t="inlineStr"/>
+      <c r="O24" s="2" t="inlineStr"/>
+      <c r="P24" s="2" t="inlineStr"/>
+      <c r="Q24" s="2" t="inlineStr"/>
       <c r="R24" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1847,8 +1862,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T24" s="2" t="n"/>
-      <c r="U24" s="2" t="n"/>
+      <c r="T24" s="2" t="inlineStr"/>
+      <c r="U24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -1866,28 +1881,28 @@
           <t>A &lt;total contact event duration statistic&gt; that is the highest value from a collection of total contact event durations.</t>
         </is>
       </c>
-      <c r="D25" s="2" t="n"/>
+      <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="inlineStr">
         <is>
           <t>total BCI contact event duration statistic</t>
         </is>
       </c>
-      <c r="F25" s="2" t="n"/>
-      <c r="G25" s="2" t="n"/>
-      <c r="H25" s="2" t="n"/>
-      <c r="I25" s="2" t="n"/>
-      <c r="J25" s="2" t="n"/>
-      <c r="K25" s="2" t="n"/>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr"/>
+      <c r="H25" s="2" t="inlineStr"/>
+      <c r="I25" s="2" t="inlineStr"/>
+      <c r="J25" s="2" t="inlineStr"/>
+      <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
           <t>total BCI contact event duration</t>
         </is>
       </c>
-      <c r="M25" s="2" t="n"/>
-      <c r="N25" s="2" t="n"/>
-      <c r="O25" s="2" t="n"/>
-      <c r="P25" s="2" t="n"/>
-      <c r="Q25" s="2" t="n"/>
+      <c r="M25" s="2" t="inlineStr"/>
+      <c r="N25" s="2" t="inlineStr"/>
+      <c r="O25" s="2" t="inlineStr"/>
+      <c r="P25" s="2" t="inlineStr"/>
+      <c r="Q25" s="2" t="inlineStr"/>
       <c r="R25" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1898,8 +1913,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T25" s="2" t="n"/>
-      <c r="U25" s="2" t="n"/>
+      <c r="T25" s="2" t="inlineStr"/>
+      <c r="U25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -1917,28 +1932,28 @@
           <t>A &lt;BCI contact event duration statistic&gt; that is the average value calculated from a collection of BCI contact event durations.</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n"/>
+      <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="inlineStr">
         <is>
           <t>BCI contact event duration statistic</t>
         </is>
       </c>
-      <c r="F26" s="2" t="n"/>
-      <c r="G26" s="2" t="n"/>
-      <c r="H26" s="2" t="n"/>
-      <c r="I26" s="2" t="n"/>
-      <c r="J26" s="2" t="n"/>
-      <c r="K26" s="2" t="n"/>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr"/>
+      <c r="H26" s="2" t="inlineStr"/>
+      <c r="I26" s="2" t="inlineStr"/>
+      <c r="J26" s="2" t="inlineStr"/>
+      <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
           <t>BCI contact event duration</t>
         </is>
       </c>
-      <c r="M26" s="2" t="n"/>
-      <c r="N26" s="2" t="n"/>
-      <c r="O26" s="2" t="n"/>
-      <c r="P26" s="2" t="n"/>
-      <c r="Q26" s="2" t="n"/>
+      <c r="M26" s="2" t="inlineStr"/>
+      <c r="N26" s="2" t="inlineStr"/>
+      <c r="O26" s="2" t="inlineStr"/>
+      <c r="P26" s="2" t="inlineStr"/>
+      <c r="Q26" s="2" t="inlineStr"/>
       <c r="R26" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1949,8 +1964,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T26" s="2" t="n"/>
-      <c r="U26" s="2" t="n"/>
+      <c r="T26" s="2" t="inlineStr"/>
+      <c r="U26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
@@ -1968,28 +1983,28 @@
           <t>A &lt;BCI contact event frequency statistic&gt; that is the average value calculated from a collection of BCI contact event frequencies.</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n"/>
+      <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="inlineStr">
         <is>
           <t>BCI contact event frequency statistic</t>
         </is>
       </c>
-      <c r="F27" s="2" t="n"/>
-      <c r="G27" s="2" t="n"/>
-      <c r="H27" s="2" t="n"/>
-      <c r="I27" s="2" t="n"/>
-      <c r="J27" s="2" t="n"/>
-      <c r="K27" s="2" t="n"/>
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr"/>
+      <c r="H27" s="2" t="inlineStr"/>
+      <c r="I27" s="2" t="inlineStr"/>
+      <c r="J27" s="2" t="inlineStr"/>
+      <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
           <t>BCI contact event frequency</t>
         </is>
       </c>
-      <c r="M27" s="2" t="n"/>
-      <c r="N27" s="2" t="n"/>
-      <c r="O27" s="2" t="n"/>
-      <c r="P27" s="2" t="n"/>
-      <c r="Q27" s="2" t="n"/>
+      <c r="M27" s="2" t="inlineStr"/>
+      <c r="N27" s="2" t="inlineStr"/>
+      <c r="O27" s="2" t="inlineStr"/>
+      <c r="P27" s="2" t="inlineStr"/>
+      <c r="Q27" s="2" t="inlineStr"/>
       <c r="R27" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2000,8 +2015,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T27" s="2" t="n"/>
-      <c r="U27" s="2" t="n"/>
+      <c r="T27" s="2" t="inlineStr"/>
+      <c r="U27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
@@ -2019,28 +2034,28 @@
           <t>A &lt;BCI contact event number statistic&gt; that is the average value calculated from a collection of BCI contact event numbers.</t>
         </is>
       </c>
-      <c r="D28" s="2" t="n"/>
+      <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="inlineStr">
         <is>
           <t>BCI contact event number statistic</t>
         </is>
       </c>
-      <c r="F28" s="2" t="n"/>
-      <c r="G28" s="2" t="n"/>
-      <c r="H28" s="2" t="n"/>
-      <c r="I28" s="2" t="n"/>
-      <c r="J28" s="2" t="n"/>
-      <c r="K28" s="2" t="n"/>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr"/>
+      <c r="H28" s="2" t="inlineStr"/>
+      <c r="I28" s="2" t="inlineStr"/>
+      <c r="J28" s="2" t="inlineStr"/>
+      <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
           <t>number of BCI contact events</t>
         </is>
       </c>
-      <c r="M28" s="2" t="n"/>
-      <c r="N28" s="2" t="n"/>
-      <c r="O28" s="2" t="n"/>
-      <c r="P28" s="2" t="n"/>
-      <c r="Q28" s="2" t="n"/>
+      <c r="M28" s="2" t="inlineStr"/>
+      <c r="N28" s="2" t="inlineStr"/>
+      <c r="O28" s="2" t="inlineStr"/>
+      <c r="P28" s="2" t="inlineStr"/>
+      <c r="Q28" s="2" t="inlineStr"/>
       <c r="R28" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2051,8 +2066,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T28" s="2" t="n"/>
-      <c r="U28" s="2" t="n"/>
+      <c r="T28" s="2" t="inlineStr"/>
+      <c r="U28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -2070,28 +2085,28 @@
           <t>A &lt;BCI duration statistic&gt; that is the average value calculated from a collection of BCI durations.</t>
         </is>
       </c>
-      <c r="D29" s="2" t="n"/>
+      <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="inlineStr">
         <is>
           <t>BCI duration statistic</t>
         </is>
       </c>
-      <c r="F29" s="2" t="n"/>
-      <c r="G29" s="2" t="n"/>
-      <c r="H29" s="2" t="n"/>
-      <c r="I29" s="2" t="n"/>
-      <c r="J29" s="2" t="n"/>
-      <c r="K29" s="2" t="n"/>
+      <c r="F29" s="2" t="inlineStr"/>
+      <c r="G29" s="2" t="inlineStr"/>
+      <c r="H29" s="2" t="inlineStr"/>
+      <c r="I29" s="2" t="inlineStr"/>
+      <c r="J29" s="2" t="inlineStr"/>
+      <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
           <t>BCI duration</t>
         </is>
       </c>
-      <c r="M29" s="2" t="n"/>
-      <c r="N29" s="2" t="n"/>
-      <c r="O29" s="2" t="n"/>
-      <c r="P29" s="2" t="n"/>
-      <c r="Q29" s="2" t="n"/>
+      <c r="M29" s="2" t="inlineStr"/>
+      <c r="N29" s="2" t="inlineStr"/>
+      <c r="O29" s="2" t="inlineStr"/>
+      <c r="P29" s="2" t="inlineStr"/>
+      <c r="Q29" s="2" t="inlineStr"/>
       <c r="R29" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2102,8 +2117,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T29" s="2" t="n"/>
-      <c r="U29" s="2" t="n"/>
+      <c r="T29" s="2" t="inlineStr"/>
+      <c r="U29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -2121,28 +2136,28 @@
           <t>A &lt;BCI temporal part duration statistic&gt; that is the average value calculated from a collection of BCI temporal part durations.</t>
         </is>
       </c>
-      <c r="D30" s="2" t="n"/>
+      <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part duration statistic</t>
         </is>
       </c>
-      <c r="F30" s="2" t="n"/>
-      <c r="G30" s="2" t="n"/>
-      <c r="H30" s="2" t="n"/>
-      <c r="I30" s="2" t="n"/>
-      <c r="J30" s="2" t="n"/>
-      <c r="K30" s="2" t="n"/>
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr"/>
+      <c r="H30" s="2" t="inlineStr"/>
+      <c r="I30" s="2" t="inlineStr"/>
+      <c r="J30" s="2" t="inlineStr"/>
+      <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part duration</t>
         </is>
       </c>
-      <c r="M30" s="2" t="n"/>
-      <c r="N30" s="2" t="n"/>
-      <c r="O30" s="2" t="n"/>
-      <c r="P30" s="2" t="n"/>
-      <c r="Q30" s="2" t="n"/>
+      <c r="M30" s="2" t="inlineStr"/>
+      <c r="N30" s="2" t="inlineStr"/>
+      <c r="O30" s="2" t="inlineStr"/>
+      <c r="P30" s="2" t="inlineStr"/>
+      <c r="Q30" s="2" t="inlineStr"/>
       <c r="R30" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2153,8 +2168,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T30" s="2" t="n"/>
-      <c r="U30" s="2" t="n"/>
+      <c r="T30" s="2" t="inlineStr"/>
+      <c r="U30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -2172,28 +2187,28 @@
           <t>A &lt;BCI temporal part frequency statistic&gt; that is the average value calculated from a collection of BCI temporal part frequencies.</t>
         </is>
       </c>
-      <c r="D31" s="2" t="n"/>
+      <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part frequency statistic</t>
         </is>
       </c>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
-      <c r="H31" s="2" t="n"/>
-      <c r="I31" s="2" t="n"/>
-      <c r="J31" s="2" t="n"/>
-      <c r="K31" s="2" t="n"/>
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr"/>
+      <c r="H31" s="2" t="inlineStr"/>
+      <c r="I31" s="2" t="inlineStr"/>
+      <c r="J31" s="2" t="inlineStr"/>
+      <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part frequency</t>
         </is>
       </c>
-      <c r="M31" s="2" t="n"/>
-      <c r="N31" s="2" t="n"/>
-      <c r="O31" s="2" t="n"/>
-      <c r="P31" s="2" t="n"/>
-      <c r="Q31" s="2" t="n"/>
+      <c r="M31" s="2" t="inlineStr"/>
+      <c r="N31" s="2" t="inlineStr"/>
+      <c r="O31" s="2" t="inlineStr"/>
+      <c r="P31" s="2" t="inlineStr"/>
+      <c r="Q31" s="2" t="inlineStr"/>
       <c r="R31" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2204,8 +2219,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T31" s="2" t="n"/>
-      <c r="U31" s="2" t="n"/>
+      <c r="T31" s="2" t="inlineStr"/>
+      <c r="U31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -2223,28 +2238,28 @@
           <t>A &lt;total contact event duration statistic&gt; that is the average value calculated from a collection of total contact event durations.</t>
         </is>
       </c>
-      <c r="D32" s="2" t="n"/>
+      <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr">
         <is>
           <t>total BCI contact event duration statistic</t>
         </is>
       </c>
-      <c r="F32" s="2" t="n"/>
-      <c r="G32" s="2" t="n"/>
-      <c r="H32" s="2" t="n"/>
-      <c r="I32" s="2" t="n"/>
-      <c r="J32" s="2" t="n"/>
-      <c r="K32" s="2" t="n"/>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
+      <c r="H32" s="2" t="inlineStr"/>
+      <c r="I32" s="2" t="inlineStr"/>
+      <c r="J32" s="2" t="inlineStr"/>
+      <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
           <t>total BCI contact event duration</t>
         </is>
       </c>
-      <c r="M32" s="2" t="n"/>
-      <c r="N32" s="2" t="n"/>
-      <c r="O32" s="2" t="n"/>
-      <c r="P32" s="2" t="n"/>
-      <c r="Q32" s="2" t="n"/>
+      <c r="M32" s="2" t="inlineStr"/>
+      <c r="N32" s="2" t="inlineStr"/>
+      <c r="O32" s="2" t="inlineStr"/>
+      <c r="P32" s="2" t="inlineStr"/>
+      <c r="Q32" s="2" t="inlineStr"/>
       <c r="R32" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2255,8 +2270,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T32" s="2" t="n"/>
-      <c r="U32" s="2" t="n"/>
+      <c r="T32" s="2" t="inlineStr"/>
+      <c r="U32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -2274,28 +2289,28 @@
           <t>A &lt;BCI contact event duration statistic&gt; that is the central value of a collection of BCI contact event durations when they are arranged in ascending order.</t>
         </is>
       </c>
-      <c r="D33" s="2" t="n"/>
+      <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="inlineStr">
         <is>
           <t>BCI contact event duration statistic</t>
         </is>
       </c>
-      <c r="F33" s="2" t="n"/>
-      <c r="G33" s="2" t="n"/>
-      <c r="H33" s="2" t="n"/>
-      <c r="I33" s="2" t="n"/>
-      <c r="J33" s="2" t="n"/>
-      <c r="K33" s="2" t="n"/>
+      <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr"/>
+      <c r="H33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="inlineStr"/>
+      <c r="J33" s="2" t="inlineStr"/>
+      <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
           <t>BCI contact event duration</t>
         </is>
       </c>
-      <c r="M33" s="2" t="n"/>
-      <c r="N33" s="2" t="n"/>
-      <c r="O33" s="2" t="n"/>
-      <c r="P33" s="2" t="n"/>
-      <c r="Q33" s="2" t="n"/>
+      <c r="M33" s="2" t="inlineStr"/>
+      <c r="N33" s="2" t="inlineStr"/>
+      <c r="O33" s="2" t="inlineStr"/>
+      <c r="P33" s="2" t="inlineStr"/>
+      <c r="Q33" s="2" t="inlineStr"/>
       <c r="R33" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2306,8 +2321,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T33" s="2" t="n"/>
-      <c r="U33" s="2" t="n"/>
+      <c r="T33" s="2" t="inlineStr"/>
+      <c r="U33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -2325,28 +2340,28 @@
           <t>A &lt;BCI contact event frequency statistic&gt; that is the central value of a collection of  BCI contact event frequencies when they are arranged in ascending order.</t>
         </is>
       </c>
-      <c r="D34" s="2" t="n"/>
+      <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="inlineStr">
         <is>
           <t>BCI contact event frequency statistic</t>
         </is>
       </c>
-      <c r="F34" s="2" t="n"/>
-      <c r="G34" s="2" t="n"/>
-      <c r="H34" s="2" t="n"/>
-      <c r="I34" s="2" t="n"/>
-      <c r="J34" s="2" t="n"/>
-      <c r="K34" s="2" t="n"/>
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr"/>
+      <c r="H34" s="2" t="inlineStr"/>
+      <c r="I34" s="2" t="inlineStr"/>
+      <c r="J34" s="2" t="inlineStr"/>
+      <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
           <t>BCI contact event frequency</t>
         </is>
       </c>
-      <c r="M34" s="2" t="n"/>
-      <c r="N34" s="2" t="n"/>
-      <c r="O34" s="2" t="n"/>
-      <c r="P34" s="2" t="n"/>
-      <c r="Q34" s="2" t="n"/>
+      <c r="M34" s="2" t="inlineStr"/>
+      <c r="N34" s="2" t="inlineStr"/>
+      <c r="O34" s="2" t="inlineStr"/>
+      <c r="P34" s="2" t="inlineStr"/>
+      <c r="Q34" s="2" t="inlineStr"/>
       <c r="R34" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2357,8 +2372,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T34" s="2" t="n"/>
-      <c r="U34" s="2" t="n"/>
+      <c r="T34" s="2" t="inlineStr"/>
+      <c r="U34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -2376,28 +2391,28 @@
           <t>A &lt;BCI contact event number statistic&gt; that is the central value of a collection of  BCI contact event numbers when they are arranged in ascending order.</t>
         </is>
       </c>
-      <c r="D35" s="2" t="n"/>
+      <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="inlineStr">
         <is>
           <t>BCI contact event number statistic</t>
         </is>
       </c>
-      <c r="F35" s="2" t="n"/>
-      <c r="G35" s="2" t="n"/>
-      <c r="H35" s="2" t="n"/>
-      <c r="I35" s="2" t="n"/>
-      <c r="J35" s="2" t="n"/>
-      <c r="K35" s="2" t="n"/>
+      <c r="F35" s="2" t="inlineStr"/>
+      <c r="G35" s="2" t="inlineStr"/>
+      <c r="H35" s="2" t="inlineStr"/>
+      <c r="I35" s="2" t="inlineStr"/>
+      <c r="J35" s="2" t="inlineStr"/>
+      <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
           <t>number of BCI contact events</t>
         </is>
       </c>
-      <c r="M35" s="2" t="n"/>
-      <c r="N35" s="2" t="n"/>
-      <c r="O35" s="2" t="n"/>
-      <c r="P35" s="2" t="n"/>
-      <c r="Q35" s="2" t="n"/>
+      <c r="M35" s="2" t="inlineStr"/>
+      <c r="N35" s="2" t="inlineStr"/>
+      <c r="O35" s="2" t="inlineStr"/>
+      <c r="P35" s="2" t="inlineStr"/>
+      <c r="Q35" s="2" t="inlineStr"/>
       <c r="R35" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2408,8 +2423,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T35" s="2" t="n"/>
-      <c r="U35" s="2" t="n"/>
+      <c r="T35" s="2" t="inlineStr"/>
+      <c r="U35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -2427,28 +2442,28 @@
           <t>A &lt;BCI duration statistic&gt; that is the central value of a collection of BCI durations when they are arranged in ascending order.</t>
         </is>
       </c>
-      <c r="D36" s="2" t="n"/>
+      <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="inlineStr">
         <is>
           <t>BCI duration statistic</t>
         </is>
       </c>
-      <c r="F36" s="2" t="n"/>
-      <c r="G36" s="2" t="n"/>
-      <c r="H36" s="2" t="n"/>
-      <c r="I36" s="2" t="n"/>
-      <c r="J36" s="2" t="n"/>
-      <c r="K36" s="2" t="n"/>
+      <c r="F36" s="2" t="inlineStr"/>
+      <c r="G36" s="2" t="inlineStr"/>
+      <c r="H36" s="2" t="inlineStr"/>
+      <c r="I36" s="2" t="inlineStr"/>
+      <c r="J36" s="2" t="inlineStr"/>
+      <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
           <t>BCI duration</t>
         </is>
       </c>
-      <c r="M36" s="2" t="n"/>
-      <c r="N36" s="2" t="n"/>
-      <c r="O36" s="2" t="n"/>
-      <c r="P36" s="2" t="n"/>
-      <c r="Q36" s="2" t="n"/>
+      <c r="M36" s="2" t="inlineStr"/>
+      <c r="N36" s="2" t="inlineStr"/>
+      <c r="O36" s="2" t="inlineStr"/>
+      <c r="P36" s="2" t="inlineStr"/>
+      <c r="Q36" s="2" t="inlineStr"/>
       <c r="R36" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2459,8 +2474,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T36" s="2" t="n"/>
-      <c r="U36" s="2" t="n"/>
+      <c r="T36" s="2" t="inlineStr"/>
+      <c r="U36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -2478,28 +2493,28 @@
           <t>A &lt;BCI temporal part duration statistic&gt; that is the central value of a collection of BCI temporal part durations when they are arranged in ascending order.</t>
         </is>
       </c>
-      <c r="D37" s="2" t="n"/>
+      <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part duration statistic</t>
         </is>
       </c>
-      <c r="F37" s="2" t="n"/>
-      <c r="G37" s="2" t="n"/>
-      <c r="H37" s="2" t="n"/>
-      <c r="I37" s="2" t="n"/>
-      <c r="J37" s="2" t="n"/>
-      <c r="K37" s="2" t="n"/>
+      <c r="F37" s="2" t="inlineStr"/>
+      <c r="G37" s="2" t="inlineStr"/>
+      <c r="H37" s="2" t="inlineStr"/>
+      <c r="I37" s="2" t="inlineStr"/>
+      <c r="J37" s="2" t="inlineStr"/>
+      <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part duration</t>
         </is>
       </c>
-      <c r="M37" s="2" t="n"/>
-      <c r="N37" s="2" t="n"/>
-      <c r="O37" s="2" t="n"/>
-      <c r="P37" s="2" t="n"/>
-      <c r="Q37" s="2" t="n"/>
+      <c r="M37" s="2" t="inlineStr"/>
+      <c r="N37" s="2" t="inlineStr"/>
+      <c r="O37" s="2" t="inlineStr"/>
+      <c r="P37" s="2" t="inlineStr"/>
+      <c r="Q37" s="2" t="inlineStr"/>
       <c r="R37" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2510,8 +2525,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T37" s="2" t="n"/>
-      <c r="U37" s="2" t="n"/>
+      <c r="T37" s="2" t="inlineStr"/>
+      <c r="U37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -2529,28 +2544,28 @@
           <t>A &lt;BCI temporal part frequency statistic&gt; that is the central value of a collection of BCI temporal part frequencies when they are arranged in ascending order.</t>
         </is>
       </c>
-      <c r="D38" s="2" t="n"/>
+      <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part frequency statistic</t>
         </is>
       </c>
-      <c r="F38" s="2" t="n"/>
-      <c r="G38" s="2" t="n"/>
-      <c r="H38" s="2" t="n"/>
-      <c r="I38" s="2" t="n"/>
-      <c r="J38" s="2" t="n"/>
-      <c r="K38" s="2" t="n"/>
+      <c r="F38" s="2" t="inlineStr"/>
+      <c r="G38" s="2" t="inlineStr"/>
+      <c r="H38" s="2" t="inlineStr"/>
+      <c r="I38" s="2" t="inlineStr"/>
+      <c r="J38" s="2" t="inlineStr"/>
+      <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part frequency</t>
         </is>
       </c>
-      <c r="M38" s="2" t="n"/>
-      <c r="N38" s="2" t="n"/>
-      <c r="O38" s="2" t="n"/>
-      <c r="P38" s="2" t="n"/>
-      <c r="Q38" s="2" t="n"/>
+      <c r="M38" s="2" t="inlineStr"/>
+      <c r="N38" s="2" t="inlineStr"/>
+      <c r="O38" s="2" t="inlineStr"/>
+      <c r="P38" s="2" t="inlineStr"/>
+      <c r="Q38" s="2" t="inlineStr"/>
       <c r="R38" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2561,8 +2576,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T38" s="2" t="n"/>
-      <c r="U38" s="2" t="n"/>
+      <c r="T38" s="2" t="inlineStr"/>
+      <c r="U38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -2580,28 +2595,28 @@
           <t>A &lt;total contact event duration statistic&gt; that is the central value of a collection of total contact event durations when they are arranged in ascending order.</t>
         </is>
       </c>
-      <c r="D39" s="2" t="n"/>
+      <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="inlineStr">
         <is>
           <t>total BCI contact event duration statistic</t>
         </is>
       </c>
-      <c r="F39" s="2" t="n"/>
-      <c r="G39" s="2" t="n"/>
-      <c r="H39" s="2" t="n"/>
-      <c r="I39" s="2" t="n"/>
-      <c r="J39" s="2" t="n"/>
-      <c r="K39" s="2" t="n"/>
+      <c r="F39" s="2" t="inlineStr"/>
+      <c r="G39" s="2" t="inlineStr"/>
+      <c r="H39" s="2" t="inlineStr"/>
+      <c r="I39" s="2" t="inlineStr"/>
+      <c r="J39" s="2" t="inlineStr"/>
+      <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
           <t>total BCI contact event duration</t>
         </is>
       </c>
-      <c r="M39" s="2" t="n"/>
-      <c r="N39" s="2" t="n"/>
-      <c r="O39" s="2" t="n"/>
-      <c r="P39" s="2" t="n"/>
-      <c r="Q39" s="2" t="n"/>
+      <c r="M39" s="2" t="inlineStr"/>
+      <c r="N39" s="2" t="inlineStr"/>
+      <c r="O39" s="2" t="inlineStr"/>
+      <c r="P39" s="2" t="inlineStr"/>
+      <c r="Q39" s="2" t="inlineStr"/>
       <c r="R39" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2612,8 +2627,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T39" s="2" t="n"/>
-      <c r="U39" s="2" t="n"/>
+      <c r="T39" s="2" t="inlineStr"/>
+      <c r="U39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
@@ -2631,28 +2646,28 @@
           <t>A &lt;BCI contact event duration statistic&gt; that is the lowest value from a collection of BCI contact event durations.</t>
         </is>
       </c>
-      <c r="D40" s="2" t="n"/>
+      <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="inlineStr">
         <is>
           <t>BCI contact event duration statistic</t>
         </is>
       </c>
-      <c r="F40" s="2" t="n"/>
-      <c r="G40" s="2" t="n"/>
-      <c r="H40" s="2" t="n"/>
-      <c r="I40" s="2" t="n"/>
-      <c r="J40" s="2" t="n"/>
-      <c r="K40" s="2" t="n"/>
+      <c r="F40" s="2" t="inlineStr"/>
+      <c r="G40" s="2" t="inlineStr"/>
+      <c r="H40" s="2" t="inlineStr"/>
+      <c r="I40" s="2" t="inlineStr"/>
+      <c r="J40" s="2" t="inlineStr"/>
+      <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
           <t>BCI contact event duration</t>
         </is>
       </c>
-      <c r="M40" s="2" t="n"/>
-      <c r="N40" s="2" t="n"/>
-      <c r="O40" s="2" t="n"/>
-      <c r="P40" s="2" t="n"/>
-      <c r="Q40" s="2" t="n"/>
+      <c r="M40" s="2" t="inlineStr"/>
+      <c r="N40" s="2" t="inlineStr"/>
+      <c r="O40" s="2" t="inlineStr"/>
+      <c r="P40" s="2" t="inlineStr"/>
+      <c r="Q40" s="2" t="inlineStr"/>
       <c r="R40" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2663,8 +2678,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T40" s="2" t="n"/>
-      <c r="U40" s="2" t="n"/>
+      <c r="T40" s="2" t="inlineStr"/>
+      <c r="U40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
@@ -2682,28 +2697,28 @@
           <t>A &lt;BCI contact event frequency statistic&gt; that is the lowest value from a collection of BCI contact event frequencies.</t>
         </is>
       </c>
-      <c r="D41" s="2" t="n"/>
+      <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="inlineStr">
         <is>
           <t>BCI contact event frequency statistic</t>
         </is>
       </c>
-      <c r="F41" s="2" t="n"/>
-      <c r="G41" s="2" t="n"/>
-      <c r="H41" s="2" t="n"/>
-      <c r="I41" s="2" t="n"/>
-      <c r="J41" s="2" t="n"/>
-      <c r="K41" s="2" t="n"/>
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr"/>
+      <c r="H41" s="2" t="inlineStr"/>
+      <c r="I41" s="2" t="inlineStr"/>
+      <c r="J41" s="2" t="inlineStr"/>
+      <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
           <t>BCI contact event frequency</t>
         </is>
       </c>
-      <c r="M41" s="2" t="n"/>
-      <c r="N41" s="2" t="n"/>
-      <c r="O41" s="2" t="n"/>
-      <c r="P41" s="2" t="n"/>
-      <c r="Q41" s="2" t="n"/>
+      <c r="M41" s="2" t="inlineStr"/>
+      <c r="N41" s="2" t="inlineStr"/>
+      <c r="O41" s="2" t="inlineStr"/>
+      <c r="P41" s="2" t="inlineStr"/>
+      <c r="Q41" s="2" t="inlineStr"/>
       <c r="R41" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2714,8 +2729,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T41" s="2" t="n"/>
-      <c r="U41" s="2" t="n"/>
+      <c r="T41" s="2" t="inlineStr"/>
+      <c r="U41" s="2" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -2733,28 +2748,28 @@
           <t>A &lt;BCI contact event number statistic&gt; that is the lowest value from a collection of BCI contact event numbers.</t>
         </is>
       </c>
-      <c r="D42" s="2" t="n"/>
+      <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="inlineStr">
         <is>
           <t>BCI contact event number statistic</t>
         </is>
       </c>
-      <c r="F42" s="2" t="n"/>
-      <c r="G42" s="2" t="n"/>
-      <c r="H42" s="2" t="n"/>
-      <c r="I42" s="2" t="n"/>
-      <c r="J42" s="2" t="n"/>
-      <c r="K42" s="2" t="n"/>
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr"/>
+      <c r="H42" s="2" t="inlineStr"/>
+      <c r="I42" s="2" t="inlineStr"/>
+      <c r="J42" s="2" t="inlineStr"/>
+      <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
           <t>number of BCI contact events</t>
         </is>
       </c>
-      <c r="M42" s="2" t="n"/>
-      <c r="N42" s="2" t="n"/>
-      <c r="O42" s="2" t="n"/>
-      <c r="P42" s="2" t="n"/>
-      <c r="Q42" s="2" t="n"/>
+      <c r="M42" s="2" t="inlineStr"/>
+      <c r="N42" s="2" t="inlineStr"/>
+      <c r="O42" s="2" t="inlineStr"/>
+      <c r="P42" s="2" t="inlineStr"/>
+      <c r="Q42" s="2" t="inlineStr"/>
       <c r="R42" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2765,8 +2780,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T42" s="2" t="n"/>
-      <c r="U42" s="2" t="n"/>
+      <c r="T42" s="2" t="inlineStr"/>
+      <c r="U42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -2784,28 +2799,28 @@
           <t>A &lt;BCI duration statistic&gt; that is the lowest value from a collection of BCI durations.</t>
         </is>
       </c>
-      <c r="D43" s="2" t="n"/>
+      <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="inlineStr">
         <is>
           <t>BCI duration statistic</t>
         </is>
       </c>
-      <c r="F43" s="2" t="n"/>
-      <c r="G43" s="2" t="n"/>
-      <c r="H43" s="2" t="n"/>
-      <c r="I43" s="2" t="n"/>
-      <c r="J43" s="2" t="n"/>
-      <c r="K43" s="2" t="n"/>
+      <c r="F43" s="2" t="inlineStr"/>
+      <c r="G43" s="2" t="inlineStr"/>
+      <c r="H43" s="2" t="inlineStr"/>
+      <c r="I43" s="2" t="inlineStr"/>
+      <c r="J43" s="2" t="inlineStr"/>
+      <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
           <t>BCI duration</t>
         </is>
       </c>
-      <c r="M43" s="2" t="n"/>
-      <c r="N43" s="2" t="n"/>
-      <c r="O43" s="2" t="n"/>
-      <c r="P43" s="2" t="n"/>
-      <c r="Q43" s="2" t="n"/>
+      <c r="M43" s="2" t="inlineStr"/>
+      <c r="N43" s="2" t="inlineStr"/>
+      <c r="O43" s="2" t="inlineStr"/>
+      <c r="P43" s="2" t="inlineStr"/>
+      <c r="Q43" s="2" t="inlineStr"/>
       <c r="R43" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2816,8 +2831,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T43" s="2" t="n"/>
-      <c r="U43" s="2" t="n"/>
+      <c r="T43" s="2" t="inlineStr"/>
+      <c r="U43" s="2" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -2835,28 +2850,28 @@
           <t>A &lt;BCI temporal part duration statistic&gt; that denotes the lowest value from a collection of BCI temporal part durations.</t>
         </is>
       </c>
-      <c r="D44" s="2" t="n"/>
+      <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part duration statistic</t>
         </is>
       </c>
-      <c r="F44" s="2" t="n"/>
-      <c r="G44" s="2" t="n"/>
-      <c r="H44" s="2" t="n"/>
-      <c r="I44" s="2" t="n"/>
-      <c r="J44" s="2" t="n"/>
-      <c r="K44" s="2" t="n"/>
+      <c r="F44" s="2" t="inlineStr"/>
+      <c r="G44" s="2" t="inlineStr"/>
+      <c r="H44" s="2" t="inlineStr"/>
+      <c r="I44" s="2" t="inlineStr"/>
+      <c r="J44" s="2" t="inlineStr"/>
+      <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part duration</t>
         </is>
       </c>
-      <c r="M44" s="2" t="n"/>
-      <c r="N44" s="2" t="n"/>
-      <c r="O44" s="2" t="n"/>
-      <c r="P44" s="2" t="n"/>
-      <c r="Q44" s="2" t="n"/>
+      <c r="M44" s="2" t="inlineStr"/>
+      <c r="N44" s="2" t="inlineStr"/>
+      <c r="O44" s="2" t="inlineStr"/>
+      <c r="P44" s="2" t="inlineStr"/>
+      <c r="Q44" s="2" t="inlineStr"/>
       <c r="R44" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2867,8 +2882,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T44" s="2" t="n"/>
-      <c r="U44" s="2" t="n"/>
+      <c r="T44" s="2" t="inlineStr"/>
+      <c r="U44" s="2" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -2886,28 +2901,28 @@
           <t>A &lt;BCI temporal part frequency statistic&gt; that is the lowest value from a collection of BCI temporal part frequencies.</t>
         </is>
       </c>
-      <c r="D45" s="2" t="n"/>
+      <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part frequency statistic</t>
         </is>
       </c>
-      <c r="F45" s="2" t="n"/>
-      <c r="G45" s="2" t="n"/>
-      <c r="H45" s="2" t="n"/>
-      <c r="I45" s="2" t="n"/>
-      <c r="J45" s="2" t="n"/>
-      <c r="K45" s="2" t="n"/>
+      <c r="F45" s="2" t="inlineStr"/>
+      <c r="G45" s="2" t="inlineStr"/>
+      <c r="H45" s="2" t="inlineStr"/>
+      <c r="I45" s="2" t="inlineStr"/>
+      <c r="J45" s="2" t="inlineStr"/>
+      <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part frequency</t>
         </is>
       </c>
-      <c r="M45" s="2" t="n"/>
-      <c r="N45" s="2" t="n"/>
-      <c r="O45" s="2" t="n"/>
-      <c r="P45" s="2" t="n"/>
-      <c r="Q45" s="2" t="n"/>
+      <c r="M45" s="2" t="inlineStr"/>
+      <c r="N45" s="2" t="inlineStr"/>
+      <c r="O45" s="2" t="inlineStr"/>
+      <c r="P45" s="2" t="inlineStr"/>
+      <c r="Q45" s="2" t="inlineStr"/>
       <c r="R45" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2918,8 +2933,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T45" s="2" t="n"/>
-      <c r="U45" s="2" t="n"/>
+      <c r="T45" s="2" t="inlineStr"/>
+      <c r="U45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -2937,28 +2952,28 @@
           <t>A &lt;total contact event duration statistic&gt; that is the lowest value from a collection of total contact event durations.</t>
         </is>
       </c>
-      <c r="D46" s="2" t="n"/>
+      <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="inlineStr">
         <is>
           <t>total BCI contact event duration statistic</t>
         </is>
       </c>
-      <c r="F46" s="2" t="n"/>
-      <c r="G46" s="2" t="n"/>
-      <c r="H46" s="2" t="n"/>
-      <c r="I46" s="2" t="n"/>
-      <c r="J46" s="2" t="n"/>
-      <c r="K46" s="2" t="n"/>
+      <c r="F46" s="2" t="inlineStr"/>
+      <c r="G46" s="2" t="inlineStr"/>
+      <c r="H46" s="2" t="inlineStr"/>
+      <c r="I46" s="2" t="inlineStr"/>
+      <c r="J46" s="2" t="inlineStr"/>
+      <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
           <t>total BCI contact event duration</t>
         </is>
       </c>
-      <c r="M46" s="2" t="n"/>
-      <c r="N46" s="2" t="n"/>
-      <c r="O46" s="2" t="n"/>
-      <c r="P46" s="2" t="n"/>
-      <c r="Q46" s="2" t="n"/>
+      <c r="M46" s="2" t="inlineStr"/>
+      <c r="N46" s="2" t="inlineStr"/>
+      <c r="O46" s="2" t="inlineStr"/>
+      <c r="P46" s="2" t="inlineStr"/>
+      <c r="Q46" s="2" t="inlineStr"/>
       <c r="R46" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2969,8 +2984,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T46" s="2" t="n"/>
-      <c r="U46" s="2" t="n"/>
+      <c r="T46" s="2" t="inlineStr"/>
+      <c r="U46" s="2" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -2998,7 +3013,7 @@
           <t>data item</t>
         </is>
       </c>
-      <c r="F47" s="2" t="n"/>
+      <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
           <t>one; 6; 12; twenty</t>
@@ -3011,23 +3026,23 @@
 This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author </t>
         </is>
       </c>
-      <c r="I47" s="2" t="n"/>
-      <c r="J47" s="2" t="n"/>
-      <c r="K47" s="2" t="n"/>
+      <c r="I47" s="2" t="inlineStr"/>
+      <c r="J47" s="2" t="inlineStr"/>
+      <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
           <t>BCI contact event</t>
         </is>
       </c>
-      <c r="M47" s="2" t="n"/>
-      <c r="N47" s="2" t="n"/>
-      <c r="O47" s="2" t="n"/>
+      <c r="M47" s="2" t="inlineStr"/>
+      <c r="N47" s="2" t="inlineStr"/>
+      <c r="O47" s="2" t="inlineStr"/>
       <c r="P47" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q47" s="2" t="n"/>
+      <c r="Q47" s="2" t="inlineStr"/>
       <c r="R47" s="2" t="inlineStr">
         <is>
           <t>CM; JH; PS</t>
@@ -3043,7 +3058,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U47" s="2" t="n"/>
+      <c r="U47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3061,11 +3076,24 @@
           <t>A region of time.</t>
         </is>
       </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
           <t>occurrent</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
           <t>JH</t>
@@ -3076,6 +3104,8 @@
           <t>External</t>
         </is>
       </c>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -3093,13 +3123,13 @@
           <t>A &lt;BCI attribute&gt; that is the  temporal positioning of BCI temporal parts.</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n"/>
+      <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="inlineStr">
         <is>
           <t>BCI attribute</t>
         </is>
       </c>
-      <c r="F49" s="2" t="n"/>
+      <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
           <t>"After questionnaires were completed, feedback was selected
@@ -3114,9 +3144,9 @@
           <t>This is annotated as an open code when any aspect of order is described</t>
         </is>
       </c>
-      <c r="I49" s="2" t="n"/>
-      <c r="J49" s="2" t="n"/>
-      <c r="K49" s="2" t="n"/>
+      <c r="I49" s="2" t="inlineStr"/>
+      <c r="J49" s="2" t="inlineStr"/>
+      <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">BCI attribute </t>
@@ -3127,10 +3157,10 @@
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="N49" s="2" t="n"/>
-      <c r="O49" s="2" t="n"/>
-      <c r="P49" s="2" t="n"/>
-      <c r="Q49" s="2" t="n"/>
+      <c r="N49" s="2" t="inlineStr"/>
+      <c r="O49" s="2" t="inlineStr"/>
+      <c r="P49" s="2" t="inlineStr"/>
+      <c r="Q49" s="2" t="inlineStr"/>
       <c r="R49" s="2" t="inlineStr">
         <is>
           <t>CM; PS</t>
@@ -3146,7 +3176,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U49" s="2" t="n"/>
+      <c r="U49" s="2" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
@@ -3164,24 +3194,24 @@
           <t>A part of a BCI schedule which is the relation a specified temporal part is in when it occurs whilst another temporal part or timepoint occurs</t>
         </is>
       </c>
-      <c r="D50" s="3" t="n"/>
-      <c r="E50" s="3" t="n"/>
-      <c r="F50" s="3" t="n"/>
-      <c r="G50" s="3" t="n"/>
+      <c r="D50" s="3" t="inlineStr"/>
+      <c r="E50" s="3" t="inlineStr"/>
+      <c r="F50" s="3" t="inlineStr"/>
+      <c r="G50" s="3" t="inlineStr"/>
       <c r="H50" s="3" t="inlineStr">
         <is>
           <t>This is not annotated</t>
         </is>
       </c>
-      <c r="I50" s="3" t="n"/>
-      <c r="J50" s="3" t="n"/>
-      <c r="K50" s="3" t="n"/>
-      <c r="L50" s="3" t="n"/>
-      <c r="M50" s="3" t="n"/>
-      <c r="N50" s="3" t="n"/>
-      <c r="O50" s="3" t="n"/>
-      <c r="P50" s="3" t="n"/>
-      <c r="Q50" s="3" t="n"/>
+      <c r="I50" s="3" t="inlineStr"/>
+      <c r="J50" s="3" t="inlineStr"/>
+      <c r="K50" s="3" t="inlineStr"/>
+      <c r="L50" s="3" t="inlineStr"/>
+      <c r="M50" s="3" t="inlineStr"/>
+      <c r="N50" s="3" t="inlineStr"/>
+      <c r="O50" s="3" t="inlineStr"/>
+      <c r="P50" s="3" t="inlineStr"/>
+      <c r="Q50" s="3" t="inlineStr"/>
       <c r="R50" s="3" t="inlineStr">
         <is>
           <t>CM</t>
@@ -3197,7 +3227,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U50" s="3" t="n"/>
+      <c r="U50" s="3" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
@@ -3215,24 +3245,24 @@
           <t>A part of a BCI schedule which is the relation a specified temporal part is in when it ends prior to the beginning of another temporal part or timepoint</t>
         </is>
       </c>
-      <c r="D51" s="3" t="n"/>
-      <c r="E51" s="3" t="n"/>
-      <c r="F51" s="3" t="n"/>
-      <c r="G51" s="3" t="n"/>
+      <c r="D51" s="3" t="inlineStr"/>
+      <c r="E51" s="3" t="inlineStr"/>
+      <c r="F51" s="3" t="inlineStr"/>
+      <c r="G51" s="3" t="inlineStr"/>
       <c r="H51" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">This is not annotated </t>
         </is>
       </c>
-      <c r="I51" s="3" t="n"/>
-      <c r="J51" s="3" t="n"/>
-      <c r="K51" s="3" t="n"/>
-      <c r="L51" s="3" t="n"/>
-      <c r="M51" s="3" t="n"/>
-      <c r="N51" s="3" t="n"/>
-      <c r="O51" s="3" t="n"/>
-      <c r="P51" s="3" t="n"/>
-      <c r="Q51" s="3" t="n"/>
+      <c r="I51" s="3" t="inlineStr"/>
+      <c r="J51" s="3" t="inlineStr"/>
+      <c r="K51" s="3" t="inlineStr"/>
+      <c r="L51" s="3" t="inlineStr"/>
+      <c r="M51" s="3" t="inlineStr"/>
+      <c r="N51" s="3" t="inlineStr"/>
+      <c r="O51" s="3" t="inlineStr"/>
+      <c r="P51" s="3" t="inlineStr"/>
+      <c r="Q51" s="3" t="inlineStr"/>
       <c r="R51" s="3" t="inlineStr">
         <is>
           <t>CM; RW</t>
@@ -3248,7 +3278,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U51" s="3" t="n"/>
+      <c r="U51" s="3" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
@@ -3276,7 +3306,7 @@
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="F52" s="2" t="n"/>
+      <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
           <t>the length and regularity of sessions were consistent across the duration of the intervention, taking place for an hour each week</t>
@@ -3288,14 +3318,14 @@
 Example annotation in context: "The length and regularity of sessions were consistent across the duration of the intervention" </t>
         </is>
       </c>
-      <c r="I52" s="2" t="n"/>
-      <c r="J52" s="2" t="n"/>
-      <c r="K52" s="2" t="n"/>
-      <c r="L52" s="2" t="n"/>
-      <c r="M52" s="2" t="n"/>
-      <c r="N52" s="2" t="n"/>
-      <c r="O52" s="2" t="n"/>
-      <c r="P52" s="2" t="n"/>
+      <c r="I52" s="2" t="inlineStr"/>
+      <c r="J52" s="2" t="inlineStr"/>
+      <c r="K52" s="2" t="inlineStr"/>
+      <c r="L52" s="2" t="inlineStr"/>
+      <c r="M52" s="2" t="inlineStr"/>
+      <c r="N52" s="2" t="inlineStr"/>
+      <c r="O52" s="2" t="inlineStr"/>
+      <c r="P52" s="2" t="inlineStr"/>
       <c r="Q52" s="2" t="inlineStr">
         <is>
           <t>relationship? is about schedule? or is a type of schedule?</t>
@@ -3316,7 +3346,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U52" s="2" t="n"/>
+      <c r="U52" s="2" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
@@ -3334,24 +3364,24 @@
           <t>A part of a BCI schedule which is the relation a specified temporal part is in when it starts following the end of another temporal part or timepoint</t>
         </is>
       </c>
-      <c r="D53" s="3" t="n"/>
-      <c r="E53" s="3" t="n"/>
-      <c r="F53" s="3" t="n"/>
-      <c r="G53" s="3" t="n"/>
+      <c r="D53" s="3" t="inlineStr"/>
+      <c r="E53" s="3" t="inlineStr"/>
+      <c r="F53" s="3" t="inlineStr"/>
+      <c r="G53" s="3" t="inlineStr"/>
       <c r="H53" s="3" t="inlineStr">
         <is>
           <t>This is not annotated</t>
         </is>
       </c>
-      <c r="I53" s="3" t="n"/>
-      <c r="J53" s="3" t="n"/>
-      <c r="K53" s="3" t="n"/>
-      <c r="L53" s="3" t="n"/>
-      <c r="M53" s="3" t="n"/>
-      <c r="N53" s="3" t="n"/>
-      <c r="O53" s="3" t="n"/>
-      <c r="P53" s="3" t="n"/>
-      <c r="Q53" s="3" t="n"/>
+      <c r="I53" s="3" t="inlineStr"/>
+      <c r="J53" s="3" t="inlineStr"/>
+      <c r="K53" s="3" t="inlineStr"/>
+      <c r="L53" s="3" t="inlineStr"/>
+      <c r="M53" s="3" t="inlineStr"/>
+      <c r="N53" s="3" t="inlineStr"/>
+      <c r="O53" s="3" t="inlineStr"/>
+      <c r="P53" s="3" t="inlineStr"/>
+      <c r="Q53" s="3" t="inlineStr"/>
       <c r="R53" s="3" t="inlineStr">
         <is>
           <t>CM; RW</t>
@@ -3367,7 +3397,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U53" s="3" t="n"/>
+      <c r="U53" s="3" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
@@ -3386,24 +3416,24 @@
 </t>
         </is>
       </c>
-      <c r="D54" s="3" t="n"/>
+      <c r="D54" s="3" t="inlineStr"/>
       <c r="E54" s="3" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="F54" s="3" t="n"/>
-      <c r="G54" s="3" t="n"/>
-      <c r="H54" s="3" t="n"/>
-      <c r="I54" s="3" t="n"/>
-      <c r="J54" s="3" t="n"/>
-      <c r="K54" s="3" t="n"/>
-      <c r="L54" s="3" t="n"/>
-      <c r="M54" s="3" t="n"/>
-      <c r="N54" s="3" t="n"/>
-      <c r="O54" s="3" t="n"/>
-      <c r="P54" s="3" t="n"/>
-      <c r="Q54" s="3" t="n"/>
+      <c r="F54" s="3" t="inlineStr"/>
+      <c r="G54" s="3" t="inlineStr"/>
+      <c r="H54" s="3" t="inlineStr"/>
+      <c r="I54" s="3" t="inlineStr"/>
+      <c r="J54" s="3" t="inlineStr"/>
+      <c r="K54" s="3" t="inlineStr"/>
+      <c r="L54" s="3" t="inlineStr"/>
+      <c r="M54" s="3" t="inlineStr"/>
+      <c r="N54" s="3" t="inlineStr"/>
+      <c r="O54" s="3" t="inlineStr"/>
+      <c r="P54" s="3" t="inlineStr"/>
+      <c r="Q54" s="3" t="inlineStr"/>
       <c r="R54" s="3" t="inlineStr">
         <is>
           <t>JH</t>
@@ -3414,8 +3444,8 @@
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T54" s="3" t="n"/>
-      <c r="U54" s="3" t="n"/>
+      <c r="T54" s="3" t="inlineStr"/>
+      <c r="U54" s="3" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
@@ -3433,28 +3463,28 @@
           <t>A data item between the start and end of an intervention temporal part.</t>
         </is>
       </c>
-      <c r="D55" s="3" t="n"/>
+      <c r="D55" s="3" t="inlineStr"/>
       <c r="E55" s="3" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="F55" s="3" t="n"/>
+      <c r="F55" s="3" t="inlineStr"/>
       <c r="G55" s="3" t="inlineStr">
         <is>
           <t>6 weeks; 2 weeks</t>
         </is>
       </c>
-      <c r="H55" s="3" t="n"/>
-      <c r="I55" s="3" t="n"/>
-      <c r="J55" s="3" t="n"/>
-      <c r="K55" s="3" t="n"/>
-      <c r="L55" s="3" t="n"/>
-      <c r="M55" s="3" t="n"/>
-      <c r="N55" s="3" t="n"/>
-      <c r="O55" s="3" t="n"/>
-      <c r="P55" s="3" t="n"/>
-      <c r="Q55" s="3" t="n"/>
+      <c r="H55" s="3" t="inlineStr"/>
+      <c r="I55" s="3" t="inlineStr"/>
+      <c r="J55" s="3" t="inlineStr"/>
+      <c r="K55" s="3" t="inlineStr"/>
+      <c r="L55" s="3" t="inlineStr"/>
+      <c r="M55" s="3" t="inlineStr"/>
+      <c r="N55" s="3" t="inlineStr"/>
+      <c r="O55" s="3" t="inlineStr"/>
+      <c r="P55" s="3" t="inlineStr"/>
+      <c r="Q55" s="3" t="inlineStr"/>
       <c r="R55" s="3" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3465,8 +3495,8 @@
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T55" s="3" t="n"/>
-      <c r="U55" s="3" t="n"/>
+      <c r="T55" s="3" t="inlineStr"/>
+      <c r="U55" s="3" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
@@ -3511,18 +3541,18 @@
 Example annotation in context: "A feedback call was scheduled to be delivered around 6 months after the birth of the baby".  </t>
         </is>
       </c>
-      <c r="I56" s="2" t="n"/>
+      <c r="I56" s="2" t="inlineStr"/>
       <c r="J56" s="2" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="K56" s="2" t="n"/>
-      <c r="L56" s="2" t="n"/>
-      <c r="M56" s="2" t="n"/>
-      <c r="N56" s="2" t="n"/>
-      <c r="O56" s="2" t="n"/>
-      <c r="P56" s="2" t="n"/>
+      <c r="K56" s="2" t="inlineStr"/>
+      <c r="L56" s="2" t="inlineStr"/>
+      <c r="M56" s="2" t="inlineStr"/>
+      <c r="N56" s="2" t="inlineStr"/>
+      <c r="O56" s="2" t="inlineStr"/>
+      <c r="P56" s="2" t="inlineStr"/>
       <c r="Q56" s="2" t="inlineStr">
         <is>
           <t>check relationships</t>
@@ -3543,7 +3573,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U56" s="2" t="n"/>
+      <c r="U56" s="2" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
@@ -3571,7 +3601,7 @@
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="F57" s="2" t="n"/>
+      <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
           <t>150 minutes; 12 hours</t>
@@ -3585,17 +3615,17 @@
 This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author </t>
         </is>
       </c>
-      <c r="I57" s="2" t="n"/>
-      <c r="J57" s="2" t="n"/>
-      <c r="K57" s="2" t="n"/>
+      <c r="I57" s="2" t="inlineStr"/>
+      <c r="J57" s="2" t="inlineStr"/>
+      <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
           <t>BCI contact event</t>
         </is>
       </c>
-      <c r="M57" s="2" t="n"/>
-      <c r="N57" s="2" t="n"/>
-      <c r="O57" s="2" t="n"/>
+      <c r="M57" s="2" t="inlineStr"/>
+      <c r="N57" s="2" t="inlineStr"/>
+      <c r="O57" s="2" t="inlineStr"/>
       <c r="P57" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
@@ -3643,28 +3673,28 @@
           <t>A &lt;data item&gt; that is about a collection of total contact event durations.</t>
         </is>
       </c>
-      <c r="D58" s="2" t="n"/>
+      <c r="D58" s="2" t="inlineStr"/>
       <c r="E58" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F58" s="2" t="n"/>
-      <c r="G58" s="2" t="n"/>
-      <c r="H58" s="2" t="n"/>
-      <c r="I58" s="2" t="n"/>
-      <c r="J58" s="2" t="n"/>
-      <c r="K58" s="2" t="n"/>
+      <c r="F58" s="2" t="inlineStr"/>
+      <c r="G58" s="2" t="inlineStr"/>
+      <c r="H58" s="2" t="inlineStr"/>
+      <c r="I58" s="2" t="inlineStr"/>
+      <c r="J58" s="2" t="inlineStr"/>
+      <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr">
         <is>
           <t>total BCI contact event duration</t>
         </is>
       </c>
-      <c r="M58" s="2" t="n"/>
-      <c r="N58" s="2" t="n"/>
-      <c r="O58" s="2" t="n"/>
-      <c r="P58" s="2" t="n"/>
-      <c r="Q58" s="2" t="n"/>
+      <c r="M58" s="2" t="inlineStr"/>
+      <c r="N58" s="2" t="inlineStr"/>
+      <c r="O58" s="2" t="inlineStr"/>
+      <c r="P58" s="2" t="inlineStr"/>
+      <c r="Q58" s="2" t="inlineStr"/>
       <c r="R58" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3675,8 +3705,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T58" s="2" t="n"/>
-      <c r="U58" s="2" t="n"/>
+      <c r="T58" s="2" t="inlineStr"/>
+      <c r="U58" s="2" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
@@ -3694,9 +3724,9 @@
           <t>A data item that is the number of repetitions of contact events within a temporal part or BCI for which the frequency is described</t>
         </is>
       </c>
-      <c r="D59" s="3" t="n"/>
-      <c r="E59" s="3" t="n"/>
-      <c r="F59" s="3" t="n"/>
+      <c r="D59" s="3" t="inlineStr"/>
+      <c r="E59" s="3" t="inlineStr"/>
+      <c r="F59" s="3" t="inlineStr"/>
       <c r="G59" s="3" t="inlineStr">
         <is>
           <t>Participants received "3" emails every 2 weeks</t>
@@ -3707,23 +3737,23 @@
           <t>This is annotated when a frequency is described using a period and a number of repetitions, rather than a single word.</t>
         </is>
       </c>
-      <c r="I59" s="3" t="n"/>
-      <c r="J59" s="3" t="n"/>
-      <c r="K59" s="3" t="n"/>
+      <c r="I59" s="3" t="inlineStr"/>
+      <c r="J59" s="3" t="inlineStr"/>
+      <c r="K59" s="3" t="inlineStr"/>
       <c r="L59" s="3" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="M59" s="3" t="n"/>
-      <c r="N59" s="3" t="n"/>
-      <c r="O59" s="3" t="n"/>
+      <c r="M59" s="3" t="inlineStr"/>
+      <c r="N59" s="3" t="inlineStr"/>
+      <c r="O59" s="3" t="inlineStr"/>
       <c r="P59" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q59" s="3" t="n"/>
+      <c r="Q59" s="3" t="inlineStr"/>
       <c r="R59" s="3" t="inlineStr">
         <is>
           <t>CM</t>
@@ -3761,13 +3791,13 @@
           <t>A data item that is the sum duration of a subset of contact events in a BCI or temporal part</t>
         </is>
       </c>
-      <c r="D60" s="3" t="n"/>
+      <c r="D60" s="3" t="inlineStr"/>
       <c r="E60" s="3" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F60" s="3" t="n"/>
+      <c r="F60" s="3" t="inlineStr"/>
       <c r="G60" s="3" t="inlineStr">
         <is>
           <t>The participants took part in "90" minutes of PA weekly</t>
@@ -3778,17 +3808,17 @@
           <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
         </is>
       </c>
-      <c r="I60" s="3" t="n"/>
-      <c r="J60" s="3" t="n"/>
-      <c r="K60" s="3" t="n"/>
+      <c r="I60" s="3" t="inlineStr"/>
+      <c r="J60" s="3" t="inlineStr"/>
+      <c r="K60" s="3" t="inlineStr"/>
       <c r="L60" s="3" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="M60" s="3" t="n"/>
-      <c r="N60" s="3" t="n"/>
-      <c r="O60" s="3" t="n"/>
+      <c r="M60" s="3" t="inlineStr"/>
+      <c r="N60" s="3" t="inlineStr"/>
+      <c r="O60" s="3" t="inlineStr"/>
       <c r="P60" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
@@ -3836,13 +3866,13 @@
           <t>A data item which describes how often a specified sum duration of contact events occured during a BCI or temporal part</t>
         </is>
       </c>
-      <c r="D61" s="3" t="n"/>
+      <c r="D61" s="3" t="inlineStr"/>
       <c r="E61" s="3" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F61" s="3" t="n"/>
+      <c r="F61" s="3" t="inlineStr"/>
       <c r="G61" s="3" t="inlineStr">
         <is>
           <t>The participants took part in 90 minutes of PA "weekly"</t>
@@ -3853,17 +3883,17 @@
           <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
         </is>
       </c>
-      <c r="I61" s="3" t="n"/>
-      <c r="J61" s="3" t="n"/>
-      <c r="K61" s="3" t="n"/>
+      <c r="I61" s="3" t="inlineStr"/>
+      <c r="J61" s="3" t="inlineStr"/>
+      <c r="K61" s="3" t="inlineStr"/>
       <c r="L61" s="3" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="M61" s="3" t="n"/>
-      <c r="N61" s="3" t="n"/>
-      <c r="O61" s="3" t="n"/>
+      <c r="M61" s="3" t="inlineStr"/>
+      <c r="N61" s="3" t="inlineStr"/>
+      <c r="O61" s="3" t="inlineStr"/>
       <c r="P61" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
@@ -3911,36 +3941,36 @@
           <t>A temporal interval that is the length of time from start to end of an intervention temporal part</t>
         </is>
       </c>
-      <c r="D62" s="3" t="n"/>
+      <c r="D62" s="3" t="inlineStr"/>
       <c r="E62" s="3" t="inlineStr">
         <is>
           <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
         </is>
       </c>
-      <c r="F62" s="3" t="n"/>
+      <c r="F62" s="3" t="inlineStr"/>
       <c r="G62" s="3" t="inlineStr">
         <is>
           <t>Participants received 3 emails every "2" weeks</t>
         </is>
       </c>
-      <c r="H62" s="3" t="n"/>
-      <c r="I62" s="3" t="n"/>
-      <c r="J62" s="3" t="n"/>
-      <c r="K62" s="3" t="n"/>
+      <c r="H62" s="3" t="inlineStr"/>
+      <c r="I62" s="3" t="inlineStr"/>
+      <c r="J62" s="3" t="inlineStr"/>
+      <c r="K62" s="3" t="inlineStr"/>
       <c r="L62" s="3" t="inlineStr">
         <is>
           <t>intervention temporal part</t>
         </is>
       </c>
-      <c r="M62" s="3" t="n"/>
-      <c r="N62" s="3" t="n"/>
-      <c r="O62" s="3" t="n"/>
+      <c r="M62" s="3" t="inlineStr"/>
+      <c r="N62" s="3" t="inlineStr"/>
+      <c r="O62" s="3" t="inlineStr"/>
       <c r="P62" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q62" s="3" t="n"/>
+      <c r="Q62" s="3" t="inlineStr"/>
       <c r="R62" s="3" t="inlineStr">
         <is>
           <t>CM</t>
@@ -3973,24 +4003,24 @@
           <t>z) interval (remove)</t>
         </is>
       </c>
-      <c r="C63" s="3" t="n"/>
-      <c r="D63" s="3" t="n"/>
-      <c r="E63" s="3" t="n"/>
-      <c r="F63" s="3" t="n"/>
-      <c r="G63" s="3" t="n"/>
+      <c r="C63" s="3" t="inlineStr"/>
+      <c r="D63" s="3" t="inlineStr"/>
+      <c r="E63" s="3" t="inlineStr"/>
+      <c r="F63" s="3" t="inlineStr"/>
+      <c r="G63" s="3" t="inlineStr"/>
       <c r="H63" s="3" t="inlineStr">
         <is>
           <t>This is not annotated but included due to relationship with duration of interval</t>
         </is>
       </c>
-      <c r="I63" s="3" t="n"/>
-      <c r="J63" s="3" t="n"/>
-      <c r="K63" s="3" t="n"/>
-      <c r="L63" s="3" t="n"/>
-      <c r="M63" s="3" t="n"/>
-      <c r="N63" s="3" t="n"/>
-      <c r="O63" s="3" t="n"/>
-      <c r="P63" s="3" t="n"/>
+      <c r="I63" s="3" t="inlineStr"/>
+      <c r="J63" s="3" t="inlineStr"/>
+      <c r="K63" s="3" t="inlineStr"/>
+      <c r="L63" s="3" t="inlineStr"/>
+      <c r="M63" s="3" t="inlineStr"/>
+      <c r="N63" s="3" t="inlineStr"/>
+      <c r="O63" s="3" t="inlineStr"/>
+      <c r="P63" s="3" t="inlineStr"/>
       <c r="Q63" s="3" t="inlineStr">
         <is>
           <t>entity added so duration of interval can be specified. not sure what parent/relationships should be</t>
@@ -4011,7 +4041,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U63" s="3" t="n"/>
+      <c r="U63" s="3" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
@@ -4029,7 +4059,7 @@
           <t>An attribute of a BCI schedule of delivery that is how often intervention temporal parts occur within a BCI.</t>
         </is>
       </c>
-      <c r="D64" s="3" t="n"/>
+      <c r="D64" s="3" t="inlineStr"/>
       <c r="E64" s="3" t="inlineStr">
         <is>
           <t>process attribute</t>
@@ -4040,7 +4070,7 @@
           <t>Contact events are intervention temporal parts so this entity also describes the frequency of contact events.</t>
         </is>
       </c>
-      <c r="G64" s="3" t="n"/>
+      <c r="G64" s="3" t="inlineStr"/>
       <c r="H64" s="3" t="inlineStr">
         <is>
           <t>This is used to capture descriptions of the frequency of contact events within a part. 
@@ -4048,23 +4078,23 @@
 intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks"</t>
         </is>
       </c>
-      <c r="I64" s="3" t="n"/>
-      <c r="J64" s="3" t="n"/>
-      <c r="K64" s="3" t="n"/>
+      <c r="I64" s="3" t="inlineStr"/>
+      <c r="J64" s="3" t="inlineStr"/>
+      <c r="K64" s="3" t="inlineStr"/>
       <c r="L64" s="3" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="M64" s="3" t="n"/>
-      <c r="N64" s="3" t="n"/>
-      <c r="O64" s="3" t="n"/>
+      <c r="M64" s="3" t="inlineStr"/>
+      <c r="N64" s="3" t="inlineStr"/>
+      <c r="O64" s="3" t="inlineStr"/>
       <c r="P64" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q64" s="3" t="n"/>
+      <c r="Q64" s="3" t="inlineStr"/>
       <c r="R64" s="3" t="inlineStr">
         <is>
           <t>CM</t>

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -1715,7 +1715,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050490</t>
+          <t>BCIO:050908</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -2072,7 +2072,7 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050494</t>
+          <t>BCIO:050909</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -1868,7 +1868,7 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050491</t>
+          <t>BCIO:050910</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -1970,7 +1970,7 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050492</t>
+          <t>BCIO:050911</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -2021,7 +2021,7 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050493</t>
+          <t>BCIO:050912</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -3061,76 +3061,29 @@
       <c r="U47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>BFO:0000038</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>one-dimensional temporal region</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>A region of time.</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="inlineStr">
+      <c r="A48" s="2" t="inlineStr">
         <is>
           <t>BCIO:008580</t>
         </is>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">order of BCI temporal parts </t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>A &lt;BCI attribute&gt; that is the  temporal positioning of BCI temporal parts.</t>
         </is>
       </c>
-      <c r="D49" s="2" t="inlineStr"/>
-      <c r="E49" s="2" t="inlineStr">
+      <c r="D48" s="2" t="inlineStr"/>
+      <c r="E48" s="2" t="inlineStr">
         <is>
           <t>BCI attribute</t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr"/>
-      <c r="G49" s="2" t="inlineStr">
+      <c r="F48" s="2" t="inlineStr"/>
+      <c r="G48" s="2" t="inlineStr">
         <is>
           <t>"After questionnaires were completed, feedback was selected
 out of a database with messages for each possible combination
@@ -3139,59 +3092,110 @@
 levels to the PA guidelines."</t>
         </is>
       </c>
-      <c r="H49" s="2" t="inlineStr">
+      <c r="H48" s="2" t="inlineStr">
         <is>
           <t>This is annotated as an open code when any aspect of order is described</t>
         </is>
       </c>
-      <c r="I49" s="2" t="inlineStr"/>
-      <c r="J49" s="2" t="inlineStr"/>
-      <c r="K49" s="2" t="inlineStr"/>
-      <c r="L49" s="2" t="inlineStr">
+      <c r="I48" s="2" t="inlineStr"/>
+      <c r="J48" s="2" t="inlineStr"/>
+      <c r="K48" s="2" t="inlineStr"/>
+      <c r="L48" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">BCI attribute </t>
         </is>
       </c>
-      <c r="M49" s="2" t="inlineStr">
+      <c r="M48" s="2" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="N49" s="2" t="inlineStr"/>
-      <c r="O49" s="2" t="inlineStr"/>
-      <c r="P49" s="2" t="inlineStr"/>
-      <c r="Q49" s="2" t="inlineStr"/>
-      <c r="R49" s="2" t="inlineStr">
+      <c r="N48" s="2" t="inlineStr"/>
+      <c r="O48" s="2" t="inlineStr"/>
+      <c r="P48" s="2" t="inlineStr"/>
+      <c r="Q48" s="2" t="inlineStr"/>
+      <c r="R48" s="2" t="inlineStr">
         <is>
           <t>CM; PS</t>
         </is>
       </c>
-      <c r="S49" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T49" s="2" t="inlineStr">
+      <c r="S48" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T48" s="2" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U49" s="2" t="inlineStr"/>
+      <c r="U48" s="2" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:008595</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>q) same time (remove - this is a relation like before and after)</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it occurs whilst another temporal part or timepoint occurs</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="inlineStr"/>
+      <c r="E49" s="3" t="inlineStr"/>
+      <c r="F49" s="3" t="inlineStr"/>
+      <c r="G49" s="3" t="inlineStr"/>
+      <c r="H49" s="3" t="inlineStr">
+        <is>
+          <t>This is not annotated</t>
+        </is>
+      </c>
+      <c r="I49" s="3" t="inlineStr"/>
+      <c r="J49" s="3" t="inlineStr"/>
+      <c r="K49" s="3" t="inlineStr"/>
+      <c r="L49" s="3" t="inlineStr"/>
+      <c r="M49" s="3" t="inlineStr"/>
+      <c r="N49" s="3" t="inlineStr"/>
+      <c r="O49" s="3" t="inlineStr"/>
+      <c r="P49" s="3" t="inlineStr"/>
+      <c r="Q49" s="3" t="inlineStr"/>
+      <c r="R49" s="3" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="S49" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T49" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="U49" s="3" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>BCIO:008595</t>
+          <t>BCIO:008585</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>q) same time (remove - this is a relation like before and after)</t>
+          <t>r) before (to be removed and added to list of relations)</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it occurs whilst another temporal part or timepoint occurs</t>
+          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it ends prior to the beginning of another temporal part or timepoint</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr"/>
@@ -3200,7 +3204,7 @@
       <c r="G50" s="3" t="inlineStr"/>
       <c r="H50" s="3" t="inlineStr">
         <is>
-          <t>This is not annotated</t>
+          <t xml:space="preserve">This is not annotated </t>
         </is>
       </c>
       <c r="I50" s="3" t="inlineStr"/>
@@ -3214,7 +3218,7 @@
       <c r="Q50" s="3" t="inlineStr"/>
       <c r="R50" s="3" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>CM; RW</t>
         </is>
       </c>
       <c r="S50" s="3" t="inlineStr">
@@ -3230,174 +3234,170 @@
       <c r="U50" s="3" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:008585</t>
-        </is>
-      </c>
-      <c r="B51" s="3" t="inlineStr">
-        <is>
-          <t>r) before (to be removed and added to list of relations)</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it ends prior to the beginning of another temporal part or timepoint</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="inlineStr"/>
-      <c r="E51" s="3" t="inlineStr"/>
-      <c r="F51" s="3" t="inlineStr"/>
-      <c r="G51" s="3" t="inlineStr"/>
-      <c r="H51" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This is not annotated </t>
-        </is>
-      </c>
-      <c r="I51" s="3" t="inlineStr"/>
-      <c r="J51" s="3" t="inlineStr"/>
-      <c r="K51" s="3" t="inlineStr"/>
-      <c r="L51" s="3" t="inlineStr"/>
-      <c r="M51" s="3" t="inlineStr"/>
-      <c r="N51" s="3" t="inlineStr"/>
-      <c r="O51" s="3" t="inlineStr"/>
-      <c r="P51" s="3" t="inlineStr"/>
-      <c r="Q51" s="3" t="inlineStr"/>
-      <c r="R51" s="3" t="inlineStr">
-        <is>
-          <t>CM; RW</t>
-        </is>
-      </c>
-      <c r="S51" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T51" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="U51" s="3" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="inlineStr">
+      <c r="A51" s="2" t="inlineStr">
         <is>
           <t>BCIO:008535</t>
         </is>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>regular intervention schedule</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A &lt;BCI schedule of delivery&gt; in which the frequency and duration of Intervention temporal parts are uniform across the course of a BCI or BCI part.  </t>
         </is>
       </c>
-      <c r="D52" s="2" t="inlineStr">
+      <c r="D51" s="2" t="inlineStr">
         <is>
           <t>A type of schedule which plans that the duration and frequency of sessions or digital contacts remain constant across the course of an intervention</t>
         </is>
       </c>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr"/>
-      <c r="G52" s="2" t="inlineStr">
+      <c r="F51" s="2" t="inlineStr"/>
+      <c r="G51" s="2" t="inlineStr">
         <is>
           <t>the length and regularity of sessions were consistent across the duration of the intervention, taking place for an hour each week</t>
         </is>
       </c>
-      <c r="H52" s="2" t="inlineStr">
+      <c r="H51" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">This is used to capture when the author specifies that the schedule (length and frequency of contact events) does not change over the course of a part. This is rarely annotated as it is not usually explicitly stated. 
 Example annotation in context: "The length and regularity of sessions were consistent across the duration of the intervention" </t>
         </is>
       </c>
-      <c r="I52" s="2" t="inlineStr"/>
-      <c r="J52" s="2" t="inlineStr"/>
-      <c r="K52" s="2" t="inlineStr"/>
-      <c r="L52" s="2" t="inlineStr"/>
-      <c r="M52" s="2" t="inlineStr"/>
-      <c r="N52" s="2" t="inlineStr"/>
-      <c r="O52" s="2" t="inlineStr"/>
-      <c r="P52" s="2" t="inlineStr"/>
-      <c r="Q52" s="2" t="inlineStr">
+      <c r="I51" s="2" t="inlineStr"/>
+      <c r="J51" s="2" t="inlineStr"/>
+      <c r="K51" s="2" t="inlineStr"/>
+      <c r="L51" s="2" t="inlineStr"/>
+      <c r="M51" s="2" t="inlineStr"/>
+      <c r="N51" s="2" t="inlineStr"/>
+      <c r="O51" s="2" t="inlineStr"/>
+      <c r="P51" s="2" t="inlineStr"/>
+      <c r="Q51" s="2" t="inlineStr">
         <is>
           <t>relationship? is about schedule? or is a type of schedule?</t>
         </is>
       </c>
-      <c r="R52" s="2" t="inlineStr">
+      <c r="R51" s="2" t="inlineStr">
         <is>
           <t>CM; JH; PS</t>
         </is>
       </c>
-      <c r="S52" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T52" s="2" t="inlineStr">
+      <c r="S51" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T51" s="2" t="inlineStr">
         <is>
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U52" s="2" t="inlineStr"/>
+      <c r="U51" s="2" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:008590</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>s) after (to be removed and added to list of relations)</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it starts following the end of another temporal part or timepoint</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr"/>
+      <c r="E52" s="3" t="inlineStr"/>
+      <c r="F52" s="3" t="inlineStr"/>
+      <c r="G52" s="3" t="inlineStr"/>
+      <c r="H52" s="3" t="inlineStr">
+        <is>
+          <t>This is not annotated</t>
+        </is>
+      </c>
+      <c r="I52" s="3" t="inlineStr"/>
+      <c r="J52" s="3" t="inlineStr"/>
+      <c r="K52" s="3" t="inlineStr"/>
+      <c r="L52" s="3" t="inlineStr"/>
+      <c r="M52" s="3" t="inlineStr"/>
+      <c r="N52" s="3" t="inlineStr"/>
+      <c r="O52" s="3" t="inlineStr"/>
+      <c r="P52" s="3" t="inlineStr"/>
+      <c r="Q52" s="3" t="inlineStr"/>
+      <c r="R52" s="3" t="inlineStr">
+        <is>
+          <t>CM; RW</t>
+        </is>
+      </c>
+      <c r="S52" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T52" s="3" t="inlineStr">
+        <is>
+          <t>JH, SM, RW</t>
+        </is>
+      </c>
+      <c r="U52" s="3" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:008590</t>
-        </is>
-      </c>
-      <c r="B53" s="3" t="inlineStr">
-        <is>
-          <t>s) after (to be removed and added to list of relations)</t>
-        </is>
-      </c>
-      <c r="C53" s="3" t="inlineStr">
-        <is>
-          <t>A part of a BCI schedule which is the relation a specified temporal part is in when it starts following the end of another temporal part or timepoint</t>
-        </is>
-      </c>
-      <c r="D53" s="3" t="inlineStr"/>
-      <c r="E53" s="3" t="inlineStr"/>
-      <c r="F53" s="3" t="inlineStr"/>
-      <c r="G53" s="3" t="inlineStr"/>
-      <c r="H53" s="3" t="inlineStr">
-        <is>
-          <t>This is not annotated</t>
-        </is>
-      </c>
-      <c r="I53" s="3" t="inlineStr"/>
-      <c r="J53" s="3" t="inlineStr"/>
-      <c r="K53" s="3" t="inlineStr"/>
-      <c r="L53" s="3" t="inlineStr"/>
-      <c r="M53" s="3" t="inlineStr"/>
-      <c r="N53" s="3" t="inlineStr"/>
-      <c r="O53" s="3" t="inlineStr"/>
-      <c r="P53" s="3" t="inlineStr"/>
-      <c r="Q53" s="3" t="inlineStr"/>
-      <c r="R53" s="3" t="inlineStr">
-        <is>
-          <t>CM; RW</t>
-        </is>
-      </c>
-      <c r="S53" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T53" s="3" t="inlineStr">
-        <is>
-          <t>JH, SM, RW</t>
-        </is>
-      </c>
-      <c r="U53" s="3" t="inlineStr"/>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>BFO:0000038</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>temporal interval</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A region of time.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>JH; PS</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -3365,7 +3365,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>A region of time.</t>
+          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -561,7 +561,7 @@
           <t xml:space="preserve">A &lt;BCI temporal part&gt; that is an occasion in which a member of a BCI population comes into contact with a BCI.  </t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="n"/>
       <c r="E2" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part</t>
@@ -577,16 +577,16 @@
           <t>A counselling session; An online chat session; An advertisement display.</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr"/>
-      <c r="I2" s="2" t="inlineStr"/>
-      <c r="J2" s="2" t="inlineStr"/>
-      <c r="K2" s="2" t="inlineStr"/>
-      <c r="L2" s="2" t="inlineStr"/>
-      <c r="M2" s="2" t="inlineStr"/>
-      <c r="N2" s="2" t="inlineStr"/>
-      <c r="O2" s="2" t="inlineStr"/>
-      <c r="P2" s="2" t="inlineStr"/>
-      <c r="Q2" s="2" t="inlineStr"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="2" t="n"/>
+      <c r="N2" s="2" t="n"/>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="n"/>
+      <c r="Q2" s="2" t="n"/>
       <c r="R2" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -597,8 +597,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T2" s="2" t="inlineStr"/>
-      <c r="U2" s="2" t="inlineStr"/>
+      <c r="T2" s="2" t="n"/>
+      <c r="U2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -616,32 +616,32 @@
           <t>A &lt;temporal interval&gt; between the start and end of a BCI contact event.</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="inlineStr">
         <is>
           <t>1 hour; 30 minutes; 2 minutes</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr"/>
-      <c r="I3" s="2" t="inlineStr"/>
-      <c r="J3" s="2" t="inlineStr"/>
-      <c r="K3" s="2" t="inlineStr"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="inlineStr">
         <is>
           <t>BCI contact event</t>
         </is>
       </c>
-      <c r="M3" s="2" t="inlineStr"/>
-      <c r="N3" s="2" t="inlineStr"/>
-      <c r="O3" s="2" t="inlineStr"/>
-      <c r="P3" s="2" t="inlineStr"/>
-      <c r="Q3" s="2" t="inlineStr"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
       <c r="R3" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -652,8 +652,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T3" s="2" t="inlineStr"/>
-      <c r="U3" s="2" t="inlineStr"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -671,28 +671,28 @@
           <t>A &lt;data item&gt; that is about a collection of BCI contact event durations.</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="n"/>
       <c r="E4" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr"/>
-      <c r="G4" s="2" t="inlineStr"/>
-      <c r="H4" s="2" t="inlineStr"/>
-      <c r="I4" s="2" t="inlineStr"/>
-      <c r="J4" s="2" t="inlineStr"/>
-      <c r="K4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
+      <c r="K4" s="2" t="n"/>
       <c r="L4" s="2" t="inlineStr">
         <is>
           <t>BCI contact event duration</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr"/>
-      <c r="N4" s="2" t="inlineStr"/>
-      <c r="O4" s="2" t="inlineStr"/>
-      <c r="P4" s="2" t="inlineStr"/>
-      <c r="Q4" s="2" t="inlineStr"/>
+      <c r="M4" s="2" t="n"/>
+      <c r="N4" s="2" t="n"/>
+      <c r="O4" s="2" t="n"/>
+      <c r="P4" s="2" t="n"/>
+      <c r="Q4" s="2" t="n"/>
       <c r="R4" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -703,8 +703,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T4" s="2" t="inlineStr"/>
-      <c r="U4" s="2" t="inlineStr"/>
+      <c r="T4" s="2" t="n"/>
+      <c r="U4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -732,7 +732,7 @@
           <t>data item</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="n"/>
       <c r="G5" s="2" t="inlineStr">
         <is>
           <t>twice a week; daily; one a week</t>
@@ -744,19 +744,19 @@
 Example annotation (in context): intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks" </t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr"/>
-      <c r="J5" s="2" t="inlineStr"/>
-      <c r="K5" s="2" t="inlineStr"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
+      <c r="K5" s="2" t="n"/>
       <c r="L5" s="2" t="inlineStr">
         <is>
           <t>BCI contact event</t>
         </is>
       </c>
-      <c r="M5" s="2" t="inlineStr"/>
-      <c r="N5" s="2" t="inlineStr"/>
-      <c r="O5" s="2" t="inlineStr"/>
-      <c r="P5" s="2" t="inlineStr"/>
-      <c r="Q5" s="2" t="inlineStr"/>
+      <c r="M5" s="2" t="n"/>
+      <c r="N5" s="2" t="n"/>
+      <c r="O5" s="2" t="n"/>
+      <c r="P5" s="2" t="n"/>
+      <c r="Q5" s="2" t="n"/>
       <c r="R5" s="2" t="inlineStr">
         <is>
           <t>CM; JH; PS</t>
@@ -767,8 +767,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T5" s="2" t="inlineStr"/>
-      <c r="U5" s="2" t="inlineStr"/>
+      <c r="T5" s="2" t="n"/>
+      <c r="U5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -786,28 +786,28 @@
           <t>A &lt;data item&gt; that is about a collection of BCI contact event frequencies.</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr"/>
+      <c r="D6" s="2" t="n"/>
       <c r="E6" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr"/>
-      <c r="G6" s="2" t="inlineStr"/>
-      <c r="H6" s="2" t="inlineStr"/>
-      <c r="I6" s="2" t="inlineStr"/>
-      <c r="J6" s="2" t="inlineStr"/>
-      <c r="K6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="2" t="n"/>
       <c r="L6" s="2" t="inlineStr">
         <is>
           <t>BCI contact event frequency</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr"/>
-      <c r="N6" s="2" t="inlineStr"/>
-      <c r="O6" s="2" t="inlineStr"/>
-      <c r="P6" s="2" t="inlineStr"/>
-      <c r="Q6" s="2" t="inlineStr"/>
+      <c r="M6" s="2" t="n"/>
+      <c r="N6" s="2" t="n"/>
+      <c r="O6" s="2" t="n"/>
+      <c r="P6" s="2" t="n"/>
+      <c r="Q6" s="2" t="n"/>
       <c r="R6" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -818,8 +818,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T6" s="2" t="inlineStr"/>
-      <c r="U6" s="2" t="inlineStr"/>
+      <c r="T6" s="2" t="n"/>
+      <c r="U6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -837,28 +837,28 @@
           <t>A &lt;data item&gt; that is about a collection of BCI contact event numbers.</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="n"/>
       <c r="E7" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr"/>
-      <c r="G7" s="2" t="inlineStr"/>
-      <c r="H7" s="2" t="inlineStr"/>
-      <c r="I7" s="2" t="inlineStr"/>
-      <c r="J7" s="2" t="inlineStr"/>
-      <c r="K7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="2" t="n"/>
+      <c r="J7" s="2" t="n"/>
+      <c r="K7" s="2" t="n"/>
       <c r="L7" s="2" t="inlineStr">
         <is>
           <t>number of BCI contact events</t>
         </is>
       </c>
-      <c r="M7" s="2" t="inlineStr"/>
-      <c r="N7" s="2" t="inlineStr"/>
-      <c r="O7" s="2" t="inlineStr"/>
-      <c r="P7" s="2" t="inlineStr"/>
-      <c r="Q7" s="2" t="inlineStr"/>
+      <c r="M7" s="2" t="n"/>
+      <c r="N7" s="2" t="n"/>
+      <c r="O7" s="2" t="n"/>
+      <c r="P7" s="2" t="n"/>
+      <c r="Q7" s="2" t="n"/>
       <c r="R7" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -869,8 +869,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T7" s="2" t="inlineStr"/>
-      <c r="U7" s="2" t="inlineStr"/>
+      <c r="T7" s="2" t="n"/>
+      <c r="U7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -898,7 +898,7 @@
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="n"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
           <t>6 weeks; 2 months; 1 year</t>
@@ -911,23 +911,23 @@
 This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr"/>
-      <c r="J8" s="2" t="inlineStr"/>
-      <c r="K8" s="2" t="inlineStr"/>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="2" t="n"/>
       <c r="L8" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr"/>
-      <c r="N8" s="2" t="inlineStr"/>
-      <c r="O8" s="2" t="inlineStr"/>
+      <c r="M8" s="2" t="n"/>
+      <c r="N8" s="2" t="n"/>
+      <c r="O8" s="2" t="n"/>
       <c r="P8" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q8" s="2" t="inlineStr"/>
+      <c r="Q8" s="2" t="n"/>
       <c r="R8" s="2" t="inlineStr">
         <is>
           <t>CM; RW; JH; PS</t>
@@ -943,7 +943,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U8" s="2" t="inlineStr"/>
+      <c r="U8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -961,28 +961,28 @@
           <t>A &lt;data item&gt; that is about a collection of BCI durations.</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr"/>
+      <c r="D9" s="2" t="n"/>
       <c r="E9" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr"/>
-      <c r="G9" s="2" t="inlineStr"/>
-      <c r="H9" s="2" t="inlineStr"/>
-      <c r="I9" s="2" t="inlineStr"/>
-      <c r="J9" s="2" t="inlineStr"/>
-      <c r="K9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="n"/>
+      <c r="G9" s="2" t="n"/>
+      <c r="H9" s="2" t="n"/>
+      <c r="I9" s="2" t="n"/>
+      <c r="J9" s="2" t="n"/>
+      <c r="K9" s="2" t="n"/>
       <c r="L9" s="2" t="inlineStr">
         <is>
           <t>BCI duration</t>
         </is>
       </c>
-      <c r="M9" s="2" t="inlineStr"/>
-      <c r="N9" s="2" t="inlineStr"/>
-      <c r="O9" s="2" t="inlineStr"/>
-      <c r="P9" s="2" t="inlineStr"/>
-      <c r="Q9" s="2" t="inlineStr"/>
+      <c r="M9" s="2" t="n"/>
+      <c r="N9" s="2" t="n"/>
+      <c r="O9" s="2" t="n"/>
+      <c r="P9" s="2" t="n"/>
+      <c r="Q9" s="2" t="n"/>
       <c r="R9" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -993,8 +993,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T9" s="2" t="inlineStr"/>
-      <c r="U9" s="2" t="inlineStr"/>
+      <c r="T9" s="2" t="n"/>
+      <c r="U9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -1012,7 +1012,7 @@
           <t xml:space="preserve">A &lt;BCI attribute&gt; that is its temporal organisation </t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr"/>
+      <c r="D10" s="2" t="n"/>
       <c r="E10" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">BCI attribute </t>
@@ -1023,21 +1023,21 @@
           <t>Includes the start and end of a BCI, its parts, and their organisation around relevant timepoints.</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr"/>
-      <c r="H10" s="2" t="inlineStr"/>
-      <c r="I10" s="2" t="inlineStr"/>
-      <c r="J10" s="2" t="inlineStr"/>
-      <c r="K10" s="2" t="inlineStr"/>
-      <c r="L10" s="2" t="inlineStr"/>
+      <c r="G10" s="2" t="n"/>
+      <c r="H10" s="2" t="n"/>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="2" t="n"/>
+      <c r="L10" s="2" t="n"/>
       <c r="M10" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention delivery</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr"/>
-      <c r="O10" s="2" t="inlineStr"/>
-      <c r="P10" s="2" t="inlineStr"/>
-      <c r="Q10" s="2" t="inlineStr"/>
+      <c r="N10" s="2" t="n"/>
+      <c r="O10" s="2" t="n"/>
+      <c r="P10" s="2" t="n"/>
+      <c r="Q10" s="2" t="n"/>
       <c r="R10" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1048,8 +1048,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T10" s="2" t="inlineStr"/>
-      <c r="U10" s="2" t="inlineStr"/>
+      <c r="T10" s="2" t="n"/>
+      <c r="U10" s="2" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -1094,19 +1094,19 @@
 The "counselling sessions" took place each week for 6 weeks, and lasted roughly one hour; During the "first 6 weeks", participants received a phone call every two weeks, then for the "last 4 weeks", this was reduced to a weekly call;</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr"/>
+      <c r="I11" s="2" t="n"/>
       <c r="J11" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention</t>
         </is>
       </c>
-      <c r="K11" s="2" t="inlineStr"/>
-      <c r="L11" s="2" t="inlineStr"/>
-      <c r="M11" s="2" t="inlineStr"/>
-      <c r="N11" s="2" t="inlineStr"/>
-      <c r="O11" s="2" t="inlineStr"/>
-      <c r="P11" s="2" t="inlineStr"/>
-      <c r="Q11" s="2" t="inlineStr"/>
+      <c r="K11" s="2" t="n"/>
+      <c r="L11" s="2" t="n"/>
+      <c r="M11" s="2" t="n"/>
+      <c r="N11" s="2" t="n"/>
+      <c r="O11" s="2" t="n"/>
+      <c r="P11" s="2" t="n"/>
+      <c r="Q11" s="2" t="n"/>
       <c r="R11" s="2" t="inlineStr">
         <is>
           <t>CM; EJH; PS</t>
@@ -1122,7 +1122,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U11" s="2" t="inlineStr"/>
+      <c r="U11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -1150,7 +1150,7 @@
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="n"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
           <t>6 weeks; 2 weeks</t>
@@ -1163,23 +1163,23 @@
 This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author </t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr"/>
-      <c r="J12" s="2" t="inlineStr"/>
-      <c r="K12" s="2" t="inlineStr"/>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
+      <c r="K12" s="2" t="n"/>
       <c r="L12" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part</t>
         </is>
       </c>
-      <c r="M12" s="2" t="inlineStr"/>
-      <c r="N12" s="2" t="inlineStr"/>
-      <c r="O12" s="2" t="inlineStr"/>
+      <c r="M12" s="2" t="n"/>
+      <c r="N12" s="2" t="n"/>
+      <c r="O12" s="2" t="n"/>
       <c r="P12" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q12" s="2" t="inlineStr"/>
+      <c r="Q12" s="2" t="n"/>
       <c r="R12" s="2" t="inlineStr">
         <is>
           <t>CM; JH; PS</t>
@@ -1195,7 +1195,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U12" s="2" t="inlineStr"/>
+      <c r="U12" s="2" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -1213,28 +1213,28 @@
           <t>A &lt;data item&gt; that is about a collection of intervention temporal part durations.</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr"/>
+      <c r="D13" s="2" t="n"/>
       <c r="E13" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr"/>
-      <c r="G13" s="2" t="inlineStr"/>
-      <c r="H13" s="2" t="inlineStr"/>
-      <c r="I13" s="2" t="inlineStr"/>
-      <c r="J13" s="2" t="inlineStr"/>
-      <c r="K13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="n"/>
+      <c r="G13" s="2" t="n"/>
+      <c r="H13" s="2" t="n"/>
+      <c r="I13" s="2" t="n"/>
+      <c r="J13" s="2" t="n"/>
+      <c r="K13" s="2" t="n"/>
       <c r="L13" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part duration</t>
         </is>
       </c>
-      <c r="M13" s="2" t="inlineStr"/>
-      <c r="N13" s="2" t="inlineStr"/>
-      <c r="O13" s="2" t="inlineStr"/>
-      <c r="P13" s="2" t="inlineStr"/>
-      <c r="Q13" s="2" t="inlineStr"/>
+      <c r="M13" s="2" t="n"/>
+      <c r="N13" s="2" t="n"/>
+      <c r="O13" s="2" t="n"/>
+      <c r="P13" s="2" t="n"/>
+      <c r="Q13" s="2" t="n"/>
       <c r="R13" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1245,8 +1245,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T13" s="2" t="inlineStr"/>
-      <c r="U13" s="2" t="inlineStr"/>
+      <c r="T13" s="2" t="n"/>
+      <c r="U13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -1290,19 +1290,19 @@
 Example annotation in context: Participants took part in 90 minutes of PA "weekly" </t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr"/>
-      <c r="J14" s="2" t="inlineStr"/>
-      <c r="K14" s="2" t="inlineStr"/>
+      <c r="I14" s="2" t="n"/>
+      <c r="J14" s="2" t="n"/>
+      <c r="K14" s="2" t="n"/>
       <c r="L14" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part</t>
         </is>
       </c>
-      <c r="M14" s="2" t="inlineStr"/>
-      <c r="N14" s="2" t="inlineStr"/>
-      <c r="O14" s="2" t="inlineStr"/>
-      <c r="P14" s="2" t="inlineStr"/>
-      <c r="Q14" s="2" t="inlineStr"/>
+      <c r="M14" s="2" t="n"/>
+      <c r="N14" s="2" t="n"/>
+      <c r="O14" s="2" t="n"/>
+      <c r="P14" s="2" t="n"/>
+      <c r="Q14" s="2" t="n"/>
       <c r="R14" s="2" t="inlineStr">
         <is>
           <t>CM; JH; PS</t>
@@ -1313,8 +1313,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T14" s="2" t="inlineStr"/>
-      <c r="U14" s="2" t="inlineStr"/>
+      <c r="T14" s="2" t="n"/>
+      <c r="U14" s="2" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -1332,28 +1332,28 @@
           <t>A &lt;data item&gt; that is about a collection of BCI temporal part frequencies.</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr"/>
+      <c r="D15" s="2" t="n"/>
       <c r="E15" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr"/>
-      <c r="G15" s="2" t="inlineStr"/>
-      <c r="H15" s="2" t="inlineStr"/>
-      <c r="I15" s="2" t="inlineStr"/>
-      <c r="J15" s="2" t="inlineStr"/>
-      <c r="K15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="n"/>
+      <c r="G15" s="2" t="n"/>
+      <c r="H15" s="2" t="n"/>
+      <c r="I15" s="2" t="n"/>
+      <c r="J15" s="2" t="n"/>
+      <c r="K15" s="2" t="n"/>
       <c r="L15" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part frequency</t>
         </is>
       </c>
-      <c r="M15" s="2" t="inlineStr"/>
-      <c r="N15" s="2" t="inlineStr"/>
-      <c r="O15" s="2" t="inlineStr"/>
-      <c r="P15" s="2" t="inlineStr"/>
-      <c r="Q15" s="2" t="inlineStr"/>
+      <c r="M15" s="2" t="n"/>
+      <c r="N15" s="2" t="n"/>
+      <c r="O15" s="2" t="n"/>
+      <c r="P15" s="2" t="n"/>
+      <c r="Q15" s="2" t="n"/>
       <c r="R15" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1364,8 +1364,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T15" s="2" t="inlineStr"/>
-      <c r="U15" s="2" t="inlineStr"/>
+      <c r="T15" s="2" t="n"/>
+      <c r="U15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1383,24 +1383,11 @@
           <t>A physical quality which inheres in a bearer by virtue of the number of the bearer's repetitive actions in a particular time.</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
           <t>JH; PS</t>
@@ -1411,8 +1398,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -1440,7 +1425,7 @@
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="n"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
           <t>"2 weeks"; "1 day"</t>
@@ -1453,23 +1438,23 @@
 This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author </t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr"/>
-      <c r="J17" s="2" t="inlineStr"/>
-      <c r="K17" s="2" t="inlineStr"/>
+      <c r="I17" s="2" t="n"/>
+      <c r="J17" s="2" t="n"/>
+      <c r="K17" s="2" t="n"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr"/>
-      <c r="N17" s="2" t="inlineStr"/>
-      <c r="O17" s="2" t="inlineStr"/>
+      <c r="M17" s="2" t="n"/>
+      <c r="N17" s="2" t="n"/>
+      <c r="O17" s="2" t="n"/>
       <c r="P17" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q17" s="2" t="inlineStr"/>
+      <c r="Q17" s="2" t="n"/>
       <c r="R17" s="2" t="inlineStr">
         <is>
           <t>CM; JH; PS</t>
@@ -1485,7 +1470,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U17" s="2" t="inlineStr"/>
+      <c r="U17" s="2" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -1513,7 +1498,7 @@
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="n"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
           <t>telephone feedback sessions were more frequent during the first 6 weeks; participants were free to access the app whenever they desired</t>
@@ -1525,19 +1510,15 @@
 Example annotation in context: "participants were free to access the app as and when they desired";"telephone feedback sessions were more frequent during the first 6 weeks" </t>
         </is>
       </c>
-      <c r="I18" s="2" t="inlineStr"/>
-      <c r="J18" s="2" t="inlineStr"/>
-      <c r="K18" s="2" t="inlineStr"/>
-      <c r="L18" s="2" t="inlineStr"/>
-      <c r="M18" s="2" t="inlineStr"/>
-      <c r="N18" s="2" t="inlineStr"/>
-      <c r="O18" s="2" t="inlineStr"/>
-      <c r="P18" s="2" t="inlineStr"/>
-      <c r="Q18" s="2" t="inlineStr">
-        <is>
-          <t>relationship? is about schedule? or is a type of schedule?</t>
-        </is>
-      </c>
+      <c r="I18" s="2" t="n"/>
+      <c r="J18" s="2" t="n"/>
+      <c r="K18" s="2" t="n"/>
+      <c r="L18" s="2" t="n"/>
+      <c r="M18" s="2" t="n"/>
+      <c r="N18" s="2" t="n"/>
+      <c r="O18" s="2" t="n"/>
+      <c r="P18" s="2" t="n"/>
+      <c r="Q18" s="2" t="inlineStr"/>
       <c r="R18" s="2" t="inlineStr">
         <is>
           <t>CM; JH; PS</t>
@@ -1575,28 +1556,28 @@
           <t>A &lt;BCI contact event duration statistic&gt; that is the highest value from a collection of BCI contact event durations.</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr"/>
+      <c r="D19" s="2" t="n"/>
       <c r="E19" s="2" t="inlineStr">
         <is>
           <t>BCI contact event duration statistic</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr"/>
-      <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr"/>
-      <c r="J19" s="2" t="inlineStr"/>
-      <c r="K19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="n"/>
+      <c r="G19" s="2" t="n"/>
+      <c r="H19" s="2" t="n"/>
+      <c r="I19" s="2" t="n"/>
+      <c r="J19" s="2" t="n"/>
+      <c r="K19" s="2" t="n"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
           <t>BCI contact event duration</t>
         </is>
       </c>
-      <c r="M19" s="2" t="inlineStr"/>
-      <c r="N19" s="2" t="inlineStr"/>
-      <c r="O19" s="2" t="inlineStr"/>
-      <c r="P19" s="2" t="inlineStr"/>
-      <c r="Q19" s="2" t="inlineStr"/>
+      <c r="M19" s="2" t="n"/>
+      <c r="N19" s="2" t="n"/>
+      <c r="O19" s="2" t="n"/>
+      <c r="P19" s="2" t="n"/>
+      <c r="Q19" s="2" t="n"/>
       <c r="R19" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1607,8 +1588,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T19" s="2" t="inlineStr"/>
-      <c r="U19" s="2" t="inlineStr"/>
+      <c r="T19" s="2" t="n"/>
+      <c r="U19" s="2" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -1626,28 +1607,28 @@
           <t>A &lt;BCI contact event frequency statistic&gt; that is the highest value from a collection of BCI contact event frequencies.</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr"/>
+      <c r="D20" s="2" t="n"/>
       <c r="E20" s="2" t="inlineStr">
         <is>
           <t>BCI contact event frequency statistic</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr"/>
-      <c r="H20" s="2" t="inlineStr"/>
-      <c r="I20" s="2" t="inlineStr"/>
-      <c r="J20" s="2" t="inlineStr"/>
-      <c r="K20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="n"/>
+      <c r="G20" s="2" t="n"/>
+      <c r="H20" s="2" t="n"/>
+      <c r="I20" s="2" t="n"/>
+      <c r="J20" s="2" t="n"/>
+      <c r="K20" s="2" t="n"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
           <t>BCI contact event frequency</t>
         </is>
       </c>
-      <c r="M20" s="2" t="inlineStr"/>
-      <c r="N20" s="2" t="inlineStr"/>
-      <c r="O20" s="2" t="inlineStr"/>
-      <c r="P20" s="2" t="inlineStr"/>
-      <c r="Q20" s="2" t="inlineStr"/>
+      <c r="M20" s="2" t="n"/>
+      <c r="N20" s="2" t="n"/>
+      <c r="O20" s="2" t="n"/>
+      <c r="P20" s="2" t="n"/>
+      <c r="Q20" s="2" t="n"/>
       <c r="R20" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1658,8 +1639,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T20" s="2" t="inlineStr"/>
-      <c r="U20" s="2" t="inlineStr"/>
+      <c r="T20" s="2" t="n"/>
+      <c r="U20" s="2" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -1677,28 +1658,28 @@
           <t>A &lt;BCI contact event number statistic&gt; that is the highest value from a collection of BCI contact event numbers.</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr"/>
+      <c r="D21" s="2" t="n"/>
       <c r="E21" s="2" t="inlineStr">
         <is>
           <t>BCI contact event number statistic</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr"/>
-      <c r="H21" s="2" t="inlineStr"/>
-      <c r="I21" s="2" t="inlineStr"/>
-      <c r="J21" s="2" t="inlineStr"/>
-      <c r="K21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="n"/>
+      <c r="G21" s="2" t="n"/>
+      <c r="H21" s="2" t="n"/>
+      <c r="I21" s="2" t="n"/>
+      <c r="J21" s="2" t="n"/>
+      <c r="K21" s="2" t="n"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
           <t>number of BCI contact events</t>
         </is>
       </c>
-      <c r="M21" s="2" t="inlineStr"/>
-      <c r="N21" s="2" t="inlineStr"/>
-      <c r="O21" s="2" t="inlineStr"/>
-      <c r="P21" s="2" t="inlineStr"/>
-      <c r="Q21" s="2" t="inlineStr"/>
+      <c r="M21" s="2" t="n"/>
+      <c r="N21" s="2" t="n"/>
+      <c r="O21" s="2" t="n"/>
+      <c r="P21" s="2" t="n"/>
+      <c r="Q21" s="2" t="n"/>
       <c r="R21" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1709,8 +1690,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T21" s="2" t="inlineStr"/>
-      <c r="U21" s="2" t="inlineStr"/>
+      <c r="T21" s="2" t="n"/>
+      <c r="U21" s="2" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
@@ -1728,28 +1709,28 @@
           <t>A &lt;BCI duration statistic&gt; that is the highest value from a collection of BCI durations.</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr"/>
+      <c r="D22" s="2" t="n"/>
       <c r="E22" s="2" t="inlineStr">
         <is>
           <t>BCI duration statistic</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr"/>
-      <c r="G22" s="2" t="inlineStr"/>
-      <c r="H22" s="2" t="inlineStr"/>
-      <c r="I22" s="2" t="inlineStr"/>
-      <c r="J22" s="2" t="inlineStr"/>
-      <c r="K22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="n"/>
+      <c r="G22" s="2" t="n"/>
+      <c r="H22" s="2" t="n"/>
+      <c r="I22" s="2" t="n"/>
+      <c r="J22" s="2" t="n"/>
+      <c r="K22" s="2" t="n"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
           <t>BCI duration</t>
         </is>
       </c>
-      <c r="M22" s="2" t="inlineStr"/>
-      <c r="N22" s="2" t="inlineStr"/>
-      <c r="O22" s="2" t="inlineStr"/>
-      <c r="P22" s="2" t="inlineStr"/>
-      <c r="Q22" s="2" t="inlineStr"/>
+      <c r="M22" s="2" t="n"/>
+      <c r="N22" s="2" t="n"/>
+      <c r="O22" s="2" t="n"/>
+      <c r="P22" s="2" t="n"/>
+      <c r="Q22" s="2" t="n"/>
       <c r="R22" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1760,8 +1741,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T22" s="2" t="inlineStr"/>
-      <c r="U22" s="2" t="inlineStr"/>
+      <c r="T22" s="2" t="n"/>
+      <c r="U22" s="2" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
@@ -1779,28 +1760,28 @@
           <t>A &lt;BCI temporal part duration statistic&gt; that denotes the highest value from a collection of BCI temporal part durations.</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr"/>
+      <c r="D23" s="2" t="n"/>
       <c r="E23" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part duration statistic</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr"/>
-      <c r="G23" s="2" t="inlineStr"/>
-      <c r="H23" s="2" t="inlineStr"/>
-      <c r="I23" s="2" t="inlineStr"/>
-      <c r="J23" s="2" t="inlineStr"/>
-      <c r="K23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="n"/>
+      <c r="G23" s="2" t="n"/>
+      <c r="H23" s="2" t="n"/>
+      <c r="I23" s="2" t="n"/>
+      <c r="J23" s="2" t="n"/>
+      <c r="K23" s="2" t="n"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part duration</t>
         </is>
       </c>
-      <c r="M23" s="2" t="inlineStr"/>
-      <c r="N23" s="2" t="inlineStr"/>
-      <c r="O23" s="2" t="inlineStr"/>
-      <c r="P23" s="2" t="inlineStr"/>
-      <c r="Q23" s="2" t="inlineStr"/>
+      <c r="M23" s="2" t="n"/>
+      <c r="N23" s="2" t="n"/>
+      <c r="O23" s="2" t="n"/>
+      <c r="P23" s="2" t="n"/>
+      <c r="Q23" s="2" t="n"/>
       <c r="R23" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1811,8 +1792,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T23" s="2" t="inlineStr"/>
-      <c r="U23" s="2" t="inlineStr"/>
+      <c r="T23" s="2" t="n"/>
+      <c r="U23" s="2" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
@@ -1830,28 +1811,28 @@
           <t>A &lt;BCI temporal part frequency statistic&gt; that is the highest value from a collection of BCI temporal part frequencies.</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr"/>
+      <c r="D24" s="2" t="n"/>
       <c r="E24" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part frequency statistic</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr"/>
-      <c r="G24" s="2" t="inlineStr"/>
-      <c r="H24" s="2" t="inlineStr"/>
-      <c r="I24" s="2" t="inlineStr"/>
-      <c r="J24" s="2" t="inlineStr"/>
-      <c r="K24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="n"/>
+      <c r="G24" s="2" t="n"/>
+      <c r="H24" s="2" t="n"/>
+      <c r="I24" s="2" t="n"/>
+      <c r="J24" s="2" t="n"/>
+      <c r="K24" s="2" t="n"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part frequency</t>
         </is>
       </c>
-      <c r="M24" s="2" t="inlineStr"/>
-      <c r="N24" s="2" t="inlineStr"/>
-      <c r="O24" s="2" t="inlineStr"/>
-      <c r="P24" s="2" t="inlineStr"/>
-      <c r="Q24" s="2" t="inlineStr"/>
+      <c r="M24" s="2" t="n"/>
+      <c r="N24" s="2" t="n"/>
+      <c r="O24" s="2" t="n"/>
+      <c r="P24" s="2" t="n"/>
+      <c r="Q24" s="2" t="n"/>
       <c r="R24" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1862,8 +1843,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T24" s="2" t="inlineStr"/>
-      <c r="U24" s="2" t="inlineStr"/>
+      <c r="T24" s="2" t="n"/>
+      <c r="U24" s="2" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -1881,28 +1862,28 @@
           <t>A &lt;total contact event duration statistic&gt; that is the highest value from a collection of total contact event durations.</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr"/>
+      <c r="D25" s="2" t="n"/>
       <c r="E25" s="2" t="inlineStr">
         <is>
           <t>total BCI contact event duration statistic</t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr"/>
-      <c r="G25" s="2" t="inlineStr"/>
-      <c r="H25" s="2" t="inlineStr"/>
-      <c r="I25" s="2" t="inlineStr"/>
-      <c r="J25" s="2" t="inlineStr"/>
-      <c r="K25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="n"/>
+      <c r="G25" s="2" t="n"/>
+      <c r="H25" s="2" t="n"/>
+      <c r="I25" s="2" t="n"/>
+      <c r="J25" s="2" t="n"/>
+      <c r="K25" s="2" t="n"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
           <t>total BCI contact event duration</t>
         </is>
       </c>
-      <c r="M25" s="2" t="inlineStr"/>
-      <c r="N25" s="2" t="inlineStr"/>
-      <c r="O25" s="2" t="inlineStr"/>
-      <c r="P25" s="2" t="inlineStr"/>
-      <c r="Q25" s="2" t="inlineStr"/>
+      <c r="M25" s="2" t="n"/>
+      <c r="N25" s="2" t="n"/>
+      <c r="O25" s="2" t="n"/>
+      <c r="P25" s="2" t="n"/>
+      <c r="Q25" s="2" t="n"/>
       <c r="R25" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1913,8 +1894,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T25" s="2" t="inlineStr"/>
-      <c r="U25" s="2" t="inlineStr"/>
+      <c r="T25" s="2" t="n"/>
+      <c r="U25" s="2" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -1932,28 +1913,28 @@
           <t>A &lt;BCI contact event duration statistic&gt; that is the average value calculated from a collection of BCI contact event durations.</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr"/>
+      <c r="D26" s="2" t="n"/>
       <c r="E26" s="2" t="inlineStr">
         <is>
           <t>BCI contact event duration statistic</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr"/>
-      <c r="G26" s="2" t="inlineStr"/>
-      <c r="H26" s="2" t="inlineStr"/>
-      <c r="I26" s="2" t="inlineStr"/>
-      <c r="J26" s="2" t="inlineStr"/>
-      <c r="K26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="n"/>
+      <c r="G26" s="2" t="n"/>
+      <c r="H26" s="2" t="n"/>
+      <c r="I26" s="2" t="n"/>
+      <c r="J26" s="2" t="n"/>
+      <c r="K26" s="2" t="n"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
           <t>BCI contact event duration</t>
         </is>
       </c>
-      <c r="M26" s="2" t="inlineStr"/>
-      <c r="N26" s="2" t="inlineStr"/>
-      <c r="O26" s="2" t="inlineStr"/>
-      <c r="P26" s="2" t="inlineStr"/>
-      <c r="Q26" s="2" t="inlineStr"/>
+      <c r="M26" s="2" t="n"/>
+      <c r="N26" s="2" t="n"/>
+      <c r="O26" s="2" t="n"/>
+      <c r="P26" s="2" t="n"/>
+      <c r="Q26" s="2" t="n"/>
       <c r="R26" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1964,8 +1945,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T26" s="2" t="inlineStr"/>
-      <c r="U26" s="2" t="inlineStr"/>
+      <c r="T26" s="2" t="n"/>
+      <c r="U26" s="2" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
@@ -1983,28 +1964,28 @@
           <t>A &lt;BCI contact event frequency statistic&gt; that is the average value calculated from a collection of BCI contact event frequencies.</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr"/>
+      <c r="D27" s="2" t="n"/>
       <c r="E27" s="2" t="inlineStr">
         <is>
           <t>BCI contact event frequency statistic</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr"/>
-      <c r="G27" s="2" t="inlineStr"/>
-      <c r="H27" s="2" t="inlineStr"/>
-      <c r="I27" s="2" t="inlineStr"/>
-      <c r="J27" s="2" t="inlineStr"/>
-      <c r="K27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="n"/>
+      <c r="G27" s="2" t="n"/>
+      <c r="H27" s="2" t="n"/>
+      <c r="I27" s="2" t="n"/>
+      <c r="J27" s="2" t="n"/>
+      <c r="K27" s="2" t="n"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
           <t>BCI contact event frequency</t>
         </is>
       </c>
-      <c r="M27" s="2" t="inlineStr"/>
-      <c r="N27" s="2" t="inlineStr"/>
-      <c r="O27" s="2" t="inlineStr"/>
-      <c r="P27" s="2" t="inlineStr"/>
-      <c r="Q27" s="2" t="inlineStr"/>
+      <c r="M27" s="2" t="n"/>
+      <c r="N27" s="2" t="n"/>
+      <c r="O27" s="2" t="n"/>
+      <c r="P27" s="2" t="n"/>
+      <c r="Q27" s="2" t="n"/>
       <c r="R27" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2015,8 +1996,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T27" s="2" t="inlineStr"/>
-      <c r="U27" s="2" t="inlineStr"/>
+      <c r="T27" s="2" t="n"/>
+      <c r="U27" s="2" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
@@ -2034,28 +2015,28 @@
           <t>A &lt;BCI contact event number statistic&gt; that is the average value calculated from a collection of BCI contact event numbers.</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr"/>
+      <c r="D28" s="2" t="n"/>
       <c r="E28" s="2" t="inlineStr">
         <is>
           <t>BCI contact event number statistic</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr"/>
-      <c r="G28" s="2" t="inlineStr"/>
-      <c r="H28" s="2" t="inlineStr"/>
-      <c r="I28" s="2" t="inlineStr"/>
-      <c r="J28" s="2" t="inlineStr"/>
-      <c r="K28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="n"/>
+      <c r="G28" s="2" t="n"/>
+      <c r="H28" s="2" t="n"/>
+      <c r="I28" s="2" t="n"/>
+      <c r="J28" s="2" t="n"/>
+      <c r="K28" s="2" t="n"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
           <t>number of BCI contact events</t>
         </is>
       </c>
-      <c r="M28" s="2" t="inlineStr"/>
-      <c r="N28" s="2" t="inlineStr"/>
-      <c r="O28" s="2" t="inlineStr"/>
-      <c r="P28" s="2" t="inlineStr"/>
-      <c r="Q28" s="2" t="inlineStr"/>
+      <c r="M28" s="2" t="n"/>
+      <c r="N28" s="2" t="n"/>
+      <c r="O28" s="2" t="n"/>
+      <c r="P28" s="2" t="n"/>
+      <c r="Q28" s="2" t="n"/>
       <c r="R28" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2066,8 +2047,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T28" s="2" t="inlineStr"/>
-      <c r="U28" s="2" t="inlineStr"/>
+      <c r="T28" s="2" t="n"/>
+      <c r="U28" s="2" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -2085,28 +2066,28 @@
           <t>A &lt;BCI duration statistic&gt; that is the average value calculated from a collection of BCI durations.</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr"/>
+      <c r="D29" s="2" t="n"/>
       <c r="E29" s="2" t="inlineStr">
         <is>
           <t>BCI duration statistic</t>
         </is>
       </c>
-      <c r="F29" s="2" t="inlineStr"/>
-      <c r="G29" s="2" t="inlineStr"/>
-      <c r="H29" s="2" t="inlineStr"/>
-      <c r="I29" s="2" t="inlineStr"/>
-      <c r="J29" s="2" t="inlineStr"/>
-      <c r="K29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="n"/>
+      <c r="G29" s="2" t="n"/>
+      <c r="H29" s="2" t="n"/>
+      <c r="I29" s="2" t="n"/>
+      <c r="J29" s="2" t="n"/>
+      <c r="K29" s="2" t="n"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
           <t>BCI duration</t>
         </is>
       </c>
-      <c r="M29" s="2" t="inlineStr"/>
-      <c r="N29" s="2" t="inlineStr"/>
-      <c r="O29" s="2" t="inlineStr"/>
-      <c r="P29" s="2" t="inlineStr"/>
-      <c r="Q29" s="2" t="inlineStr"/>
+      <c r="M29" s="2" t="n"/>
+      <c r="N29" s="2" t="n"/>
+      <c r="O29" s="2" t="n"/>
+      <c r="P29" s="2" t="n"/>
+      <c r="Q29" s="2" t="n"/>
       <c r="R29" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2117,8 +2098,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T29" s="2" t="inlineStr"/>
-      <c r="U29" s="2" t="inlineStr"/>
+      <c r="T29" s="2" t="n"/>
+      <c r="U29" s="2" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -2136,28 +2117,28 @@
           <t>A &lt;BCI temporal part duration statistic&gt; that is the average value calculated from a collection of BCI temporal part durations.</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr"/>
+      <c r="D30" s="2" t="n"/>
       <c r="E30" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part duration statistic</t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr"/>
-      <c r="G30" s="2" t="inlineStr"/>
-      <c r="H30" s="2" t="inlineStr"/>
-      <c r="I30" s="2" t="inlineStr"/>
-      <c r="J30" s="2" t="inlineStr"/>
-      <c r="K30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="n"/>
+      <c r="G30" s="2" t="n"/>
+      <c r="H30" s="2" t="n"/>
+      <c r="I30" s="2" t="n"/>
+      <c r="J30" s="2" t="n"/>
+      <c r="K30" s="2" t="n"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part duration</t>
         </is>
       </c>
-      <c r="M30" s="2" t="inlineStr"/>
-      <c r="N30" s="2" t="inlineStr"/>
-      <c r="O30" s="2" t="inlineStr"/>
-      <c r="P30" s="2" t="inlineStr"/>
-      <c r="Q30" s="2" t="inlineStr"/>
+      <c r="M30" s="2" t="n"/>
+      <c r="N30" s="2" t="n"/>
+      <c r="O30" s="2" t="n"/>
+      <c r="P30" s="2" t="n"/>
+      <c r="Q30" s="2" t="n"/>
       <c r="R30" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2168,8 +2149,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T30" s="2" t="inlineStr"/>
-      <c r="U30" s="2" t="inlineStr"/>
+      <c r="T30" s="2" t="n"/>
+      <c r="U30" s="2" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -2187,28 +2168,28 @@
           <t>A &lt;BCI temporal part frequency statistic&gt; that is the average value calculated from a collection of BCI temporal part frequencies.</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr"/>
+      <c r="D31" s="2" t="n"/>
       <c r="E31" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part frequency statistic</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr"/>
-      <c r="G31" s="2" t="inlineStr"/>
-      <c r="H31" s="2" t="inlineStr"/>
-      <c r="I31" s="2" t="inlineStr"/>
-      <c r="J31" s="2" t="inlineStr"/>
-      <c r="K31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="n"/>
+      <c r="G31" s="2" t="n"/>
+      <c r="H31" s="2" t="n"/>
+      <c r="I31" s="2" t="n"/>
+      <c r="J31" s="2" t="n"/>
+      <c r="K31" s="2" t="n"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part frequency</t>
         </is>
       </c>
-      <c r="M31" s="2" t="inlineStr"/>
-      <c r="N31" s="2" t="inlineStr"/>
-      <c r="O31" s="2" t="inlineStr"/>
-      <c r="P31" s="2" t="inlineStr"/>
-      <c r="Q31" s="2" t="inlineStr"/>
+      <c r="M31" s="2" t="n"/>
+      <c r="N31" s="2" t="n"/>
+      <c r="O31" s="2" t="n"/>
+      <c r="P31" s="2" t="n"/>
+      <c r="Q31" s="2" t="n"/>
       <c r="R31" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2219,8 +2200,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T31" s="2" t="inlineStr"/>
-      <c r="U31" s="2" t="inlineStr"/>
+      <c r="T31" s="2" t="n"/>
+      <c r="U31" s="2" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -2238,28 +2219,28 @@
           <t>A &lt;total contact event duration statistic&gt; that is the average value calculated from a collection of total contact event durations.</t>
         </is>
       </c>
-      <c r="D32" s="2" t="inlineStr"/>
+      <c r="D32" s="2" t="n"/>
       <c r="E32" s="2" t="inlineStr">
         <is>
           <t>total BCI contact event duration statistic</t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="2" t="inlineStr"/>
-      <c r="H32" s="2" t="inlineStr"/>
-      <c r="I32" s="2" t="inlineStr"/>
-      <c r="J32" s="2" t="inlineStr"/>
-      <c r="K32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="n"/>
+      <c r="G32" s="2" t="n"/>
+      <c r="H32" s="2" t="n"/>
+      <c r="I32" s="2" t="n"/>
+      <c r="J32" s="2" t="n"/>
+      <c r="K32" s="2" t="n"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
           <t>total BCI contact event duration</t>
         </is>
       </c>
-      <c r="M32" s="2" t="inlineStr"/>
-      <c r="N32" s="2" t="inlineStr"/>
-      <c r="O32" s="2" t="inlineStr"/>
-      <c r="P32" s="2" t="inlineStr"/>
-      <c r="Q32" s="2" t="inlineStr"/>
+      <c r="M32" s="2" t="n"/>
+      <c r="N32" s="2" t="n"/>
+      <c r="O32" s="2" t="n"/>
+      <c r="P32" s="2" t="n"/>
+      <c r="Q32" s="2" t="n"/>
       <c r="R32" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2270,8 +2251,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T32" s="2" t="inlineStr"/>
-      <c r="U32" s="2" t="inlineStr"/>
+      <c r="T32" s="2" t="n"/>
+      <c r="U32" s="2" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -2289,28 +2270,28 @@
           <t>A &lt;BCI contact event duration statistic&gt; that is the central value of a collection of BCI contact event durations when they are arranged in ascending order.</t>
         </is>
       </c>
-      <c r="D33" s="2" t="inlineStr"/>
+      <c r="D33" s="2" t="n"/>
       <c r="E33" s="2" t="inlineStr">
         <is>
           <t>BCI contact event duration statistic</t>
         </is>
       </c>
-      <c r="F33" s="2" t="inlineStr"/>
-      <c r="G33" s="2" t="inlineStr"/>
-      <c r="H33" s="2" t="inlineStr"/>
-      <c r="I33" s="2" t="inlineStr"/>
-      <c r="J33" s="2" t="inlineStr"/>
-      <c r="K33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="n"/>
+      <c r="G33" s="2" t="n"/>
+      <c r="H33" s="2" t="n"/>
+      <c r="I33" s="2" t="n"/>
+      <c r="J33" s="2" t="n"/>
+      <c r="K33" s="2" t="n"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
           <t>BCI contact event duration</t>
         </is>
       </c>
-      <c r="M33" s="2" t="inlineStr"/>
-      <c r="N33" s="2" t="inlineStr"/>
-      <c r="O33" s="2" t="inlineStr"/>
-      <c r="P33" s="2" t="inlineStr"/>
-      <c r="Q33" s="2" t="inlineStr"/>
+      <c r="M33" s="2" t="n"/>
+      <c r="N33" s="2" t="n"/>
+      <c r="O33" s="2" t="n"/>
+      <c r="P33" s="2" t="n"/>
+      <c r="Q33" s="2" t="n"/>
       <c r="R33" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2321,8 +2302,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T33" s="2" t="inlineStr"/>
-      <c r="U33" s="2" t="inlineStr"/>
+      <c r="T33" s="2" t="n"/>
+      <c r="U33" s="2" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -2340,28 +2321,28 @@
           <t>A &lt;BCI contact event frequency statistic&gt; that is the central value of a collection of  BCI contact event frequencies when they are arranged in ascending order.</t>
         </is>
       </c>
-      <c r="D34" s="2" t="inlineStr"/>
+      <c r="D34" s="2" t="n"/>
       <c r="E34" s="2" t="inlineStr">
         <is>
           <t>BCI contact event frequency statistic</t>
         </is>
       </c>
-      <c r="F34" s="2" t="inlineStr"/>
-      <c r="G34" s="2" t="inlineStr"/>
-      <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr"/>
-      <c r="J34" s="2" t="inlineStr"/>
-      <c r="K34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="n"/>
+      <c r="G34" s="2" t="n"/>
+      <c r="H34" s="2" t="n"/>
+      <c r="I34" s="2" t="n"/>
+      <c r="J34" s="2" t="n"/>
+      <c r="K34" s="2" t="n"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
           <t>BCI contact event frequency</t>
         </is>
       </c>
-      <c r="M34" s="2" t="inlineStr"/>
-      <c r="N34" s="2" t="inlineStr"/>
-      <c r="O34" s="2" t="inlineStr"/>
-      <c r="P34" s="2" t="inlineStr"/>
-      <c r="Q34" s="2" t="inlineStr"/>
+      <c r="M34" s="2" t="n"/>
+      <c r="N34" s="2" t="n"/>
+      <c r="O34" s="2" t="n"/>
+      <c r="P34" s="2" t="n"/>
+      <c r="Q34" s="2" t="n"/>
       <c r="R34" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2372,8 +2353,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T34" s="2" t="inlineStr"/>
-      <c r="U34" s="2" t="inlineStr"/>
+      <c r="T34" s="2" t="n"/>
+      <c r="U34" s="2" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -2391,28 +2372,28 @@
           <t>A &lt;BCI contact event number statistic&gt; that is the central value of a collection of  BCI contact event numbers when they are arranged in ascending order.</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr"/>
+      <c r="D35" s="2" t="n"/>
       <c r="E35" s="2" t="inlineStr">
         <is>
           <t>BCI contact event number statistic</t>
         </is>
       </c>
-      <c r="F35" s="2" t="inlineStr"/>
-      <c r="G35" s="2" t="inlineStr"/>
-      <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr"/>
-      <c r="J35" s="2" t="inlineStr"/>
-      <c r="K35" s="2" t="inlineStr"/>
+      <c r="F35" s="2" t="n"/>
+      <c r="G35" s="2" t="n"/>
+      <c r="H35" s="2" t="n"/>
+      <c r="I35" s="2" t="n"/>
+      <c r="J35" s="2" t="n"/>
+      <c r="K35" s="2" t="n"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
           <t>number of BCI contact events</t>
         </is>
       </c>
-      <c r="M35" s="2" t="inlineStr"/>
-      <c r="N35" s="2" t="inlineStr"/>
-      <c r="O35" s="2" t="inlineStr"/>
-      <c r="P35" s="2" t="inlineStr"/>
-      <c r="Q35" s="2" t="inlineStr"/>
+      <c r="M35" s="2" t="n"/>
+      <c r="N35" s="2" t="n"/>
+      <c r="O35" s="2" t="n"/>
+      <c r="P35" s="2" t="n"/>
+      <c r="Q35" s="2" t="n"/>
       <c r="R35" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2423,8 +2404,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T35" s="2" t="inlineStr"/>
-      <c r="U35" s="2" t="inlineStr"/>
+      <c r="T35" s="2" t="n"/>
+      <c r="U35" s="2" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -2442,28 +2423,28 @@
           <t>A &lt;BCI duration statistic&gt; that is the central value of a collection of BCI durations when they are arranged in ascending order.</t>
         </is>
       </c>
-      <c r="D36" s="2" t="inlineStr"/>
+      <c r="D36" s="2" t="n"/>
       <c r="E36" s="2" t="inlineStr">
         <is>
           <t>BCI duration statistic</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr"/>
-      <c r="G36" s="2" t="inlineStr"/>
-      <c r="H36" s="2" t="inlineStr"/>
-      <c r="I36" s="2" t="inlineStr"/>
-      <c r="J36" s="2" t="inlineStr"/>
-      <c r="K36" s="2" t="inlineStr"/>
+      <c r="F36" s="2" t="n"/>
+      <c r="G36" s="2" t="n"/>
+      <c r="H36" s="2" t="n"/>
+      <c r="I36" s="2" t="n"/>
+      <c r="J36" s="2" t="n"/>
+      <c r="K36" s="2" t="n"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
           <t>BCI duration</t>
         </is>
       </c>
-      <c r="M36" s="2" t="inlineStr"/>
-      <c r="N36" s="2" t="inlineStr"/>
-      <c r="O36" s="2" t="inlineStr"/>
-      <c r="P36" s="2" t="inlineStr"/>
-      <c r="Q36" s="2" t="inlineStr"/>
+      <c r="M36" s="2" t="n"/>
+      <c r="N36" s="2" t="n"/>
+      <c r="O36" s="2" t="n"/>
+      <c r="P36" s="2" t="n"/>
+      <c r="Q36" s="2" t="n"/>
       <c r="R36" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2474,8 +2455,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T36" s="2" t="inlineStr"/>
-      <c r="U36" s="2" t="inlineStr"/>
+      <c r="T36" s="2" t="n"/>
+      <c r="U36" s="2" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -2493,28 +2474,28 @@
           <t>A &lt;BCI temporal part duration statistic&gt; that is the central value of a collection of BCI temporal part durations when they are arranged in ascending order.</t>
         </is>
       </c>
-      <c r="D37" s="2" t="inlineStr"/>
+      <c r="D37" s="2" t="n"/>
       <c r="E37" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part duration statistic</t>
         </is>
       </c>
-      <c r="F37" s="2" t="inlineStr"/>
-      <c r="G37" s="2" t="inlineStr"/>
-      <c r="H37" s="2" t="inlineStr"/>
-      <c r="I37" s="2" t="inlineStr"/>
-      <c r="J37" s="2" t="inlineStr"/>
-      <c r="K37" s="2" t="inlineStr"/>
+      <c r="F37" s="2" t="n"/>
+      <c r="G37" s="2" t="n"/>
+      <c r="H37" s="2" t="n"/>
+      <c r="I37" s="2" t="n"/>
+      <c r="J37" s="2" t="n"/>
+      <c r="K37" s="2" t="n"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part duration</t>
         </is>
       </c>
-      <c r="M37" s="2" t="inlineStr"/>
-      <c r="N37" s="2" t="inlineStr"/>
-      <c r="O37" s="2" t="inlineStr"/>
-      <c r="P37" s="2" t="inlineStr"/>
-      <c r="Q37" s="2" t="inlineStr"/>
+      <c r="M37" s="2" t="n"/>
+      <c r="N37" s="2" t="n"/>
+      <c r="O37" s="2" t="n"/>
+      <c r="P37" s="2" t="n"/>
+      <c r="Q37" s="2" t="n"/>
       <c r="R37" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2525,8 +2506,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T37" s="2" t="inlineStr"/>
-      <c r="U37" s="2" t="inlineStr"/>
+      <c r="T37" s="2" t="n"/>
+      <c r="U37" s="2" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -2544,28 +2525,28 @@
           <t>A &lt;BCI temporal part frequency statistic&gt; that is the central value of a collection of BCI temporal part frequencies when they are arranged in ascending order.</t>
         </is>
       </c>
-      <c r="D38" s="2" t="inlineStr"/>
+      <c r="D38" s="2" t="n"/>
       <c r="E38" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part frequency statistic</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr"/>
-      <c r="G38" s="2" t="inlineStr"/>
-      <c r="H38" s="2" t="inlineStr"/>
-      <c r="I38" s="2" t="inlineStr"/>
-      <c r="J38" s="2" t="inlineStr"/>
-      <c r="K38" s="2" t="inlineStr"/>
+      <c r="F38" s="2" t="n"/>
+      <c r="G38" s="2" t="n"/>
+      <c r="H38" s="2" t="n"/>
+      <c r="I38" s="2" t="n"/>
+      <c r="J38" s="2" t="n"/>
+      <c r="K38" s="2" t="n"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part frequency</t>
         </is>
       </c>
-      <c r="M38" s="2" t="inlineStr"/>
-      <c r="N38" s="2" t="inlineStr"/>
-      <c r="O38" s="2" t="inlineStr"/>
-      <c r="P38" s="2" t="inlineStr"/>
-      <c r="Q38" s="2" t="inlineStr"/>
+      <c r="M38" s="2" t="n"/>
+      <c r="N38" s="2" t="n"/>
+      <c r="O38" s="2" t="n"/>
+      <c r="P38" s="2" t="n"/>
+      <c r="Q38" s="2" t="n"/>
       <c r="R38" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2576,8 +2557,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T38" s="2" t="inlineStr"/>
-      <c r="U38" s="2" t="inlineStr"/>
+      <c r="T38" s="2" t="n"/>
+      <c r="U38" s="2" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -2595,28 +2576,28 @@
           <t>A &lt;total contact event duration statistic&gt; that is the central value of a collection of total contact event durations when they are arranged in ascending order.</t>
         </is>
       </c>
-      <c r="D39" s="2" t="inlineStr"/>
+      <c r="D39" s="2" t="n"/>
       <c r="E39" s="2" t="inlineStr">
         <is>
           <t>total BCI contact event duration statistic</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr"/>
-      <c r="G39" s="2" t="inlineStr"/>
-      <c r="H39" s="2" t="inlineStr"/>
-      <c r="I39" s="2" t="inlineStr"/>
-      <c r="J39" s="2" t="inlineStr"/>
-      <c r="K39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="n"/>
+      <c r="G39" s="2" t="n"/>
+      <c r="H39" s="2" t="n"/>
+      <c r="I39" s="2" t="n"/>
+      <c r="J39" s="2" t="n"/>
+      <c r="K39" s="2" t="n"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
           <t>total BCI contact event duration</t>
         </is>
       </c>
-      <c r="M39" s="2" t="inlineStr"/>
-      <c r="N39" s="2" t="inlineStr"/>
-      <c r="O39" s="2" t="inlineStr"/>
-      <c r="P39" s="2" t="inlineStr"/>
-      <c r="Q39" s="2" t="inlineStr"/>
+      <c r="M39" s="2" t="n"/>
+      <c r="N39" s="2" t="n"/>
+      <c r="O39" s="2" t="n"/>
+      <c r="P39" s="2" t="n"/>
+      <c r="Q39" s="2" t="n"/>
       <c r="R39" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2627,8 +2608,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T39" s="2" t="inlineStr"/>
-      <c r="U39" s="2" t="inlineStr"/>
+      <c r="T39" s="2" t="n"/>
+      <c r="U39" s="2" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
@@ -2646,28 +2627,28 @@
           <t>A &lt;BCI contact event duration statistic&gt; that is the lowest value from a collection of BCI contact event durations.</t>
         </is>
       </c>
-      <c r="D40" s="2" t="inlineStr"/>
+      <c r="D40" s="2" t="n"/>
       <c r="E40" s="2" t="inlineStr">
         <is>
           <t>BCI contact event duration statistic</t>
         </is>
       </c>
-      <c r="F40" s="2" t="inlineStr"/>
-      <c r="G40" s="2" t="inlineStr"/>
-      <c r="H40" s="2" t="inlineStr"/>
-      <c r="I40" s="2" t="inlineStr"/>
-      <c r="J40" s="2" t="inlineStr"/>
-      <c r="K40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="n"/>
+      <c r="G40" s="2" t="n"/>
+      <c r="H40" s="2" t="n"/>
+      <c r="I40" s="2" t="n"/>
+      <c r="J40" s="2" t="n"/>
+      <c r="K40" s="2" t="n"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
           <t>BCI contact event duration</t>
         </is>
       </c>
-      <c r="M40" s="2" t="inlineStr"/>
-      <c r="N40" s="2" t="inlineStr"/>
-      <c r="O40" s="2" t="inlineStr"/>
-      <c r="P40" s="2" t="inlineStr"/>
-      <c r="Q40" s="2" t="inlineStr"/>
+      <c r="M40" s="2" t="n"/>
+      <c r="N40" s="2" t="n"/>
+      <c r="O40" s="2" t="n"/>
+      <c r="P40" s="2" t="n"/>
+      <c r="Q40" s="2" t="n"/>
       <c r="R40" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2678,8 +2659,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T40" s="2" t="inlineStr"/>
-      <c r="U40" s="2" t="inlineStr"/>
+      <c r="T40" s="2" t="n"/>
+      <c r="U40" s="2" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
@@ -2697,28 +2678,28 @@
           <t>A &lt;BCI contact event frequency statistic&gt; that is the lowest value from a collection of BCI contact event frequencies.</t>
         </is>
       </c>
-      <c r="D41" s="2" t="inlineStr"/>
+      <c r="D41" s="2" t="n"/>
       <c r="E41" s="2" t="inlineStr">
         <is>
           <t>BCI contact event frequency statistic</t>
         </is>
       </c>
-      <c r="F41" s="2" t="inlineStr"/>
-      <c r="G41" s="2" t="inlineStr"/>
-      <c r="H41" s="2" t="inlineStr"/>
-      <c r="I41" s="2" t="inlineStr"/>
-      <c r="J41" s="2" t="inlineStr"/>
-      <c r="K41" s="2" t="inlineStr"/>
+      <c r="F41" s="2" t="n"/>
+      <c r="G41" s="2" t="n"/>
+      <c r="H41" s="2" t="n"/>
+      <c r="I41" s="2" t="n"/>
+      <c r="J41" s="2" t="n"/>
+      <c r="K41" s="2" t="n"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
           <t>BCI contact event frequency</t>
         </is>
       </c>
-      <c r="M41" s="2" t="inlineStr"/>
-      <c r="N41" s="2" t="inlineStr"/>
-      <c r="O41" s="2" t="inlineStr"/>
-      <c r="P41" s="2" t="inlineStr"/>
-      <c r="Q41" s="2" t="inlineStr"/>
+      <c r="M41" s="2" t="n"/>
+      <c r="N41" s="2" t="n"/>
+      <c r="O41" s="2" t="n"/>
+      <c r="P41" s="2" t="n"/>
+      <c r="Q41" s="2" t="n"/>
       <c r="R41" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2729,8 +2710,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T41" s="2" t="inlineStr"/>
-      <c r="U41" s="2" t="inlineStr"/>
+      <c r="T41" s="2" t="n"/>
+      <c r="U41" s="2" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -2748,28 +2729,28 @@
           <t>A &lt;BCI contact event number statistic&gt; that is the lowest value from a collection of BCI contact event numbers.</t>
         </is>
       </c>
-      <c r="D42" s="2" t="inlineStr"/>
+      <c r="D42" s="2" t="n"/>
       <c r="E42" s="2" t="inlineStr">
         <is>
           <t>BCI contact event number statistic</t>
         </is>
       </c>
-      <c r="F42" s="2" t="inlineStr"/>
-      <c r="G42" s="2" t="inlineStr"/>
-      <c r="H42" s="2" t="inlineStr"/>
-      <c r="I42" s="2" t="inlineStr"/>
-      <c r="J42" s="2" t="inlineStr"/>
-      <c r="K42" s="2" t="inlineStr"/>
+      <c r="F42" s="2" t="n"/>
+      <c r="G42" s="2" t="n"/>
+      <c r="H42" s="2" t="n"/>
+      <c r="I42" s="2" t="n"/>
+      <c r="J42" s="2" t="n"/>
+      <c r="K42" s="2" t="n"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
           <t>number of BCI contact events</t>
         </is>
       </c>
-      <c r="M42" s="2" t="inlineStr"/>
-      <c r="N42" s="2" t="inlineStr"/>
-      <c r="O42" s="2" t="inlineStr"/>
-      <c r="P42" s="2" t="inlineStr"/>
-      <c r="Q42" s="2" t="inlineStr"/>
+      <c r="M42" s="2" t="n"/>
+      <c r="N42" s="2" t="n"/>
+      <c r="O42" s="2" t="n"/>
+      <c r="P42" s="2" t="n"/>
+      <c r="Q42" s="2" t="n"/>
       <c r="R42" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2780,8 +2761,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T42" s="2" t="inlineStr"/>
-      <c r="U42" s="2" t="inlineStr"/>
+      <c r="T42" s="2" t="n"/>
+      <c r="U42" s="2" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -2799,28 +2780,28 @@
           <t>A &lt;BCI duration statistic&gt; that is the lowest value from a collection of BCI durations.</t>
         </is>
       </c>
-      <c r="D43" s="2" t="inlineStr"/>
+      <c r="D43" s="2" t="n"/>
       <c r="E43" s="2" t="inlineStr">
         <is>
           <t>BCI duration statistic</t>
         </is>
       </c>
-      <c r="F43" s="2" t="inlineStr"/>
-      <c r="G43" s="2" t="inlineStr"/>
-      <c r="H43" s="2" t="inlineStr"/>
-      <c r="I43" s="2" t="inlineStr"/>
-      <c r="J43" s="2" t="inlineStr"/>
-      <c r="K43" s="2" t="inlineStr"/>
+      <c r="F43" s="2" t="n"/>
+      <c r="G43" s="2" t="n"/>
+      <c r="H43" s="2" t="n"/>
+      <c r="I43" s="2" t="n"/>
+      <c r="J43" s="2" t="n"/>
+      <c r="K43" s="2" t="n"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
           <t>BCI duration</t>
         </is>
       </c>
-      <c r="M43" s="2" t="inlineStr"/>
-      <c r="N43" s="2" t="inlineStr"/>
-      <c r="O43" s="2" t="inlineStr"/>
-      <c r="P43" s="2" t="inlineStr"/>
-      <c r="Q43" s="2" t="inlineStr"/>
+      <c r="M43" s="2" t="n"/>
+      <c r="N43" s="2" t="n"/>
+      <c r="O43" s="2" t="n"/>
+      <c r="P43" s="2" t="n"/>
+      <c r="Q43" s="2" t="n"/>
       <c r="R43" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2831,8 +2812,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T43" s="2" t="inlineStr"/>
-      <c r="U43" s="2" t="inlineStr"/>
+      <c r="T43" s="2" t="n"/>
+      <c r="U43" s="2" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -2850,28 +2831,28 @@
           <t>A &lt;BCI temporal part duration statistic&gt; that denotes the lowest value from a collection of BCI temporal part durations.</t>
         </is>
       </c>
-      <c r="D44" s="2" t="inlineStr"/>
+      <c r="D44" s="2" t="n"/>
       <c r="E44" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part duration statistic</t>
         </is>
       </c>
-      <c r="F44" s="2" t="inlineStr"/>
-      <c r="G44" s="2" t="inlineStr"/>
-      <c r="H44" s="2" t="inlineStr"/>
-      <c r="I44" s="2" t="inlineStr"/>
-      <c r="J44" s="2" t="inlineStr"/>
-      <c r="K44" s="2" t="inlineStr"/>
+      <c r="F44" s="2" t="n"/>
+      <c r="G44" s="2" t="n"/>
+      <c r="H44" s="2" t="n"/>
+      <c r="I44" s="2" t="n"/>
+      <c r="J44" s="2" t="n"/>
+      <c r="K44" s="2" t="n"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part duration</t>
         </is>
       </c>
-      <c r="M44" s="2" t="inlineStr"/>
-      <c r="N44" s="2" t="inlineStr"/>
-      <c r="O44" s="2" t="inlineStr"/>
-      <c r="P44" s="2" t="inlineStr"/>
-      <c r="Q44" s="2" t="inlineStr"/>
+      <c r="M44" s="2" t="n"/>
+      <c r="N44" s="2" t="n"/>
+      <c r="O44" s="2" t="n"/>
+      <c r="P44" s="2" t="n"/>
+      <c r="Q44" s="2" t="n"/>
       <c r="R44" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2882,8 +2863,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T44" s="2" t="inlineStr"/>
-      <c r="U44" s="2" t="inlineStr"/>
+      <c r="T44" s="2" t="n"/>
+      <c r="U44" s="2" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -2901,28 +2882,28 @@
           <t>A &lt;BCI temporal part frequency statistic&gt; that is the lowest value from a collection of BCI temporal part frequencies.</t>
         </is>
       </c>
-      <c r="D45" s="2" t="inlineStr"/>
+      <c r="D45" s="2" t="n"/>
       <c r="E45" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part frequency statistic</t>
         </is>
       </c>
-      <c r="F45" s="2" t="inlineStr"/>
-      <c r="G45" s="2" t="inlineStr"/>
-      <c r="H45" s="2" t="inlineStr"/>
-      <c r="I45" s="2" t="inlineStr"/>
-      <c r="J45" s="2" t="inlineStr"/>
-      <c r="K45" s="2" t="inlineStr"/>
+      <c r="F45" s="2" t="n"/>
+      <c r="G45" s="2" t="n"/>
+      <c r="H45" s="2" t="n"/>
+      <c r="I45" s="2" t="n"/>
+      <c r="J45" s="2" t="n"/>
+      <c r="K45" s="2" t="n"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
           <t>BCI temporal part frequency</t>
         </is>
       </c>
-      <c r="M45" s="2" t="inlineStr"/>
-      <c r="N45" s="2" t="inlineStr"/>
-      <c r="O45" s="2" t="inlineStr"/>
-      <c r="P45" s="2" t="inlineStr"/>
-      <c r="Q45" s="2" t="inlineStr"/>
+      <c r="M45" s="2" t="n"/>
+      <c r="N45" s="2" t="n"/>
+      <c r="O45" s="2" t="n"/>
+      <c r="P45" s="2" t="n"/>
+      <c r="Q45" s="2" t="n"/>
       <c r="R45" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2933,8 +2914,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T45" s="2" t="inlineStr"/>
-      <c r="U45" s="2" t="inlineStr"/>
+      <c r="T45" s="2" t="n"/>
+      <c r="U45" s="2" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -2952,28 +2933,28 @@
           <t>A &lt;total contact event duration statistic&gt; that is the lowest value from a collection of total contact event durations.</t>
         </is>
       </c>
-      <c r="D46" s="2" t="inlineStr"/>
+      <c r="D46" s="2" t="n"/>
       <c r="E46" s="2" t="inlineStr">
         <is>
           <t>total BCI contact event duration statistic</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr"/>
-      <c r="G46" s="2" t="inlineStr"/>
-      <c r="H46" s="2" t="inlineStr"/>
-      <c r="I46" s="2" t="inlineStr"/>
-      <c r="J46" s="2" t="inlineStr"/>
-      <c r="K46" s="2" t="inlineStr"/>
+      <c r="F46" s="2" t="n"/>
+      <c r="G46" s="2" t="n"/>
+      <c r="H46" s="2" t="n"/>
+      <c r="I46" s="2" t="n"/>
+      <c r="J46" s="2" t="n"/>
+      <c r="K46" s="2" t="n"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
           <t>total BCI contact event duration</t>
         </is>
       </c>
-      <c r="M46" s="2" t="inlineStr"/>
-      <c r="N46" s="2" t="inlineStr"/>
-      <c r="O46" s="2" t="inlineStr"/>
-      <c r="P46" s="2" t="inlineStr"/>
-      <c r="Q46" s="2" t="inlineStr"/>
+      <c r="M46" s="2" t="n"/>
+      <c r="N46" s="2" t="n"/>
+      <c r="O46" s="2" t="n"/>
+      <c r="P46" s="2" t="n"/>
+      <c r="Q46" s="2" t="n"/>
       <c r="R46" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2984,8 +2965,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T46" s="2" t="inlineStr"/>
-      <c r="U46" s="2" t="inlineStr"/>
+      <c r="T46" s="2" t="n"/>
+      <c r="U46" s="2" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -3013,7 +2994,7 @@
           <t>data item</t>
         </is>
       </c>
-      <c r="F47" s="2" t="inlineStr"/>
+      <c r="F47" s="2" t="n"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
           <t>one; 6; 12; twenty</t>
@@ -3026,23 +3007,23 @@
 This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author </t>
         </is>
       </c>
-      <c r="I47" s="2" t="inlineStr"/>
-      <c r="J47" s="2" t="inlineStr"/>
-      <c r="K47" s="2" t="inlineStr"/>
+      <c r="I47" s="2" t="n"/>
+      <c r="J47" s="2" t="n"/>
+      <c r="K47" s="2" t="n"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
           <t>BCI contact event</t>
         </is>
       </c>
-      <c r="M47" s="2" t="inlineStr"/>
-      <c r="N47" s="2" t="inlineStr"/>
-      <c r="O47" s="2" t="inlineStr"/>
+      <c r="M47" s="2" t="n"/>
+      <c r="N47" s="2" t="n"/>
+      <c r="O47" s="2" t="n"/>
       <c r="P47" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q47" s="2" t="inlineStr"/>
+      <c r="Q47" s="2" t="n"/>
       <c r="R47" s="2" t="inlineStr">
         <is>
           <t>CM; JH; PS</t>
@@ -3058,7 +3039,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U47" s="2" t="inlineStr"/>
+      <c r="U47" s="2" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -3076,13 +3057,13 @@
           <t>A &lt;BCI attribute&gt; that is the  temporal positioning of BCI temporal parts.</t>
         </is>
       </c>
-      <c r="D48" s="2" t="inlineStr"/>
+      <c r="D48" s="2" t="n"/>
       <c r="E48" s="2" t="inlineStr">
         <is>
           <t>BCI attribute</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr"/>
+      <c r="F48" s="2" t="n"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
           <t>"After questionnaires were completed, feedback was selected
@@ -3097,9 +3078,9 @@
           <t>This is annotated as an open code when any aspect of order is described</t>
         </is>
       </c>
-      <c r="I48" s="2" t="inlineStr"/>
-      <c r="J48" s="2" t="inlineStr"/>
-      <c r="K48" s="2" t="inlineStr"/>
+      <c r="I48" s="2" t="n"/>
+      <c r="J48" s="2" t="n"/>
+      <c r="K48" s="2" t="n"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">BCI attribute </t>
@@ -3110,10 +3091,10 @@
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="N48" s="2" t="inlineStr"/>
-      <c r="O48" s="2" t="inlineStr"/>
-      <c r="P48" s="2" t="inlineStr"/>
-      <c r="Q48" s="2" t="inlineStr"/>
+      <c r="N48" s="2" t="n"/>
+      <c r="O48" s="2" t="n"/>
+      <c r="P48" s="2" t="n"/>
+      <c r="Q48" s="2" t="n"/>
       <c r="R48" s="2" t="inlineStr">
         <is>
           <t>CM; PS</t>
@@ -3129,7 +3110,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U48" s="2" t="inlineStr"/>
+      <c r="U48" s="2" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
@@ -3147,24 +3128,24 @@
           <t>A part of a BCI schedule which is the relation a specified temporal part is in when it occurs whilst another temporal part or timepoint occurs</t>
         </is>
       </c>
-      <c r="D49" s="3" t="inlineStr"/>
-      <c r="E49" s="3" t="inlineStr"/>
-      <c r="F49" s="3" t="inlineStr"/>
-      <c r="G49" s="3" t="inlineStr"/>
+      <c r="D49" s="3" t="n"/>
+      <c r="E49" s="3" t="n"/>
+      <c r="F49" s="3" t="n"/>
+      <c r="G49" s="3" t="n"/>
       <c r="H49" s="3" t="inlineStr">
         <is>
           <t>This is not annotated</t>
         </is>
       </c>
-      <c r="I49" s="3" t="inlineStr"/>
-      <c r="J49" s="3" t="inlineStr"/>
-      <c r="K49" s="3" t="inlineStr"/>
-      <c r="L49" s="3" t="inlineStr"/>
-      <c r="M49" s="3" t="inlineStr"/>
-      <c r="N49" s="3" t="inlineStr"/>
-      <c r="O49" s="3" t="inlineStr"/>
-      <c r="P49" s="3" t="inlineStr"/>
-      <c r="Q49" s="3" t="inlineStr"/>
+      <c r="I49" s="3" t="n"/>
+      <c r="J49" s="3" t="n"/>
+      <c r="K49" s="3" t="n"/>
+      <c r="L49" s="3" t="n"/>
+      <c r="M49" s="3" t="n"/>
+      <c r="N49" s="3" t="n"/>
+      <c r="O49" s="3" t="n"/>
+      <c r="P49" s="3" t="n"/>
+      <c r="Q49" s="3" t="n"/>
       <c r="R49" s="3" t="inlineStr">
         <is>
           <t>CM</t>
@@ -3180,7 +3161,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U49" s="3" t="inlineStr"/>
+      <c r="U49" s="3" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
@@ -3198,24 +3179,24 @@
           <t>A part of a BCI schedule which is the relation a specified temporal part is in when it ends prior to the beginning of another temporal part or timepoint</t>
         </is>
       </c>
-      <c r="D50" s="3" t="inlineStr"/>
-      <c r="E50" s="3" t="inlineStr"/>
-      <c r="F50" s="3" t="inlineStr"/>
-      <c r="G50" s="3" t="inlineStr"/>
+      <c r="D50" s="3" t="n"/>
+      <c r="E50" s="3" t="n"/>
+      <c r="F50" s="3" t="n"/>
+      <c r="G50" s="3" t="n"/>
       <c r="H50" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">This is not annotated </t>
         </is>
       </c>
-      <c r="I50" s="3" t="inlineStr"/>
-      <c r="J50" s="3" t="inlineStr"/>
-      <c r="K50" s="3" t="inlineStr"/>
-      <c r="L50" s="3" t="inlineStr"/>
-      <c r="M50" s="3" t="inlineStr"/>
-      <c r="N50" s="3" t="inlineStr"/>
-      <c r="O50" s="3" t="inlineStr"/>
-      <c r="P50" s="3" t="inlineStr"/>
-      <c r="Q50" s="3" t="inlineStr"/>
+      <c r="I50" s="3" t="n"/>
+      <c r="J50" s="3" t="n"/>
+      <c r="K50" s="3" t="n"/>
+      <c r="L50" s="3" t="n"/>
+      <c r="M50" s="3" t="n"/>
+      <c r="N50" s="3" t="n"/>
+      <c r="O50" s="3" t="n"/>
+      <c r="P50" s="3" t="n"/>
+      <c r="Q50" s="3" t="n"/>
       <c r="R50" s="3" t="inlineStr">
         <is>
           <t>CM; RW</t>
@@ -3231,7 +3212,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U50" s="3" t="inlineStr"/>
+      <c r="U50" s="3" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
@@ -3259,7 +3240,7 @@
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr"/>
+      <c r="F51" s="2" t="n"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
           <t>the length and regularity of sessions were consistent across the duration of the intervention, taking place for an hour each week</t>
@@ -3271,14 +3252,14 @@
 Example annotation in context: "The length and regularity of sessions were consistent across the duration of the intervention" </t>
         </is>
       </c>
-      <c r="I51" s="2" t="inlineStr"/>
-      <c r="J51" s="2" t="inlineStr"/>
-      <c r="K51" s="2" t="inlineStr"/>
-      <c r="L51" s="2" t="inlineStr"/>
-      <c r="M51" s="2" t="inlineStr"/>
-      <c r="N51" s="2" t="inlineStr"/>
-      <c r="O51" s="2" t="inlineStr"/>
-      <c r="P51" s="2" t="inlineStr"/>
+      <c r="I51" s="2" t="n"/>
+      <c r="J51" s="2" t="n"/>
+      <c r="K51" s="2" t="n"/>
+      <c r="L51" s="2" t="n"/>
+      <c r="M51" s="2" t="n"/>
+      <c r="N51" s="2" t="n"/>
+      <c r="O51" s="2" t="n"/>
+      <c r="P51" s="2" t="n"/>
       <c r="Q51" s="2" t="inlineStr">
         <is>
           <t>relationship? is about schedule? or is a type of schedule?</t>
@@ -3299,7 +3280,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U51" s="2" t="inlineStr"/>
+      <c r="U51" s="2" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
@@ -3317,24 +3298,24 @@
           <t>A part of a BCI schedule which is the relation a specified temporal part is in when it starts following the end of another temporal part or timepoint</t>
         </is>
       </c>
-      <c r="D52" s="3" t="inlineStr"/>
-      <c r="E52" s="3" t="inlineStr"/>
-      <c r="F52" s="3" t="inlineStr"/>
-      <c r="G52" s="3" t="inlineStr"/>
+      <c r="D52" s="3" t="n"/>
+      <c r="E52" s="3" t="n"/>
+      <c r="F52" s="3" t="n"/>
+      <c r="G52" s="3" t="n"/>
       <c r="H52" s="3" t="inlineStr">
         <is>
           <t>This is not annotated</t>
         </is>
       </c>
-      <c r="I52" s="3" t="inlineStr"/>
-      <c r="J52" s="3" t="inlineStr"/>
-      <c r="K52" s="3" t="inlineStr"/>
-      <c r="L52" s="3" t="inlineStr"/>
-      <c r="M52" s="3" t="inlineStr"/>
-      <c r="N52" s="3" t="inlineStr"/>
-      <c r="O52" s="3" t="inlineStr"/>
-      <c r="P52" s="3" t="inlineStr"/>
-      <c r="Q52" s="3" t="inlineStr"/>
+      <c r="I52" s="3" t="n"/>
+      <c r="J52" s="3" t="n"/>
+      <c r="K52" s="3" t="n"/>
+      <c r="L52" s="3" t="n"/>
+      <c r="M52" s="3" t="n"/>
+      <c r="N52" s="3" t="n"/>
+      <c r="O52" s="3" t="n"/>
+      <c r="P52" s="3" t="n"/>
+      <c r="Q52" s="3" t="n"/>
       <c r="R52" s="3" t="inlineStr">
         <is>
           <t>CM; RW</t>
@@ -3350,7 +3331,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U52" s="3" t="inlineStr"/>
+      <c r="U52" s="3" t="n"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3368,24 +3349,11 @@
           <t>A one-dimensional temporal region is a temporal region that is extended.</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
           <t>occurrent</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
           <t>JH; PS</t>
@@ -3396,8 +3364,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
@@ -3416,24 +3382,24 @@
 </t>
         </is>
       </c>
-      <c r="D54" s="3" t="inlineStr"/>
+      <c r="D54" s="3" t="n"/>
       <c r="E54" s="3" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="F54" s="3" t="inlineStr"/>
-      <c r="G54" s="3" t="inlineStr"/>
-      <c r="H54" s="3" t="inlineStr"/>
-      <c r="I54" s="3" t="inlineStr"/>
-      <c r="J54" s="3" t="inlineStr"/>
-      <c r="K54" s="3" t="inlineStr"/>
-      <c r="L54" s="3" t="inlineStr"/>
-      <c r="M54" s="3" t="inlineStr"/>
-      <c r="N54" s="3" t="inlineStr"/>
-      <c r="O54" s="3" t="inlineStr"/>
-      <c r="P54" s="3" t="inlineStr"/>
-      <c r="Q54" s="3" t="inlineStr"/>
+      <c r="F54" s="3" t="n"/>
+      <c r="G54" s="3" t="n"/>
+      <c r="H54" s="3" t="n"/>
+      <c r="I54" s="3" t="n"/>
+      <c r="J54" s="3" t="n"/>
+      <c r="K54" s="3" t="n"/>
+      <c r="L54" s="3" t="n"/>
+      <c r="M54" s="3" t="n"/>
+      <c r="N54" s="3" t="n"/>
+      <c r="O54" s="3" t="n"/>
+      <c r="P54" s="3" t="n"/>
+      <c r="Q54" s="3" t="n"/>
       <c r="R54" s="3" t="inlineStr">
         <is>
           <t>JH</t>
@@ -3444,8 +3410,8 @@
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T54" s="3" t="inlineStr"/>
-      <c r="U54" s="3" t="inlineStr"/>
+      <c r="T54" s="3" t="n"/>
+      <c r="U54" s="3" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
@@ -3463,28 +3429,28 @@
           <t>A data item between the start and end of an intervention temporal part.</t>
         </is>
       </c>
-      <c r="D55" s="3" t="inlineStr"/>
+      <c r="D55" s="3" t="n"/>
       <c r="E55" s="3" t="inlineStr">
         <is>
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="F55" s="3" t="inlineStr"/>
+      <c r="F55" s="3" t="n"/>
       <c r="G55" s="3" t="inlineStr">
         <is>
           <t>6 weeks; 2 weeks</t>
         </is>
       </c>
-      <c r="H55" s="3" t="inlineStr"/>
-      <c r="I55" s="3" t="inlineStr"/>
-      <c r="J55" s="3" t="inlineStr"/>
-      <c r="K55" s="3" t="inlineStr"/>
-      <c r="L55" s="3" t="inlineStr"/>
-      <c r="M55" s="3" t="inlineStr"/>
-      <c r="N55" s="3" t="inlineStr"/>
-      <c r="O55" s="3" t="inlineStr"/>
-      <c r="P55" s="3" t="inlineStr"/>
-      <c r="Q55" s="3" t="inlineStr"/>
+      <c r="H55" s="3" t="n"/>
+      <c r="I55" s="3" t="n"/>
+      <c r="J55" s="3" t="n"/>
+      <c r="K55" s="3" t="n"/>
+      <c r="L55" s="3" t="n"/>
+      <c r="M55" s="3" t="n"/>
+      <c r="N55" s="3" t="n"/>
+      <c r="O55" s="3" t="n"/>
+      <c r="P55" s="3" t="n"/>
+      <c r="Q55" s="3" t="n"/>
       <c r="R55" s="3" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3495,8 +3461,8 @@
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T55" s="3" t="inlineStr"/>
-      <c r="U55" s="3" t="inlineStr"/>
+      <c r="T55" s="3" t="n"/>
+      <c r="U55" s="3" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
@@ -3541,18 +3507,18 @@
 Example annotation in context: "A feedback call was scheduled to be delivered around 6 months after the birth of the baby".  </t>
         </is>
       </c>
-      <c r="I56" s="2" t="inlineStr"/>
+      <c r="I56" s="2" t="n"/>
       <c r="J56" s="2" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
         </is>
       </c>
-      <c r="K56" s="2" t="inlineStr"/>
-      <c r="L56" s="2" t="inlineStr"/>
-      <c r="M56" s="2" t="inlineStr"/>
-      <c r="N56" s="2" t="inlineStr"/>
-      <c r="O56" s="2" t="inlineStr"/>
-      <c r="P56" s="2" t="inlineStr"/>
+      <c r="K56" s="2" t="n"/>
+      <c r="L56" s="2" t="n"/>
+      <c r="M56" s="2" t="n"/>
+      <c r="N56" s="2" t="n"/>
+      <c r="O56" s="2" t="n"/>
+      <c r="P56" s="2" t="n"/>
       <c r="Q56" s="2" t="inlineStr">
         <is>
           <t>check relationships</t>
@@ -3573,7 +3539,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U56" s="2" t="inlineStr"/>
+      <c r="U56" s="2" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
@@ -3601,7 +3567,7 @@
           <t>one-dimensional temporal region</t>
         </is>
       </c>
-      <c r="F57" s="2" t="inlineStr"/>
+      <c r="F57" s="2" t="n"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
           <t>150 minutes; 12 hours</t>
@@ -3615,17 +3581,17 @@
 This entity has aggregate entities (mean, min, max, median) which should be annotated if explicitly stated by the author </t>
         </is>
       </c>
-      <c r="I57" s="2" t="inlineStr"/>
-      <c r="J57" s="2" t="inlineStr"/>
-      <c r="K57" s="2" t="inlineStr"/>
+      <c r="I57" s="2" t="n"/>
+      <c r="J57" s="2" t="n"/>
+      <c r="K57" s="2" t="n"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
           <t>BCI contact event</t>
         </is>
       </c>
-      <c r="M57" s="2" t="inlineStr"/>
-      <c r="N57" s="2" t="inlineStr"/>
-      <c r="O57" s="2" t="inlineStr"/>
+      <c r="M57" s="2" t="n"/>
+      <c r="N57" s="2" t="n"/>
+      <c r="O57" s="2" t="n"/>
       <c r="P57" s="2" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
@@ -3673,28 +3639,28 @@
           <t>A &lt;data item&gt; that is about a collection of total contact event durations.</t>
         </is>
       </c>
-      <c r="D58" s="2" t="inlineStr"/>
+      <c r="D58" s="2" t="n"/>
       <c r="E58" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F58" s="2" t="inlineStr"/>
-      <c r="G58" s="2" t="inlineStr"/>
-      <c r="H58" s="2" t="inlineStr"/>
-      <c r="I58" s="2" t="inlineStr"/>
-      <c r="J58" s="2" t="inlineStr"/>
-      <c r="K58" s="2" t="inlineStr"/>
+      <c r="F58" s="2" t="n"/>
+      <c r="G58" s="2" t="n"/>
+      <c r="H58" s="2" t="n"/>
+      <c r="I58" s="2" t="n"/>
+      <c r="J58" s="2" t="n"/>
+      <c r="K58" s="2" t="n"/>
       <c r="L58" s="2" t="inlineStr">
         <is>
           <t>total BCI contact event duration</t>
         </is>
       </c>
-      <c r="M58" s="2" t="inlineStr"/>
-      <c r="N58" s="2" t="inlineStr"/>
-      <c r="O58" s="2" t="inlineStr"/>
-      <c r="P58" s="2" t="inlineStr"/>
-      <c r="Q58" s="2" t="inlineStr"/>
+      <c r="M58" s="2" t="n"/>
+      <c r="N58" s="2" t="n"/>
+      <c r="O58" s="2" t="n"/>
+      <c r="P58" s="2" t="n"/>
+      <c r="Q58" s="2" t="n"/>
       <c r="R58" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3705,8 +3671,8 @@
           <t>Published</t>
         </is>
       </c>
-      <c r="T58" s="2" t="inlineStr"/>
-      <c r="U58" s="2" t="inlineStr"/>
+      <c r="T58" s="2" t="n"/>
+      <c r="U58" s="2" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
@@ -3724,9 +3690,9 @@
           <t>A data item that is the number of repetitions of contact events within a temporal part or BCI for which the frequency is described</t>
         </is>
       </c>
-      <c r="D59" s="3" t="inlineStr"/>
-      <c r="E59" s="3" t="inlineStr"/>
-      <c r="F59" s="3" t="inlineStr"/>
+      <c r="D59" s="3" t="n"/>
+      <c r="E59" s="3" t="n"/>
+      <c r="F59" s="3" t="n"/>
       <c r="G59" s="3" t="inlineStr">
         <is>
           <t>Participants received "3" emails every 2 weeks</t>
@@ -3737,23 +3703,23 @@
           <t>This is annotated when a frequency is described using a period and a number of repetitions, rather than a single word.</t>
         </is>
       </c>
-      <c r="I59" s="3" t="inlineStr"/>
-      <c r="J59" s="3" t="inlineStr"/>
-      <c r="K59" s="3" t="inlineStr"/>
+      <c r="I59" s="3" t="n"/>
+      <c r="J59" s="3" t="n"/>
+      <c r="K59" s="3" t="n"/>
       <c r="L59" s="3" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="M59" s="3" t="inlineStr"/>
-      <c r="N59" s="3" t="inlineStr"/>
-      <c r="O59" s="3" t="inlineStr"/>
+      <c r="M59" s="3" t="n"/>
+      <c r="N59" s="3" t="n"/>
+      <c r="O59" s="3" t="n"/>
       <c r="P59" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q59" s="3" t="inlineStr"/>
+      <c r="Q59" s="3" t="n"/>
       <c r="R59" s="3" t="inlineStr">
         <is>
           <t>CM</t>
@@ -3791,13 +3757,13 @@
           <t>A data item that is the sum duration of a subset of contact events in a BCI or temporal part</t>
         </is>
       </c>
-      <c r="D60" s="3" t="inlineStr"/>
+      <c r="D60" s="3" t="n"/>
       <c r="E60" s="3" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F60" s="3" t="inlineStr"/>
+      <c r="F60" s="3" t="n"/>
       <c r="G60" s="3" t="inlineStr">
         <is>
           <t>The participants took part in "90" minutes of PA weekly</t>
@@ -3808,17 +3774,17 @@
           <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
         </is>
       </c>
-      <c r="I60" s="3" t="inlineStr"/>
-      <c r="J60" s="3" t="inlineStr"/>
-      <c r="K60" s="3" t="inlineStr"/>
+      <c r="I60" s="3" t="n"/>
+      <c r="J60" s="3" t="n"/>
+      <c r="K60" s="3" t="n"/>
       <c r="L60" s="3" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="M60" s="3" t="inlineStr"/>
-      <c r="N60" s="3" t="inlineStr"/>
-      <c r="O60" s="3" t="inlineStr"/>
+      <c r="M60" s="3" t="n"/>
+      <c r="N60" s="3" t="n"/>
+      <c r="O60" s="3" t="n"/>
       <c r="P60" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
@@ -3866,13 +3832,13 @@
           <t>A data item which describes how often a specified sum duration of contact events occured during a BCI or temporal part</t>
         </is>
       </c>
-      <c r="D61" s="3" t="inlineStr"/>
+      <c r="D61" s="3" t="n"/>
       <c r="E61" s="3" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F61" s="3" t="inlineStr"/>
+      <c r="F61" s="3" t="n"/>
       <c r="G61" s="3" t="inlineStr">
         <is>
           <t>The participants took part in 90 minutes of PA "weekly"</t>
@@ -3883,17 +3849,17 @@
           <t>This entity is used when authors describe the frequency of contact within an intervention where the frequency relates to the summed duration of several contact events.</t>
         </is>
       </c>
-      <c r="I61" s="3" t="inlineStr"/>
-      <c r="J61" s="3" t="inlineStr"/>
-      <c r="K61" s="3" t="inlineStr"/>
+      <c r="I61" s="3" t="n"/>
+      <c r="J61" s="3" t="n"/>
+      <c r="K61" s="3" t="n"/>
       <c r="L61" s="3" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="M61" s="3" t="inlineStr"/>
-      <c r="N61" s="3" t="inlineStr"/>
-      <c r="O61" s="3" t="inlineStr"/>
+      <c r="M61" s="3" t="n"/>
+      <c r="N61" s="3" t="n"/>
+      <c r="O61" s="3" t="n"/>
       <c r="P61" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
@@ -3941,36 +3907,36 @@
           <t>A temporal interval that is the length of time from start to end of an intervention temporal part</t>
         </is>
       </c>
-      <c r="D62" s="3" t="inlineStr"/>
+      <c r="D62" s="3" t="n"/>
       <c r="E62" s="3" t="inlineStr">
         <is>
           <t>Temporal Interval (renamed from BFO BFO_0000038)</t>
         </is>
       </c>
-      <c r="F62" s="3" t="inlineStr"/>
+      <c r="F62" s="3" t="n"/>
       <c r="G62" s="3" t="inlineStr">
         <is>
           <t>Participants received 3 emails every "2" weeks</t>
         </is>
       </c>
-      <c r="H62" s="3" t="inlineStr"/>
-      <c r="I62" s="3" t="inlineStr"/>
-      <c r="J62" s="3" t="inlineStr"/>
-      <c r="K62" s="3" t="inlineStr"/>
+      <c r="H62" s="3" t="n"/>
+      <c r="I62" s="3" t="n"/>
+      <c r="J62" s="3" t="n"/>
+      <c r="K62" s="3" t="n"/>
       <c r="L62" s="3" t="inlineStr">
         <is>
           <t>intervention temporal part</t>
         </is>
       </c>
-      <c r="M62" s="3" t="inlineStr"/>
-      <c r="N62" s="3" t="inlineStr"/>
-      <c r="O62" s="3" t="inlineStr"/>
+      <c r="M62" s="3" t="n"/>
+      <c r="N62" s="3" t="n"/>
+      <c r="O62" s="3" t="n"/>
       <c r="P62" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q62" s="3" t="inlineStr"/>
+      <c r="Q62" s="3" t="n"/>
       <c r="R62" s="3" t="inlineStr">
         <is>
           <t>CM</t>
@@ -4003,24 +3969,24 @@
           <t>z) interval (remove)</t>
         </is>
       </c>
-      <c r="C63" s="3" t="inlineStr"/>
-      <c r="D63" s="3" t="inlineStr"/>
-      <c r="E63" s="3" t="inlineStr"/>
-      <c r="F63" s="3" t="inlineStr"/>
-      <c r="G63" s="3" t="inlineStr"/>
+      <c r="C63" s="3" t="n"/>
+      <c r="D63" s="3" t="n"/>
+      <c r="E63" s="3" t="n"/>
+      <c r="F63" s="3" t="n"/>
+      <c r="G63" s="3" t="n"/>
       <c r="H63" s="3" t="inlineStr">
         <is>
           <t>This is not annotated but included due to relationship with duration of interval</t>
         </is>
       </c>
-      <c r="I63" s="3" t="inlineStr"/>
-      <c r="J63" s="3" t="inlineStr"/>
-      <c r="K63" s="3" t="inlineStr"/>
-      <c r="L63" s="3" t="inlineStr"/>
-      <c r="M63" s="3" t="inlineStr"/>
-      <c r="N63" s="3" t="inlineStr"/>
-      <c r="O63" s="3" t="inlineStr"/>
-      <c r="P63" s="3" t="inlineStr"/>
+      <c r="I63" s="3" t="n"/>
+      <c r="J63" s="3" t="n"/>
+      <c r="K63" s="3" t="n"/>
+      <c r="L63" s="3" t="n"/>
+      <c r="M63" s="3" t="n"/>
+      <c r="N63" s="3" t="n"/>
+      <c r="O63" s="3" t="n"/>
+      <c r="P63" s="3" t="n"/>
       <c r="Q63" s="3" t="inlineStr">
         <is>
           <t>entity added so duration of interval can be specified. not sure what parent/relationships should be</t>
@@ -4041,7 +4007,7 @@
           <t>JH, SM, RW</t>
         </is>
       </c>
-      <c r="U63" s="3" t="inlineStr"/>
+      <c r="U63" s="3" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
@@ -4059,7 +4025,7 @@
           <t>An attribute of a BCI schedule of delivery that is how often intervention temporal parts occur within a BCI.</t>
         </is>
       </c>
-      <c r="D64" s="3" t="inlineStr"/>
+      <c r="D64" s="3" t="n"/>
       <c r="E64" s="3" t="inlineStr">
         <is>
           <t>process attribute</t>
@@ -4070,7 +4036,7 @@
           <t>Contact events are intervention temporal parts so this entity also describes the frequency of contact events.</t>
         </is>
       </c>
-      <c r="G64" s="3" t="inlineStr"/>
+      <c r="G64" s="3" t="n"/>
       <c r="H64" s="3" t="inlineStr">
         <is>
           <t>This is used to capture descriptions of the frequency of contact events within a part. 
@@ -4078,23 +4044,23 @@
 intervention sessions took place "weekly" at the participants home; participants received a call from the interventionist "every two weeks"</t>
         </is>
       </c>
-      <c r="I64" s="3" t="inlineStr"/>
-      <c r="J64" s="3" t="inlineStr"/>
-      <c r="K64" s="3" t="inlineStr"/>
+      <c r="I64" s="3" t="n"/>
+      <c r="J64" s="3" t="n"/>
+      <c r="K64" s="3" t="n"/>
       <c r="L64" s="3" t="inlineStr">
         <is>
           <t>contact event</t>
         </is>
       </c>
-      <c r="M64" s="3" t="inlineStr"/>
-      <c r="N64" s="3" t="inlineStr"/>
-      <c r="O64" s="3" t="inlineStr"/>
+      <c r="M64" s="3" t="n"/>
+      <c r="N64" s="3" t="n"/>
+      <c r="O64" s="3" t="n"/>
       <c r="P64" s="3" t="inlineStr">
         <is>
           <t>Mean;Minimum;Maximum;Median</t>
         </is>
       </c>
-      <c r="Q64" s="3" t="inlineStr"/>
+      <c r="Q64" s="3" t="n"/>
       <c r="R64" s="3" t="inlineStr">
         <is>
           <t>CM</t>

--- a/Schedule/BCIO_Schedule.xlsx
+++ b/Schedule/BCIO_Schedule.xlsx
@@ -1518,7 +1518,7 @@
       <c r="N18" s="2" t="n"/>
       <c r="O18" s="2" t="n"/>
       <c r="P18" s="2" t="n"/>
-      <c r="Q18" s="2" t="inlineStr"/>
+      <c r="Q18" s="2" t="n"/>
       <c r="R18" s="2" t="inlineStr">
         <is>
           <t>CM; JH; PS</t>
@@ -3080,12 +3080,8 @@
       </c>
       <c r="I48" s="2" t="n"/>
       <c r="J48" s="2" t="n"/>
-      <c r="K48" s="2" t="n"/>
-      <c r="L48" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BCI attribute </t>
-        </is>
-      </c>
+      <c r="K48" s="2" t="inlineStr"/>
+      <c r="L48" s="2" t="inlineStr"/>
       <c r="M48" s="2" t="inlineStr">
         <is>
           <t>BCI schedule of delivery</t>
